--- a/covid_ita.xlsx
+++ b/covid_ita.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carpaneto\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F946180A-4F85-40EC-B746-05F47DBFF31C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22FC79F2-8491-4A94-8AC5-C24ABF3D0604}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="3" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dati" sheetId="1" r:id="rId1"/>
@@ -24,9 +24,9 @@
     <sheet name="Tamponi" sheetId="9" r:id="rId9"/>
     <sheet name="Analisi-pos" sheetId="10" r:id="rId10"/>
     <sheet name="Analisi-dead" sheetId="11" r:id="rId11"/>
+    <sheet name="Coeff stime" sheetId="12" r:id="rId12"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="38">
   <si>
     <t>data</t>
   </si>
@@ -149,6 +149,12 @@
   </si>
   <si>
     <t>attualmente_positivi'</t>
+  </si>
+  <si>
+    <t>Coeff positivi</t>
+  </si>
+  <si>
+    <t>Coeff morti</t>
   </si>
 </sst>
 </file>
@@ -373,7 +379,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -408,6 +414,10 @@
     <xf numFmtId="2" fontId="0" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="18">
@@ -1794,6 +1804,9 @@
                 <c:pt idx="33">
                   <c:v>43918</c:v>
                 </c:pt>
+                <c:pt idx="34">
+                  <c:v>43919</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -1901,6 +1914,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>771</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>760</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2047,6 +2063,9 @@
                 <c:pt idx="33">
                   <c:v>43918</c:v>
                 </c:pt>
+                <c:pt idx="34">
+                  <c:v>43919</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -2151,6 +2170,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>-625</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-11</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2293,6 +2315,9 @@
                 <c:pt idx="33">
                   <c:v>43918</c:v>
                 </c:pt>
+                <c:pt idx="34">
+                  <c:v>43919</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -2394,6 +2419,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>-257</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>614</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2774,6 +2802,9 @@
                 <c:pt idx="33">
                   <c:v>43918</c:v>
                 </c:pt>
+                <c:pt idx="34">
+                  <c:v>43919</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -2884,6 +2915,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>70065</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>73880</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3030,6 +3064,9 @@
                 <c:pt idx="33">
                   <c:v>43918</c:v>
                 </c:pt>
+                <c:pt idx="34">
+                  <c:v>43919</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -3137,6 +3174,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>3651</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3815</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3279,6 +3319,9 @@
                 <c:pt idx="33">
                   <c:v>43918</c:v>
                 </c:pt>
+                <c:pt idx="34">
+                  <c:v>43919</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -3383,6 +3426,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>-750</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>164</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3529,6 +3575,9 @@
                 <c:pt idx="33">
                   <c:v>43918</c:v>
                 </c:pt>
+                <c:pt idx="34">
+                  <c:v>43919</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -3630,6 +3679,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>-659</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>914</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4001,6 +4053,9 @@
                 <c:pt idx="33">
                   <c:v>43918</c:v>
                 </c:pt>
+                <c:pt idx="34">
+                  <c:v>43919</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -4108,6 +4163,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>3651</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3815</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4254,6 +4312,9 @@
                 <c:pt idx="33">
                   <c:v>43918</c:v>
                 </c:pt>
+                <c:pt idx="34">
+                  <c:v>43919</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -4358,6 +4419,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>-750</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>164</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4500,6 +4564,9 @@
                 <c:pt idx="33">
                   <c:v>43918</c:v>
                 </c:pt>
+                <c:pt idx="34">
+                  <c:v>43919</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -4601,6 +4668,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>-659</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>914</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5006,6 +5076,9 @@
                 <c:pt idx="33">
                   <c:v>43918</c:v>
                 </c:pt>
+                <c:pt idx="34">
+                  <c:v>43919</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -5116,6 +5189,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>70065</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>73880</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5465,6 +5541,9 @@
                 <c:pt idx="33">
                   <c:v>43918</c:v>
                 </c:pt>
+                <c:pt idx="34">
+                  <c:v>43919</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -5575,6 +5654,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>39533</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>42588</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5721,6 +5803,9 @@
                 <c:pt idx="33">
                   <c:v>43918</c:v>
                 </c:pt>
+                <c:pt idx="34">
+                  <c:v>43919</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -5828,6 +5913,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>2880</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3055</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5970,6 +6058,9 @@
                 <c:pt idx="33">
                   <c:v>43918</c:v>
                 </c:pt>
+                <c:pt idx="34">
+                  <c:v>43919</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -6074,6 +6165,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>-125</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>175</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6220,6 +6314,9 @@
                 <c:pt idx="33">
                   <c:v>43918</c:v>
                 </c:pt>
+                <c:pt idx="34">
+                  <c:v>43919</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -6321,6 +6418,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>-402</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>300</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6692,6 +6792,9 @@
                 <c:pt idx="33">
                   <c:v>43918</c:v>
                 </c:pt>
+                <c:pt idx="34">
+                  <c:v>43919</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -6799,6 +6902,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>2880</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3055</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6945,6 +7051,9 @@
                 <c:pt idx="33">
                   <c:v>43918</c:v>
                 </c:pt>
+                <c:pt idx="34">
+                  <c:v>43919</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -7049,6 +7158,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>-125</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>175</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7191,6 +7303,9 @@
                 <c:pt idx="33">
                   <c:v>43918</c:v>
                 </c:pt>
+                <c:pt idx="34">
+                  <c:v>43919</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -7292,6 +7407,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>-402</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>300</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7708,6 +7826,9 @@
                 <c:pt idx="33">
                   <c:v>43918</c:v>
                 </c:pt>
+                <c:pt idx="34">
+                  <c:v>43919</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -7818,6 +7939,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>429526</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>454030</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8200,6 +8324,9 @@
                 <c:pt idx="33">
                   <c:v>43918</c:v>
                 </c:pt>
+                <c:pt idx="34">
+                  <c:v>43919</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -8307,6 +8434,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>35447</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>24504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8700,6 +8830,9 @@
                 <c:pt idx="33">
                   <c:v>43918</c:v>
                 </c:pt>
+                <c:pt idx="34">
+                  <c:v>43919</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -8810,6 +8943,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>4.6449303572973442</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>4.647708544462529</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8956,6 +9092,9 @@
                 <c:pt idx="33">
                   <c:v>43918</c:v>
                 </c:pt>
+                <c:pt idx="34">
+                  <c:v>43919</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -9066,6 +9205,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>6.1303932063084279</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>6.1455062263129401</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9494,6 +9636,9 @@
                 <c:pt idx="33">
                   <c:v>43918</c:v>
                 </c:pt>
+                <c:pt idx="34">
+                  <c:v>43919</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -9604,6 +9749,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>21.528848079045272</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>21.515979120322445</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9750,6 +9898,9 @@
                 <c:pt idx="34">
                   <c:v>43918</c:v>
                 </c:pt>
+                <c:pt idx="35">
+                  <c:v>43919</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -9860,6 +10011,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>16.312167365887049</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>16.272052507543552</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10252,6 +10406,9 @@
                 <c:pt idx="33">
                   <c:v>43918</c:v>
                 </c:pt>
+                <c:pt idx="34">
+                  <c:v>43919</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -10359,6 +10516,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>5974</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>5217</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10505,6 +10665,9 @@
                 <c:pt idx="33">
                   <c:v>43918</c:v>
                 </c:pt>
+                <c:pt idx="34">
+                  <c:v>43919</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -10609,6 +10772,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-757</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10751,6 +10917,9 @@
                 <c:pt idx="33">
                   <c:v>43918</c:v>
                 </c:pt>
+                <c:pt idx="34">
+                  <c:v>43919</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -10852,6 +11021,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>209</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-772</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11349,6 +11521,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>70065</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>73880</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12767,6 +12942,9 @@
                 <c:pt idx="33">
                   <c:v>70065</c:v>
                 </c:pt>
+                <c:pt idx="34">
+                  <c:v>73880</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -13241,6 +13419,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>70065</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>73880</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14679,6 +14860,9 @@
                 <c:pt idx="33">
                   <c:v>229.75089534730068</c:v>
                 </c:pt>
+                <c:pt idx="34">
+                  <c:v>588.45974502580066</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -15156,6 +15340,9 @@
                 <c:pt idx="33">
                   <c:v>10023</c:v>
                 </c:pt>
+                <c:pt idx="34">
+                  <c:v>10779</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -15319,118 +15506,118 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="38"/>
                 <c:pt idx="0">
-                  <c:v>69.893799153872592</c:v>
+                  <c:v>69.896596774096395</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>82.790470802292674</c:v>
+                  <c:v>82.797708071305749</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>98.054802818765694</c:v>
+                  <c:v>98.068874921805403</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>116.11663640745364</c:v>
+                  <c:v>116.14100899183929</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>137.48191014674288</c:v>
+                  <c:v>137.52156476139689</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>162.74535397838051</c:v>
+                  <c:v>162.80741175231387</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>192.60498654507296</c:v>
+                  <c:v>192.6995790655499</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>227.87854131902176</c:v>
+                  <c:v>228.02002319792715</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>269.52189434126319</c:v>
+                  <c:v>269.73052625080629</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>318.64947871467035</c:v>
+                  <c:v>318.95375530353863</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>376.55653481055248</c:v>
+                  <c:v>376.99639191612818</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>444.74284360197379</c:v>
+                  <c:v>445.37405692574856</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>524.93730337297586</c:v>
+                  <c:v>525.83748965801283</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>619.12231435474973</c:v>
+                  <c:v>620.39906879211458</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>729.5564080348878</c:v>
+                  <c:v>731.35825893577692</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>858.79287782634742</c:v>
+                  <c:v>861.32390844453823</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1009.6913259319738</c:v>
+                  <c:v>1013.2304936757971</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1185.4180501327489</c:v>
+                  <c:v>1190.3444039449357</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1389.4301051841926</c:v>
+                  <c:v>1396.2552243542882</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1625.4367987208639</c:v>
+                  <c:v>1634.8457893100051</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1897.3315196342078</c:v>
+                  <c:v>1910.2337176880035</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2209.0864559877905</c:v>
+                  <c:v>2226.6764790593998</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2564.603366703067</c:v>
+                  <c:v>2588.432183539202</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2967.5156488520984</c:v>
+                  <c:v>2999.5697597742546</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>3420.9410270668745</c:v>
+                  <c:v>3463.7255733927159</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>3927.1906721204164</c:v>
+                  <c:v>3983.8093579535293</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>4487.4494235797074</c:v>
+                  <c:v>4561.6707982035314</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>5101.4523388582447</c:v>
+                  <c:v>5197.7488283701468</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>5767.1933584230728</c:v>
+                  <c:v>5890.7373704680149</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>6480.7098201110794</c:v>
+                  <c:v>6637.3114353405344</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>7235.9886269790468</c:v>
+                  <c:v>7431.9629431107714</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>8025.0331220903608</c:v>
+                  <c:v>8266.9928192632506</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>8838.1127802135688</c:v>
+                  <c:v>9132.6924878181326</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>9664.1921090628566</c:v>
+                  <c:v>10017.723903383967</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>10491.505319105838</c:v>
+                  <c:v>10909.676252149678</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>11308.216410808436</c:v>
+                  <c:v>11795.746080760066</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>12103.087614583919</c:v>
+                  <c:v>12663.46395231572</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>12866.077449663342</c:v>
+                  <c:v>13501.381476680228</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15612,115 +15799,115 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="38"/>
                 <c:pt idx="1">
-                  <c:v>128.96671648420082</c:v>
+                  <c:v>129.01111297209354</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>152.6433201647302</c:v>
+                  <c:v>152.71166850499654</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>180.61833588687946</c:v>
+                  <c:v>180.72134070033883</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>213.65273739289236</c:v>
+                  <c:v>213.80555769557603</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>252.6344383163763</c:v>
+                  <c:v>252.8584699091698</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>298.59632566692454</c:v>
+                  <c:v>298.9216731323603</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>352.73554773948803</c:v>
+                  <c:v>353.20444132377247</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>416.43353022241428</c:v>
+                  <c:v>417.10503052879147</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>491.2758437340716</c:v>
+                  <c:v>492.23229052732336</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>579.07056095882126</c:v>
+                  <c:v>580.42636612589547</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>681.86308791421311</c:v>
+                  <c:v>683.77665009620387</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>801.94459771002073</c:v>
+                  <c:v>804.63432732264266</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>941.85010981773871</c:v>
+                  <c:v>945.61579134101748</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1104.3409368013806</c:v>
+                  <c:v>1109.5919014366234</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1292.3646979145963</c:v>
+                  <c:v>1299.6564950876132</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1508.9844810562636</c:v>
+                  <c:v>1519.0658523125887</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1757.2672420077515</c:v>
+                  <c:v>1771.1391026913861</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2040.1205505144367</c:v>
+                  <c:v>2059.1082040935248</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2360.0669353667126</c:v>
+                  <c:v>2385.905649557169</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2718.9472091334392</c:v>
+                  <c:v>2753.8792837799838</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>3117.5493635358271</c:v>
+                  <c:v>3164.4276137139627</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>3555.1691071527648</c:v>
+                  <c:v>3617.5570447980226</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>4029.122821490314</c:v>
+                  <c:v>4111.3757623505262</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>4534.2537821477617</c:v>
+                  <c:v>4641.5581361846125</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>5062.4964505354183</c:v>
+                  <c:v>5200.8378456081346</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>5602.5875145929103</c:v>
+                  <c:v>5778.6144025000203</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>6140.0291527853733</c:v>
+                  <c:v>6360.7803016661546</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>6657.4101956482809</c:v>
+                  <c:v>6929.8854209786805</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>7135.1646168800653</c:v>
+                  <c:v>7465.7406487251956</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>7552.7880686796743</c:v>
+                  <c:v>7946.51507770237</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>7890.4449511131406</c:v>
+                  <c:v>8350.2987615247912</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>8130.7965812320799</c:v>
+                  <c:v>8656.9966855488201</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>8260.7932884928778</c:v>
+                  <c:v>8850.3141556583432</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>8273.1321004298115</c:v>
+                  <c:v>8919.5234876571158</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>8167.1109170259842</c:v>
+                  <c:v>8860.6982861038705</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>7948.7120377548308</c:v>
+                  <c:v>8677.1787155565471</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>7629.8983507942285</c:v>
+                  <c:v>8379.175243645077</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16306,6 +16493,9 @@
                 <c:pt idx="33">
                   <c:v>10023</c:v>
                 </c:pt>
+                <c:pt idx="34">
+                  <c:v>10779</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -16550,199 +16740,199 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="65"/>
                 <c:pt idx="0">
-                  <c:v>69.893799153872592</c:v>
+                  <c:v>69.896596774096395</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>82.790470802292674</c:v>
+                  <c:v>82.797708071305749</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>98.054802818765694</c:v>
+                  <c:v>98.068874921805403</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>116.11663640745364</c:v>
+                  <c:v>116.14100899183929</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>137.48191014674288</c:v>
+                  <c:v>137.52156476139689</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>162.74535397838051</c:v>
+                  <c:v>162.80741175231387</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>192.60498654507296</c:v>
+                  <c:v>192.6995790655499</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>227.87854131902176</c:v>
+                  <c:v>228.02002319792715</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>269.52189434126319</c:v>
+                  <c:v>269.73052625080629</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>318.64947871467035</c:v>
+                  <c:v>318.95375530353863</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>376.55653481055248</c:v>
+                  <c:v>376.99639191612818</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>444.74284360197379</c:v>
+                  <c:v>445.37405692574856</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>524.93730337297586</c:v>
+                  <c:v>525.83748965801283</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>619.12231435474973</c:v>
+                  <c:v>620.39906879211458</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>729.5564080348878</c:v>
+                  <c:v>731.35825893577692</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>858.79287782634742</c:v>
+                  <c:v>861.32390844453823</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1009.6913259319738</c:v>
+                  <c:v>1013.2304936757971</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1185.4180501327489</c:v>
+                  <c:v>1190.3444039449357</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1389.4301051841926</c:v>
+                  <c:v>1396.2552243542882</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1625.4367987208639</c:v>
+                  <c:v>1634.8457893100051</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1897.3315196342078</c:v>
+                  <c:v>1910.2337176880035</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2209.0864559877905</c:v>
+                  <c:v>2226.6764790593998</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2564.603366703067</c:v>
+                  <c:v>2588.432183539202</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2967.5156488520984</c:v>
+                  <c:v>2999.5697597742546</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>3420.9410270668745</c:v>
+                  <c:v>3463.7255733927159</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>3927.1906721204164</c:v>
+                  <c:v>3983.8093579535293</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>4487.4494235797074</c:v>
+                  <c:v>4561.6707982035314</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>5101.4523388582447</c:v>
+                  <c:v>5197.7488283701468</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>5767.1933584230728</c:v>
+                  <c:v>5890.7373704680149</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>6480.7098201110794</c:v>
+                  <c:v>6637.3114353405344</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>7235.9886269790468</c:v>
+                  <c:v>7431.9629431107714</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>8025.0331220903608</c:v>
+                  <c:v>8266.9928192632506</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>8838.1127802135688</c:v>
+                  <c:v>9132.6924878181326</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>9664.1921090628566</c:v>
+                  <c:v>10017.723903383967</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>10491.505319105838</c:v>
+                  <c:v>10909.676252149678</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>11308.216410808436</c:v>
+                  <c:v>11795.746080760066</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>12103.087614583919</c:v>
+                  <c:v>12663.46395231572</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>12866.077449663342</c:v>
+                  <c:v>13501.381476680228</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>13588.803539842638</c:v>
+                  <c:v>14299.640453068761</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>14264.830678238301</c:v>
+                  <c:v>15050.368559914068</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>14889.774485600659</c:v>
+                  <c:v>15747.877072509587</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>15461.23805982058</c:v>
+                  <c:v>16388.667413802246</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>15978.617998801123</c:v>
+                  <c:v>16971.278076272469</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>16442.825005084276</c:v>
+                  <c:v>17496.017792797407</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>16855.963825737646</c:v>
+                  <c:v>17964.634436338896</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>17221.010280241419</c:v>
+                  <c:v>18379.964240760815</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>17541.51285915012</c:v>
+                  <c:v>18745.595993500992</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>17821.335654295501</c:v>
+                  <c:v>19065.573203362124</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>18064.450078999096</c:v>
+                  <c:v>19344.146383687792</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>18274.775842610081</c:v>
+                  <c:v>19585.578914365</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>18456.067085881281</c:v>
+                  <c:v>19794.003912611654</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>18611.837132628865</c:v>
+                  <c:v>19973.325973531508</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>18745.314446475961</c:v>
+                  <c:v>20127.16003546397</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>18859.422564904489</c:v>
+                  <c:v>20258.799394720634</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>18956.777566114659</c:v>
+                  <c:v>20371.205507167284</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>19039.697674525287</c:v>
+                  <c:v>20467.013255369406</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>19110.220708517416</c:v>
+                  <c:v>20548.546542033957</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>19170.126091277176</c:v>
+                  <c:v>20617.840215665983</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>19220.959020379301</c:v>
+                  <c:v>20676.665348247563</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>19264.055105061096</c:v>
+                  <c:v>20726.555729370077</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>19300.564338036507</c:v>
+                  <c:v>20768.834113317804</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>19331.473689855655</c:v>
+                  <c:v>20804.637270596504</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>19357.627921511281</c:v>
+                  <c:v>20834.939277021032</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>19379.748428502113</c:v>
+                  <c:v>20860.572747223094</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>19398.450077782141</c:v>
+                  <c:v>20882.247909134818</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -17005,196 +17195,196 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="65"/>
                 <c:pt idx="1">
-                  <c:v>128.96671648420082</c:v>
+                  <c:v>129.01111297209354</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>152.6433201647302</c:v>
+                  <c:v>152.71166850499654</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>180.61833588687946</c:v>
+                  <c:v>180.72134070033883</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>213.65273739289236</c:v>
+                  <c:v>213.80555769557603</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>252.6344383163763</c:v>
+                  <c:v>252.8584699091698</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>298.59632566692454</c:v>
+                  <c:v>298.9216731323603</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>352.73554773948803</c:v>
+                  <c:v>353.20444132377247</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>416.43353022241428</c:v>
+                  <c:v>417.10503052879147</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>491.2758437340716</c:v>
+                  <c:v>492.23229052732336</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>579.07056095882126</c:v>
+                  <c:v>580.42636612589547</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>681.86308791421311</c:v>
+                  <c:v>683.77665009620387</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>801.94459771002073</c:v>
+                  <c:v>804.63432732264266</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>941.85010981773871</c:v>
+                  <c:v>945.61579134101748</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1104.3409368013806</c:v>
+                  <c:v>1109.5919014366234</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1292.3646979145963</c:v>
+                  <c:v>1299.6564950876132</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1508.9844810562636</c:v>
+                  <c:v>1519.0658523125887</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1757.2672420077515</c:v>
+                  <c:v>1771.1391026913861</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2040.1205505144367</c:v>
+                  <c:v>2059.1082040935248</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2360.0669353667126</c:v>
+                  <c:v>2385.905649557169</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2718.9472091334392</c:v>
+                  <c:v>2753.8792837799838</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>3117.5493635358271</c:v>
+                  <c:v>3164.4276137139627</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>3555.1691071527648</c:v>
+                  <c:v>3617.5570447980226</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>4029.122821490314</c:v>
+                  <c:v>4111.3757623505262</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>4534.2537821477617</c:v>
+                  <c:v>4641.5581361846125</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>5062.4964505354183</c:v>
+                  <c:v>5200.8378456081346</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>5602.5875145929103</c:v>
+                  <c:v>5778.6144025000203</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>6140.0291527853733</c:v>
+                  <c:v>6360.7803016661546</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>6657.4101956482809</c:v>
+                  <c:v>6929.8854209786805</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>7135.1646168800653</c:v>
+                  <c:v>7465.7406487251956</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>7552.7880686796743</c:v>
+                  <c:v>7946.51507770237</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>7890.4449511131406</c:v>
+                  <c:v>8350.2987615247912</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>8130.7965812320799</c:v>
+                  <c:v>8656.9966855488201</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>8260.7932884928778</c:v>
+                  <c:v>8850.3141556583432</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>8273.1321004298115</c:v>
+                  <c:v>8919.5234876571158</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>8167.1109170259842</c:v>
+                  <c:v>8860.6982861038705</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>7948.7120377548308</c:v>
+                  <c:v>8677.1787155565471</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>7629.8983507942285</c:v>
+                  <c:v>8379.175243645077</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>7227.2609017929608</c:v>
+                  <c:v>7982.5897638853348</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>6760.271383956624</c:v>
+                  <c:v>7507.2810684530668</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>6249.4380736235871</c:v>
+                  <c:v>6975.0851259551928</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>5714.635742199207</c:v>
+                  <c:v>6407.9034129265892</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>5173.7993898054265</c:v>
+                  <c:v>5826.1066247022245</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>4642.0700628315353</c:v>
+                  <c:v>5247.3971652493856</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>4131.388206533702</c:v>
+                  <c:v>4686.1664354148888</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>3650.4645450377211</c:v>
+                  <c:v>4153.2980442191911</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>3205.0257890870125</c:v>
+                  <c:v>3656.3175274017703</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>2798.2279514538095</c:v>
+                  <c:v>3199.77209861132</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>2431.1442470359543</c:v>
+                  <c:v>2785.7318032566764</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>2103.2576361098472</c:v>
+                  <c:v>2414.3253067720798</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>1812.9124327120007</c:v>
+                  <c:v>2084.2499824665356</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>1557.7004674758427</c:v>
+                  <c:v>1793.2206091985427</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>1334.773138470955</c:v>
+                  <c:v>1538.3406193246265</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>1141.0811842852854</c:v>
+                  <c:v>1316.3935925666374</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>973.55001210169576</c:v>
+                  <c:v>1124.0611244664979</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>829.20108410628018</c:v>
+                  <c:v>958.07748202121729</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>705.23033992129058</c:v>
+                  <c:v>815.33286664551269</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>599.05382759759959</c:v>
+                  <c:v>692.93673632026184</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>508.3292910212549</c:v>
+                  <c:v>588.25132581579965</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>430.96084681794309</c:v>
+                  <c:v>498.90381122513645</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>365.09232975411578</c:v>
+                  <c:v>422.78383947726979</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>309.0935181914756</c:v>
+                  <c:v>358.03157278700382</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>261.54231655626063</c:v>
+                  <c:v>303.02006424528372</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>221.20506990831927</c:v>
+                  <c:v>256.33470202061289</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>187.01649280028505</c:v>
+                  <c:v>216.7516191172399</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -17648,106 +17838,109 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="65"/>
                 <c:pt idx="0">
-                  <c:v>-62.893799153872592</c:v>
+                  <c:v>-62.896596774096395</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-72.790470802292674</c:v>
+                  <c:v>-72.797708071305749</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-86.054802818765694</c:v>
+                  <c:v>-86.068874921805403</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-99.11663640745364</c:v>
+                  <c:v>-99.141008991839286</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-116.48191014674288</c:v>
+                  <c:v>-116.52156476139689</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-133.74535397838051</c:v>
+                  <c:v>-133.80741175231387</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-158.60498654507296</c:v>
+                  <c:v>-158.6995790655499</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-175.87854131902176</c:v>
+                  <c:v>-176.02002319792715</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-190.52189434126319</c:v>
+                  <c:v>-190.73052625080629</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-211.64947871467035</c:v>
+                  <c:v>-211.95375530353863</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-228.55653481055248</c:v>
+                  <c:v>-228.99639191612818</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-247.74284360197379</c:v>
+                  <c:v>-248.37405692574856</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-291.93730337297586</c:v>
+                  <c:v>-292.83748965801283</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-253.12231435474973</c:v>
+                  <c:v>-254.39906879211458</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-266.5564080348878</c:v>
+                  <c:v>-268.35825893577692</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-227.79287782634742</c:v>
+                  <c:v>-230.32390844453823</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-182.69132593197378</c:v>
+                  <c:v>-186.23049367579711</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-169.41805013274893</c:v>
+                  <c:v>-174.34440394493572</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-123.4301051841926</c:v>
+                  <c:v>-130.2552243542882</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-184.43679872086386</c:v>
+                  <c:v>-193.8457893100051</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-88.33151963420778</c:v>
+                  <c:v>-101.23371768800348</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-51.086455987790487</c:v>
+                  <c:v>-68.676479059399753</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-61.603366703066968</c:v>
+                  <c:v>-85.432183539202015</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>10.484351147901634</c:v>
+                  <c:v>-21.569759774254635</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-15.94102706687454</c:v>
+                  <c:v>-58.725573392715887</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>104.80932787958363</c:v>
+                  <c:v>48.190642046470657</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>337.5505764202926</c:v>
+                  <c:v>263.32920179646862</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>374.54766114175527</c:v>
+                  <c:v>278.25117162985316</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>309.80664157692718</c:v>
+                  <c:v>186.26262953198511</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>339.29017988892065</c:v>
+                  <c:v>182.68856465946556</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>267.01137302095322</c:v>
+                  <c:v>71.037056889228552</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>139.96687790963915</c:v>
+                  <c:v>-101.99281926325057</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>295.88721978643116</c:v>
+                  <c:v>1.3075121818674234</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>358.80789093714338</c:v>
+                  <c:v>5.2760966160331009</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-130.67625214967848</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -18139,6 +18332,9 @@
                 <c:pt idx="33">
                   <c:v>43918</c:v>
                 </c:pt>
+                <c:pt idx="34">
+                  <c:v>43919</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -18249,6 +18445,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>92472</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>97689</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -18633,6 +18832,9 @@
                 <c:pt idx="33">
                   <c:v>43918</c:v>
                 </c:pt>
+                <c:pt idx="34">
+                  <c:v>43919</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -18743,6 +18945,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>3856</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3906</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -18889,6 +19094,9 @@
                 <c:pt idx="34">
                   <c:v>43918</c:v>
                 </c:pt>
+                <c:pt idx="35">
+                  <c:v>43919</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -18996,6 +19204,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>124</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>50</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -19328,6 +19539,9 @@
                 <c:pt idx="34">
                   <c:v>43918</c:v>
                 </c:pt>
+                <c:pt idx="35">
+                  <c:v>43919</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -19429,6 +19643,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-78</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -19800,6 +20017,9 @@
                 <c:pt idx="33">
                   <c:v>43918</c:v>
                 </c:pt>
+                <c:pt idx="34">
+                  <c:v>43919</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -19910,6 +20130,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>12384</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>13030</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -20056,6 +20279,9 @@
                 <c:pt idx="33">
                   <c:v>43918</c:v>
                 </c:pt>
+                <c:pt idx="34">
+                  <c:v>43919</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -20163,6 +20389,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>1434</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>646</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -20305,6 +20534,9 @@
                 <c:pt idx="33">
                   <c:v>43918</c:v>
                 </c:pt>
+                <c:pt idx="34">
+                  <c:v>43919</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -20409,6 +20641,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>845</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-788</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -20555,6 +20790,9 @@
                 <c:pt idx="33">
                   <c:v>43918</c:v>
                 </c:pt>
+                <c:pt idx="34">
+                  <c:v>43919</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -20656,6 +20894,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>1255</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-1633</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -21036,6 +21277,9 @@
                 <c:pt idx="33">
                   <c:v>43918</c:v>
                 </c:pt>
+                <c:pt idx="34">
+                  <c:v>43919</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -21143,6 +21387,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>1434</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>646</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -21289,6 +21536,9 @@
                 <c:pt idx="33">
                   <c:v>43918</c:v>
                 </c:pt>
+                <c:pt idx="34">
+                  <c:v>43919</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -21393,6 +21643,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>845</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-788</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -21535,6 +21788,9 @@
                 <c:pt idx="33">
                   <c:v>43918</c:v>
                 </c:pt>
+                <c:pt idx="34">
+                  <c:v>43919</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -21636,6 +21892,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>1255</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-1633</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -22016,6 +22275,9 @@
                 <c:pt idx="33">
                   <c:v>43918</c:v>
                 </c:pt>
+                <c:pt idx="34">
+                  <c:v>43919</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -22123,6 +22385,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>889</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>756</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -22269,6 +22534,9 @@
                 <c:pt idx="33">
                   <c:v>43918</c:v>
                 </c:pt>
+                <c:pt idx="34">
+                  <c:v>43919</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -22373,6 +22641,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>-80</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-133</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -22515,6 +22786,9 @@
                 <c:pt idx="33">
                   <c:v>43918</c:v>
                 </c:pt>
+                <c:pt idx="34">
+                  <c:v>43919</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -22616,6 +22890,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>-387</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-53</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -22996,6 +23273,9 @@
                 <c:pt idx="33">
                   <c:v>43918</c:v>
                 </c:pt>
+                <c:pt idx="34">
+                  <c:v>43919</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -23106,6 +23386,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>10023</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>10779</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -23252,6 +23535,9 @@
                 <c:pt idx="33">
                   <c:v>43918</c:v>
                 </c:pt>
+                <c:pt idx="34">
+                  <c:v>43919</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -23359,6 +23645,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>889</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>756</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -23501,6 +23790,9 @@
                 <c:pt idx="33">
                   <c:v>43918</c:v>
                 </c:pt>
+                <c:pt idx="34">
+                  <c:v>43919</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -23605,6 +23897,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>-80</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-133</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -23751,6 +24046,9 @@
                 <c:pt idx="33">
                   <c:v>43918</c:v>
                 </c:pt>
+                <c:pt idx="34">
+                  <c:v>43919</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -23852,6 +24150,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>-387</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-53</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -24223,6 +24524,9 @@
                 <c:pt idx="33">
                   <c:v>43918</c:v>
                 </c:pt>
+                <c:pt idx="34">
+                  <c:v>43919</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -24333,6 +24637,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>30532</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>31292</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -24479,6 +24786,9 @@
                 <c:pt idx="33">
                   <c:v>43918</c:v>
                 </c:pt>
+                <c:pt idx="34">
+                  <c:v>43919</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -24586,6 +24896,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>771</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>760</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -24728,6 +25041,9 @@
                 <c:pt idx="33">
                   <c:v>43918</c:v>
                 </c:pt>
+                <c:pt idx="34">
+                  <c:v>43919</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -24832,6 +25148,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>-625</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-11</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -24978,6 +25297,9 @@
                 <c:pt idx="33">
                   <c:v>43918</c:v>
                 </c:pt>
+                <c:pt idx="34">
+                  <c:v>43919</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -25079,6 +25401,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>-257</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>614</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -26558,16 +26883,16 @@
   </xdr:absoluteAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>163830</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>163830</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>605790</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>102870</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>41910</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>102870</xdr:rowOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>483870</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>41910</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -27578,9 +27903,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L36"/>
+  <dimension ref="A1:L37"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
@@ -28889,6 +29216,44 @@
         <v>429526</v>
       </c>
     </row>
+    <row r="37" spans="1:12">
+      <c r="A37" s="2">
+        <v>43919</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C37" s="3">
+        <v>27386</v>
+      </c>
+      <c r="D37" s="3">
+        <v>3906</v>
+      </c>
+      <c r="E37" s="3">
+        <v>31292</v>
+      </c>
+      <c r="F37" s="3">
+        <v>42588</v>
+      </c>
+      <c r="G37" s="3">
+        <v>73880</v>
+      </c>
+      <c r="H37" s="3">
+        <v>3815</v>
+      </c>
+      <c r="I37" s="3">
+        <v>13030</v>
+      </c>
+      <c r="J37" s="3">
+        <v>10779</v>
+      </c>
+      <c r="K37" s="3">
+        <v>97689</v>
+      </c>
+      <c r="L37" s="3">
+        <v>454030</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0.39370078740157505" bottom="0.39370078740157505" header="0" footer="0"/>
   <headerFooter>
@@ -28902,8 +29267,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:K149"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2:K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -29005,7 +29370,7 @@
         <v>154.19235441284661</v>
       </c>
       <c r="H4" s="11">
-        <f t="shared" ref="H4:H36" si="2">C4-E4</f>
+        <f t="shared" ref="H4:H37" si="2">C4-E4</f>
         <v>-683.65303461646738</v>
       </c>
       <c r="J4" s="4" t="s">
@@ -30074,6 +30439,14 @@
       <c r="B37" s="10">
         <v>35</v>
       </c>
+      <c r="C37" s="3">
+        <f>Dati!G37</f>
+        <v>73880</v>
+      </c>
+      <c r="D37">
+        <f t="shared" ref="D37" si="7">C37-C36</f>
+        <v>3815</v>
+      </c>
       <c r="E37" s="11">
         <f t="shared" si="5"/>
         <v>73291.540254974199</v>
@@ -30086,6 +30459,10 @@
         <f t="shared" si="4"/>
         <v>3456.2911503215</v>
       </c>
+      <c r="H37" s="11">
+        <f t="shared" si="2"/>
+        <v>588.45974502580066</v>
+      </c>
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="2">
@@ -30715,7 +31092,7 @@
         <v>0</v>
       </c>
       <c r="E67" s="11">
-        <f t="shared" ref="E67:E98" si="7">$K$2/(1+$K$5*EXP(-$K$4*B67))</f>
+        <f t="shared" ref="E67:E98" si="8">$K$2/(1+$K$5*EXP(-$K$4*B67))</f>
         <v>99778.318568093659</v>
       </c>
       <c r="F67" s="11">
@@ -30739,11 +31116,11 @@
         <v>0</v>
       </c>
       <c r="E68" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>99812.9103364779</v>
       </c>
       <c r="F68" s="11">
-        <f t="shared" ref="F68:F99" si="8">(E68-E67)*10</f>
+        <f t="shared" ref="F68:F99" si="9">(E68-E67)*10</f>
         <v>345.91768384241732</v>
       </c>
       <c r="G68" s="11">
@@ -30759,19 +31136,19 @@
         <v>67</v>
       </c>
       <c r="D69">
-        <f t="shared" ref="D69:D132" si="9">C69-C68</f>
+        <f t="shared" ref="D69:D132" si="10">C69-C68</f>
         <v>0</v>
       </c>
       <c r="E69" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>99842.112853404673</v>
       </c>
       <c r="F69" s="11">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>292.0251692677266</v>
       </c>
       <c r="G69" s="11">
-        <f t="shared" ref="G69:G132" si="10">E69-E68</f>
+        <f t="shared" ref="G69:G132" si="11">E69-E68</f>
         <v>29.20251692677266</v>
       </c>
     </row>
@@ -30783,19 +31160,19 @@
         <v>68</v>
       </c>
       <c r="D70">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="E70" s="11">
+        <f t="shared" si="8"/>
+        <v>99866.763282184605</v>
+      </c>
+      <c r="F70" s="11">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="E70" s="11">
-        <f t="shared" si="7"/>
-        <v>99866.763282184605</v>
-      </c>
-      <c r="F70" s="11">
-        <f t="shared" si="8"/>
         <v>246.50428779932554</v>
       </c>
       <c r="G70" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>24.650428779932554</v>
       </c>
     </row>
@@ -30807,19 +31184,19 @@
         <v>69</v>
       </c>
       <c r="D71">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="E71" s="11">
+        <f t="shared" si="8"/>
+        <v>99887.569450081472</v>
+      </c>
+      <c r="F71" s="11">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="E71" s="11">
-        <f t="shared" si="7"/>
-        <v>99887.569450081472</v>
-      </c>
-      <c r="F71" s="11">
-        <f t="shared" si="8"/>
         <v>208.061678968661</v>
       </c>
       <c r="G71" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>20.8061678968661</v>
       </c>
     </row>
@@ -30831,19 +31208,19 @@
         <v>70</v>
       </c>
       <c r="D72">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="E72" s="11">
+        <f t="shared" si="8"/>
+        <v>99905.129625499118</v>
+      </c>
+      <c r="F72" s="11">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="E72" s="11">
-        <f t="shared" si="7"/>
-        <v>99905.129625499118</v>
-      </c>
-      <c r="F72" s="11">
-        <f t="shared" si="8"/>
         <v>175.60175417645951</v>
       </c>
       <c r="G72" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>17.560175417645951</v>
       </c>
     </row>
@@ -30855,19 +31232,19 @@
         <v>71</v>
       </c>
       <c r="D73">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="E73" s="11">
+        <f t="shared" si="8"/>
+        <v>99919.949330119241</v>
+      </c>
+      <c r="F73" s="11">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="E73" s="11">
-        <f t="shared" si="7"/>
-        <v>99919.949330119241</v>
-      </c>
-      <c r="F73" s="11">
-        <f t="shared" si="8"/>
         <v>148.19704620123957</v>
       </c>
       <c r="G73" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>14.819704620123957</v>
       </c>
     </row>
@@ -30879,19 +31256,19 @@
         <v>72</v>
       </c>
       <c r="D74">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="E74" s="11">
+        <f t="shared" si="8"/>
+        <v>99932.45561327484</v>
+      </c>
+      <c r="F74" s="11">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="E74" s="11">
-        <f t="shared" si="7"/>
-        <v>99932.45561327484</v>
-      </c>
-      <c r="F74" s="11">
-        <f t="shared" si="8"/>
         <v>125.06283155598794</v>
       </c>
       <c r="G74" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>12.506283155598794</v>
       </c>
     </row>
@@ -30903,19 +31280,19 @@
         <v>73</v>
       </c>
       <c r="D75">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="E75" s="11">
+        <f t="shared" si="8"/>
+        <v>99943.009159377063</v>
+      </c>
+      <c r="F75" s="11">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="E75" s="11">
-        <f t="shared" si="7"/>
-        <v>99943.009159377063</v>
-      </c>
-      <c r="F75" s="11">
-        <f t="shared" si="8"/>
         <v>105.53546102222754</v>
       </c>
       <c r="G75" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>10.553546102222754</v>
       </c>
     </row>
@@ -30927,19 +31304,19 @@
         <v>74</v>
       </c>
       <c r="D76">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="E76" s="11">
+        <f t="shared" si="8"/>
+        <v>99951.914548641449</v>
+      </c>
+      <c r="F76" s="11">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="E76" s="11">
-        <f t="shared" si="7"/>
-        <v>99951.914548641449</v>
-      </c>
-      <c r="F76" s="11">
-        <f t="shared" si="8"/>
         <v>89.053892643860308</v>
       </c>
       <c r="G76" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>8.9053892643860308</v>
       </c>
     </row>
@@ -30951,19 +31328,19 @@
         <v>75</v>
       </c>
       <c r="D77">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="E77" s="11">
+        <f t="shared" si="8"/>
+        <v>99959.428946590851</v>
+      </c>
+      <c r="F77" s="11">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="E77" s="11">
-        <f t="shared" si="7"/>
-        <v>99959.428946590851</v>
-      </c>
-      <c r="F77" s="11">
-        <f t="shared" si="8"/>
         <v>75.14397949402337</v>
       </c>
       <c r="G77" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>7.514397949402337</v>
       </c>
     </row>
@@ -30975,19 +31352,19 @@
         <v>76</v>
       </c>
       <c r="D78">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="E78" s="11">
+        <f t="shared" si="8"/>
+        <v>99965.769458531679</v>
+      </c>
+      <c r="F78" s="11">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="E78" s="11">
-        <f t="shared" si="7"/>
-        <v>99965.769458531679</v>
-      </c>
-      <c r="F78" s="11">
-        <f t="shared" si="8"/>
         <v>63.405119408271275</v>
       </c>
       <c r="G78" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>6.3405119408271275</v>
       </c>
     </row>
@@ -30999,19 +31376,19 @@
         <v>77</v>
       </c>
       <c r="D79">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="E79" s="11">
+        <f t="shared" si="8"/>
+        <v>99971.119350980123</v>
+      </c>
+      <c r="F79" s="11">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="E79" s="11">
-        <f t="shared" si="7"/>
-        <v>99971.119350980123</v>
-      </c>
-      <c r="F79" s="11">
-        <f t="shared" si="8"/>
         <v>53.498924484447343</v>
       </c>
       <c r="G79" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>5.3498924484447343</v>
       </c>
     </row>
@@ -31023,19 +31400,19 @@
         <v>78</v>
       </c>
       <c r="D80">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="E80" s="11">
+        <f t="shared" si="8"/>
+        <v>99975.633312370497</v>
+      </c>
+      <c r="F80" s="11">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="E80" s="11">
-        <f t="shared" si="7"/>
-        <v>99975.633312370497</v>
-      </c>
-      <c r="F80" s="11">
-        <f t="shared" si="8"/>
         <v>45.139613903738791</v>
       </c>
       <c r="G80" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>4.5139613903738791</v>
       </c>
     </row>
@@ -31047,19 +31424,19 @@
         <v>79</v>
       </c>
       <c r="D81">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="E81" s="11">
+        <f t="shared" si="8"/>
+        <v>99979.441899815793</v>
+      </c>
+      <c r="F81" s="11">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="E81" s="11">
-        <f t="shared" si="7"/>
-        <v>99979.441899815793</v>
-      </c>
-      <c r="F81" s="11">
-        <f t="shared" si="8"/>
         <v>38.085874452954158</v>
       </c>
       <c r="G81" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>3.8085874452954158</v>
       </c>
     </row>
@@ -31071,19 +31448,19 @@
         <v>80</v>
       </c>
       <c r="D82">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="E82" s="11">
+        <f t="shared" si="8"/>
+        <v>99982.655296727666</v>
+      </c>
+      <c r="F82" s="11">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="E82" s="11">
-        <f t="shared" si="7"/>
-        <v>99982.655296727666</v>
-      </c>
-      <c r="F82" s="11">
-        <f t="shared" si="8"/>
         <v>32.133969118731329</v>
       </c>
       <c r="G82" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>3.2133969118731329</v>
       </c>
     </row>
@@ -31095,19 +31472,19 @@
         <v>81</v>
       </c>
       <c r="D83">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="E83" s="11">
+        <f t="shared" si="8"/>
+        <v>99985.366487294348</v>
+      </c>
+      <c r="F83" s="11">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="E83" s="11">
-        <f t="shared" si="7"/>
-        <v>99985.366487294348</v>
-      </c>
-      <c r="F83" s="11">
-        <f t="shared" si="8"/>
         <v>27.111905666824896</v>
       </c>
       <c r="G83" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>2.7111905666824896</v>
       </c>
     </row>
@@ -31119,19 +31496,19 @@
         <v>82</v>
       </c>
       <c r="D84">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="E84" s="11">
+        <f t="shared" si="8"/>
+        <v>99987.6539377421</v>
+      </c>
+      <c r="F84" s="11">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="E84" s="11">
-        <f t="shared" si="7"/>
-        <v>99987.6539377421</v>
-      </c>
-      <c r="F84" s="11">
-        <f t="shared" si="8"/>
         <v>22.874504477513256</v>
       </c>
       <c r="G84" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>2.2874504477513256</v>
       </c>
     </row>
@@ -31143,19 +31520,19 @@
         <v>83</v>
       </c>
       <c r="D85">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="E85" s="11">
+        <f t="shared" si="8"/>
+        <v>99989.583860605097</v>
+      </c>
+      <c r="F85" s="11">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="E85" s="11">
-        <f t="shared" si="7"/>
-        <v>99989.583860605097</v>
-      </c>
-      <c r="F85" s="11">
-        <f t="shared" si="8"/>
         <v>19.299228629970457</v>
       </c>
       <c r="G85" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.9299228629970457</v>
       </c>
     </row>
@@ -31167,19 +31544,19 @@
         <v>84</v>
       </c>
       <c r="D86">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="E86" s="11">
+        <f t="shared" si="8"/>
+        <v>99991.212126565239</v>
+      </c>
+      <c r="F86" s="11">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="E86" s="11">
-        <f t="shared" si="7"/>
-        <v>99991.212126565239</v>
-      </c>
-      <c r="F86" s="11">
-        <f t="shared" si="8"/>
         <v>16.282659601420164</v>
       </c>
       <c r="G86" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.6282659601420164</v>
       </c>
     </row>
@@ -31191,19 +31568,19 @@
         <v>85</v>
       </c>
       <c r="D87">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="E87" s="11">
+        <f t="shared" si="8"/>
+        <v>99992.585878511192</v>
+      </c>
+      <c r="F87" s="11">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="E87" s="11">
-        <f t="shared" si="7"/>
-        <v>99992.585878511192</v>
-      </c>
-      <c r="F87" s="11">
-        <f t="shared" si="8"/>
         <v>13.737519459536998</v>
       </c>
       <c r="G87" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.3737519459536998</v>
       </c>
     </row>
@@ -31215,19 +31592,19 @@
         <v>86</v>
       </c>
       <c r="D88">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="E88" s="11">
+        <f t="shared" si="8"/>
+        <v>99993.744894051735</v>
+      </c>
+      <c r="F88" s="11">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="E88" s="11">
-        <f t="shared" si="7"/>
-        <v>99993.744894051735</v>
-      </c>
-      <c r="F88" s="11">
-        <f t="shared" si="8"/>
         <v>11.590155405428959</v>
       </c>
       <c r="G88" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.1590155405428959</v>
       </c>
     </row>
@@ -31239,19 +31616,19 @@
         <v>87</v>
       </c>
       <c r="D89">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="E89" s="11">
+        <f t="shared" si="8"/>
+        <v>99994.722735581352</v>
+      </c>
+      <c r="F89" s="11">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="E89" s="11">
-        <f t="shared" si="7"/>
-        <v>99994.722735581352</v>
-      </c>
-      <c r="F89" s="11">
-        <f t="shared" si="8"/>
         <v>9.7784152961685322</v>
       </c>
       <c r="G89" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.97784152961685322</v>
       </c>
     </row>
@@ -31263,19 +31640,19 @@
         <v>88</v>
       </c>
       <c r="D90">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="E90" s="11">
+        <f t="shared" si="8"/>
+        <v>99995.54772094982</v>
+      </c>
+      <c r="F90" s="11">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="E90" s="11">
-        <f t="shared" si="7"/>
-        <v>99995.54772094982</v>
-      </c>
-      <c r="F90" s="11">
-        <f t="shared" si="8"/>
         <v>8.2498536846833304</v>
       </c>
       <c r="G90" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.82498536846833304</v>
       </c>
     </row>
@@ -31287,19 +31664,19 @@
         <v>89</v>
       </c>
       <c r="D91">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="E91" s="11">
+        <f t="shared" si="8"/>
+        <v>99996.243742666353</v>
+      </c>
+      <c r="F91" s="11">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="E91" s="11">
-        <f t="shared" si="7"/>
-        <v>99996.243742666353</v>
-      </c>
-      <c r="F91" s="11">
-        <f t="shared" si="8"/>
         <v>6.9602171653241385</v>
       </c>
       <c r="G91" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.69602171653241385</v>
       </c>
     </row>
@@ -31311,19 +31688,19 @@
         <v>90</v>
       </c>
       <c r="D92">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="E92" s="11">
+        <f t="shared" si="8"/>
+        <v>99996.830959235798</v>
+      </c>
+      <c r="F92" s="11">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="E92" s="11">
-        <f t="shared" si="7"/>
-        <v>99996.830959235798</v>
-      </c>
-      <c r="F92" s="11">
-        <f t="shared" si="8"/>
         <v>5.872165694454452</v>
       </c>
       <c r="G92" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.5872165694454452</v>
       </c>
     </row>
@@ -31335,19 +31712,19 @@
         <v>91</v>
       </c>
       <c r="D93">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="E93" s="11">
+        <f t="shared" si="8"/>
+        <v>99997.326378558908</v>
+      </c>
+      <c r="F93" s="11">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="E93" s="11">
-        <f t="shared" si="7"/>
-        <v>99997.326378558908</v>
-      </c>
-      <c r="F93" s="11">
-        <f t="shared" si="8"/>
         <v>4.954193231096724</v>
       </c>
       <c r="G93" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.4954193231096724</v>
       </c>
     </row>
@@ -31359,19 +31736,19 @@
         <v>92</v>
       </c>
       <c r="D94">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="E94" s="11">
+        <f t="shared" si="8"/>
+        <v>99997.744350229041</v>
+      </c>
+      <c r="F94" s="11">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="E94" s="11">
-        <f t="shared" si="7"/>
-        <v>99997.744350229041</v>
-      </c>
-      <c r="F94" s="11">
-        <f t="shared" si="8"/>
         <v>4.1797167013282888</v>
       </c>
       <c r="G94" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.41797167013282888</v>
       </c>
     </row>
@@ -31383,19 +31760,19 @@
         <v>93</v>
       </c>
       <c r="D95">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="E95" s="11">
+        <f t="shared" si="8"/>
+        <v>99998.096980938935</v>
+      </c>
+      <c r="F95" s="11">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="E95" s="11">
-        <f t="shared" si="7"/>
-        <v>99998.096980938935</v>
-      </c>
-      <c r="F95" s="11">
-        <f t="shared" si="8"/>
         <v>3.5263070989458356</v>
       </c>
       <c r="G95" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.35263070989458356</v>
       </c>
     </row>
@@ -31407,19 +31784,19 @@
         <v>94</v>
       </c>
       <c r="D96">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="E96" s="11">
+        <f t="shared" si="8"/>
+        <v>99998.394484996315</v>
+      </c>
+      <c r="F96" s="11">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="E96" s="11">
-        <f t="shared" si="7"/>
-        <v>99998.394484996315</v>
-      </c>
-      <c r="F96" s="11">
-        <f t="shared" si="8"/>
         <v>2.9750405738013797</v>
       </c>
       <c r="G96" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.29750405738013797</v>
       </c>
     </row>
@@ -31428,19 +31805,19 @@
         <v>95</v>
       </c>
       <c r="D97">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="E97" s="11">
+        <f t="shared" si="8"/>
+        <v>99998.645480079053</v>
+      </c>
+      <c r="F97" s="11">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="E97" s="11">
-        <f t="shared" si="7"/>
-        <v>99998.645480079053</v>
-      </c>
-      <c r="F97" s="11">
-        <f t="shared" si="8"/>
         <v>2.5099508273706306</v>
       </c>
       <c r="G97" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.25099508273706306</v>
       </c>
     </row>
@@ -31449,19 +31826,19 @@
         <v>96</v>
       </c>
       <c r="D98">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="E98" s="11">
+        <f t="shared" si="8"/>
+        <v>99998.857236779397</v>
+      </c>
+      <c r="F98" s="11">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="E98" s="11">
-        <f t="shared" si="7"/>
-        <v>99998.857236779397</v>
-      </c>
-      <c r="F98" s="11">
-        <f t="shared" si="8"/>
         <v>2.117567003442673</v>
       </c>
       <c r="G98" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.2117567003442673</v>
       </c>
     </row>
@@ -31470,19 +31847,19 @@
         <v>97</v>
       </c>
       <c r="D99">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="E99" s="11">
+        <f t="shared" ref="E99:E130" si="12">$K$2/(1+$K$5*EXP(-$K$4*B99))</f>
+        <v>99999.035889154664</v>
+      </c>
+      <c r="F99" s="11">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="E99" s="11">
-        <f t="shared" ref="E99:E130" si="11">$K$2/(1+$K$5*EXP(-$K$4*B99))</f>
-        <v>99999.035889154664</v>
-      </c>
-      <c r="F99" s="11">
-        <f t="shared" si="8"/>
         <v>1.7865237526712008</v>
       </c>
       <c r="G99" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.17865237526712008</v>
       </c>
     </row>
@@ -31491,19 +31868,19 @@
         <v>98</v>
       </c>
       <c r="D100">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E100" s="11">
+        <f t="shared" si="12"/>
+        <v>99999.186612374513</v>
+      </c>
+      <c r="F100" s="11">
+        <f t="shared" ref="F100:F131" si="13">(E100-E99)*10</f>
+        <v>1.5072321984916925</v>
+      </c>
+      <c r="G100" s="11">
         <f t="shared" si="11"/>
-        <v>99999.186612374513</v>
-      </c>
-      <c r="F100" s="11">
-        <f t="shared" ref="F100:F131" si="12">(E100-E99)*10</f>
-        <v>1.5072321984916925</v>
-      </c>
-      <c r="G100" s="11">
-        <f t="shared" si="10"/>
         <v>0.15072321984916925</v>
       </c>
     </row>
@@ -31512,19 +31889,19 @@
         <v>99</v>
       </c>
       <c r="D101">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E101" s="11">
+        <f t="shared" si="12"/>
+        <v>99999.313772605499</v>
+      </c>
+      <c r="F101" s="11">
+        <f t="shared" si="13"/>
+        <v>1.2716023098619189</v>
+      </c>
+      <c r="G101" s="11">
         <f t="shared" si="11"/>
-        <v>99999.313772605499</v>
-      </c>
-      <c r="F101" s="11">
-        <f t="shared" si="12"/>
-        <v>1.2716023098619189</v>
-      </c>
-      <c r="G101" s="11">
-        <f t="shared" si="10"/>
         <v>0.12716023098619189</v>
       </c>
     </row>
@@ -31533,19 +31910,19 @@
         <v>100</v>
       </c>
       <c r="D102">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E102" s="11">
+        <f t="shared" si="12"/>
+        <v>99999.421053469981</v>
+      </c>
+      <c r="F102" s="11">
+        <f t="shared" si="13"/>
+        <v>1.0728086448216345</v>
+      </c>
+      <c r="G102" s="11">
         <f t="shared" si="11"/>
-        <v>99999.421053469981</v>
-      </c>
-      <c r="F102" s="11">
-        <f t="shared" si="12"/>
-        <v>1.0728086448216345</v>
-      </c>
-      <c r="G102" s="11">
-        <f t="shared" si="10"/>
         <v>0.10728086448216345</v>
       </c>
     </row>
@@ -31554,19 +31931,19 @@
         <v>101</v>
       </c>
       <c r="D103">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E103" s="11">
+        <f t="shared" si="12"/>
+        <v>99999.511562739863</v>
+      </c>
+      <c r="F103" s="11">
+        <f t="shared" si="13"/>
+        <v>0.9050926988129504</v>
+      </c>
+      <c r="G103" s="11">
         <f t="shared" si="11"/>
-        <v>99999.511562739863</v>
-      </c>
-      <c r="F103" s="11">
-        <f t="shared" si="12"/>
-        <v>0.9050926988129504</v>
-      </c>
-      <c r="G103" s="11">
-        <f t="shared" si="10"/>
         <v>9.050926988129504E-2</v>
       </c>
     </row>
@@ -31575,19 +31952,19 @@
         <v>102</v>
       </c>
       <c r="D104">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E104" s="11">
+        <f t="shared" si="12"/>
+        <v>99999.587922353836</v>
+      </c>
+      <c r="F104" s="11">
+        <f t="shared" si="13"/>
+        <v>0.76359613973181695</v>
+      </c>
+      <c r="G104" s="11">
         <f t="shared" si="11"/>
-        <v>99999.587922353836</v>
-      </c>
-      <c r="F104" s="11">
-        <f t="shared" si="12"/>
-        <v>0.76359613973181695</v>
-      </c>
-      <c r="G104" s="11">
-        <f t="shared" si="10"/>
         <v>7.6359613973181695E-2</v>
       </c>
     </row>
@@ -31596,19 +31973,19 @@
         <v>103</v>
       </c>
       <c r="D105">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E105" s="11">
+        <f t="shared" si="12"/>
+        <v>99999.652344364251</v>
+      </c>
+      <c r="F105" s="11">
+        <f t="shared" si="13"/>
+        <v>0.64422010415000841</v>
+      </c>
+      <c r="G105" s="11">
         <f t="shared" si="11"/>
-        <v>99999.652344364251</v>
-      </c>
-      <c r="F105" s="11">
-        <f t="shared" si="12"/>
-        <v>0.64422010415000841</v>
-      </c>
-      <c r="G105" s="11">
-        <f t="shared" si="10"/>
         <v>6.4422010415000841E-2</v>
       </c>
     </row>
@@ -31617,19 +31994,19 @@
         <v>104</v>
       </c>
       <c r="D106">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E106" s="11">
+        <f t="shared" si="12"/>
+        <v>99999.706695012428</v>
+      </c>
+      <c r="F106" s="11">
+        <f t="shared" si="13"/>
+        <v>0.54350648177205585</v>
+      </c>
+      <c r="G106" s="11">
         <f t="shared" si="11"/>
-        <v>99999.706695012428</v>
-      </c>
-      <c r="F106" s="11">
-        <f t="shared" si="12"/>
-        <v>0.54350648177205585</v>
-      </c>
-      <c r="G106" s="11">
-        <f t="shared" si="10"/>
         <v>5.4350648177205585E-2</v>
       </c>
     </row>
@@ -31638,19 +32015,19 @@
         <v>105</v>
       </c>
       <c r="D107">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E107" s="11">
+        <f t="shared" si="12"/>
+        <v>99999.752548787976</v>
+      </c>
+      <c r="F107" s="11">
+        <f t="shared" si="13"/>
+        <v>0.45853775547584519</v>
+      </c>
+      <c r="G107" s="11">
         <f t="shared" si="11"/>
-        <v>99999.752548787976</v>
-      </c>
-      <c r="F107" s="11">
-        <f t="shared" si="12"/>
-        <v>0.45853775547584519</v>
-      </c>
-      <c r="G107" s="11">
-        <f t="shared" si="10"/>
         <v>4.5853775547584519E-2</v>
       </c>
     </row>
@@ -31659,19 +32036,19 @@
         <v>106</v>
       </c>
       <c r="D108">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E108" s="11">
+        <f t="shared" si="12"/>
+        <v>99999.791234037839</v>
+      </c>
+      <c r="F108" s="11">
+        <f t="shared" si="13"/>
+        <v>0.38685249863192439</v>
+      </c>
+      <c r="G108" s="11">
         <f t="shared" si="11"/>
-        <v>99999.791234037839</v>
-      </c>
-      <c r="F108" s="11">
-        <f t="shared" si="12"/>
-        <v>0.38685249863192439</v>
-      </c>
-      <c r="G108" s="11">
-        <f t="shared" si="10"/>
         <v>3.8685249863192439E-2</v>
       </c>
     </row>
@@ -31680,19 +32057,19 @@
         <v>107</v>
       </c>
       <c r="D109">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E109" s="11">
+        <f t="shared" si="12"/>
+        <v>99999.823871445347</v>
+      </c>
+      <c r="F109" s="11">
+        <f t="shared" si="13"/>
+        <v>0.32637407508445904</v>
+      </c>
+      <c r="G109" s="11">
         <f t="shared" si="11"/>
-        <v>99999.823871445347</v>
-      </c>
-      <c r="F109" s="11">
-        <f t="shared" si="12"/>
-        <v>0.32637407508445904</v>
-      </c>
-      <c r="G109" s="11">
-        <f t="shared" si="10"/>
         <v>3.2637407508445904E-2</v>
       </c>
     </row>
@@ -31701,19 +32078,19 @@
         <v>108</v>
       </c>
       <c r="D110">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E110" s="11">
+        <f t="shared" si="12"/>
+        <v>99999.851406494316</v>
+      </c>
+      <c r="F110" s="11">
+        <f t="shared" si="13"/>
+        <v>0.27535048968275078</v>
+      </c>
+      <c r="G110" s="11">
         <f t="shared" si="11"/>
-        <v>99999.851406494316</v>
-      </c>
-      <c r="F110" s="11">
-        <f t="shared" si="12"/>
-        <v>0.27535048968275078</v>
-      </c>
-      <c r="G110" s="11">
-        <f t="shared" si="10"/>
         <v>2.7535048968275078E-2</v>
       </c>
     </row>
@@ -31722,19 +32099,19 @@
         <v>109</v>
       </c>
       <c r="D111">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E111" s="11">
+        <f t="shared" si="12"/>
+        <v>99999.874636858149</v>
+      </c>
+      <c r="F111" s="11">
+        <f t="shared" si="13"/>
+        <v>0.23230363833135925</v>
+      </c>
+      <c r="G111" s="11">
         <f t="shared" si="11"/>
-        <v>99999.874636858149</v>
-      </c>
-      <c r="F111" s="11">
-        <f t="shared" si="12"/>
-        <v>0.23230363833135925</v>
-      </c>
-      <c r="G111" s="11">
-        <f t="shared" si="10"/>
         <v>2.3230363833135925E-2</v>
       </c>
     </row>
@@ -31743,19 +32120,19 @@
         <v>110</v>
       </c>
       <c r="D112">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E112" s="11">
+        <f t="shared" si="12"/>
+        <v>99999.894235507207</v>
+      </c>
+      <c r="F112" s="11">
+        <f t="shared" si="13"/>
+        <v>0.1959864905802533</v>
+      </c>
+      <c r="G112" s="11">
         <f t="shared" si="11"/>
-        <v>99999.894235507207</v>
-      </c>
-      <c r="F112" s="11">
-        <f t="shared" si="12"/>
-        <v>0.1959864905802533</v>
-      </c>
-      <c r="G112" s="11">
-        <f t="shared" si="10"/>
         <v>1.959864905802533E-2</v>
       </c>
     </row>
@@ -31764,19 +32141,19 @@
         <v>111</v>
       </c>
       <c r="D113">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E113" s="11">
+        <f t="shared" si="12"/>
+        <v>99999.910770203816</v>
+      </c>
+      <c r="F113" s="11">
+        <f t="shared" si="13"/>
+        <v>0.16534696609596722</v>
+      </c>
+      <c r="G113" s="11">
         <f t="shared" si="11"/>
-        <v>99999.910770203816</v>
-      </c>
-      <c r="F113" s="11">
-        <f t="shared" si="12"/>
-        <v>0.16534696609596722</v>
-      </c>
-      <c r="G113" s="11">
-        <f t="shared" si="10"/>
         <v>1.6534696609596722E-2</v>
       </c>
     </row>
@@ -31785,19 +32162,19 @@
         <v>112</v>
       </c>
       <c r="D114">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E114" s="11">
+        <f t="shared" si="12"/>
+        <v>99999.924719949879</v>
+      </c>
+      <c r="F114" s="11">
+        <f t="shared" si="13"/>
+        <v>0.1394974606228061</v>
+      </c>
+      <c r="G114" s="11">
         <f t="shared" si="11"/>
-        <v>99999.924719949879</v>
-      </c>
-      <c r="F114" s="11">
-        <f t="shared" si="12"/>
-        <v>0.1394974606228061</v>
-      </c>
-      <c r="G114" s="11">
-        <f t="shared" si="10"/>
         <v>1.394974606228061E-2</v>
       </c>
     </row>
@@ -31806,19 +32183,19 @@
         <v>113</v>
       </c>
       <c r="D115">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E115" s="11">
+        <f t="shared" si="12"/>
+        <v>99999.936488862848</v>
+      </c>
+      <c r="F115" s="11">
+        <f t="shared" si="13"/>
+        <v>0.11768912969273515</v>
+      </c>
+      <c r="G115" s="11">
         <f t="shared" si="11"/>
-        <v>99999.936488862848</v>
-      </c>
-      <c r="F115" s="11">
-        <f t="shared" si="12"/>
-        <v>0.11768912969273515</v>
-      </c>
-      <c r="G115" s="11">
-        <f t="shared" si="10"/>
         <v>1.1768912969273515E-2</v>
       </c>
     </row>
@@ -31827,19 +32204,19 @@
         <v>114</v>
       </c>
       <c r="D116">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E116" s="11">
+        <f t="shared" si="12"/>
+        <v>99999.946417882791</v>
+      </c>
+      <c r="F116" s="11">
+        <f t="shared" si="13"/>
+        <v>9.9290199432289228E-2</v>
+      </c>
+      <c r="G116" s="11">
         <f t="shared" si="11"/>
-        <v>99999.946417882791</v>
-      </c>
-      <c r="F116" s="11">
-        <f t="shared" si="12"/>
-        <v>9.9290199432289228E-2</v>
-      </c>
-      <c r="G116" s="11">
-        <f t="shared" si="10"/>
         <v>9.9290199432289228E-3</v>
       </c>
     </row>
@@ -31848,19 +32225,19 @@
         <v>115</v>
       </c>
       <c r="D117">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E117" s="11">
+        <f t="shared" si="12"/>
+        <v>99999.954794649122</v>
+      </c>
+      <c r="F117" s="11">
+        <f t="shared" si="13"/>
+        <v>8.3767663309117779E-2</v>
+      </c>
+      <c r="G117" s="11">
         <f t="shared" si="11"/>
-        <v>99999.954794649122</v>
-      </c>
-      <c r="F117" s="11">
-        <f t="shared" si="12"/>
-        <v>8.3767663309117779E-2</v>
-      </c>
-      <c r="G117" s="11">
-        <f t="shared" si="10"/>
         <v>8.3767663309117779E-3</v>
       </c>
     </row>
@@ -31869,19 +32246,19 @@
         <v>116</v>
       </c>
       <c r="D118">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E118" s="11">
+        <f t="shared" si="12"/>
+        <v>99999.961861833261</v>
+      </c>
+      <c r="F118" s="11">
+        <f t="shared" si="13"/>
+        <v>7.0671841385774314E-2</v>
+      </c>
+      <c r="G118" s="11">
         <f t="shared" si="11"/>
-        <v>99999.961861833261</v>
-      </c>
-      <c r="F118" s="11">
-        <f t="shared" si="12"/>
-        <v>7.0671841385774314E-2</v>
-      </c>
-      <c r="G118" s="11">
-        <f t="shared" si="10"/>
         <v>7.0671841385774314E-3</v>
       </c>
     </row>
@@ -31890,19 +32267,19 @@
         <v>117</v>
       </c>
       <c r="D119">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E119" s="11">
+        <f t="shared" si="12"/>
+        <v>99999.967824168634</v>
+      </c>
+      <c r="F119" s="11">
+        <f t="shared" si="13"/>
+        <v>5.9623353736242279E-2</v>
+      </c>
+      <c r="G119" s="11">
         <f t="shared" si="11"/>
-        <v>99999.967824168634</v>
-      </c>
-      <c r="F119" s="11">
-        <f t="shared" si="12"/>
-        <v>5.9623353736242279E-2</v>
-      </c>
-      <c r="G119" s="11">
-        <f t="shared" si="10"/>
         <v>5.9623353736242279E-3</v>
       </c>
     </row>
@@ -31911,19 +32288,19 @@
         <v>118</v>
       </c>
       <c r="D120">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E120" s="11">
+        <f t="shared" si="12"/>
+        <v>99999.972854381762</v>
+      </c>
+      <c r="F120" s="11">
+        <f t="shared" si="13"/>
+        <v>5.030213127611205E-2</v>
+      </c>
+      <c r="G120" s="11">
         <f t="shared" si="11"/>
-        <v>99999.972854381762</v>
-      </c>
-      <c r="F120" s="11">
-        <f t="shared" si="12"/>
-        <v>5.030213127611205E-2</v>
-      </c>
-      <c r="G120" s="11">
-        <f t="shared" si="10"/>
         <v>5.030213127611205E-3</v>
       </c>
     </row>
@@ -31932,19 +32309,19 @@
         <v>119</v>
       </c>
       <c r="D121">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E121" s="11">
+        <f t="shared" si="12"/>
+        <v>99999.977098196003</v>
+      </c>
+      <c r="F121" s="11">
+        <f t="shared" si="13"/>
+        <v>4.2438142409082502E-2</v>
+      </c>
+      <c r="G121" s="11">
         <f t="shared" si="11"/>
-        <v>99999.977098196003</v>
-      </c>
-      <c r="F121" s="11">
-        <f t="shared" si="12"/>
-        <v>4.2438142409082502E-2</v>
-      </c>
-      <c r="G121" s="11">
-        <f t="shared" si="10"/>
         <v>4.2438142409082502E-3</v>
       </c>
     </row>
@@ -31953,19 +32330,19 @@
         <v>120</v>
       </c>
       <c r="D122">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E122" s="11">
+        <f t="shared" si="12"/>
+        <v>99999.980678553024</v>
+      </c>
+      <c r="F122" s="11">
+        <f t="shared" si="13"/>
+        <v>3.5803570208372548E-2</v>
+      </c>
+      <c r="G122" s="11">
         <f t="shared" si="11"/>
-        <v>99999.980678553024</v>
-      </c>
-      <c r="F122" s="11">
-        <f t="shared" si="12"/>
-        <v>3.5803570208372548E-2</v>
-      </c>
-      <c r="G122" s="11">
-        <f t="shared" si="10"/>
         <v>3.5803570208372548E-3</v>
       </c>
     </row>
@@ -31974,19 +32351,19 @@
         <v>121</v>
       </c>
       <c r="D123">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E123" s="11">
+        <f t="shared" si="12"/>
+        <v>99999.983699174496</v>
+      </c>
+      <c r="F123" s="11">
+        <f t="shared" si="13"/>
+        <v>3.0206214723875746E-2</v>
+      </c>
+      <c r="G123" s="11">
         <f t="shared" si="11"/>
-        <v>99999.983699174496</v>
-      </c>
-      <c r="F123" s="11">
-        <f t="shared" si="12"/>
-        <v>3.0206214723875746E-2</v>
-      </c>
-      <c r="G123" s="11">
-        <f t="shared" si="10"/>
         <v>3.0206214723875746E-3</v>
       </c>
     </row>
@@ -31995,19 +32372,19 @@
         <v>122</v>
       </c>
       <c r="D124">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E124" s="11">
+        <f t="shared" si="12"/>
+        <v>99999.986247566703</v>
+      </c>
+      <c r="F124" s="11">
+        <f t="shared" si="13"/>
+        <v>2.5483922072453424E-2</v>
+      </c>
+      <c r="G124" s="11">
         <f t="shared" si="11"/>
-        <v>99999.986247566703</v>
-      </c>
-      <c r="F124" s="11">
-        <f t="shared" si="12"/>
-        <v>2.5483922072453424E-2</v>
-      </c>
-      <c r="G124" s="11">
-        <f t="shared" si="10"/>
         <v>2.5483922072453424E-3</v>
       </c>
     </row>
@@ -32016,19 +32393,19 @@
         <v>123</v>
       </c>
       <c r="D125">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E125" s="11">
+        <f t="shared" si="12"/>
+        <v>99999.988397555629</v>
+      </c>
+      <c r="F125" s="11">
+        <f t="shared" si="13"/>
+        <v>2.1499889262486249E-2</v>
+      </c>
+      <c r="G125" s="11">
         <f t="shared" si="11"/>
-        <v>99999.988397555629</v>
-      </c>
-      <c r="F125" s="11">
-        <f t="shared" si="12"/>
-        <v>2.1499889262486249E-2</v>
-      </c>
-      <c r="G125" s="11">
-        <f t="shared" si="10"/>
         <v>2.1499889262486249E-3</v>
       </c>
     </row>
@@ -32037,19 +32414,19 @@
         <v>124</v>
       </c>
       <c r="D126">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E126" s="11">
+        <f t="shared" si="12"/>
+        <v>99999.990211425713</v>
+      </c>
+      <c r="F126" s="11">
+        <f t="shared" si="13"/>
+        <v>1.8138700834242627E-2</v>
+      </c>
+      <c r="G126" s="11">
         <f t="shared" si="11"/>
-        <v>99999.990211425713</v>
-      </c>
-      <c r="F126" s="11">
-        <f t="shared" si="12"/>
-        <v>1.8138700834242627E-2</v>
-      </c>
-      <c r="G126" s="11">
-        <f t="shared" si="10"/>
         <v>1.8138700834242627E-3</v>
       </c>
     </row>
@@ -32058,19 +32435,19 @@
         <v>125</v>
       </c>
       <c r="D127">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E127" s="11">
+        <f t="shared" si="12"/>
+        <v>99999.991741724152</v>
+      </c>
+      <c r="F127" s="11">
+        <f t="shared" si="13"/>
+        <v>1.5302984393201768E-2</v>
+      </c>
+      <c r="G127" s="11">
         <f t="shared" si="11"/>
-        <v>99999.991741724152</v>
-      </c>
-      <c r="F127" s="11">
-        <f t="shared" si="12"/>
-        <v>1.5302984393201768E-2</v>
-      </c>
-      <c r="G127" s="11">
-        <f t="shared" si="10"/>
         <v>1.5302984393201768E-3</v>
       </c>
     </row>
@@ -32079,19 +32456,19 @@
         <v>126</v>
       </c>
       <c r="D128">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E128" s="11">
+        <f t="shared" si="12"/>
+        <v>99999.993032783124</v>
+      </c>
+      <c r="F128" s="11">
+        <f t="shared" si="13"/>
+        <v>1.2910589721286669E-2</v>
+      </c>
+      <c r="G128" s="11">
         <f t="shared" si="11"/>
-        <v>99999.993032783124</v>
-      </c>
-      <c r="F128" s="11">
-        <f t="shared" si="12"/>
-        <v>1.2910589721286669E-2</v>
-      </c>
-      <c r="G128" s="11">
-        <f t="shared" si="10"/>
         <v>1.2910589721286669E-3</v>
       </c>
     </row>
@@ -32100,19 +32477,19 @@
         <v>127</v>
       </c>
       <c r="D129">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E129" s="11">
+        <f t="shared" si="12"/>
+        <v>99999.994122004195</v>
+      </c>
+      <c r="F129" s="11">
+        <f t="shared" si="13"/>
+        <v>1.0892210702877492E-2</v>
+      </c>
+      <c r="G129" s="11">
         <f t="shared" si="11"/>
-        <v>99999.994122004195</v>
-      </c>
-      <c r="F129" s="11">
-        <f t="shared" si="12"/>
-        <v>1.0892210702877492E-2</v>
-      </c>
-      <c r="G129" s="11">
-        <f t="shared" si="10"/>
         <v>1.0892210702877492E-3</v>
       </c>
     </row>
@@ -32121,19 +32498,19 @@
         <v>128</v>
       </c>
       <c r="D130">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E130" s="11">
+        <f t="shared" si="12"/>
+        <v>99999.995040941707</v>
+      </c>
+      <c r="F130" s="11">
+        <f t="shared" si="13"/>
+        <v>9.1893751232419163E-3</v>
+      </c>
+      <c r="G130" s="11">
         <f t="shared" si="11"/>
-        <v>99999.995040941707</v>
-      </c>
-      <c r="F130" s="11">
-        <f t="shared" si="12"/>
-        <v>9.1893751232419163E-3</v>
-      </c>
-      <c r="G130" s="11">
-        <f t="shared" si="10"/>
         <v>9.1893751232419163E-4</v>
       </c>
     </row>
@@ -32142,19 +32519,19 @@
         <v>129</v>
       </c>
       <c r="D131">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E131" s="11">
-        <f t="shared" ref="E131:E149" si="13">$K$2/(1+$K$5*EXP(-$K$4*B131))</f>
+        <f t="shared" ref="E131:E149" si="14">$K$2/(1+$K$5*EXP(-$K$4*B131))</f>
         <v>99999.99581621695</v>
       </c>
       <c r="F131" s="11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>7.7527524263132364E-3</v>
       </c>
       <c r="G131" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>7.7527524263132364E-4</v>
       </c>
     </row>
@@ -32163,19 +32540,19 @@
         <v>130</v>
       </c>
       <c r="D132">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E132" s="11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>99999.996470289421</v>
       </c>
       <c r="F132" s="11">
-        <f t="shared" ref="F132:F149" si="14">(E132-E131)*10</f>
+        <f t="shared" ref="F132:F149" si="15">(E132-E131)*10</f>
         <v>6.5407247166149318E-3</v>
       </c>
       <c r="G132" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>6.5407247166149318E-4</v>
       </c>
     </row>
@@ -32184,19 +32561,19 @@
         <v>131</v>
       </c>
       <c r="D133">
-        <f t="shared" ref="D133:D149" si="15">C133-C132</f>
+        <f t="shared" ref="D133:D149" si="16">C133-C132</f>
         <v>0</v>
       </c>
       <c r="E133" s="11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>99999.99702210736</v>
       </c>
       <c r="F133" s="11">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>5.5181793868541718E-3</v>
       </c>
       <c r="G133" s="11">
-        <f t="shared" ref="G133:G149" si="16">E133-E132</f>
+        <f t="shared" ref="G133:G149" si="17">E133-E132</f>
         <v>5.5181793868541718E-4</v>
       </c>
     </row>
@@ -32205,19 +32582,19 @@
         <v>132</v>
       </c>
       <c r="D134">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="E134" s="11">
+        <f t="shared" si="14"/>
+        <v>99999.997487656728</v>
+      </c>
+      <c r="F134" s="11">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="E134" s="11">
-        <f t="shared" si="13"/>
-        <v>99999.997487656728</v>
-      </c>
-      <c r="F134" s="11">
-        <f t="shared" si="14"/>
         <v>4.6554936852771789E-3</v>
       </c>
       <c r="G134" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>4.6554936852771789E-4</v>
       </c>
     </row>
@@ -32226,19 +32603,19 @@
         <v>133</v>
       </c>
       <c r="D135">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="E135" s="11">
+        <f t="shared" si="14"/>
+        <v>99999.997880424373</v>
+      </c>
+      <c r="F135" s="11">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="E135" s="11">
-        <f t="shared" si="13"/>
-        <v>99999.997880424373</v>
-      </c>
-      <c r="F135" s="11">
-        <f t="shared" si="14"/>
         <v>3.9276764437090605E-3</v>
       </c>
       <c r="G135" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>3.9276764437090605E-4</v>
       </c>
     </row>
@@ -32247,19 +32624,19 @@
         <v>134</v>
       </c>
       <c r="D136">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="E136" s="11">
+        <f t="shared" si="14"/>
+        <v>99999.99821178861</v>
+      </c>
+      <c r="F136" s="11">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="E136" s="11">
-        <f t="shared" si="13"/>
-        <v>99999.99821178861</v>
-      </c>
-      <c r="F136" s="11">
-        <f t="shared" si="14"/>
         <v>3.31364237354137E-3</v>
       </c>
       <c r="G136" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>3.31364237354137E-4</v>
       </c>
     </row>
@@ -32268,19 +32645,19 @@
         <v>135</v>
       </c>
       <c r="D137">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="E137" s="11">
+        <f t="shared" si="14"/>
+        <v>99999.998491348946</v>
+      </c>
+      <c r="F137" s="11">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="E137" s="11">
-        <f t="shared" si="13"/>
-        <v>99999.998491348946</v>
-      </c>
-      <c r="F137" s="11">
-        <f t="shared" si="14"/>
         <v>2.795603359118104E-3</v>
       </c>
       <c r="G137" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>2.795603359118104E-4</v>
       </c>
     </row>
@@ -32289,19 +32666,19 @@
         <v>136</v>
       </c>
       <c r="D138">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="E138" s="11">
+        <f t="shared" si="14"/>
+        <v>99999.998727204191</v>
+      </c>
+      <c r="F138" s="11">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="E138" s="11">
-        <f t="shared" si="13"/>
-        <v>99999.998727204191</v>
-      </c>
-      <c r="F138" s="11">
-        <f t="shared" si="14"/>
         <v>2.3585524468217045E-3</v>
       </c>
       <c r="G138" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>2.3585524468217045E-4</v>
       </c>
     </row>
@@ -32310,19 +32687,19 @@
         <v>137</v>
       </c>
       <c r="D139">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="E139" s="11">
+        <f t="shared" si="14"/>
+        <v>99999.998926186949</v>
+      </c>
+      <c r="F139" s="11">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="E139" s="11">
-        <f t="shared" si="13"/>
-        <v>99999.998926186949</v>
-      </c>
-      <c r="F139" s="11">
-        <f t="shared" si="14"/>
         <v>1.9898275786545128E-3</v>
       </c>
       <c r="G139" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1.9898275786545128E-4</v>
       </c>
     </row>
@@ -32331,19 +32708,19 @@
         <v>138</v>
       </c>
       <c r="D140">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="E140" s="11">
+        <f t="shared" si="14"/>
+        <v>99999.999094061699</v>
+      </c>
+      <c r="F140" s="11">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="E140" s="11">
-        <f t="shared" si="13"/>
-        <v>99999.999094061699</v>
-      </c>
-      <c r="F140" s="11">
-        <f t="shared" si="14"/>
         <v>1.6787475033197552E-3</v>
       </c>
       <c r="G140" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1.6787475033197552E-4</v>
       </c>
     </row>
@@ -32352,19 +32729,19 @@
         <v>139</v>
       </c>
       <c r="D141">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="E141" s="11">
+        <f t="shared" si="14"/>
+        <v>99999.99923569175</v>
+      </c>
+      <c r="F141" s="11">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="E141" s="11">
-        <f t="shared" si="13"/>
-        <v>99999.99923569175</v>
-      </c>
-      <c r="F141" s="11">
-        <f t="shared" si="14"/>
         <v>1.4163005107548088E-3</v>
       </c>
       <c r="G141" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1.4163005107548088E-4</v>
       </c>
     </row>
@@ -32373,19 +32750,19 @@
         <v>140</v>
       </c>
       <c r="D142">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="E142" s="11">
+        <f t="shared" si="14"/>
+        <v>99999.99935518</v>
+      </c>
+      <c r="F142" s="11">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="E142" s="11">
-        <f t="shared" si="13"/>
-        <v>99999.99935518</v>
-      </c>
-      <c r="F142" s="11">
-        <f t="shared" si="14"/>
         <v>1.1948824976570904E-3</v>
       </c>
       <c r="G142" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1.1948824976570904E-4</v>
       </c>
     </row>
@@ -32394,19 +32771,19 @@
         <v>141</v>
       </c>
       <c r="D143">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="E143" s="11">
+        <f t="shared" si="14"/>
+        <v>99999.999455988058</v>
+      </c>
+      <c r="F143" s="11">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="E143" s="11">
-        <f t="shared" si="13"/>
-        <v>99999.999455988058</v>
-      </c>
-      <c r="F143" s="11">
-        <f t="shared" si="14"/>
         <v>1.0080805805046111E-3</v>
       </c>
       <c r="G143" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1.0080805805046111E-4</v>
       </c>
     </row>
@@ -32415,19 +32792,19 @@
         <v>142</v>
       </c>
       <c r="D144">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="E144" s="11">
+        <f t="shared" si="14"/>
+        <v>99999.999541036275</v>
+      </c>
+      <c r="F144" s="11">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="E144" s="11">
-        <f t="shared" si="13"/>
-        <v>99999.999541036275</v>
-      </c>
-      <c r="F144" s="11">
-        <f t="shared" si="14"/>
         <v>8.5048217442817986E-4</v>
       </c>
       <c r="G144" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>8.5048217442817986E-5</v>
       </c>
     </row>
@@ -32436,19 +32813,19 @@
         <v>143</v>
       </c>
       <c r="D145">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="E145" s="11">
+        <f t="shared" si="14"/>
+        <v>99999.999612788451</v>
+      </c>
+      <c r="F145" s="11">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="E145" s="11">
-        <f t="shared" si="13"/>
-        <v>99999.999612788451</v>
-      </c>
-      <c r="F145" s="11">
-        <f t="shared" si="14"/>
         <v>7.1752176154404879E-4</v>
       </c>
       <c r="G145" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>7.1752176154404879E-5</v>
       </c>
     </row>
@@ -32457,19 +32834,19 @@
         <v>144</v>
       </c>
       <c r="D146">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="E146" s="11">
+        <f t="shared" si="14"/>
+        <v>99999.999673323226</v>
+      </c>
+      <c r="F146" s="11">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="E146" s="11">
-        <f t="shared" si="13"/>
-        <v>99999.999673323226</v>
-      </c>
-      <c r="F146" s="11">
-        <f t="shared" si="14"/>
         <v>6.0534774092957377E-4</v>
       </c>
       <c r="G146" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>6.0534774092957377E-5</v>
       </c>
     </row>
@@ -32478,19 +32855,19 @@
         <v>145</v>
       </c>
       <c r="D147">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="E147" s="11">
+        <f t="shared" si="14"/>
+        <v>99999.999724394307</v>
+      </c>
+      <c r="F147" s="11">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="E147" s="11">
-        <f t="shared" si="13"/>
-        <v>99999.999724394307</v>
-      </c>
-      <c r="F147" s="11">
-        <f t="shared" si="14"/>
         <v>5.1071081543341279E-4</v>
       </c>
       <c r="G147" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>5.1071081543341279E-5</v>
       </c>
     </row>
@@ -32499,19 +32876,19 @@
         <v>146</v>
       </c>
       <c r="D148">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="E148" s="11">
+        <f t="shared" si="14"/>
+        <v>99999.999767481175</v>
+      </c>
+      <c r="F148" s="11">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="E148" s="11">
-        <f t="shared" si="13"/>
-        <v>99999.999767481175</v>
-      </c>
-      <c r="F148" s="11">
-        <f t="shared" si="14"/>
         <v>4.308686766307801E-4</v>
       </c>
       <c r="G148" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>4.308686766307801E-5</v>
       </c>
     </row>
@@ -32520,19 +32897,19 @@
         <v>147</v>
       </c>
       <c r="D149">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="E149" s="11">
+        <f t="shared" si="14"/>
+        <v>99999.999803832048</v>
+      </c>
+      <c r="F149" s="11">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="E149" s="11">
-        <f t="shared" si="13"/>
-        <v>99999.999803832048</v>
-      </c>
-      <c r="F149" s="11">
-        <f t="shared" si="14"/>
         <v>3.6350873415358365E-4</v>
       </c>
       <c r="G149" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>3.6350873415358365E-5</v>
       </c>
     </row>
@@ -32551,8 +32928,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:L67"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -32600,7 +32977,7 @@
         <v>23</v>
       </c>
       <c r="L2" s="9">
-        <v>19500</v>
+        <v>21000</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -32616,12 +32993,12 @@
       </c>
       <c r="F3" s="11">
         <f t="shared" ref="F3:F5" si="0">$L$2/(1+$L$5*EXP(-$L$4*B3))</f>
-        <v>69.893799153872592</v>
+        <v>69.896596774096395</v>
       </c>
       <c r="G3" s="11"/>
       <c r="I3" s="11">
         <f>C3-F3</f>
-        <v>-62.893799153872592</v>
+        <v>-62.896596774096395</v>
       </c>
       <c r="K3" s="4" t="s">
         <v>24</v>
@@ -32651,19 +33028,19 @@
       </c>
       <c r="F4" s="11">
         <f t="shared" si="0"/>
-        <v>82.790470802292674</v>
+        <v>82.797708071305749</v>
       </c>
       <c r="G4" s="11">
         <f t="shared" ref="G4:G67" si="1">(F4-F3)*10</f>
-        <v>128.96671648420082</v>
+        <v>129.01111297209354</v>
       </c>
       <c r="H4" s="11">
         <f>F4-F3</f>
-        <v>12.896671648420082</v>
+        <v>12.901111297209354</v>
       </c>
       <c r="I4" s="11">
         <f>C4-F4</f>
-        <v>-72.790470802292674</v>
+        <v>-72.797708071305749</v>
       </c>
       <c r="J4" s="11"/>
       <c r="K4" s="4" t="s">
@@ -32694,19 +33071,19 @@
       </c>
       <c r="F5" s="11">
         <f t="shared" si="0"/>
-        <v>98.054802818765694</v>
+        <v>98.068874921805403</v>
       </c>
       <c r="G5" s="11">
         <f t="shared" si="1"/>
-        <v>152.6433201647302</v>
+        <v>152.71166850499654</v>
       </c>
       <c r="H5" s="11">
         <f t="shared" ref="H5:H67" si="4">F5-F4</f>
-        <v>15.26433201647302</v>
+        <v>15.271166850499654</v>
       </c>
       <c r="I5" s="11">
-        <f t="shared" ref="I5:I36" si="5">C5-F5</f>
-        <v>-86.054802818765694</v>
+        <f t="shared" ref="I5:I37" si="5">C5-F5</f>
+        <v>-86.068874921805403</v>
       </c>
       <c r="J5" s="11"/>
       <c r="K5" s="4" t="s">
@@ -32714,7 +33091,7 @@
       </c>
       <c r="L5" s="15">
         <f>(L2-L3)/L3</f>
-        <v>329.50847457627117</v>
+        <v>354.93220338983053</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -32738,19 +33115,19 @@
       </c>
       <c r="F6" s="11">
         <f t="shared" ref="F6:F36" si="6">$L$2/(1+$L$5*EXP(-$L$4*B6))</f>
-        <v>116.11663640745364</v>
+        <v>116.14100899183929</v>
       </c>
       <c r="G6" s="11">
         <f t="shared" si="1"/>
-        <v>180.61833588687946</v>
+        <v>180.72134070033883</v>
       </c>
       <c r="H6" s="11">
         <f t="shared" si="4"/>
-        <v>18.061833588687946</v>
+        <v>18.072134070033883</v>
       </c>
       <c r="I6" s="11">
         <f t="shared" si="5"/>
-        <v>-99.11663640745364</v>
+        <v>-99.141008991839286</v>
       </c>
       <c r="J6" s="11"/>
     </row>
@@ -32775,19 +33152,19 @@
       </c>
       <c r="F7" s="11">
         <f t="shared" si="6"/>
-        <v>137.48191014674288</v>
+        <v>137.52156476139689</v>
       </c>
       <c r="G7" s="11">
         <f t="shared" si="1"/>
-        <v>213.65273739289236</v>
+        <v>213.80555769557603</v>
       </c>
       <c r="H7" s="11">
         <f t="shared" si="4"/>
-        <v>21.365273739289236</v>
+        <v>21.380555769557603</v>
       </c>
       <c r="I7" s="11">
         <f t="shared" si="5"/>
-        <v>-116.48191014674288</v>
+        <v>-116.52156476139689</v>
       </c>
       <c r="J7" s="11"/>
     </row>
@@ -32812,19 +33189,19 @@
       </c>
       <c r="F8" s="11">
         <f t="shared" si="6"/>
-        <v>162.74535397838051</v>
+        <v>162.80741175231387</v>
       </c>
       <c r="G8" s="11">
         <f t="shared" si="1"/>
-        <v>252.6344383163763</v>
+        <v>252.8584699091698</v>
       </c>
       <c r="H8" s="11">
         <f t="shared" si="4"/>
-        <v>25.26344383163763</v>
+        <v>25.28584699091698</v>
       </c>
       <c r="I8" s="11">
         <f t="shared" si="5"/>
-        <v>-133.74535397838051</v>
+        <v>-133.80741175231387</v>
       </c>
       <c r="J8" s="11"/>
       <c r="K8" s="12" t="s">
@@ -32832,7 +33209,7 @@
       </c>
       <c r="L8" s="11">
         <f>AVERAGE(I3:I36)</f>
-        <v>-34.183020761211601</v>
+        <v>-85.820288012158215</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -32856,19 +33233,19 @@
       </c>
       <c r="F9" s="11">
         <f t="shared" si="6"/>
-        <v>192.60498654507296</v>
+        <v>192.6995790655499</v>
       </c>
       <c r="G9" s="11">
         <f t="shared" si="1"/>
-        <v>298.59632566692454</v>
+        <v>298.9216731323603</v>
       </c>
       <c r="H9" s="11">
         <f t="shared" si="4"/>
-        <v>29.859632566692454</v>
+        <v>29.89216731323603</v>
       </c>
       <c r="I9" s="11">
         <f t="shared" si="5"/>
-        <v>-158.60498654507296</v>
+        <v>-158.6995790655499</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="12" t="s">
@@ -32876,7 +33253,7 @@
       </c>
       <c r="L9" s="6">
         <f>STDEVP(I3:I36)</f>
-        <v>206.55708426723291</v>
+        <v>144.825572970206</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -32900,19 +33277,19 @@
       </c>
       <c r="F10" s="11">
         <f t="shared" si="6"/>
-        <v>227.87854131902176</v>
+        <v>228.02002319792715</v>
       </c>
       <c r="G10" s="11">
         <f t="shared" si="1"/>
-        <v>352.73554773948803</v>
+        <v>353.20444132377247</v>
       </c>
       <c r="H10" s="11">
         <f t="shared" si="4"/>
-        <v>35.273554773948803</v>
+        <v>35.320444132377247</v>
       </c>
       <c r="I10" s="11">
         <f t="shared" si="5"/>
-        <v>-175.87854131902176</v>
+        <v>-176.02002319792715</v>
       </c>
       <c r="J10" s="11"/>
     </row>
@@ -32937,19 +33314,19 @@
       </c>
       <c r="F11" s="11">
         <f t="shared" si="6"/>
-        <v>269.52189434126319</v>
+        <v>269.73052625080629</v>
       </c>
       <c r="G11" s="11">
         <f t="shared" si="1"/>
-        <v>416.43353022241428</v>
+        <v>417.10503052879147</v>
       </c>
       <c r="H11" s="11">
         <f t="shared" si="4"/>
-        <v>41.643353022241428</v>
+        <v>41.710503052879147</v>
       </c>
       <c r="I11" s="11">
         <f t="shared" si="5"/>
-        <v>-190.52189434126319</v>
+        <v>-190.73052625080629</v>
       </c>
       <c r="J11" s="11"/>
     </row>
@@ -32974,19 +33351,19 @@
       </c>
       <c r="F12" s="11">
         <f t="shared" si="6"/>
-        <v>318.64947871467035</v>
+        <v>318.95375530353863</v>
       </c>
       <c r="G12" s="11">
         <f t="shared" si="1"/>
-        <v>491.2758437340716</v>
+        <v>492.23229052732336</v>
       </c>
       <c r="H12" s="11">
         <f t="shared" si="4"/>
-        <v>49.12758437340716</v>
+        <v>49.223229052732336</v>
       </c>
       <c r="I12" s="11">
         <f t="shared" si="5"/>
-        <v>-211.64947871467035</v>
+        <v>-211.95375530353863</v>
       </c>
       <c r="J12" s="11"/>
       <c r="K12" t="s">
@@ -33018,19 +33395,19 @@
       </c>
       <c r="F13" s="11">
         <f t="shared" si="6"/>
-        <v>376.55653481055248</v>
+        <v>376.99639191612818</v>
       </c>
       <c r="G13" s="11">
         <f t="shared" si="1"/>
-        <v>579.07056095882126</v>
+        <v>580.42636612589547</v>
       </c>
       <c r="H13" s="11">
         <f t="shared" si="4"/>
-        <v>57.907056095882126</v>
+        <v>58.042636612589547</v>
       </c>
       <c r="I13" s="11">
         <f t="shared" si="5"/>
-        <v>-228.55653481055248</v>
+        <v>-228.99639191612818</v>
       </c>
       <c r="J13" s="11"/>
       <c r="K13" t="s">
@@ -33062,19 +33439,19 @@
       </c>
       <c r="F14" s="11">
         <f t="shared" si="6"/>
-        <v>444.74284360197379</v>
+        <v>445.37405692574856</v>
       </c>
       <c r="G14" s="11">
         <f t="shared" si="1"/>
-        <v>681.86308791421311</v>
+        <v>683.77665009620387</v>
       </c>
       <c r="H14" s="11">
         <f t="shared" si="4"/>
-        <v>68.186308791421311</v>
+        <v>68.377665009620387</v>
       </c>
       <c r="I14" s="11">
         <f t="shared" si="5"/>
-        <v>-247.74284360197379</v>
+        <v>-248.37405692574856</v>
       </c>
       <c r="J14" s="11"/>
     </row>
@@ -33099,19 +33476,19 @@
       </c>
       <c r="F15" s="11">
         <f t="shared" si="6"/>
-        <v>524.93730337297586</v>
+        <v>525.83748965801283</v>
       </c>
       <c r="G15" s="11">
         <f t="shared" si="1"/>
-        <v>801.94459771002073</v>
+        <v>804.63432732264266</v>
       </c>
       <c r="H15" s="11">
         <f t="shared" si="4"/>
-        <v>80.194459771002073</v>
+        <v>80.463432732264266</v>
       </c>
       <c r="I15" s="11">
         <f t="shared" si="5"/>
-        <v>-291.93730337297586</v>
+        <v>-292.83748965801283</v>
       </c>
       <c r="J15" s="11"/>
     </row>
@@ -33136,19 +33513,19 @@
       </c>
       <c r="F16" s="11">
         <f t="shared" si="6"/>
-        <v>619.12231435474973</v>
+        <v>620.39906879211458</v>
       </c>
       <c r="G16" s="11">
         <f t="shared" si="1"/>
-        <v>941.85010981773871</v>
+        <v>945.61579134101748</v>
       </c>
       <c r="H16" s="11">
         <f t="shared" si="4"/>
-        <v>94.185010981773871</v>
+        <v>94.561579134101748</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" si="5"/>
-        <v>-253.12231435474973</v>
+        <v>-254.39906879211458</v>
       </c>
       <c r="J16" s="11"/>
     </row>
@@ -33173,19 +33550,19 @@
       </c>
       <c r="F17" s="11">
         <f t="shared" si="6"/>
-        <v>729.5564080348878</v>
+        <v>731.35825893577692</v>
       </c>
       <c r="G17" s="11">
         <f t="shared" si="1"/>
-        <v>1104.3409368013806</v>
+        <v>1109.5919014366234</v>
       </c>
       <c r="H17" s="11">
         <f t="shared" si="4"/>
-        <v>110.43409368013806</v>
+        <v>110.95919014366234</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" si="5"/>
-        <v>-266.5564080348878</v>
+        <v>-268.35825893577692</v>
       </c>
       <c r="J17" s="11"/>
     </row>
@@ -33210,19 +33587,19 @@
       </c>
       <c r="F18" s="11">
         <f t="shared" si="6"/>
-        <v>858.79287782634742</v>
+        <v>861.32390844453823</v>
       </c>
       <c r="G18" s="11">
         <f t="shared" si="1"/>
-        <v>1292.3646979145963</v>
+        <v>1299.6564950876132</v>
       </c>
       <c r="H18" s="11">
         <f t="shared" si="4"/>
-        <v>129.23646979145963</v>
+        <v>129.96564950876132</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" si="5"/>
-        <v>-227.79287782634742</v>
+        <v>-230.32390844453823</v>
       </c>
       <c r="J18" s="11"/>
     </row>
@@ -33247,19 +33624,19 @@
       </c>
       <c r="F19" s="11">
         <f t="shared" si="6"/>
-        <v>1009.6913259319738</v>
+        <v>1013.2304936757971</v>
       </c>
       <c r="G19" s="11">
         <f t="shared" si="1"/>
-        <v>1508.9844810562636</v>
+        <v>1519.0658523125887</v>
       </c>
       <c r="H19" s="11">
         <f t="shared" si="4"/>
-        <v>150.89844810562636</v>
+        <v>151.90658523125887</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" si="5"/>
-        <v>-182.69132593197378</v>
+        <v>-186.23049367579711</v>
       </c>
       <c r="J19" s="11"/>
     </row>
@@ -33284,19 +33661,19 @@
       </c>
       <c r="F20" s="11">
         <f t="shared" si="6"/>
-        <v>1185.4180501327489</v>
+        <v>1190.3444039449357</v>
       </c>
       <c r="G20" s="11">
         <f t="shared" si="1"/>
-        <v>1757.2672420077515</v>
+        <v>1771.1391026913861</v>
       </c>
       <c r="H20" s="11">
         <f t="shared" si="4"/>
-        <v>175.72672420077515</v>
+        <v>177.11391026913861</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" si="5"/>
-        <v>-169.41805013274893</v>
+        <v>-174.34440394493572</v>
       </c>
       <c r="J20" s="11"/>
     </row>
@@ -33321,19 +33698,19 @@
       </c>
       <c r="F21" s="11">
         <f t="shared" si="6"/>
-        <v>1389.4301051841926</v>
+        <v>1396.2552243542882</v>
       </c>
       <c r="G21" s="11">
         <f t="shared" si="1"/>
-        <v>2040.1205505144367</v>
+        <v>2059.1082040935248</v>
       </c>
       <c r="H21" s="11">
         <f t="shared" si="4"/>
-        <v>204.01205505144367</v>
+        <v>205.91082040935248</v>
       </c>
       <c r="I21" s="11">
         <f t="shared" si="5"/>
-        <v>-123.4301051841926</v>
+        <v>-130.2552243542882</v>
       </c>
       <c r="J21" s="11"/>
     </row>
@@ -33358,19 +33735,19 @@
       </c>
       <c r="F22" s="11">
         <f t="shared" si="6"/>
-        <v>1625.4367987208639</v>
+        <v>1634.8457893100051</v>
       </c>
       <c r="G22" s="11">
         <f t="shared" si="1"/>
-        <v>2360.0669353667126</v>
+        <v>2385.905649557169</v>
       </c>
       <c r="H22" s="11">
         <f t="shared" si="4"/>
-        <v>236.00669353667126</v>
+        <v>238.5905649557169</v>
       </c>
       <c r="I22" s="11">
         <f t="shared" si="5"/>
-        <v>-184.43679872086386</v>
+        <v>-193.8457893100051</v>
       </c>
       <c r="J22" s="11"/>
     </row>
@@ -33395,19 +33772,19 @@
       </c>
       <c r="F23" s="11">
         <f t="shared" si="6"/>
-        <v>1897.3315196342078</v>
+        <v>1910.2337176880035</v>
       </c>
       <c r="G23" s="11">
         <f t="shared" si="1"/>
-        <v>2718.9472091334392</v>
+        <v>2753.8792837799838</v>
       </c>
       <c r="H23" s="11">
         <f t="shared" si="4"/>
-        <v>271.89472091334392</v>
+        <v>275.38792837799838</v>
       </c>
       <c r="I23" s="11">
         <f t="shared" si="5"/>
-        <v>-88.33151963420778</v>
+        <v>-101.23371768800348</v>
       </c>
       <c r="J23" s="11"/>
     </row>
@@ -33432,19 +33809,19 @@
       </c>
       <c r="F24" s="11">
         <f t="shared" si="6"/>
-        <v>2209.0864559877905</v>
+        <v>2226.6764790593998</v>
       </c>
       <c r="G24" s="11">
         <f t="shared" si="1"/>
-        <v>3117.5493635358271</v>
+        <v>3164.4276137139627</v>
       </c>
       <c r="H24" s="11">
         <f t="shared" si="4"/>
-        <v>311.75493635358271</v>
+        <v>316.44276137139627</v>
       </c>
       <c r="I24" s="11">
         <f t="shared" si="5"/>
-        <v>-51.086455987790487</v>
+        <v>-68.676479059399753</v>
       </c>
       <c r="J24" s="11"/>
     </row>
@@ -33469,19 +33846,19 @@
       </c>
       <c r="F25" s="11">
         <f t="shared" si="6"/>
-        <v>2564.603366703067</v>
+        <v>2588.432183539202</v>
       </c>
       <c r="G25" s="11">
         <f t="shared" si="1"/>
-        <v>3555.1691071527648</v>
+        <v>3617.5570447980226</v>
       </c>
       <c r="H25" s="11">
         <f t="shared" si="4"/>
-        <v>355.51691071527648</v>
+        <v>361.75570447980226</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" si="5"/>
-        <v>-61.603366703066968</v>
+        <v>-85.432183539202015</v>
       </c>
       <c r="J25" s="11"/>
     </row>
@@ -33506,19 +33883,19 @@
       </c>
       <c r="F26" s="11">
         <f t="shared" si="6"/>
-        <v>2967.5156488520984</v>
+        <v>2999.5697597742546</v>
       </c>
       <c r="G26" s="11">
         <f t="shared" si="1"/>
-        <v>4029.122821490314</v>
+        <v>4111.3757623505262</v>
       </c>
       <c r="H26" s="11">
         <f t="shared" si="4"/>
-        <v>402.9122821490314</v>
+        <v>411.13757623505262</v>
       </c>
       <c r="I26" s="11">
         <f t="shared" si="5"/>
-        <v>10.484351147901634</v>
+        <v>-21.569759774254635</v>
       </c>
       <c r="J26" s="11"/>
     </row>
@@ -33543,19 +33920,19 @@
       </c>
       <c r="F27" s="11">
         <f t="shared" si="6"/>
-        <v>3420.9410270668745</v>
+        <v>3463.7255733927159</v>
       </c>
       <c r="G27" s="11">
         <f t="shared" si="1"/>
-        <v>4534.2537821477617</v>
+        <v>4641.5581361846125</v>
       </c>
       <c r="H27" s="11">
         <f t="shared" si="4"/>
-        <v>453.42537821477617</v>
+        <v>464.15581361846125</v>
       </c>
       <c r="I27" s="11">
         <f t="shared" si="5"/>
-        <v>-15.94102706687454</v>
+        <v>-58.725573392715887</v>
       </c>
       <c r="J27" s="11"/>
     </row>
@@ -33580,19 +33957,19 @@
       </c>
       <c r="F28" s="11">
         <f t="shared" si="6"/>
-        <v>3927.1906721204164</v>
+        <v>3983.8093579535293</v>
       </c>
       <c r="G28" s="11">
         <f t="shared" si="1"/>
-        <v>5062.4964505354183</v>
+        <v>5200.8378456081346</v>
       </c>
       <c r="H28" s="11">
         <f t="shared" si="4"/>
-        <v>506.24964505354183</v>
+        <v>520.08378456081346</v>
       </c>
       <c r="I28" s="11">
         <f t="shared" si="5"/>
-        <v>104.80932787958363</v>
+        <v>48.190642046470657</v>
       </c>
       <c r="J28" s="11"/>
     </row>
@@ -33617,19 +33994,19 @@
       </c>
       <c r="F29" s="11">
         <f t="shared" si="6"/>
-        <v>4487.4494235797074</v>
+        <v>4561.6707982035314</v>
       </c>
       <c r="G29" s="11">
         <f t="shared" si="1"/>
-        <v>5602.5875145929103</v>
+        <v>5778.6144025000203</v>
       </c>
       <c r="H29" s="11">
         <f t="shared" si="4"/>
-        <v>560.25875145929103</v>
+        <v>577.86144025000203</v>
       </c>
       <c r="I29" s="11">
         <f t="shared" si="5"/>
-        <v>337.5505764202926</v>
+        <v>263.32920179646862</v>
       </c>
       <c r="J29" s="11"/>
     </row>
@@ -33654,19 +34031,19 @@
       </c>
       <c r="F30" s="11">
         <f t="shared" si="6"/>
-        <v>5101.4523388582447</v>
+        <v>5197.7488283701468</v>
       </c>
       <c r="G30" s="11">
         <f t="shared" si="1"/>
-        <v>6140.0291527853733</v>
+        <v>6360.7803016661546</v>
       </c>
       <c r="H30" s="11">
         <f t="shared" si="4"/>
-        <v>614.00291527853733</v>
+        <v>636.07803016661546</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" si="5"/>
-        <v>374.54766114175527</v>
+        <v>278.25117162985316</v>
       </c>
       <c r="J30" s="11"/>
     </row>
@@ -33691,19 +34068,19 @@
       </c>
       <c r="F31" s="11">
         <f t="shared" si="6"/>
-        <v>5767.1933584230728</v>
+        <v>5890.7373704680149</v>
       </c>
       <c r="G31" s="11">
         <f t="shared" si="1"/>
-        <v>6657.4101956482809</v>
+        <v>6929.8854209786805</v>
       </c>
       <c r="H31" s="11">
         <f t="shared" si="4"/>
-        <v>665.74101956482809</v>
+        <v>692.98854209786805</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" si="5"/>
-        <v>309.80664157692718</v>
+        <v>186.26262953198511</v>
       </c>
       <c r="J31" s="11"/>
     </row>
@@ -33728,19 +34105,19 @@
       </c>
       <c r="F32" s="11">
         <f t="shared" si="6"/>
-        <v>6480.7098201110794</v>
+        <v>6637.3114353405344</v>
       </c>
       <c r="G32" s="11">
         <f t="shared" si="1"/>
-        <v>7135.1646168800653</v>
+        <v>7465.7406487251956</v>
       </c>
       <c r="H32" s="11">
         <f t="shared" si="4"/>
-        <v>713.51646168800653</v>
+        <v>746.57406487251956</v>
       </c>
       <c r="I32" s="11">
         <f t="shared" si="5"/>
-        <v>339.29017988892065</v>
+        <v>182.68856465946556</v>
       </c>
       <c r="J32" s="11"/>
     </row>
@@ -33765,19 +34142,19 @@
       </c>
       <c r="F33" s="11">
         <f t="shared" si="6"/>
-        <v>7235.9886269790468</v>
+        <v>7431.9629431107714</v>
       </c>
       <c r="G33" s="11">
         <f t="shared" si="1"/>
-        <v>7552.7880686796743</v>
+        <v>7946.51507770237</v>
       </c>
       <c r="H33" s="11">
         <f t="shared" si="4"/>
-        <v>755.27880686796743</v>
+        <v>794.651507770237</v>
       </c>
       <c r="I33" s="11">
         <f t="shared" si="5"/>
-        <v>267.01137302095322</v>
+        <v>71.037056889228552</v>
       </c>
       <c r="J33" s="11"/>
     </row>
@@ -33802,19 +34179,19 @@
       </c>
       <c r="F34" s="11">
         <f t="shared" si="6"/>
-        <v>8025.0331220903608</v>
+        <v>8266.9928192632506</v>
       </c>
       <c r="G34" s="11">
         <f t="shared" si="1"/>
-        <v>7890.4449511131406</v>
+        <v>8350.2987615247912</v>
       </c>
       <c r="H34" s="11">
         <f t="shared" si="4"/>
-        <v>789.04449511131406</v>
+        <v>835.02987615247912</v>
       </c>
       <c r="I34" s="11">
         <f t="shared" si="5"/>
-        <v>139.96687790963915</v>
+        <v>-101.99281926325057</v>
       </c>
       <c r="J34" s="11"/>
     </row>
@@ -33839,19 +34216,19 @@
       </c>
       <c r="F35" s="11">
         <f t="shared" si="6"/>
-        <v>8838.1127802135688</v>
+        <v>9132.6924878181326</v>
       </c>
       <c r="G35" s="11">
         <f t="shared" si="1"/>
-        <v>8130.7965812320799</v>
+        <v>8656.9966855488201</v>
       </c>
       <c r="H35" s="11">
         <f t="shared" si="4"/>
-        <v>813.07965812320799</v>
+        <v>865.69966855488201</v>
       </c>
       <c r="I35" s="11">
         <f t="shared" si="5"/>
-        <v>295.88721978643116</v>
+        <v>1.3075121818674234</v>
       </c>
       <c r="J35" s="11"/>
     </row>
@@ -33876,19 +34253,19 @@
       </c>
       <c r="F36" s="11">
         <f t="shared" si="6"/>
-        <v>9664.1921090628566</v>
+        <v>10017.723903383967</v>
       </c>
       <c r="G36" s="11">
         <f t="shared" si="1"/>
-        <v>8260.7932884928778</v>
+        <v>8850.3141556583432</v>
       </c>
       <c r="H36" s="11">
         <f t="shared" si="4"/>
-        <v>826.07932884928778</v>
+        <v>885.03141556583432</v>
       </c>
       <c r="I36" s="11">
         <f t="shared" si="5"/>
-        <v>358.80789093714338</v>
+        <v>5.2760966160331009</v>
       </c>
       <c r="J36" s="11"/>
     </row>
@@ -33899,20 +34276,34 @@
       <c r="B37" s="10">
         <v>35</v>
       </c>
-      <c r="C37" s="3"/>
+      <c r="C37" s="3">
+        <f>Dati!J37</f>
+        <v>10779</v>
+      </c>
+      <c r="D37">
+        <f t="shared" ref="D37" si="7">C37-C36</f>
+        <v>756</v>
+      </c>
+      <c r="E37">
+        <f t="shared" ref="E37" si="8">10*(C37-C36)</f>
+        <v>7560</v>
+      </c>
       <c r="F37" s="11">
-        <f t="shared" ref="F37:F59" si="7">$L$2/(1+$L$5*EXP(-$L$4*B37))</f>
-        <v>10491.505319105838</v>
+        <f t="shared" ref="F37:F59" si="9">$L$2/(1+$L$5*EXP(-$L$4*B37))</f>
+        <v>10909.676252149678</v>
       </c>
       <c r="G37" s="11">
         <f t="shared" si="1"/>
-        <v>8273.1321004298115</v>
+        <v>8919.5234876571158</v>
       </c>
       <c r="H37" s="11">
         <f t="shared" si="4"/>
-        <v>827.31321004298115</v>
-      </c>
-      <c r="I37" s="11"/>
+        <v>891.95234876571158</v>
+      </c>
+      <c r="I37" s="11">
+        <f t="shared" si="5"/>
+        <v>-130.67625214967848</v>
+      </c>
       <c r="J37" s="11"/>
     </row>
     <row r="38" spans="1:10">
@@ -33924,16 +34315,16 @@
       </c>
       <c r="C38" s="3"/>
       <c r="F38" s="11">
-        <f t="shared" si="7"/>
-        <v>11308.216410808436</v>
+        <f t="shared" si="9"/>
+        <v>11795.746080760066</v>
       </c>
       <c r="G38" s="11">
         <f t="shared" si="1"/>
-        <v>8167.1109170259842</v>
+        <v>8860.6982861038705</v>
       </c>
       <c r="H38" s="11">
         <f t="shared" si="4"/>
-        <v>816.71109170259842</v>
+        <v>886.06982861038705</v>
       </c>
       <c r="I38" s="11"/>
       <c r="J38" s="11"/>
@@ -33947,16 +34338,16 @@
       </c>
       <c r="C39" s="3"/>
       <c r="F39" s="11">
-        <f t="shared" si="7"/>
-        <v>12103.087614583919</v>
+        <f t="shared" si="9"/>
+        <v>12663.46395231572</v>
       </c>
       <c r="G39" s="11">
         <f t="shared" si="1"/>
-        <v>7948.7120377548308</v>
+        <v>8677.1787155565471</v>
       </c>
       <c r="H39" s="11">
         <f t="shared" si="4"/>
-        <v>794.87120377548308</v>
+        <v>867.71787155565471</v>
       </c>
       <c r="I39" s="11"/>
       <c r="J39" s="11"/>
@@ -33970,16 +34361,16 @@
       </c>
       <c r="C40" s="3"/>
       <c r="F40" s="11">
-        <f t="shared" si="7"/>
-        <v>12866.077449663342</v>
+        <f t="shared" si="9"/>
+        <v>13501.381476680228</v>
       </c>
       <c r="G40" s="11">
         <f t="shared" si="1"/>
-        <v>7629.8983507942285</v>
+        <v>8379.175243645077</v>
       </c>
       <c r="H40" s="11">
         <f t="shared" si="4"/>
-        <v>762.98983507942285</v>
+        <v>837.9175243645077</v>
       </c>
       <c r="I40" s="11"/>
       <c r="J40" s="11"/>
@@ -33993,16 +34384,16 @@
       </c>
       <c r="C41" s="3"/>
       <c r="F41" s="11">
-        <f t="shared" si="7"/>
-        <v>13588.803539842638</v>
+        <f t="shared" si="9"/>
+        <v>14299.640453068761</v>
       </c>
       <c r="G41" s="11">
         <f t="shared" si="1"/>
-        <v>7227.2609017929608</v>
+        <v>7982.5897638853348</v>
       </c>
       <c r="H41" s="11">
         <f t="shared" si="4"/>
-        <v>722.72609017929608</v>
+        <v>798.25897638853348</v>
       </c>
       <c r="I41" s="11"/>
       <c r="J41" s="11"/>
@@ -34016,16 +34407,16 @@
       </c>
       <c r="C42" s="3"/>
       <c r="F42" s="11">
-        <f t="shared" si="7"/>
-        <v>14264.830678238301</v>
+        <f t="shared" si="9"/>
+        <v>15050.368559914068</v>
       </c>
       <c r="G42" s="11">
         <f t="shared" si="1"/>
-        <v>6760.271383956624</v>
+        <v>7507.2810684530668</v>
       </c>
       <c r="H42" s="11">
         <f t="shared" si="4"/>
-        <v>676.0271383956624</v>
+        <v>750.72810684530668</v>
       </c>
       <c r="I42" s="11"/>
       <c r="J42" s="11"/>
@@ -34039,16 +34430,16 @@
       </c>
       <c r="C43" s="3"/>
       <c r="F43" s="11">
-        <f t="shared" si="7"/>
-        <v>14889.774485600659</v>
+        <f t="shared" si="9"/>
+        <v>15747.877072509587</v>
       </c>
       <c r="G43" s="11">
         <f t="shared" si="1"/>
-        <v>6249.4380736235871</v>
+        <v>6975.0851259551928</v>
       </c>
       <c r="H43" s="11">
         <f t="shared" si="4"/>
-        <v>624.94380736235871</v>
+        <v>697.50851259551928</v>
       </c>
       <c r="I43" s="11"/>
       <c r="J43" s="11"/>
@@ -34062,16 +34453,16 @@
       </c>
       <c r="C44" s="3"/>
       <c r="F44" s="11">
-        <f t="shared" si="7"/>
-        <v>15461.23805982058</v>
+        <f t="shared" si="9"/>
+        <v>16388.667413802246</v>
       </c>
       <c r="G44" s="11">
         <f t="shared" si="1"/>
-        <v>5714.635742199207</v>
+        <v>6407.9034129265892</v>
       </c>
       <c r="H44" s="11">
         <f t="shared" si="4"/>
-        <v>571.4635742199207</v>
+        <v>640.79034129265892</v>
       </c>
       <c r="I44" s="11"/>
       <c r="J44" s="11"/>
@@ -34085,16 +34476,16 @@
       </c>
       <c r="C45" s="3"/>
       <c r="F45" s="11">
-        <f t="shared" si="7"/>
-        <v>15978.617998801123</v>
+        <f t="shared" si="9"/>
+        <v>16971.278076272469</v>
       </c>
       <c r="G45" s="11">
         <f t="shared" si="1"/>
-        <v>5173.7993898054265</v>
+        <v>5826.1066247022245</v>
       </c>
       <c r="H45" s="11">
         <f t="shared" si="4"/>
-        <v>517.37993898054265</v>
+        <v>582.61066247022245</v>
       </c>
       <c r="I45" s="11"/>
       <c r="J45" s="11"/>
@@ -34108,16 +34499,16 @@
       </c>
       <c r="C46" s="3"/>
       <c r="F46" s="11">
-        <f t="shared" si="7"/>
-        <v>16442.825005084276</v>
+        <f t="shared" si="9"/>
+        <v>17496.017792797407</v>
       </c>
       <c r="G46" s="11">
         <f t="shared" si="1"/>
-        <v>4642.0700628315353</v>
+        <v>5247.3971652493856</v>
       </c>
       <c r="H46" s="11">
         <f t="shared" si="4"/>
-        <v>464.20700628315353</v>
+        <v>524.73971652493856</v>
       </c>
       <c r="I46" s="11"/>
       <c r="J46" s="11"/>
@@ -34131,16 +34522,16 @@
       </c>
       <c r="C47" s="3"/>
       <c r="F47" s="11">
-        <f t="shared" si="7"/>
-        <v>16855.963825737646</v>
+        <f t="shared" si="9"/>
+        <v>17964.634436338896</v>
       </c>
       <c r="G47" s="11">
         <f t="shared" si="1"/>
-        <v>4131.388206533702</v>
+        <v>4686.1664354148888</v>
       </c>
       <c r="H47" s="11">
         <f t="shared" si="4"/>
-        <v>413.1388206533702</v>
+        <v>468.61664354148888</v>
       </c>
       <c r="I47" s="11"/>
       <c r="J47" s="11"/>
@@ -34154,16 +34545,16 @@
       </c>
       <c r="C48" s="3"/>
       <c r="F48" s="11">
-        <f t="shared" si="7"/>
-        <v>17221.010280241419</v>
+        <f t="shared" si="9"/>
+        <v>18379.964240760815</v>
       </c>
       <c r="G48" s="11">
         <f t="shared" si="1"/>
-        <v>3650.4645450377211</v>
+        <v>4153.2980442191911</v>
       </c>
       <c r="H48" s="11">
         <f t="shared" si="4"/>
-        <v>365.04645450377211</v>
+        <v>415.32980442191911</v>
       </c>
       <c r="I48" s="11"/>
       <c r="J48" s="11"/>
@@ -34177,16 +34568,16 @@
       </c>
       <c r="C49" s="3"/>
       <c r="F49" s="11">
-        <f t="shared" si="7"/>
-        <v>17541.51285915012</v>
+        <f t="shared" si="9"/>
+        <v>18745.595993500992</v>
       </c>
       <c r="G49" s="11">
         <f t="shared" si="1"/>
-        <v>3205.0257890870125</v>
+        <v>3656.3175274017703</v>
       </c>
       <c r="H49" s="11">
         <f t="shared" si="4"/>
-        <v>320.50257890870125</v>
+        <v>365.63175274017703</v>
       </c>
       <c r="I49" s="11"/>
       <c r="J49" s="11"/>
@@ -34200,16 +34591,16 @@
       </c>
       <c r="C50" s="3"/>
       <c r="F50" s="11">
-        <f t="shared" si="7"/>
-        <v>17821.335654295501</v>
+        <f t="shared" si="9"/>
+        <v>19065.573203362124</v>
       </c>
       <c r="G50" s="11">
         <f t="shared" si="1"/>
-        <v>2798.2279514538095</v>
+        <v>3199.77209861132</v>
       </c>
       <c r="H50" s="11">
         <f t="shared" si="4"/>
-        <v>279.82279514538095</v>
+        <v>319.977209861132</v>
       </c>
       <c r="I50" s="11"/>
       <c r="J50" s="11"/>
@@ -34223,16 +34614,16 @@
       </c>
       <c r="C51" s="3"/>
       <c r="F51" s="11">
-        <f t="shared" si="7"/>
-        <v>18064.450078999096</v>
+        <f t="shared" si="9"/>
+        <v>19344.146383687792</v>
       </c>
       <c r="G51" s="11">
         <f t="shared" si="1"/>
-        <v>2431.1442470359543</v>
+        <v>2785.7318032566764</v>
       </c>
       <c r="H51" s="11">
         <f t="shared" si="4"/>
-        <v>243.11442470359543</v>
+        <v>278.57318032566764</v>
       </c>
       <c r="I51" s="11"/>
       <c r="J51" s="11"/>
@@ -34246,16 +34637,16 @@
       </c>
       <c r="C52" s="3"/>
       <c r="F52" s="11">
-        <f t="shared" si="7"/>
-        <v>18274.775842610081</v>
+        <f t="shared" si="9"/>
+        <v>19585.578914365</v>
       </c>
       <c r="G52" s="11">
         <f t="shared" si="1"/>
-        <v>2103.2576361098472</v>
+        <v>2414.3253067720798</v>
       </c>
       <c r="H52" s="11">
         <f t="shared" si="4"/>
-        <v>210.32576361098472</v>
+        <v>241.43253067720798</v>
       </c>
       <c r="I52" s="11"/>
       <c r="J52" s="11"/>
@@ -34269,16 +34660,16 @@
       </c>
       <c r="C53" s="3"/>
       <c r="F53" s="11">
-        <f t="shared" si="7"/>
-        <v>18456.067085881281</v>
+        <f t="shared" si="9"/>
+        <v>19794.003912611654</v>
       </c>
       <c r="G53" s="11">
         <f t="shared" si="1"/>
-        <v>1812.9124327120007</v>
+        <v>2084.2499824665356</v>
       </c>
       <c r="H53" s="11">
         <f t="shared" si="4"/>
-        <v>181.29124327120007</v>
+        <v>208.42499824665356</v>
       </c>
       <c r="I53" s="11"/>
       <c r="J53" s="11"/>
@@ -34292,16 +34683,16 @@
       </c>
       <c r="C54" s="3"/>
       <c r="F54" s="11">
-        <f t="shared" si="7"/>
-        <v>18611.837132628865</v>
+        <f t="shared" si="9"/>
+        <v>19973.325973531508</v>
       </c>
       <c r="G54" s="11">
         <f t="shared" si="1"/>
-        <v>1557.7004674758427</v>
+        <v>1793.2206091985427</v>
       </c>
       <c r="H54" s="11">
         <f t="shared" si="4"/>
-        <v>155.77004674758427</v>
+        <v>179.32206091985427</v>
       </c>
       <c r="I54" s="11"/>
       <c r="J54" s="11"/>
@@ -34315,16 +34706,16 @@
       </c>
       <c r="C55" s="3"/>
       <c r="F55" s="11">
-        <f t="shared" si="7"/>
-        <v>18745.314446475961</v>
+        <f t="shared" si="9"/>
+        <v>20127.16003546397</v>
       </c>
       <c r="G55" s="11">
         <f t="shared" si="1"/>
-        <v>1334.773138470955</v>
+        <v>1538.3406193246265</v>
       </c>
       <c r="H55" s="11">
         <f t="shared" si="4"/>
-        <v>133.4773138470955</v>
+        <v>153.83406193246265</v>
       </c>
       <c r="I55" s="11"/>
       <c r="J55" s="11"/>
@@ -34338,16 +34729,16 @@
       </c>
       <c r="C56" s="3"/>
       <c r="F56" s="11">
-        <f t="shared" si="7"/>
-        <v>18859.422564904489</v>
+        <f t="shared" si="9"/>
+        <v>20258.799394720634</v>
       </c>
       <c r="G56" s="11">
         <f t="shared" si="1"/>
-        <v>1141.0811842852854</v>
+        <v>1316.3935925666374</v>
       </c>
       <c r="H56" s="11">
         <f t="shared" si="4"/>
-        <v>114.10811842852854</v>
+        <v>131.63935925666374</v>
       </c>
       <c r="I56" s="11"/>
       <c r="J56" s="11"/>
@@ -34361,16 +34752,16 @@
       </c>
       <c r="C57" s="3"/>
       <c r="F57" s="11">
-        <f t="shared" si="7"/>
-        <v>18956.777566114659</v>
+        <f t="shared" si="9"/>
+        <v>20371.205507167284</v>
       </c>
       <c r="G57" s="11">
         <f t="shared" si="1"/>
-        <v>973.55001210169576</v>
+        <v>1124.0611244664979</v>
       </c>
       <c r="H57" s="11">
         <f t="shared" si="4"/>
-        <v>97.355001210169576</v>
+        <v>112.40611244664979</v>
       </c>
       <c r="I57" s="11"/>
       <c r="J57" s="11"/>
@@ -34384,16 +34775,16 @@
       </c>
       <c r="C58" s="3"/>
       <c r="F58" s="11">
-        <f t="shared" si="7"/>
-        <v>19039.697674525287</v>
+        <f t="shared" si="9"/>
+        <v>20467.013255369406</v>
       </c>
       <c r="G58" s="11">
         <f t="shared" si="1"/>
-        <v>829.20108410628018</v>
+        <v>958.07748202121729</v>
       </c>
       <c r="H58" s="11">
         <f t="shared" si="4"/>
-        <v>82.920108410628018</v>
+        <v>95.807748202121729</v>
       </c>
       <c r="I58" s="11"/>
       <c r="J58" s="11"/>
@@ -34407,16 +34798,16 @@
       </c>
       <c r="C59" s="3"/>
       <c r="F59" s="11">
-        <f t="shared" si="7"/>
-        <v>19110.220708517416</v>
+        <f t="shared" si="9"/>
+        <v>20548.546542033957</v>
       </c>
       <c r="G59" s="11">
         <f t="shared" si="1"/>
-        <v>705.23033992129058</v>
+        <v>815.33286664551269</v>
       </c>
       <c r="H59" s="11">
         <f t="shared" si="4"/>
-        <v>70.523033992129058</v>
+        <v>81.533286664551269</v>
       </c>
       <c r="I59" s="11"/>
       <c r="J59" s="11"/>
@@ -34430,16 +34821,16 @@
       </c>
       <c r="C60" s="3"/>
       <c r="F60" s="11">
-        <f t="shared" ref="F60:F67" si="8">$L$2/(1+$L$5*EXP(-$L$4*B60))</f>
-        <v>19170.126091277176</v>
+        <f t="shared" ref="F60:F67" si="10">$L$2/(1+$L$5*EXP(-$L$4*B60))</f>
+        <v>20617.840215665983</v>
       </c>
       <c r="G60" s="11">
         <f t="shared" si="1"/>
-        <v>599.05382759759959</v>
+        <v>692.93673632026184</v>
       </c>
       <c r="H60" s="11">
         <f t="shared" si="4"/>
-        <v>59.905382759759959</v>
+        <v>69.293673632026184</v>
       </c>
       <c r="I60" s="11"/>
       <c r="J60" s="11"/>
@@ -34453,16 +34844,16 @@
       </c>
       <c r="C61" s="3"/>
       <c r="F61" s="11">
-        <f t="shared" si="8"/>
-        <v>19220.959020379301</v>
+        <f t="shared" si="10"/>
+        <v>20676.665348247563</v>
       </c>
       <c r="G61" s="11">
         <f t="shared" si="1"/>
-        <v>508.3292910212549</v>
+        <v>588.25132581579965</v>
       </c>
       <c r="H61" s="11">
         <f t="shared" si="4"/>
-        <v>50.83292910212549</v>
+        <v>58.825132581579965</v>
       </c>
       <c r="I61" s="11"/>
       <c r="J61" s="11"/>
@@ -34476,16 +34867,16 @@
       </c>
       <c r="C62" s="3"/>
       <c r="F62" s="11">
-        <f t="shared" si="8"/>
-        <v>19264.055105061096</v>
+        <f t="shared" si="10"/>
+        <v>20726.555729370077</v>
       </c>
       <c r="G62" s="11">
         <f t="shared" si="1"/>
-        <v>430.96084681794309</v>
+        <v>498.90381122513645</v>
       </c>
       <c r="H62" s="11">
         <f t="shared" si="4"/>
-        <v>43.096084681794309</v>
+        <v>49.890381122513645</v>
       </c>
       <c r="I62" s="11"/>
       <c r="J62" s="11"/>
@@ -34499,16 +34890,16 @@
       </c>
       <c r="C63" s="3"/>
       <c r="F63" s="11">
-        <f t="shared" si="8"/>
-        <v>19300.564338036507</v>
+        <f t="shared" si="10"/>
+        <v>20768.834113317804</v>
       </c>
       <c r="G63" s="11">
         <f t="shared" si="1"/>
-        <v>365.09232975411578</v>
+        <v>422.78383947726979</v>
       </c>
       <c r="H63" s="11">
         <f t="shared" si="4"/>
-        <v>36.509232975411578</v>
+        <v>42.278383947726979</v>
       </c>
       <c r="I63" s="11"/>
       <c r="J63" s="11"/>
@@ -34522,16 +34913,16 @@
       </c>
       <c r="C64" s="3"/>
       <c r="F64" s="11">
-        <f t="shared" si="8"/>
-        <v>19331.473689855655</v>
+        <f t="shared" si="10"/>
+        <v>20804.637270596504</v>
       </c>
       <c r="G64" s="11">
         <f t="shared" si="1"/>
-        <v>309.0935181914756</v>
+        <v>358.03157278700382</v>
       </c>
       <c r="H64" s="11">
         <f t="shared" si="4"/>
-        <v>30.90935181914756</v>
+        <v>35.803157278700382</v>
       </c>
       <c r="I64" s="11"/>
       <c r="J64" s="11"/>
@@ -34545,16 +34936,16 @@
       </c>
       <c r="C65" s="3"/>
       <c r="F65" s="11">
-        <f t="shared" si="8"/>
-        <v>19357.627921511281</v>
+        <f t="shared" si="10"/>
+        <v>20834.939277021032</v>
       </c>
       <c r="G65" s="11">
         <f t="shared" si="1"/>
-        <v>261.54231655626063</v>
+        <v>303.02006424528372</v>
       </c>
       <c r="H65" s="11">
         <f t="shared" si="4"/>
-        <v>26.154231655626063</v>
+        <v>30.302006424528372</v>
       </c>
       <c r="I65" s="11"/>
       <c r="J65" s="11"/>
@@ -34568,16 +34959,16 @@
       </c>
       <c r="C66" s="3"/>
       <c r="F66" s="11">
-        <f t="shared" si="8"/>
-        <v>19379.748428502113</v>
+        <f t="shared" si="10"/>
+        <v>20860.572747223094</v>
       </c>
       <c r="G66" s="11">
         <f t="shared" si="1"/>
-        <v>221.20506990831927</v>
+        <v>256.33470202061289</v>
       </c>
       <c r="H66" s="11">
         <f t="shared" si="4"/>
-        <v>22.120506990831927</v>
+        <v>25.633470202061289</v>
       </c>
       <c r="I66" s="11"/>
       <c r="J66" s="11"/>
@@ -34591,16 +34982,16 @@
       </c>
       <c r="C67" s="3"/>
       <c r="F67" s="11">
-        <f t="shared" si="8"/>
-        <v>19398.450077782141</v>
+        <f t="shared" si="10"/>
+        <v>20882.247909134818</v>
       </c>
       <c r="G67" s="11">
         <f t="shared" si="1"/>
-        <v>187.01649280028505</v>
+        <v>216.7516191172399</v>
       </c>
       <c r="H67" s="11">
         <f t="shared" si="4"/>
-        <v>18.701649280028505</v>
+        <v>21.67516191172399</v>
       </c>
       <c r="I67" s="11"/>
       <c r="J67" s="11"/>
@@ -34616,11 +35007,130 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D4EC047-CF5D-484E-A7B7-CAA26D9EDB17}">
+  <dimension ref="A1:C20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8"/>
+  <cols>
+    <col min="2" max="2" width="10.5" customWidth="1"/>
+    <col min="3" max="3" width="10.796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="18"/>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="B6" s="17">
+        <v>43918</v>
+      </c>
+      <c r="C6" s="17">
+        <v>43919</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="9">
+        <v>100000</v>
+      </c>
+      <c r="C7" s="9">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="9">
+        <v>710</v>
+      </c>
+      <c r="C8" s="9">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="9">
+        <v>0.17</v>
+      </c>
+      <c r="C9" s="9">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" s="18"/>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="B17" s="17">
+        <v>43918</v>
+      </c>
+      <c r="C17" s="17">
+        <v>43919</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" s="9">
+        <v>19500</v>
+      </c>
+      <c r="C18" s="9">
+        <v>21000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" s="9">
+        <v>59</v>
+      </c>
+      <c r="C19" s="9">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" s="9">
+        <v>0.17</v>
+      </c>
+      <c r="C20" s="9">
+        <v>0.17</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A12:B12"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E36"/>
+  <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36:E37"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
@@ -35334,6 +35844,27 @@
       <c r="E36">
         <f t="shared" si="2"/>
         <v>209</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="2">
+        <v>43919</v>
+      </c>
+      <c r="B37" s="3">
+        <f>Dati!K37</f>
+        <v>97689</v>
+      </c>
+      <c r="C37">
+        <f t="shared" ref="C37" si="3">B37-B36</f>
+        <v>5217</v>
+      </c>
+      <c r="D37">
+        <f t="shared" ref="D37" si="4">C37-C36</f>
+        <v>-757</v>
+      </c>
+      <c r="E37">
+        <f t="shared" ref="E37" si="5">D37-D36</f>
+        <v>-772</v>
       </c>
     </row>
   </sheetData>
@@ -35348,9 +35879,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:E36"/>
+  <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36:E37"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
@@ -36066,6 +36599,27 @@
         <v>7</v>
       </c>
     </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="2">
+        <v>43919</v>
+      </c>
+      <c r="B37" s="3">
+        <f>Dati!D37</f>
+        <v>3906</v>
+      </c>
+      <c r="C37">
+        <f t="shared" ref="C37" si="3">B37-B36</f>
+        <v>50</v>
+      </c>
+      <c r="D37">
+        <f t="shared" ref="D37" si="4">C37-C36</f>
+        <v>-74</v>
+      </c>
+      <c r="E37">
+        <f t="shared" ref="E37" si="5">D37-D36</f>
+        <v>-78</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.70000000000000007" right="0.70000000000000007" top="0.75" bottom="0.75" header="0.30000000000000004" footer="0.30000000000000004"/>
   <drawing r:id="rId1"/>
@@ -36074,9 +36628,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:E36"/>
+  <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36:E37"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
@@ -36793,6 +37349,27 @@
         <v>1255</v>
       </c>
     </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="2">
+        <v>43919</v>
+      </c>
+      <c r="B37" s="3">
+        <f>Dati!I37</f>
+        <v>13030</v>
+      </c>
+      <c r="C37">
+        <f t="shared" ref="C37" si="3">B37-B36</f>
+        <v>646</v>
+      </c>
+      <c r="D37">
+        <f t="shared" ref="D37" si="4">C37-C36</f>
+        <v>-788</v>
+      </c>
+      <c r="E37">
+        <f t="shared" ref="E37" si="5">D37-D36</f>
+        <v>-1633</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0.39370078740157505" bottom="0.39370078740157505" header="0" footer="0"/>
   <headerFooter>
@@ -36805,9 +37382,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:E36"/>
+  <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36:E37"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
@@ -37524,6 +38103,27 @@
         <v>-387</v>
       </c>
     </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="2">
+        <v>43919</v>
+      </c>
+      <c r="B37" s="3">
+        <f>Dati!J37</f>
+        <v>10779</v>
+      </c>
+      <c r="C37">
+        <f t="shared" ref="C37" si="3">B37-B36</f>
+        <v>756</v>
+      </c>
+      <c r="D37">
+        <f t="shared" ref="D37" si="4">C37-C36</f>
+        <v>-133</v>
+      </c>
+      <c r="E37">
+        <f t="shared" ref="E37" si="5">D37-D36</f>
+        <v>-53</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0.39370078740157505" bottom="0.39370078740157505" header="0" footer="0"/>
   <headerFooter>
@@ -37536,9 +38136,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:E36"/>
+  <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36:E37"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
@@ -38255,6 +38857,27 @@
         <v>-257</v>
       </c>
     </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="2">
+        <v>43919</v>
+      </c>
+      <c r="B37" s="3">
+        <f>Dati!E37</f>
+        <v>31292</v>
+      </c>
+      <c r="C37">
+        <f t="shared" ref="C37" si="3">B37-B36</f>
+        <v>760</v>
+      </c>
+      <c r="D37">
+        <f t="shared" ref="D37" si="4">C37-C36</f>
+        <v>-11</v>
+      </c>
+      <c r="E37">
+        <f t="shared" ref="E37" si="5">D37-D36</f>
+        <v>614</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0.39370078740157505" bottom="0.39370078740157505" header="0" footer="0"/>
   <headerFooter>
@@ -38267,9 +38890,11 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:E36"/>
+  <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36:E37"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
@@ -38987,6 +39612,27 @@
         <v>-659</v>
       </c>
     </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="2">
+        <v>43919</v>
+      </c>
+      <c r="B37" s="3">
+        <f>Dati!G37</f>
+        <v>73880</v>
+      </c>
+      <c r="C37">
+        <f t="shared" ref="C37" si="3">B37-B36</f>
+        <v>3815</v>
+      </c>
+      <c r="D37">
+        <f t="shared" ref="D37" si="4">C37-C36</f>
+        <v>164</v>
+      </c>
+      <c r="E37">
+        <f t="shared" ref="E37" si="5">D37-D36</f>
+        <v>914</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0.39370078740157505" bottom="0.39370078740157505" header="0" footer="0"/>
   <headerFooter>
@@ -38999,9 +39645,11 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:E36"/>
+  <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36:E37"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
@@ -39718,6 +40366,27 @@
         <v>-402</v>
       </c>
     </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="2">
+        <v>43919</v>
+      </c>
+      <c r="B37" s="3">
+        <f>Dati!F37</f>
+        <v>42588</v>
+      </c>
+      <c r="C37">
+        <f t="shared" ref="C37" si="3">B37-B36</f>
+        <v>3055</v>
+      </c>
+      <c r="D37">
+        <f t="shared" ref="D37" si="4">C37-C36</f>
+        <v>175</v>
+      </c>
+      <c r="E37">
+        <f t="shared" ref="E37" si="5">D37-D36</f>
+        <v>300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0.39370078740157505" bottom="0.39370078740157505" header="0" footer="0"/>
   <headerFooter>
@@ -39730,10 +40399,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:N36"/>
+  <dimension ref="A1:N37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L23" sqref="L23"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="J41" sqref="J41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -40982,6 +41651,42 @@
         <v>16.312167365887049</v>
       </c>
     </row>
+    <row r="37" spans="1:11">
+      <c r="A37" s="2">
+        <v>43919</v>
+      </c>
+      <c r="B37" s="10">
+        <v>35</v>
+      </c>
+      <c r="C37" s="3">
+        <f>Dati!L37</f>
+        <v>454030</v>
+      </c>
+      <c r="D37">
+        <f t="shared" ref="D37" si="4">C37-C36</f>
+        <v>24504</v>
+      </c>
+      <c r="E37">
+        <f t="shared" ref="E37" si="5">D37-D36</f>
+        <v>-10943</v>
+      </c>
+      <c r="H37" s="5">
+        <f>C37/Casi_totali!B37</f>
+        <v>4.647708544462529</v>
+      </c>
+      <c r="I37" s="5">
+        <f>C37/Positivi!B37</f>
+        <v>6.1455062263129401</v>
+      </c>
+      <c r="J37" s="6">
+        <f t="shared" ref="J37" si="6">100/H37</f>
+        <v>21.515979120322445</v>
+      </c>
+      <c r="K37" s="6">
+        <f t="shared" ref="K37" si="7">100/I37</f>
+        <v>16.272052507543552</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.70000000000000007" right="0.70000000000000007" top="0.75" bottom="0.75" header="0.30000000000000004" footer="0.30000000000000004"/>
   <pageSetup paperSize="0" fitToWidth="0" fitToHeight="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>

--- a/covid_ita.xlsx
+++ b/covid_ita.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carpaneto\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22FC79F2-8491-4A94-8AC5-C24ABF3D0604}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20998A0E-B24D-451B-81F2-1A2BE7966BE6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="3" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dati" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="38">
   <si>
     <t>data</t>
   </si>
@@ -1807,6 +1807,9 @@
                 <c:pt idx="34">
                   <c:v>43919</c:v>
                 </c:pt>
+                <c:pt idx="35">
+                  <c:v>43920</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -1917,6 +1920,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>760</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>484</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2066,6 +2072,9 @@
                 <c:pt idx="34">
                   <c:v>43919</c:v>
                 </c:pt>
+                <c:pt idx="35">
+                  <c:v>43920</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -2173,6 +2182,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>-11</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-276</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2318,6 +2330,9 @@
                 <c:pt idx="34">
                   <c:v>43919</c:v>
                 </c:pt>
+                <c:pt idx="35">
+                  <c:v>43920</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -2422,6 +2437,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>614</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-265</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2805,6 +2823,9 @@
                 <c:pt idx="34">
                   <c:v>43919</c:v>
                 </c:pt>
+                <c:pt idx="35">
+                  <c:v>43920</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -2918,6 +2939,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>73880</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>75528</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3067,6 +3091,9 @@
                 <c:pt idx="34">
                   <c:v>43919</c:v>
                 </c:pt>
+                <c:pt idx="35">
+                  <c:v>43920</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -3177,6 +3204,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>3815</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1648</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3322,6 +3352,9 @@
                 <c:pt idx="34">
                   <c:v>43919</c:v>
                 </c:pt>
+                <c:pt idx="35">
+                  <c:v>43920</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -3429,6 +3462,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>164</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-2167</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3578,6 +3614,9 @@
                 <c:pt idx="34">
                   <c:v>43919</c:v>
                 </c:pt>
+                <c:pt idx="35">
+                  <c:v>43920</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -3682,6 +3721,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>914</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-2331</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4056,6 +4098,9 @@
                 <c:pt idx="34">
                   <c:v>43919</c:v>
                 </c:pt>
+                <c:pt idx="35">
+                  <c:v>43920</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -4166,6 +4211,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>3815</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1648</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4315,6 +4363,9 @@
                 <c:pt idx="34">
                   <c:v>43919</c:v>
                 </c:pt>
+                <c:pt idx="35">
+                  <c:v>43920</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -4422,6 +4473,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>164</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-2167</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4567,6 +4621,9 @@
                 <c:pt idx="34">
                   <c:v>43919</c:v>
                 </c:pt>
+                <c:pt idx="35">
+                  <c:v>43920</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -4671,6 +4728,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>914</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-2331</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6795,6 +6855,9 @@
                 <c:pt idx="34">
                   <c:v>43919</c:v>
                 </c:pt>
+                <c:pt idx="35">
+                  <c:v>43920</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -6905,6 +6968,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>3055</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1164</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7054,6 +7120,9 @@
                 <c:pt idx="34">
                   <c:v>43919</c:v>
                 </c:pt>
+                <c:pt idx="35">
+                  <c:v>43920</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -7161,6 +7230,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-1891</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7306,6 +7378,9 @@
                 <c:pt idx="34">
                   <c:v>43919</c:v>
                 </c:pt>
+                <c:pt idx="35">
+                  <c:v>43920</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -7410,6 +7485,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-2066</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7829,6 +7907,9 @@
                 <c:pt idx="34">
                   <c:v>43919</c:v>
                 </c:pt>
+                <c:pt idx="35">
+                  <c:v>43920</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -7942,6 +8023,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>454030</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>477359</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8327,6 +8411,9 @@
                 <c:pt idx="34">
                   <c:v>43919</c:v>
                 </c:pt>
+                <c:pt idx="35">
+                  <c:v>43920</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -8437,6 +8524,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>24504</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>23329</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8833,6 +8923,9 @@
                 <c:pt idx="34">
                   <c:v>43919</c:v>
                 </c:pt>
+                <c:pt idx="35">
+                  <c:v>43920</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -8946,6 +9039,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>4.647708544462529</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>4.6919961863198969</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9095,6 +9191,9 @@
                 <c:pt idx="34">
                   <c:v>43919</c:v>
                 </c:pt>
+                <c:pt idx="35">
+                  <c:v>43920</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -9208,6 +9307,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>6.1455062263129401</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>6.3202918123080183</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9639,6 +9741,9 @@
                 <c:pt idx="34">
                   <c:v>43919</c:v>
                 </c:pt>
+                <c:pt idx="35">
+                  <c:v>43920</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -9752,6 +9857,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>21.515979120322445</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>21.312890298496519</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9901,6 +10009,9 @@
                 <c:pt idx="35">
                   <c:v>43919</c:v>
                 </c:pt>
+                <c:pt idx="36">
+                  <c:v>43920</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -10014,6 +10125,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>16.272052507543552</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>15.822054261048812</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11524,6 +11638,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>73880</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>75528</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13423,6 +13540,9 @@
                 <c:pt idx="34">
                   <c:v>73880</c:v>
                 </c:pt>
+                <c:pt idx="35">
+                  <c:v>75528</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -14863,6 +14983,9 @@
                 <c:pt idx="34">
                   <c:v>588.45974502580066</c:v>
                 </c:pt>
+                <c:pt idx="35">
+                  <c:v>-957.15651313331909</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -15342,6 +15465,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>10779</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>11591</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16495,6 +16621,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>10779</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>11591</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -17942,6 +18071,9 @@
                 <c:pt idx="34">
                   <c:v>-130.67625214967848</c:v>
                 </c:pt>
+                <c:pt idx="35">
+                  <c:v>-204.74608076006552</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -18335,6 +18467,9 @@
                 <c:pt idx="34">
                   <c:v>43919</c:v>
                 </c:pt>
+                <c:pt idx="35">
+                  <c:v>43920</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -18448,6 +18583,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>97689</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>101739</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -18835,6 +18973,9 @@
                 <c:pt idx="34">
                   <c:v>43919</c:v>
                 </c:pt>
+                <c:pt idx="35">
+                  <c:v>43920</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -18948,6 +19089,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>3906</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3981</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -19097,6 +19241,9 @@
                 <c:pt idx="35">
                   <c:v>43919</c:v>
                 </c:pt>
+                <c:pt idx="36">
+                  <c:v>43920</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -19207,6 +19354,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>75</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -19542,6 +19692,9 @@
                 <c:pt idx="35">
                   <c:v>43919</c:v>
                 </c:pt>
+                <c:pt idx="36">
+                  <c:v>43920</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -19646,6 +19799,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>-78</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>99</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -20020,6 +20176,9 @@
                 <c:pt idx="34">
                   <c:v>43919</c:v>
                 </c:pt>
+                <c:pt idx="35">
+                  <c:v>43920</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -20133,6 +20292,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>13030</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>14620</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -20282,6 +20444,9 @@
                 <c:pt idx="34">
                   <c:v>43919</c:v>
                 </c:pt>
+                <c:pt idx="35">
+                  <c:v>43920</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -20392,6 +20557,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>646</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1590</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -20537,6 +20705,9 @@
                 <c:pt idx="34">
                   <c:v>43919</c:v>
                 </c:pt>
+                <c:pt idx="35">
+                  <c:v>43920</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -20644,6 +20815,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>-788</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>944</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -20793,6 +20967,9 @@
                 <c:pt idx="34">
                   <c:v>43919</c:v>
                 </c:pt>
+                <c:pt idx="35">
+                  <c:v>43920</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -20897,6 +21074,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>-1633</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1732</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -21280,6 +21460,9 @@
                 <c:pt idx="34">
                   <c:v>43919</c:v>
                 </c:pt>
+                <c:pt idx="35">
+                  <c:v>43920</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -21390,6 +21573,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>646</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1590</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -21539,6 +21725,9 @@
                 <c:pt idx="34">
                   <c:v>43919</c:v>
                 </c:pt>
+                <c:pt idx="35">
+                  <c:v>43920</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -21646,6 +21835,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>-788</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>944</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -21791,6 +21983,9 @@
                 <c:pt idx="34">
                   <c:v>43919</c:v>
                 </c:pt>
+                <c:pt idx="35">
+                  <c:v>43920</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -21895,6 +22090,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>-1633</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1732</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -22278,6 +22476,9 @@
                 <c:pt idx="34">
                   <c:v>43919</c:v>
                 </c:pt>
+                <c:pt idx="35">
+                  <c:v>43920</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -22388,6 +22589,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>756</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>812</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -22537,6 +22741,9 @@
                 <c:pt idx="34">
                   <c:v>43919</c:v>
                 </c:pt>
+                <c:pt idx="35">
+                  <c:v>43920</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -22644,6 +22851,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>-133</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>56</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -22789,6 +22999,9 @@
                 <c:pt idx="34">
                   <c:v>43919</c:v>
                 </c:pt>
+                <c:pt idx="35">
+                  <c:v>43920</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -22893,6 +23106,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>-53</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>189</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -23276,6 +23492,9 @@
                 <c:pt idx="34">
                   <c:v>43919</c:v>
                 </c:pt>
+                <c:pt idx="35">
+                  <c:v>43920</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -23389,6 +23608,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>10779</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>11591</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -23538,6 +23760,9 @@
                 <c:pt idx="34">
                   <c:v>43919</c:v>
                 </c:pt>
+                <c:pt idx="35">
+                  <c:v>43920</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -23648,6 +23873,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>756</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>812</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -23793,6 +24021,9 @@
                 <c:pt idx="34">
                   <c:v>43919</c:v>
                 </c:pt>
+                <c:pt idx="35">
+                  <c:v>43920</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -23900,6 +24131,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>-133</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>56</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -24049,6 +24283,9 @@
                 <c:pt idx="34">
                   <c:v>43919</c:v>
                 </c:pt>
+                <c:pt idx="35">
+                  <c:v>43920</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -24153,6 +24390,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>-53</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>189</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -24527,6 +24767,9 @@
                 <c:pt idx="34">
                   <c:v>43919</c:v>
                 </c:pt>
+                <c:pt idx="35">
+                  <c:v>43920</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -24640,6 +24883,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>31292</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>31776</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -24789,6 +25035,9 @@
                 <c:pt idx="34">
                   <c:v>43919</c:v>
                 </c:pt>
+                <c:pt idx="35">
+                  <c:v>43920</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -24899,6 +25148,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>760</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>484</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -25044,6 +25296,9 @@
                 <c:pt idx="34">
                   <c:v>43919</c:v>
                 </c:pt>
+                <c:pt idx="35">
+                  <c:v>43920</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -25151,6 +25406,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>-11</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-276</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -25300,6 +25558,9 @@
                 <c:pt idx="34">
                   <c:v>43919</c:v>
                 </c:pt>
+                <c:pt idx="35">
+                  <c:v>43920</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -25404,6 +25665,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>614</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-265</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -27903,10 +28167,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L37"/>
+  <dimension ref="A1:L38"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+      <selection activeCell="A38" sqref="A38:XFD38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -29254,6 +29518,44 @@
         <v>454030</v>
       </c>
     </row>
+    <row r="38" spans="1:12">
+      <c r="A38" s="2">
+        <v>43920</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C38" s="3">
+        <v>27795</v>
+      </c>
+      <c r="D38" s="3">
+        <v>3981</v>
+      </c>
+      <c r="E38" s="3">
+        <v>31776</v>
+      </c>
+      <c r="F38" s="3">
+        <v>43752</v>
+      </c>
+      <c r="G38" s="3">
+        <v>75528</v>
+      </c>
+      <c r="H38" s="3">
+        <v>1648</v>
+      </c>
+      <c r="I38" s="3">
+        <v>14620</v>
+      </c>
+      <c r="J38" s="3">
+        <v>11591</v>
+      </c>
+      <c r="K38" s="3">
+        <v>101739</v>
+      </c>
+      <c r="L38" s="3">
+        <v>477359</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0.39370078740157505" bottom="0.39370078740157505" header="0" footer="0"/>
   <headerFooter>
@@ -29267,8 +29569,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:K149"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2:K4"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -29370,7 +29672,7 @@
         <v>154.19235441284661</v>
       </c>
       <c r="H4" s="11">
-        <f t="shared" ref="H4:H37" si="2">C4-E4</f>
+        <f t="shared" ref="H4:H38" si="2">C4-E4</f>
         <v>-683.65303461646738</v>
       </c>
       <c r="J4" s="4" t="s">
@@ -30471,6 +30773,14 @@
       <c r="B38" s="10">
         <v>36</v>
       </c>
+      <c r="C38" s="3">
+        <f>Dati!G38</f>
+        <v>75528</v>
+      </c>
+      <c r="D38">
+        <f t="shared" ref="D38" si="8">C38-C37</f>
+        <v>1648</v>
+      </c>
       <c r="E38" s="11">
         <f t="shared" si="5"/>
         <v>76485.156513133319</v>
@@ -30483,6 +30793,10 @@
         <f t="shared" si="4"/>
         <v>3193.6162581591198</v>
       </c>
+      <c r="H38" s="11">
+        <f t="shared" si="2"/>
+        <v>-957.15651313331909</v>
+      </c>
     </row>
     <row r="39" spans="1:8">
       <c r="A39" s="2">
@@ -31092,7 +31406,7 @@
         <v>0</v>
       </c>
       <c r="E67" s="11">
-        <f t="shared" ref="E67:E98" si="8">$K$2/(1+$K$5*EXP(-$K$4*B67))</f>
+        <f t="shared" ref="E67:E98" si="9">$K$2/(1+$K$5*EXP(-$K$4*B67))</f>
         <v>99778.318568093659</v>
       </c>
       <c r="F67" s="11">
@@ -31116,11 +31430,11 @@
         <v>0</v>
       </c>
       <c r="E68" s="11">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>99812.9103364779</v>
       </c>
       <c r="F68" s="11">
-        <f t="shared" ref="F68:F99" si="9">(E68-E67)*10</f>
+        <f t="shared" ref="F68:F99" si="10">(E68-E67)*10</f>
         <v>345.91768384241732</v>
       </c>
       <c r="G68" s="11">
@@ -31136,19 +31450,19 @@
         <v>67</v>
       </c>
       <c r="D69">
-        <f t="shared" ref="D69:D132" si="10">C69-C68</f>
+        <f t="shared" ref="D69:D132" si="11">C69-C68</f>
         <v>0</v>
       </c>
       <c r="E69" s="11">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>99842.112853404673</v>
       </c>
       <c r="F69" s="11">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>292.0251692677266</v>
       </c>
       <c r="G69" s="11">
-        <f t="shared" ref="G69:G132" si="11">E69-E68</f>
+        <f t="shared" ref="G69:G132" si="12">E69-E68</f>
         <v>29.20251692677266</v>
       </c>
     </row>
@@ -31160,19 +31474,19 @@
         <v>68</v>
       </c>
       <c r="D70">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="E70" s="11">
+        <f t="shared" si="9"/>
+        <v>99866.763282184605</v>
+      </c>
+      <c r="F70" s="11">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="E70" s="11">
-        <f t="shared" si="8"/>
-        <v>99866.763282184605</v>
-      </c>
-      <c r="F70" s="11">
-        <f t="shared" si="9"/>
         <v>246.50428779932554</v>
       </c>
       <c r="G70" s="11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>24.650428779932554</v>
       </c>
     </row>
@@ -31184,19 +31498,19 @@
         <v>69</v>
       </c>
       <c r="D71">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="E71" s="11">
+        <f t="shared" si="9"/>
+        <v>99887.569450081472</v>
+      </c>
+      <c r="F71" s="11">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="E71" s="11">
-        <f t="shared" si="8"/>
-        <v>99887.569450081472</v>
-      </c>
-      <c r="F71" s="11">
-        <f t="shared" si="9"/>
         <v>208.061678968661</v>
       </c>
       <c r="G71" s="11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>20.8061678968661</v>
       </c>
     </row>
@@ -31208,19 +31522,19 @@
         <v>70</v>
       </c>
       <c r="D72">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="E72" s="11">
+        <f t="shared" si="9"/>
+        <v>99905.129625499118</v>
+      </c>
+      <c r="F72" s="11">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="E72" s="11">
-        <f t="shared" si="8"/>
-        <v>99905.129625499118</v>
-      </c>
-      <c r="F72" s="11">
-        <f t="shared" si="9"/>
         <v>175.60175417645951</v>
       </c>
       <c r="G72" s="11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>17.560175417645951</v>
       </c>
     </row>
@@ -31232,19 +31546,19 @@
         <v>71</v>
       </c>
       <c r="D73">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="E73" s="11">
+        <f t="shared" si="9"/>
+        <v>99919.949330119241</v>
+      </c>
+      <c r="F73" s="11">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="E73" s="11">
-        <f t="shared" si="8"/>
-        <v>99919.949330119241</v>
-      </c>
-      <c r="F73" s="11">
-        <f t="shared" si="9"/>
         <v>148.19704620123957</v>
       </c>
       <c r="G73" s="11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>14.819704620123957</v>
       </c>
     </row>
@@ -31256,19 +31570,19 @@
         <v>72</v>
       </c>
       <c r="D74">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="E74" s="11">
+        <f t="shared" si="9"/>
+        <v>99932.45561327484</v>
+      </c>
+      <c r="F74" s="11">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="E74" s="11">
-        <f t="shared" si="8"/>
-        <v>99932.45561327484</v>
-      </c>
-      <c r="F74" s="11">
-        <f t="shared" si="9"/>
         <v>125.06283155598794</v>
       </c>
       <c r="G74" s="11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>12.506283155598794</v>
       </c>
     </row>
@@ -31280,19 +31594,19 @@
         <v>73</v>
       </c>
       <c r="D75">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="E75" s="11">
+        <f t="shared" si="9"/>
+        <v>99943.009159377063</v>
+      </c>
+      <c r="F75" s="11">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="E75" s="11">
-        <f t="shared" si="8"/>
-        <v>99943.009159377063</v>
-      </c>
-      <c r="F75" s="11">
-        <f t="shared" si="9"/>
         <v>105.53546102222754</v>
       </c>
       <c r="G75" s="11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>10.553546102222754</v>
       </c>
     </row>
@@ -31304,19 +31618,19 @@
         <v>74</v>
       </c>
       <c r="D76">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="E76" s="11">
+        <f t="shared" si="9"/>
+        <v>99951.914548641449</v>
+      </c>
+      <c r="F76" s="11">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="E76" s="11">
-        <f t="shared" si="8"/>
-        <v>99951.914548641449</v>
-      </c>
-      <c r="F76" s="11">
-        <f t="shared" si="9"/>
         <v>89.053892643860308</v>
       </c>
       <c r="G76" s="11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>8.9053892643860308</v>
       </c>
     </row>
@@ -31328,19 +31642,19 @@
         <v>75</v>
       </c>
       <c r="D77">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="E77" s="11">
+        <f t="shared" si="9"/>
+        <v>99959.428946590851</v>
+      </c>
+      <c r="F77" s="11">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="E77" s="11">
-        <f t="shared" si="8"/>
-        <v>99959.428946590851</v>
-      </c>
-      <c r="F77" s="11">
-        <f t="shared" si="9"/>
         <v>75.14397949402337</v>
       </c>
       <c r="G77" s="11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>7.514397949402337</v>
       </c>
     </row>
@@ -31352,19 +31666,19 @@
         <v>76</v>
       </c>
       <c r="D78">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="E78" s="11">
+        <f t="shared" si="9"/>
+        <v>99965.769458531679</v>
+      </c>
+      <c r="F78" s="11">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="E78" s="11">
-        <f t="shared" si="8"/>
-        <v>99965.769458531679</v>
-      </c>
-      <c r="F78" s="11">
-        <f t="shared" si="9"/>
         <v>63.405119408271275</v>
       </c>
       <c r="G78" s="11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>6.3405119408271275</v>
       </c>
     </row>
@@ -31376,19 +31690,19 @@
         <v>77</v>
       </c>
       <c r="D79">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="E79" s="11">
+        <f t="shared" si="9"/>
+        <v>99971.119350980123</v>
+      </c>
+      <c r="F79" s="11">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="E79" s="11">
-        <f t="shared" si="8"/>
-        <v>99971.119350980123</v>
-      </c>
-      <c r="F79" s="11">
-        <f t="shared" si="9"/>
         <v>53.498924484447343</v>
       </c>
       <c r="G79" s="11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>5.3498924484447343</v>
       </c>
     </row>
@@ -31400,19 +31714,19 @@
         <v>78</v>
       </c>
       <c r="D80">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="E80" s="11">
+        <f t="shared" si="9"/>
+        <v>99975.633312370497</v>
+      </c>
+      <c r="F80" s="11">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="E80" s="11">
-        <f t="shared" si="8"/>
-        <v>99975.633312370497</v>
-      </c>
-      <c r="F80" s="11">
-        <f t="shared" si="9"/>
         <v>45.139613903738791</v>
       </c>
       <c r="G80" s="11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>4.5139613903738791</v>
       </c>
     </row>
@@ -31424,19 +31738,19 @@
         <v>79</v>
       </c>
       <c r="D81">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="E81" s="11">
+        <f t="shared" si="9"/>
+        <v>99979.441899815793</v>
+      </c>
+      <c r="F81" s="11">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="E81" s="11">
-        <f t="shared" si="8"/>
-        <v>99979.441899815793</v>
-      </c>
-      <c r="F81" s="11">
-        <f t="shared" si="9"/>
         <v>38.085874452954158</v>
       </c>
       <c r="G81" s="11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>3.8085874452954158</v>
       </c>
     </row>
@@ -31448,19 +31762,19 @@
         <v>80</v>
       </c>
       <c r="D82">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="E82" s="11">
+        <f t="shared" si="9"/>
+        <v>99982.655296727666</v>
+      </c>
+      <c r="F82" s="11">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="E82" s="11">
-        <f t="shared" si="8"/>
-        <v>99982.655296727666</v>
-      </c>
-      <c r="F82" s="11">
-        <f t="shared" si="9"/>
         <v>32.133969118731329</v>
       </c>
       <c r="G82" s="11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>3.2133969118731329</v>
       </c>
     </row>
@@ -31472,19 +31786,19 @@
         <v>81</v>
       </c>
       <c r="D83">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="E83" s="11">
+        <f t="shared" si="9"/>
+        <v>99985.366487294348</v>
+      </c>
+      <c r="F83" s="11">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="E83" s="11">
-        <f t="shared" si="8"/>
-        <v>99985.366487294348</v>
-      </c>
-      <c r="F83" s="11">
-        <f t="shared" si="9"/>
         <v>27.111905666824896</v>
       </c>
       <c r="G83" s="11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2.7111905666824896</v>
       </c>
     </row>
@@ -31496,19 +31810,19 @@
         <v>82</v>
       </c>
       <c r="D84">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="E84" s="11">
+        <f t="shared" si="9"/>
+        <v>99987.6539377421</v>
+      </c>
+      <c r="F84" s="11">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="E84" s="11">
-        <f t="shared" si="8"/>
-        <v>99987.6539377421</v>
-      </c>
-      <c r="F84" s="11">
-        <f t="shared" si="9"/>
         <v>22.874504477513256</v>
       </c>
       <c r="G84" s="11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2.2874504477513256</v>
       </c>
     </row>
@@ -31520,19 +31834,19 @@
         <v>83</v>
       </c>
       <c r="D85">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="E85" s="11">
+        <f t="shared" si="9"/>
+        <v>99989.583860605097</v>
+      </c>
+      <c r="F85" s="11">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="E85" s="11">
-        <f t="shared" si="8"/>
-        <v>99989.583860605097</v>
-      </c>
-      <c r="F85" s="11">
-        <f t="shared" si="9"/>
         <v>19.299228629970457</v>
       </c>
       <c r="G85" s="11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1.9299228629970457</v>
       </c>
     </row>
@@ -31544,19 +31858,19 @@
         <v>84</v>
       </c>
       <c r="D86">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="E86" s="11">
+        <f t="shared" si="9"/>
+        <v>99991.212126565239</v>
+      </c>
+      <c r="F86" s="11">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="E86" s="11">
-        <f t="shared" si="8"/>
-        <v>99991.212126565239</v>
-      </c>
-      <c r="F86" s="11">
-        <f t="shared" si="9"/>
         <v>16.282659601420164</v>
       </c>
       <c r="G86" s="11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1.6282659601420164</v>
       </c>
     </row>
@@ -31568,19 +31882,19 @@
         <v>85</v>
       </c>
       <c r="D87">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="E87" s="11">
+        <f t="shared" si="9"/>
+        <v>99992.585878511192</v>
+      </c>
+      <c r="F87" s="11">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="E87" s="11">
-        <f t="shared" si="8"/>
-        <v>99992.585878511192</v>
-      </c>
-      <c r="F87" s="11">
-        <f t="shared" si="9"/>
         <v>13.737519459536998</v>
       </c>
       <c r="G87" s="11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1.3737519459536998</v>
       </c>
     </row>
@@ -31592,19 +31906,19 @@
         <v>86</v>
       </c>
       <c r="D88">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="E88" s="11">
+        <f t="shared" si="9"/>
+        <v>99993.744894051735</v>
+      </c>
+      <c r="F88" s="11">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="E88" s="11">
-        <f t="shared" si="8"/>
-        <v>99993.744894051735</v>
-      </c>
-      <c r="F88" s="11">
-        <f t="shared" si="9"/>
         <v>11.590155405428959</v>
       </c>
       <c r="G88" s="11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1.1590155405428959</v>
       </c>
     </row>
@@ -31616,19 +31930,19 @@
         <v>87</v>
       </c>
       <c r="D89">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="E89" s="11">
+        <f t="shared" si="9"/>
+        <v>99994.722735581352</v>
+      </c>
+      <c r="F89" s="11">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="E89" s="11">
-        <f t="shared" si="8"/>
-        <v>99994.722735581352</v>
-      </c>
-      <c r="F89" s="11">
-        <f t="shared" si="9"/>
         <v>9.7784152961685322</v>
       </c>
       <c r="G89" s="11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.97784152961685322</v>
       </c>
     </row>
@@ -31640,19 +31954,19 @@
         <v>88</v>
       </c>
       <c r="D90">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="E90" s="11">
+        <f t="shared" si="9"/>
+        <v>99995.54772094982</v>
+      </c>
+      <c r="F90" s="11">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="E90" s="11">
-        <f t="shared" si="8"/>
-        <v>99995.54772094982</v>
-      </c>
-      <c r="F90" s="11">
-        <f t="shared" si="9"/>
         <v>8.2498536846833304</v>
       </c>
       <c r="G90" s="11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.82498536846833304</v>
       </c>
     </row>
@@ -31664,19 +31978,19 @@
         <v>89</v>
       </c>
       <c r="D91">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="E91" s="11">
+        <f t="shared" si="9"/>
+        <v>99996.243742666353</v>
+      </c>
+      <c r="F91" s="11">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="E91" s="11">
-        <f t="shared" si="8"/>
-        <v>99996.243742666353</v>
-      </c>
-      <c r="F91" s="11">
-        <f t="shared" si="9"/>
         <v>6.9602171653241385</v>
       </c>
       <c r="G91" s="11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.69602171653241385</v>
       </c>
     </row>
@@ -31688,19 +32002,19 @@
         <v>90</v>
       </c>
       <c r="D92">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="E92" s="11">
+        <f t="shared" si="9"/>
+        <v>99996.830959235798</v>
+      </c>
+      <c r="F92" s="11">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="E92" s="11">
-        <f t="shared" si="8"/>
-        <v>99996.830959235798</v>
-      </c>
-      <c r="F92" s="11">
-        <f t="shared" si="9"/>
         <v>5.872165694454452</v>
       </c>
       <c r="G92" s="11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.5872165694454452</v>
       </c>
     </row>
@@ -31712,19 +32026,19 @@
         <v>91</v>
       </c>
       <c r="D93">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="E93" s="11">
+        <f t="shared" si="9"/>
+        <v>99997.326378558908</v>
+      </c>
+      <c r="F93" s="11">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="E93" s="11">
-        <f t="shared" si="8"/>
-        <v>99997.326378558908</v>
-      </c>
-      <c r="F93" s="11">
-        <f t="shared" si="9"/>
         <v>4.954193231096724</v>
       </c>
       <c r="G93" s="11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.4954193231096724</v>
       </c>
     </row>
@@ -31736,19 +32050,19 @@
         <v>92</v>
       </c>
       <c r="D94">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="E94" s="11">
+        <f t="shared" si="9"/>
+        <v>99997.744350229041</v>
+      </c>
+      <c r="F94" s="11">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="E94" s="11">
-        <f t="shared" si="8"/>
-        <v>99997.744350229041</v>
-      </c>
-      <c r="F94" s="11">
-        <f t="shared" si="9"/>
         <v>4.1797167013282888</v>
       </c>
       <c r="G94" s="11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.41797167013282888</v>
       </c>
     </row>
@@ -31760,19 +32074,19 @@
         <v>93</v>
       </c>
       <c r="D95">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="E95" s="11">
+        <f t="shared" si="9"/>
+        <v>99998.096980938935</v>
+      </c>
+      <c r="F95" s="11">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="E95" s="11">
-        <f t="shared" si="8"/>
-        <v>99998.096980938935</v>
-      </c>
-      <c r="F95" s="11">
-        <f t="shared" si="9"/>
         <v>3.5263070989458356</v>
       </c>
       <c r="G95" s="11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.35263070989458356</v>
       </c>
     </row>
@@ -31784,19 +32098,19 @@
         <v>94</v>
       </c>
       <c r="D96">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="E96" s="11">
+        <f t="shared" si="9"/>
+        <v>99998.394484996315</v>
+      </c>
+      <c r="F96" s="11">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="E96" s="11">
-        <f t="shared" si="8"/>
-        <v>99998.394484996315</v>
-      </c>
-      <c r="F96" s="11">
-        <f t="shared" si="9"/>
         <v>2.9750405738013797</v>
       </c>
       <c r="G96" s="11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.29750405738013797</v>
       </c>
     </row>
@@ -31805,19 +32119,19 @@
         <v>95</v>
       </c>
       <c r="D97">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="E97" s="11">
+        <f t="shared" si="9"/>
+        <v>99998.645480079053</v>
+      </c>
+      <c r="F97" s="11">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="E97" s="11">
-        <f t="shared" si="8"/>
-        <v>99998.645480079053</v>
-      </c>
-      <c r="F97" s="11">
-        <f t="shared" si="9"/>
         <v>2.5099508273706306</v>
       </c>
       <c r="G97" s="11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.25099508273706306</v>
       </c>
     </row>
@@ -31826,19 +32140,19 @@
         <v>96</v>
       </c>
       <c r="D98">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="E98" s="11">
+        <f t="shared" si="9"/>
+        <v>99998.857236779397</v>
+      </c>
+      <c r="F98" s="11">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="E98" s="11">
-        <f t="shared" si="8"/>
-        <v>99998.857236779397</v>
-      </c>
-      <c r="F98" s="11">
-        <f t="shared" si="9"/>
         <v>2.117567003442673</v>
       </c>
       <c r="G98" s="11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.2117567003442673</v>
       </c>
     </row>
@@ -31847,19 +32161,19 @@
         <v>97</v>
       </c>
       <c r="D99">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="E99" s="11">
+        <f t="shared" ref="E99:E130" si="13">$K$2/(1+$K$5*EXP(-$K$4*B99))</f>
+        <v>99999.035889154664</v>
+      </c>
+      <c r="F99" s="11">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="E99" s="11">
-        <f t="shared" ref="E99:E130" si="12">$K$2/(1+$K$5*EXP(-$K$4*B99))</f>
-        <v>99999.035889154664</v>
-      </c>
-      <c r="F99" s="11">
-        <f t="shared" si="9"/>
         <v>1.7865237526712008</v>
       </c>
       <c r="G99" s="11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.17865237526712008</v>
       </c>
     </row>
@@ -31868,19 +32182,19 @@
         <v>98</v>
       </c>
       <c r="D100">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E100" s="11">
+        <f t="shared" si="13"/>
+        <v>99999.186612374513</v>
+      </c>
+      <c r="F100" s="11">
+        <f t="shared" ref="F100:F131" si="14">(E100-E99)*10</f>
+        <v>1.5072321984916925</v>
+      </c>
+      <c r="G100" s="11">
         <f t="shared" si="12"/>
-        <v>99999.186612374513</v>
-      </c>
-      <c r="F100" s="11">
-        <f t="shared" ref="F100:F131" si="13">(E100-E99)*10</f>
-        <v>1.5072321984916925</v>
-      </c>
-      <c r="G100" s="11">
-        <f t="shared" si="11"/>
         <v>0.15072321984916925</v>
       </c>
     </row>
@@ -31889,19 +32203,19 @@
         <v>99</v>
       </c>
       <c r="D101">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E101" s="11">
+        <f t="shared" si="13"/>
+        <v>99999.313772605499</v>
+      </c>
+      <c r="F101" s="11">
+        <f t="shared" si="14"/>
+        <v>1.2716023098619189</v>
+      </c>
+      <c r="G101" s="11">
         <f t="shared" si="12"/>
-        <v>99999.313772605499</v>
-      </c>
-      <c r="F101" s="11">
-        <f t="shared" si="13"/>
-        <v>1.2716023098619189</v>
-      </c>
-      <c r="G101" s="11">
-        <f t="shared" si="11"/>
         <v>0.12716023098619189</v>
       </c>
     </row>
@@ -31910,19 +32224,19 @@
         <v>100</v>
       </c>
       <c r="D102">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E102" s="11">
+        <f t="shared" si="13"/>
+        <v>99999.421053469981</v>
+      </c>
+      <c r="F102" s="11">
+        <f t="shared" si="14"/>
+        <v>1.0728086448216345</v>
+      </c>
+      <c r="G102" s="11">
         <f t="shared" si="12"/>
-        <v>99999.421053469981</v>
-      </c>
-      <c r="F102" s="11">
-        <f t="shared" si="13"/>
-        <v>1.0728086448216345</v>
-      </c>
-      <c r="G102" s="11">
-        <f t="shared" si="11"/>
         <v>0.10728086448216345</v>
       </c>
     </row>
@@ -31931,19 +32245,19 @@
         <v>101</v>
       </c>
       <c r="D103">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E103" s="11">
+        <f t="shared" si="13"/>
+        <v>99999.511562739863</v>
+      </c>
+      <c r="F103" s="11">
+        <f t="shared" si="14"/>
+        <v>0.9050926988129504</v>
+      </c>
+      <c r="G103" s="11">
         <f t="shared" si="12"/>
-        <v>99999.511562739863</v>
-      </c>
-      <c r="F103" s="11">
-        <f t="shared" si="13"/>
-        <v>0.9050926988129504</v>
-      </c>
-      <c r="G103" s="11">
-        <f t="shared" si="11"/>
         <v>9.050926988129504E-2</v>
       </c>
     </row>
@@ -31952,19 +32266,19 @@
         <v>102</v>
       </c>
       <c r="D104">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E104" s="11">
+        <f t="shared" si="13"/>
+        <v>99999.587922353836</v>
+      </c>
+      <c r="F104" s="11">
+        <f t="shared" si="14"/>
+        <v>0.76359613973181695</v>
+      </c>
+      <c r="G104" s="11">
         <f t="shared" si="12"/>
-        <v>99999.587922353836</v>
-      </c>
-      <c r="F104" s="11">
-        <f t="shared" si="13"/>
-        <v>0.76359613973181695</v>
-      </c>
-      <c r="G104" s="11">
-        <f t="shared" si="11"/>
         <v>7.6359613973181695E-2</v>
       </c>
     </row>
@@ -31973,19 +32287,19 @@
         <v>103</v>
       </c>
       <c r="D105">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E105" s="11">
+        <f t="shared" si="13"/>
+        <v>99999.652344364251</v>
+      </c>
+      <c r="F105" s="11">
+        <f t="shared" si="14"/>
+        <v>0.64422010415000841</v>
+      </c>
+      <c r="G105" s="11">
         <f t="shared" si="12"/>
-        <v>99999.652344364251</v>
-      </c>
-      <c r="F105" s="11">
-        <f t="shared" si="13"/>
-        <v>0.64422010415000841</v>
-      </c>
-      <c r="G105" s="11">
-        <f t="shared" si="11"/>
         <v>6.4422010415000841E-2</v>
       </c>
     </row>
@@ -31994,19 +32308,19 @@
         <v>104</v>
       </c>
       <c r="D106">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E106" s="11">
+        <f t="shared" si="13"/>
+        <v>99999.706695012428</v>
+      </c>
+      <c r="F106" s="11">
+        <f t="shared" si="14"/>
+        <v>0.54350648177205585</v>
+      </c>
+      <c r="G106" s="11">
         <f t="shared" si="12"/>
-        <v>99999.706695012428</v>
-      </c>
-      <c r="F106" s="11">
-        <f t="shared" si="13"/>
-        <v>0.54350648177205585</v>
-      </c>
-      <c r="G106" s="11">
-        <f t="shared" si="11"/>
         <v>5.4350648177205585E-2</v>
       </c>
     </row>
@@ -32015,19 +32329,19 @@
         <v>105</v>
       </c>
       <c r="D107">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E107" s="11">
+        <f t="shared" si="13"/>
+        <v>99999.752548787976</v>
+      </c>
+      <c r="F107" s="11">
+        <f t="shared" si="14"/>
+        <v>0.45853775547584519</v>
+      </c>
+      <c r="G107" s="11">
         <f t="shared" si="12"/>
-        <v>99999.752548787976</v>
-      </c>
-      <c r="F107" s="11">
-        <f t="shared" si="13"/>
-        <v>0.45853775547584519</v>
-      </c>
-      <c r="G107" s="11">
-        <f t="shared" si="11"/>
         <v>4.5853775547584519E-2</v>
       </c>
     </row>
@@ -32036,19 +32350,19 @@
         <v>106</v>
       </c>
       <c r="D108">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E108" s="11">
+        <f t="shared" si="13"/>
+        <v>99999.791234037839</v>
+      </c>
+      <c r="F108" s="11">
+        <f t="shared" si="14"/>
+        <v>0.38685249863192439</v>
+      </c>
+      <c r="G108" s="11">
         <f t="shared" si="12"/>
-        <v>99999.791234037839</v>
-      </c>
-      <c r="F108" s="11">
-        <f t="shared" si="13"/>
-        <v>0.38685249863192439</v>
-      </c>
-      <c r="G108" s="11">
-        <f t="shared" si="11"/>
         <v>3.8685249863192439E-2</v>
       </c>
     </row>
@@ -32057,19 +32371,19 @@
         <v>107</v>
       </c>
       <c r="D109">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E109" s="11">
+        <f t="shared" si="13"/>
+        <v>99999.823871445347</v>
+      </c>
+      <c r="F109" s="11">
+        <f t="shared" si="14"/>
+        <v>0.32637407508445904</v>
+      </c>
+      <c r="G109" s="11">
         <f t="shared" si="12"/>
-        <v>99999.823871445347</v>
-      </c>
-      <c r="F109" s="11">
-        <f t="shared" si="13"/>
-        <v>0.32637407508445904</v>
-      </c>
-      <c r="G109" s="11">
-        <f t="shared" si="11"/>
         <v>3.2637407508445904E-2</v>
       </c>
     </row>
@@ -32078,19 +32392,19 @@
         <v>108</v>
       </c>
       <c r="D110">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E110" s="11">
+        <f t="shared" si="13"/>
+        <v>99999.851406494316</v>
+      </c>
+      <c r="F110" s="11">
+        <f t="shared" si="14"/>
+        <v>0.27535048968275078</v>
+      </c>
+      <c r="G110" s="11">
         <f t="shared" si="12"/>
-        <v>99999.851406494316</v>
-      </c>
-      <c r="F110" s="11">
-        <f t="shared" si="13"/>
-        <v>0.27535048968275078</v>
-      </c>
-      <c r="G110" s="11">
-        <f t="shared" si="11"/>
         <v>2.7535048968275078E-2</v>
       </c>
     </row>
@@ -32099,19 +32413,19 @@
         <v>109</v>
       </c>
       <c r="D111">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E111" s="11">
+        <f t="shared" si="13"/>
+        <v>99999.874636858149</v>
+      </c>
+      <c r="F111" s="11">
+        <f t="shared" si="14"/>
+        <v>0.23230363833135925</v>
+      </c>
+      <c r="G111" s="11">
         <f t="shared" si="12"/>
-        <v>99999.874636858149</v>
-      </c>
-      <c r="F111" s="11">
-        <f t="shared" si="13"/>
-        <v>0.23230363833135925</v>
-      </c>
-      <c r="G111" s="11">
-        <f t="shared" si="11"/>
         <v>2.3230363833135925E-2</v>
       </c>
     </row>
@@ -32120,19 +32434,19 @@
         <v>110</v>
       </c>
       <c r="D112">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E112" s="11">
+        <f t="shared" si="13"/>
+        <v>99999.894235507207</v>
+      </c>
+      <c r="F112" s="11">
+        <f t="shared" si="14"/>
+        <v>0.1959864905802533</v>
+      </c>
+      <c r="G112" s="11">
         <f t="shared" si="12"/>
-        <v>99999.894235507207</v>
-      </c>
-      <c r="F112" s="11">
-        <f t="shared" si="13"/>
-        <v>0.1959864905802533</v>
-      </c>
-      <c r="G112" s="11">
-        <f t="shared" si="11"/>
         <v>1.959864905802533E-2</v>
       </c>
     </row>
@@ -32141,19 +32455,19 @@
         <v>111</v>
       </c>
       <c r="D113">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E113" s="11">
+        <f t="shared" si="13"/>
+        <v>99999.910770203816</v>
+      </c>
+      <c r="F113" s="11">
+        <f t="shared" si="14"/>
+        <v>0.16534696609596722</v>
+      </c>
+      <c r="G113" s="11">
         <f t="shared" si="12"/>
-        <v>99999.910770203816</v>
-      </c>
-      <c r="F113" s="11">
-        <f t="shared" si="13"/>
-        <v>0.16534696609596722</v>
-      </c>
-      <c r="G113" s="11">
-        <f t="shared" si="11"/>
         <v>1.6534696609596722E-2</v>
       </c>
     </row>
@@ -32162,19 +32476,19 @@
         <v>112</v>
       </c>
       <c r="D114">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E114" s="11">
+        <f t="shared" si="13"/>
+        <v>99999.924719949879</v>
+      </c>
+      <c r="F114" s="11">
+        <f t="shared" si="14"/>
+        <v>0.1394974606228061</v>
+      </c>
+      <c r="G114" s="11">
         <f t="shared" si="12"/>
-        <v>99999.924719949879</v>
-      </c>
-      <c r="F114" s="11">
-        <f t="shared" si="13"/>
-        <v>0.1394974606228061</v>
-      </c>
-      <c r="G114" s="11">
-        <f t="shared" si="11"/>
         <v>1.394974606228061E-2</v>
       </c>
     </row>
@@ -32183,19 +32497,19 @@
         <v>113</v>
       </c>
       <c r="D115">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E115" s="11">
+        <f t="shared" si="13"/>
+        <v>99999.936488862848</v>
+      </c>
+      <c r="F115" s="11">
+        <f t="shared" si="14"/>
+        <v>0.11768912969273515</v>
+      </c>
+      <c r="G115" s="11">
         <f t="shared" si="12"/>
-        <v>99999.936488862848</v>
-      </c>
-      <c r="F115" s="11">
-        <f t="shared" si="13"/>
-        <v>0.11768912969273515</v>
-      </c>
-      <c r="G115" s="11">
-        <f t="shared" si="11"/>
         <v>1.1768912969273515E-2</v>
       </c>
     </row>
@@ -32204,19 +32518,19 @@
         <v>114</v>
       </c>
       <c r="D116">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E116" s="11">
+        <f t="shared" si="13"/>
+        <v>99999.946417882791</v>
+      </c>
+      <c r="F116" s="11">
+        <f t="shared" si="14"/>
+        <v>9.9290199432289228E-2</v>
+      </c>
+      <c r="G116" s="11">
         <f t="shared" si="12"/>
-        <v>99999.946417882791</v>
-      </c>
-      <c r="F116" s="11">
-        <f t="shared" si="13"/>
-        <v>9.9290199432289228E-2</v>
-      </c>
-      <c r="G116" s="11">
-        <f t="shared" si="11"/>
         <v>9.9290199432289228E-3</v>
       </c>
     </row>
@@ -32225,19 +32539,19 @@
         <v>115</v>
       </c>
       <c r="D117">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E117" s="11">
+        <f t="shared" si="13"/>
+        <v>99999.954794649122</v>
+      </c>
+      <c r="F117" s="11">
+        <f t="shared" si="14"/>
+        <v>8.3767663309117779E-2</v>
+      </c>
+      <c r="G117" s="11">
         <f t="shared" si="12"/>
-        <v>99999.954794649122</v>
-      </c>
-      <c r="F117" s="11">
-        <f t="shared" si="13"/>
-        <v>8.3767663309117779E-2</v>
-      </c>
-      <c r="G117" s="11">
-        <f t="shared" si="11"/>
         <v>8.3767663309117779E-3</v>
       </c>
     </row>
@@ -32246,19 +32560,19 @@
         <v>116</v>
       </c>
       <c r="D118">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E118" s="11">
+        <f t="shared" si="13"/>
+        <v>99999.961861833261</v>
+      </c>
+      <c r="F118" s="11">
+        <f t="shared" si="14"/>
+        <v>7.0671841385774314E-2</v>
+      </c>
+      <c r="G118" s="11">
         <f t="shared" si="12"/>
-        <v>99999.961861833261</v>
-      </c>
-      <c r="F118" s="11">
-        <f t="shared" si="13"/>
-        <v>7.0671841385774314E-2</v>
-      </c>
-      <c r="G118" s="11">
-        <f t="shared" si="11"/>
         <v>7.0671841385774314E-3</v>
       </c>
     </row>
@@ -32267,19 +32581,19 @@
         <v>117</v>
       </c>
       <c r="D119">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E119" s="11">
+        <f t="shared" si="13"/>
+        <v>99999.967824168634</v>
+      </c>
+      <c r="F119" s="11">
+        <f t="shared" si="14"/>
+        <v>5.9623353736242279E-2</v>
+      </c>
+      <c r="G119" s="11">
         <f t="shared" si="12"/>
-        <v>99999.967824168634</v>
-      </c>
-      <c r="F119" s="11">
-        <f t="shared" si="13"/>
-        <v>5.9623353736242279E-2</v>
-      </c>
-      <c r="G119" s="11">
-        <f t="shared" si="11"/>
         <v>5.9623353736242279E-3</v>
       </c>
     </row>
@@ -32288,19 +32602,19 @@
         <v>118</v>
       </c>
       <c r="D120">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E120" s="11">
+        <f t="shared" si="13"/>
+        <v>99999.972854381762</v>
+      </c>
+      <c r="F120" s="11">
+        <f t="shared" si="14"/>
+        <v>5.030213127611205E-2</v>
+      </c>
+      <c r="G120" s="11">
         <f t="shared" si="12"/>
-        <v>99999.972854381762</v>
-      </c>
-      <c r="F120" s="11">
-        <f t="shared" si="13"/>
-        <v>5.030213127611205E-2</v>
-      </c>
-      <c r="G120" s="11">
-        <f t="shared" si="11"/>
         <v>5.030213127611205E-3</v>
       </c>
     </row>
@@ -32309,19 +32623,19 @@
         <v>119</v>
       </c>
       <c r="D121">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E121" s="11">
+        <f t="shared" si="13"/>
+        <v>99999.977098196003</v>
+      </c>
+      <c r="F121" s="11">
+        <f t="shared" si="14"/>
+        <v>4.2438142409082502E-2</v>
+      </c>
+      <c r="G121" s="11">
         <f t="shared" si="12"/>
-        <v>99999.977098196003</v>
-      </c>
-      <c r="F121" s="11">
-        <f t="shared" si="13"/>
-        <v>4.2438142409082502E-2</v>
-      </c>
-      <c r="G121" s="11">
-        <f t="shared" si="11"/>
         <v>4.2438142409082502E-3</v>
       </c>
     </row>
@@ -32330,19 +32644,19 @@
         <v>120</v>
       </c>
       <c r="D122">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E122" s="11">
+        <f t="shared" si="13"/>
+        <v>99999.980678553024</v>
+      </c>
+      <c r="F122" s="11">
+        <f t="shared" si="14"/>
+        <v>3.5803570208372548E-2</v>
+      </c>
+      <c r="G122" s="11">
         <f t="shared" si="12"/>
-        <v>99999.980678553024</v>
-      </c>
-      <c r="F122" s="11">
-        <f t="shared" si="13"/>
-        <v>3.5803570208372548E-2</v>
-      </c>
-      <c r="G122" s="11">
-        <f t="shared" si="11"/>
         <v>3.5803570208372548E-3</v>
       </c>
     </row>
@@ -32351,19 +32665,19 @@
         <v>121</v>
       </c>
       <c r="D123">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E123" s="11">
+        <f t="shared" si="13"/>
+        <v>99999.983699174496</v>
+      </c>
+      <c r="F123" s="11">
+        <f t="shared" si="14"/>
+        <v>3.0206214723875746E-2</v>
+      </c>
+      <c r="G123" s="11">
         <f t="shared" si="12"/>
-        <v>99999.983699174496</v>
-      </c>
-      <c r="F123" s="11">
-        <f t="shared" si="13"/>
-        <v>3.0206214723875746E-2</v>
-      </c>
-      <c r="G123" s="11">
-        <f t="shared" si="11"/>
         <v>3.0206214723875746E-3</v>
       </c>
     </row>
@@ -32372,19 +32686,19 @@
         <v>122</v>
       </c>
       <c r="D124">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E124" s="11">
+        <f t="shared" si="13"/>
+        <v>99999.986247566703</v>
+      </c>
+      <c r="F124" s="11">
+        <f t="shared" si="14"/>
+        <v>2.5483922072453424E-2</v>
+      </c>
+      <c r="G124" s="11">
         <f t="shared" si="12"/>
-        <v>99999.986247566703</v>
-      </c>
-      <c r="F124" s="11">
-        <f t="shared" si="13"/>
-        <v>2.5483922072453424E-2</v>
-      </c>
-      <c r="G124" s="11">
-        <f t="shared" si="11"/>
         <v>2.5483922072453424E-3</v>
       </c>
     </row>
@@ -32393,19 +32707,19 @@
         <v>123</v>
       </c>
       <c r="D125">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E125" s="11">
+        <f t="shared" si="13"/>
+        <v>99999.988397555629</v>
+      </c>
+      <c r="F125" s="11">
+        <f t="shared" si="14"/>
+        <v>2.1499889262486249E-2</v>
+      </c>
+      <c r="G125" s="11">
         <f t="shared" si="12"/>
-        <v>99999.988397555629</v>
-      </c>
-      <c r="F125" s="11">
-        <f t="shared" si="13"/>
-        <v>2.1499889262486249E-2</v>
-      </c>
-      <c r="G125" s="11">
-        <f t="shared" si="11"/>
         <v>2.1499889262486249E-3</v>
       </c>
     </row>
@@ -32414,19 +32728,19 @@
         <v>124</v>
       </c>
       <c r="D126">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E126" s="11">
+        <f t="shared" si="13"/>
+        <v>99999.990211425713</v>
+      </c>
+      <c r="F126" s="11">
+        <f t="shared" si="14"/>
+        <v>1.8138700834242627E-2</v>
+      </c>
+      <c r="G126" s="11">
         <f t="shared" si="12"/>
-        <v>99999.990211425713</v>
-      </c>
-      <c r="F126" s="11">
-        <f t="shared" si="13"/>
-        <v>1.8138700834242627E-2</v>
-      </c>
-      <c r="G126" s="11">
-        <f t="shared" si="11"/>
         <v>1.8138700834242627E-3</v>
       </c>
     </row>
@@ -32435,19 +32749,19 @@
         <v>125</v>
       </c>
       <c r="D127">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E127" s="11">
+        <f t="shared" si="13"/>
+        <v>99999.991741724152</v>
+      </c>
+      <c r="F127" s="11">
+        <f t="shared" si="14"/>
+        <v>1.5302984393201768E-2</v>
+      </c>
+      <c r="G127" s="11">
         <f t="shared" si="12"/>
-        <v>99999.991741724152</v>
-      </c>
-      <c r="F127" s="11">
-        <f t="shared" si="13"/>
-        <v>1.5302984393201768E-2</v>
-      </c>
-      <c r="G127" s="11">
-        <f t="shared" si="11"/>
         <v>1.5302984393201768E-3</v>
       </c>
     </row>
@@ -32456,19 +32770,19 @@
         <v>126</v>
       </c>
       <c r="D128">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E128" s="11">
+        <f t="shared" si="13"/>
+        <v>99999.993032783124</v>
+      </c>
+      <c r="F128" s="11">
+        <f t="shared" si="14"/>
+        <v>1.2910589721286669E-2</v>
+      </c>
+      <c r="G128" s="11">
         <f t="shared" si="12"/>
-        <v>99999.993032783124</v>
-      </c>
-      <c r="F128" s="11">
-        <f t="shared" si="13"/>
-        <v>1.2910589721286669E-2</v>
-      </c>
-      <c r="G128" s="11">
-        <f t="shared" si="11"/>
         <v>1.2910589721286669E-3</v>
       </c>
     </row>
@@ -32477,19 +32791,19 @@
         <v>127</v>
       </c>
       <c r="D129">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E129" s="11">
+        <f t="shared" si="13"/>
+        <v>99999.994122004195</v>
+      </c>
+      <c r="F129" s="11">
+        <f t="shared" si="14"/>
+        <v>1.0892210702877492E-2</v>
+      </c>
+      <c r="G129" s="11">
         <f t="shared" si="12"/>
-        <v>99999.994122004195</v>
-      </c>
-      <c r="F129" s="11">
-        <f t="shared" si="13"/>
-        <v>1.0892210702877492E-2</v>
-      </c>
-      <c r="G129" s="11">
-        <f t="shared" si="11"/>
         <v>1.0892210702877492E-3</v>
       </c>
     </row>
@@ -32498,19 +32812,19 @@
         <v>128</v>
       </c>
       <c r="D130">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E130" s="11">
+        <f t="shared" si="13"/>
+        <v>99999.995040941707</v>
+      </c>
+      <c r="F130" s="11">
+        <f t="shared" si="14"/>
+        <v>9.1893751232419163E-3</v>
+      </c>
+      <c r="G130" s="11">
         <f t="shared" si="12"/>
-        <v>99999.995040941707</v>
-      </c>
-      <c r="F130" s="11">
-        <f t="shared" si="13"/>
-        <v>9.1893751232419163E-3</v>
-      </c>
-      <c r="G130" s="11">
-        <f t="shared" si="11"/>
         <v>9.1893751232419163E-4</v>
       </c>
     </row>
@@ -32519,19 +32833,19 @@
         <v>129</v>
       </c>
       <c r="D131">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E131" s="11">
-        <f t="shared" ref="E131:E149" si="14">$K$2/(1+$K$5*EXP(-$K$4*B131))</f>
+        <f t="shared" ref="E131:E149" si="15">$K$2/(1+$K$5*EXP(-$K$4*B131))</f>
         <v>99999.99581621695</v>
       </c>
       <c r="F131" s="11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>7.7527524263132364E-3</v>
       </c>
       <c r="G131" s="11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>7.7527524263132364E-4</v>
       </c>
     </row>
@@ -32540,19 +32854,19 @@
         <v>130</v>
       </c>
       <c r="D132">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E132" s="11">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>99999.996470289421</v>
       </c>
       <c r="F132" s="11">
-        <f t="shared" ref="F132:F149" si="15">(E132-E131)*10</f>
+        <f t="shared" ref="F132:F149" si="16">(E132-E131)*10</f>
         <v>6.5407247166149318E-3</v>
       </c>
       <c r="G132" s="11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>6.5407247166149318E-4</v>
       </c>
     </row>
@@ -32561,19 +32875,19 @@
         <v>131</v>
       </c>
       <c r="D133">
-        <f t="shared" ref="D133:D149" si="16">C133-C132</f>
+        <f t="shared" ref="D133:D149" si="17">C133-C132</f>
         <v>0</v>
       </c>
       <c r="E133" s="11">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>99999.99702210736</v>
       </c>
       <c r="F133" s="11">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>5.5181793868541718E-3</v>
       </c>
       <c r="G133" s="11">
-        <f t="shared" ref="G133:G149" si="17">E133-E132</f>
+        <f t="shared" ref="G133:G149" si="18">E133-E132</f>
         <v>5.5181793868541718E-4</v>
       </c>
     </row>
@@ -32582,19 +32896,19 @@
         <v>132</v>
       </c>
       <c r="D134">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="E134" s="11">
+        <f t="shared" si="15"/>
+        <v>99999.997487656728</v>
+      </c>
+      <c r="F134" s="11">
         <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="E134" s="11">
-        <f t="shared" si="14"/>
-        <v>99999.997487656728</v>
-      </c>
-      <c r="F134" s="11">
-        <f t="shared" si="15"/>
         <v>4.6554936852771789E-3</v>
       </c>
       <c r="G134" s="11">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>4.6554936852771789E-4</v>
       </c>
     </row>
@@ -32603,19 +32917,19 @@
         <v>133</v>
       </c>
       <c r="D135">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="E135" s="11">
+        <f t="shared" si="15"/>
+        <v>99999.997880424373</v>
+      </c>
+      <c r="F135" s="11">
         <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="E135" s="11">
-        <f t="shared" si="14"/>
-        <v>99999.997880424373</v>
-      </c>
-      <c r="F135" s="11">
-        <f t="shared" si="15"/>
         <v>3.9276764437090605E-3</v>
       </c>
       <c r="G135" s="11">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>3.9276764437090605E-4</v>
       </c>
     </row>
@@ -32624,19 +32938,19 @@
         <v>134</v>
       </c>
       <c r="D136">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="E136" s="11">
+        <f t="shared" si="15"/>
+        <v>99999.99821178861</v>
+      </c>
+      <c r="F136" s="11">
         <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="E136" s="11">
-        <f t="shared" si="14"/>
-        <v>99999.99821178861</v>
-      </c>
-      <c r="F136" s="11">
-        <f t="shared" si="15"/>
         <v>3.31364237354137E-3</v>
       </c>
       <c r="G136" s="11">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>3.31364237354137E-4</v>
       </c>
     </row>
@@ -32645,19 +32959,19 @@
         <v>135</v>
       </c>
       <c r="D137">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="E137" s="11">
+        <f t="shared" si="15"/>
+        <v>99999.998491348946</v>
+      </c>
+      <c r="F137" s="11">
         <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="E137" s="11">
-        <f t="shared" si="14"/>
-        <v>99999.998491348946</v>
-      </c>
-      <c r="F137" s="11">
-        <f t="shared" si="15"/>
         <v>2.795603359118104E-3</v>
       </c>
       <c r="G137" s="11">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>2.795603359118104E-4</v>
       </c>
     </row>
@@ -32666,19 +32980,19 @@
         <v>136</v>
       </c>
       <c r="D138">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="E138" s="11">
+        <f t="shared" si="15"/>
+        <v>99999.998727204191</v>
+      </c>
+      <c r="F138" s="11">
         <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="E138" s="11">
-        <f t="shared" si="14"/>
-        <v>99999.998727204191</v>
-      </c>
-      <c r="F138" s="11">
-        <f t="shared" si="15"/>
         <v>2.3585524468217045E-3</v>
       </c>
       <c r="G138" s="11">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>2.3585524468217045E-4</v>
       </c>
     </row>
@@ -32687,19 +33001,19 @@
         <v>137</v>
       </c>
       <c r="D139">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="E139" s="11">
+        <f t="shared" si="15"/>
+        <v>99999.998926186949</v>
+      </c>
+      <c r="F139" s="11">
         <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="E139" s="11">
-        <f t="shared" si="14"/>
-        <v>99999.998926186949</v>
-      </c>
-      <c r="F139" s="11">
-        <f t="shared" si="15"/>
         <v>1.9898275786545128E-3</v>
       </c>
       <c r="G139" s="11">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>1.9898275786545128E-4</v>
       </c>
     </row>
@@ -32708,19 +33022,19 @@
         <v>138</v>
       </c>
       <c r="D140">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="E140" s="11">
+        <f t="shared" si="15"/>
+        <v>99999.999094061699</v>
+      </c>
+      <c r="F140" s="11">
         <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="E140" s="11">
-        <f t="shared" si="14"/>
-        <v>99999.999094061699</v>
-      </c>
-      <c r="F140" s="11">
-        <f t="shared" si="15"/>
         <v>1.6787475033197552E-3</v>
       </c>
       <c r="G140" s="11">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>1.6787475033197552E-4</v>
       </c>
     </row>
@@ -32729,19 +33043,19 @@
         <v>139</v>
       </c>
       <c r="D141">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="E141" s="11">
+        <f t="shared" si="15"/>
+        <v>99999.99923569175</v>
+      </c>
+      <c r="F141" s="11">
         <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="E141" s="11">
-        <f t="shared" si="14"/>
-        <v>99999.99923569175</v>
-      </c>
-      <c r="F141" s="11">
-        <f t="shared" si="15"/>
         <v>1.4163005107548088E-3</v>
       </c>
       <c r="G141" s="11">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>1.4163005107548088E-4</v>
       </c>
     </row>
@@ -32750,19 +33064,19 @@
         <v>140</v>
       </c>
       <c r="D142">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="E142" s="11">
+        <f t="shared" si="15"/>
+        <v>99999.99935518</v>
+      </c>
+      <c r="F142" s="11">
         <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="E142" s="11">
-        <f t="shared" si="14"/>
-        <v>99999.99935518</v>
-      </c>
-      <c r="F142" s="11">
-        <f t="shared" si="15"/>
         <v>1.1948824976570904E-3</v>
       </c>
       <c r="G142" s="11">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>1.1948824976570904E-4</v>
       </c>
     </row>
@@ -32771,19 +33085,19 @@
         <v>141</v>
       </c>
       <c r="D143">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="E143" s="11">
+        <f t="shared" si="15"/>
+        <v>99999.999455988058</v>
+      </c>
+      <c r="F143" s="11">
         <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="E143" s="11">
-        <f t="shared" si="14"/>
-        <v>99999.999455988058</v>
-      </c>
-      <c r="F143" s="11">
-        <f t="shared" si="15"/>
         <v>1.0080805805046111E-3</v>
       </c>
       <c r="G143" s="11">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>1.0080805805046111E-4</v>
       </c>
     </row>
@@ -32792,19 +33106,19 @@
         <v>142</v>
       </c>
       <c r="D144">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="E144" s="11">
+        <f t="shared" si="15"/>
+        <v>99999.999541036275</v>
+      </c>
+      <c r="F144" s="11">
         <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="E144" s="11">
-        <f t="shared" si="14"/>
-        <v>99999.999541036275</v>
-      </c>
-      <c r="F144" s="11">
-        <f t="shared" si="15"/>
         <v>8.5048217442817986E-4</v>
       </c>
       <c r="G144" s="11">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>8.5048217442817986E-5</v>
       </c>
     </row>
@@ -32813,19 +33127,19 @@
         <v>143</v>
       </c>
       <c r="D145">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="E145" s="11">
+        <f t="shared" si="15"/>
+        <v>99999.999612788451</v>
+      </c>
+      <c r="F145" s="11">
         <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="E145" s="11">
-        <f t="shared" si="14"/>
-        <v>99999.999612788451</v>
-      </c>
-      <c r="F145" s="11">
-        <f t="shared" si="15"/>
         <v>7.1752176154404879E-4</v>
       </c>
       <c r="G145" s="11">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>7.1752176154404879E-5</v>
       </c>
     </row>
@@ -32834,19 +33148,19 @@
         <v>144</v>
       </c>
       <c r="D146">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="E146" s="11">
+        <f t="shared" si="15"/>
+        <v>99999.999673323226</v>
+      </c>
+      <c r="F146" s="11">
         <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="E146" s="11">
-        <f t="shared" si="14"/>
-        <v>99999.999673323226</v>
-      </c>
-      <c r="F146" s="11">
-        <f t="shared" si="15"/>
         <v>6.0534774092957377E-4</v>
       </c>
       <c r="G146" s="11">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>6.0534774092957377E-5</v>
       </c>
     </row>
@@ -32855,19 +33169,19 @@
         <v>145</v>
       </c>
       <c r="D147">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="E147" s="11">
+        <f t="shared" si="15"/>
+        <v>99999.999724394307</v>
+      </c>
+      <c r="F147" s="11">
         <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="E147" s="11">
-        <f t="shared" si="14"/>
-        <v>99999.999724394307</v>
-      </c>
-      <c r="F147" s="11">
-        <f t="shared" si="15"/>
         <v>5.1071081543341279E-4</v>
       </c>
       <c r="G147" s="11">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>5.1071081543341279E-5</v>
       </c>
     </row>
@@ -32876,19 +33190,19 @@
         <v>146</v>
       </c>
       <c r="D148">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="E148" s="11">
+        <f t="shared" si="15"/>
+        <v>99999.999767481175</v>
+      </c>
+      <c r="F148" s="11">
         <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="E148" s="11">
-        <f t="shared" si="14"/>
-        <v>99999.999767481175</v>
-      </c>
-      <c r="F148" s="11">
-        <f t="shared" si="15"/>
         <v>4.308686766307801E-4</v>
       </c>
       <c r="G148" s="11">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>4.308686766307801E-5</v>
       </c>
     </row>
@@ -32897,19 +33211,19 @@
         <v>147</v>
       </c>
       <c r="D149">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="E149" s="11">
+        <f t="shared" si="15"/>
+        <v>99999.999803832048</v>
+      </c>
+      <c r="F149" s="11">
         <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="E149" s="11">
-        <f t="shared" si="14"/>
-        <v>99999.999803832048</v>
-      </c>
-      <c r="F149" s="11">
-        <f t="shared" si="15"/>
         <v>3.6350873415358365E-4</v>
       </c>
       <c r="G149" s="11">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>3.6350873415358365E-5</v>
       </c>
     </row>
@@ -32928,8 +33242,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:L67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I37" sqref="I37:I38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -33082,7 +33396,7 @@
         <v>15.271166850499654</v>
       </c>
       <c r="I5" s="11">
-        <f t="shared" ref="I5:I37" si="5">C5-F5</f>
+        <f t="shared" ref="I5:I38" si="5">C5-F5</f>
         <v>-86.068874921805403</v>
       </c>
       <c r="J5" s="11"/>
@@ -34313,7 +34627,18 @@
       <c r="B38" s="10">
         <v>36</v>
       </c>
-      <c r="C38" s="3"/>
+      <c r="C38" s="3">
+        <f>Dati!J38</f>
+        <v>11591</v>
+      </c>
+      <c r="D38">
+        <f t="shared" ref="D38" si="10">C38-C37</f>
+        <v>812</v>
+      </c>
+      <c r="E38">
+        <f t="shared" ref="E38" si="11">10*(C38-C37)</f>
+        <v>8120</v>
+      </c>
       <c r="F38" s="11">
         <f t="shared" si="9"/>
         <v>11795.746080760066</v>
@@ -34326,7 +34651,10 @@
         <f t="shared" si="4"/>
         <v>886.06982861038705</v>
       </c>
-      <c r="I38" s="11"/>
+      <c r="I38" s="11">
+        <f t="shared" si="5"/>
+        <v>-204.74608076006552</v>
+      </c>
       <c r="J38" s="11"/>
     </row>
     <row r="39" spans="1:10">
@@ -34821,7 +35149,7 @@
       </c>
       <c r="C60" s="3"/>
       <c r="F60" s="11">
-        <f t="shared" ref="F60:F67" si="10">$L$2/(1+$L$5*EXP(-$L$4*B60))</f>
+        <f t="shared" ref="F60:F67" si="12">$L$2/(1+$L$5*EXP(-$L$4*B60))</f>
         <v>20617.840215665983</v>
       </c>
       <c r="G60" s="11">
@@ -34844,7 +35172,7 @@
       </c>
       <c r="C61" s="3"/>
       <c r="F61" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>20676.665348247563</v>
       </c>
       <c r="G61" s="11">
@@ -34867,7 +35195,7 @@
       </c>
       <c r="C62" s="3"/>
       <c r="F62" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>20726.555729370077</v>
       </c>
       <c r="G62" s="11">
@@ -34890,7 +35218,7 @@
       </c>
       <c r="C63" s="3"/>
       <c r="F63" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>20768.834113317804</v>
       </c>
       <c r="G63" s="11">
@@ -34913,7 +35241,7 @@
       </c>
       <c r="C64" s="3"/>
       <c r="F64" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>20804.637270596504</v>
       </c>
       <c r="G64" s="11">
@@ -34936,7 +35264,7 @@
       </c>
       <c r="C65" s="3"/>
       <c r="F65" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>20834.939277021032</v>
       </c>
       <c r="G65" s="11">
@@ -34959,7 +35287,7 @@
       </c>
       <c r="C66" s="3"/>
       <c r="F66" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>20860.572747223094</v>
       </c>
       <c r="G66" s="11">
@@ -34982,7 +35310,7 @@
       </c>
       <c r="C67" s="3"/>
       <c r="F67" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>20882.247909134818</v>
       </c>
       <c r="G67" s="11">
@@ -35126,10 +35454,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E37"/>
+  <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36:E37"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37:E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -35867,6 +36195,27 @@
         <v>-772</v>
       </c>
     </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="2">
+        <v>43920</v>
+      </c>
+      <c r="B38" s="3">
+        <f>Dati!K38</f>
+        <v>101739</v>
+      </c>
+      <c r="C38">
+        <f t="shared" ref="C38" si="6">B38-B37</f>
+        <v>4050</v>
+      </c>
+      <c r="D38">
+        <f t="shared" ref="D38" si="7">C38-C37</f>
+        <v>-1167</v>
+      </c>
+      <c r="E38">
+        <f t="shared" ref="E38" si="8">D38-D37</f>
+        <v>-410</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0.39370078740157505" bottom="0.39370078740157505" header="0" footer="0"/>
   <headerFooter>
@@ -35879,10 +36228,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:E37"/>
+  <dimension ref="A1:E38"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36:E37"/>
+      <selection activeCell="A37" sqref="A37:E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -36620,6 +36969,27 @@
         <v>-78</v>
       </c>
     </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="2">
+        <v>43920</v>
+      </c>
+      <c r="B38" s="3">
+        <f>Dati!D38</f>
+        <v>3981</v>
+      </c>
+      <c r="C38">
+        <f t="shared" ref="C38" si="6">B38-B37</f>
+        <v>75</v>
+      </c>
+      <c r="D38">
+        <f t="shared" ref="D38" si="7">C38-C37</f>
+        <v>25</v>
+      </c>
+      <c r="E38">
+        <f t="shared" ref="E38" si="8">D38-D37</f>
+        <v>99</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.70000000000000007" right="0.70000000000000007" top="0.75" bottom="0.75" header="0.30000000000000004" footer="0.30000000000000004"/>
   <drawing r:id="rId1"/>
@@ -36628,10 +36998,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:E37"/>
+  <dimension ref="A1:E38"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36:E37"/>
+      <selection activeCell="A37" sqref="A37:E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -37370,6 +37740,27 @@
         <v>-1633</v>
       </c>
     </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="2">
+        <v>43920</v>
+      </c>
+      <c r="B38" s="3">
+        <f>Dati!I38</f>
+        <v>14620</v>
+      </c>
+      <c r="C38">
+        <f t="shared" ref="C38" si="6">B38-B37</f>
+        <v>1590</v>
+      </c>
+      <c r="D38">
+        <f t="shared" ref="D38" si="7">C38-C37</f>
+        <v>944</v>
+      </c>
+      <c r="E38">
+        <f t="shared" ref="E38" si="8">D38-D37</f>
+        <v>1732</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0.39370078740157505" bottom="0.39370078740157505" header="0" footer="0"/>
   <headerFooter>
@@ -37382,10 +37773,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:E37"/>
+  <dimension ref="A1:E38"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36:E37"/>
+      <selection activeCell="A37" sqref="A37:E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -38124,6 +38515,27 @@
         <v>-53</v>
       </c>
     </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="2">
+        <v>43920</v>
+      </c>
+      <c r="B38" s="3">
+        <f>Dati!J38</f>
+        <v>11591</v>
+      </c>
+      <c r="C38">
+        <f t="shared" ref="C38" si="6">B38-B37</f>
+        <v>812</v>
+      </c>
+      <c r="D38">
+        <f t="shared" ref="D38" si="7">C38-C37</f>
+        <v>56</v>
+      </c>
+      <c r="E38">
+        <f t="shared" ref="E38" si="8">D38-D37</f>
+        <v>189</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0.39370078740157505" bottom="0.39370078740157505" header="0" footer="0"/>
   <headerFooter>
@@ -38136,10 +38548,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:E37"/>
+  <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36:E37"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37:E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -38878,6 +39290,27 @@
         <v>614</v>
       </c>
     </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="2">
+        <v>43920</v>
+      </c>
+      <c r="B38" s="3">
+        <f>Dati!E38</f>
+        <v>31776</v>
+      </c>
+      <c r="C38">
+        <f t="shared" ref="C38" si="6">B38-B37</f>
+        <v>484</v>
+      </c>
+      <c r="D38">
+        <f t="shared" ref="D38" si="7">C38-C37</f>
+        <v>-276</v>
+      </c>
+      <c r="E38">
+        <f t="shared" ref="E38" si="8">D38-D37</f>
+        <v>-265</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0.39370078740157505" bottom="0.39370078740157505" header="0" footer="0"/>
   <headerFooter>
@@ -38890,10 +39323,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:E37"/>
+  <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36:E37"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37:E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -39633,6 +40066,27 @@
         <v>914</v>
       </c>
     </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="2">
+        <v>43920</v>
+      </c>
+      <c r="B38" s="3">
+        <f>Dati!G38</f>
+        <v>75528</v>
+      </c>
+      <c r="C38">
+        <f t="shared" ref="C38" si="6">B38-B37</f>
+        <v>1648</v>
+      </c>
+      <c r="D38">
+        <f t="shared" ref="D38" si="7">C38-C37</f>
+        <v>-2167</v>
+      </c>
+      <c r="E38">
+        <f t="shared" ref="E38" si="8">D38-D37</f>
+        <v>-2331</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0.39370078740157505" bottom="0.39370078740157505" header="0" footer="0"/>
   <headerFooter>
@@ -39645,10 +40099,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:E37"/>
+  <dimension ref="A1:E38"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36:E37"/>
+      <selection activeCell="A37" sqref="A37:E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -40387,6 +40841,27 @@
         <v>300</v>
       </c>
     </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="2">
+        <v>43920</v>
+      </c>
+      <c r="B38" s="3">
+        <f>Dati!F38</f>
+        <v>43752</v>
+      </c>
+      <c r="C38">
+        <f t="shared" ref="C38" si="6">B38-B37</f>
+        <v>1164</v>
+      </c>
+      <c r="D38">
+        <f t="shared" ref="D38" si="7">C38-C37</f>
+        <v>-1891</v>
+      </c>
+      <c r="E38">
+        <f t="shared" ref="E38" si="8">D38-D37</f>
+        <v>-2066</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0.39370078740157505" bottom="0.39370078740157505" header="0" footer="0"/>
   <headerFooter>
@@ -40399,10 +40874,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:N37"/>
+  <dimension ref="A1:N38"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="J41" sqref="J41"/>
+      <selection activeCell="A37" sqref="A37:K38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -41687,6 +42162,42 @@
         <v>16.272052507543552</v>
       </c>
     </row>
+    <row r="38" spans="1:11">
+      <c r="A38" s="2">
+        <v>43920</v>
+      </c>
+      <c r="B38" s="10">
+        <v>36</v>
+      </c>
+      <c r="C38" s="3">
+        <f>Dati!L38</f>
+        <v>477359</v>
+      </c>
+      <c r="D38">
+        <f t="shared" ref="D38" si="8">C38-C37</f>
+        <v>23329</v>
+      </c>
+      <c r="E38">
+        <f t="shared" ref="E38" si="9">D38-D37</f>
+        <v>-1175</v>
+      </c>
+      <c r="H38" s="5">
+        <f>C38/Casi_totali!B38</f>
+        <v>4.6919961863198969</v>
+      </c>
+      <c r="I38" s="5">
+        <f>C38/Positivi!B38</f>
+        <v>6.3202918123080183</v>
+      </c>
+      <c r="J38" s="6">
+        <f t="shared" ref="J38" si="10">100/H38</f>
+        <v>21.312890298496519</v>
+      </c>
+      <c r="K38" s="6">
+        <f t="shared" ref="K38" si="11">100/I38</f>
+        <v>15.822054261048812</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.70000000000000007" right="0.70000000000000007" top="0.75" bottom="0.75" header="0.30000000000000004" footer="0.30000000000000004"/>
   <pageSetup paperSize="0" fitToWidth="0" fitToHeight="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>

--- a/covid_ita.xlsx
+++ b/covid_ita.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carpaneto\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20998A0E-B24D-451B-81F2-1A2BE7966BE6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD591F15-F64E-4B90-9541-CDC760D20AD1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="39">
   <si>
     <t>data</t>
   </si>
@@ -155,6 +155,9 @@
   </si>
   <si>
     <t>Coeff morti</t>
+  </si>
+  <si>
+    <t>nuovi positivi</t>
   </si>
 </sst>
 </file>
@@ -471,7 +474,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Casi_totali!$B$1:$B$1</c:f>
+              <c:f>Casi_totali!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -495,10 +498,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Casi_totali!$A$3:$A$35</c:f>
+              <c:f>Casi_totali!$A$3:$A$42</c:f>
               <c:numCache>
                 <c:formatCode>d/m;@</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>43885.75</c:v>
                 </c:pt>
@@ -597,16 +600,28 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>43917</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>43918</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>43919</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>43920</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>43921</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Casi_totali!$B$3:$B$35</c:f>
+              <c:f>Casi_totali!$B$3:$B$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>229</c:v>
                 </c:pt>
@@ -705,6 +720,18 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>86498</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>92472</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>97689</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>101739</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>105792</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -721,7 +748,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Casi_totali!$C$1:$C$1</c:f>
+              <c:f>Casi_totali!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -745,10 +772,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Casi_totali!$A$3:$A$35</c:f>
+              <c:f>Casi_totali!$A$3:$A$42</c:f>
               <c:numCache>
                 <c:formatCode>d/m;@</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>43885.75</c:v>
                 </c:pt>
@@ -847,16 +874,28 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>43917</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>43918</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>43919</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>43920</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>43921</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Casi_totali!$C$3:$C$35</c:f>
+              <c:f>Casi_totali!$C$3:$C$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="1">
                   <c:v>93</c:v>
                 </c:pt>
@@ -952,6 +991,18 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>5959</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>5974</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>5217</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>4050</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>4053</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -968,7 +1019,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Casi_totali!$D$1:$D$1</c:f>
+              <c:f>Casi_totali!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -988,10 +1039,10 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>Casi_totali!$A$3:$A$35</c:f>
+              <c:f>Casi_totali!$A$3:$A$42</c:f>
               <c:numCache>
                 <c:formatCode>d/m;@</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>43885.75</c:v>
                 </c:pt>
@@ -1090,16 +1141,28 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>43917</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>43918</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>43919</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>43920</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>43921</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Casi_totali!$D$3:$D$35</c:f>
+              <c:f>Casi_totali!$D$3:$D$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="2">
                   <c:v>-15</c:v>
                 </c:pt>
@@ -1192,6 +1255,18 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>-194</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-757</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-1167</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1208,7 +1283,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Casi_totali!$E$1:$E$1</c:f>
+              <c:f>Casi_totali!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1232,10 +1307,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Casi_totali!$A$3:$A$35</c:f>
+              <c:f>Casi_totali!$A$3:$A$42</c:f>
               <c:numCache>
                 <c:formatCode>d/m;@</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>43885.75</c:v>
                 </c:pt>
@@ -1334,16 +1409,28 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>43917</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>43918</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>43919</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>43920</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>43921</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Casi_totali!$E$3:$E$35</c:f>
+              <c:f>Casi_totali!$E$3:$E$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="3">
                   <c:v>187</c:v>
                 </c:pt>
@@ -1433,6 +1520,18 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>-1137</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>209</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-772</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-410</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1170</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1810,6 +1909,9 @@
                 <c:pt idx="35">
                   <c:v>43920</c:v>
                 </c:pt>
+                <c:pt idx="36">
+                  <c:v>43921</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -1923,6 +2025,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>484</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>439</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2075,6 +2180,9 @@
                 <c:pt idx="35">
                   <c:v>43920</c:v>
                 </c:pt>
+                <c:pt idx="36">
+                  <c:v>43921</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -2185,6 +2293,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>-276</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-45</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2333,6 +2444,9 @@
                 <c:pt idx="35">
                   <c:v>43920</c:v>
                 </c:pt>
+                <c:pt idx="36">
+                  <c:v>43921</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -2440,6 +2554,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>-265</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>231</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2690,7 +2807,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Positivi!$B$1:$B$1</c:f>
+              <c:f>Positivi!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2714,10 +2831,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Positivi!$A$3:$A$38</c:f>
+              <c:f>Positivi!$A$3:$A$43</c:f>
               <c:numCache>
                 <c:formatCode>d/m;@</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>43885.75</c:v>
                 </c:pt>
@@ -2825,16 +2942,19 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>43920</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>43921</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Positivi!$B$3:$B$38</c:f>
+              <c:f>Positivi!$B$3:$B$43</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>221</c:v>
                 </c:pt>
@@ -2942,6 +3062,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>75528</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>77635</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2958,7 +3081,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Positivi!$C$1:$C$1</c:f>
+              <c:f>Positivi!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2982,10 +3105,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Positivi!$A$3:$A$38</c:f>
+              <c:f>Positivi!$A$3:$A$43</c:f>
               <c:numCache>
                 <c:formatCode>d/m;@</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>43885.75</c:v>
                 </c:pt>
@@ -3093,16 +3216,19 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>43920</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>43921</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Positivi!$C$3:$C$38</c:f>
+              <c:f>Positivi!$C$3:$C$43</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="1">
                   <c:v>90</c:v>
                 </c:pt>
@@ -3207,6 +3333,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>1648</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3223,7 +3352,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Positivi!$D$1:$D$1</c:f>
+              <c:f>Positivi!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3243,10 +3372,10 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>Positivi!$A$3:$A$38</c:f>
+              <c:f>Positivi!$A$3:$A$43</c:f>
               <c:numCache>
                 <c:formatCode>d/m;@</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>43885.75</c:v>
                 </c:pt>
@@ -3354,16 +3483,19 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>43920</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>43921</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Positivi!$D$3:$D$38</c:f>
+              <c:f>Positivi!$D$3:$D$43</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="2">
                   <c:v>-16</c:v>
                 </c:pt>
@@ -3465,6 +3597,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>-2167</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>459</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3481,7 +3616,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Positivi!$E$1:$E$1</c:f>
+              <c:f>Positivi!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3505,10 +3640,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Positivi!$A$3:$A$38</c:f>
+              <c:f>Positivi!$A$3:$A$43</c:f>
               <c:numCache>
                 <c:formatCode>d/m;@</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>43885.75</c:v>
                 </c:pt>
@@ -3616,16 +3751,19 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>43920</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>43921</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Positivi!$E$3:$E$38</c:f>
+              <c:f>Positivi!$E$3:$E$43</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="3">
                   <c:v>145</c:v>
                 </c:pt>
@@ -3724,6 +3862,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>-2331</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2626</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3965,7 +4106,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Positivi!$C$1:$C$1</c:f>
+              <c:f>Positivi!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3989,10 +4130,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Positivi!$A$3:$A$38</c:f>
+              <c:f>Positivi!$A$3:$A$42</c:f>
               <c:numCache>
                 <c:formatCode>d/m;@</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>43885.75</c:v>
                 </c:pt>
@@ -4100,16 +4241,19 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>43920</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>43921</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Positivi!$C$3:$C$38</c:f>
+              <c:f>Positivi!$C$3:$C$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="1">
                   <c:v>90</c:v>
                 </c:pt>
@@ -4214,6 +4358,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>1648</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4230,7 +4377,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Positivi!$D$1:$D$1</c:f>
+              <c:f>Positivi!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4254,10 +4401,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Positivi!$A$3:$A$38</c:f>
+              <c:f>Positivi!$A$3:$A$42</c:f>
               <c:numCache>
                 <c:formatCode>d/m;@</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>43885.75</c:v>
                 </c:pt>
@@ -4365,16 +4512,19 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>43920</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>43921</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Positivi!$D$3:$D$38</c:f>
+              <c:f>Positivi!$D$3:$D$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="2">
                   <c:v>-16</c:v>
                 </c:pt>
@@ -4476,6 +4626,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>-2167</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>459</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4492,7 +4645,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Positivi!$E$1:$E$1</c:f>
+              <c:f>Positivi!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4512,10 +4665,10 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>Positivi!$A$3:$A$38</c:f>
+              <c:f>Positivi!$A$3:$A$42</c:f>
               <c:numCache>
                 <c:formatCode>d/m;@</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>43885.75</c:v>
                 </c:pt>
@@ -4623,16 +4776,19 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>43920</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>43921</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Positivi!$E$3:$E$38</c:f>
+              <c:f>Positivi!$E$3:$E$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="3">
                   <c:v>145</c:v>
                 </c:pt>
@@ -4731,6 +4887,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>-2331</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2626</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5030,10 +5189,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Positivi!$A$3:$A$37</c:f>
+              <c:f>Positivi!$A$3:$A$43</c:f>
               <c:numCache>
                 <c:formatCode>d/m;@</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>43885.75</c:v>
                 </c:pt>
@@ -5138,16 +5297,22 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>43919</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>43920</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>43921</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Positivi!$B$3:$B$37</c:f>
+              <c:f>Positivi!$B$3:$B$43</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>221</c:v>
                 </c:pt>
@@ -5252,6 +5417,12 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>73880</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>75528</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>77635</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5471,7 +5642,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Quarantena!$B$1:$B$1</c:f>
+              <c:f>Quarantena!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5495,10 +5666,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Quarantena!$A$3:$A$37</c:f>
+              <c:f>Quarantena!$A$3:$A$42</c:f>
               <c:numCache>
                 <c:formatCode>d/m;@</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>43885.75</c:v>
                 </c:pt>
@@ -5603,16 +5774,22 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>43919</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>43920</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>43921</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Quarantena!$B$3:$B$37</c:f>
+              <c:f>Quarantena!$B$3:$B$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>94</c:v>
                 </c:pt>
@@ -5717,6 +5894,12 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>42588</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>43752</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>45420</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5733,7 +5916,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Quarantena!$C$1:$C$1</c:f>
+              <c:f>Quarantena!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5757,10 +5940,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Quarantena!$A$3:$A$37</c:f>
+              <c:f>Quarantena!$A$3:$A$42</c:f>
               <c:numCache>
                 <c:formatCode>d/m;@</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>43885.75</c:v>
                 </c:pt>
@@ -5865,16 +6048,22 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>43919</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>43920</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>43921</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Quarantena!$C$3:$C$37</c:f>
+              <c:f>Quarantena!$C$3:$C$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="1">
                   <c:v>68</c:v>
                 </c:pt>
@@ -5976,6 +6165,12 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>3055</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1164</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1668</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5992,7 +6187,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Quarantena!$D$1:$D$1</c:f>
+              <c:f>Quarantena!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6012,10 +6207,10 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>Quarantena!$A$3:$A$37</c:f>
+              <c:f>Quarantena!$A$3:$A$42</c:f>
               <c:numCache>
                 <c:formatCode>d/m;@</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>43885.75</c:v>
                 </c:pt>
@@ -6120,16 +6315,22 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>43919</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>43920</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>43921</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Quarantena!$D$3:$D$37</c:f>
+              <c:f>Quarantena!$D$3:$D$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="2">
                   <c:v>-9</c:v>
                 </c:pt>
@@ -6228,6 +6429,12 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-1891</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6244,7 +6451,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Quarantena!$E$1:$E$1</c:f>
+              <c:f>Quarantena!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6268,10 +6475,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Quarantena!$A$3:$A$37</c:f>
+              <c:f>Quarantena!$A$3:$A$42</c:f>
               <c:numCache>
                 <c:formatCode>d/m;@</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>43885.75</c:v>
                 </c:pt>
@@ -6376,16 +6583,22 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>43919</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>43920</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>43921</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Quarantena!$E$3:$E$37</c:f>
+              <c:f>Quarantena!$E$3:$E$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="3">
                   <c:v>13</c:v>
                 </c:pt>
@@ -6481,6 +6694,12 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-2066</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2395</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6858,6 +7077,9 @@
                 <c:pt idx="35">
                   <c:v>43920</c:v>
                 </c:pt>
+                <c:pt idx="36">
+                  <c:v>43921</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -6971,6 +7193,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>1164</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1668</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7123,6 +7348,9 @@
                 <c:pt idx="35">
                   <c:v>43920</c:v>
                 </c:pt>
+                <c:pt idx="36">
+                  <c:v>43921</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -7233,6 +7461,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>-1891</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7381,6 +7612,9 @@
                 <c:pt idx="35">
                   <c:v>43920</c:v>
                 </c:pt>
+                <c:pt idx="36">
+                  <c:v>43921</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -7488,6 +7722,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>-2066</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2395</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7910,6 +8147,9 @@
                 <c:pt idx="35">
                   <c:v>43920</c:v>
                 </c:pt>
+                <c:pt idx="36">
+                  <c:v>43921</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -8026,6 +8266,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>477359</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>506968</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8414,6 +8657,9 @@
                 <c:pt idx="35">
                   <c:v>43920</c:v>
                 </c:pt>
+                <c:pt idx="36">
+                  <c:v>43921</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -8527,6 +8773,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>23329</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>29609</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8926,6 +9175,9 @@
                 <c:pt idx="35">
                   <c:v>43920</c:v>
                 </c:pt>
+                <c:pt idx="36">
+                  <c:v>43921</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -9042,6 +9294,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>4.6919961863198969</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>4.7921203871748332</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9194,6 +9449,9 @@
                 <c:pt idx="35">
                   <c:v>43920</c:v>
                 </c:pt>
+                <c:pt idx="36">
+                  <c:v>43921</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -9310,6 +9568,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>6.3202918123080183</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>6.5301474850260837</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9744,6 +10005,9 @@
                 <c:pt idx="35">
                   <c:v>43920</c:v>
                 </c:pt>
+                <c:pt idx="36">
+                  <c:v>43921</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -9860,6 +10124,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>21.312890298496519</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>20.867589275851731</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10012,6 +10279,9 @@
                 <c:pt idx="36">
                   <c:v>43920</c:v>
                 </c:pt>
+                <c:pt idx="37">
+                  <c:v>43921</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -10128,6 +10398,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>15.822054261048812</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>15.313589812374746</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10390,7 +10663,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Casi_totali!$C$1:$C$1</c:f>
+              <c:f>Casi_totali!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -10414,10 +10687,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Casi_totali!$A$3:$A$37</c:f>
+              <c:f>Casi_totali!$A$3:$A$42</c:f>
               <c:numCache>
                 <c:formatCode>d/m;@</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>43885.75</c:v>
                 </c:pt>
@@ -10522,16 +10795,22 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>43919</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>43920</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>43921</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Casi_totali!$C$3:$C$37</c:f>
+              <c:f>Casi_totali!$C$3:$C$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="1">
                   <c:v>93</c:v>
                 </c:pt>
@@ -10633,6 +10912,12 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>5217</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>4050</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>4053</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10649,7 +10934,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Casi_totali!$D$1:$D$1</c:f>
+              <c:f>Casi_totali!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -10673,10 +10958,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Casi_totali!$A$3:$A$37</c:f>
+              <c:f>Casi_totali!$A$3:$A$42</c:f>
               <c:numCache>
                 <c:formatCode>d/m;@</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>43885.75</c:v>
                 </c:pt>
@@ -10781,16 +11066,22 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>43919</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>43920</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>43921</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Casi_totali!$D$3:$D$37</c:f>
+              <c:f>Casi_totali!$D$3:$D$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="2">
                   <c:v>-15</c:v>
                 </c:pt>
@@ -10889,6 +11180,12 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>-757</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-1167</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10905,7 +11202,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Casi_totali!$E$1:$E$1</c:f>
+              <c:f>Casi_totali!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -10925,10 +11222,10 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>Casi_totali!$A$3:$A$37</c:f>
+              <c:f>Casi_totali!$A$3:$A$42</c:f>
               <c:numCache>
                 <c:formatCode>d/m;@</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>43885.75</c:v>
                 </c:pt>
@@ -11033,16 +11330,22 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>43919</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>43920</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>43921</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Casi_totali!$E$3:$E$37</c:f>
+              <c:f>Casi_totali!$E$3:$E$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="3">
                   <c:v>187</c:v>
                 </c:pt>
@@ -11138,6 +11441,12 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>-772</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-410</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1170</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11389,7 +11698,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Analisi-pos'!$C$1:$C$1</c:f>
+              <c:f>'Analisi-pos'!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -11413,10 +11722,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Analisi-pos'!$B$3:$B$38</c:f>
+              <c:f>'Analisi-pos'!$B$3:$B$41</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -11524,16 +11833,25 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>39</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Analisi-pos'!$C$3:$C$38</c:f>
+              <c:f>'Analisi-pos'!$C$3:$C$41</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>221</c:v>
                 </c:pt>
@@ -11641,6 +11959,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>75528</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>77635</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12839,10 +13160,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Analisi-pos'!$A$3:$A$37</c:f>
+              <c:f>'Analisi-pos'!$A$3:$A$42</c:f>
               <c:numCache>
                 <c:formatCode>d/m;@</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>43885.75</c:v>
                 </c:pt>
@@ -12947,16 +13268,31 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>43919</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>43920</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>43921</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>43922</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>43923</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>43924</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Analisi-pos'!$C$3:$C$37</c:f>
+              <c:f>'Analisi-pos'!$C$3:$C$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>221</c:v>
                 </c:pt>
@@ -13061,6 +13397,12 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>73880</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>75528</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>77635</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13290,7 +13632,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Analisi-pos'!$C$1:$C$1</c:f>
+              <c:f>'Analisi-pos'!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -13314,10 +13656,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Analisi-pos'!$B$3:$B$38</c:f>
+              <c:f>'Analisi-pos'!$B$3:$B$44</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -13425,16 +13767,34 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>42</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Analisi-pos'!$C$3:$C$38</c:f>
+              <c:f>'Analisi-pos'!$C$3:$C$44</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>221</c:v>
                 </c:pt>
@@ -13542,6 +13902,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>75528</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>77635</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14763,10 +15126,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Analisi-pos'!$B$3:$B$36</c:f>
+              <c:f>'Analisi-pos'!$B$3:$B$55</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="53"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -14868,6 +15231,63 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>53</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14985,6 +15405,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>-957.15651313331909</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-1769.2120682411478</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15468,6 +15891,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>11591</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>12428</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16624,6 +17050,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>11591</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>12428</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -18074,6 +18503,9 @@
                 <c:pt idx="35">
                   <c:v>-204.74608076006552</c:v>
                 </c:pt>
+                <c:pt idx="36">
+                  <c:v>-235.46395231572023</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -18271,6 +18703,1028 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart27.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="it-IT"/>
+              <a:t>Variazioni morti</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Analisi-dead'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>deceduti'</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Analisi-dead'!$A$4:$A$40</c:f>
+              <c:numCache>
+                <c:formatCode>d/m;@</c:formatCode>
+                <c:ptCount val="37"/>
+                <c:pt idx="0">
+                  <c:v>43886</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43887</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43888</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43889</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43890</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>43891</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>43892</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>43893</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>43894</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>43895</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>43896</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>43897</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>43898</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>43899</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>43900</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>43901</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>43902</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>43903</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>43904</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>43905</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>43906</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>43907</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>43908</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>43909</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>43910</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>43911</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>43912</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>43913</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>43914</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>43915</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>43916</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>43917</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>43918</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>43919</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>43920</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>43921</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>43922</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Analisi-dead'!$D$4:$D$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="37"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>133</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>196</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>189</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>368</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>349</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>345</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>475</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>427</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>627</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>793</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>651</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>601</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>743</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>683</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>662</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>969</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>889</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>756</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>812</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>837</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0EB7-470B-A30E-F6AD9C0251EE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Analisi-dead'!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>stima'</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Analisi-dead'!$A$4:$A$67</c:f>
+              <c:numCache>
+                <c:formatCode>d/m;@</c:formatCode>
+                <c:ptCount val="64"/>
+                <c:pt idx="0">
+                  <c:v>43886</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43887</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43888</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43889</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43890</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>43891</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>43892</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>43893</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>43894</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>43895</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>43896</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>43897</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>43898</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>43899</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>43900</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>43901</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>43902</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>43903</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>43904</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>43905</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>43906</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>43907</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>43908</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>43909</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>43910</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>43911</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>43912</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>43913</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>43914</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>43915</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>43916</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>43917</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>43918</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>43919</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>43920</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>43921</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>43922</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>43923</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>43924</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>43925</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>43926</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>43927</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43928</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43929</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>43930</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>43931</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>43932</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>43933</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>43934</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>43935</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>43936</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>43937</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>43938</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>43939</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>43940</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>43941</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>43942</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>43943</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>43944</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>43945</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>43946</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>43947</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>43948</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>43949</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Analisi-dead'!$H$4:$H$67</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="64"/>
+                <c:pt idx="0">
+                  <c:v>12.901111297209354</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15.271166850499654</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18.072134070033883</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>21.380555769557603</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25.28584699091698</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>29.89216731323603</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35.320444132377247</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>41.710503052879147</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>49.223229052732336</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>58.042636612589547</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>68.377665009620387</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>80.463432732264266</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>94.561579134101748</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>110.95919014366234</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>129.96564950876132</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>151.90658523125887</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>177.11391026913861</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>205.91082040935248</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>238.5905649557169</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>275.38792837799838</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>316.44276137139627</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>361.75570447980226</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>411.13757623505262</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>464.15581361846125</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>520.08378456081346</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>577.86144025000203</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>636.07803016661546</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>692.98854209786805</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>746.57406487251956</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>794.651507770237</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>835.02987615247912</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>865.69966855488201</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>885.03141556583432</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>891.95234876571158</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>886.06982861038705</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>867.71787155565471</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>837.9175243645077</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>798.25897638853348</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>750.72810684530668</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>697.50851259551928</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>640.79034129265892</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>582.61066247022245</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>524.73971652493856</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>468.61664354148888</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>415.32980442191911</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>365.63175274017703</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>319.977209861132</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>278.57318032566764</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>241.43253067720798</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>208.42499824665356</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>179.32206091985427</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>153.83406193246265</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>131.63935925666374</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>112.40611244664979</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>95.807748202121729</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>81.533286664551269</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>69.293673632026184</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>58.825132581579965</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>49.890381122513645</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>42.278383947726979</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>35.803157278700382</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>30.302006424528372</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>25.633470202061289</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>21.67516191172399</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-0EB7-470B-A30E-F6AD9C0251EE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="685606744"/>
+        <c:axId val="685611008"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="685606744"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="d/m;@" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="685611008"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="685611008"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="685606744"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
@@ -18470,6 +19924,9 @@
                 <c:pt idx="35">
                   <c:v>43920</c:v>
                 </c:pt>
+                <c:pt idx="36">
+                  <c:v>43921</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -18586,6 +20043,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>101739</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>105792</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -18976,6 +20436,9 @@
                 <c:pt idx="35">
                   <c:v>43920</c:v>
                 </c:pt>
+                <c:pt idx="36">
+                  <c:v>43921</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -19092,6 +20555,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>3981</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>4023</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -19244,6 +20710,9 @@
                 <c:pt idx="36">
                   <c:v>43920</c:v>
                 </c:pt>
+                <c:pt idx="37">
+                  <c:v>43921</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -19357,6 +20826,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>42</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -19695,6 +21167,9 @@
                 <c:pt idx="36">
                   <c:v>43920</c:v>
                 </c:pt>
+                <c:pt idx="37">
+                  <c:v>43921</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -19802,6 +21277,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-58</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -20179,6 +21657,9 @@
                 <c:pt idx="35">
                   <c:v>43920</c:v>
                 </c:pt>
+                <c:pt idx="36">
+                  <c:v>43921</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -20295,6 +21776,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>14620</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>15729</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -20447,6 +21931,9 @@
                 <c:pt idx="35">
                   <c:v>43920</c:v>
                 </c:pt>
+                <c:pt idx="36">
+                  <c:v>43921</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -20560,6 +22047,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>1590</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1109</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -20708,6 +22198,9 @@
                 <c:pt idx="35">
                   <c:v>43920</c:v>
                 </c:pt>
+                <c:pt idx="36">
+                  <c:v>43921</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -20818,6 +22311,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>944</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-481</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -20970,6 +22466,9 @@
                 <c:pt idx="35">
                   <c:v>43920</c:v>
                 </c:pt>
+                <c:pt idx="36">
+                  <c:v>43921</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -21077,6 +22576,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>1732</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-1425</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -21463,6 +22965,9 @@
                 <c:pt idx="35">
                   <c:v>43920</c:v>
                 </c:pt>
+                <c:pt idx="36">
+                  <c:v>43921</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -21576,6 +23081,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>1590</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1109</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -21728,6 +23236,9 @@
                 <c:pt idx="35">
                   <c:v>43920</c:v>
                 </c:pt>
+                <c:pt idx="36">
+                  <c:v>43921</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -21838,6 +23349,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>944</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-481</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -21986,6 +23500,9 @@
                 <c:pt idx="35">
                   <c:v>43920</c:v>
                 </c:pt>
+                <c:pt idx="36">
+                  <c:v>43921</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -22093,6 +23610,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>1732</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-1425</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -22479,6 +23999,9 @@
                 <c:pt idx="35">
                   <c:v>43920</c:v>
                 </c:pt>
+                <c:pt idx="36">
+                  <c:v>43921</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -22592,6 +24115,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>812</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>837</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -22744,6 +24270,9 @@
                 <c:pt idx="35">
                   <c:v>43920</c:v>
                 </c:pt>
+                <c:pt idx="36">
+                  <c:v>43921</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -22854,6 +24383,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>25</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -23002,6 +24534,9 @@
                 <c:pt idx="35">
                   <c:v>43920</c:v>
                 </c:pt>
+                <c:pt idx="36">
+                  <c:v>43921</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -23109,6 +24644,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>189</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-31</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -23495,6 +25033,9 @@
                 <c:pt idx="35">
                   <c:v>43920</c:v>
                 </c:pt>
+                <c:pt idx="36">
+                  <c:v>43921</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -23611,6 +25152,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>11591</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>12428</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -23763,6 +25307,9 @@
                 <c:pt idx="35">
                   <c:v>43920</c:v>
                 </c:pt>
+                <c:pt idx="36">
+                  <c:v>43921</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -23876,6 +25423,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>812</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>837</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -24024,6 +25574,9 @@
                 <c:pt idx="35">
                   <c:v>43920</c:v>
                 </c:pt>
+                <c:pt idx="36">
+                  <c:v>43921</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -24134,6 +25687,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>25</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -24286,6 +25842,9 @@
                 <c:pt idx="35">
                   <c:v>43920</c:v>
                 </c:pt>
+                <c:pt idx="36">
+                  <c:v>43921</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -24393,6 +25952,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>189</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-31</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -24770,6 +26332,9 @@
                 <c:pt idx="35">
                   <c:v>43920</c:v>
                 </c:pt>
+                <c:pt idx="36">
+                  <c:v>43921</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -24886,6 +26451,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>31776</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>32215</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -25038,6 +26606,9 @@
                 <c:pt idx="35">
                   <c:v>43920</c:v>
                 </c:pt>
+                <c:pt idx="36">
+                  <c:v>43921</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -25151,6 +26722,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>484</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>439</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -25299,6 +26873,9 @@
                 <c:pt idx="35">
                   <c:v>43920</c:v>
                 </c:pt>
+                <c:pt idx="36">
+                  <c:v>43921</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -25409,6 +26986,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>-276</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-45</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -25561,6 +27141,9 @@
                 <c:pt idx="35">
                   <c:v>43920</c:v>
                 </c:pt>
+                <c:pt idx="36">
+                  <c:v>43921</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -25668,6 +27251,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>-265</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>231</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -25932,6 +27518,46 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -27003,6 +28629,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
@@ -27222,6 +29364,42 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>468630</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>41910</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>346710</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>156210</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Grafico 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DEAD2BEB-53A4-48E1-9429-E0A8F6D964DA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -28167,10 +30345,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L38"/>
+  <dimension ref="A1:M39"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38:XFD38"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -28182,14 +30360,14 @@
     <col min="5" max="5" width="12.296875" customWidth="1"/>
     <col min="6" max="6" width="20.69921875" customWidth="1"/>
     <col min="7" max="7" width="17" customWidth="1"/>
-    <col min="8" max="8" width="22.8984375" customWidth="1"/>
-    <col min="9" max="9" width="13" customWidth="1"/>
-    <col min="10" max="11" width="10.69921875" customWidth="1"/>
-    <col min="12" max="12" width="23.69921875" customWidth="1"/>
-    <col min="13" max="13" width="8.796875" customWidth="1"/>
+    <col min="8" max="9" width="22.8984375" customWidth="1"/>
+    <col min="10" max="10" width="13" customWidth="1"/>
+    <col min="11" max="12" width="10.69921875" customWidth="1"/>
+    <col min="13" max="13" width="23.69921875" customWidth="1"/>
+    <col min="14" max="14" width="8.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -28215,19 +30393,22 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:13">
       <c r="A3" s="2">
         <v>43885.75</v>
       </c>
@@ -28252,17 +30433,18 @@
       <c r="H3" s="3">
         <v>221</v>
       </c>
-      <c r="I3" s="3">
+      <c r="I3" s="3"/>
+      <c r="J3" s="3">
         <v>1</v>
       </c>
-      <c r="J3" s="3">
+      <c r="K3" s="3">
         <v>7</v>
       </c>
-      <c r="K3" s="3">
+      <c r="L3" s="3">
         <v>229</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:13">
       <c r="A4" s="2">
         <v>43886</v>
       </c>
@@ -28287,17 +30469,18 @@
       <c r="H4" s="3">
         <v>90</v>
       </c>
-      <c r="I4" s="3">
+      <c r="I4" s="3"/>
+      <c r="J4" s="3">
         <v>1</v>
       </c>
-      <c r="J4" s="3">
+      <c r="K4" s="3">
         <v>10</v>
       </c>
-      <c r="K4" s="3">
+      <c r="L4" s="3">
         <v>322</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:13">
       <c r="A5" s="2">
         <v>43887</v>
       </c>
@@ -28322,17 +30505,18 @@
       <c r="H5" s="3">
         <v>74</v>
       </c>
-      <c r="I5" s="3">
+      <c r="I5" s="3"/>
+      <c r="J5" s="3">
         <v>3</v>
       </c>
-      <c r="J5" s="3">
+      <c r="K5" s="3">
         <v>12</v>
       </c>
-      <c r="K5" s="3">
+      <c r="L5" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:13">
       <c r="A6" s="2">
         <v>43888</v>
       </c>
@@ -28357,17 +30541,18 @@
       <c r="H6" s="3">
         <v>203</v>
       </c>
-      <c r="I6" s="3">
+      <c r="I6" s="3"/>
+      <c r="J6" s="3">
         <v>45</v>
       </c>
-      <c r="J6" s="3">
+      <c r="K6" s="3">
         <v>17</v>
       </c>
-      <c r="K6" s="3">
+      <c r="L6" s="3">
         <v>650</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:13">
       <c r="A7" s="2">
         <v>43889</v>
       </c>
@@ -28392,17 +30577,18 @@
       <c r="H7" s="3">
         <v>233</v>
       </c>
-      <c r="I7" s="3">
+      <c r="I7" s="3"/>
+      <c r="J7" s="3">
         <v>46</v>
       </c>
-      <c r="J7" s="3">
+      <c r="K7" s="3">
         <v>21</v>
       </c>
-      <c r="K7" s="3">
+      <c r="L7" s="3">
         <v>888</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:13">
       <c r="A8" s="2">
         <v>43890</v>
       </c>
@@ -28427,17 +30613,18 @@
       <c r="H8" s="3">
         <v>228</v>
       </c>
-      <c r="I8" s="3">
+      <c r="I8" s="3"/>
+      <c r="J8" s="3">
         <v>50</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>29</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1128</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:13">
       <c r="A9" s="2">
         <v>43891</v>
       </c>
@@ -28462,17 +30649,18 @@
       <c r="H9" s="3">
         <v>528</v>
       </c>
-      <c r="I9" s="3">
+      <c r="I9" s="3"/>
+      <c r="J9" s="3">
         <v>83</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>34</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1694</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:13">
       <c r="A10" s="2">
         <v>43892</v>
       </c>
@@ -28497,17 +30685,18 @@
       <c r="H10" s="3">
         <v>258</v>
       </c>
-      <c r="I10" s="3">
+      <c r="I10" s="3"/>
+      <c r="J10" s="3">
         <v>149</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>52</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>2036</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:13">
       <c r="A11" s="2">
         <v>43893</v>
       </c>
@@ -28532,17 +30721,18 @@
       <c r="H11" s="3">
         <v>428</v>
       </c>
-      <c r="I11" s="3">
+      <c r="I11" s="3"/>
+      <c r="J11" s="3">
         <v>160</v>
       </c>
-      <c r="J11" s="3">
+      <c r="K11" s="3">
         <v>79</v>
       </c>
-      <c r="K11" s="3">
+      <c r="L11" s="3">
         <v>2502</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:13">
       <c r="A12" s="2">
         <v>43894</v>
       </c>
@@ -28567,17 +30757,18 @@
       <c r="H12" s="3">
         <v>443</v>
       </c>
-      <c r="I12" s="3">
+      <c r="I12" s="3"/>
+      <c r="J12" s="3">
         <v>276</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>107</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>3089</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:13">
       <c r="A13" s="2">
         <v>43895</v>
       </c>
@@ -28602,17 +30793,18 @@
       <c r="H13" s="3">
         <v>590</v>
       </c>
-      <c r="I13" s="3">
+      <c r="I13" s="3"/>
+      <c r="J13" s="3">
         <v>414</v>
       </c>
-      <c r="J13" s="3">
+      <c r="K13" s="3">
         <v>148</v>
       </c>
-      <c r="K13" s="3">
+      <c r="L13" s="3">
         <v>3858</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:13">
       <c r="A14" s="2">
         <v>43896</v>
       </c>
@@ -28637,17 +30829,18 @@
       <c r="H14" s="3">
         <v>620</v>
       </c>
-      <c r="I14" s="3">
+      <c r="I14" s="3"/>
+      <c r="J14" s="3">
         <v>523</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>197</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>4636</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:13">
       <c r="A15" s="2">
         <v>43897</v>
       </c>
@@ -28672,17 +30865,18 @@
       <c r="H15" s="3">
         <v>1145</v>
       </c>
-      <c r="I15" s="3">
+      <c r="I15" s="3"/>
+      <c r="J15" s="3">
         <v>589</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>233</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>5883</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:13">
       <c r="A16" s="2">
         <v>43898</v>
       </c>
@@ -28707,20 +30901,21 @@
       <c r="H16" s="3">
         <v>1326</v>
       </c>
-      <c r="I16" s="3">
+      <c r="I16" s="3"/>
+      <c r="J16" s="3">
         <v>622</v>
       </c>
-      <c r="J16" s="3">
+      <c r="K16" s="3">
         <v>366</v>
       </c>
-      <c r="K16" s="3">
+      <c r="L16" s="3">
         <v>7375</v>
       </c>
-      <c r="L16" s="3">
+      <c r="M16" s="3">
         <v>49937</v>
       </c>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:13">
       <c r="A17" s="2">
         <v>43899</v>
       </c>
@@ -28745,20 +30940,21 @@
       <c r="H17" s="3">
         <v>1598</v>
       </c>
-      <c r="I17" s="3">
+      <c r="I17" s="3"/>
+      <c r="J17" s="3">
         <v>724</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>463</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>9172</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>53826</v>
       </c>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:13">
       <c r="A18" s="2">
         <v>43900</v>
       </c>
@@ -28783,20 +30979,21 @@
       <c r="H18" s="3">
         <v>529</v>
       </c>
-      <c r="I18" s="3">
+      <c r="I18" s="3"/>
+      <c r="J18" s="3">
         <v>1004</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>631</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>10149</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>60761</v>
       </c>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:13">
       <c r="A19" s="2">
         <v>43901</v>
       </c>
@@ -28821,20 +31018,21 @@
       <c r="H19" s="3">
         <v>2076</v>
       </c>
-      <c r="I19" s="3">
+      <c r="I19" s="3"/>
+      <c r="J19" s="3">
         <v>1045</v>
       </c>
-      <c r="J19" s="3">
+      <c r="K19" s="3">
         <v>827</v>
       </c>
-      <c r="K19" s="3">
+      <c r="L19" s="3">
         <v>12462</v>
       </c>
-      <c r="L19" s="3">
+      <c r="M19" s="3">
         <v>73154</v>
       </c>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:13">
       <c r="A20" s="2">
         <v>43902</v>
       </c>
@@ -28859,20 +31057,21 @@
       <c r="H20" s="3">
         <v>2249</v>
       </c>
-      <c r="I20" s="3">
+      <c r="I20" s="3"/>
+      <c r="J20" s="3">
         <v>1258</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>1016</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>15113</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>86011</v>
       </c>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:13">
       <c r="A21" s="2">
         <v>43903</v>
       </c>
@@ -28897,20 +31096,21 @@
       <c r="H21" s="3">
         <v>2116</v>
       </c>
-      <c r="I21" s="3">
+      <c r="I21" s="3"/>
+      <c r="J21" s="3">
         <v>1439</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>1266</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>17660</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>97488</v>
       </c>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:13">
       <c r="A22" s="2">
         <v>43904</v>
       </c>
@@ -28935,20 +31135,21 @@
       <c r="H22" s="3">
         <v>2795</v>
       </c>
-      <c r="I22" s="3">
+      <c r="I22" s="3"/>
+      <c r="J22" s="3">
         <v>1966</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>1441</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>21157</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>109170</v>
       </c>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:13">
       <c r="A23" s="2">
         <v>43905</v>
       </c>
@@ -28973,20 +31174,21 @@
       <c r="H23" s="3">
         <v>2853</v>
       </c>
-      <c r="I23" s="3">
+      <c r="I23" s="3"/>
+      <c r="J23" s="3">
         <v>2335</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>1809</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>24747</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>124899</v>
       </c>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:13">
       <c r="A24" s="2">
         <v>43906</v>
       </c>
@@ -29011,20 +31213,21 @@
       <c r="H24" s="3">
         <v>2470</v>
       </c>
-      <c r="I24" s="3">
+      <c r="I24" s="3"/>
+      <c r="J24" s="3">
         <v>2749</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>2158</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>27980</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>137962</v>
       </c>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:13">
       <c r="A25" s="2">
         <v>43907</v>
       </c>
@@ -29049,20 +31252,21 @@
       <c r="H25" s="3">
         <v>2989</v>
       </c>
-      <c r="I25" s="3">
+      <c r="I25" s="3"/>
+      <c r="J25" s="3">
         <v>2941</v>
       </c>
-      <c r="J25" s="3">
+      <c r="K25" s="3">
         <v>2503</v>
       </c>
-      <c r="K25" s="3">
+      <c r="L25" s="3">
         <v>31506</v>
       </c>
-      <c r="L25" s="3">
+      <c r="M25" s="3">
         <v>148657</v>
       </c>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:13">
       <c r="A26" s="2">
         <v>43908</v>
       </c>
@@ -29087,20 +31291,21 @@
       <c r="H26" s="3">
         <v>2648</v>
       </c>
-      <c r="I26" s="3">
+      <c r="I26" s="3"/>
+      <c r="J26" s="3">
         <v>4025</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>2978</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>35713</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>165541</v>
       </c>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:13">
       <c r="A27" s="2">
         <v>43909</v>
       </c>
@@ -29125,20 +31330,21 @@
       <c r="H27" s="3">
         <v>4480</v>
       </c>
-      <c r="I27" s="3">
+      <c r="I27" s="3"/>
+      <c r="J27" s="3">
         <v>4440</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>3405</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>41035</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>182777</v>
       </c>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:13">
       <c r="A28" s="2">
         <v>43910</v>
       </c>
@@ -29163,20 +31369,21 @@
       <c r="H28" s="3">
         <v>4670</v>
       </c>
-      <c r="I28" s="3">
+      <c r="I28" s="3"/>
+      <c r="J28" s="3">
         <v>5129</v>
       </c>
-      <c r="J28" s="3">
+      <c r="K28" s="3">
         <v>4032</v>
       </c>
-      <c r="K28" s="3">
+      <c r="L28" s="3">
         <v>47021</v>
       </c>
-      <c r="L28" s="3">
+      <c r="M28" s="3">
         <v>206886</v>
       </c>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:13">
       <c r="A29" s="2">
         <v>43911</v>
       </c>
@@ -29201,20 +31408,21 @@
       <c r="H29" s="3">
         <v>4821</v>
       </c>
-      <c r="I29" s="3">
+      <c r="I29" s="3"/>
+      <c r="J29" s="3">
         <v>6072</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>4825</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>53578</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>233222</v>
       </c>
     </row>
-    <row r="30" spans="1:12">
+    <row r="30" spans="1:13">
       <c r="A30" s="2">
         <v>43912</v>
       </c>
@@ -29239,20 +31447,21 @@
       <c r="H30" s="3">
         <v>3957</v>
       </c>
-      <c r="I30" s="3">
+      <c r="I30" s="3"/>
+      <c r="J30" s="3">
         <v>7024</v>
       </c>
-      <c r="J30" s="3">
+      <c r="K30" s="3">
         <v>5476</v>
       </c>
-      <c r="K30" s="3">
+      <c r="L30" s="3">
         <v>59138</v>
       </c>
-      <c r="L30" s="3">
+      <c r="M30" s="3">
         <v>258402</v>
       </c>
     </row>
-    <row r="31" spans="1:12">
+    <row r="31" spans="1:13">
       <c r="A31" s="2">
         <v>43913</v>
       </c>
@@ -29277,20 +31486,21 @@
       <c r="H31" s="3">
         <v>3780</v>
       </c>
-      <c r="I31" s="3">
+      <c r="I31" s="3"/>
+      <c r="J31" s="3">
         <v>7432</v>
       </c>
-      <c r="J31" s="3">
+      <c r="K31" s="3">
         <v>6077</v>
       </c>
-      <c r="K31" s="3">
+      <c r="L31" s="3">
         <v>63927</v>
       </c>
-      <c r="L31" s="3">
+      <c r="M31" s="3">
         <v>275468</v>
       </c>
     </row>
-    <row r="32" spans="1:12">
+    <row r="32" spans="1:13">
       <c r="A32" s="2">
         <v>43914</v>
       </c>
@@ -29315,20 +31525,21 @@
       <c r="H32" s="3">
         <v>3612</v>
       </c>
-      <c r="I32" s="3">
+      <c r="I32" s="3"/>
+      <c r="J32" s="3">
         <v>8326</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>6820</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>69176</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>296964</v>
       </c>
     </row>
-    <row r="33" spans="1:12">
+    <row r="33" spans="1:13">
       <c r="A33" s="2">
         <v>43915</v>
       </c>
@@ -29353,20 +31564,21 @@
       <c r="H33" s="3">
         <v>3491</v>
       </c>
-      <c r="I33" s="3">
+      <c r="I33" s="3"/>
+      <c r="J33" s="3">
         <v>9362</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>7503</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>74386</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>324445</v>
       </c>
     </row>
-    <row r="34" spans="1:12">
+    <row r="34" spans="1:13">
       <c r="A34" s="2">
         <v>43916</v>
       </c>
@@ -29391,20 +31603,21 @@
       <c r="H34" s="3">
         <v>4492</v>
       </c>
-      <c r="I34" s="3">
+      <c r="I34" s="3"/>
+      <c r="J34" s="3">
         <v>10361</v>
       </c>
-      <c r="J34" s="3">
+      <c r="K34" s="3">
         <v>8165</v>
       </c>
-      <c r="K34" s="3">
+      <c r="L34" s="3">
         <v>80539</v>
       </c>
-      <c r="L34" s="3">
+      <c r="M34" s="3">
         <v>361060</v>
       </c>
     </row>
-    <row r="35" spans="1:12">
+    <row r="35" spans="1:13">
       <c r="A35" s="2">
         <v>43917</v>
       </c>
@@ -29429,20 +31642,21 @@
       <c r="H35" s="3">
         <v>4401</v>
       </c>
-      <c r="I35" s="3">
+      <c r="I35" s="3"/>
+      <c r="J35" s="3">
         <v>10950</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>9134</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>86498</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>394079</v>
       </c>
     </row>
-    <row r="36" spans="1:12">
+    <row r="36" spans="1:13">
       <c r="A36" s="2">
         <v>43918</v>
       </c>
@@ -29467,20 +31681,21 @@
       <c r="H36" s="3">
         <v>3651</v>
       </c>
-      <c r="I36" s="3">
+      <c r="I36" s="3"/>
+      <c r="J36" s="3">
         <v>12384</v>
       </c>
-      <c r="J36" s="3">
+      <c r="K36" s="3">
         <v>10023</v>
       </c>
-      <c r="K36" s="3">
+      <c r="L36" s="3">
         <v>92472</v>
       </c>
-      <c r="L36" s="3">
+      <c r="M36" s="3">
         <v>429526</v>
       </c>
     </row>
-    <row r="37" spans="1:12">
+    <row r="37" spans="1:13">
       <c r="A37" s="2">
         <v>43919</v>
       </c>
@@ -29505,20 +31720,21 @@
       <c r="H37" s="3">
         <v>3815</v>
       </c>
-      <c r="I37" s="3">
+      <c r="I37" s="3"/>
+      <c r="J37" s="3">
         <v>13030</v>
       </c>
-      <c r="J37" s="3">
+      <c r="K37" s="3">
         <v>10779</v>
       </c>
-      <c r="K37" s="3">
+      <c r="L37" s="3">
         <v>97689</v>
       </c>
-      <c r="L37" s="3">
+      <c r="M37" s="3">
         <v>454030</v>
       </c>
     </row>
-    <row r="38" spans="1:12">
+    <row r="38" spans="1:13">
       <c r="A38" s="2">
         <v>43920</v>
       </c>
@@ -29543,17 +31759,59 @@
       <c r="H38" s="3">
         <v>1648</v>
       </c>
-      <c r="I38" s="3">
+      <c r="I38" s="3"/>
+      <c r="J38" s="3">
         <v>14620</v>
       </c>
-      <c r="J38" s="3">
+      <c r="K38" s="3">
         <v>11591</v>
       </c>
-      <c r="K38" s="3">
+      <c r="L38" s="3">
         <v>101739</v>
       </c>
-      <c r="L38" s="3">
+      <c r="M38" s="3">
         <v>477359</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13">
+      <c r="A39" s="2">
+        <v>43921</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C39" s="3">
+        <v>28192</v>
+      </c>
+      <c r="D39" s="3">
+        <v>4023</v>
+      </c>
+      <c r="E39" s="3">
+        <v>32215</v>
+      </c>
+      <c r="F39" s="3">
+        <v>45420</v>
+      </c>
+      <c r="G39" s="3">
+        <v>77635</v>
+      </c>
+      <c r="H39" s="3">
+        <v>2107</v>
+      </c>
+      <c r="I39" s="3">
+        <v>4053</v>
+      </c>
+      <c r="J39" s="3">
+        <v>15729</v>
+      </c>
+      <c r="K39" s="3">
+        <v>12428</v>
+      </c>
+      <c r="L39" s="3">
+        <v>105792</v>
+      </c>
+      <c r="M39">
+        <v>506968</v>
       </c>
     </row>
   </sheetData>
@@ -29569,8 +31827,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:K149"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="Y45" sqref="Y45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -29672,7 +31930,7 @@
         <v>154.19235441284661</v>
       </c>
       <c r="H4" s="11">
-        <f t="shared" ref="H4:H38" si="2">C4-E4</f>
+        <f t="shared" ref="H4:H39" si="2">C4-E4</f>
         <v>-683.65303461646738</v>
       </c>
       <c r="J4" s="4" t="s">
@@ -30805,6 +33063,14 @@
       <c r="B39" s="10">
         <v>37</v>
       </c>
+      <c r="C39" s="3">
+        <f>Dati!G39</f>
+        <v>77635</v>
+      </c>
+      <c r="D39">
+        <f t="shared" ref="D39" si="9">C39-C38</f>
+        <v>2107</v>
+      </c>
       <c r="E39" s="11">
         <f t="shared" si="5"/>
         <v>79404.212068241148</v>
@@ -30817,6 +33083,10 @@
         <f t="shared" si="4"/>
         <v>2919.0555551078287</v>
       </c>
+      <c r="H39" s="11">
+        <f t="shared" si="2"/>
+        <v>-1769.2120682411478</v>
+      </c>
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="2">
@@ -31406,7 +33676,7 @@
         <v>0</v>
       </c>
       <c r="E67" s="11">
-        <f t="shared" ref="E67:E98" si="9">$K$2/(1+$K$5*EXP(-$K$4*B67))</f>
+        <f t="shared" ref="E67:E98" si="10">$K$2/(1+$K$5*EXP(-$K$4*B67))</f>
         <v>99778.318568093659</v>
       </c>
       <c r="F67" s="11">
@@ -31430,11 +33700,11 @@
         <v>0</v>
       </c>
       <c r="E68" s="11">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>99812.9103364779</v>
       </c>
       <c r="F68" s="11">
-        <f t="shared" ref="F68:F99" si="10">(E68-E67)*10</f>
+        <f t="shared" ref="F68:F99" si="11">(E68-E67)*10</f>
         <v>345.91768384241732</v>
       </c>
       <c r="G68" s="11">
@@ -31450,19 +33720,19 @@
         <v>67</v>
       </c>
       <c r="D69">
-        <f t="shared" ref="D69:D132" si="11">C69-C68</f>
+        <f t="shared" ref="D69:D132" si="12">C69-C68</f>
         <v>0</v>
       </c>
       <c r="E69" s="11">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>99842.112853404673</v>
       </c>
       <c r="F69" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>292.0251692677266</v>
       </c>
       <c r="G69" s="11">
-        <f t="shared" ref="G69:G132" si="12">E69-E68</f>
+        <f t="shared" ref="G69:G132" si="13">E69-E68</f>
         <v>29.20251692677266</v>
       </c>
     </row>
@@ -31474,19 +33744,19 @@
         <v>68</v>
       </c>
       <c r="D70">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="E70" s="11">
+        <f t="shared" si="10"/>
+        <v>99866.763282184605</v>
+      </c>
+      <c r="F70" s="11">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="E70" s="11">
-        <f t="shared" si="9"/>
-        <v>99866.763282184605</v>
-      </c>
-      <c r="F70" s="11">
-        <f t="shared" si="10"/>
         <v>246.50428779932554</v>
       </c>
       <c r="G70" s="11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>24.650428779932554</v>
       </c>
     </row>
@@ -31498,19 +33768,19 @@
         <v>69</v>
       </c>
       <c r="D71">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="E71" s="11">
+        <f t="shared" si="10"/>
+        <v>99887.569450081472</v>
+      </c>
+      <c r="F71" s="11">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="E71" s="11">
-        <f t="shared" si="9"/>
-        <v>99887.569450081472</v>
-      </c>
-      <c r="F71" s="11">
-        <f t="shared" si="10"/>
         <v>208.061678968661</v>
       </c>
       <c r="G71" s="11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>20.8061678968661</v>
       </c>
     </row>
@@ -31522,19 +33792,19 @@
         <v>70</v>
       </c>
       <c r="D72">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="E72" s="11">
+        <f t="shared" si="10"/>
+        <v>99905.129625499118</v>
+      </c>
+      <c r="F72" s="11">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="E72" s="11">
-        <f t="shared" si="9"/>
-        <v>99905.129625499118</v>
-      </c>
-      <c r="F72" s="11">
-        <f t="shared" si="10"/>
         <v>175.60175417645951</v>
       </c>
       <c r="G72" s="11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>17.560175417645951</v>
       </c>
     </row>
@@ -31546,19 +33816,19 @@
         <v>71</v>
       </c>
       <c r="D73">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="E73" s="11">
+        <f t="shared" si="10"/>
+        <v>99919.949330119241</v>
+      </c>
+      <c r="F73" s="11">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="E73" s="11">
-        <f t="shared" si="9"/>
-        <v>99919.949330119241</v>
-      </c>
-      <c r="F73" s="11">
-        <f t="shared" si="10"/>
         <v>148.19704620123957</v>
       </c>
       <c r="G73" s="11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>14.819704620123957</v>
       </c>
     </row>
@@ -31570,19 +33840,19 @@
         <v>72</v>
       </c>
       <c r="D74">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="E74" s="11">
+        <f t="shared" si="10"/>
+        <v>99932.45561327484</v>
+      </c>
+      <c r="F74" s="11">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="E74" s="11">
-        <f t="shared" si="9"/>
-        <v>99932.45561327484</v>
-      </c>
-      <c r="F74" s="11">
-        <f t="shared" si="10"/>
         <v>125.06283155598794</v>
       </c>
       <c r="G74" s="11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>12.506283155598794</v>
       </c>
     </row>
@@ -31594,19 +33864,19 @@
         <v>73</v>
       </c>
       <c r="D75">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="E75" s="11">
+        <f t="shared" si="10"/>
+        <v>99943.009159377063</v>
+      </c>
+      <c r="F75" s="11">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="E75" s="11">
-        <f t="shared" si="9"/>
-        <v>99943.009159377063</v>
-      </c>
-      <c r="F75" s="11">
-        <f t="shared" si="10"/>
         <v>105.53546102222754</v>
       </c>
       <c r="G75" s="11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>10.553546102222754</v>
       </c>
     </row>
@@ -31618,19 +33888,19 @@
         <v>74</v>
       </c>
       <c r="D76">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="E76" s="11">
+        <f t="shared" si="10"/>
+        <v>99951.914548641449</v>
+      </c>
+      <c r="F76" s="11">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="E76" s="11">
-        <f t="shared" si="9"/>
-        <v>99951.914548641449</v>
-      </c>
-      <c r="F76" s="11">
-        <f t="shared" si="10"/>
         <v>89.053892643860308</v>
       </c>
       <c r="G76" s="11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>8.9053892643860308</v>
       </c>
     </row>
@@ -31642,19 +33912,19 @@
         <v>75</v>
       </c>
       <c r="D77">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="E77" s="11">
+        <f t="shared" si="10"/>
+        <v>99959.428946590851</v>
+      </c>
+      <c r="F77" s="11">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="E77" s="11">
-        <f t="shared" si="9"/>
-        <v>99959.428946590851</v>
-      </c>
-      <c r="F77" s="11">
-        <f t="shared" si="10"/>
         <v>75.14397949402337</v>
       </c>
       <c r="G77" s="11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>7.514397949402337</v>
       </c>
     </row>
@@ -31666,19 +33936,19 @@
         <v>76</v>
       </c>
       <c r="D78">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="E78" s="11">
+        <f t="shared" si="10"/>
+        <v>99965.769458531679</v>
+      </c>
+      <c r="F78" s="11">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="E78" s="11">
-        <f t="shared" si="9"/>
-        <v>99965.769458531679</v>
-      </c>
-      <c r="F78" s="11">
-        <f t="shared" si="10"/>
         <v>63.405119408271275</v>
       </c>
       <c r="G78" s="11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>6.3405119408271275</v>
       </c>
     </row>
@@ -31690,19 +33960,19 @@
         <v>77</v>
       </c>
       <c r="D79">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="E79" s="11">
+        <f t="shared" si="10"/>
+        <v>99971.119350980123</v>
+      </c>
+      <c r="F79" s="11">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="E79" s="11">
-        <f t="shared" si="9"/>
-        <v>99971.119350980123</v>
-      </c>
-      <c r="F79" s="11">
-        <f t="shared" si="10"/>
         <v>53.498924484447343</v>
       </c>
       <c r="G79" s="11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>5.3498924484447343</v>
       </c>
     </row>
@@ -31714,19 +33984,19 @@
         <v>78</v>
       </c>
       <c r="D80">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="E80" s="11">
+        <f t="shared" si="10"/>
+        <v>99975.633312370497</v>
+      </c>
+      <c r="F80" s="11">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="E80" s="11">
-        <f t="shared" si="9"/>
-        <v>99975.633312370497</v>
-      </c>
-      <c r="F80" s="11">
-        <f t="shared" si="10"/>
         <v>45.139613903738791</v>
       </c>
       <c r="G80" s="11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>4.5139613903738791</v>
       </c>
     </row>
@@ -31738,19 +34008,19 @@
         <v>79</v>
       </c>
       <c r="D81">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="E81" s="11">
+        <f t="shared" si="10"/>
+        <v>99979.441899815793</v>
+      </c>
+      <c r="F81" s="11">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="E81" s="11">
-        <f t="shared" si="9"/>
-        <v>99979.441899815793</v>
-      </c>
-      <c r="F81" s="11">
-        <f t="shared" si="10"/>
         <v>38.085874452954158</v>
       </c>
       <c r="G81" s="11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>3.8085874452954158</v>
       </c>
     </row>
@@ -31762,19 +34032,19 @@
         <v>80</v>
       </c>
       <c r="D82">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="E82" s="11">
+        <f t="shared" si="10"/>
+        <v>99982.655296727666</v>
+      </c>
+      <c r="F82" s="11">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="E82" s="11">
-        <f t="shared" si="9"/>
-        <v>99982.655296727666</v>
-      </c>
-      <c r="F82" s="11">
-        <f t="shared" si="10"/>
         <v>32.133969118731329</v>
       </c>
       <c r="G82" s="11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>3.2133969118731329</v>
       </c>
     </row>
@@ -31786,19 +34056,19 @@
         <v>81</v>
       </c>
       <c r="D83">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="E83" s="11">
+        <f t="shared" si="10"/>
+        <v>99985.366487294348</v>
+      </c>
+      <c r="F83" s="11">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="E83" s="11">
-        <f t="shared" si="9"/>
-        <v>99985.366487294348</v>
-      </c>
-      <c r="F83" s="11">
-        <f t="shared" si="10"/>
         <v>27.111905666824896</v>
       </c>
       <c r="G83" s="11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>2.7111905666824896</v>
       </c>
     </row>
@@ -31810,19 +34080,19 @@
         <v>82</v>
       </c>
       <c r="D84">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="E84" s="11">
+        <f t="shared" si="10"/>
+        <v>99987.6539377421</v>
+      </c>
+      <c r="F84" s="11">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="E84" s="11">
-        <f t="shared" si="9"/>
-        <v>99987.6539377421</v>
-      </c>
-      <c r="F84" s="11">
-        <f t="shared" si="10"/>
         <v>22.874504477513256</v>
       </c>
       <c r="G84" s="11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>2.2874504477513256</v>
       </c>
     </row>
@@ -31834,19 +34104,19 @@
         <v>83</v>
       </c>
       <c r="D85">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="E85" s="11">
+        <f t="shared" si="10"/>
+        <v>99989.583860605097</v>
+      </c>
+      <c r="F85" s="11">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="E85" s="11">
-        <f t="shared" si="9"/>
-        <v>99989.583860605097</v>
-      </c>
-      <c r="F85" s="11">
-        <f t="shared" si="10"/>
         <v>19.299228629970457</v>
       </c>
       <c r="G85" s="11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1.9299228629970457</v>
       </c>
     </row>
@@ -31858,19 +34128,19 @@
         <v>84</v>
       </c>
       <c r="D86">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="E86" s="11">
+        <f t="shared" si="10"/>
+        <v>99991.212126565239</v>
+      </c>
+      <c r="F86" s="11">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="E86" s="11">
-        <f t="shared" si="9"/>
-        <v>99991.212126565239</v>
-      </c>
-      <c r="F86" s="11">
-        <f t="shared" si="10"/>
         <v>16.282659601420164</v>
       </c>
       <c r="G86" s="11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1.6282659601420164</v>
       </c>
     </row>
@@ -31882,19 +34152,19 @@
         <v>85</v>
       </c>
       <c r="D87">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="E87" s="11">
+        <f t="shared" si="10"/>
+        <v>99992.585878511192</v>
+      </c>
+      <c r="F87" s="11">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="E87" s="11">
-        <f t="shared" si="9"/>
-        <v>99992.585878511192</v>
-      </c>
-      <c r="F87" s="11">
-        <f t="shared" si="10"/>
         <v>13.737519459536998</v>
       </c>
       <c r="G87" s="11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1.3737519459536998</v>
       </c>
     </row>
@@ -31906,19 +34176,19 @@
         <v>86</v>
       </c>
       <c r="D88">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="E88" s="11">
+        <f t="shared" si="10"/>
+        <v>99993.744894051735</v>
+      </c>
+      <c r="F88" s="11">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="E88" s="11">
-        <f t="shared" si="9"/>
-        <v>99993.744894051735</v>
-      </c>
-      <c r="F88" s="11">
-        <f t="shared" si="10"/>
         <v>11.590155405428959</v>
       </c>
       <c r="G88" s="11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1.1590155405428959</v>
       </c>
     </row>
@@ -31930,19 +34200,19 @@
         <v>87</v>
       </c>
       <c r="D89">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="E89" s="11">
+        <f t="shared" si="10"/>
+        <v>99994.722735581352</v>
+      </c>
+      <c r="F89" s="11">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="E89" s="11">
-        <f t="shared" si="9"/>
-        <v>99994.722735581352</v>
-      </c>
-      <c r="F89" s="11">
-        <f t="shared" si="10"/>
         <v>9.7784152961685322</v>
       </c>
       <c r="G89" s="11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.97784152961685322</v>
       </c>
     </row>
@@ -31954,19 +34224,19 @@
         <v>88</v>
       </c>
       <c r="D90">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="E90" s="11">
+        <f t="shared" si="10"/>
+        <v>99995.54772094982</v>
+      </c>
+      <c r="F90" s="11">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="E90" s="11">
-        <f t="shared" si="9"/>
-        <v>99995.54772094982</v>
-      </c>
-      <c r="F90" s="11">
-        <f t="shared" si="10"/>
         <v>8.2498536846833304</v>
       </c>
       <c r="G90" s="11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.82498536846833304</v>
       </c>
     </row>
@@ -31978,19 +34248,19 @@
         <v>89</v>
       </c>
       <c r="D91">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="E91" s="11">
+        <f t="shared" si="10"/>
+        <v>99996.243742666353</v>
+      </c>
+      <c r="F91" s="11">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="E91" s="11">
-        <f t="shared" si="9"/>
-        <v>99996.243742666353</v>
-      </c>
-      <c r="F91" s="11">
-        <f t="shared" si="10"/>
         <v>6.9602171653241385</v>
       </c>
       <c r="G91" s="11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.69602171653241385</v>
       </c>
     </row>
@@ -32002,19 +34272,19 @@
         <v>90</v>
       </c>
       <c r="D92">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="E92" s="11">
+        <f t="shared" si="10"/>
+        <v>99996.830959235798</v>
+      </c>
+      <c r="F92" s="11">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="E92" s="11">
-        <f t="shared" si="9"/>
-        <v>99996.830959235798</v>
-      </c>
-      <c r="F92" s="11">
-        <f t="shared" si="10"/>
         <v>5.872165694454452</v>
       </c>
       <c r="G92" s="11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.5872165694454452</v>
       </c>
     </row>
@@ -32026,19 +34296,19 @@
         <v>91</v>
       </c>
       <c r="D93">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="E93" s="11">
+        <f t="shared" si="10"/>
+        <v>99997.326378558908</v>
+      </c>
+      <c r="F93" s="11">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="E93" s="11">
-        <f t="shared" si="9"/>
-        <v>99997.326378558908</v>
-      </c>
-      <c r="F93" s="11">
-        <f t="shared" si="10"/>
         <v>4.954193231096724</v>
       </c>
       <c r="G93" s="11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.4954193231096724</v>
       </c>
     </row>
@@ -32050,19 +34320,19 @@
         <v>92</v>
       </c>
       <c r="D94">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="E94" s="11">
+        <f t="shared" si="10"/>
+        <v>99997.744350229041</v>
+      </c>
+      <c r="F94" s="11">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="E94" s="11">
-        <f t="shared" si="9"/>
-        <v>99997.744350229041</v>
-      </c>
-      <c r="F94" s="11">
-        <f t="shared" si="10"/>
         <v>4.1797167013282888</v>
       </c>
       <c r="G94" s="11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.41797167013282888</v>
       </c>
     </row>
@@ -32074,19 +34344,19 @@
         <v>93</v>
       </c>
       <c r="D95">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="E95" s="11">
+        <f t="shared" si="10"/>
+        <v>99998.096980938935</v>
+      </c>
+      <c r="F95" s="11">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="E95" s="11">
-        <f t="shared" si="9"/>
-        <v>99998.096980938935</v>
-      </c>
-      <c r="F95" s="11">
-        <f t="shared" si="10"/>
         <v>3.5263070989458356</v>
       </c>
       <c r="G95" s="11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.35263070989458356</v>
       </c>
     </row>
@@ -32098,19 +34368,19 @@
         <v>94</v>
       </c>
       <c r="D96">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="E96" s="11">
+        <f t="shared" si="10"/>
+        <v>99998.394484996315</v>
+      </c>
+      <c r="F96" s="11">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="E96" s="11">
-        <f t="shared" si="9"/>
-        <v>99998.394484996315</v>
-      </c>
-      <c r="F96" s="11">
-        <f t="shared" si="10"/>
         <v>2.9750405738013797</v>
       </c>
       <c r="G96" s="11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.29750405738013797</v>
       </c>
     </row>
@@ -32119,19 +34389,19 @@
         <v>95</v>
       </c>
       <c r="D97">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="E97" s="11">
+        <f t="shared" si="10"/>
+        <v>99998.645480079053</v>
+      </c>
+      <c r="F97" s="11">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="E97" s="11">
-        <f t="shared" si="9"/>
-        <v>99998.645480079053</v>
-      </c>
-      <c r="F97" s="11">
-        <f t="shared" si="10"/>
         <v>2.5099508273706306</v>
       </c>
       <c r="G97" s="11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.25099508273706306</v>
       </c>
     </row>
@@ -32140,19 +34410,19 @@
         <v>96</v>
       </c>
       <c r="D98">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="E98" s="11">
+        <f t="shared" si="10"/>
+        <v>99998.857236779397</v>
+      </c>
+      <c r="F98" s="11">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="E98" s="11">
-        <f t="shared" si="9"/>
-        <v>99998.857236779397</v>
-      </c>
-      <c r="F98" s="11">
-        <f t="shared" si="10"/>
         <v>2.117567003442673</v>
       </c>
       <c r="G98" s="11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.2117567003442673</v>
       </c>
     </row>
@@ -32161,19 +34431,19 @@
         <v>97</v>
       </c>
       <c r="D99">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="E99" s="11">
+        <f t="shared" ref="E99:E130" si="14">$K$2/(1+$K$5*EXP(-$K$4*B99))</f>
+        <v>99999.035889154664</v>
+      </c>
+      <c r="F99" s="11">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="E99" s="11">
-        <f t="shared" ref="E99:E130" si="13">$K$2/(1+$K$5*EXP(-$K$4*B99))</f>
-        <v>99999.035889154664</v>
-      </c>
-      <c r="F99" s="11">
-        <f t="shared" si="10"/>
         <v>1.7865237526712008</v>
       </c>
       <c r="G99" s="11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.17865237526712008</v>
       </c>
     </row>
@@ -32182,19 +34452,19 @@
         <v>98</v>
       </c>
       <c r="D100">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="E100" s="11">
+        <f t="shared" si="14"/>
+        <v>99999.186612374513</v>
+      </c>
+      <c r="F100" s="11">
+        <f t="shared" ref="F100:F131" si="15">(E100-E99)*10</f>
+        <v>1.5072321984916925</v>
+      </c>
+      <c r="G100" s="11">
         <f t="shared" si="13"/>
-        <v>99999.186612374513</v>
-      </c>
-      <c r="F100" s="11">
-        <f t="shared" ref="F100:F131" si="14">(E100-E99)*10</f>
-        <v>1.5072321984916925</v>
-      </c>
-      <c r="G100" s="11">
-        <f t="shared" si="12"/>
         <v>0.15072321984916925</v>
       </c>
     </row>
@@ -32203,19 +34473,19 @@
         <v>99</v>
       </c>
       <c r="D101">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="E101" s="11">
+        <f t="shared" si="14"/>
+        <v>99999.313772605499</v>
+      </c>
+      <c r="F101" s="11">
+        <f t="shared" si="15"/>
+        <v>1.2716023098619189</v>
+      </c>
+      <c r="G101" s="11">
         <f t="shared" si="13"/>
-        <v>99999.313772605499</v>
-      </c>
-      <c r="F101" s="11">
-        <f t="shared" si="14"/>
-        <v>1.2716023098619189</v>
-      </c>
-      <c r="G101" s="11">
-        <f t="shared" si="12"/>
         <v>0.12716023098619189</v>
       </c>
     </row>
@@ -32224,19 +34494,19 @@
         <v>100</v>
       </c>
       <c r="D102">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="E102" s="11">
+        <f t="shared" si="14"/>
+        <v>99999.421053469981</v>
+      </c>
+      <c r="F102" s="11">
+        <f t="shared" si="15"/>
+        <v>1.0728086448216345</v>
+      </c>
+      <c r="G102" s="11">
         <f t="shared" si="13"/>
-        <v>99999.421053469981</v>
-      </c>
-      <c r="F102" s="11">
-        <f t="shared" si="14"/>
-        <v>1.0728086448216345</v>
-      </c>
-      <c r="G102" s="11">
-        <f t="shared" si="12"/>
         <v>0.10728086448216345</v>
       </c>
     </row>
@@ -32245,19 +34515,19 @@
         <v>101</v>
       </c>
       <c r="D103">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="E103" s="11">
+        <f t="shared" si="14"/>
+        <v>99999.511562739863</v>
+      </c>
+      <c r="F103" s="11">
+        <f t="shared" si="15"/>
+        <v>0.9050926988129504</v>
+      </c>
+      <c r="G103" s="11">
         <f t="shared" si="13"/>
-        <v>99999.511562739863</v>
-      </c>
-      <c r="F103" s="11">
-        <f t="shared" si="14"/>
-        <v>0.9050926988129504</v>
-      </c>
-      <c r="G103" s="11">
-        <f t="shared" si="12"/>
         <v>9.050926988129504E-2</v>
       </c>
     </row>
@@ -32266,19 +34536,19 @@
         <v>102</v>
       </c>
       <c r="D104">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="E104" s="11">
+        <f t="shared" si="14"/>
+        <v>99999.587922353836</v>
+      </c>
+      <c r="F104" s="11">
+        <f t="shared" si="15"/>
+        <v>0.76359613973181695</v>
+      </c>
+      <c r="G104" s="11">
         <f t="shared" si="13"/>
-        <v>99999.587922353836</v>
-      </c>
-      <c r="F104" s="11">
-        <f t="shared" si="14"/>
-        <v>0.76359613973181695</v>
-      </c>
-      <c r="G104" s="11">
-        <f t="shared" si="12"/>
         <v>7.6359613973181695E-2</v>
       </c>
     </row>
@@ -32287,19 +34557,19 @@
         <v>103</v>
       </c>
       <c r="D105">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="E105" s="11">
+        <f t="shared" si="14"/>
+        <v>99999.652344364251</v>
+      </c>
+      <c r="F105" s="11">
+        <f t="shared" si="15"/>
+        <v>0.64422010415000841</v>
+      </c>
+      <c r="G105" s="11">
         <f t="shared" si="13"/>
-        <v>99999.652344364251</v>
-      </c>
-      <c r="F105" s="11">
-        <f t="shared" si="14"/>
-        <v>0.64422010415000841</v>
-      </c>
-      <c r="G105" s="11">
-        <f t="shared" si="12"/>
         <v>6.4422010415000841E-2</v>
       </c>
     </row>
@@ -32308,19 +34578,19 @@
         <v>104</v>
       </c>
       <c r="D106">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="E106" s="11">
+        <f t="shared" si="14"/>
+        <v>99999.706695012428</v>
+      </c>
+      <c r="F106" s="11">
+        <f t="shared" si="15"/>
+        <v>0.54350648177205585</v>
+      </c>
+      <c r="G106" s="11">
         <f t="shared" si="13"/>
-        <v>99999.706695012428</v>
-      </c>
-      <c r="F106" s="11">
-        <f t="shared" si="14"/>
-        <v>0.54350648177205585</v>
-      </c>
-      <c r="G106" s="11">
-        <f t="shared" si="12"/>
         <v>5.4350648177205585E-2</v>
       </c>
     </row>
@@ -32329,19 +34599,19 @@
         <v>105</v>
       </c>
       <c r="D107">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="E107" s="11">
+        <f t="shared" si="14"/>
+        <v>99999.752548787976</v>
+      </c>
+      <c r="F107" s="11">
+        <f t="shared" si="15"/>
+        <v>0.45853775547584519</v>
+      </c>
+      <c r="G107" s="11">
         <f t="shared" si="13"/>
-        <v>99999.752548787976</v>
-      </c>
-      <c r="F107" s="11">
-        <f t="shared" si="14"/>
-        <v>0.45853775547584519</v>
-      </c>
-      <c r="G107" s="11">
-        <f t="shared" si="12"/>
         <v>4.5853775547584519E-2</v>
       </c>
     </row>
@@ -32350,19 +34620,19 @@
         <v>106</v>
       </c>
       <c r="D108">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="E108" s="11">
+        <f t="shared" si="14"/>
+        <v>99999.791234037839</v>
+      </c>
+      <c r="F108" s="11">
+        <f t="shared" si="15"/>
+        <v>0.38685249863192439</v>
+      </c>
+      <c r="G108" s="11">
         <f t="shared" si="13"/>
-        <v>99999.791234037839</v>
-      </c>
-      <c r="F108" s="11">
-        <f t="shared" si="14"/>
-        <v>0.38685249863192439</v>
-      </c>
-      <c r="G108" s="11">
-        <f t="shared" si="12"/>
         <v>3.8685249863192439E-2</v>
       </c>
     </row>
@@ -32371,19 +34641,19 @@
         <v>107</v>
       </c>
       <c r="D109">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="E109" s="11">
+        <f t="shared" si="14"/>
+        <v>99999.823871445347</v>
+      </c>
+      <c r="F109" s="11">
+        <f t="shared" si="15"/>
+        <v>0.32637407508445904</v>
+      </c>
+      <c r="G109" s="11">
         <f t="shared" si="13"/>
-        <v>99999.823871445347</v>
-      </c>
-      <c r="F109" s="11">
-        <f t="shared" si="14"/>
-        <v>0.32637407508445904</v>
-      </c>
-      <c r="G109" s="11">
-        <f t="shared" si="12"/>
         <v>3.2637407508445904E-2</v>
       </c>
     </row>
@@ -32392,19 +34662,19 @@
         <v>108</v>
       </c>
       <c r="D110">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="E110" s="11">
+        <f t="shared" si="14"/>
+        <v>99999.851406494316</v>
+      </c>
+      <c r="F110" s="11">
+        <f t="shared" si="15"/>
+        <v>0.27535048968275078</v>
+      </c>
+      <c r="G110" s="11">
         <f t="shared" si="13"/>
-        <v>99999.851406494316</v>
-      </c>
-      <c r="F110" s="11">
-        <f t="shared" si="14"/>
-        <v>0.27535048968275078</v>
-      </c>
-      <c r="G110" s="11">
-        <f t="shared" si="12"/>
         <v>2.7535048968275078E-2</v>
       </c>
     </row>
@@ -32413,19 +34683,19 @@
         <v>109</v>
       </c>
       <c r="D111">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="E111" s="11">
+        <f t="shared" si="14"/>
+        <v>99999.874636858149</v>
+      </c>
+      <c r="F111" s="11">
+        <f t="shared" si="15"/>
+        <v>0.23230363833135925</v>
+      </c>
+      <c r="G111" s="11">
         <f t="shared" si="13"/>
-        <v>99999.874636858149</v>
-      </c>
-      <c r="F111" s="11">
-        <f t="shared" si="14"/>
-        <v>0.23230363833135925</v>
-      </c>
-      <c r="G111" s="11">
-        <f t="shared" si="12"/>
         <v>2.3230363833135925E-2</v>
       </c>
     </row>
@@ -32434,19 +34704,19 @@
         <v>110</v>
       </c>
       <c r="D112">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="E112" s="11">
+        <f t="shared" si="14"/>
+        <v>99999.894235507207</v>
+      </c>
+      <c r="F112" s="11">
+        <f t="shared" si="15"/>
+        <v>0.1959864905802533</v>
+      </c>
+      <c r="G112" s="11">
         <f t="shared" si="13"/>
-        <v>99999.894235507207</v>
-      </c>
-      <c r="F112" s="11">
-        <f t="shared" si="14"/>
-        <v>0.1959864905802533</v>
-      </c>
-      <c r="G112" s="11">
-        <f t="shared" si="12"/>
         <v>1.959864905802533E-2</v>
       </c>
     </row>
@@ -32455,19 +34725,19 @@
         <v>111</v>
       </c>
       <c r="D113">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="E113" s="11">
+        <f t="shared" si="14"/>
+        <v>99999.910770203816</v>
+      </c>
+      <c r="F113" s="11">
+        <f t="shared" si="15"/>
+        <v>0.16534696609596722</v>
+      </c>
+      <c r="G113" s="11">
         <f t="shared" si="13"/>
-        <v>99999.910770203816</v>
-      </c>
-      <c r="F113" s="11">
-        <f t="shared" si="14"/>
-        <v>0.16534696609596722</v>
-      </c>
-      <c r="G113" s="11">
-        <f t="shared" si="12"/>
         <v>1.6534696609596722E-2</v>
       </c>
     </row>
@@ -32476,19 +34746,19 @@
         <v>112</v>
       </c>
       <c r="D114">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="E114" s="11">
+        <f t="shared" si="14"/>
+        <v>99999.924719949879</v>
+      </c>
+      <c r="F114" s="11">
+        <f t="shared" si="15"/>
+        <v>0.1394974606228061</v>
+      </c>
+      <c r="G114" s="11">
         <f t="shared" si="13"/>
-        <v>99999.924719949879</v>
-      </c>
-      <c r="F114" s="11">
-        <f t="shared" si="14"/>
-        <v>0.1394974606228061</v>
-      </c>
-      <c r="G114" s="11">
-        <f t="shared" si="12"/>
         <v>1.394974606228061E-2</v>
       </c>
     </row>
@@ -32497,19 +34767,19 @@
         <v>113</v>
       </c>
       <c r="D115">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="E115" s="11">
+        <f t="shared" si="14"/>
+        <v>99999.936488862848</v>
+      </c>
+      <c r="F115" s="11">
+        <f t="shared" si="15"/>
+        <v>0.11768912969273515</v>
+      </c>
+      <c r="G115" s="11">
         <f t="shared" si="13"/>
-        <v>99999.936488862848</v>
-      </c>
-      <c r="F115" s="11">
-        <f t="shared" si="14"/>
-        <v>0.11768912969273515</v>
-      </c>
-      <c r="G115" s="11">
-        <f t="shared" si="12"/>
         <v>1.1768912969273515E-2</v>
       </c>
     </row>
@@ -32518,19 +34788,19 @@
         <v>114</v>
       </c>
       <c r="D116">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="E116" s="11">
+        <f t="shared" si="14"/>
+        <v>99999.946417882791</v>
+      </c>
+      <c r="F116" s="11">
+        <f t="shared" si="15"/>
+        <v>9.9290199432289228E-2</v>
+      </c>
+      <c r="G116" s="11">
         <f t="shared" si="13"/>
-        <v>99999.946417882791</v>
-      </c>
-      <c r="F116" s="11">
-        <f t="shared" si="14"/>
-        <v>9.9290199432289228E-2</v>
-      </c>
-      <c r="G116" s="11">
-        <f t="shared" si="12"/>
         <v>9.9290199432289228E-3</v>
       </c>
     </row>
@@ -32539,19 +34809,19 @@
         <v>115</v>
       </c>
       <c r="D117">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="E117" s="11">
+        <f t="shared" si="14"/>
+        <v>99999.954794649122</v>
+      </c>
+      <c r="F117" s="11">
+        <f t="shared" si="15"/>
+        <v>8.3767663309117779E-2</v>
+      </c>
+      <c r="G117" s="11">
         <f t="shared" si="13"/>
-        <v>99999.954794649122</v>
-      </c>
-      <c r="F117" s="11">
-        <f t="shared" si="14"/>
-        <v>8.3767663309117779E-2</v>
-      </c>
-      <c r="G117" s="11">
-        <f t="shared" si="12"/>
         <v>8.3767663309117779E-3</v>
       </c>
     </row>
@@ -32560,19 +34830,19 @@
         <v>116</v>
       </c>
       <c r="D118">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="E118" s="11">
+        <f t="shared" si="14"/>
+        <v>99999.961861833261</v>
+      </c>
+      <c r="F118" s="11">
+        <f t="shared" si="15"/>
+        <v>7.0671841385774314E-2</v>
+      </c>
+      <c r="G118" s="11">
         <f t="shared" si="13"/>
-        <v>99999.961861833261</v>
-      </c>
-      <c r="F118" s="11">
-        <f t="shared" si="14"/>
-        <v>7.0671841385774314E-2</v>
-      </c>
-      <c r="G118" s="11">
-        <f t="shared" si="12"/>
         <v>7.0671841385774314E-3</v>
       </c>
     </row>
@@ -32581,19 +34851,19 @@
         <v>117</v>
       </c>
       <c r="D119">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="E119" s="11">
+        <f t="shared" si="14"/>
+        <v>99999.967824168634</v>
+      </c>
+      <c r="F119" s="11">
+        <f t="shared" si="15"/>
+        <v>5.9623353736242279E-2</v>
+      </c>
+      <c r="G119" s="11">
         <f t="shared" si="13"/>
-        <v>99999.967824168634</v>
-      </c>
-      <c r="F119" s="11">
-        <f t="shared" si="14"/>
-        <v>5.9623353736242279E-2</v>
-      </c>
-      <c r="G119" s="11">
-        <f t="shared" si="12"/>
         <v>5.9623353736242279E-3</v>
       </c>
     </row>
@@ -32602,19 +34872,19 @@
         <v>118</v>
       </c>
       <c r="D120">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="E120" s="11">
+        <f t="shared" si="14"/>
+        <v>99999.972854381762</v>
+      </c>
+      <c r="F120" s="11">
+        <f t="shared" si="15"/>
+        <v>5.030213127611205E-2</v>
+      </c>
+      <c r="G120" s="11">
         <f t="shared" si="13"/>
-        <v>99999.972854381762</v>
-      </c>
-      <c r="F120" s="11">
-        <f t="shared" si="14"/>
-        <v>5.030213127611205E-2</v>
-      </c>
-      <c r="G120" s="11">
-        <f t="shared" si="12"/>
         <v>5.030213127611205E-3</v>
       </c>
     </row>
@@ -32623,19 +34893,19 @@
         <v>119</v>
       </c>
       <c r="D121">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="E121" s="11">
+        <f t="shared" si="14"/>
+        <v>99999.977098196003</v>
+      </c>
+      <c r="F121" s="11">
+        <f t="shared" si="15"/>
+        <v>4.2438142409082502E-2</v>
+      </c>
+      <c r="G121" s="11">
         <f t="shared" si="13"/>
-        <v>99999.977098196003</v>
-      </c>
-      <c r="F121" s="11">
-        <f t="shared" si="14"/>
-        <v>4.2438142409082502E-2</v>
-      </c>
-      <c r="G121" s="11">
-        <f t="shared" si="12"/>
         <v>4.2438142409082502E-3</v>
       </c>
     </row>
@@ -32644,19 +34914,19 @@
         <v>120</v>
       </c>
       <c r="D122">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="E122" s="11">
+        <f t="shared" si="14"/>
+        <v>99999.980678553024</v>
+      </c>
+      <c r="F122" s="11">
+        <f t="shared" si="15"/>
+        <v>3.5803570208372548E-2</v>
+      </c>
+      <c r="G122" s="11">
         <f t="shared" si="13"/>
-        <v>99999.980678553024</v>
-      </c>
-      <c r="F122" s="11">
-        <f t="shared" si="14"/>
-        <v>3.5803570208372548E-2</v>
-      </c>
-      <c r="G122" s="11">
-        <f t="shared" si="12"/>
         <v>3.5803570208372548E-3</v>
       </c>
     </row>
@@ -32665,19 +34935,19 @@
         <v>121</v>
       </c>
       <c r="D123">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="E123" s="11">
+        <f t="shared" si="14"/>
+        <v>99999.983699174496</v>
+      </c>
+      <c r="F123" s="11">
+        <f t="shared" si="15"/>
+        <v>3.0206214723875746E-2</v>
+      </c>
+      <c r="G123" s="11">
         <f t="shared" si="13"/>
-        <v>99999.983699174496</v>
-      </c>
-      <c r="F123" s="11">
-        <f t="shared" si="14"/>
-        <v>3.0206214723875746E-2</v>
-      </c>
-      <c r="G123" s="11">
-        <f t="shared" si="12"/>
         <v>3.0206214723875746E-3</v>
       </c>
     </row>
@@ -32686,19 +34956,19 @@
         <v>122</v>
       </c>
       <c r="D124">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="E124" s="11">
+        <f t="shared" si="14"/>
+        <v>99999.986247566703</v>
+      </c>
+      <c r="F124" s="11">
+        <f t="shared" si="15"/>
+        <v>2.5483922072453424E-2</v>
+      </c>
+      <c r="G124" s="11">
         <f t="shared" si="13"/>
-        <v>99999.986247566703</v>
-      </c>
-      <c r="F124" s="11">
-        <f t="shared" si="14"/>
-        <v>2.5483922072453424E-2</v>
-      </c>
-      <c r="G124" s="11">
-        <f t="shared" si="12"/>
         <v>2.5483922072453424E-3</v>
       </c>
     </row>
@@ -32707,19 +34977,19 @@
         <v>123</v>
       </c>
       <c r="D125">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="E125" s="11">
+        <f t="shared" si="14"/>
+        <v>99999.988397555629</v>
+      </c>
+      <c r="F125" s="11">
+        <f t="shared" si="15"/>
+        <v>2.1499889262486249E-2</v>
+      </c>
+      <c r="G125" s="11">
         <f t="shared" si="13"/>
-        <v>99999.988397555629</v>
-      </c>
-      <c r="F125" s="11">
-        <f t="shared" si="14"/>
-        <v>2.1499889262486249E-2</v>
-      </c>
-      <c r="G125" s="11">
-        <f t="shared" si="12"/>
         <v>2.1499889262486249E-3</v>
       </c>
     </row>
@@ -32728,19 +34998,19 @@
         <v>124</v>
       </c>
       <c r="D126">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="E126" s="11">
+        <f t="shared" si="14"/>
+        <v>99999.990211425713</v>
+      </c>
+      <c r="F126" s="11">
+        <f t="shared" si="15"/>
+        <v>1.8138700834242627E-2</v>
+      </c>
+      <c r="G126" s="11">
         <f t="shared" si="13"/>
-        <v>99999.990211425713</v>
-      </c>
-      <c r="F126" s="11">
-        <f t="shared" si="14"/>
-        <v>1.8138700834242627E-2</v>
-      </c>
-      <c r="G126" s="11">
-        <f t="shared" si="12"/>
         <v>1.8138700834242627E-3</v>
       </c>
     </row>
@@ -32749,19 +35019,19 @@
         <v>125</v>
       </c>
       <c r="D127">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="E127" s="11">
+        <f t="shared" si="14"/>
+        <v>99999.991741724152</v>
+      </c>
+      <c r="F127" s="11">
+        <f t="shared" si="15"/>
+        <v>1.5302984393201768E-2</v>
+      </c>
+      <c r="G127" s="11">
         <f t="shared" si="13"/>
-        <v>99999.991741724152</v>
-      </c>
-      <c r="F127" s="11">
-        <f t="shared" si="14"/>
-        <v>1.5302984393201768E-2</v>
-      </c>
-      <c r="G127" s="11">
-        <f t="shared" si="12"/>
         <v>1.5302984393201768E-3</v>
       </c>
     </row>
@@ -32770,19 +35040,19 @@
         <v>126</v>
       </c>
       <c r="D128">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="E128" s="11">
+        <f t="shared" si="14"/>
+        <v>99999.993032783124</v>
+      </c>
+      <c r="F128" s="11">
+        <f t="shared" si="15"/>
+        <v>1.2910589721286669E-2</v>
+      </c>
+      <c r="G128" s="11">
         <f t="shared" si="13"/>
-        <v>99999.993032783124</v>
-      </c>
-      <c r="F128" s="11">
-        <f t="shared" si="14"/>
-        <v>1.2910589721286669E-2</v>
-      </c>
-      <c r="G128" s="11">
-        <f t="shared" si="12"/>
         <v>1.2910589721286669E-3</v>
       </c>
     </row>
@@ -32791,19 +35061,19 @@
         <v>127</v>
       </c>
       <c r="D129">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="E129" s="11">
+        <f t="shared" si="14"/>
+        <v>99999.994122004195</v>
+      </c>
+      <c r="F129" s="11">
+        <f t="shared" si="15"/>
+        <v>1.0892210702877492E-2</v>
+      </c>
+      <c r="G129" s="11">
         <f t="shared" si="13"/>
-        <v>99999.994122004195</v>
-      </c>
-      <c r="F129" s="11">
-        <f t="shared" si="14"/>
-        <v>1.0892210702877492E-2</v>
-      </c>
-      <c r="G129" s="11">
-        <f t="shared" si="12"/>
         <v>1.0892210702877492E-3</v>
       </c>
     </row>
@@ -32812,19 +35082,19 @@
         <v>128</v>
       </c>
       <c r="D130">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="E130" s="11">
+        <f t="shared" si="14"/>
+        <v>99999.995040941707</v>
+      </c>
+      <c r="F130" s="11">
+        <f t="shared" si="15"/>
+        <v>9.1893751232419163E-3</v>
+      </c>
+      <c r="G130" s="11">
         <f t="shared" si="13"/>
-        <v>99999.995040941707</v>
-      </c>
-      <c r="F130" s="11">
-        <f t="shared" si="14"/>
-        <v>9.1893751232419163E-3</v>
-      </c>
-      <c r="G130" s="11">
-        <f t="shared" si="12"/>
         <v>9.1893751232419163E-4</v>
       </c>
     </row>
@@ -32833,19 +35103,19 @@
         <v>129</v>
       </c>
       <c r="D131">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="E131" s="11">
-        <f t="shared" ref="E131:E149" si="15">$K$2/(1+$K$5*EXP(-$K$4*B131))</f>
+        <f t="shared" ref="E131:E149" si="16">$K$2/(1+$K$5*EXP(-$K$4*B131))</f>
         <v>99999.99581621695</v>
       </c>
       <c r="F131" s="11">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>7.7527524263132364E-3</v>
       </c>
       <c r="G131" s="11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>7.7527524263132364E-4</v>
       </c>
     </row>
@@ -32854,19 +35124,19 @@
         <v>130</v>
       </c>
       <c r="D132">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="E132" s="11">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>99999.996470289421</v>
       </c>
       <c r="F132" s="11">
-        <f t="shared" ref="F132:F149" si="16">(E132-E131)*10</f>
+        <f t="shared" ref="F132:F149" si="17">(E132-E131)*10</f>
         <v>6.5407247166149318E-3</v>
       </c>
       <c r="G132" s="11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>6.5407247166149318E-4</v>
       </c>
     </row>
@@ -32875,19 +35145,19 @@
         <v>131</v>
       </c>
       <c r="D133">
-        <f t="shared" ref="D133:D149" si="17">C133-C132</f>
+        <f t="shared" ref="D133:D149" si="18">C133-C132</f>
         <v>0</v>
       </c>
       <c r="E133" s="11">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>99999.99702210736</v>
       </c>
       <c r="F133" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>5.5181793868541718E-3</v>
       </c>
       <c r="G133" s="11">
-        <f t="shared" ref="G133:G149" si="18">E133-E132</f>
+        <f t="shared" ref="G133:G149" si="19">E133-E132</f>
         <v>5.5181793868541718E-4</v>
       </c>
     </row>
@@ -32896,19 +35166,19 @@
         <v>132</v>
       </c>
       <c r="D134">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="E134" s="11">
+        <f t="shared" si="16"/>
+        <v>99999.997487656728</v>
+      </c>
+      <c r="F134" s="11">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="E134" s="11">
-        <f t="shared" si="15"/>
-        <v>99999.997487656728</v>
-      </c>
-      <c r="F134" s="11">
-        <f t="shared" si="16"/>
         <v>4.6554936852771789E-3</v>
       </c>
       <c r="G134" s="11">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>4.6554936852771789E-4</v>
       </c>
     </row>
@@ -32917,19 +35187,19 @@
         <v>133</v>
       </c>
       <c r="D135">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="E135" s="11">
+        <f t="shared" si="16"/>
+        <v>99999.997880424373</v>
+      </c>
+      <c r="F135" s="11">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="E135" s="11">
-        <f t="shared" si="15"/>
-        <v>99999.997880424373</v>
-      </c>
-      <c r="F135" s="11">
-        <f t="shared" si="16"/>
         <v>3.9276764437090605E-3</v>
       </c>
       <c r="G135" s="11">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>3.9276764437090605E-4</v>
       </c>
     </row>
@@ -32938,19 +35208,19 @@
         <v>134</v>
       </c>
       <c r="D136">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="E136" s="11">
+        <f t="shared" si="16"/>
+        <v>99999.99821178861</v>
+      </c>
+      <c r="F136" s="11">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="E136" s="11">
-        <f t="shared" si="15"/>
-        <v>99999.99821178861</v>
-      </c>
-      <c r="F136" s="11">
-        <f t="shared" si="16"/>
         <v>3.31364237354137E-3</v>
       </c>
       <c r="G136" s="11">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>3.31364237354137E-4</v>
       </c>
     </row>
@@ -32959,19 +35229,19 @@
         <v>135</v>
       </c>
       <c r="D137">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="E137" s="11">
+        <f t="shared" si="16"/>
+        <v>99999.998491348946</v>
+      </c>
+      <c r="F137" s="11">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="E137" s="11">
-        <f t="shared" si="15"/>
-        <v>99999.998491348946</v>
-      </c>
-      <c r="F137" s="11">
-        <f t="shared" si="16"/>
         <v>2.795603359118104E-3</v>
       </c>
       <c r="G137" s="11">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>2.795603359118104E-4</v>
       </c>
     </row>
@@ -32980,19 +35250,19 @@
         <v>136</v>
       </c>
       <c r="D138">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="E138" s="11">
+        <f t="shared" si="16"/>
+        <v>99999.998727204191</v>
+      </c>
+      <c r="F138" s="11">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="E138" s="11">
-        <f t="shared" si="15"/>
-        <v>99999.998727204191</v>
-      </c>
-      <c r="F138" s="11">
-        <f t="shared" si="16"/>
         <v>2.3585524468217045E-3</v>
       </c>
       <c r="G138" s="11">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>2.3585524468217045E-4</v>
       </c>
     </row>
@@ -33001,19 +35271,19 @@
         <v>137</v>
       </c>
       <c r="D139">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="E139" s="11">
+        <f t="shared" si="16"/>
+        <v>99999.998926186949</v>
+      </c>
+      <c r="F139" s="11">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="E139" s="11">
-        <f t="shared" si="15"/>
-        <v>99999.998926186949</v>
-      </c>
-      <c r="F139" s="11">
-        <f t="shared" si="16"/>
         <v>1.9898275786545128E-3</v>
       </c>
       <c r="G139" s="11">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1.9898275786545128E-4</v>
       </c>
     </row>
@@ -33022,19 +35292,19 @@
         <v>138</v>
       </c>
       <c r="D140">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="E140" s="11">
+        <f t="shared" si="16"/>
+        <v>99999.999094061699</v>
+      </c>
+      <c r="F140" s="11">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="E140" s="11">
-        <f t="shared" si="15"/>
-        <v>99999.999094061699</v>
-      </c>
-      <c r="F140" s="11">
-        <f t="shared" si="16"/>
         <v>1.6787475033197552E-3</v>
       </c>
       <c r="G140" s="11">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1.6787475033197552E-4</v>
       </c>
     </row>
@@ -33043,19 +35313,19 @@
         <v>139</v>
       </c>
       <c r="D141">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="E141" s="11">
+        <f t="shared" si="16"/>
+        <v>99999.99923569175</v>
+      </c>
+      <c r="F141" s="11">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="E141" s="11">
-        <f t="shared" si="15"/>
-        <v>99999.99923569175</v>
-      </c>
-      <c r="F141" s="11">
-        <f t="shared" si="16"/>
         <v>1.4163005107548088E-3</v>
       </c>
       <c r="G141" s="11">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1.4163005107548088E-4</v>
       </c>
     </row>
@@ -33064,19 +35334,19 @@
         <v>140</v>
       </c>
       <c r="D142">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="E142" s="11">
+        <f t="shared" si="16"/>
+        <v>99999.99935518</v>
+      </c>
+      <c r="F142" s="11">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="E142" s="11">
-        <f t="shared" si="15"/>
-        <v>99999.99935518</v>
-      </c>
-      <c r="F142" s="11">
-        <f t="shared" si="16"/>
         <v>1.1948824976570904E-3</v>
       </c>
       <c r="G142" s="11">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1.1948824976570904E-4</v>
       </c>
     </row>
@@ -33085,19 +35355,19 @@
         <v>141</v>
       </c>
       <c r="D143">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="E143" s="11">
+        <f t="shared" si="16"/>
+        <v>99999.999455988058</v>
+      </c>
+      <c r="F143" s="11">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="E143" s="11">
-        <f t="shared" si="15"/>
-        <v>99999.999455988058</v>
-      </c>
-      <c r="F143" s="11">
-        <f t="shared" si="16"/>
         <v>1.0080805805046111E-3</v>
       </c>
       <c r="G143" s="11">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1.0080805805046111E-4</v>
       </c>
     </row>
@@ -33106,19 +35376,19 @@
         <v>142</v>
       </c>
       <c r="D144">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="E144" s="11">
+        <f t="shared" si="16"/>
+        <v>99999.999541036275</v>
+      </c>
+      <c r="F144" s="11">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="E144" s="11">
-        <f t="shared" si="15"/>
-        <v>99999.999541036275</v>
-      </c>
-      <c r="F144" s="11">
-        <f t="shared" si="16"/>
         <v>8.5048217442817986E-4</v>
       </c>
       <c r="G144" s="11">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>8.5048217442817986E-5</v>
       </c>
     </row>
@@ -33127,19 +35397,19 @@
         <v>143</v>
       </c>
       <c r="D145">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="E145" s="11">
+        <f t="shared" si="16"/>
+        <v>99999.999612788451</v>
+      </c>
+      <c r="F145" s="11">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="E145" s="11">
-        <f t="shared" si="15"/>
-        <v>99999.999612788451</v>
-      </c>
-      <c r="F145" s="11">
-        <f t="shared" si="16"/>
         <v>7.1752176154404879E-4</v>
       </c>
       <c r="G145" s="11">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>7.1752176154404879E-5</v>
       </c>
     </row>
@@ -33148,19 +35418,19 @@
         <v>144</v>
       </c>
       <c r="D146">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="E146" s="11">
+        <f t="shared" si="16"/>
+        <v>99999.999673323226</v>
+      </c>
+      <c r="F146" s="11">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="E146" s="11">
-        <f t="shared" si="15"/>
-        <v>99999.999673323226</v>
-      </c>
-      <c r="F146" s="11">
-        <f t="shared" si="16"/>
         <v>6.0534774092957377E-4</v>
       </c>
       <c r="G146" s="11">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>6.0534774092957377E-5</v>
       </c>
     </row>
@@ -33169,19 +35439,19 @@
         <v>145</v>
       </c>
       <c r="D147">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="E147" s="11">
+        <f t="shared" si="16"/>
+        <v>99999.999724394307</v>
+      </c>
+      <c r="F147" s="11">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="E147" s="11">
-        <f t="shared" si="15"/>
-        <v>99999.999724394307</v>
-      </c>
-      <c r="F147" s="11">
-        <f t="shared" si="16"/>
         <v>5.1071081543341279E-4</v>
       </c>
       <c r="G147" s="11">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>5.1071081543341279E-5</v>
       </c>
     </row>
@@ -33190,19 +35460,19 @@
         <v>146</v>
       </c>
       <c r="D148">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="E148" s="11">
+        <f t="shared" si="16"/>
+        <v>99999.999767481175</v>
+      </c>
+      <c r="F148" s="11">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="E148" s="11">
-        <f t="shared" si="15"/>
-        <v>99999.999767481175</v>
-      </c>
-      <c r="F148" s="11">
-        <f t="shared" si="16"/>
         <v>4.308686766307801E-4</v>
       </c>
       <c r="G148" s="11">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>4.308686766307801E-5</v>
       </c>
     </row>
@@ -33211,19 +35481,19 @@
         <v>147</v>
       </c>
       <c r="D149">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="E149" s="11">
+        <f t="shared" si="16"/>
+        <v>99999.999803832048</v>
+      </c>
+      <c r="F149" s="11">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="E149" s="11">
-        <f t="shared" si="15"/>
-        <v>99999.999803832048</v>
-      </c>
-      <c r="F149" s="11">
-        <f t="shared" si="16"/>
         <v>3.6350873415358365E-4</v>
       </c>
       <c r="G149" s="11">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>3.6350873415358365E-5</v>
       </c>
     </row>
@@ -33242,8 +35512,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:L67"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I37" sqref="I37:I38"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -33302,7 +35572,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="3">
-        <f>Dati!J3</f>
+        <f>Dati!K3</f>
         <v>7</v>
       </c>
       <c r="F3" s="11">
@@ -33329,7 +35599,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="3">
-        <f>Dati!J4</f>
+        <f>Dati!K4</f>
         <v>10</v>
       </c>
       <c r="D4">
@@ -33372,7 +35642,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="3">
-        <f>Dati!J5</f>
+        <f>Dati!K5</f>
         <v>12</v>
       </c>
       <c r="D5">
@@ -33396,7 +35666,7 @@
         <v>15.271166850499654</v>
       </c>
       <c r="I5" s="11">
-        <f t="shared" ref="I5:I38" si="5">C5-F5</f>
+        <f t="shared" ref="I5:I39" si="5">C5-F5</f>
         <v>-86.068874921805403</v>
       </c>
       <c r="J5" s="11"/>
@@ -33416,7 +35686,7 @@
         <v>4</v>
       </c>
       <c r="C6" s="3">
-        <f>Dati!J6</f>
+        <f>Dati!K6</f>
         <v>17</v>
       </c>
       <c r="D6">
@@ -33453,7 +35723,7 @@
         <v>5</v>
       </c>
       <c r="C7" s="3">
-        <f>Dati!J7</f>
+        <f>Dati!K7</f>
         <v>21</v>
       </c>
       <c r="D7">
@@ -33490,7 +35760,7 @@
         <v>6</v>
       </c>
       <c r="C8" s="3">
-        <f>Dati!J8</f>
+        <f>Dati!K8</f>
         <v>29</v>
       </c>
       <c r="D8">
@@ -33534,7 +35804,7 @@
         <v>7</v>
       </c>
       <c r="C9" s="3">
-        <f>Dati!J9</f>
+        <f>Dati!K9</f>
         <v>34</v>
       </c>
       <c r="D9">
@@ -33578,7 +35848,7 @@
         <v>8</v>
       </c>
       <c r="C10" s="3">
-        <f>Dati!J10</f>
+        <f>Dati!K10</f>
         <v>52</v>
       </c>
       <c r="D10">
@@ -33615,7 +35885,7 @@
         <v>9</v>
       </c>
       <c r="C11" s="3">
-        <f>Dati!J11</f>
+        <f>Dati!K11</f>
         <v>79</v>
       </c>
       <c r="D11">
@@ -33652,7 +35922,7 @@
         <v>10</v>
       </c>
       <c r="C12" s="3">
-        <f>Dati!J12</f>
+        <f>Dati!K12</f>
         <v>107</v>
       </c>
       <c r="D12">
@@ -33696,7 +35966,7 @@
         <v>11</v>
       </c>
       <c r="C13" s="3">
-        <f>Dati!J13</f>
+        <f>Dati!K13</f>
         <v>148</v>
       </c>
       <c r="D13">
@@ -33740,7 +36010,7 @@
         <v>12</v>
       </c>
       <c r="C14" s="3">
-        <f>Dati!J14</f>
+        <f>Dati!K14</f>
         <v>197</v>
       </c>
       <c r="D14">
@@ -33777,7 +36047,7 @@
         <v>13</v>
       </c>
       <c r="C15" s="3">
-        <f>Dati!J15</f>
+        <f>Dati!K15</f>
         <v>233</v>
       </c>
       <c r="D15">
@@ -33814,7 +36084,7 @@
         <v>14</v>
       </c>
       <c r="C16" s="3">
-        <f>Dati!J16</f>
+        <f>Dati!K16</f>
         <v>366</v>
       </c>
       <c r="D16">
@@ -33851,7 +36121,7 @@
         <v>15</v>
       </c>
       <c r="C17" s="3">
-        <f>Dati!J17</f>
+        <f>Dati!K17</f>
         <v>463</v>
       </c>
       <c r="D17">
@@ -33888,7 +36158,7 @@
         <v>16</v>
       </c>
       <c r="C18" s="3">
-        <f>Dati!J18</f>
+        <f>Dati!K18</f>
         <v>631</v>
       </c>
       <c r="D18">
@@ -33925,7 +36195,7 @@
         <v>17</v>
       </c>
       <c r="C19" s="3">
-        <f>Dati!J19</f>
+        <f>Dati!K19</f>
         <v>827</v>
       </c>
       <c r="D19">
@@ -33962,7 +36232,7 @@
         <v>18</v>
       </c>
       <c r="C20" s="3">
-        <f>Dati!J20</f>
+        <f>Dati!K20</f>
         <v>1016</v>
       </c>
       <c r="D20">
@@ -33999,7 +36269,7 @@
         <v>19</v>
       </c>
       <c r="C21" s="3">
-        <f>Dati!J21</f>
+        <f>Dati!K21</f>
         <v>1266</v>
       </c>
       <c r="D21">
@@ -34036,7 +36306,7 @@
         <v>20</v>
       </c>
       <c r="C22" s="3">
-        <f>Dati!J22</f>
+        <f>Dati!K22</f>
         <v>1441</v>
       </c>
       <c r="D22">
@@ -34073,7 +36343,7 @@
         <v>21</v>
       </c>
       <c r="C23" s="3">
-        <f>Dati!J23</f>
+        <f>Dati!K23</f>
         <v>1809</v>
       </c>
       <c r="D23">
@@ -34110,7 +36380,7 @@
         <v>22</v>
       </c>
       <c r="C24" s="3">
-        <f>Dati!J24</f>
+        <f>Dati!K24</f>
         <v>2158</v>
       </c>
       <c r="D24">
@@ -34147,7 +36417,7 @@
         <v>23</v>
       </c>
       <c r="C25" s="3">
-        <f>Dati!J25</f>
+        <f>Dati!K25</f>
         <v>2503</v>
       </c>
       <c r="D25">
@@ -34184,7 +36454,7 @@
         <v>24</v>
       </c>
       <c r="C26" s="3">
-        <f>Dati!J26</f>
+        <f>Dati!K26</f>
         <v>2978</v>
       </c>
       <c r="D26">
@@ -34221,7 +36491,7 @@
         <v>25</v>
       </c>
       <c r="C27" s="3">
-        <f>Dati!J27</f>
+        <f>Dati!K27</f>
         <v>3405</v>
       </c>
       <c r="D27">
@@ -34258,7 +36528,7 @@
         <v>26</v>
       </c>
       <c r="C28" s="3">
-        <f>Dati!J28</f>
+        <f>Dati!K28</f>
         <v>4032</v>
       </c>
       <c r="D28">
@@ -34295,7 +36565,7 @@
         <v>27</v>
       </c>
       <c r="C29" s="3">
-        <f>Dati!J29</f>
+        <f>Dati!K29</f>
         <v>4825</v>
       </c>
       <c r="D29">
@@ -34332,7 +36602,7 @@
         <v>28</v>
       </c>
       <c r="C30" s="3">
-        <f>Dati!J30</f>
+        <f>Dati!K30</f>
         <v>5476</v>
       </c>
       <c r="D30">
@@ -34369,7 +36639,7 @@
         <v>29</v>
       </c>
       <c r="C31" s="3">
-        <f>Dati!J31</f>
+        <f>Dati!K31</f>
         <v>6077</v>
       </c>
       <c r="D31">
@@ -34406,7 +36676,7 @@
         <v>30</v>
       </c>
       <c r="C32" s="3">
-        <f>Dati!J32</f>
+        <f>Dati!K32</f>
         <v>6820</v>
       </c>
       <c r="D32">
@@ -34443,7 +36713,7 @@
         <v>31</v>
       </c>
       <c r="C33" s="3">
-        <f>Dati!J33</f>
+        <f>Dati!K33</f>
         <v>7503</v>
       </c>
       <c r="D33">
@@ -34480,7 +36750,7 @@
         <v>32</v>
       </c>
       <c r="C34" s="3">
-        <f>Dati!J34</f>
+        <f>Dati!K34</f>
         <v>8165</v>
       </c>
       <c r="D34">
@@ -34517,7 +36787,7 @@
         <v>33</v>
       </c>
       <c r="C35" s="3">
-        <f>Dati!J35</f>
+        <f>Dati!K35</f>
         <v>9134</v>
       </c>
       <c r="D35">
@@ -34554,7 +36824,7 @@
         <v>34</v>
       </c>
       <c r="C36" s="3">
-        <f>Dati!J36</f>
+        <f>Dati!K36</f>
         <v>10023</v>
       </c>
       <c r="D36">
@@ -34591,7 +36861,7 @@
         <v>35</v>
       </c>
       <c r="C37" s="3">
-        <f>Dati!J37</f>
+        <f>Dati!K37</f>
         <v>10779</v>
       </c>
       <c r="D37">
@@ -34628,7 +36898,7 @@
         <v>36</v>
       </c>
       <c r="C38" s="3">
-        <f>Dati!J38</f>
+        <f>Dati!K38</f>
         <v>11591</v>
       </c>
       <c r="D38">
@@ -34664,7 +36934,18 @@
       <c r="B39" s="10">
         <v>37</v>
       </c>
-      <c r="C39" s="3"/>
+      <c r="C39" s="3">
+        <f>Dati!K39</f>
+        <v>12428</v>
+      </c>
+      <c r="D39">
+        <f t="shared" ref="D39" si="12">C39-C38</f>
+        <v>837</v>
+      </c>
+      <c r="E39">
+        <f t="shared" ref="E39" si="13">10*(C39-C38)</f>
+        <v>8370</v>
+      </c>
       <c r="F39" s="11">
         <f t="shared" si="9"/>
         <v>12663.46395231572</v>
@@ -34677,7 +36958,10 @@
         <f t="shared" si="4"/>
         <v>867.71787155565471</v>
       </c>
-      <c r="I39" s="11"/>
+      <c r="I39" s="11">
+        <f t="shared" si="5"/>
+        <v>-235.46395231572023</v>
+      </c>
       <c r="J39" s="11"/>
     </row>
     <row r="40" spans="1:10">
@@ -35149,7 +37433,7 @@
       </c>
       <c r="C60" s="3"/>
       <c r="F60" s="11">
-        <f t="shared" ref="F60:F67" si="12">$L$2/(1+$L$5*EXP(-$L$4*B60))</f>
+        <f t="shared" ref="F60:F67" si="14">$L$2/(1+$L$5*EXP(-$L$4*B60))</f>
         <v>20617.840215665983</v>
       </c>
       <c r="G60" s="11">
@@ -35172,7 +37456,7 @@
       </c>
       <c r="C61" s="3"/>
       <c r="F61" s="11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>20676.665348247563</v>
       </c>
       <c r="G61" s="11">
@@ -35195,7 +37479,7 @@
       </c>
       <c r="C62" s="3"/>
       <c r="F62" s="11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>20726.555729370077</v>
       </c>
       <c r="G62" s="11">
@@ -35218,7 +37502,7 @@
       </c>
       <c r="C63" s="3"/>
       <c r="F63" s="11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>20768.834113317804</v>
       </c>
       <c r="G63" s="11">
@@ -35241,7 +37525,7 @@
       </c>
       <c r="C64" s="3"/>
       <c r="F64" s="11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>20804.637270596504</v>
       </c>
       <c r="G64" s="11">
@@ -35264,7 +37548,7 @@
       </c>
       <c r="C65" s="3"/>
       <c r="F65" s="11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>20834.939277021032</v>
       </c>
       <c r="G65" s="11">
@@ -35287,7 +37571,7 @@
       </c>
       <c r="C66" s="3"/>
       <c r="F66" s="11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>20860.572747223094</v>
       </c>
       <c r="G66" s="11">
@@ -35310,7 +37594,7 @@
       </c>
       <c r="C67" s="3"/>
       <c r="F67" s="11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>20882.247909134818</v>
       </c>
       <c r="G67" s="11">
@@ -35454,10 +37738,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E38"/>
+  <dimension ref="A1:E39"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37:E38"/>
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -35489,7 +37773,7 @@
         <v>43885.75</v>
       </c>
       <c r="B3" s="3">
-        <f>Dati!K3</f>
+        <f>Dati!L3</f>
         <v>229</v>
       </c>
     </row>
@@ -35498,7 +37782,7 @@
         <v>43886</v>
       </c>
       <c r="B4" s="3">
-        <f>Dati!K4</f>
+        <f>Dati!L4</f>
         <v>322</v>
       </c>
       <c r="C4">
@@ -35511,7 +37795,7 @@
         <v>43887</v>
       </c>
       <c r="B5" s="3">
-        <f>Dati!K5</f>
+        <f>Dati!L5</f>
         <v>400</v>
       </c>
       <c r="C5">
@@ -35528,7 +37812,7 @@
         <v>43888</v>
       </c>
       <c r="B6" s="3">
-        <f>Dati!K6</f>
+        <f>Dati!L6</f>
         <v>650</v>
       </c>
       <c r="C6">
@@ -35549,7 +37833,7 @@
         <v>43889</v>
       </c>
       <c r="B7" s="3">
-        <f>Dati!K7</f>
+        <f>Dati!L7</f>
         <v>888</v>
       </c>
       <c r="C7">
@@ -35570,7 +37854,7 @@
         <v>43890</v>
       </c>
       <c r="B8" s="3">
-        <f>Dati!K8</f>
+        <f>Dati!L8</f>
         <v>1128</v>
       </c>
       <c r="C8">
@@ -35591,7 +37875,7 @@
         <v>43891</v>
       </c>
       <c r="B9" s="3">
-        <f>Dati!K9</f>
+        <f>Dati!L9</f>
         <v>1694</v>
       </c>
       <c r="C9">
@@ -35612,7 +37896,7 @@
         <v>43892</v>
       </c>
       <c r="B10" s="3">
-        <f>Dati!K10</f>
+        <f>Dati!L10</f>
         <v>2036</v>
       </c>
       <c r="C10">
@@ -35633,7 +37917,7 @@
         <v>43893</v>
       </c>
       <c r="B11" s="3">
-        <f>Dati!K11</f>
+        <f>Dati!L11</f>
         <v>2502</v>
       </c>
       <c r="C11">
@@ -35654,7 +37938,7 @@
         <v>43894</v>
       </c>
       <c r="B12" s="3">
-        <f>Dati!K12</f>
+        <f>Dati!L12</f>
         <v>3089</v>
       </c>
       <c r="C12">
@@ -35675,7 +37959,7 @@
         <v>43895</v>
       </c>
       <c r="B13" s="3">
-        <f>Dati!K13</f>
+        <f>Dati!L13</f>
         <v>3858</v>
       </c>
       <c r="C13">
@@ -35696,7 +37980,7 @@
         <v>43896</v>
       </c>
       <c r="B14" s="3">
-        <f>Dati!K14</f>
+        <f>Dati!L14</f>
         <v>4636</v>
       </c>
       <c r="C14">
@@ -35717,7 +38001,7 @@
         <v>43897</v>
       </c>
       <c r="B15" s="3">
-        <f>Dati!K15</f>
+        <f>Dati!L15</f>
         <v>5883</v>
       </c>
       <c r="C15">
@@ -35738,7 +38022,7 @@
         <v>43898</v>
       </c>
       <c r="B16" s="3">
-        <f>Dati!K16</f>
+        <f>Dati!L16</f>
         <v>7375</v>
       </c>
       <c r="C16">
@@ -35759,7 +38043,7 @@
         <v>43899</v>
       </c>
       <c r="B17" s="3">
-        <f>Dati!K17</f>
+        <f>Dati!L17</f>
         <v>9172</v>
       </c>
       <c r="C17">
@@ -35780,7 +38064,7 @@
         <v>43900</v>
       </c>
       <c r="B18" s="3">
-        <f>Dati!K18</f>
+        <f>Dati!L18</f>
         <v>10149</v>
       </c>
       <c r="C18">
@@ -35801,7 +38085,7 @@
         <v>43901</v>
       </c>
       <c r="B19" s="3">
-        <f>Dati!K19</f>
+        <f>Dati!L19</f>
         <v>12462</v>
       </c>
       <c r="C19">
@@ -35822,7 +38106,7 @@
         <v>43902</v>
       </c>
       <c r="B20" s="3">
-        <f>Dati!K20</f>
+        <f>Dati!L20</f>
         <v>15113</v>
       </c>
       <c r="C20">
@@ -35843,7 +38127,7 @@
         <v>43903</v>
       </c>
       <c r="B21" s="3">
-        <f>Dati!K21</f>
+        <f>Dati!L21</f>
         <v>17660</v>
       </c>
       <c r="C21">
@@ -35864,7 +38148,7 @@
         <v>43904</v>
       </c>
       <c r="B22" s="3">
-        <f>Dati!K22</f>
+        <f>Dati!L22</f>
         <v>21157</v>
       </c>
       <c r="C22">
@@ -35885,7 +38169,7 @@
         <v>43905</v>
       </c>
       <c r="B23" s="3">
-        <f>Dati!K23</f>
+        <f>Dati!L23</f>
         <v>24747</v>
       </c>
       <c r="C23">
@@ -35906,7 +38190,7 @@
         <v>43906</v>
       </c>
       <c r="B24" s="3">
-        <f>Dati!K24</f>
+        <f>Dati!L24</f>
         <v>27980</v>
       </c>
       <c r="C24">
@@ -35927,7 +38211,7 @@
         <v>43907</v>
       </c>
       <c r="B25" s="3">
-        <f>Dati!K25</f>
+        <f>Dati!L25</f>
         <v>31506</v>
       </c>
       <c r="C25">
@@ -35948,7 +38232,7 @@
         <v>43908</v>
       </c>
       <c r="B26" s="3">
-        <f>Dati!K26</f>
+        <f>Dati!L26</f>
         <v>35713</v>
       </c>
       <c r="C26">
@@ -35969,7 +38253,7 @@
         <v>43909</v>
       </c>
       <c r="B27" s="3">
-        <f>Dati!K27</f>
+        <f>Dati!L27</f>
         <v>41035</v>
       </c>
       <c r="C27">
@@ -35990,7 +38274,7 @@
         <v>43910</v>
       </c>
       <c r="B28" s="3">
-        <f>Dati!K28</f>
+        <f>Dati!L28</f>
         <v>47021</v>
       </c>
       <c r="C28">
@@ -36011,7 +38295,7 @@
         <v>43911</v>
       </c>
       <c r="B29" s="3">
-        <f>Dati!K29</f>
+        <f>Dati!L29</f>
         <v>53578</v>
       </c>
       <c r="C29">
@@ -36032,7 +38316,7 @@
         <v>43912</v>
       </c>
       <c r="B30" s="3">
-        <f>Dati!K30</f>
+        <f>Dati!L30</f>
         <v>59138</v>
       </c>
       <c r="C30">
@@ -36053,7 +38337,7 @@
         <v>43913</v>
       </c>
       <c r="B31" s="3">
-        <f>Dati!K31</f>
+        <f>Dati!L31</f>
         <v>63927</v>
       </c>
       <c r="C31">
@@ -36074,7 +38358,7 @@
         <v>43914</v>
       </c>
       <c r="B32" s="3">
-        <f>Dati!K32</f>
+        <f>Dati!L32</f>
         <v>69176</v>
       </c>
       <c r="C32">
@@ -36095,7 +38379,7 @@
         <v>43915</v>
       </c>
       <c r="B33" s="3">
-        <f>Dati!K33</f>
+        <f>Dati!L33</f>
         <v>74386</v>
       </c>
       <c r="C33">
@@ -36116,7 +38400,7 @@
         <v>43916</v>
       </c>
       <c r="B34" s="3">
-        <f>Dati!K34</f>
+        <f>Dati!L34</f>
         <v>80539</v>
       </c>
       <c r="C34">
@@ -36137,7 +38421,7 @@
         <v>43917</v>
       </c>
       <c r="B35" s="3">
-        <f>Dati!K35</f>
+        <f>Dati!L35</f>
         <v>86498</v>
       </c>
       <c r="C35">
@@ -36158,7 +38442,7 @@
         <v>43918</v>
       </c>
       <c r="B36" s="3">
-        <f>Dati!K36</f>
+        <f>Dati!L36</f>
         <v>92472</v>
       </c>
       <c r="C36">
@@ -36179,7 +38463,7 @@
         <v>43919</v>
       </c>
       <c r="B37" s="3">
-        <f>Dati!K37</f>
+        <f>Dati!L37</f>
         <v>97689</v>
       </c>
       <c r="C37">
@@ -36200,7 +38484,7 @@
         <v>43920</v>
       </c>
       <c r="B38" s="3">
-        <f>Dati!K38</f>
+        <f>Dati!L38</f>
         <v>101739</v>
       </c>
       <c r="C38">
@@ -36214,6 +38498,27 @@
       <c r="E38">
         <f t="shared" ref="E38" si="8">D38-D37</f>
         <v>-410</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="2">
+        <v>43921</v>
+      </c>
+      <c r="B39" s="3">
+        <f>Dati!L39</f>
+        <v>105792</v>
+      </c>
+      <c r="C39">
+        <f t="shared" ref="C39" si="9">B39-B38</f>
+        <v>4053</v>
+      </c>
+      <c r="D39">
+        <f t="shared" ref="D39" si="10">C39-C38</f>
+        <v>3</v>
+      </c>
+      <c r="E39">
+        <f t="shared" ref="E39" si="11">D39-D38</f>
+        <v>1170</v>
       </c>
     </row>
   </sheetData>
@@ -36228,10 +38533,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:E38"/>
+  <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37:E38"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -36990,6 +39295,27 @@
         <v>99</v>
       </c>
     </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="2">
+        <v>43921</v>
+      </c>
+      <c r="B39" s="3">
+        <f>Dati!D39</f>
+        <v>4023</v>
+      </c>
+      <c r="C39">
+        <f t="shared" ref="C39" si="9">B39-B38</f>
+        <v>42</v>
+      </c>
+      <c r="D39">
+        <f t="shared" ref="D39" si="10">C39-C38</f>
+        <v>-33</v>
+      </c>
+      <c r="E39">
+        <f t="shared" ref="E39" si="11">D39-D38</f>
+        <v>-58</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.70000000000000007" right="0.70000000000000007" top="0.75" bottom="0.75" header="0.30000000000000004" footer="0.30000000000000004"/>
   <drawing r:id="rId1"/>
@@ -36998,10 +39324,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:E38"/>
+  <dimension ref="A1:E39"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37:E38"/>
+      <selection activeCell="A38" sqref="A38:E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -37034,7 +39360,7 @@
         <v>43885.75</v>
       </c>
       <c r="B3" s="3">
-        <f>Dati!I3</f>
+        <f>Dati!J3</f>
         <v>1</v>
       </c>
     </row>
@@ -37043,7 +39369,7 @@
         <v>43886</v>
       </c>
       <c r="B4" s="3">
-        <f>Dati!I4</f>
+        <f>Dati!J4</f>
         <v>1</v>
       </c>
       <c r="C4">
@@ -37056,7 +39382,7 @@
         <v>43887</v>
       </c>
       <c r="B5" s="3">
-        <f>Dati!I5</f>
+        <f>Dati!J5</f>
         <v>3</v>
       </c>
       <c r="C5">
@@ -37073,7 +39399,7 @@
         <v>43888</v>
       </c>
       <c r="B6" s="3">
-        <f>Dati!I6</f>
+        <f>Dati!J6</f>
         <v>45</v>
       </c>
       <c r="C6">
@@ -37094,7 +39420,7 @@
         <v>43889</v>
       </c>
       <c r="B7" s="3">
-        <f>Dati!I7</f>
+        <f>Dati!J7</f>
         <v>46</v>
       </c>
       <c r="C7">
@@ -37115,7 +39441,7 @@
         <v>43890</v>
       </c>
       <c r="B8" s="3">
-        <f>Dati!I8</f>
+        <f>Dati!J8</f>
         <v>50</v>
       </c>
       <c r="C8">
@@ -37136,7 +39462,7 @@
         <v>43891</v>
       </c>
       <c r="B9" s="3">
-        <f>Dati!I9</f>
+        <f>Dati!J9</f>
         <v>83</v>
       </c>
       <c r="C9">
@@ -37157,7 +39483,7 @@
         <v>43892</v>
       </c>
       <c r="B10" s="3">
-        <f>Dati!I10</f>
+        <f>Dati!J10</f>
         <v>149</v>
       </c>
       <c r="C10">
@@ -37178,7 +39504,7 @@
         <v>43893</v>
       </c>
       <c r="B11" s="3">
-        <f>Dati!I11</f>
+        <f>Dati!J11</f>
         <v>160</v>
       </c>
       <c r="C11">
@@ -37199,7 +39525,7 @@
         <v>43894</v>
       </c>
       <c r="B12" s="3">
-        <f>Dati!I12</f>
+        <f>Dati!J12</f>
         <v>276</v>
       </c>
       <c r="C12">
@@ -37220,7 +39546,7 @@
         <v>43895</v>
       </c>
       <c r="B13" s="3">
-        <f>Dati!I13</f>
+        <f>Dati!J13</f>
         <v>414</v>
       </c>
       <c r="C13">
@@ -37241,7 +39567,7 @@
         <v>43896</v>
       </c>
       <c r="B14" s="3">
-        <f>Dati!I14</f>
+        <f>Dati!J14</f>
         <v>523</v>
       </c>
       <c r="C14">
@@ -37262,7 +39588,7 @@
         <v>43897</v>
       </c>
       <c r="B15" s="3">
-        <f>Dati!I15</f>
+        <f>Dati!J15</f>
         <v>589</v>
       </c>
       <c r="C15">
@@ -37283,7 +39609,7 @@
         <v>43898</v>
       </c>
       <c r="B16" s="3">
-        <f>Dati!I16</f>
+        <f>Dati!J16</f>
         <v>622</v>
       </c>
       <c r="C16">
@@ -37304,7 +39630,7 @@
         <v>43899</v>
       </c>
       <c r="B17" s="3">
-        <f>Dati!I17</f>
+        <f>Dati!J17</f>
         <v>724</v>
       </c>
       <c r="C17">
@@ -37325,7 +39651,7 @@
         <v>43900</v>
       </c>
       <c r="B18" s="3">
-        <f>Dati!I18</f>
+        <f>Dati!J18</f>
         <v>1004</v>
       </c>
       <c r="C18">
@@ -37346,7 +39672,7 @@
         <v>43901</v>
       </c>
       <c r="B19" s="3">
-        <f>Dati!I19</f>
+        <f>Dati!J19</f>
         <v>1045</v>
       </c>
       <c r="C19">
@@ -37367,7 +39693,7 @@
         <v>43902</v>
       </c>
       <c r="B20" s="3">
-        <f>Dati!I20</f>
+        <f>Dati!J20</f>
         <v>1258</v>
       </c>
       <c r="C20">
@@ -37388,7 +39714,7 @@
         <v>43903</v>
       </c>
       <c r="B21" s="3">
-        <f>Dati!I21</f>
+        <f>Dati!J21</f>
         <v>1439</v>
       </c>
       <c r="C21">
@@ -37409,7 +39735,7 @@
         <v>43904</v>
       </c>
       <c r="B22" s="3">
-        <f>Dati!I22</f>
+        <f>Dati!J22</f>
         <v>1966</v>
       </c>
       <c r="C22">
@@ -37430,7 +39756,7 @@
         <v>43905</v>
       </c>
       <c r="B23" s="3">
-        <f>Dati!I23</f>
+        <f>Dati!J23</f>
         <v>2335</v>
       </c>
       <c r="C23">
@@ -37451,7 +39777,7 @@
         <v>43906</v>
       </c>
       <c r="B24" s="3">
-        <f>Dati!I24</f>
+        <f>Dati!J24</f>
         <v>2749</v>
       </c>
       <c r="C24">
@@ -37472,7 +39798,7 @@
         <v>43907</v>
       </c>
       <c r="B25" s="3">
-        <f>Dati!I25</f>
+        <f>Dati!J25</f>
         <v>2941</v>
       </c>
       <c r="C25">
@@ -37493,7 +39819,7 @@
         <v>43908</v>
       </c>
       <c r="B26" s="3">
-        <f>Dati!I26</f>
+        <f>Dati!J26</f>
         <v>4025</v>
       </c>
       <c r="C26">
@@ -37514,7 +39840,7 @@
         <v>43909</v>
       </c>
       <c r="B27" s="3">
-        <f>Dati!I27</f>
+        <f>Dati!J27</f>
         <v>4440</v>
       </c>
       <c r="C27">
@@ -37535,7 +39861,7 @@
         <v>43910</v>
       </c>
       <c r="B28" s="3">
-        <f>Dati!I28</f>
+        <f>Dati!J28</f>
         <v>5129</v>
       </c>
       <c r="C28">
@@ -37556,7 +39882,7 @@
         <v>43911</v>
       </c>
       <c r="B29" s="3">
-        <f>Dati!I29</f>
+        <f>Dati!J29</f>
         <v>6072</v>
       </c>
       <c r="C29">
@@ -37577,7 +39903,7 @@
         <v>43912</v>
       </c>
       <c r="B30" s="3">
-        <f>Dati!I30</f>
+        <f>Dati!J30</f>
         <v>7024</v>
       </c>
       <c r="C30">
@@ -37598,7 +39924,7 @@
         <v>43913</v>
       </c>
       <c r="B31" s="3">
-        <f>Dati!I31</f>
+        <f>Dati!J31</f>
         <v>7432</v>
       </c>
       <c r="C31">
@@ -37619,7 +39945,7 @@
         <v>43914</v>
       </c>
       <c r="B32" s="3">
-        <f>Dati!I32</f>
+        <f>Dati!J32</f>
         <v>8326</v>
       </c>
       <c r="C32">
@@ -37640,7 +39966,7 @@
         <v>43915</v>
       </c>
       <c r="B33" s="3">
-        <f>Dati!I33</f>
+        <f>Dati!J33</f>
         <v>9362</v>
       </c>
       <c r="C33">
@@ -37661,7 +39987,7 @@
         <v>43916</v>
       </c>
       <c r="B34" s="3">
-        <f>Dati!I34</f>
+        <f>Dati!J34</f>
         <v>10361</v>
       </c>
       <c r="C34">
@@ -37682,7 +40008,7 @@
         <v>43917</v>
       </c>
       <c r="B35" s="3">
-        <f>Dati!I35</f>
+        <f>Dati!J35</f>
         <v>10950</v>
       </c>
       <c r="C35">
@@ -37703,7 +40029,7 @@
         <v>43918</v>
       </c>
       <c r="B36" s="3">
-        <f>Dati!I36</f>
+        <f>Dati!J36</f>
         <v>12384</v>
       </c>
       <c r="C36">
@@ -37724,7 +40050,7 @@
         <v>43919</v>
       </c>
       <c r="B37" s="3">
-        <f>Dati!I37</f>
+        <f>Dati!J37</f>
         <v>13030</v>
       </c>
       <c r="C37">
@@ -37745,7 +40071,7 @@
         <v>43920</v>
       </c>
       <c r="B38" s="3">
-        <f>Dati!I38</f>
+        <f>Dati!J38</f>
         <v>14620</v>
       </c>
       <c r="C38">
@@ -37759,6 +40085,27 @@
       <c r="E38">
         <f t="shared" ref="E38" si="8">D38-D37</f>
         <v>1732</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="2">
+        <v>43921</v>
+      </c>
+      <c r="B39" s="3">
+        <f>Dati!J39</f>
+        <v>15729</v>
+      </c>
+      <c r="C39">
+        <f t="shared" ref="C39" si="9">B39-B38</f>
+        <v>1109</v>
+      </c>
+      <c r="D39">
+        <f t="shared" ref="D39" si="10">C39-C38</f>
+        <v>-481</v>
+      </c>
+      <c r="E39">
+        <f t="shared" ref="E39" si="11">D39-D38</f>
+        <v>-1425</v>
       </c>
     </row>
   </sheetData>
@@ -37773,10 +40120,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:E38"/>
+  <dimension ref="A1:E39"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37:E38"/>
+      <selection activeCell="A38" sqref="A38:E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -37809,7 +40156,7 @@
         <v>43885.75</v>
       </c>
       <c r="B3" s="3">
-        <f>Dati!J3</f>
+        <f>Dati!K3</f>
         <v>7</v>
       </c>
     </row>
@@ -37818,7 +40165,7 @@
         <v>43886</v>
       </c>
       <c r="B4" s="3">
-        <f>Dati!J4</f>
+        <f>Dati!K4</f>
         <v>10</v>
       </c>
       <c r="C4">
@@ -37831,7 +40178,7 @@
         <v>43887</v>
       </c>
       <c r="B5" s="3">
-        <f>Dati!J5</f>
+        <f>Dati!K5</f>
         <v>12</v>
       </c>
       <c r="C5">
@@ -37848,7 +40195,7 @@
         <v>43888</v>
       </c>
       <c r="B6" s="3">
-        <f>Dati!J6</f>
+        <f>Dati!K6</f>
         <v>17</v>
       </c>
       <c r="C6">
@@ -37869,7 +40216,7 @@
         <v>43889</v>
       </c>
       <c r="B7" s="3">
-        <f>Dati!J7</f>
+        <f>Dati!K7</f>
         <v>21</v>
       </c>
       <c r="C7">
@@ -37890,7 +40237,7 @@
         <v>43890</v>
       </c>
       <c r="B8" s="3">
-        <f>Dati!J8</f>
+        <f>Dati!K8</f>
         <v>29</v>
       </c>
       <c r="C8">
@@ -37911,7 +40258,7 @@
         <v>43891</v>
       </c>
       <c r="B9" s="3">
-        <f>Dati!J9</f>
+        <f>Dati!K9</f>
         <v>34</v>
       </c>
       <c r="C9">
@@ -37932,7 +40279,7 @@
         <v>43892</v>
       </c>
       <c r="B10" s="3">
-        <f>Dati!J10</f>
+        <f>Dati!K10</f>
         <v>52</v>
       </c>
       <c r="C10">
@@ -37953,7 +40300,7 @@
         <v>43893</v>
       </c>
       <c r="B11" s="3">
-        <f>Dati!J11</f>
+        <f>Dati!K11</f>
         <v>79</v>
       </c>
       <c r="C11">
@@ -37974,7 +40321,7 @@
         <v>43894</v>
       </c>
       <c r="B12" s="3">
-        <f>Dati!J12</f>
+        <f>Dati!K12</f>
         <v>107</v>
       </c>
       <c r="C12">
@@ -37995,7 +40342,7 @@
         <v>43895</v>
       </c>
       <c r="B13" s="3">
-        <f>Dati!J13</f>
+        <f>Dati!K13</f>
         <v>148</v>
       </c>
       <c r="C13">
@@ -38016,7 +40363,7 @@
         <v>43896</v>
       </c>
       <c r="B14" s="3">
-        <f>Dati!J14</f>
+        <f>Dati!K14</f>
         <v>197</v>
       </c>
       <c r="C14">
@@ -38037,7 +40384,7 @@
         <v>43897</v>
       </c>
       <c r="B15" s="3">
-        <f>Dati!J15</f>
+        <f>Dati!K15</f>
         <v>233</v>
       </c>
       <c r="C15">
@@ -38058,7 +40405,7 @@
         <v>43898</v>
       </c>
       <c r="B16" s="3">
-        <f>Dati!J16</f>
+        <f>Dati!K16</f>
         <v>366</v>
       </c>
       <c r="C16">
@@ -38079,7 +40426,7 @@
         <v>43899</v>
       </c>
       <c r="B17" s="3">
-        <f>Dati!J17</f>
+        <f>Dati!K17</f>
         <v>463</v>
       </c>
       <c r="C17">
@@ -38100,7 +40447,7 @@
         <v>43900</v>
       </c>
       <c r="B18" s="3">
-        <f>Dati!J18</f>
+        <f>Dati!K18</f>
         <v>631</v>
       </c>
       <c r="C18">
@@ -38121,7 +40468,7 @@
         <v>43901</v>
       </c>
       <c r="B19" s="3">
-        <f>Dati!J19</f>
+        <f>Dati!K19</f>
         <v>827</v>
       </c>
       <c r="C19">
@@ -38142,7 +40489,7 @@
         <v>43902</v>
       </c>
       <c r="B20" s="3">
-        <f>Dati!J20</f>
+        <f>Dati!K20</f>
         <v>1016</v>
       </c>
       <c r="C20">
@@ -38163,7 +40510,7 @@
         <v>43903</v>
       </c>
       <c r="B21" s="3">
-        <f>Dati!J21</f>
+        <f>Dati!K21</f>
         <v>1266</v>
       </c>
       <c r="C21">
@@ -38184,7 +40531,7 @@
         <v>43904</v>
       </c>
       <c r="B22" s="3">
-        <f>Dati!J22</f>
+        <f>Dati!K22</f>
         <v>1441</v>
       </c>
       <c r="C22">
@@ -38205,7 +40552,7 @@
         <v>43905</v>
       </c>
       <c r="B23" s="3">
-        <f>Dati!J23</f>
+        <f>Dati!K23</f>
         <v>1809</v>
       </c>
       <c r="C23">
@@ -38226,7 +40573,7 @@
         <v>43906</v>
       </c>
       <c r="B24" s="3">
-        <f>Dati!J24</f>
+        <f>Dati!K24</f>
         <v>2158</v>
       </c>
       <c r="C24">
@@ -38247,7 +40594,7 @@
         <v>43907</v>
       </c>
       <c r="B25" s="3">
-        <f>Dati!J25</f>
+        <f>Dati!K25</f>
         <v>2503</v>
       </c>
       <c r="C25">
@@ -38268,7 +40615,7 @@
         <v>43908</v>
       </c>
       <c r="B26" s="3">
-        <f>Dati!J26</f>
+        <f>Dati!K26</f>
         <v>2978</v>
       </c>
       <c r="C26">
@@ -38289,7 +40636,7 @@
         <v>43909</v>
       </c>
       <c r="B27" s="3">
-        <f>Dati!J27</f>
+        <f>Dati!K27</f>
         <v>3405</v>
       </c>
       <c r="C27">
@@ -38310,7 +40657,7 @@
         <v>43910</v>
       </c>
       <c r="B28" s="3">
-        <f>Dati!J28</f>
+        <f>Dati!K28</f>
         <v>4032</v>
       </c>
       <c r="C28">
@@ -38331,7 +40678,7 @@
         <v>43911</v>
       </c>
       <c r="B29" s="3">
-        <f>Dati!J29</f>
+        <f>Dati!K29</f>
         <v>4825</v>
       </c>
       <c r="C29">
@@ -38352,7 +40699,7 @@
         <v>43912</v>
       </c>
       <c r="B30" s="3">
-        <f>Dati!J30</f>
+        <f>Dati!K30</f>
         <v>5476</v>
       </c>
       <c r="C30">
@@ -38373,7 +40720,7 @@
         <v>43913</v>
       </c>
       <c r="B31" s="3">
-        <f>Dati!J31</f>
+        <f>Dati!K31</f>
         <v>6077</v>
       </c>
       <c r="C31">
@@ -38394,7 +40741,7 @@
         <v>43914</v>
       </c>
       <c r="B32" s="3">
-        <f>Dati!J32</f>
+        <f>Dati!K32</f>
         <v>6820</v>
       </c>
       <c r="C32">
@@ -38415,7 +40762,7 @@
         <v>43915</v>
       </c>
       <c r="B33" s="3">
-        <f>Dati!J33</f>
+        <f>Dati!K33</f>
         <v>7503</v>
       </c>
       <c r="C33">
@@ -38436,7 +40783,7 @@
         <v>43916</v>
       </c>
       <c r="B34" s="3">
-        <f>Dati!J34</f>
+        <f>Dati!K34</f>
         <v>8165</v>
       </c>
       <c r="C34">
@@ -38457,7 +40804,7 @@
         <v>43917</v>
       </c>
       <c r="B35" s="3">
-        <f>Dati!J35</f>
+        <f>Dati!K35</f>
         <v>9134</v>
       </c>
       <c r="C35">
@@ -38478,7 +40825,7 @@
         <v>43918</v>
       </c>
       <c r="B36" s="3">
-        <f>Dati!J36</f>
+        <f>Dati!K36</f>
         <v>10023</v>
       </c>
       <c r="C36">
@@ -38499,7 +40846,7 @@
         <v>43919</v>
       </c>
       <c r="B37" s="3">
-        <f>Dati!J37</f>
+        <f>Dati!K37</f>
         <v>10779</v>
       </c>
       <c r="C37">
@@ -38520,7 +40867,7 @@
         <v>43920</v>
       </c>
       <c r="B38" s="3">
-        <f>Dati!J38</f>
+        <f>Dati!K38</f>
         <v>11591</v>
       </c>
       <c r="C38">
@@ -38534,6 +40881,27 @@
       <c r="E38">
         <f t="shared" ref="E38" si="8">D38-D37</f>
         <v>189</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="2">
+        <v>43921</v>
+      </c>
+      <c r="B39" s="3">
+        <f>Dati!K39</f>
+        <v>12428</v>
+      </c>
+      <c r="C39">
+        <f t="shared" ref="C39" si="9">B39-B38</f>
+        <v>837</v>
+      </c>
+      <c r="D39">
+        <f t="shared" ref="D39" si="10">C39-C38</f>
+        <v>25</v>
+      </c>
+      <c r="E39">
+        <f t="shared" ref="E39" si="11">D39-D38</f>
+        <v>-31</v>
       </c>
     </row>
   </sheetData>
@@ -38548,10 +40916,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:E38"/>
+  <dimension ref="A1:E39"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37:E38"/>
+      <selection activeCell="A38" sqref="A38:E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -39311,6 +41679,27 @@
         <v>-265</v>
       </c>
     </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="2">
+        <v>43921</v>
+      </c>
+      <c r="B39" s="3">
+        <f>Dati!E39</f>
+        <v>32215</v>
+      </c>
+      <c r="C39">
+        <f t="shared" ref="C39" si="9">B39-B38</f>
+        <v>439</v>
+      </c>
+      <c r="D39">
+        <f t="shared" ref="D39" si="10">C39-C38</f>
+        <v>-45</v>
+      </c>
+      <c r="E39">
+        <f t="shared" ref="E39" si="11">D39-D38</f>
+        <v>231</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0.39370078740157505" bottom="0.39370078740157505" header="0" footer="0"/>
   <headerFooter>
@@ -39323,10 +41712,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:E38"/>
+  <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37:E38"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="G42" sqref="G42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -40087,6 +42476,27 @@
         <v>-2331</v>
       </c>
     </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="2">
+        <v>43921</v>
+      </c>
+      <c r="B39" s="3">
+        <f>Dati!G39</f>
+        <v>77635</v>
+      </c>
+      <c r="C39">
+        <f t="shared" ref="C39" si="9">B39-B38</f>
+        <v>2107</v>
+      </c>
+      <c r="D39">
+        <f t="shared" ref="D39" si="10">C39-C38</f>
+        <v>459</v>
+      </c>
+      <c r="E39">
+        <f t="shared" ref="E39" si="11">D39-D38</f>
+        <v>2626</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0.39370078740157505" bottom="0.39370078740157505" header="0" footer="0"/>
   <headerFooter>
@@ -40099,10 +42509,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:E38"/>
+  <dimension ref="A1:E39"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37:E38"/>
+      <selection activeCell="A38" sqref="A38:E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -40862,6 +43272,27 @@
         <v>-2066</v>
       </c>
     </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="2">
+        <v>43921</v>
+      </c>
+      <c r="B39" s="3">
+        <f>Dati!F39</f>
+        <v>45420</v>
+      </c>
+      <c r="C39">
+        <f t="shared" ref="C39" si="9">B39-B38</f>
+        <v>1668</v>
+      </c>
+      <c r="D39">
+        <f t="shared" ref="D39" si="10">C39-C38</f>
+        <v>504</v>
+      </c>
+      <c r="E39">
+        <f t="shared" ref="E39" si="11">D39-D38</f>
+        <v>2395</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0.39370078740157505" bottom="0.39370078740157505" header="0" footer="0"/>
   <headerFooter>
@@ -40874,10 +43305,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:N38"/>
+  <dimension ref="A1:N39"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37:K38"/>
+      <selection activeCell="K43" sqref="K43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -41414,7 +43845,7 @@
         <v>15</v>
       </c>
       <c r="C17" s="3">
-        <f>Dati!L17</f>
+        <f>Dati!M17</f>
         <v>53826</v>
       </c>
       <c r="D17">
@@ -41450,7 +43881,7 @@
         <v>16</v>
       </c>
       <c r="C18" s="3">
-        <f>Dati!L18</f>
+        <f>Dati!M18</f>
         <v>60761</v>
       </c>
       <c r="D18">
@@ -41486,7 +43917,7 @@
         <v>17</v>
       </c>
       <c r="C19" s="3">
-        <f>Dati!L19</f>
+        <f>Dati!M19</f>
         <v>73154</v>
       </c>
       <c r="D19">
@@ -41522,7 +43953,7 @@
         <v>18</v>
       </c>
       <c r="C20" s="3">
-        <f>Dati!L20</f>
+        <f>Dati!M20</f>
         <v>86011</v>
       </c>
       <c r="D20">
@@ -41558,7 +43989,7 @@
         <v>19</v>
       </c>
       <c r="C21" s="3">
-        <f>Dati!L21</f>
+        <f>Dati!M21</f>
         <v>97488</v>
       </c>
       <c r="D21">
@@ -41594,7 +44025,7 @@
         <v>20</v>
       </c>
       <c r="C22" s="3">
-        <f>Dati!L22</f>
+        <f>Dati!M22</f>
         <v>109170</v>
       </c>
       <c r="D22">
@@ -41630,7 +44061,7 @@
         <v>21</v>
       </c>
       <c r="C23" s="3">
-        <f>Dati!L23</f>
+        <f>Dati!M23</f>
         <v>124899</v>
       </c>
       <c r="D23">
@@ -41666,7 +44097,7 @@
         <v>22</v>
       </c>
       <c r="C24" s="3">
-        <f>Dati!L24</f>
+        <f>Dati!M24</f>
         <v>137962</v>
       </c>
       <c r="D24">
@@ -41702,7 +44133,7 @@
         <v>23</v>
       </c>
       <c r="C25" s="3">
-        <f>Dati!L25</f>
+        <f>Dati!M25</f>
         <v>148657</v>
       </c>
       <c r="D25">
@@ -41738,7 +44169,7 @@
         <v>24</v>
       </c>
       <c r="C26" s="3">
-        <f>Dati!L26</f>
+        <f>Dati!M26</f>
         <v>165541</v>
       </c>
       <c r="D26">
@@ -41774,7 +44205,7 @@
         <v>25</v>
       </c>
       <c r="C27" s="3">
-        <f>Dati!L27</f>
+        <f>Dati!M27</f>
         <v>182777</v>
       </c>
       <c r="D27">
@@ -41810,7 +44241,7 @@
         <v>26</v>
       </c>
       <c r="C28" s="3">
-        <f>Dati!L28</f>
+        <f>Dati!M28</f>
         <v>206886</v>
       </c>
       <c r="D28">
@@ -41846,7 +44277,7 @@
         <v>27</v>
       </c>
       <c r="C29" s="3">
-        <f>Dati!L29</f>
+        <f>Dati!M29</f>
         <v>233222</v>
       </c>
       <c r="D29">
@@ -41882,7 +44313,7 @@
         <v>28</v>
       </c>
       <c r="C30" s="3">
-        <f>Dati!L30</f>
+        <f>Dati!M30</f>
         <v>258402</v>
       </c>
       <c r="D30">
@@ -41918,7 +44349,7 @@
         <v>29</v>
       </c>
       <c r="C31" s="3">
-        <f>Dati!L31</f>
+        <f>Dati!M31</f>
         <v>275468</v>
       </c>
       <c r="D31">
@@ -41954,7 +44385,7 @@
         <v>30</v>
       </c>
       <c r="C32" s="3">
-        <f>Dati!L32</f>
+        <f>Dati!M32</f>
         <v>296964</v>
       </c>
       <c r="D32">
@@ -41990,7 +44421,7 @@
         <v>31</v>
       </c>
       <c r="C33" s="3">
-        <f>Dati!L33</f>
+        <f>Dati!M33</f>
         <v>324445</v>
       </c>
       <c r="D33">
@@ -42026,7 +44457,7 @@
         <v>32</v>
       </c>
       <c r="C34" s="3">
-        <f>Dati!L34</f>
+        <f>Dati!M34</f>
         <v>361060</v>
       </c>
       <c r="D34">
@@ -42062,7 +44493,7 @@
         <v>33</v>
       </c>
       <c r="C35" s="3">
-        <f>Dati!L35</f>
+        <f>Dati!M35</f>
         <v>394079</v>
       </c>
       <c r="D35">
@@ -42098,7 +44529,7 @@
         <v>34</v>
       </c>
       <c r="C36" s="3">
-        <f>Dati!L36</f>
+        <f>Dati!M36</f>
         <v>429526</v>
       </c>
       <c r="D36">
@@ -42134,7 +44565,7 @@
         <v>35</v>
       </c>
       <c r="C37" s="3">
-        <f>Dati!L37</f>
+        <f>Dati!M37</f>
         <v>454030</v>
       </c>
       <c r="D37">
@@ -42170,7 +44601,7 @@
         <v>36</v>
       </c>
       <c r="C38" s="3">
-        <f>Dati!L38</f>
+        <f>Dati!M38</f>
         <v>477359</v>
       </c>
       <c r="D38">
@@ -42196,6 +44627,42 @@
       <c r="K38" s="6">
         <f t="shared" ref="K38" si="11">100/I38</f>
         <v>15.822054261048812</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
+      <c r="A39" s="2">
+        <v>43921</v>
+      </c>
+      <c r="B39" s="10">
+        <v>37</v>
+      </c>
+      <c r="C39" s="3">
+        <f>Dati!M39</f>
+        <v>506968</v>
+      </c>
+      <c r="D39">
+        <f t="shared" ref="D39" si="12">C39-C38</f>
+        <v>29609</v>
+      </c>
+      <c r="E39">
+        <f t="shared" ref="E39" si="13">D39-D38</f>
+        <v>6280</v>
+      </c>
+      <c r="H39" s="5">
+        <f>C39/Casi_totali!B39</f>
+        <v>4.7921203871748332</v>
+      </c>
+      <c r="I39" s="5">
+        <f>C39/Positivi!B39</f>
+        <v>6.5301474850260837</v>
+      </c>
+      <c r="J39" s="6">
+        <f t="shared" ref="J39" si="14">100/H39</f>
+        <v>20.867589275851731</v>
+      </c>
+      <c r="K39" s="6">
+        <f t="shared" ref="K39" si="15">100/I39</f>
+        <v>15.313589812374746</v>
       </c>
     </row>
   </sheetData>

--- a/covid_ita.xlsx
+++ b/covid_ita.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carpaneto\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD591F15-F64E-4B90-9541-CDC760D20AD1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0177E572-CC67-4FC3-9328-571495E35E0D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dati" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="39">
   <si>
     <t>data</t>
   </si>
@@ -613,6 +613,9 @@
                 <c:pt idx="36">
                   <c:v>43921</c:v>
                 </c:pt>
+                <c:pt idx="37">
+                  <c:v>43922</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -732,6 +735,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>105792</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>110574</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -887,6 +893,9 @@
                 <c:pt idx="36">
                   <c:v>43921</c:v>
                 </c:pt>
+                <c:pt idx="37">
+                  <c:v>43922</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -1003,6 +1012,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>4053</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>4782</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1154,6 +1166,9 @@
                 <c:pt idx="36">
                   <c:v>43921</c:v>
                 </c:pt>
+                <c:pt idx="37">
+                  <c:v>43922</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -1267,6 +1282,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>729</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1422,6 +1440,9 @@
                 <c:pt idx="36">
                   <c:v>43921</c:v>
                 </c:pt>
+                <c:pt idx="37">
+                  <c:v>43922</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -1532,6 +1553,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>1170</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>726</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1912,6 +1936,9 @@
                 <c:pt idx="36">
                   <c:v>43921</c:v>
                 </c:pt>
+                <c:pt idx="37">
+                  <c:v>43922</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -2028,6 +2055,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>439</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>223</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2183,6 +2213,9 @@
                 <c:pt idx="36">
                   <c:v>43921</c:v>
                 </c:pt>
+                <c:pt idx="37">
+                  <c:v>43922</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -2296,6 +2329,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>-45</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-216</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2447,6 +2483,9 @@
                 <c:pt idx="36">
                   <c:v>43921</c:v>
                 </c:pt>
+                <c:pt idx="37">
+                  <c:v>43922</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -2557,6 +2596,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>231</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-171</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2946,6 +2988,9 @@
                 <c:pt idx="36">
                   <c:v>43921</c:v>
                 </c:pt>
+                <c:pt idx="37">
+                  <c:v>43922</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -3065,6 +3110,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>77635</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>80572</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3220,6 +3268,9 @@
                 <c:pt idx="36">
                   <c:v>43921</c:v>
                 </c:pt>
+                <c:pt idx="37">
+                  <c:v>43922</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -3336,6 +3387,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>2107</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2937</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3487,6 +3541,9 @@
                 <c:pt idx="36">
                   <c:v>43921</c:v>
                 </c:pt>
+                <c:pt idx="37">
+                  <c:v>43922</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -3600,6 +3657,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>459</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>830</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3755,6 +3815,9 @@
                 <c:pt idx="36">
                   <c:v>43921</c:v>
                 </c:pt>
+                <c:pt idx="37">
+                  <c:v>43922</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -3865,6 +3928,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>2626</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>371</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4245,6 +4311,9 @@
                 <c:pt idx="36">
                   <c:v>43921</c:v>
                 </c:pt>
+                <c:pt idx="37">
+                  <c:v>43922</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -4361,6 +4430,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>2107</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2937</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4516,6 +4588,9 @@
                 <c:pt idx="36">
                   <c:v>43921</c:v>
                 </c:pt>
+                <c:pt idx="37">
+                  <c:v>43922</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -4629,6 +4704,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>459</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>830</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4780,6 +4858,9 @@
                 <c:pt idx="36">
                   <c:v>43921</c:v>
                 </c:pt>
+                <c:pt idx="37">
+                  <c:v>43922</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -4890,6 +4971,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>2626</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>371</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5304,6 +5388,9 @@
                 <c:pt idx="36">
                   <c:v>43921</c:v>
                 </c:pt>
+                <c:pt idx="37">
+                  <c:v>43922</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -5423,6 +5510,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>77635</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>80572</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5781,6 +5871,9 @@
                 <c:pt idx="36">
                   <c:v>43921</c:v>
                 </c:pt>
+                <c:pt idx="37">
+                  <c:v>43922</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -5900,6 +5993,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>45420</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>48134</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6055,6 +6151,9 @@
                 <c:pt idx="36">
                   <c:v>43921</c:v>
                 </c:pt>
+                <c:pt idx="37">
+                  <c:v>43922</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -6171,6 +6270,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>1668</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2714</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6322,6 +6424,9 @@
                 <c:pt idx="36">
                   <c:v>43921</c:v>
                 </c:pt>
+                <c:pt idx="37">
+                  <c:v>43922</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -6435,6 +6540,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>504</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1046</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6590,6 +6698,9 @@
                 <c:pt idx="36">
                   <c:v>43921</c:v>
                 </c:pt>
+                <c:pt idx="37">
+                  <c:v>43922</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -6700,6 +6811,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>2395</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>542</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8150,6 +8264,9 @@
                 <c:pt idx="36">
                   <c:v>43921</c:v>
                 </c:pt>
+                <c:pt idx="37">
+                  <c:v>43922</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -8269,6 +8386,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>506968</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>541423</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9178,6 +9298,9 @@
                 <c:pt idx="36">
                   <c:v>43921</c:v>
                 </c:pt>
+                <c:pt idx="37">
+                  <c:v>43922</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -9297,6 +9420,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>4.7921203871748332</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>4.8964765677283992</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9452,6 +9578,9 @@
                 <c:pt idx="36">
                   <c:v>43921</c:v>
                 </c:pt>
+                <c:pt idx="37">
+                  <c:v>43922</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -9571,6 +9700,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>6.5301474850260837</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>6.7197413493521321</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9869,7 +10001,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tamponi!$J$1:$J$1</c:f>
+              <c:f>Tamponi!$J$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -9893,10 +10025,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Tamponi!$A$3:$A$39</c:f>
+              <c:f>Tamponi!$A$3:$A$42</c:f>
               <c:numCache>
                 <c:formatCode>d/m;@</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>43885</c:v>
                 </c:pt>
@@ -10007,16 +10139,19 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>43921</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>43922</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Tamponi!$J$3:$J$39</c:f>
+              <c:f>Tamponi!$J$3:$J$42</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>5.2960222016651244</c:v>
                 </c:pt>
@@ -10127,6 +10262,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>20.867589275851731</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>20.422848678390093</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10143,7 +10281,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tamponi!$K$1:$K$1</c:f>
+              <c:f>Tamponi!$K$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -10167,10 +10305,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Tamponi!$A$2:$A$39</c:f>
+              <c:f>Tamponi!$A$2:$A$43</c:f>
               <c:numCache>
                 <c:formatCode>d/m;@</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="1">
                   <c:v>43885</c:v>
                 </c:pt>
@@ -10281,16 +10419,19 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>43921</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>43922</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Tamponi!$K$2:$K$39</c:f>
+              <c:f>Tamponi!$K$2:$K$43</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="1">
                   <c:v>5.1110083256244216</c:v>
                 </c:pt>
@@ -10401,6 +10542,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>15.313589812374746</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>14.8815251660901</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10802,6 +10946,9 @@
                 <c:pt idx="36">
                   <c:v>43921</c:v>
                 </c:pt>
+                <c:pt idx="37">
+                  <c:v>43922</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -10918,6 +11065,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>4053</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>4782</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11073,6 +11223,9 @@
                 <c:pt idx="36">
                   <c:v>43921</c:v>
                 </c:pt>
+                <c:pt idx="37">
+                  <c:v>43922</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -11186,6 +11339,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>729</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11337,6 +11493,9 @@
                 <c:pt idx="36">
                   <c:v>43921</c:v>
                 </c:pt>
+                <c:pt idx="37">
+                  <c:v>43922</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -11447,6 +11606,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>1170</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>726</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11962,6 +12124,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>77635</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>80572</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13404,6 +13569,9 @@
                 <c:pt idx="36">
                   <c:v>77635</c:v>
                 </c:pt>
+                <c:pt idx="37">
+                  <c:v>80572</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -13906,6 +14074,9 @@
                 <c:pt idx="36">
                   <c:v>77635</c:v>
                 </c:pt>
+                <c:pt idx="37">
+                  <c:v>80572</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -14889,7 +15060,7 @@
         <c:axId val="448855200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="40"/>
+          <c:max val="45"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -15408,6 +15579,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>-1769.2120682411478</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-1473.9660572222492</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15895,6 +16069,9 @@
                 <c:pt idx="36">
                   <c:v>12428</c:v>
                 </c:pt>
+                <c:pt idx="37">
+                  <c:v>13155</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -15910,7 +16087,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Analisi-dead'!$F$1:$F$1</c:f>
+              <c:f>'Analisi-dead'!$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -15930,10 +16107,10 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>'Analisi-dead'!$A$3:$A$40</c:f>
+              <c:f>'Analisi-dead'!$A$3:$A$43</c:f>
               <c:numCache>
                 <c:formatCode>d/m;@</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>43885.75</c:v>
                 </c:pt>
@@ -16047,16 +16224,25 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>43922</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>43923</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>43924</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>43925</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Analisi-dead'!$F$3:$F$40</c:f>
+              <c:f>'Analisi-dead'!$F$3:$F$43</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>69.896596774096395</c:v>
                 </c:pt>
@@ -16170,6 +16356,15 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>13501.381476680228</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>14299.640453068761</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>15050.368559914068</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>15747.877072509587</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16186,7 +16381,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Analisi-dead'!$G$1:$G$1</c:f>
+              <c:f>'Analisi-dead'!$G$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -16223,10 +16418,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Analisi-dead'!$A$3:$A$40</c:f>
+              <c:f>'Analisi-dead'!$A$3:$A$43</c:f>
               <c:numCache>
                 <c:formatCode>d/m;@</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>43885.75</c:v>
                 </c:pt>
@@ -16340,16 +16535,25 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>43922</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>43923</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>43924</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>43925</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Analisi-dead'!$G$3:$G$40</c:f>
+              <c:f>'Analisi-dead'!$G$3:$G$43</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="1">
                   <c:v>129.01111297209354</c:v>
                 </c:pt>
@@ -16460,6 +16664,15 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>8379.175243645077</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>7982.5897638853348</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>7507.2810684530668</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>6975.0851259551928</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -17053,6 +17266,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>12428</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>13155</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -18506,6 +18722,9 @@
                 <c:pt idx="36">
                   <c:v>-235.46395231572023</c:v>
                 </c:pt>
+                <c:pt idx="37">
+                  <c:v>-346.38147668022793</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -19049,6 +19268,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>837</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>727</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -19927,6 +20149,9 @@
                 <c:pt idx="36">
                   <c:v>43921</c:v>
                 </c:pt>
+                <c:pt idx="37">
+                  <c:v>43922</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -20046,6 +20271,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>105792</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>110574</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -20439,6 +20667,9 @@
                 <c:pt idx="36">
                   <c:v>43921</c:v>
                 </c:pt>
+                <c:pt idx="37">
+                  <c:v>43922</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -20558,6 +20789,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>4023</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>4035</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -20713,6 +20947,9 @@
                 <c:pt idx="37">
                   <c:v>43921</c:v>
                 </c:pt>
+                <c:pt idx="38">
+                  <c:v>43922</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -20829,6 +21066,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>12</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -21170,6 +21410,9 @@
                 <c:pt idx="37">
                   <c:v>43921</c:v>
                 </c:pt>
+                <c:pt idx="38">
+                  <c:v>43922</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -21280,6 +21523,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>-58</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -22968,6 +23214,9 @@
                 <c:pt idx="36">
                   <c:v>43921</c:v>
                 </c:pt>
+                <c:pt idx="37">
+                  <c:v>43922</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -23084,6 +23333,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>1109</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1118</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -23239,6 +23491,9 @@
                 <c:pt idx="36">
                   <c:v>43921</c:v>
                 </c:pt>
+                <c:pt idx="37">
+                  <c:v>43922</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -23352,6 +23607,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>-481</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -23503,6 +23761,9 @@
                 <c:pt idx="36">
                   <c:v>43921</c:v>
                 </c:pt>
+                <c:pt idx="37">
+                  <c:v>43922</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -23613,6 +23874,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>-1425</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>490</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -24002,6 +24266,9 @@
                 <c:pt idx="36">
                   <c:v>43921</c:v>
                 </c:pt>
+                <c:pt idx="37">
+                  <c:v>43922</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -24118,6 +24385,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>837</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>727</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -24273,6 +24543,9 @@
                 <c:pt idx="36">
                   <c:v>43921</c:v>
                 </c:pt>
+                <c:pt idx="37">
+                  <c:v>43922</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -24386,6 +24659,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-110</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -24537,6 +24813,9 @@
                 <c:pt idx="36">
                   <c:v>43921</c:v>
                 </c:pt>
+                <c:pt idx="37">
+                  <c:v>43922</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -24647,6 +24926,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>-31</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-135</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -25036,6 +25318,9 @@
                 <c:pt idx="36">
                   <c:v>43921</c:v>
                 </c:pt>
+                <c:pt idx="37">
+                  <c:v>43922</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -25155,6 +25440,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>12428</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>13155</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -25310,6 +25598,9 @@
                 <c:pt idx="36">
                   <c:v>43921</c:v>
                 </c:pt>
+                <c:pt idx="37">
+                  <c:v>43922</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -25426,6 +25717,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>837</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>727</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -25577,6 +25871,9 @@
                 <c:pt idx="36">
                   <c:v>43921</c:v>
                 </c:pt>
+                <c:pt idx="37">
+                  <c:v>43922</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -25690,6 +25987,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-110</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -25845,6 +26145,9 @@
                 <c:pt idx="36">
                   <c:v>43921</c:v>
                 </c:pt>
+                <c:pt idx="37">
+                  <c:v>43922</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -25955,6 +26258,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>-31</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-135</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -26335,6 +26641,9 @@
                 <c:pt idx="36">
                   <c:v>43921</c:v>
                 </c:pt>
+                <c:pt idx="37">
+                  <c:v>43922</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -26454,6 +26763,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>32215</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>32438</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -26609,6 +26921,9 @@
                 <c:pt idx="36">
                   <c:v>43921</c:v>
                 </c:pt>
+                <c:pt idx="37">
+                  <c:v>43922</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -26725,6 +27040,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>439</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>223</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -26876,6 +27194,9 @@
                 <c:pt idx="36">
                   <c:v>43921</c:v>
                 </c:pt>
+                <c:pt idx="37">
+                  <c:v>43922</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -26989,6 +27310,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>-45</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-216</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -27144,6 +27468,9 @@
                 <c:pt idx="36">
                   <c:v>43921</c:v>
                 </c:pt>
+                <c:pt idx="37">
+                  <c:v>43922</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -27254,6 +27581,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>231</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-171</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -30345,10 +30675,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M39"/>
+  <dimension ref="A1:M40"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -31814,6 +32144,47 @@
         <v>506968</v>
       </c>
     </row>
+    <row r="40" spans="1:13">
+      <c r="A40" s="2">
+        <v>43922</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C40" s="3">
+        <v>28403</v>
+      </c>
+      <c r="D40" s="3">
+        <v>4035</v>
+      </c>
+      <c r="E40" s="3">
+        <v>32438</v>
+      </c>
+      <c r="F40" s="3">
+        <v>48134</v>
+      </c>
+      <c r="G40" s="3">
+        <v>80572</v>
+      </c>
+      <c r="H40" s="3">
+        <v>2937</v>
+      </c>
+      <c r="I40" s="3">
+        <v>4782</v>
+      </c>
+      <c r="J40" s="3">
+        <v>16847</v>
+      </c>
+      <c r="K40" s="3">
+        <v>13155</v>
+      </c>
+      <c r="L40" s="3">
+        <v>110574</v>
+      </c>
+      <c r="M40">
+        <v>541423</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0.39370078740157505" bottom="0.39370078740157505" header="0" footer="0"/>
   <headerFooter>
@@ -31827,8 +32198,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:K149"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="Y45" sqref="Y45"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H39" sqref="H39:H40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -31930,7 +32301,7 @@
         <v>154.19235441284661</v>
       </c>
       <c r="H4" s="11">
-        <f t="shared" ref="H4:H39" si="2">C4-E4</f>
+        <f t="shared" ref="H4:H40" si="2">C4-E4</f>
         <v>-683.65303461646738</v>
       </c>
       <c r="J4" s="4" t="s">
@@ -33095,6 +33466,14 @@
       <c r="B40" s="10">
         <v>38</v>
       </c>
+      <c r="C40" s="3">
+        <f>Dati!G40</f>
+        <v>80572</v>
+      </c>
+      <c r="D40">
+        <f t="shared" ref="D40" si="10">C40-C39</f>
+        <v>2937</v>
+      </c>
       <c r="E40" s="11">
         <f t="shared" si="5"/>
         <v>82045.966057222249</v>
@@ -33107,6 +33486,10 @@
         <f t="shared" si="4"/>
         <v>2641.7539889811014</v>
       </c>
+      <c r="H40" s="11">
+        <f t="shared" si="2"/>
+        <v>-1473.9660572222492</v>
+      </c>
     </row>
     <row r="41" spans="1:8">
       <c r="A41" s="2">
@@ -33676,7 +34059,7 @@
         <v>0</v>
       </c>
       <c r="E67" s="11">
-        <f t="shared" ref="E67:E98" si="10">$K$2/(1+$K$5*EXP(-$K$4*B67))</f>
+        <f t="shared" ref="E67:E98" si="11">$K$2/(1+$K$5*EXP(-$K$4*B67))</f>
         <v>99778.318568093659</v>
       </c>
       <c r="F67" s="11">
@@ -33700,11 +34083,11 @@
         <v>0</v>
       </c>
       <c r="E68" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>99812.9103364779</v>
       </c>
       <c r="F68" s="11">
-        <f t="shared" ref="F68:F99" si="11">(E68-E67)*10</f>
+        <f t="shared" ref="F68:F99" si="12">(E68-E67)*10</f>
         <v>345.91768384241732</v>
       </c>
       <c r="G68" s="11">
@@ -33720,19 +34103,19 @@
         <v>67</v>
       </c>
       <c r="D69">
-        <f t="shared" ref="D69:D132" si="12">C69-C68</f>
+        <f t="shared" ref="D69:D132" si="13">C69-C68</f>
         <v>0</v>
       </c>
       <c r="E69" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>99842.112853404673</v>
       </c>
       <c r="F69" s="11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>292.0251692677266</v>
       </c>
       <c r="G69" s="11">
-        <f t="shared" ref="G69:G132" si="13">E69-E68</f>
+        <f t="shared" ref="G69:G132" si="14">E69-E68</f>
         <v>29.20251692677266</v>
       </c>
     </row>
@@ -33744,19 +34127,19 @@
         <v>68</v>
       </c>
       <c r="D70">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="E70" s="11">
+        <f t="shared" si="11"/>
+        <v>99866.763282184605</v>
+      </c>
+      <c r="F70" s="11">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="E70" s="11">
-        <f t="shared" si="10"/>
-        <v>99866.763282184605</v>
-      </c>
-      <c r="F70" s="11">
-        <f t="shared" si="11"/>
         <v>246.50428779932554</v>
       </c>
       <c r="G70" s="11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>24.650428779932554</v>
       </c>
     </row>
@@ -33768,19 +34151,19 @@
         <v>69</v>
       </c>
       <c r="D71">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="E71" s="11">
+        <f t="shared" si="11"/>
+        <v>99887.569450081472</v>
+      </c>
+      <c r="F71" s="11">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="E71" s="11">
-        <f t="shared" si="10"/>
-        <v>99887.569450081472</v>
-      </c>
-      <c r="F71" s="11">
-        <f t="shared" si="11"/>
         <v>208.061678968661</v>
       </c>
       <c r="G71" s="11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>20.8061678968661</v>
       </c>
     </row>
@@ -33792,19 +34175,19 @@
         <v>70</v>
       </c>
       <c r="D72">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="E72" s="11">
+        <f t="shared" si="11"/>
+        <v>99905.129625499118</v>
+      </c>
+      <c r="F72" s="11">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="E72" s="11">
-        <f t="shared" si="10"/>
-        <v>99905.129625499118</v>
-      </c>
-      <c r="F72" s="11">
-        <f t="shared" si="11"/>
         <v>175.60175417645951</v>
       </c>
       <c r="G72" s="11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>17.560175417645951</v>
       </c>
     </row>
@@ -33816,19 +34199,19 @@
         <v>71</v>
       </c>
       <c r="D73">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="E73" s="11">
+        <f t="shared" si="11"/>
+        <v>99919.949330119241</v>
+      </c>
+      <c r="F73" s="11">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="E73" s="11">
-        <f t="shared" si="10"/>
-        <v>99919.949330119241</v>
-      </c>
-      <c r="F73" s="11">
-        <f t="shared" si="11"/>
         <v>148.19704620123957</v>
       </c>
       <c r="G73" s="11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>14.819704620123957</v>
       </c>
     </row>
@@ -33840,19 +34223,19 @@
         <v>72</v>
       </c>
       <c r="D74">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="E74" s="11">
+        <f t="shared" si="11"/>
+        <v>99932.45561327484</v>
+      </c>
+      <c r="F74" s="11">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="E74" s="11">
-        <f t="shared" si="10"/>
-        <v>99932.45561327484</v>
-      </c>
-      <c r="F74" s="11">
-        <f t="shared" si="11"/>
         <v>125.06283155598794</v>
       </c>
       <c r="G74" s="11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>12.506283155598794</v>
       </c>
     </row>
@@ -33864,19 +34247,19 @@
         <v>73</v>
       </c>
       <c r="D75">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="E75" s="11">
+        <f t="shared" si="11"/>
+        <v>99943.009159377063</v>
+      </c>
+      <c r="F75" s="11">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="E75" s="11">
-        <f t="shared" si="10"/>
-        <v>99943.009159377063</v>
-      </c>
-      <c r="F75" s="11">
-        <f t="shared" si="11"/>
         <v>105.53546102222754</v>
       </c>
       <c r="G75" s="11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>10.553546102222754</v>
       </c>
     </row>
@@ -33888,19 +34271,19 @@
         <v>74</v>
       </c>
       <c r="D76">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="E76" s="11">
+        <f t="shared" si="11"/>
+        <v>99951.914548641449</v>
+      </c>
+      <c r="F76" s="11">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="E76" s="11">
-        <f t="shared" si="10"/>
-        <v>99951.914548641449</v>
-      </c>
-      <c r="F76" s="11">
-        <f t="shared" si="11"/>
         <v>89.053892643860308</v>
       </c>
       <c r="G76" s="11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>8.9053892643860308</v>
       </c>
     </row>
@@ -33912,19 +34295,19 @@
         <v>75</v>
       </c>
       <c r="D77">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="E77" s="11">
+        <f t="shared" si="11"/>
+        <v>99959.428946590851</v>
+      </c>
+      <c r="F77" s="11">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="E77" s="11">
-        <f t="shared" si="10"/>
-        <v>99959.428946590851</v>
-      </c>
-      <c r="F77" s="11">
-        <f t="shared" si="11"/>
         <v>75.14397949402337</v>
       </c>
       <c r="G77" s="11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>7.514397949402337</v>
       </c>
     </row>
@@ -33936,19 +34319,19 @@
         <v>76</v>
       </c>
       <c r="D78">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="E78" s="11">
+        <f t="shared" si="11"/>
+        <v>99965.769458531679</v>
+      </c>
+      <c r="F78" s="11">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="E78" s="11">
-        <f t="shared" si="10"/>
-        <v>99965.769458531679</v>
-      </c>
-      <c r="F78" s="11">
-        <f t="shared" si="11"/>
         <v>63.405119408271275</v>
       </c>
       <c r="G78" s="11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>6.3405119408271275</v>
       </c>
     </row>
@@ -33960,19 +34343,19 @@
         <v>77</v>
       </c>
       <c r="D79">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="E79" s="11">
+        <f t="shared" si="11"/>
+        <v>99971.119350980123</v>
+      </c>
+      <c r="F79" s="11">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="E79" s="11">
-        <f t="shared" si="10"/>
-        <v>99971.119350980123</v>
-      </c>
-      <c r="F79" s="11">
-        <f t="shared" si="11"/>
         <v>53.498924484447343</v>
       </c>
       <c r="G79" s="11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>5.3498924484447343</v>
       </c>
     </row>
@@ -33984,19 +34367,19 @@
         <v>78</v>
       </c>
       <c r="D80">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="E80" s="11">
+        <f t="shared" si="11"/>
+        <v>99975.633312370497</v>
+      </c>
+      <c r="F80" s="11">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="E80" s="11">
-        <f t="shared" si="10"/>
-        <v>99975.633312370497</v>
-      </c>
-      <c r="F80" s="11">
-        <f t="shared" si="11"/>
         <v>45.139613903738791</v>
       </c>
       <c r="G80" s="11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>4.5139613903738791</v>
       </c>
     </row>
@@ -34008,19 +34391,19 @@
         <v>79</v>
       </c>
       <c r="D81">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="E81" s="11">
+        <f t="shared" si="11"/>
+        <v>99979.441899815793</v>
+      </c>
+      <c r="F81" s="11">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="E81" s="11">
-        <f t="shared" si="10"/>
-        <v>99979.441899815793</v>
-      </c>
-      <c r="F81" s="11">
-        <f t="shared" si="11"/>
         <v>38.085874452954158</v>
       </c>
       <c r="G81" s="11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>3.8085874452954158</v>
       </c>
     </row>
@@ -34032,19 +34415,19 @@
         <v>80</v>
       </c>
       <c r="D82">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="E82" s="11">
+        <f t="shared" si="11"/>
+        <v>99982.655296727666</v>
+      </c>
+      <c r="F82" s="11">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="E82" s="11">
-        <f t="shared" si="10"/>
-        <v>99982.655296727666</v>
-      </c>
-      <c r="F82" s="11">
-        <f t="shared" si="11"/>
         <v>32.133969118731329</v>
       </c>
       <c r="G82" s="11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>3.2133969118731329</v>
       </c>
     </row>
@@ -34056,19 +34439,19 @@
         <v>81</v>
       </c>
       <c r="D83">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="E83" s="11">
+        <f t="shared" si="11"/>
+        <v>99985.366487294348</v>
+      </c>
+      <c r="F83" s="11">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="E83" s="11">
-        <f t="shared" si="10"/>
-        <v>99985.366487294348</v>
-      </c>
-      <c r="F83" s="11">
-        <f t="shared" si="11"/>
         <v>27.111905666824896</v>
       </c>
       <c r="G83" s="11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>2.7111905666824896</v>
       </c>
     </row>
@@ -34080,19 +34463,19 @@
         <v>82</v>
       </c>
       <c r="D84">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="E84" s="11">
+        <f t="shared" si="11"/>
+        <v>99987.6539377421</v>
+      </c>
+      <c r="F84" s="11">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="E84" s="11">
-        <f t="shared" si="10"/>
-        <v>99987.6539377421</v>
-      </c>
-      <c r="F84" s="11">
-        <f t="shared" si="11"/>
         <v>22.874504477513256</v>
       </c>
       <c r="G84" s="11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>2.2874504477513256</v>
       </c>
     </row>
@@ -34104,19 +34487,19 @@
         <v>83</v>
       </c>
       <c r="D85">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="E85" s="11">
+        <f t="shared" si="11"/>
+        <v>99989.583860605097</v>
+      </c>
+      <c r="F85" s="11">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="E85" s="11">
-        <f t="shared" si="10"/>
-        <v>99989.583860605097</v>
-      </c>
-      <c r="F85" s="11">
-        <f t="shared" si="11"/>
         <v>19.299228629970457</v>
       </c>
       <c r="G85" s="11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1.9299228629970457</v>
       </c>
     </row>
@@ -34128,19 +34511,19 @@
         <v>84</v>
       </c>
       <c r="D86">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="E86" s="11">
+        <f t="shared" si="11"/>
+        <v>99991.212126565239</v>
+      </c>
+      <c r="F86" s="11">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="E86" s="11">
-        <f t="shared" si="10"/>
-        <v>99991.212126565239</v>
-      </c>
-      <c r="F86" s="11">
-        <f t="shared" si="11"/>
         <v>16.282659601420164</v>
       </c>
       <c r="G86" s="11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1.6282659601420164</v>
       </c>
     </row>
@@ -34152,19 +34535,19 @@
         <v>85</v>
       </c>
       <c r="D87">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="E87" s="11">
+        <f t="shared" si="11"/>
+        <v>99992.585878511192</v>
+      </c>
+      <c r="F87" s="11">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="E87" s="11">
-        <f t="shared" si="10"/>
-        <v>99992.585878511192</v>
-      </c>
-      <c r="F87" s="11">
-        <f t="shared" si="11"/>
         <v>13.737519459536998</v>
       </c>
       <c r="G87" s="11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1.3737519459536998</v>
       </c>
     </row>
@@ -34176,19 +34559,19 @@
         <v>86</v>
       </c>
       <c r="D88">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="E88" s="11">
+        <f t="shared" si="11"/>
+        <v>99993.744894051735</v>
+      </c>
+      <c r="F88" s="11">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="E88" s="11">
-        <f t="shared" si="10"/>
-        <v>99993.744894051735</v>
-      </c>
-      <c r="F88" s="11">
-        <f t="shared" si="11"/>
         <v>11.590155405428959</v>
       </c>
       <c r="G88" s="11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1.1590155405428959</v>
       </c>
     </row>
@@ -34200,19 +34583,19 @@
         <v>87</v>
       </c>
       <c r="D89">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="E89" s="11">
+        <f t="shared" si="11"/>
+        <v>99994.722735581352</v>
+      </c>
+      <c r="F89" s="11">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="E89" s="11">
-        <f t="shared" si="10"/>
-        <v>99994.722735581352</v>
-      </c>
-      <c r="F89" s="11">
-        <f t="shared" si="11"/>
         <v>9.7784152961685322</v>
       </c>
       <c r="G89" s="11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.97784152961685322</v>
       </c>
     </row>
@@ -34224,19 +34607,19 @@
         <v>88</v>
       </c>
       <c r="D90">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="E90" s="11">
+        <f t="shared" si="11"/>
+        <v>99995.54772094982</v>
+      </c>
+      <c r="F90" s="11">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="E90" s="11">
-        <f t="shared" si="10"/>
-        <v>99995.54772094982</v>
-      </c>
-      <c r="F90" s="11">
-        <f t="shared" si="11"/>
         <v>8.2498536846833304</v>
       </c>
       <c r="G90" s="11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.82498536846833304</v>
       </c>
     </row>
@@ -34248,19 +34631,19 @@
         <v>89</v>
       </c>
       <c r="D91">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="E91" s="11">
+        <f t="shared" si="11"/>
+        <v>99996.243742666353</v>
+      </c>
+      <c r="F91" s="11">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="E91" s="11">
-        <f t="shared" si="10"/>
-        <v>99996.243742666353</v>
-      </c>
-      <c r="F91" s="11">
-        <f t="shared" si="11"/>
         <v>6.9602171653241385</v>
       </c>
       <c r="G91" s="11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.69602171653241385</v>
       </c>
     </row>
@@ -34272,19 +34655,19 @@
         <v>90</v>
       </c>
       <c r="D92">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="E92" s="11">
+        <f t="shared" si="11"/>
+        <v>99996.830959235798</v>
+      </c>
+      <c r="F92" s="11">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="E92" s="11">
-        <f t="shared" si="10"/>
-        <v>99996.830959235798</v>
-      </c>
-      <c r="F92" s="11">
-        <f t="shared" si="11"/>
         <v>5.872165694454452</v>
       </c>
       <c r="G92" s="11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.5872165694454452</v>
       </c>
     </row>
@@ -34296,19 +34679,19 @@
         <v>91</v>
       </c>
       <c r="D93">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="E93" s="11">
+        <f t="shared" si="11"/>
+        <v>99997.326378558908</v>
+      </c>
+      <c r="F93" s="11">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="E93" s="11">
-        <f t="shared" si="10"/>
-        <v>99997.326378558908</v>
-      </c>
-      <c r="F93" s="11">
-        <f t="shared" si="11"/>
         <v>4.954193231096724</v>
       </c>
       <c r="G93" s="11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.4954193231096724</v>
       </c>
     </row>
@@ -34320,19 +34703,19 @@
         <v>92</v>
       </c>
       <c r="D94">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="E94" s="11">
+        <f t="shared" si="11"/>
+        <v>99997.744350229041</v>
+      </c>
+      <c r="F94" s="11">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="E94" s="11">
-        <f t="shared" si="10"/>
-        <v>99997.744350229041</v>
-      </c>
-      <c r="F94" s="11">
-        <f t="shared" si="11"/>
         <v>4.1797167013282888</v>
       </c>
       <c r="G94" s="11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.41797167013282888</v>
       </c>
     </row>
@@ -34344,19 +34727,19 @@
         <v>93</v>
       </c>
       <c r="D95">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="E95" s="11">
+        <f t="shared" si="11"/>
+        <v>99998.096980938935</v>
+      </c>
+      <c r="F95" s="11">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="E95" s="11">
-        <f t="shared" si="10"/>
-        <v>99998.096980938935</v>
-      </c>
-      <c r="F95" s="11">
-        <f t="shared" si="11"/>
         <v>3.5263070989458356</v>
       </c>
       <c r="G95" s="11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.35263070989458356</v>
       </c>
     </row>
@@ -34368,19 +34751,19 @@
         <v>94</v>
       </c>
       <c r="D96">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="E96" s="11">
+        <f t="shared" si="11"/>
+        <v>99998.394484996315</v>
+      </c>
+      <c r="F96" s="11">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="E96" s="11">
-        <f t="shared" si="10"/>
-        <v>99998.394484996315</v>
-      </c>
-      <c r="F96" s="11">
-        <f t="shared" si="11"/>
         <v>2.9750405738013797</v>
       </c>
       <c r="G96" s="11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.29750405738013797</v>
       </c>
     </row>
@@ -34389,19 +34772,19 @@
         <v>95</v>
       </c>
       <c r="D97">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="E97" s="11">
+        <f t="shared" si="11"/>
+        <v>99998.645480079053</v>
+      </c>
+      <c r="F97" s="11">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="E97" s="11">
-        <f t="shared" si="10"/>
-        <v>99998.645480079053</v>
-      </c>
-      <c r="F97" s="11">
-        <f t="shared" si="11"/>
         <v>2.5099508273706306</v>
       </c>
       <c r="G97" s="11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.25099508273706306</v>
       </c>
     </row>
@@ -34410,19 +34793,19 @@
         <v>96</v>
       </c>
       <c r="D98">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="E98" s="11">
+        <f t="shared" si="11"/>
+        <v>99998.857236779397</v>
+      </c>
+      <c r="F98" s="11">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="E98" s="11">
-        <f t="shared" si="10"/>
-        <v>99998.857236779397</v>
-      </c>
-      <c r="F98" s="11">
-        <f t="shared" si="11"/>
         <v>2.117567003442673</v>
       </c>
       <c r="G98" s="11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.2117567003442673</v>
       </c>
     </row>
@@ -34431,19 +34814,19 @@
         <v>97</v>
       </c>
       <c r="D99">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="E99" s="11">
+        <f t="shared" ref="E99:E130" si="15">$K$2/(1+$K$5*EXP(-$K$4*B99))</f>
+        <v>99999.035889154664</v>
+      </c>
+      <c r="F99" s="11">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="E99" s="11">
-        <f t="shared" ref="E99:E130" si="14">$K$2/(1+$K$5*EXP(-$K$4*B99))</f>
-        <v>99999.035889154664</v>
-      </c>
-      <c r="F99" s="11">
-        <f t="shared" si="11"/>
         <v>1.7865237526712008</v>
       </c>
       <c r="G99" s="11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.17865237526712008</v>
       </c>
     </row>
@@ -34452,19 +34835,19 @@
         <v>98</v>
       </c>
       <c r="D100">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="E100" s="11">
+        <f t="shared" si="15"/>
+        <v>99999.186612374513</v>
+      </c>
+      <c r="F100" s="11">
+        <f t="shared" ref="F100:F131" si="16">(E100-E99)*10</f>
+        <v>1.5072321984916925</v>
+      </c>
+      <c r="G100" s="11">
         <f t="shared" si="14"/>
-        <v>99999.186612374513</v>
-      </c>
-      <c r="F100" s="11">
-        <f t="shared" ref="F100:F131" si="15">(E100-E99)*10</f>
-        <v>1.5072321984916925</v>
-      </c>
-      <c r="G100" s="11">
-        <f t="shared" si="13"/>
         <v>0.15072321984916925</v>
       </c>
     </row>
@@ -34473,19 +34856,19 @@
         <v>99</v>
       </c>
       <c r="D101">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="E101" s="11">
+        <f t="shared" si="15"/>
+        <v>99999.313772605499</v>
+      </c>
+      <c r="F101" s="11">
+        <f t="shared" si="16"/>
+        <v>1.2716023098619189</v>
+      </c>
+      <c r="G101" s="11">
         <f t="shared" si="14"/>
-        <v>99999.313772605499</v>
-      </c>
-      <c r="F101" s="11">
-        <f t="shared" si="15"/>
-        <v>1.2716023098619189</v>
-      </c>
-      <c r="G101" s="11">
-        <f t="shared" si="13"/>
         <v>0.12716023098619189</v>
       </c>
     </row>
@@ -34494,19 +34877,19 @@
         <v>100</v>
       </c>
       <c r="D102">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="E102" s="11">
+        <f t="shared" si="15"/>
+        <v>99999.421053469981</v>
+      </c>
+      <c r="F102" s="11">
+        <f t="shared" si="16"/>
+        <v>1.0728086448216345</v>
+      </c>
+      <c r="G102" s="11">
         <f t="shared" si="14"/>
-        <v>99999.421053469981</v>
-      </c>
-      <c r="F102" s="11">
-        <f t="shared" si="15"/>
-        <v>1.0728086448216345</v>
-      </c>
-      <c r="G102" s="11">
-        <f t="shared" si="13"/>
         <v>0.10728086448216345</v>
       </c>
     </row>
@@ -34515,19 +34898,19 @@
         <v>101</v>
       </c>
       <c r="D103">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="E103" s="11">
+        <f t="shared" si="15"/>
+        <v>99999.511562739863</v>
+      </c>
+      <c r="F103" s="11">
+        <f t="shared" si="16"/>
+        <v>0.9050926988129504</v>
+      </c>
+      <c r="G103" s="11">
         <f t="shared" si="14"/>
-        <v>99999.511562739863</v>
-      </c>
-      <c r="F103" s="11">
-        <f t="shared" si="15"/>
-        <v>0.9050926988129504</v>
-      </c>
-      <c r="G103" s="11">
-        <f t="shared" si="13"/>
         <v>9.050926988129504E-2</v>
       </c>
     </row>
@@ -34536,19 +34919,19 @@
         <v>102</v>
       </c>
       <c r="D104">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="E104" s="11">
+        <f t="shared" si="15"/>
+        <v>99999.587922353836</v>
+      </c>
+      <c r="F104" s="11">
+        <f t="shared" si="16"/>
+        <v>0.76359613973181695</v>
+      </c>
+      <c r="G104" s="11">
         <f t="shared" si="14"/>
-        <v>99999.587922353836</v>
-      </c>
-      <c r="F104" s="11">
-        <f t="shared" si="15"/>
-        <v>0.76359613973181695</v>
-      </c>
-      <c r="G104" s="11">
-        <f t="shared" si="13"/>
         <v>7.6359613973181695E-2</v>
       </c>
     </row>
@@ -34557,19 +34940,19 @@
         <v>103</v>
       </c>
       <c r="D105">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="E105" s="11">
+        <f t="shared" si="15"/>
+        <v>99999.652344364251</v>
+      </c>
+      <c r="F105" s="11">
+        <f t="shared" si="16"/>
+        <v>0.64422010415000841</v>
+      </c>
+      <c r="G105" s="11">
         <f t="shared" si="14"/>
-        <v>99999.652344364251</v>
-      </c>
-      <c r="F105" s="11">
-        <f t="shared" si="15"/>
-        <v>0.64422010415000841</v>
-      </c>
-      <c r="G105" s="11">
-        <f t="shared" si="13"/>
         <v>6.4422010415000841E-2</v>
       </c>
     </row>
@@ -34578,19 +34961,19 @@
         <v>104</v>
       </c>
       <c r="D106">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="E106" s="11">
+        <f t="shared" si="15"/>
+        <v>99999.706695012428</v>
+      </c>
+      <c r="F106" s="11">
+        <f t="shared" si="16"/>
+        <v>0.54350648177205585</v>
+      </c>
+      <c r="G106" s="11">
         <f t="shared" si="14"/>
-        <v>99999.706695012428</v>
-      </c>
-      <c r="F106" s="11">
-        <f t="shared" si="15"/>
-        <v>0.54350648177205585</v>
-      </c>
-      <c r="G106" s="11">
-        <f t="shared" si="13"/>
         <v>5.4350648177205585E-2</v>
       </c>
     </row>
@@ -34599,19 +34982,19 @@
         <v>105</v>
       </c>
       <c r="D107">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="E107" s="11">
+        <f t="shared" si="15"/>
+        <v>99999.752548787976</v>
+      </c>
+      <c r="F107" s="11">
+        <f t="shared" si="16"/>
+        <v>0.45853775547584519</v>
+      </c>
+      <c r="G107" s="11">
         <f t="shared" si="14"/>
-        <v>99999.752548787976</v>
-      </c>
-      <c r="F107" s="11">
-        <f t="shared" si="15"/>
-        <v>0.45853775547584519</v>
-      </c>
-      <c r="G107" s="11">
-        <f t="shared" si="13"/>
         <v>4.5853775547584519E-2</v>
       </c>
     </row>
@@ -34620,19 +35003,19 @@
         <v>106</v>
       </c>
       <c r="D108">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="E108" s="11">
+        <f t="shared" si="15"/>
+        <v>99999.791234037839</v>
+      </c>
+      <c r="F108" s="11">
+        <f t="shared" si="16"/>
+        <v>0.38685249863192439</v>
+      </c>
+      <c r="G108" s="11">
         <f t="shared" si="14"/>
-        <v>99999.791234037839</v>
-      </c>
-      <c r="F108" s="11">
-        <f t="shared" si="15"/>
-        <v>0.38685249863192439</v>
-      </c>
-      <c r="G108" s="11">
-        <f t="shared" si="13"/>
         <v>3.8685249863192439E-2</v>
       </c>
     </row>
@@ -34641,19 +35024,19 @@
         <v>107</v>
       </c>
       <c r="D109">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="E109" s="11">
+        <f t="shared" si="15"/>
+        <v>99999.823871445347</v>
+      </c>
+      <c r="F109" s="11">
+        <f t="shared" si="16"/>
+        <v>0.32637407508445904</v>
+      </c>
+      <c r="G109" s="11">
         <f t="shared" si="14"/>
-        <v>99999.823871445347</v>
-      </c>
-      <c r="F109" s="11">
-        <f t="shared" si="15"/>
-        <v>0.32637407508445904</v>
-      </c>
-      <c r="G109" s="11">
-        <f t="shared" si="13"/>
         <v>3.2637407508445904E-2</v>
       </c>
     </row>
@@ -34662,19 +35045,19 @@
         <v>108</v>
       </c>
       <c r="D110">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="E110" s="11">
+        <f t="shared" si="15"/>
+        <v>99999.851406494316</v>
+      </c>
+      <c r="F110" s="11">
+        <f t="shared" si="16"/>
+        <v>0.27535048968275078</v>
+      </c>
+      <c r="G110" s="11">
         <f t="shared" si="14"/>
-        <v>99999.851406494316</v>
-      </c>
-      <c r="F110" s="11">
-        <f t="shared" si="15"/>
-        <v>0.27535048968275078</v>
-      </c>
-      <c r="G110" s="11">
-        <f t="shared" si="13"/>
         <v>2.7535048968275078E-2</v>
       </c>
     </row>
@@ -34683,19 +35066,19 @@
         <v>109</v>
       </c>
       <c r="D111">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="E111" s="11">
+        <f t="shared" si="15"/>
+        <v>99999.874636858149</v>
+      </c>
+      <c r="F111" s="11">
+        <f t="shared" si="16"/>
+        <v>0.23230363833135925</v>
+      </c>
+      <c r="G111" s="11">
         <f t="shared" si="14"/>
-        <v>99999.874636858149</v>
-      </c>
-      <c r="F111" s="11">
-        <f t="shared" si="15"/>
-        <v>0.23230363833135925</v>
-      </c>
-      <c r="G111" s="11">
-        <f t="shared" si="13"/>
         <v>2.3230363833135925E-2</v>
       </c>
     </row>
@@ -34704,19 +35087,19 @@
         <v>110</v>
       </c>
       <c r="D112">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="E112" s="11">
+        <f t="shared" si="15"/>
+        <v>99999.894235507207</v>
+      </c>
+      <c r="F112" s="11">
+        <f t="shared" si="16"/>
+        <v>0.1959864905802533</v>
+      </c>
+      <c r="G112" s="11">
         <f t="shared" si="14"/>
-        <v>99999.894235507207</v>
-      </c>
-      <c r="F112" s="11">
-        <f t="shared" si="15"/>
-        <v>0.1959864905802533</v>
-      </c>
-      <c r="G112" s="11">
-        <f t="shared" si="13"/>
         <v>1.959864905802533E-2</v>
       </c>
     </row>
@@ -34725,19 +35108,19 @@
         <v>111</v>
       </c>
       <c r="D113">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="E113" s="11">
+        <f t="shared" si="15"/>
+        <v>99999.910770203816</v>
+      </c>
+      <c r="F113" s="11">
+        <f t="shared" si="16"/>
+        <v>0.16534696609596722</v>
+      </c>
+      <c r="G113" s="11">
         <f t="shared" si="14"/>
-        <v>99999.910770203816</v>
-      </c>
-      <c r="F113" s="11">
-        <f t="shared" si="15"/>
-        <v>0.16534696609596722</v>
-      </c>
-      <c r="G113" s="11">
-        <f t="shared" si="13"/>
         <v>1.6534696609596722E-2</v>
       </c>
     </row>
@@ -34746,19 +35129,19 @@
         <v>112</v>
       </c>
       <c r="D114">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="E114" s="11">
+        <f t="shared" si="15"/>
+        <v>99999.924719949879</v>
+      </c>
+      <c r="F114" s="11">
+        <f t="shared" si="16"/>
+        <v>0.1394974606228061</v>
+      </c>
+      <c r="G114" s="11">
         <f t="shared" si="14"/>
-        <v>99999.924719949879</v>
-      </c>
-      <c r="F114" s="11">
-        <f t="shared" si="15"/>
-        <v>0.1394974606228061</v>
-      </c>
-      <c r="G114" s="11">
-        <f t="shared" si="13"/>
         <v>1.394974606228061E-2</v>
       </c>
     </row>
@@ -34767,19 +35150,19 @@
         <v>113</v>
       </c>
       <c r="D115">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="E115" s="11">
+        <f t="shared" si="15"/>
+        <v>99999.936488862848</v>
+      </c>
+      <c r="F115" s="11">
+        <f t="shared" si="16"/>
+        <v>0.11768912969273515</v>
+      </c>
+      <c r="G115" s="11">
         <f t="shared" si="14"/>
-        <v>99999.936488862848</v>
-      </c>
-      <c r="F115" s="11">
-        <f t="shared" si="15"/>
-        <v>0.11768912969273515</v>
-      </c>
-      <c r="G115" s="11">
-        <f t="shared" si="13"/>
         <v>1.1768912969273515E-2</v>
       </c>
     </row>
@@ -34788,19 +35171,19 @@
         <v>114</v>
       </c>
       <c r="D116">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="E116" s="11">
+        <f t="shared" si="15"/>
+        <v>99999.946417882791</v>
+      </c>
+      <c r="F116" s="11">
+        <f t="shared" si="16"/>
+        <v>9.9290199432289228E-2</v>
+      </c>
+      <c r="G116" s="11">
         <f t="shared" si="14"/>
-        <v>99999.946417882791</v>
-      </c>
-      <c r="F116" s="11">
-        <f t="shared" si="15"/>
-        <v>9.9290199432289228E-2</v>
-      </c>
-      <c r="G116" s="11">
-        <f t="shared" si="13"/>
         <v>9.9290199432289228E-3</v>
       </c>
     </row>
@@ -34809,19 +35192,19 @@
         <v>115</v>
       </c>
       <c r="D117">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="E117" s="11">
+        <f t="shared" si="15"/>
+        <v>99999.954794649122</v>
+      </c>
+      <c r="F117" s="11">
+        <f t="shared" si="16"/>
+        <v>8.3767663309117779E-2</v>
+      </c>
+      <c r="G117" s="11">
         <f t="shared" si="14"/>
-        <v>99999.954794649122</v>
-      </c>
-      <c r="F117" s="11">
-        <f t="shared" si="15"/>
-        <v>8.3767663309117779E-2</v>
-      </c>
-      <c r="G117" s="11">
-        <f t="shared" si="13"/>
         <v>8.3767663309117779E-3</v>
       </c>
     </row>
@@ -34830,19 +35213,19 @@
         <v>116</v>
       </c>
       <c r="D118">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="E118" s="11">
+        <f t="shared" si="15"/>
+        <v>99999.961861833261</v>
+      </c>
+      <c r="F118" s="11">
+        <f t="shared" si="16"/>
+        <v>7.0671841385774314E-2</v>
+      </c>
+      <c r="G118" s="11">
         <f t="shared" si="14"/>
-        <v>99999.961861833261</v>
-      </c>
-      <c r="F118" s="11">
-        <f t="shared" si="15"/>
-        <v>7.0671841385774314E-2</v>
-      </c>
-      <c r="G118" s="11">
-        <f t="shared" si="13"/>
         <v>7.0671841385774314E-3</v>
       </c>
     </row>
@@ -34851,19 +35234,19 @@
         <v>117</v>
       </c>
       <c r="D119">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="E119" s="11">
+        <f t="shared" si="15"/>
+        <v>99999.967824168634</v>
+      </c>
+      <c r="F119" s="11">
+        <f t="shared" si="16"/>
+        <v>5.9623353736242279E-2</v>
+      </c>
+      <c r="G119" s="11">
         <f t="shared" si="14"/>
-        <v>99999.967824168634</v>
-      </c>
-      <c r="F119" s="11">
-        <f t="shared" si="15"/>
-        <v>5.9623353736242279E-2</v>
-      </c>
-      <c r="G119" s="11">
-        <f t="shared" si="13"/>
         <v>5.9623353736242279E-3</v>
       </c>
     </row>
@@ -34872,19 +35255,19 @@
         <v>118</v>
       </c>
       <c r="D120">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="E120" s="11">
+        <f t="shared" si="15"/>
+        <v>99999.972854381762</v>
+      </c>
+      <c r="F120" s="11">
+        <f t="shared" si="16"/>
+        <v>5.030213127611205E-2</v>
+      </c>
+      <c r="G120" s="11">
         <f t="shared" si="14"/>
-        <v>99999.972854381762</v>
-      </c>
-      <c r="F120" s="11">
-        <f t="shared" si="15"/>
-        <v>5.030213127611205E-2</v>
-      </c>
-      <c r="G120" s="11">
-        <f t="shared" si="13"/>
         <v>5.030213127611205E-3</v>
       </c>
     </row>
@@ -34893,19 +35276,19 @@
         <v>119</v>
       </c>
       <c r="D121">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="E121" s="11">
+        <f t="shared" si="15"/>
+        <v>99999.977098196003</v>
+      </c>
+      <c r="F121" s="11">
+        <f t="shared" si="16"/>
+        <v>4.2438142409082502E-2</v>
+      </c>
+      <c r="G121" s="11">
         <f t="shared" si="14"/>
-        <v>99999.977098196003</v>
-      </c>
-      <c r="F121" s="11">
-        <f t="shared" si="15"/>
-        <v>4.2438142409082502E-2</v>
-      </c>
-      <c r="G121" s="11">
-        <f t="shared" si="13"/>
         <v>4.2438142409082502E-3</v>
       </c>
     </row>
@@ -34914,19 +35297,19 @@
         <v>120</v>
       </c>
       <c r="D122">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="E122" s="11">
+        <f t="shared" si="15"/>
+        <v>99999.980678553024</v>
+      </c>
+      <c r="F122" s="11">
+        <f t="shared" si="16"/>
+        <v>3.5803570208372548E-2</v>
+      </c>
+      <c r="G122" s="11">
         <f t="shared" si="14"/>
-        <v>99999.980678553024</v>
-      </c>
-      <c r="F122" s="11">
-        <f t="shared" si="15"/>
-        <v>3.5803570208372548E-2</v>
-      </c>
-      <c r="G122" s="11">
-        <f t="shared" si="13"/>
         <v>3.5803570208372548E-3</v>
       </c>
     </row>
@@ -34935,19 +35318,19 @@
         <v>121</v>
       </c>
       <c r="D123">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="E123" s="11">
+        <f t="shared" si="15"/>
+        <v>99999.983699174496</v>
+      </c>
+      <c r="F123" s="11">
+        <f t="shared" si="16"/>
+        <v>3.0206214723875746E-2</v>
+      </c>
+      <c r="G123" s="11">
         <f t="shared" si="14"/>
-        <v>99999.983699174496</v>
-      </c>
-      <c r="F123" s="11">
-        <f t="shared" si="15"/>
-        <v>3.0206214723875746E-2</v>
-      </c>
-      <c r="G123" s="11">
-        <f t="shared" si="13"/>
         <v>3.0206214723875746E-3</v>
       </c>
     </row>
@@ -34956,19 +35339,19 @@
         <v>122</v>
       </c>
       <c r="D124">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="E124" s="11">
+        <f t="shared" si="15"/>
+        <v>99999.986247566703</v>
+      </c>
+      <c r="F124" s="11">
+        <f t="shared" si="16"/>
+        <v>2.5483922072453424E-2</v>
+      </c>
+      <c r="G124" s="11">
         <f t="shared" si="14"/>
-        <v>99999.986247566703</v>
-      </c>
-      <c r="F124" s="11">
-        <f t="shared" si="15"/>
-        <v>2.5483922072453424E-2</v>
-      </c>
-      <c r="G124" s="11">
-        <f t="shared" si="13"/>
         <v>2.5483922072453424E-3</v>
       </c>
     </row>
@@ -34977,19 +35360,19 @@
         <v>123</v>
       </c>
       <c r="D125">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="E125" s="11">
+        <f t="shared" si="15"/>
+        <v>99999.988397555629</v>
+      </c>
+      <c r="F125" s="11">
+        <f t="shared" si="16"/>
+        <v>2.1499889262486249E-2</v>
+      </c>
+      <c r="G125" s="11">
         <f t="shared" si="14"/>
-        <v>99999.988397555629</v>
-      </c>
-      <c r="F125" s="11">
-        <f t="shared" si="15"/>
-        <v>2.1499889262486249E-2</v>
-      </c>
-      <c r="G125" s="11">
-        <f t="shared" si="13"/>
         <v>2.1499889262486249E-3</v>
       </c>
     </row>
@@ -34998,19 +35381,19 @@
         <v>124</v>
       </c>
       <c r="D126">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="E126" s="11">
+        <f t="shared" si="15"/>
+        <v>99999.990211425713</v>
+      </c>
+      <c r="F126" s="11">
+        <f t="shared" si="16"/>
+        <v>1.8138700834242627E-2</v>
+      </c>
+      <c r="G126" s="11">
         <f t="shared" si="14"/>
-        <v>99999.990211425713</v>
-      </c>
-      <c r="F126" s="11">
-        <f t="shared" si="15"/>
-        <v>1.8138700834242627E-2</v>
-      </c>
-      <c r="G126" s="11">
-        <f t="shared" si="13"/>
         <v>1.8138700834242627E-3</v>
       </c>
     </row>
@@ -35019,19 +35402,19 @@
         <v>125</v>
       </c>
       <c r="D127">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="E127" s="11">
+        <f t="shared" si="15"/>
+        <v>99999.991741724152</v>
+      </c>
+      <c r="F127" s="11">
+        <f t="shared" si="16"/>
+        <v>1.5302984393201768E-2</v>
+      </c>
+      <c r="G127" s="11">
         <f t="shared" si="14"/>
-        <v>99999.991741724152</v>
-      </c>
-      <c r="F127" s="11">
-        <f t="shared" si="15"/>
-        <v>1.5302984393201768E-2</v>
-      </c>
-      <c r="G127" s="11">
-        <f t="shared" si="13"/>
         <v>1.5302984393201768E-3</v>
       </c>
     </row>
@@ -35040,19 +35423,19 @@
         <v>126</v>
       </c>
       <c r="D128">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="E128" s="11">
+        <f t="shared" si="15"/>
+        <v>99999.993032783124</v>
+      </c>
+      <c r="F128" s="11">
+        <f t="shared" si="16"/>
+        <v>1.2910589721286669E-2</v>
+      </c>
+      <c r="G128" s="11">
         <f t="shared" si="14"/>
-        <v>99999.993032783124</v>
-      </c>
-      <c r="F128" s="11">
-        <f t="shared" si="15"/>
-        <v>1.2910589721286669E-2</v>
-      </c>
-      <c r="G128" s="11">
-        <f t="shared" si="13"/>
         <v>1.2910589721286669E-3</v>
       </c>
     </row>
@@ -35061,19 +35444,19 @@
         <v>127</v>
       </c>
       <c r="D129">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="E129" s="11">
+        <f t="shared" si="15"/>
+        <v>99999.994122004195</v>
+      </c>
+      <c r="F129" s="11">
+        <f t="shared" si="16"/>
+        <v>1.0892210702877492E-2</v>
+      </c>
+      <c r="G129" s="11">
         <f t="shared" si="14"/>
-        <v>99999.994122004195</v>
-      </c>
-      <c r="F129" s="11">
-        <f t="shared" si="15"/>
-        <v>1.0892210702877492E-2</v>
-      </c>
-      <c r="G129" s="11">
-        <f t="shared" si="13"/>
         <v>1.0892210702877492E-3</v>
       </c>
     </row>
@@ -35082,19 +35465,19 @@
         <v>128</v>
       </c>
       <c r="D130">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="E130" s="11">
+        <f t="shared" si="15"/>
+        <v>99999.995040941707</v>
+      </c>
+      <c r="F130" s="11">
+        <f t="shared" si="16"/>
+        <v>9.1893751232419163E-3</v>
+      </c>
+      <c r="G130" s="11">
         <f t="shared" si="14"/>
-        <v>99999.995040941707</v>
-      </c>
-      <c r="F130" s="11">
-        <f t="shared" si="15"/>
-        <v>9.1893751232419163E-3</v>
-      </c>
-      <c r="G130" s="11">
-        <f t="shared" si="13"/>
         <v>9.1893751232419163E-4</v>
       </c>
     </row>
@@ -35103,19 +35486,19 @@
         <v>129</v>
       </c>
       <c r="D131">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="E131" s="11">
-        <f t="shared" ref="E131:E149" si="16">$K$2/(1+$K$5*EXP(-$K$4*B131))</f>
+        <f t="shared" ref="E131:E149" si="17">$K$2/(1+$K$5*EXP(-$K$4*B131))</f>
         <v>99999.99581621695</v>
       </c>
       <c r="F131" s="11">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>7.7527524263132364E-3</v>
       </c>
       <c r="G131" s="11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>7.7527524263132364E-4</v>
       </c>
     </row>
@@ -35124,19 +35507,19 @@
         <v>130</v>
       </c>
       <c r="D132">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="E132" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>99999.996470289421</v>
       </c>
       <c r="F132" s="11">
-        <f t="shared" ref="F132:F149" si="17">(E132-E131)*10</f>
+        <f t="shared" ref="F132:F149" si="18">(E132-E131)*10</f>
         <v>6.5407247166149318E-3</v>
       </c>
       <c r="G132" s="11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>6.5407247166149318E-4</v>
       </c>
     </row>
@@ -35145,19 +35528,19 @@
         <v>131</v>
       </c>
       <c r="D133">
-        <f t="shared" ref="D133:D149" si="18">C133-C132</f>
+        <f t="shared" ref="D133:D149" si="19">C133-C132</f>
         <v>0</v>
       </c>
       <c r="E133" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>99999.99702210736</v>
       </c>
       <c r="F133" s="11">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>5.5181793868541718E-3</v>
       </c>
       <c r="G133" s="11">
-        <f t="shared" ref="G133:G149" si="19">E133-E132</f>
+        <f t="shared" ref="G133:G149" si="20">E133-E132</f>
         <v>5.5181793868541718E-4</v>
       </c>
     </row>
@@ -35166,19 +35549,19 @@
         <v>132</v>
       </c>
       <c r="D134">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="E134" s="11">
+        <f t="shared" si="17"/>
+        <v>99999.997487656728</v>
+      </c>
+      <c r="F134" s="11">
         <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="E134" s="11">
-        <f t="shared" si="16"/>
-        <v>99999.997487656728</v>
-      </c>
-      <c r="F134" s="11">
-        <f t="shared" si="17"/>
         <v>4.6554936852771789E-3</v>
       </c>
       <c r="G134" s="11">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>4.6554936852771789E-4</v>
       </c>
     </row>
@@ -35187,19 +35570,19 @@
         <v>133</v>
       </c>
       <c r="D135">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="E135" s="11">
+        <f t="shared" si="17"/>
+        <v>99999.997880424373</v>
+      </c>
+      <c r="F135" s="11">
         <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="E135" s="11">
-        <f t="shared" si="16"/>
-        <v>99999.997880424373</v>
-      </c>
-      <c r="F135" s="11">
-        <f t="shared" si="17"/>
         <v>3.9276764437090605E-3</v>
       </c>
       <c r="G135" s="11">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>3.9276764437090605E-4</v>
       </c>
     </row>
@@ -35208,19 +35591,19 @@
         <v>134</v>
       </c>
       <c r="D136">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="E136" s="11">
+        <f t="shared" si="17"/>
+        <v>99999.99821178861</v>
+      </c>
+      <c r="F136" s="11">
         <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="E136" s="11">
-        <f t="shared" si="16"/>
-        <v>99999.99821178861</v>
-      </c>
-      <c r="F136" s="11">
-        <f t="shared" si="17"/>
         <v>3.31364237354137E-3</v>
       </c>
       <c r="G136" s="11">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>3.31364237354137E-4</v>
       </c>
     </row>
@@ -35229,19 +35612,19 @@
         <v>135</v>
       </c>
       <c r="D137">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="E137" s="11">
+        <f t="shared" si="17"/>
+        <v>99999.998491348946</v>
+      </c>
+      <c r="F137" s="11">
         <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="E137" s="11">
-        <f t="shared" si="16"/>
-        <v>99999.998491348946</v>
-      </c>
-      <c r="F137" s="11">
-        <f t="shared" si="17"/>
         <v>2.795603359118104E-3</v>
       </c>
       <c r="G137" s="11">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>2.795603359118104E-4</v>
       </c>
     </row>
@@ -35250,19 +35633,19 @@
         <v>136</v>
       </c>
       <c r="D138">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="E138" s="11">
+        <f t="shared" si="17"/>
+        <v>99999.998727204191</v>
+      </c>
+      <c r="F138" s="11">
         <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="E138" s="11">
-        <f t="shared" si="16"/>
-        <v>99999.998727204191</v>
-      </c>
-      <c r="F138" s="11">
-        <f t="shared" si="17"/>
         <v>2.3585524468217045E-3</v>
       </c>
       <c r="G138" s="11">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>2.3585524468217045E-4</v>
       </c>
     </row>
@@ -35271,19 +35654,19 @@
         <v>137</v>
       </c>
       <c r="D139">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="E139" s="11">
+        <f t="shared" si="17"/>
+        <v>99999.998926186949</v>
+      </c>
+      <c r="F139" s="11">
         <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="E139" s="11">
-        <f t="shared" si="16"/>
-        <v>99999.998926186949</v>
-      </c>
-      <c r="F139" s="11">
-        <f t="shared" si="17"/>
         <v>1.9898275786545128E-3</v>
       </c>
       <c r="G139" s="11">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>1.9898275786545128E-4</v>
       </c>
     </row>
@@ -35292,19 +35675,19 @@
         <v>138</v>
       </c>
       <c r="D140">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="E140" s="11">
+        <f t="shared" si="17"/>
+        <v>99999.999094061699</v>
+      </c>
+      <c r="F140" s="11">
         <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="E140" s="11">
-        <f t="shared" si="16"/>
-        <v>99999.999094061699</v>
-      </c>
-      <c r="F140" s="11">
-        <f t="shared" si="17"/>
         <v>1.6787475033197552E-3</v>
       </c>
       <c r="G140" s="11">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>1.6787475033197552E-4</v>
       </c>
     </row>
@@ -35313,19 +35696,19 @@
         <v>139</v>
       </c>
       <c r="D141">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="E141" s="11">
+        <f t="shared" si="17"/>
+        <v>99999.99923569175</v>
+      </c>
+      <c r="F141" s="11">
         <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="E141" s="11">
-        <f t="shared" si="16"/>
-        <v>99999.99923569175</v>
-      </c>
-      <c r="F141" s="11">
-        <f t="shared" si="17"/>
         <v>1.4163005107548088E-3</v>
       </c>
       <c r="G141" s="11">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>1.4163005107548088E-4</v>
       </c>
     </row>
@@ -35334,19 +35717,19 @@
         <v>140</v>
       </c>
       <c r="D142">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="E142" s="11">
+        <f t="shared" si="17"/>
+        <v>99999.99935518</v>
+      </c>
+      <c r="F142" s="11">
         <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="E142" s="11">
-        <f t="shared" si="16"/>
-        <v>99999.99935518</v>
-      </c>
-      <c r="F142" s="11">
-        <f t="shared" si="17"/>
         <v>1.1948824976570904E-3</v>
       </c>
       <c r="G142" s="11">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>1.1948824976570904E-4</v>
       </c>
     </row>
@@ -35355,19 +35738,19 @@
         <v>141</v>
       </c>
       <c r="D143">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="E143" s="11">
+        <f t="shared" si="17"/>
+        <v>99999.999455988058</v>
+      </c>
+      <c r="F143" s="11">
         <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="E143" s="11">
-        <f t="shared" si="16"/>
-        <v>99999.999455988058</v>
-      </c>
-      <c r="F143" s="11">
-        <f t="shared" si="17"/>
         <v>1.0080805805046111E-3</v>
       </c>
       <c r="G143" s="11">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>1.0080805805046111E-4</v>
       </c>
     </row>
@@ -35376,19 +35759,19 @@
         <v>142</v>
       </c>
       <c r="D144">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="E144" s="11">
+        <f t="shared" si="17"/>
+        <v>99999.999541036275</v>
+      </c>
+      <c r="F144" s="11">
         <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="E144" s="11">
-        <f t="shared" si="16"/>
-        <v>99999.999541036275</v>
-      </c>
-      <c r="F144" s="11">
-        <f t="shared" si="17"/>
         <v>8.5048217442817986E-4</v>
       </c>
       <c r="G144" s="11">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>8.5048217442817986E-5</v>
       </c>
     </row>
@@ -35397,19 +35780,19 @@
         <v>143</v>
       </c>
       <c r="D145">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="E145" s="11">
+        <f t="shared" si="17"/>
+        <v>99999.999612788451</v>
+      </c>
+      <c r="F145" s="11">
         <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="E145" s="11">
-        <f t="shared" si="16"/>
-        <v>99999.999612788451</v>
-      </c>
-      <c r="F145" s="11">
-        <f t="shared" si="17"/>
         <v>7.1752176154404879E-4</v>
       </c>
       <c r="G145" s="11">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>7.1752176154404879E-5</v>
       </c>
     </row>
@@ -35418,19 +35801,19 @@
         <v>144</v>
       </c>
       <c r="D146">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="E146" s="11">
+        <f t="shared" si="17"/>
+        <v>99999.999673323226</v>
+      </c>
+      <c r="F146" s="11">
         <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="E146" s="11">
-        <f t="shared" si="16"/>
-        <v>99999.999673323226</v>
-      </c>
-      <c r="F146" s="11">
-        <f t="shared" si="17"/>
         <v>6.0534774092957377E-4</v>
       </c>
       <c r="G146" s="11">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>6.0534774092957377E-5</v>
       </c>
     </row>
@@ -35439,19 +35822,19 @@
         <v>145</v>
       </c>
       <c r="D147">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="E147" s="11">
+        <f t="shared" si="17"/>
+        <v>99999.999724394307</v>
+      </c>
+      <c r="F147" s="11">
         <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="E147" s="11">
-        <f t="shared" si="16"/>
-        <v>99999.999724394307</v>
-      </c>
-      <c r="F147" s="11">
-        <f t="shared" si="17"/>
         <v>5.1071081543341279E-4</v>
       </c>
       <c r="G147" s="11">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>5.1071081543341279E-5</v>
       </c>
     </row>
@@ -35460,19 +35843,19 @@
         <v>146</v>
       </c>
       <c r="D148">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="E148" s="11">
+        <f t="shared" si="17"/>
+        <v>99999.999767481175</v>
+      </c>
+      <c r="F148" s="11">
         <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="E148" s="11">
-        <f t="shared" si="16"/>
-        <v>99999.999767481175</v>
-      </c>
-      <c r="F148" s="11">
-        <f t="shared" si="17"/>
         <v>4.308686766307801E-4</v>
       </c>
       <c r="G148" s="11">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>4.308686766307801E-5</v>
       </c>
     </row>
@@ -35481,19 +35864,19 @@
         <v>147</v>
       </c>
       <c r="D149">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="E149" s="11">
+        <f t="shared" si="17"/>
+        <v>99999.999803832048</v>
+      </c>
+      <c r="F149" s="11">
         <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="E149" s="11">
-        <f t="shared" si="16"/>
-        <v>99999.999803832048</v>
-      </c>
-      <c r="F149" s="11">
-        <f t="shared" si="17"/>
         <v>3.6350873415358365E-4</v>
       </c>
       <c r="G149" s="11">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>3.6350873415358365E-5</v>
       </c>
     </row>
@@ -35512,8 +35895,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:L67"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="K29" sqref="K29"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="M45" sqref="M45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -35666,7 +36049,7 @@
         <v>15.271166850499654</v>
       </c>
       <c r="I5" s="11">
-        <f t="shared" ref="I5:I39" si="5">C5-F5</f>
+        <f t="shared" ref="I5:I40" si="5">C5-F5</f>
         <v>-86.068874921805403</v>
       </c>
       <c r="J5" s="11"/>
@@ -36971,7 +37354,18 @@
       <c r="B40" s="10">
         <v>38</v>
       </c>
-      <c r="C40" s="3"/>
+      <c r="C40" s="3">
+        <f>Dati!K40</f>
+        <v>13155</v>
+      </c>
+      <c r="D40">
+        <f t="shared" ref="D40" si="14">C40-C39</f>
+        <v>727</v>
+      </c>
+      <c r="E40">
+        <f t="shared" ref="E40" si="15">10*(C40-C39)</f>
+        <v>7270</v>
+      </c>
       <c r="F40" s="11">
         <f t="shared" si="9"/>
         <v>13501.381476680228</v>
@@ -36984,7 +37378,10 @@
         <f t="shared" si="4"/>
         <v>837.9175243645077</v>
       </c>
-      <c r="I40" s="11"/>
+      <c r="I40" s="11">
+        <f t="shared" si="5"/>
+        <v>-346.38147668022793</v>
+      </c>
       <c r="J40" s="11"/>
     </row>
     <row r="41" spans="1:10">
@@ -37433,7 +37830,7 @@
       </c>
       <c r="C60" s="3"/>
       <c r="F60" s="11">
-        <f t="shared" ref="F60:F67" si="14">$L$2/(1+$L$5*EXP(-$L$4*B60))</f>
+        <f t="shared" ref="F60:F67" si="16">$L$2/(1+$L$5*EXP(-$L$4*B60))</f>
         <v>20617.840215665983</v>
       </c>
       <c r="G60" s="11">
@@ -37456,7 +37853,7 @@
       </c>
       <c r="C61" s="3"/>
       <c r="F61" s="11">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>20676.665348247563</v>
       </c>
       <c r="G61" s="11">
@@ -37479,7 +37876,7 @@
       </c>
       <c r="C62" s="3"/>
       <c r="F62" s="11">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>20726.555729370077</v>
       </c>
       <c r="G62" s="11">
@@ -37502,7 +37899,7 @@
       </c>
       <c r="C63" s="3"/>
       <c r="F63" s="11">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>20768.834113317804</v>
       </c>
       <c r="G63" s="11">
@@ -37525,7 +37922,7 @@
       </c>
       <c r="C64" s="3"/>
       <c r="F64" s="11">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>20804.637270596504</v>
       </c>
       <c r="G64" s="11">
@@ -37548,7 +37945,7 @@
       </c>
       <c r="C65" s="3"/>
       <c r="F65" s="11">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>20834.939277021032</v>
       </c>
       <c r="G65" s="11">
@@ -37571,7 +37968,7 @@
       </c>
       <c r="C66" s="3"/>
       <c r="F66" s="11">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>20860.572747223094</v>
       </c>
       <c r="G66" s="11">
@@ -37594,7 +37991,7 @@
       </c>
       <c r="C67" s="3"/>
       <c r="F67" s="11">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>20882.247909134818</v>
       </c>
       <c r="G67" s="11">
@@ -37738,10 +38135,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E39"/>
+  <dimension ref="A1:E40"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -38521,6 +38918,27 @@
         <v>1170</v>
       </c>
     </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="2">
+        <v>43922</v>
+      </c>
+      <c r="B40" s="3">
+        <f>Dati!L40</f>
+        <v>110574</v>
+      </c>
+      <c r="C40">
+        <f t="shared" ref="C40" si="12">B40-B39</f>
+        <v>4782</v>
+      </c>
+      <c r="D40">
+        <f t="shared" ref="D40" si="13">C40-C39</f>
+        <v>729</v>
+      </c>
+      <c r="E40">
+        <f t="shared" ref="E40" si="14">D40-D39</f>
+        <v>726</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0.39370078740157505" bottom="0.39370078740157505" header="0" footer="0"/>
   <headerFooter>
@@ -38533,10 +38951,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:E39"/>
+  <dimension ref="A1:E40"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -39316,6 +39734,27 @@
         <v>-58</v>
       </c>
     </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="2">
+        <v>43922</v>
+      </c>
+      <c r="B40" s="3">
+        <f>Dati!D40</f>
+        <v>4035</v>
+      </c>
+      <c r="C40">
+        <f t="shared" ref="C40" si="12">B40-B39</f>
+        <v>12</v>
+      </c>
+      <c r="D40">
+        <f t="shared" ref="D40" si="13">C40-C39</f>
+        <v>-30</v>
+      </c>
+      <c r="E40">
+        <f t="shared" ref="E40" si="14">D40-D39</f>
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.70000000000000007" right="0.70000000000000007" top="0.75" bottom="0.75" header="0.30000000000000004" footer="0.30000000000000004"/>
   <drawing r:id="rId1"/>
@@ -39324,10 +39763,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:E39"/>
+  <dimension ref="A1:E40"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38:E39"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -40108,6 +40547,27 @@
         <v>-1425</v>
       </c>
     </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="2">
+        <v>43922</v>
+      </c>
+      <c r="B40" s="3">
+        <f>Dati!J40</f>
+        <v>16847</v>
+      </c>
+      <c r="C40">
+        <f t="shared" ref="C40" si="12">B40-B39</f>
+        <v>1118</v>
+      </c>
+      <c r="D40">
+        <f t="shared" ref="D40" si="13">C40-C39</f>
+        <v>9</v>
+      </c>
+      <c r="E40">
+        <f t="shared" ref="E40" si="14">D40-D39</f>
+        <v>490</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0.39370078740157505" bottom="0.39370078740157505" header="0" footer="0"/>
   <headerFooter>
@@ -40120,10 +40580,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:E39"/>
+  <dimension ref="A1:E40"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38:E39"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39:E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -40904,6 +41364,27 @@
         <v>-31</v>
       </c>
     </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="2">
+        <v>43922</v>
+      </c>
+      <c r="B40" s="3">
+        <f>Dati!K40</f>
+        <v>13155</v>
+      </c>
+      <c r="C40">
+        <f t="shared" ref="C40" si="12">B40-B39</f>
+        <v>727</v>
+      </c>
+      <c r="D40">
+        <f t="shared" ref="D40" si="13">C40-C39</f>
+        <v>-110</v>
+      </c>
+      <c r="E40">
+        <f t="shared" ref="E40" si="14">D40-D39</f>
+        <v>-135</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0.39370078740157505" bottom="0.39370078740157505" header="0" footer="0"/>
   <headerFooter>
@@ -40916,10 +41397,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:E39"/>
+  <dimension ref="A1:E40"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38:E39"/>
+      <selection activeCell="A39" sqref="A39:E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -41700,6 +42181,27 @@
         <v>231</v>
       </c>
     </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="2">
+        <v>43922</v>
+      </c>
+      <c r="B40" s="3">
+        <f>Dati!E40</f>
+        <v>32438</v>
+      </c>
+      <c r="C40">
+        <f t="shared" ref="C40" si="12">B40-B39</f>
+        <v>223</v>
+      </c>
+      <c r="D40">
+        <f t="shared" ref="D40" si="13">C40-C39</f>
+        <v>-216</v>
+      </c>
+      <c r="E40">
+        <f t="shared" ref="E40" si="14">D40-D39</f>
+        <v>-171</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0.39370078740157505" bottom="0.39370078740157505" header="0" footer="0"/>
   <headerFooter>
@@ -41712,10 +42214,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:E39"/>
+  <dimension ref="A1:E40"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="G42" sqref="G42"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G39" sqref="G39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -42497,6 +42999,27 @@
         <v>2626</v>
       </c>
     </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="2">
+        <v>43922</v>
+      </c>
+      <c r="B40" s="3">
+        <f>Dati!G40</f>
+        <v>80572</v>
+      </c>
+      <c r="C40">
+        <f t="shared" ref="C40" si="12">B40-B39</f>
+        <v>2937</v>
+      </c>
+      <c r="D40">
+        <f t="shared" ref="D40" si="13">C40-C39</f>
+        <v>830</v>
+      </c>
+      <c r="E40">
+        <f t="shared" ref="E40" si="14">D40-D39</f>
+        <v>371</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0.39370078740157505" bottom="0.39370078740157505" header="0" footer="0"/>
   <headerFooter>
@@ -42509,10 +43032,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:E39"/>
+  <dimension ref="A1:E40"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38:E39"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G41" sqref="G41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -43293,6 +43816,27 @@
         <v>2395</v>
       </c>
     </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="2">
+        <v>43922</v>
+      </c>
+      <c r="B40" s="3">
+        <f>Dati!F40</f>
+        <v>48134</v>
+      </c>
+      <c r="C40">
+        <f t="shared" ref="C40" si="12">B40-B39</f>
+        <v>2714</v>
+      </c>
+      <c r="D40">
+        <f t="shared" ref="D40" si="13">C40-C39</f>
+        <v>1046</v>
+      </c>
+      <c r="E40">
+        <f t="shared" ref="E40" si="14">D40-D39</f>
+        <v>542</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0.39370078740157505" bottom="0.39370078740157505" header="0" footer="0"/>
   <headerFooter>
@@ -43305,10 +43849,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:N39"/>
+  <dimension ref="A1:N40"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="K43" sqref="K43"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -44665,6 +45209,42 @@
         <v>15.313589812374746</v>
       </c>
     </row>
+    <row r="40" spans="1:11">
+      <c r="A40" s="2">
+        <v>43922</v>
+      </c>
+      <c r="B40" s="10">
+        <v>38</v>
+      </c>
+      <c r="C40" s="3">
+        <f>Dati!M40</f>
+        <v>541423</v>
+      </c>
+      <c r="D40">
+        <f t="shared" ref="D40" si="16">C40-C39</f>
+        <v>34455</v>
+      </c>
+      <c r="E40">
+        <f t="shared" ref="E40" si="17">D40-D39</f>
+        <v>4846</v>
+      </c>
+      <c r="H40" s="5">
+        <f>C40/Casi_totali!B40</f>
+        <v>4.8964765677283992</v>
+      </c>
+      <c r="I40" s="5">
+        <f>C40/Positivi!B40</f>
+        <v>6.7197413493521321</v>
+      </c>
+      <c r="J40" s="6">
+        <f t="shared" ref="J40" si="18">100/H40</f>
+        <v>20.422848678390093</v>
+      </c>
+      <c r="K40" s="6">
+        <f t="shared" ref="K40" si="19">100/I40</f>
+        <v>14.8815251660901</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.70000000000000007" right="0.70000000000000007" top="0.75" bottom="0.75" header="0.30000000000000004" footer="0.30000000000000004"/>
   <pageSetup paperSize="0" fitToWidth="0" fitToHeight="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>

--- a/covid_ita.xlsx
+++ b/covid_ita.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carpaneto\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0177E572-CC67-4FC3-9328-571495E35E0D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{869928B0-AE4E-416C-A0D0-94FD3CA7B397}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dati" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="39">
   <si>
     <t>data</t>
   </si>
@@ -616,6 +616,9 @@
                 <c:pt idx="37">
                   <c:v>43922</c:v>
                 </c:pt>
+                <c:pt idx="38">
+                  <c:v>43923</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -738,6 +741,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>110574</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>115242</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -896,6 +902,9 @@
                 <c:pt idx="37">
                   <c:v>43922</c:v>
                 </c:pt>
+                <c:pt idx="38">
+                  <c:v>43923</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -1015,6 +1024,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>4782</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>4668</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1169,6 +1181,9 @@
                 <c:pt idx="37">
                   <c:v>43922</c:v>
                 </c:pt>
+                <c:pt idx="38">
+                  <c:v>43923</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -1285,6 +1300,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>729</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-114</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1443,6 +1461,9 @@
                 <c:pt idx="37">
                   <c:v>43922</c:v>
                 </c:pt>
+                <c:pt idx="38">
+                  <c:v>43923</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -1556,6 +1577,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>726</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-843</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1797,7 +1821,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Ospedalizzati!$C$1:$C$1</c:f>
+              <c:f>Ospedalizzati!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1821,10 +1845,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Ospedalizzati!$A$3:$A$40</c:f>
+              <c:f>Ospedalizzati!$A$3:$A$42</c:f>
               <c:numCache>
                 <c:formatCode>d/m;@</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>43885.75</c:v>
                 </c:pt>
@@ -1938,16 +1962,19 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>43922</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>43923</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Ospedalizzati!$C$3:$C$40</c:f>
+              <c:f>Ospedalizzati!$C$3:$C$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="1">
                   <c:v>22</c:v>
                 </c:pt>
@@ -2058,6 +2085,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>223</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>155</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2074,7 +2104,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Ospedalizzati!$D$1:$D$1</c:f>
+              <c:f>Ospedalizzati!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2098,10 +2128,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Ospedalizzati!$A$3:$A$40</c:f>
+              <c:f>Ospedalizzati!$A$3:$A$42</c:f>
               <c:numCache>
                 <c:formatCode>d/m;@</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>43885.75</c:v>
                 </c:pt>
@@ -2215,16 +2245,19 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>43922</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>43923</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Ospedalizzati!$D$3:$D$40</c:f>
+              <c:f>Ospedalizzati!$D$3:$D$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="2">
                   <c:v>-7</c:v>
                 </c:pt>
@@ -2332,6 +2365,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>-216</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-68</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2348,7 +2384,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Ospedalizzati!$E$1:$E$1</c:f>
+              <c:f>Ospedalizzati!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2368,10 +2404,10 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>Ospedalizzati!$A$3:$A$40</c:f>
+              <c:f>Ospedalizzati!$A$3:$A$42</c:f>
               <c:numCache>
                 <c:formatCode>d/m;@</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>43885.75</c:v>
                 </c:pt>
@@ -2485,16 +2521,19 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>43922</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>43923</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Ospedalizzati!$E$3:$E$40</c:f>
+              <c:f>Ospedalizzati!$E$3:$E$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="3">
                   <c:v>132</c:v>
                 </c:pt>
@@ -2599,6 +2638,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>-171</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>148</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2991,6 +3033,9 @@
                 <c:pt idx="37">
                   <c:v>43922</c:v>
                 </c:pt>
+                <c:pt idx="38">
+                  <c:v>43923</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -3113,6 +3158,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>80572</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>83049</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3271,6 +3319,9 @@
                 <c:pt idx="37">
                   <c:v>43922</c:v>
                 </c:pt>
+                <c:pt idx="38">
+                  <c:v>43923</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -3390,6 +3441,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>2937</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2477</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3544,6 +3598,9 @@
                 <c:pt idx="37">
                   <c:v>43922</c:v>
                 </c:pt>
+                <c:pt idx="38">
+                  <c:v>43923</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -3660,6 +3717,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>830</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-460</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3818,6 +3878,9 @@
                 <c:pt idx="37">
                   <c:v>43922</c:v>
                 </c:pt>
+                <c:pt idx="38">
+                  <c:v>43923</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -3931,6 +3994,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>371</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-1290</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4314,6 +4380,9 @@
                 <c:pt idx="37">
                   <c:v>43922</c:v>
                 </c:pt>
+                <c:pt idx="38">
+                  <c:v>43923</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -4433,6 +4502,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>2937</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2477</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4591,6 +4663,9 @@
                 <c:pt idx="37">
                   <c:v>43922</c:v>
                 </c:pt>
+                <c:pt idx="38">
+                  <c:v>43923</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -4707,6 +4782,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>830</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-460</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4861,6 +4939,9 @@
                 <c:pt idx="37">
                   <c:v>43922</c:v>
                 </c:pt>
+                <c:pt idx="38">
+                  <c:v>43923</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -4974,6 +5055,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>371</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-1290</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5391,6 +5475,9 @@
                 <c:pt idx="37">
                   <c:v>43922</c:v>
                 </c:pt>
+                <c:pt idx="38">
+                  <c:v>43923</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -5513,6 +5600,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>80572</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>83049</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5756,10 +5846,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Quarantena!$A$3:$A$42</c:f>
+              <c:f>Quarantena!$A$3:$A$44</c:f>
               <c:numCache>
                 <c:formatCode>d/m;@</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>43885.75</c:v>
                 </c:pt>
@@ -5873,16 +5963,19 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>43922</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>43923</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Quarantena!$B$3:$B$42</c:f>
+              <c:f>Quarantena!$B$3:$B$44</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>94</c:v>
                 </c:pt>
@@ -5996,6 +6089,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>48134</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>50456</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6036,10 +6132,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Quarantena!$A$3:$A$42</c:f>
+              <c:f>Quarantena!$A$3:$A$44</c:f>
               <c:numCache>
                 <c:formatCode>d/m;@</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>43885.75</c:v>
                 </c:pt>
@@ -6153,16 +6249,19 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>43922</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>43923</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Quarantena!$C$3:$C$42</c:f>
+              <c:f>Quarantena!$C$3:$C$44</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="1">
                   <c:v>68</c:v>
                 </c:pt>
@@ -6273,6 +6372,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>2714</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6309,10 +6411,10 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>Quarantena!$A$3:$A$42</c:f>
+              <c:f>Quarantena!$A$3:$A$44</c:f>
               <c:numCache>
                 <c:formatCode>d/m;@</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>43885.75</c:v>
                 </c:pt>
@@ -6426,16 +6528,19 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>43922</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>43923</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Quarantena!$D$3:$D$42</c:f>
+              <c:f>Quarantena!$D$3:$D$44</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="2">
                   <c:v>-9</c:v>
                 </c:pt>
@@ -6543,6 +6648,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>1046</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-392</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6583,10 +6691,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Quarantena!$A$3:$A$42</c:f>
+              <c:f>Quarantena!$A$3:$A$44</c:f>
               <c:numCache>
                 <c:formatCode>d/m;@</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>43885.75</c:v>
                 </c:pt>
@@ -6700,16 +6808,19 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>43922</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>43923</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Quarantena!$E$3:$E$42</c:f>
+              <c:f>Quarantena!$E$3:$E$44</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="3">
                   <c:v>13</c:v>
                 </c:pt>
@@ -6814,6 +6925,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>542</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-1438</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7055,7 +7169,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Quarantena!$C$1:$C$1</c:f>
+              <c:f>Quarantena!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7079,10 +7193,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Quarantena!$A$3:$A$39</c:f>
+              <c:f>Quarantena!$A$3:$A$47</c:f>
               <c:numCache>
                 <c:formatCode>d/m;@</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>43885.75</c:v>
                 </c:pt>
@@ -7193,16 +7307,22 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>43921</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>43922</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>43923</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Quarantena!$C$3:$C$39</c:f>
+              <c:f>Quarantena!$C$3:$C$47</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="1">
                   <c:v>68</c:v>
                 </c:pt>
@@ -7310,6 +7430,12 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>1668</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2714</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7326,7 +7452,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Quarantena!$D$1:$D$1</c:f>
+              <c:f>Quarantena!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7350,10 +7476,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Quarantena!$A$3:$A$39</c:f>
+              <c:f>Quarantena!$A$3:$A$47</c:f>
               <c:numCache>
                 <c:formatCode>d/m;@</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>43885.75</c:v>
                 </c:pt>
@@ -7464,16 +7590,22 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>43921</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>43922</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>43923</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Quarantena!$D$3:$D$39</c:f>
+              <c:f>Quarantena!$D$3:$D$47</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="2">
                   <c:v>-9</c:v>
                 </c:pt>
@@ -7578,6 +7710,12 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>504</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1046</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-392</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7594,7 +7732,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Quarantena!$E$1:$E$1</c:f>
+              <c:f>Quarantena!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7614,10 +7752,10 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>Quarantena!$A$3:$A$39</c:f>
+              <c:f>Quarantena!$A$3:$A$47</c:f>
               <c:numCache>
                 <c:formatCode>d/m;@</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>43885.75</c:v>
                 </c:pt>
@@ -7728,16 +7866,22 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>43921</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>43922</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>43923</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Quarantena!$E$3:$E$39</c:f>
+              <c:f>Quarantena!$E$3:$E$47</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="3">
                   <c:v>13</c:v>
                 </c:pt>
@@ -7839,6 +7983,12 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>2395</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>542</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-1438</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8267,6 +8417,9 @@
                 <c:pt idx="37">
                   <c:v>43922</c:v>
                 </c:pt>
+                <c:pt idx="38">
+                  <c:v>43923</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -8389,6 +8542,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>541423</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>581232</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9301,6 +9457,9 @@
                 <c:pt idx="37">
                   <c:v>43922</c:v>
                 </c:pt>
+                <c:pt idx="38">
+                  <c:v>43923</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -9423,6 +9582,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>4.8964765677283992</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>5.0435778622377256</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9581,6 +9743,9 @@
                 <c:pt idx="37">
                   <c:v>43922</c:v>
                 </c:pt>
+                <c:pt idx="38">
+                  <c:v>43923</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -9703,6 +9868,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>6.7197413493521321</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>6.9986634396561067</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10143,6 +10311,9 @@
                 <c:pt idx="37">
                   <c:v>43922</c:v>
                 </c:pt>
+                <c:pt idx="38">
+                  <c:v>43923</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -10265,6 +10436,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>20.422848678390093</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>19.827194648608472</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10423,6 +10597,9 @@
                 <c:pt idx="38">
                   <c:v>43922</c:v>
                 </c:pt>
+                <c:pt idx="39">
+                  <c:v>43923</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -10545,6 +10722,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>14.8815251660901</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>14.288442480799405</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10949,6 +11129,9 @@
                 <c:pt idx="37">
                   <c:v>43922</c:v>
                 </c:pt>
+                <c:pt idx="38">
+                  <c:v>43923</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -11068,6 +11251,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>4782</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>4668</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11226,6 +11412,9 @@
                 <c:pt idx="37">
                   <c:v>43922</c:v>
                 </c:pt>
+                <c:pt idx="38">
+                  <c:v>43923</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -11342,6 +11531,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>729</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-114</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11496,6 +11688,9 @@
                 <c:pt idx="37">
                   <c:v>43922</c:v>
                 </c:pt>
+                <c:pt idx="38">
+                  <c:v>43923</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -11609,6 +11804,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>726</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-843</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11884,10 +12082,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Analisi-pos'!$B$3:$B$41</c:f>
+              <c:f>'Analisi-pos'!$B$3:$B$44</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -12004,129 +12202,141 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>42</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Analisi-pos'!$C$3:$C$41</c:f>
+              <c:f>'Analisi-pos'!$C$2:$C$44</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="39"/>
-                <c:pt idx="0">
+                <c:ptCount val="43"/>
+                <c:pt idx="1">
                   <c:v>221</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>311</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>385</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>588</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>821</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>1049</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>1577</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>1835</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>2263</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>2706</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>3296</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>3916</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>5061</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>6387</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>7985</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>8514</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>10590</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>12839</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>14955</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
                   <c:v>17750</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="21">
                   <c:v>20603</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="22">
                   <c:v>23073</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="23">
                   <c:v>26062</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="24">
                   <c:v>28710</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="25">
                   <c:v>33190</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="26">
                   <c:v>37860</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="27">
                   <c:v>42681</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="28">
                   <c:v>46638</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="29">
                   <c:v>50418</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="30">
                   <c:v>54030</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="31">
                   <c:v>57521</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="32">
                   <c:v>62013</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="33">
                   <c:v>66414</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="34">
                   <c:v>70065</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="35">
                   <c:v>73880</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="36">
                   <c:v>75528</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="37">
                   <c:v>77635</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="38">
                   <c:v>80572</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>83049</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13572,6 +13782,9 @@
                 <c:pt idx="37">
                   <c:v>80572</c:v>
                 </c:pt>
+                <c:pt idx="38">
+                  <c:v>83049</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -14076,6 +14289,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>80572</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>83049</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15583,6 +15799,9 @@
                 <c:pt idx="37">
                   <c:v>-1473.9660572222492</c:v>
                 </c:pt>
+                <c:pt idx="38">
+                  <c:v>-1366.3766850250686</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -16107,10 +16326,10 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>'Analisi-dead'!$A$3:$A$43</c:f>
+              <c:f>'Analisi-dead'!$A$3:$A$46</c:f>
               <c:numCache>
                 <c:formatCode>d/m;@</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>43885.75</c:v>
                 </c:pt>
@@ -16233,16 +16452,25 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>43925</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>43926</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43927</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43928</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Analisi-dead'!$F$3:$F$43</c:f>
+              <c:f>'Analisi-dead'!$F$3:$F$46</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>69.896596774096395</c:v>
                 </c:pt>
@@ -16365,6 +16593,15 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>15747.877072509587</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>16388.667413802246</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>16971.278076272469</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>17496.017792797407</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -17269,6 +17506,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>13155</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>13915</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -18725,6 +18965,9 @@
                 <c:pt idx="37">
                   <c:v>-346.38147668022793</c:v>
                 </c:pt>
+                <c:pt idx="38">
+                  <c:v>-384.64045306876142</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -19037,10 +19280,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Analisi-dead'!$A$4:$A$40</c:f>
+              <c:f>'Analisi-dead'!$A$4:$A$42</c:f>
               <c:numCache>
                 <c:formatCode>d/m;@</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>43886</c:v>
                 </c:pt>
@@ -19151,16 +19394,22 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>43922</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>43923</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>43924</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Analisi-dead'!$D$4:$D$40</c:f>
+              <c:f>'Analisi-dead'!$D$4:$D$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>3</c:v>
                 </c:pt>
@@ -19271,6 +19520,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>727</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>760</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -20152,6 +20404,9 @@
                 <c:pt idx="37">
                   <c:v>43922</c:v>
                 </c:pt>
+                <c:pt idx="38">
+                  <c:v>43923</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -20274,6 +20529,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>110574</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>115242</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -20670,6 +20928,9 @@
                 <c:pt idx="37">
                   <c:v>43922</c:v>
                 </c:pt>
+                <c:pt idx="38">
+                  <c:v>43923</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -20792,6 +21053,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>4035</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>4053</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -20950,6 +21214,9 @@
                 <c:pt idx="38">
                   <c:v>43922</c:v>
                 </c:pt>
+                <c:pt idx="39">
+                  <c:v>43923</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -21069,6 +21336,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>18</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -21413,6 +21683,9 @@
                 <c:pt idx="38">
                   <c:v>43922</c:v>
                 </c:pt>
+                <c:pt idx="39">
+                  <c:v>43923</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -21526,6 +21799,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>36</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -21767,7 +22043,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Guariti!$B$1:$B$1</c:f>
+              <c:f>Guariti!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -21791,10 +22067,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Guariti!$A$3:$A$39</c:f>
+              <c:f>Guariti!$A$3:$A$44</c:f>
               <c:numCache>
                 <c:formatCode>d/m;@</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>43885.75</c:v>
                 </c:pt>
@@ -21905,16 +22181,22 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>43921</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>43922</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>43923</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Guariti!$B$3:$B$39</c:f>
+              <c:f>Guariti!$B$3:$B$44</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -22025,6 +22307,12 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>15729</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>16847</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>18278</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -22041,7 +22329,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Guariti!$C$1:$C$1</c:f>
+              <c:f>Guariti!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -22065,10 +22353,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Guariti!$A$3:$A$39</c:f>
+              <c:f>Guariti!$A$3:$A$44</c:f>
               <c:numCache>
                 <c:formatCode>d/m;@</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>43885.75</c:v>
                 </c:pt>
@@ -22179,16 +22467,22 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>43921</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>43922</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>43923</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Guariti!$C$3:$C$39</c:f>
+              <c:f>Guariti!$C$3:$C$44</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
@@ -22296,6 +22590,12 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>1109</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1118</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1431</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -22312,7 +22612,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Guariti!$D$1:$D$1</c:f>
+              <c:f>Guariti!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -22332,10 +22632,10 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>Guariti!$A$3:$A$39</c:f>
+              <c:f>Guariti!$A$3:$A$44</c:f>
               <c:numCache>
                 <c:formatCode>d/m;@</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>43885.75</c:v>
                 </c:pt>
@@ -22446,16 +22746,22 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>43921</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>43922</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>43923</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Guariti!$D$3:$D$39</c:f>
+              <c:f>Guariti!$D$3:$D$44</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="2">
                   <c:v>2</c:v>
                 </c:pt>
@@ -22560,6 +22866,12 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>-481</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>313</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -22576,7 +22888,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Guariti!$E$1:$E$1</c:f>
+              <c:f>Guariti!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -22600,10 +22912,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Guariti!$A$3:$A$39</c:f>
+              <c:f>Guariti!$A$3:$A$44</c:f>
               <c:numCache>
                 <c:formatCode>d/m;@</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>43885.75</c:v>
                 </c:pt>
@@ -22714,16 +23026,22 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>43921</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>43922</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>43923</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Guariti!$E$3:$E$39</c:f>
+              <c:f>Guariti!$E$3:$E$44</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="3">
                   <c:v>38</c:v>
                 </c:pt>
@@ -22825,6 +23143,12 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>-1425</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>490</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>304</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -23075,7 +23399,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Guariti!$C$1:$C$1</c:f>
+              <c:f>Guariti!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -23099,10 +23423,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Guariti!$A$3:$A$40</c:f>
+              <c:f>Guariti!$A$3:$A$44</c:f>
               <c:numCache>
                 <c:formatCode>d/m;@</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>43885.75</c:v>
                 </c:pt>
@@ -23216,16 +23540,19 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>43922</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>43923</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Guariti!$C$3:$C$40</c:f>
+              <c:f>Guariti!$C$3:$C$44</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
@@ -23336,6 +23663,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>1118</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1431</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -23352,7 +23682,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Guariti!$D$1:$D$1</c:f>
+              <c:f>Guariti!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -23376,10 +23706,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Guariti!$A$3:$A$40</c:f>
+              <c:f>Guariti!$A$3:$A$44</c:f>
               <c:numCache>
                 <c:formatCode>d/m;@</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>43885.75</c:v>
                 </c:pt>
@@ -23493,16 +23823,19 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>43922</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>43923</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Guariti!$D$3:$D$40</c:f>
+              <c:f>Guariti!$D$3:$D$44</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="2">
                   <c:v>2</c:v>
                 </c:pt>
@@ -23610,6 +23943,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>313</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -23626,7 +23962,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Guariti!$E$1:$E$1</c:f>
+              <c:f>Guariti!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -23646,10 +23982,10 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>Guariti!$A$3:$A$40</c:f>
+              <c:f>Guariti!$A$3:$A$44</c:f>
               <c:numCache>
                 <c:formatCode>d/m;@</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>43885.75</c:v>
                 </c:pt>
@@ -23763,16 +24099,19 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>43922</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>43923</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Guariti!$E$3:$E$40</c:f>
+              <c:f>Guariti!$E$3:$E$44</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="3">
                   <c:v>38</c:v>
                 </c:pt>
@@ -23877,6 +24216,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>490</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>304</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -24127,7 +24469,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Deceduti!$C$1:$C$1</c:f>
+              <c:f>Deceduti!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -24151,10 +24493,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Deceduti!$A$3:$A$41</c:f>
+              <c:f>Deceduti!$A$3:$A$45</c:f>
               <c:numCache>
                 <c:formatCode>d/m;@</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>43885.75</c:v>
                 </c:pt>
@@ -24268,16 +24610,19 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>43922</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>43923</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Deceduti!$C$3:$C$41</c:f>
+              <c:f>Deceduti!$C$3:$C$45</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="1">
                   <c:v>3</c:v>
                 </c:pt>
@@ -24388,6 +24733,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>727</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>760</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -24404,7 +24752,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Deceduti!$D$1:$D$1</c:f>
+              <c:f>Deceduti!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -24428,10 +24776,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Deceduti!$A$3:$A$41</c:f>
+              <c:f>Deceduti!$A$3:$A$45</c:f>
               <c:numCache>
                 <c:formatCode>d/m;@</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>43885.75</c:v>
                 </c:pt>
@@ -24545,16 +24893,19 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>43922</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>43923</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Deceduti!$D$3:$D$41</c:f>
+              <c:f>Deceduti!$D$3:$D$45</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="2">
                   <c:v>-1</c:v>
                 </c:pt>
@@ -24662,6 +25013,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>-110</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>33</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -24678,7 +25032,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Deceduti!$E$1:$E$1</c:f>
+              <c:f>Deceduti!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -24698,10 +25052,10 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>Deceduti!$A$3:$A$41</c:f>
+              <c:f>Deceduti!$A$3:$A$45</c:f>
               <c:numCache>
                 <c:formatCode>d/m;@</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>43885.75</c:v>
                 </c:pt>
@@ -24815,16 +25169,19 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>43922</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>43923</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Deceduti!$E$3:$E$41</c:f>
+              <c:f>Deceduti!$E$3:$E$45</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="3">
                   <c:v>4</c:v>
                 </c:pt>
@@ -24929,6 +25286,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>-135</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>143</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -25179,7 +25539,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Deceduti!$B$1:$B$1</c:f>
+              <c:f>Deceduti!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -25203,10 +25563,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Deceduti!$A$3:$A$40</c:f>
+              <c:f>Deceduti!$A$3:$A$51</c:f>
               <c:numCache>
                 <c:formatCode>d/m;@</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>43885.75</c:v>
                 </c:pt>
@@ -25320,16 +25680,19 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>43922</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>43923</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Deceduti!$B$3:$B$40</c:f>
+              <c:f>Deceduti!$B$3:$B$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>7</c:v>
                 </c:pt>
@@ -25443,6 +25806,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>13155</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>13915</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -25459,7 +25825,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Deceduti!$C$1:$C$1</c:f>
+              <c:f>Deceduti!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -25483,10 +25849,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Deceduti!$A$3:$A$40</c:f>
+              <c:f>Deceduti!$A$3:$A$51</c:f>
               <c:numCache>
                 <c:formatCode>d/m;@</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>43885.75</c:v>
                 </c:pt>
@@ -25600,16 +25966,19 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>43922</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>43923</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Deceduti!$C$3:$C$40</c:f>
+              <c:f>Deceduti!$C$3:$C$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="1">
                   <c:v>3</c:v>
                 </c:pt>
@@ -25720,6 +26089,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>727</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>760</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -25736,7 +26108,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Deceduti!$D$1:$D$1</c:f>
+              <c:f>Deceduti!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -25756,10 +26128,10 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>Deceduti!$A$3:$A$40</c:f>
+              <c:f>Deceduti!$A$3:$A$51</c:f>
               <c:numCache>
                 <c:formatCode>d/m;@</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>43885.75</c:v>
                 </c:pt>
@@ -25873,16 +26245,19 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>43922</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>43923</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Deceduti!$D$3:$D$40</c:f>
+              <c:f>Deceduti!$D$3:$D$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="2">
                   <c:v>-1</c:v>
                 </c:pt>
@@ -25990,6 +26365,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>-110</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>33</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -26006,7 +26384,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Deceduti!$E$1:$E$1</c:f>
+              <c:f>Deceduti!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -26030,10 +26408,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Deceduti!$A$3:$A$40</c:f>
+              <c:f>Deceduti!$A$3:$A$51</c:f>
               <c:numCache>
                 <c:formatCode>d/m;@</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>43885.75</c:v>
                 </c:pt>
@@ -26147,16 +26525,19 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>43922</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>43923</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Deceduti!$E$3:$E$40</c:f>
+              <c:f>Deceduti!$E$3:$E$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="3">
                   <c:v>4</c:v>
                 </c:pt>
@@ -26261,6 +26642,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>-135</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>143</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -26502,7 +26886,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Ospedalizzati!$B$1:$B$1</c:f>
+              <c:f>Ospedalizzati!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -26526,10 +26910,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Ospedalizzati!$A$3:$A$41</c:f>
+              <c:f>Ospedalizzati!$A$3:$A$43</c:f>
               <c:numCache>
                 <c:formatCode>d/m;@</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>43885.75</c:v>
                 </c:pt>
@@ -26643,16 +27027,19 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>43922</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>43923</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Ospedalizzati!$B$3:$B$41</c:f>
+              <c:f>Ospedalizzati!$B$3:$B$43</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>127</c:v>
                 </c:pt>
@@ -26766,6 +27153,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>32438</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>32593</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -26782,7 +27172,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Ospedalizzati!$C$1:$C$1</c:f>
+              <c:f>Ospedalizzati!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -26806,10 +27196,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Ospedalizzati!$A$3:$A$41</c:f>
+              <c:f>Ospedalizzati!$A$3:$A$43</c:f>
               <c:numCache>
                 <c:formatCode>d/m;@</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>43885.75</c:v>
                 </c:pt>
@@ -26923,16 +27313,19 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>43922</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>43923</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Ospedalizzati!$C$3:$C$41</c:f>
+              <c:f>Ospedalizzati!$C$3:$C$43</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="1">
                   <c:v>22</c:v>
                 </c:pt>
@@ -27043,6 +27436,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>223</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>155</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -27059,7 +27455,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Ospedalizzati!$D$1:$D$1</c:f>
+              <c:f>Ospedalizzati!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -27079,10 +27475,10 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>Ospedalizzati!$A$3:$A$41</c:f>
+              <c:f>Ospedalizzati!$A$3:$A$43</c:f>
               <c:numCache>
                 <c:formatCode>d/m;@</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>43885.75</c:v>
                 </c:pt>
@@ -27196,16 +27592,19 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>43922</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>43923</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Ospedalizzati!$D$3:$D$41</c:f>
+              <c:f>Ospedalizzati!$D$3:$D$43</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="2">
                   <c:v>-7</c:v>
                 </c:pt>
@@ -27313,6 +27712,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>-216</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-68</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -27329,7 +27731,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Ospedalizzati!$E$1:$E$1</c:f>
+              <c:f>Ospedalizzati!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -27353,10 +27755,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Ospedalizzati!$A$3:$A$41</c:f>
+              <c:f>Ospedalizzati!$A$3:$A$43</c:f>
               <c:numCache>
                 <c:formatCode>d/m;@</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>43885.75</c:v>
                 </c:pt>
@@ -27470,16 +27872,19 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>43922</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>43923</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Ospedalizzati!$E$3:$E$41</c:f>
+              <c:f>Ospedalizzati!$E$3:$E$43</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="3">
                   <c:v>132</c:v>
                 </c:pt>
@@ -27584,6 +27989,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>-171</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>148</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -29826,7 +30234,7 @@
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
-    <xdr:pos x="6577562" y="3870719"/>
+    <xdr:pos x="6600422" y="3870719"/>
     <xdr:ext cx="5759641" cy="3239636"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -30675,10 +31083,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M40"/>
+  <dimension ref="A1:M41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40:B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -32185,6 +32593,47 @@
         <v>541423</v>
       </c>
     </row>
+    <row r="41" spans="1:13">
+      <c r="A41" s="2">
+        <v>43923</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C41" s="3">
+        <v>28540</v>
+      </c>
+      <c r="D41" s="3">
+        <v>4053</v>
+      </c>
+      <c r="E41" s="3">
+        <v>32593</v>
+      </c>
+      <c r="F41" s="3">
+        <v>50456</v>
+      </c>
+      <c r="G41" s="3">
+        <v>83049</v>
+      </c>
+      <c r="H41" s="3">
+        <v>2477</v>
+      </c>
+      <c r="I41" s="3">
+        <v>4668</v>
+      </c>
+      <c r="J41" s="3">
+        <v>18278</v>
+      </c>
+      <c r="K41" s="3">
+        <v>13915</v>
+      </c>
+      <c r="L41" s="3">
+        <v>115242</v>
+      </c>
+      <c r="M41">
+        <v>581232</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0.39370078740157505" bottom="0.39370078740157505" header="0" footer="0"/>
   <headerFooter>
@@ -32198,8 +32647,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:K149"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H39" sqref="H39:H40"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="J40" sqref="J40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -32301,7 +32750,7 @@
         <v>154.19235441284661</v>
       </c>
       <c r="H4" s="11">
-        <f t="shared" ref="H4:H40" si="2">C4-E4</f>
+        <f t="shared" ref="H4:H41" si="2">C4-E4</f>
         <v>-683.65303461646738</v>
       </c>
       <c r="J4" s="4" t="s">
@@ -33498,6 +33947,14 @@
       <c r="B41" s="10">
         <v>39</v>
       </c>
+      <c r="C41" s="3">
+        <f>Dati!G41</f>
+        <v>83049</v>
+      </c>
+      <c r="D41">
+        <f t="shared" ref="D41" si="11">C41-C40</f>
+        <v>2477</v>
+      </c>
       <c r="E41" s="11">
         <f t="shared" si="5"/>
         <v>84415.376685025069</v>
@@ -33510,6 +33967,10 @@
         <f t="shared" si="4"/>
         <v>2369.4106278028194</v>
       </c>
+      <c r="H41" s="11">
+        <f t="shared" si="2"/>
+        <v>-1366.3766850250686</v>
+      </c>
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="2">
@@ -34059,7 +34520,7 @@
         <v>0</v>
       </c>
       <c r="E67" s="11">
-        <f t="shared" ref="E67:E98" si="11">$K$2/(1+$K$5*EXP(-$K$4*B67))</f>
+        <f t="shared" ref="E67:E98" si="12">$K$2/(1+$K$5*EXP(-$K$4*B67))</f>
         <v>99778.318568093659</v>
       </c>
       <c r="F67" s="11">
@@ -34083,11 +34544,11 @@
         <v>0</v>
       </c>
       <c r="E68" s="11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>99812.9103364779</v>
       </c>
       <c r="F68" s="11">
-        <f t="shared" ref="F68:F99" si="12">(E68-E67)*10</f>
+        <f t="shared" ref="F68:F99" si="13">(E68-E67)*10</f>
         <v>345.91768384241732</v>
       </c>
       <c r="G68" s="11">
@@ -34103,19 +34564,19 @@
         <v>67</v>
       </c>
       <c r="D69">
-        <f t="shared" ref="D69:D132" si="13">C69-C68</f>
+        <f t="shared" ref="D69:D132" si="14">C69-C68</f>
         <v>0</v>
       </c>
       <c r="E69" s="11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>99842.112853404673</v>
       </c>
       <c r="F69" s="11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>292.0251692677266</v>
       </c>
       <c r="G69" s="11">
-        <f t="shared" ref="G69:G132" si="14">E69-E68</f>
+        <f t="shared" ref="G69:G132" si="15">E69-E68</f>
         <v>29.20251692677266</v>
       </c>
     </row>
@@ -34127,19 +34588,19 @@
         <v>68</v>
       </c>
       <c r="D70">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="E70" s="11">
+        <f t="shared" si="12"/>
+        <v>99866.763282184605</v>
+      </c>
+      <c r="F70" s="11">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="E70" s="11">
-        <f t="shared" si="11"/>
-        <v>99866.763282184605</v>
-      </c>
-      <c r="F70" s="11">
-        <f t="shared" si="12"/>
         <v>246.50428779932554</v>
       </c>
       <c r="G70" s="11">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>24.650428779932554</v>
       </c>
     </row>
@@ -34151,19 +34612,19 @@
         <v>69</v>
       </c>
       <c r="D71">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="E71" s="11">
+        <f t="shared" si="12"/>
+        <v>99887.569450081472</v>
+      </c>
+      <c r="F71" s="11">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="E71" s="11">
-        <f t="shared" si="11"/>
-        <v>99887.569450081472</v>
-      </c>
-      <c r="F71" s="11">
-        <f t="shared" si="12"/>
         <v>208.061678968661</v>
       </c>
       <c r="G71" s="11">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>20.8061678968661</v>
       </c>
     </row>
@@ -34175,19 +34636,19 @@
         <v>70</v>
       </c>
       <c r="D72">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="E72" s="11">
+        <f t="shared" si="12"/>
+        <v>99905.129625499118</v>
+      </c>
+      <c r="F72" s="11">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="E72" s="11">
-        <f t="shared" si="11"/>
-        <v>99905.129625499118</v>
-      </c>
-      <c r="F72" s="11">
-        <f t="shared" si="12"/>
         <v>175.60175417645951</v>
       </c>
       <c r="G72" s="11">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>17.560175417645951</v>
       </c>
     </row>
@@ -34199,19 +34660,19 @@
         <v>71</v>
       </c>
       <c r="D73">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="E73" s="11">
+        <f t="shared" si="12"/>
+        <v>99919.949330119241</v>
+      </c>
+      <c r="F73" s="11">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="E73" s="11">
-        <f t="shared" si="11"/>
-        <v>99919.949330119241</v>
-      </c>
-      <c r="F73" s="11">
-        <f t="shared" si="12"/>
         <v>148.19704620123957</v>
       </c>
       <c r="G73" s="11">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>14.819704620123957</v>
       </c>
     </row>
@@ -34223,19 +34684,19 @@
         <v>72</v>
       </c>
       <c r="D74">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="E74" s="11">
+        <f t="shared" si="12"/>
+        <v>99932.45561327484</v>
+      </c>
+      <c r="F74" s="11">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="E74" s="11">
-        <f t="shared" si="11"/>
-        <v>99932.45561327484</v>
-      </c>
-      <c r="F74" s="11">
-        <f t="shared" si="12"/>
         <v>125.06283155598794</v>
       </c>
       <c r="G74" s="11">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>12.506283155598794</v>
       </c>
     </row>
@@ -34247,19 +34708,19 @@
         <v>73</v>
       </c>
       <c r="D75">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="E75" s="11">
+        <f t="shared" si="12"/>
+        <v>99943.009159377063</v>
+      </c>
+      <c r="F75" s="11">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="E75" s="11">
-        <f t="shared" si="11"/>
-        <v>99943.009159377063</v>
-      </c>
-      <c r="F75" s="11">
-        <f t="shared" si="12"/>
         <v>105.53546102222754</v>
       </c>
       <c r="G75" s="11">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>10.553546102222754</v>
       </c>
     </row>
@@ -34271,19 +34732,19 @@
         <v>74</v>
       </c>
       <c r="D76">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="E76" s="11">
+        <f t="shared" si="12"/>
+        <v>99951.914548641449</v>
+      </c>
+      <c r="F76" s="11">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="E76" s="11">
-        <f t="shared" si="11"/>
-        <v>99951.914548641449</v>
-      </c>
-      <c r="F76" s="11">
-        <f t="shared" si="12"/>
         <v>89.053892643860308</v>
       </c>
       <c r="G76" s="11">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>8.9053892643860308</v>
       </c>
     </row>
@@ -34295,19 +34756,19 @@
         <v>75</v>
       </c>
       <c r="D77">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="E77" s="11">
+        <f t="shared" si="12"/>
+        <v>99959.428946590851</v>
+      </c>
+      <c r="F77" s="11">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="E77" s="11">
-        <f t="shared" si="11"/>
-        <v>99959.428946590851</v>
-      </c>
-      <c r="F77" s="11">
-        <f t="shared" si="12"/>
         <v>75.14397949402337</v>
       </c>
       <c r="G77" s="11">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>7.514397949402337</v>
       </c>
     </row>
@@ -34319,19 +34780,19 @@
         <v>76</v>
       </c>
       <c r="D78">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="E78" s="11">
+        <f t="shared" si="12"/>
+        <v>99965.769458531679</v>
+      </c>
+      <c r="F78" s="11">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="E78" s="11">
-        <f t="shared" si="11"/>
-        <v>99965.769458531679</v>
-      </c>
-      <c r="F78" s="11">
-        <f t="shared" si="12"/>
         <v>63.405119408271275</v>
       </c>
       <c r="G78" s="11">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>6.3405119408271275</v>
       </c>
     </row>
@@ -34343,19 +34804,19 @@
         <v>77</v>
       </c>
       <c r="D79">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="E79" s="11">
+        <f t="shared" si="12"/>
+        <v>99971.119350980123</v>
+      </c>
+      <c r="F79" s="11">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="E79" s="11">
-        <f t="shared" si="11"/>
-        <v>99971.119350980123</v>
-      </c>
-      <c r="F79" s="11">
-        <f t="shared" si="12"/>
         <v>53.498924484447343</v>
       </c>
       <c r="G79" s="11">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>5.3498924484447343</v>
       </c>
     </row>
@@ -34367,19 +34828,19 @@
         <v>78</v>
       </c>
       <c r="D80">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="E80" s="11">
+        <f t="shared" si="12"/>
+        <v>99975.633312370497</v>
+      </c>
+      <c r="F80" s="11">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="E80" s="11">
-        <f t="shared" si="11"/>
-        <v>99975.633312370497</v>
-      </c>
-      <c r="F80" s="11">
-        <f t="shared" si="12"/>
         <v>45.139613903738791</v>
       </c>
       <c r="G80" s="11">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>4.5139613903738791</v>
       </c>
     </row>
@@ -34391,19 +34852,19 @@
         <v>79</v>
       </c>
       <c r="D81">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="E81" s="11">
+        <f t="shared" si="12"/>
+        <v>99979.441899815793</v>
+      </c>
+      <c r="F81" s="11">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="E81" s="11">
-        <f t="shared" si="11"/>
-        <v>99979.441899815793</v>
-      </c>
-      <c r="F81" s="11">
-        <f t="shared" si="12"/>
         <v>38.085874452954158</v>
       </c>
       <c r="G81" s="11">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>3.8085874452954158</v>
       </c>
     </row>
@@ -34415,19 +34876,19 @@
         <v>80</v>
       </c>
       <c r="D82">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="E82" s="11">
+        <f t="shared" si="12"/>
+        <v>99982.655296727666</v>
+      </c>
+      <c r="F82" s="11">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="E82" s="11">
-        <f t="shared" si="11"/>
-        <v>99982.655296727666</v>
-      </c>
-      <c r="F82" s="11">
-        <f t="shared" si="12"/>
         <v>32.133969118731329</v>
       </c>
       <c r="G82" s="11">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>3.2133969118731329</v>
       </c>
     </row>
@@ -34439,19 +34900,19 @@
         <v>81</v>
       </c>
       <c r="D83">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="E83" s="11">
+        <f t="shared" si="12"/>
+        <v>99985.366487294348</v>
+      </c>
+      <c r="F83" s="11">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="E83" s="11">
-        <f t="shared" si="11"/>
-        <v>99985.366487294348</v>
-      </c>
-      <c r="F83" s="11">
-        <f t="shared" si="12"/>
         <v>27.111905666824896</v>
       </c>
       <c r="G83" s="11">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>2.7111905666824896</v>
       </c>
     </row>
@@ -34463,19 +34924,19 @@
         <v>82</v>
       </c>
       <c r="D84">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="E84" s="11">
+        <f t="shared" si="12"/>
+        <v>99987.6539377421</v>
+      </c>
+      <c r="F84" s="11">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="E84" s="11">
-        <f t="shared" si="11"/>
-        <v>99987.6539377421</v>
-      </c>
-      <c r="F84" s="11">
-        <f t="shared" si="12"/>
         <v>22.874504477513256</v>
       </c>
       <c r="G84" s="11">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>2.2874504477513256</v>
       </c>
     </row>
@@ -34487,19 +34948,19 @@
         <v>83</v>
       </c>
       <c r="D85">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="E85" s="11">
+        <f t="shared" si="12"/>
+        <v>99989.583860605097</v>
+      </c>
+      <c r="F85" s="11">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="E85" s="11">
-        <f t="shared" si="11"/>
-        <v>99989.583860605097</v>
-      </c>
-      <c r="F85" s="11">
-        <f t="shared" si="12"/>
         <v>19.299228629970457</v>
       </c>
       <c r="G85" s="11">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1.9299228629970457</v>
       </c>
     </row>
@@ -34511,19 +34972,19 @@
         <v>84</v>
       </c>
       <c r="D86">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="E86" s="11">
+        <f t="shared" si="12"/>
+        <v>99991.212126565239</v>
+      </c>
+      <c r="F86" s="11">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="E86" s="11">
-        <f t="shared" si="11"/>
-        <v>99991.212126565239</v>
-      </c>
-      <c r="F86" s="11">
-        <f t="shared" si="12"/>
         <v>16.282659601420164</v>
       </c>
       <c r="G86" s="11">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1.6282659601420164</v>
       </c>
     </row>
@@ -34535,19 +34996,19 @@
         <v>85</v>
       </c>
       <c r="D87">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="E87" s="11">
+        <f t="shared" si="12"/>
+        <v>99992.585878511192</v>
+      </c>
+      <c r="F87" s="11">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="E87" s="11">
-        <f t="shared" si="11"/>
-        <v>99992.585878511192</v>
-      </c>
-      <c r="F87" s="11">
-        <f t="shared" si="12"/>
         <v>13.737519459536998</v>
       </c>
       <c r="G87" s="11">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1.3737519459536998</v>
       </c>
     </row>
@@ -34559,19 +35020,19 @@
         <v>86</v>
       </c>
       <c r="D88">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="E88" s="11">
+        <f t="shared" si="12"/>
+        <v>99993.744894051735</v>
+      </c>
+      <c r="F88" s="11">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="E88" s="11">
-        <f t="shared" si="11"/>
-        <v>99993.744894051735</v>
-      </c>
-      <c r="F88" s="11">
-        <f t="shared" si="12"/>
         <v>11.590155405428959</v>
       </c>
       <c r="G88" s="11">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1.1590155405428959</v>
       </c>
     </row>
@@ -34583,19 +35044,19 @@
         <v>87</v>
       </c>
       <c r="D89">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="E89" s="11">
+        <f t="shared" si="12"/>
+        <v>99994.722735581352</v>
+      </c>
+      <c r="F89" s="11">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="E89" s="11">
-        <f t="shared" si="11"/>
-        <v>99994.722735581352</v>
-      </c>
-      <c r="F89" s="11">
-        <f t="shared" si="12"/>
         <v>9.7784152961685322</v>
       </c>
       <c r="G89" s="11">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.97784152961685322</v>
       </c>
     </row>
@@ -34607,19 +35068,19 @@
         <v>88</v>
       </c>
       <c r="D90">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="E90" s="11">
+        <f t="shared" si="12"/>
+        <v>99995.54772094982</v>
+      </c>
+      <c r="F90" s="11">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="E90" s="11">
-        <f t="shared" si="11"/>
-        <v>99995.54772094982</v>
-      </c>
-      <c r="F90" s="11">
-        <f t="shared" si="12"/>
         <v>8.2498536846833304</v>
       </c>
       <c r="G90" s="11">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.82498536846833304</v>
       </c>
     </row>
@@ -34631,19 +35092,19 @@
         <v>89</v>
       </c>
       <c r="D91">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="E91" s="11">
+        <f t="shared" si="12"/>
+        <v>99996.243742666353</v>
+      </c>
+      <c r="F91" s="11">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="E91" s="11">
-        <f t="shared" si="11"/>
-        <v>99996.243742666353</v>
-      </c>
-      <c r="F91" s="11">
-        <f t="shared" si="12"/>
         <v>6.9602171653241385</v>
       </c>
       <c r="G91" s="11">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.69602171653241385</v>
       </c>
     </row>
@@ -34655,19 +35116,19 @@
         <v>90</v>
       </c>
       <c r="D92">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="E92" s="11">
+        <f t="shared" si="12"/>
+        <v>99996.830959235798</v>
+      </c>
+      <c r="F92" s="11">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="E92" s="11">
-        <f t="shared" si="11"/>
-        <v>99996.830959235798</v>
-      </c>
-      <c r="F92" s="11">
-        <f t="shared" si="12"/>
         <v>5.872165694454452</v>
       </c>
       <c r="G92" s="11">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.5872165694454452</v>
       </c>
     </row>
@@ -34679,19 +35140,19 @@
         <v>91</v>
       </c>
       <c r="D93">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="E93" s="11">
+        <f t="shared" si="12"/>
+        <v>99997.326378558908</v>
+      </c>
+      <c r="F93" s="11">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="E93" s="11">
-        <f t="shared" si="11"/>
-        <v>99997.326378558908</v>
-      </c>
-      <c r="F93" s="11">
-        <f t="shared" si="12"/>
         <v>4.954193231096724</v>
       </c>
       <c r="G93" s="11">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.4954193231096724</v>
       </c>
     </row>
@@ -34703,19 +35164,19 @@
         <v>92</v>
       </c>
       <c r="D94">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="E94" s="11">
+        <f t="shared" si="12"/>
+        <v>99997.744350229041</v>
+      </c>
+      <c r="F94" s="11">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="E94" s="11">
-        <f t="shared" si="11"/>
-        <v>99997.744350229041</v>
-      </c>
-      <c r="F94" s="11">
-        <f t="shared" si="12"/>
         <v>4.1797167013282888</v>
       </c>
       <c r="G94" s="11">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.41797167013282888</v>
       </c>
     </row>
@@ -34727,19 +35188,19 @@
         <v>93</v>
       </c>
       <c r="D95">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="E95" s="11">
+        <f t="shared" si="12"/>
+        <v>99998.096980938935</v>
+      </c>
+      <c r="F95" s="11">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="E95" s="11">
-        <f t="shared" si="11"/>
-        <v>99998.096980938935</v>
-      </c>
-      <c r="F95" s="11">
-        <f t="shared" si="12"/>
         <v>3.5263070989458356</v>
       </c>
       <c r="G95" s="11">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.35263070989458356</v>
       </c>
     </row>
@@ -34751,19 +35212,19 @@
         <v>94</v>
       </c>
       <c r="D96">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="E96" s="11">
+        <f t="shared" si="12"/>
+        <v>99998.394484996315</v>
+      </c>
+      <c r="F96" s="11">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="E96" s="11">
-        <f t="shared" si="11"/>
-        <v>99998.394484996315</v>
-      </c>
-      <c r="F96" s="11">
-        <f t="shared" si="12"/>
         <v>2.9750405738013797</v>
       </c>
       <c r="G96" s="11">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.29750405738013797</v>
       </c>
     </row>
@@ -34772,19 +35233,19 @@
         <v>95</v>
       </c>
       <c r="D97">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="E97" s="11">
+        <f t="shared" si="12"/>
+        <v>99998.645480079053</v>
+      </c>
+      <c r="F97" s="11">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="E97" s="11">
-        <f t="shared" si="11"/>
-        <v>99998.645480079053</v>
-      </c>
-      <c r="F97" s="11">
-        <f t="shared" si="12"/>
         <v>2.5099508273706306</v>
       </c>
       <c r="G97" s="11">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.25099508273706306</v>
       </c>
     </row>
@@ -34793,19 +35254,19 @@
         <v>96</v>
       </c>
       <c r="D98">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="E98" s="11">
+        <f t="shared" si="12"/>
+        <v>99998.857236779397</v>
+      </c>
+      <c r="F98" s="11">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="E98" s="11">
-        <f t="shared" si="11"/>
-        <v>99998.857236779397</v>
-      </c>
-      <c r="F98" s="11">
-        <f t="shared" si="12"/>
         <v>2.117567003442673</v>
       </c>
       <c r="G98" s="11">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.2117567003442673</v>
       </c>
     </row>
@@ -34814,19 +35275,19 @@
         <v>97</v>
       </c>
       <c r="D99">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="E99" s="11">
+        <f t="shared" ref="E99:E130" si="16">$K$2/(1+$K$5*EXP(-$K$4*B99))</f>
+        <v>99999.035889154664</v>
+      </c>
+      <c r="F99" s="11">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="E99" s="11">
-        <f t="shared" ref="E99:E130" si="15">$K$2/(1+$K$5*EXP(-$K$4*B99))</f>
-        <v>99999.035889154664</v>
-      </c>
-      <c r="F99" s="11">
-        <f t="shared" si="12"/>
         <v>1.7865237526712008</v>
       </c>
       <c r="G99" s="11">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.17865237526712008</v>
       </c>
     </row>
@@ -34835,19 +35296,19 @@
         <v>98</v>
       </c>
       <c r="D100">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="E100" s="11">
+        <f t="shared" si="16"/>
+        <v>99999.186612374513</v>
+      </c>
+      <c r="F100" s="11">
+        <f t="shared" ref="F100:F131" si="17">(E100-E99)*10</f>
+        <v>1.5072321984916925</v>
+      </c>
+      <c r="G100" s="11">
         <f t="shared" si="15"/>
-        <v>99999.186612374513</v>
-      </c>
-      <c r="F100" s="11">
-        <f t="shared" ref="F100:F131" si="16">(E100-E99)*10</f>
-        <v>1.5072321984916925</v>
-      </c>
-      <c r="G100" s="11">
-        <f t="shared" si="14"/>
         <v>0.15072321984916925</v>
       </c>
     </row>
@@ -34856,19 +35317,19 @@
         <v>99</v>
       </c>
       <c r="D101">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="E101" s="11">
+        <f t="shared" si="16"/>
+        <v>99999.313772605499</v>
+      </c>
+      <c r="F101" s="11">
+        <f t="shared" si="17"/>
+        <v>1.2716023098619189</v>
+      </c>
+      <c r="G101" s="11">
         <f t="shared" si="15"/>
-        <v>99999.313772605499</v>
-      </c>
-      <c r="F101" s="11">
-        <f t="shared" si="16"/>
-        <v>1.2716023098619189</v>
-      </c>
-      <c r="G101" s="11">
-        <f t="shared" si="14"/>
         <v>0.12716023098619189</v>
       </c>
     </row>
@@ -34877,19 +35338,19 @@
         <v>100</v>
       </c>
       <c r="D102">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="E102" s="11">
+        <f t="shared" si="16"/>
+        <v>99999.421053469981</v>
+      </c>
+      <c r="F102" s="11">
+        <f t="shared" si="17"/>
+        <v>1.0728086448216345</v>
+      </c>
+      <c r="G102" s="11">
         <f t="shared" si="15"/>
-        <v>99999.421053469981</v>
-      </c>
-      <c r="F102" s="11">
-        <f t="shared" si="16"/>
-        <v>1.0728086448216345</v>
-      </c>
-      <c r="G102" s="11">
-        <f t="shared" si="14"/>
         <v>0.10728086448216345</v>
       </c>
     </row>
@@ -34898,19 +35359,19 @@
         <v>101</v>
       </c>
       <c r="D103">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="E103" s="11">
+        <f t="shared" si="16"/>
+        <v>99999.511562739863</v>
+      </c>
+      <c r="F103" s="11">
+        <f t="shared" si="17"/>
+        <v>0.9050926988129504</v>
+      </c>
+      <c r="G103" s="11">
         <f t="shared" si="15"/>
-        <v>99999.511562739863</v>
-      </c>
-      <c r="F103" s="11">
-        <f t="shared" si="16"/>
-        <v>0.9050926988129504</v>
-      </c>
-      <c r="G103" s="11">
-        <f t="shared" si="14"/>
         <v>9.050926988129504E-2</v>
       </c>
     </row>
@@ -34919,19 +35380,19 @@
         <v>102</v>
       </c>
       <c r="D104">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="E104" s="11">
+        <f t="shared" si="16"/>
+        <v>99999.587922353836</v>
+      </c>
+      <c r="F104" s="11">
+        <f t="shared" si="17"/>
+        <v>0.76359613973181695</v>
+      </c>
+      <c r="G104" s="11">
         <f t="shared" si="15"/>
-        <v>99999.587922353836</v>
-      </c>
-      <c r="F104" s="11">
-        <f t="shared" si="16"/>
-        <v>0.76359613973181695</v>
-      </c>
-      <c r="G104" s="11">
-        <f t="shared" si="14"/>
         <v>7.6359613973181695E-2</v>
       </c>
     </row>
@@ -34940,19 +35401,19 @@
         <v>103</v>
       </c>
       <c r="D105">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="E105" s="11">
+        <f t="shared" si="16"/>
+        <v>99999.652344364251</v>
+      </c>
+      <c r="F105" s="11">
+        <f t="shared" si="17"/>
+        <v>0.64422010415000841</v>
+      </c>
+      <c r="G105" s="11">
         <f t="shared" si="15"/>
-        <v>99999.652344364251</v>
-      </c>
-      <c r="F105" s="11">
-        <f t="shared" si="16"/>
-        <v>0.64422010415000841</v>
-      </c>
-      <c r="G105" s="11">
-        <f t="shared" si="14"/>
         <v>6.4422010415000841E-2</v>
       </c>
     </row>
@@ -34961,19 +35422,19 @@
         <v>104</v>
       </c>
       <c r="D106">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="E106" s="11">
+        <f t="shared" si="16"/>
+        <v>99999.706695012428</v>
+      </c>
+      <c r="F106" s="11">
+        <f t="shared" si="17"/>
+        <v>0.54350648177205585</v>
+      </c>
+      <c r="G106" s="11">
         <f t="shared" si="15"/>
-        <v>99999.706695012428</v>
-      </c>
-      <c r="F106" s="11">
-        <f t="shared" si="16"/>
-        <v>0.54350648177205585</v>
-      </c>
-      <c r="G106" s="11">
-        <f t="shared" si="14"/>
         <v>5.4350648177205585E-2</v>
       </c>
     </row>
@@ -34982,19 +35443,19 @@
         <v>105</v>
       </c>
       <c r="D107">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="E107" s="11">
+        <f t="shared" si="16"/>
+        <v>99999.752548787976</v>
+      </c>
+      <c r="F107" s="11">
+        <f t="shared" si="17"/>
+        <v>0.45853775547584519</v>
+      </c>
+      <c r="G107" s="11">
         <f t="shared" si="15"/>
-        <v>99999.752548787976</v>
-      </c>
-      <c r="F107" s="11">
-        <f t="shared" si="16"/>
-        <v>0.45853775547584519</v>
-      </c>
-      <c r="G107" s="11">
-        <f t="shared" si="14"/>
         <v>4.5853775547584519E-2</v>
       </c>
     </row>
@@ -35003,19 +35464,19 @@
         <v>106</v>
       </c>
       <c r="D108">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="E108" s="11">
+        <f t="shared" si="16"/>
+        <v>99999.791234037839</v>
+      </c>
+      <c r="F108" s="11">
+        <f t="shared" si="17"/>
+        <v>0.38685249863192439</v>
+      </c>
+      <c r="G108" s="11">
         <f t="shared" si="15"/>
-        <v>99999.791234037839</v>
-      </c>
-      <c r="F108" s="11">
-        <f t="shared" si="16"/>
-        <v>0.38685249863192439</v>
-      </c>
-      <c r="G108" s="11">
-        <f t="shared" si="14"/>
         <v>3.8685249863192439E-2</v>
       </c>
     </row>
@@ -35024,19 +35485,19 @@
         <v>107</v>
       </c>
       <c r="D109">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="E109" s="11">
+        <f t="shared" si="16"/>
+        <v>99999.823871445347</v>
+      </c>
+      <c r="F109" s="11">
+        <f t="shared" si="17"/>
+        <v>0.32637407508445904</v>
+      </c>
+      <c r="G109" s="11">
         <f t="shared" si="15"/>
-        <v>99999.823871445347</v>
-      </c>
-      <c r="F109" s="11">
-        <f t="shared" si="16"/>
-        <v>0.32637407508445904</v>
-      </c>
-      <c r="G109" s="11">
-        <f t="shared" si="14"/>
         <v>3.2637407508445904E-2</v>
       </c>
     </row>
@@ -35045,19 +35506,19 @@
         <v>108</v>
       </c>
       <c r="D110">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="E110" s="11">
+        <f t="shared" si="16"/>
+        <v>99999.851406494316</v>
+      </c>
+      <c r="F110" s="11">
+        <f t="shared" si="17"/>
+        <v>0.27535048968275078</v>
+      </c>
+      <c r="G110" s="11">
         <f t="shared" si="15"/>
-        <v>99999.851406494316</v>
-      </c>
-      <c r="F110" s="11">
-        <f t="shared" si="16"/>
-        <v>0.27535048968275078</v>
-      </c>
-      <c r="G110" s="11">
-        <f t="shared" si="14"/>
         <v>2.7535048968275078E-2</v>
       </c>
     </row>
@@ -35066,19 +35527,19 @@
         <v>109</v>
       </c>
       <c r="D111">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="E111" s="11">
+        <f t="shared" si="16"/>
+        <v>99999.874636858149</v>
+      </c>
+      <c r="F111" s="11">
+        <f t="shared" si="17"/>
+        <v>0.23230363833135925</v>
+      </c>
+      <c r="G111" s="11">
         <f t="shared" si="15"/>
-        <v>99999.874636858149</v>
-      </c>
-      <c r="F111" s="11">
-        <f t="shared" si="16"/>
-        <v>0.23230363833135925</v>
-      </c>
-      <c r="G111" s="11">
-        <f t="shared" si="14"/>
         <v>2.3230363833135925E-2</v>
       </c>
     </row>
@@ -35087,19 +35548,19 @@
         <v>110</v>
       </c>
       <c r="D112">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="E112" s="11">
+        <f t="shared" si="16"/>
+        <v>99999.894235507207</v>
+      </c>
+      <c r="F112" s="11">
+        <f t="shared" si="17"/>
+        <v>0.1959864905802533</v>
+      </c>
+      <c r="G112" s="11">
         <f t="shared" si="15"/>
-        <v>99999.894235507207</v>
-      </c>
-      <c r="F112" s="11">
-        <f t="shared" si="16"/>
-        <v>0.1959864905802533</v>
-      </c>
-      <c r="G112" s="11">
-        <f t="shared" si="14"/>
         <v>1.959864905802533E-2</v>
       </c>
     </row>
@@ -35108,19 +35569,19 @@
         <v>111</v>
       </c>
       <c r="D113">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="E113" s="11">
+        <f t="shared" si="16"/>
+        <v>99999.910770203816</v>
+      </c>
+      <c r="F113" s="11">
+        <f t="shared" si="17"/>
+        <v>0.16534696609596722</v>
+      </c>
+      <c r="G113" s="11">
         <f t="shared" si="15"/>
-        <v>99999.910770203816</v>
-      </c>
-      <c r="F113" s="11">
-        <f t="shared" si="16"/>
-        <v>0.16534696609596722</v>
-      </c>
-      <c r="G113" s="11">
-        <f t="shared" si="14"/>
         <v>1.6534696609596722E-2</v>
       </c>
     </row>
@@ -35129,19 +35590,19 @@
         <v>112</v>
       </c>
       <c r="D114">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="E114" s="11">
+        <f t="shared" si="16"/>
+        <v>99999.924719949879</v>
+      </c>
+      <c r="F114" s="11">
+        <f t="shared" si="17"/>
+        <v>0.1394974606228061</v>
+      </c>
+      <c r="G114" s="11">
         <f t="shared" si="15"/>
-        <v>99999.924719949879</v>
-      </c>
-      <c r="F114" s="11">
-        <f t="shared" si="16"/>
-        <v>0.1394974606228061</v>
-      </c>
-      <c r="G114" s="11">
-        <f t="shared" si="14"/>
         <v>1.394974606228061E-2</v>
       </c>
     </row>
@@ -35150,19 +35611,19 @@
         <v>113</v>
       </c>
       <c r="D115">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="E115" s="11">
+        <f t="shared" si="16"/>
+        <v>99999.936488862848</v>
+      </c>
+      <c r="F115" s="11">
+        <f t="shared" si="17"/>
+        <v>0.11768912969273515</v>
+      </c>
+      <c r="G115" s="11">
         <f t="shared" si="15"/>
-        <v>99999.936488862848</v>
-      </c>
-      <c r="F115" s="11">
-        <f t="shared" si="16"/>
-        <v>0.11768912969273515</v>
-      </c>
-      <c r="G115" s="11">
-        <f t="shared" si="14"/>
         <v>1.1768912969273515E-2</v>
       </c>
     </row>
@@ -35171,19 +35632,19 @@
         <v>114</v>
       </c>
       <c r="D116">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="E116" s="11">
+        <f t="shared" si="16"/>
+        <v>99999.946417882791</v>
+      </c>
+      <c r="F116" s="11">
+        <f t="shared" si="17"/>
+        <v>9.9290199432289228E-2</v>
+      </c>
+      <c r="G116" s="11">
         <f t="shared" si="15"/>
-        <v>99999.946417882791</v>
-      </c>
-      <c r="F116" s="11">
-        <f t="shared" si="16"/>
-        <v>9.9290199432289228E-2</v>
-      </c>
-      <c r="G116" s="11">
-        <f t="shared" si="14"/>
         <v>9.9290199432289228E-3</v>
       </c>
     </row>
@@ -35192,19 +35653,19 @@
         <v>115</v>
       </c>
       <c r="D117">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="E117" s="11">
+        <f t="shared" si="16"/>
+        <v>99999.954794649122</v>
+      </c>
+      <c r="F117" s="11">
+        <f t="shared" si="17"/>
+        <v>8.3767663309117779E-2</v>
+      </c>
+      <c r="G117" s="11">
         <f t="shared" si="15"/>
-        <v>99999.954794649122</v>
-      </c>
-      <c r="F117" s="11">
-        <f t="shared" si="16"/>
-        <v>8.3767663309117779E-2</v>
-      </c>
-      <c r="G117" s="11">
-        <f t="shared" si="14"/>
         <v>8.3767663309117779E-3</v>
       </c>
     </row>
@@ -35213,19 +35674,19 @@
         <v>116</v>
       </c>
       <c r="D118">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="E118" s="11">
+        <f t="shared" si="16"/>
+        <v>99999.961861833261</v>
+      </c>
+      <c r="F118" s="11">
+        <f t="shared" si="17"/>
+        <v>7.0671841385774314E-2</v>
+      </c>
+      <c r="G118" s="11">
         <f t="shared" si="15"/>
-        <v>99999.961861833261</v>
-      </c>
-      <c r="F118" s="11">
-        <f t="shared" si="16"/>
-        <v>7.0671841385774314E-2</v>
-      </c>
-      <c r="G118" s="11">
-        <f t="shared" si="14"/>
         <v>7.0671841385774314E-3</v>
       </c>
     </row>
@@ -35234,19 +35695,19 @@
         <v>117</v>
       </c>
       <c r="D119">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="E119" s="11">
+        <f t="shared" si="16"/>
+        <v>99999.967824168634</v>
+      </c>
+      <c r="F119" s="11">
+        <f t="shared" si="17"/>
+        <v>5.9623353736242279E-2</v>
+      </c>
+      <c r="G119" s="11">
         <f t="shared" si="15"/>
-        <v>99999.967824168634</v>
-      </c>
-      <c r="F119" s="11">
-        <f t="shared" si="16"/>
-        <v>5.9623353736242279E-2</v>
-      </c>
-      <c r="G119" s="11">
-        <f t="shared" si="14"/>
         <v>5.9623353736242279E-3</v>
       </c>
     </row>
@@ -35255,19 +35716,19 @@
         <v>118</v>
       </c>
       <c r="D120">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="E120" s="11">
+        <f t="shared" si="16"/>
+        <v>99999.972854381762</v>
+      </c>
+      <c r="F120" s="11">
+        <f t="shared" si="17"/>
+        <v>5.030213127611205E-2</v>
+      </c>
+      <c r="G120" s="11">
         <f t="shared" si="15"/>
-        <v>99999.972854381762</v>
-      </c>
-      <c r="F120" s="11">
-        <f t="shared" si="16"/>
-        <v>5.030213127611205E-2</v>
-      </c>
-      <c r="G120" s="11">
-        <f t="shared" si="14"/>
         <v>5.030213127611205E-3</v>
       </c>
     </row>
@@ -35276,19 +35737,19 @@
         <v>119</v>
       </c>
       <c r="D121">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="E121" s="11">
+        <f t="shared" si="16"/>
+        <v>99999.977098196003</v>
+      </c>
+      <c r="F121" s="11">
+        <f t="shared" si="17"/>
+        <v>4.2438142409082502E-2</v>
+      </c>
+      <c r="G121" s="11">
         <f t="shared" si="15"/>
-        <v>99999.977098196003</v>
-      </c>
-      <c r="F121" s="11">
-        <f t="shared" si="16"/>
-        <v>4.2438142409082502E-2</v>
-      </c>
-      <c r="G121" s="11">
-        <f t="shared" si="14"/>
         <v>4.2438142409082502E-3</v>
       </c>
     </row>
@@ -35297,19 +35758,19 @@
         <v>120</v>
       </c>
       <c r="D122">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="E122" s="11">
+        <f t="shared" si="16"/>
+        <v>99999.980678553024</v>
+      </c>
+      <c r="F122" s="11">
+        <f t="shared" si="17"/>
+        <v>3.5803570208372548E-2</v>
+      </c>
+      <c r="G122" s="11">
         <f t="shared" si="15"/>
-        <v>99999.980678553024</v>
-      </c>
-      <c r="F122" s="11">
-        <f t="shared" si="16"/>
-        <v>3.5803570208372548E-2</v>
-      </c>
-      <c r="G122" s="11">
-        <f t="shared" si="14"/>
         <v>3.5803570208372548E-3</v>
       </c>
     </row>
@@ -35318,19 +35779,19 @@
         <v>121</v>
       </c>
       <c r="D123">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="E123" s="11">
+        <f t="shared" si="16"/>
+        <v>99999.983699174496</v>
+      </c>
+      <c r="F123" s="11">
+        <f t="shared" si="17"/>
+        <v>3.0206214723875746E-2</v>
+      </c>
+      <c r="G123" s="11">
         <f t="shared" si="15"/>
-        <v>99999.983699174496</v>
-      </c>
-      <c r="F123" s="11">
-        <f t="shared" si="16"/>
-        <v>3.0206214723875746E-2</v>
-      </c>
-      <c r="G123" s="11">
-        <f t="shared" si="14"/>
         <v>3.0206214723875746E-3</v>
       </c>
     </row>
@@ -35339,19 +35800,19 @@
         <v>122</v>
       </c>
       <c r="D124">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="E124" s="11">
+        <f t="shared" si="16"/>
+        <v>99999.986247566703</v>
+      </c>
+      <c r="F124" s="11">
+        <f t="shared" si="17"/>
+        <v>2.5483922072453424E-2</v>
+      </c>
+      <c r="G124" s="11">
         <f t="shared" si="15"/>
-        <v>99999.986247566703</v>
-      </c>
-      <c r="F124" s="11">
-        <f t="shared" si="16"/>
-        <v>2.5483922072453424E-2</v>
-      </c>
-      <c r="G124" s="11">
-        <f t="shared" si="14"/>
         <v>2.5483922072453424E-3</v>
       </c>
     </row>
@@ -35360,19 +35821,19 @@
         <v>123</v>
       </c>
       <c r="D125">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="E125" s="11">
+        <f t="shared" si="16"/>
+        <v>99999.988397555629</v>
+      </c>
+      <c r="F125" s="11">
+        <f t="shared" si="17"/>
+        <v>2.1499889262486249E-2</v>
+      </c>
+      <c r="G125" s="11">
         <f t="shared" si="15"/>
-        <v>99999.988397555629</v>
-      </c>
-      <c r="F125" s="11">
-        <f t="shared" si="16"/>
-        <v>2.1499889262486249E-2</v>
-      </c>
-      <c r="G125" s="11">
-        <f t="shared" si="14"/>
         <v>2.1499889262486249E-3</v>
       </c>
     </row>
@@ -35381,19 +35842,19 @@
         <v>124</v>
       </c>
       <c r="D126">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="E126" s="11">
+        <f t="shared" si="16"/>
+        <v>99999.990211425713</v>
+      </c>
+      <c r="F126" s="11">
+        <f t="shared" si="17"/>
+        <v>1.8138700834242627E-2</v>
+      </c>
+      <c r="G126" s="11">
         <f t="shared" si="15"/>
-        <v>99999.990211425713</v>
-      </c>
-      <c r="F126" s="11">
-        <f t="shared" si="16"/>
-        <v>1.8138700834242627E-2</v>
-      </c>
-      <c r="G126" s="11">
-        <f t="shared" si="14"/>
         <v>1.8138700834242627E-3</v>
       </c>
     </row>
@@ -35402,19 +35863,19 @@
         <v>125</v>
       </c>
       <c r="D127">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="E127" s="11">
+        <f t="shared" si="16"/>
+        <v>99999.991741724152</v>
+      </c>
+      <c r="F127" s="11">
+        <f t="shared" si="17"/>
+        <v>1.5302984393201768E-2</v>
+      </c>
+      <c r="G127" s="11">
         <f t="shared" si="15"/>
-        <v>99999.991741724152</v>
-      </c>
-      <c r="F127" s="11">
-        <f t="shared" si="16"/>
-        <v>1.5302984393201768E-2</v>
-      </c>
-      <c r="G127" s="11">
-        <f t="shared" si="14"/>
         <v>1.5302984393201768E-3</v>
       </c>
     </row>
@@ -35423,19 +35884,19 @@
         <v>126</v>
       </c>
       <c r="D128">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="E128" s="11">
+        <f t="shared" si="16"/>
+        <v>99999.993032783124</v>
+      </c>
+      <c r="F128" s="11">
+        <f t="shared" si="17"/>
+        <v>1.2910589721286669E-2</v>
+      </c>
+      <c r="G128" s="11">
         <f t="shared" si="15"/>
-        <v>99999.993032783124</v>
-      </c>
-      <c r="F128" s="11">
-        <f t="shared" si="16"/>
-        <v>1.2910589721286669E-2</v>
-      </c>
-      <c r="G128" s="11">
-        <f t="shared" si="14"/>
         <v>1.2910589721286669E-3</v>
       </c>
     </row>
@@ -35444,19 +35905,19 @@
         <v>127</v>
       </c>
       <c r="D129">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="E129" s="11">
+        <f t="shared" si="16"/>
+        <v>99999.994122004195</v>
+      </c>
+      <c r="F129" s="11">
+        <f t="shared" si="17"/>
+        <v>1.0892210702877492E-2</v>
+      </c>
+      <c r="G129" s="11">
         <f t="shared" si="15"/>
-        <v>99999.994122004195</v>
-      </c>
-      <c r="F129" s="11">
-        <f t="shared" si="16"/>
-        <v>1.0892210702877492E-2</v>
-      </c>
-      <c r="G129" s="11">
-        <f t="shared" si="14"/>
         <v>1.0892210702877492E-3</v>
       </c>
     </row>
@@ -35465,19 +35926,19 @@
         <v>128</v>
       </c>
       <c r="D130">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="E130" s="11">
+        <f t="shared" si="16"/>
+        <v>99999.995040941707</v>
+      </c>
+      <c r="F130" s="11">
+        <f t="shared" si="17"/>
+        <v>9.1893751232419163E-3</v>
+      </c>
+      <c r="G130" s="11">
         <f t="shared" si="15"/>
-        <v>99999.995040941707</v>
-      </c>
-      <c r="F130" s="11">
-        <f t="shared" si="16"/>
-        <v>9.1893751232419163E-3</v>
-      </c>
-      <c r="G130" s="11">
-        <f t="shared" si="14"/>
         <v>9.1893751232419163E-4</v>
       </c>
     </row>
@@ -35486,19 +35947,19 @@
         <v>129</v>
       </c>
       <c r="D131">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="E131" s="11">
-        <f t="shared" ref="E131:E149" si="17">$K$2/(1+$K$5*EXP(-$K$4*B131))</f>
+        <f t="shared" ref="E131:E149" si="18">$K$2/(1+$K$5*EXP(-$K$4*B131))</f>
         <v>99999.99581621695</v>
       </c>
       <c r="F131" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>7.7527524263132364E-3</v>
       </c>
       <c r="G131" s="11">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>7.7527524263132364E-4</v>
       </c>
     </row>
@@ -35507,19 +35968,19 @@
         <v>130</v>
       </c>
       <c r="D132">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="E132" s="11">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>99999.996470289421</v>
       </c>
       <c r="F132" s="11">
-        <f t="shared" ref="F132:F149" si="18">(E132-E131)*10</f>
+        <f t="shared" ref="F132:F149" si="19">(E132-E131)*10</f>
         <v>6.5407247166149318E-3</v>
       </c>
       <c r="G132" s="11">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>6.5407247166149318E-4</v>
       </c>
     </row>
@@ -35528,19 +35989,19 @@
         <v>131</v>
       </c>
       <c r="D133">
-        <f t="shared" ref="D133:D149" si="19">C133-C132</f>
+        <f t="shared" ref="D133:D149" si="20">C133-C132</f>
         <v>0</v>
       </c>
       <c r="E133" s="11">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>99999.99702210736</v>
       </c>
       <c r="F133" s="11">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>5.5181793868541718E-3</v>
       </c>
       <c r="G133" s="11">
-        <f t="shared" ref="G133:G149" si="20">E133-E132</f>
+        <f t="shared" ref="G133:G149" si="21">E133-E132</f>
         <v>5.5181793868541718E-4</v>
       </c>
     </row>
@@ -35549,19 +36010,19 @@
         <v>132</v>
       </c>
       <c r="D134">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="E134" s="11">
+        <f t="shared" si="18"/>
+        <v>99999.997487656728</v>
+      </c>
+      <c r="F134" s="11">
         <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="E134" s="11">
-        <f t="shared" si="17"/>
-        <v>99999.997487656728</v>
-      </c>
-      <c r="F134" s="11">
-        <f t="shared" si="18"/>
         <v>4.6554936852771789E-3</v>
       </c>
       <c r="G134" s="11">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>4.6554936852771789E-4</v>
       </c>
     </row>
@@ -35570,19 +36031,19 @@
         <v>133</v>
       </c>
       <c r="D135">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="E135" s="11">
+        <f t="shared" si="18"/>
+        <v>99999.997880424373</v>
+      </c>
+      <c r="F135" s="11">
         <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="E135" s="11">
-        <f t="shared" si="17"/>
-        <v>99999.997880424373</v>
-      </c>
-      <c r="F135" s="11">
-        <f t="shared" si="18"/>
         <v>3.9276764437090605E-3</v>
       </c>
       <c r="G135" s="11">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>3.9276764437090605E-4</v>
       </c>
     </row>
@@ -35591,19 +36052,19 @@
         <v>134</v>
       </c>
       <c r="D136">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="E136" s="11">
+        <f t="shared" si="18"/>
+        <v>99999.99821178861</v>
+      </c>
+      <c r="F136" s="11">
         <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="E136" s="11">
-        <f t="shared" si="17"/>
-        <v>99999.99821178861</v>
-      </c>
-      <c r="F136" s="11">
-        <f t="shared" si="18"/>
         <v>3.31364237354137E-3</v>
       </c>
       <c r="G136" s="11">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>3.31364237354137E-4</v>
       </c>
     </row>
@@ -35612,19 +36073,19 @@
         <v>135</v>
       </c>
       <c r="D137">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="E137" s="11">
+        <f t="shared" si="18"/>
+        <v>99999.998491348946</v>
+      </c>
+      <c r="F137" s="11">
         <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="E137" s="11">
-        <f t="shared" si="17"/>
-        <v>99999.998491348946</v>
-      </c>
-      <c r="F137" s="11">
-        <f t="shared" si="18"/>
         <v>2.795603359118104E-3</v>
       </c>
       <c r="G137" s="11">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>2.795603359118104E-4</v>
       </c>
     </row>
@@ -35633,19 +36094,19 @@
         <v>136</v>
       </c>
       <c r="D138">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="E138" s="11">
+        <f t="shared" si="18"/>
+        <v>99999.998727204191</v>
+      </c>
+      <c r="F138" s="11">
         <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="E138" s="11">
-        <f t="shared" si="17"/>
-        <v>99999.998727204191</v>
-      </c>
-      <c r="F138" s="11">
-        <f t="shared" si="18"/>
         <v>2.3585524468217045E-3</v>
       </c>
       <c r="G138" s="11">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>2.3585524468217045E-4</v>
       </c>
     </row>
@@ -35654,19 +36115,19 @@
         <v>137</v>
       </c>
       <c r="D139">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="E139" s="11">
+        <f t="shared" si="18"/>
+        <v>99999.998926186949</v>
+      </c>
+      <c r="F139" s="11">
         <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="E139" s="11">
-        <f t="shared" si="17"/>
-        <v>99999.998926186949</v>
-      </c>
-      <c r="F139" s="11">
-        <f t="shared" si="18"/>
         <v>1.9898275786545128E-3</v>
       </c>
       <c r="G139" s="11">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>1.9898275786545128E-4</v>
       </c>
     </row>
@@ -35675,19 +36136,19 @@
         <v>138</v>
       </c>
       <c r="D140">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="E140" s="11">
+        <f t="shared" si="18"/>
+        <v>99999.999094061699</v>
+      </c>
+      <c r="F140" s="11">
         <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="E140" s="11">
-        <f t="shared" si="17"/>
-        <v>99999.999094061699</v>
-      </c>
-      <c r="F140" s="11">
-        <f t="shared" si="18"/>
         <v>1.6787475033197552E-3</v>
       </c>
       <c r="G140" s="11">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>1.6787475033197552E-4</v>
       </c>
     </row>
@@ -35696,19 +36157,19 @@
         <v>139</v>
       </c>
       <c r="D141">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="E141" s="11">
+        <f t="shared" si="18"/>
+        <v>99999.99923569175</v>
+      </c>
+      <c r="F141" s="11">
         <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="E141" s="11">
-        <f t="shared" si="17"/>
-        <v>99999.99923569175</v>
-      </c>
-      <c r="F141" s="11">
-        <f t="shared" si="18"/>
         <v>1.4163005107548088E-3</v>
       </c>
       <c r="G141" s="11">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>1.4163005107548088E-4</v>
       </c>
     </row>
@@ -35717,19 +36178,19 @@
         <v>140</v>
       </c>
       <c r="D142">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="E142" s="11">
+        <f t="shared" si="18"/>
+        <v>99999.99935518</v>
+      </c>
+      <c r="F142" s="11">
         <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="E142" s="11">
-        <f t="shared" si="17"/>
-        <v>99999.99935518</v>
-      </c>
-      <c r="F142" s="11">
-        <f t="shared" si="18"/>
         <v>1.1948824976570904E-3</v>
       </c>
       <c r="G142" s="11">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>1.1948824976570904E-4</v>
       </c>
     </row>
@@ -35738,19 +36199,19 @@
         <v>141</v>
       </c>
       <c r="D143">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="E143" s="11">
+        <f t="shared" si="18"/>
+        <v>99999.999455988058</v>
+      </c>
+      <c r="F143" s="11">
         <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="E143" s="11">
-        <f t="shared" si="17"/>
-        <v>99999.999455988058</v>
-      </c>
-      <c r="F143" s="11">
-        <f t="shared" si="18"/>
         <v>1.0080805805046111E-3</v>
       </c>
       <c r="G143" s="11">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>1.0080805805046111E-4</v>
       </c>
     </row>
@@ -35759,19 +36220,19 @@
         <v>142</v>
       </c>
       <c r="D144">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="E144" s="11">
+        <f t="shared" si="18"/>
+        <v>99999.999541036275</v>
+      </c>
+      <c r="F144" s="11">
         <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="E144" s="11">
-        <f t="shared" si="17"/>
-        <v>99999.999541036275</v>
-      </c>
-      <c r="F144" s="11">
-        <f t="shared" si="18"/>
         <v>8.5048217442817986E-4</v>
       </c>
       <c r="G144" s="11">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>8.5048217442817986E-5</v>
       </c>
     </row>
@@ -35780,19 +36241,19 @@
         <v>143</v>
       </c>
       <c r="D145">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="E145" s="11">
+        <f t="shared" si="18"/>
+        <v>99999.999612788451</v>
+      </c>
+      <c r="F145" s="11">
         <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="E145" s="11">
-        <f t="shared" si="17"/>
-        <v>99999.999612788451</v>
-      </c>
-      <c r="F145" s="11">
-        <f t="shared" si="18"/>
         <v>7.1752176154404879E-4</v>
       </c>
       <c r="G145" s="11">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>7.1752176154404879E-5</v>
       </c>
     </row>
@@ -35801,19 +36262,19 @@
         <v>144</v>
       </c>
       <c r="D146">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="E146" s="11">
+        <f t="shared" si="18"/>
+        <v>99999.999673323226</v>
+      </c>
+      <c r="F146" s="11">
         <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="E146" s="11">
-        <f t="shared" si="17"/>
-        <v>99999.999673323226</v>
-      </c>
-      <c r="F146" s="11">
-        <f t="shared" si="18"/>
         <v>6.0534774092957377E-4</v>
       </c>
       <c r="G146" s="11">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>6.0534774092957377E-5</v>
       </c>
     </row>
@@ -35822,19 +36283,19 @@
         <v>145</v>
       </c>
       <c r="D147">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="E147" s="11">
+        <f t="shared" si="18"/>
+        <v>99999.999724394307</v>
+      </c>
+      <c r="F147" s="11">
         <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="E147" s="11">
-        <f t="shared" si="17"/>
-        <v>99999.999724394307</v>
-      </c>
-      <c r="F147" s="11">
-        <f t="shared" si="18"/>
         <v>5.1071081543341279E-4</v>
       </c>
       <c r="G147" s="11">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>5.1071081543341279E-5</v>
       </c>
     </row>
@@ -35843,19 +36304,19 @@
         <v>146</v>
       </c>
       <c r="D148">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="E148" s="11">
+        <f t="shared" si="18"/>
+        <v>99999.999767481175</v>
+      </c>
+      <c r="F148" s="11">
         <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="E148" s="11">
-        <f t="shared" si="17"/>
-        <v>99999.999767481175</v>
-      </c>
-      <c r="F148" s="11">
-        <f t="shared" si="18"/>
         <v>4.308686766307801E-4</v>
       </c>
       <c r="G148" s="11">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>4.308686766307801E-5</v>
       </c>
     </row>
@@ -35864,19 +36325,19 @@
         <v>147</v>
       </c>
       <c r="D149">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="E149" s="11">
+        <f t="shared" si="18"/>
+        <v>99999.999803832048</v>
+      </c>
+      <c r="F149" s="11">
         <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="E149" s="11">
-        <f t="shared" si="17"/>
-        <v>99999.999803832048</v>
-      </c>
-      <c r="F149" s="11">
-        <f t="shared" si="18"/>
         <v>3.6350873415358365E-4</v>
       </c>
       <c r="G149" s="11">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>3.6350873415358365E-5</v>
       </c>
     </row>
@@ -35895,8 +36356,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:L67"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="M45" sqref="M45"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="S49" sqref="S49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -36049,7 +36510,7 @@
         <v>15.271166850499654</v>
       </c>
       <c r="I5" s="11">
-        <f t="shared" ref="I5:I40" si="5">C5-F5</f>
+        <f t="shared" ref="I5:I41" si="5">C5-F5</f>
         <v>-86.068874921805403</v>
       </c>
       <c r="J5" s="11"/>
@@ -37391,7 +37852,18 @@
       <c r="B41" s="10">
         <v>39</v>
       </c>
-      <c r="C41" s="3"/>
+      <c r="C41" s="3">
+        <f>Dati!K41</f>
+        <v>13915</v>
+      </c>
+      <c r="D41">
+        <f t="shared" ref="D41" si="16">C41-C40</f>
+        <v>760</v>
+      </c>
+      <c r="E41">
+        <f t="shared" ref="E41" si="17">10*(C41-C40)</f>
+        <v>7600</v>
+      </c>
       <c r="F41" s="11">
         <f t="shared" si="9"/>
         <v>14299.640453068761</v>
@@ -37404,7 +37876,10 @@
         <f t="shared" si="4"/>
         <v>798.25897638853348</v>
       </c>
-      <c r="I41" s="11"/>
+      <c r="I41" s="11">
+        <f t="shared" si="5"/>
+        <v>-384.64045306876142</v>
+      </c>
       <c r="J41" s="11"/>
     </row>
     <row r="42" spans="1:10">
@@ -37830,7 +38305,7 @@
       </c>
       <c r="C60" s="3"/>
       <c r="F60" s="11">
-        <f t="shared" ref="F60:F67" si="16">$L$2/(1+$L$5*EXP(-$L$4*B60))</f>
+        <f t="shared" ref="F60:F67" si="18">$L$2/(1+$L$5*EXP(-$L$4*B60))</f>
         <v>20617.840215665983</v>
       </c>
       <c r="G60" s="11">
@@ -37853,7 +38328,7 @@
       </c>
       <c r="C61" s="3"/>
       <c r="F61" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>20676.665348247563</v>
       </c>
       <c r="G61" s="11">
@@ -37876,7 +38351,7 @@
       </c>
       <c r="C62" s="3"/>
       <c r="F62" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>20726.555729370077</v>
       </c>
       <c r="G62" s="11">
@@ -37899,7 +38374,7 @@
       </c>
       <c r="C63" s="3"/>
       <c r="F63" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>20768.834113317804</v>
       </c>
       <c r="G63" s="11">
@@ -37922,7 +38397,7 @@
       </c>
       <c r="C64" s="3"/>
       <c r="F64" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>20804.637270596504</v>
       </c>
       <c r="G64" s="11">
@@ -37945,7 +38420,7 @@
       </c>
       <c r="C65" s="3"/>
       <c r="F65" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>20834.939277021032</v>
       </c>
       <c r="G65" s="11">
@@ -37968,7 +38443,7 @@
       </c>
       <c r="C66" s="3"/>
       <c r="F66" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>20860.572747223094</v>
       </c>
       <c r="G66" s="11">
@@ -37991,7 +38466,7 @@
       </c>
       <c r="C67" s="3"/>
       <c r="F67" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>20882.247909134818</v>
       </c>
       <c r="G67" s="11">
@@ -38135,10 +38610,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E40"/>
+  <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -38939,6 +39414,27 @@
         <v>726</v>
       </c>
     </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="2">
+        <v>43923</v>
+      </c>
+      <c r="B41" s="3">
+        <f>Dati!L41</f>
+        <v>115242</v>
+      </c>
+      <c r="C41">
+        <f t="shared" ref="C41" si="15">B41-B40</f>
+        <v>4668</v>
+      </c>
+      <c r="D41">
+        <f t="shared" ref="D41" si="16">C41-C40</f>
+        <v>-114</v>
+      </c>
+      <c r="E41">
+        <f t="shared" ref="E41" si="17">D41-D40</f>
+        <v>-843</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0.39370078740157505" bottom="0.39370078740157505" header="0" footer="0"/>
   <headerFooter>
@@ -38951,10 +39447,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:E40"/>
+  <dimension ref="A1:E41"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C48" sqref="C48"/>
+      <selection activeCell="G40" sqref="G40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -39755,6 +40251,27 @@
         <v>3</v>
       </c>
     </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="2">
+        <v>43923</v>
+      </c>
+      <c r="B41" s="3">
+        <f>Dati!D41</f>
+        <v>4053</v>
+      </c>
+      <c r="C41">
+        <f t="shared" ref="C41" si="15">B41-B40</f>
+        <v>18</v>
+      </c>
+      <c r="D41">
+        <f t="shared" ref="D41" si="16">C41-C40</f>
+        <v>6</v>
+      </c>
+      <c r="E41">
+        <f t="shared" ref="E41" si="17">D41-D40</f>
+        <v>36</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.70000000000000007" right="0.70000000000000007" top="0.75" bottom="0.75" header="0.30000000000000004" footer="0.30000000000000004"/>
   <drawing r:id="rId1"/>
@@ -39763,10 +40280,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:E40"/>
+  <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -40568,6 +41085,27 @@
         <v>490</v>
       </c>
     </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="2">
+        <v>43923</v>
+      </c>
+      <c r="B41" s="3">
+        <f>Dati!J41</f>
+        <v>18278</v>
+      </c>
+      <c r="C41">
+        <f t="shared" ref="C41" si="15">B41-B40</f>
+        <v>1431</v>
+      </c>
+      <c r="D41">
+        <f t="shared" ref="D41" si="16">C41-C40</f>
+        <v>313</v>
+      </c>
+      <c r="E41">
+        <f t="shared" ref="E41" si="17">D41-D40</f>
+        <v>304</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0.39370078740157505" bottom="0.39370078740157505" header="0" footer="0"/>
   <headerFooter>
@@ -40580,10 +41118,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:E40"/>
+  <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39:E40"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="F45" sqref="F45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -41385,6 +41923,27 @@
         <v>-135</v>
       </c>
     </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="2">
+        <v>43923</v>
+      </c>
+      <c r="B41" s="3">
+        <f>Dati!K41</f>
+        <v>13915</v>
+      </c>
+      <c r="C41">
+        <f t="shared" ref="C41" si="15">B41-B40</f>
+        <v>760</v>
+      </c>
+      <c r="D41">
+        <f t="shared" ref="D41" si="16">C41-C40</f>
+        <v>33</v>
+      </c>
+      <c r="E41">
+        <f t="shared" ref="E41" si="17">D41-D40</f>
+        <v>143</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0.39370078740157505" bottom="0.39370078740157505" header="0" footer="0"/>
   <headerFooter>
@@ -41397,10 +41956,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:E40"/>
+  <dimension ref="A1:E41"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39:E40"/>
+      <selection activeCell="Q43" sqref="Q43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -42202,6 +42761,27 @@
         <v>-171</v>
       </c>
     </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="2">
+        <v>43923</v>
+      </c>
+      <c r="B41" s="3">
+        <f>Dati!E41</f>
+        <v>32593</v>
+      </c>
+      <c r="C41">
+        <f t="shared" ref="C41" si="15">B41-B40</f>
+        <v>155</v>
+      </c>
+      <c r="D41">
+        <f t="shared" ref="D41" si="16">C41-C40</f>
+        <v>-68</v>
+      </c>
+      <c r="E41">
+        <f t="shared" ref="E41" si="17">D41-D40</f>
+        <v>148</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0.39370078740157505" bottom="0.39370078740157505" header="0" footer="0"/>
   <headerFooter>
@@ -42214,10 +42794,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:E40"/>
+  <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G39" sqref="G39"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="K44" sqref="K44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -43020,6 +43600,27 @@
         <v>371</v>
       </c>
     </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="2">
+        <v>43923</v>
+      </c>
+      <c r="B41" s="3">
+        <f>Dati!G41</f>
+        <v>83049</v>
+      </c>
+      <c r="C41">
+        <f t="shared" ref="C41" si="15">B41-B40</f>
+        <v>2477</v>
+      </c>
+      <c r="D41">
+        <f t="shared" ref="D41" si="16">C41-C40</f>
+        <v>-460</v>
+      </c>
+      <c r="E41">
+        <f t="shared" ref="E41" si="17">D41-D40</f>
+        <v>-1290</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0.39370078740157505" bottom="0.39370078740157505" header="0" footer="0"/>
   <headerFooter>
@@ -43032,10 +43633,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:E40"/>
+  <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G41" sqref="G41"/>
+    <sheetView topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="F42" sqref="F42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -43837,6 +44438,27 @@
         <v>542</v>
       </c>
     </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="2">
+        <v>43923</v>
+      </c>
+      <c r="B41" s="3">
+        <f>Dati!F41</f>
+        <v>50456</v>
+      </c>
+      <c r="C41">
+        <f t="shared" ref="C41" si="15">B41-B40</f>
+        <v>2322</v>
+      </c>
+      <c r="D41">
+        <f t="shared" ref="D41" si="16">C41-C40</f>
+        <v>-392</v>
+      </c>
+      <c r="E41">
+        <f t="shared" ref="E41" si="17">D41-D40</f>
+        <v>-1438</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0.39370078740157505" bottom="0.39370078740157505" header="0" footer="0"/>
   <headerFooter>
@@ -43849,10 +44471,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:N40"/>
+  <dimension ref="A1:N41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="N42" sqref="N42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -45245,6 +45867,42 @@
         <v>14.8815251660901</v>
       </c>
     </row>
+    <row r="41" spans="1:11">
+      <c r="A41" s="2">
+        <v>43923</v>
+      </c>
+      <c r="B41" s="10">
+        <v>39</v>
+      </c>
+      <c r="C41" s="3">
+        <f>Dati!M41</f>
+        <v>581232</v>
+      </c>
+      <c r="D41">
+        <f t="shared" ref="D41" si="20">C41-C40</f>
+        <v>39809</v>
+      </c>
+      <c r="E41">
+        <f t="shared" ref="E41" si="21">D41-D40</f>
+        <v>5354</v>
+      </c>
+      <c r="H41" s="5">
+        <f>C41/Casi_totali!B41</f>
+        <v>5.0435778622377256</v>
+      </c>
+      <c r="I41" s="5">
+        <f>C41/Positivi!B41</f>
+        <v>6.9986634396561067</v>
+      </c>
+      <c r="J41" s="6">
+        <f t="shared" ref="J41" si="22">100/H41</f>
+        <v>19.827194648608472</v>
+      </c>
+      <c r="K41" s="6">
+        <f t="shared" ref="K41" si="23">100/I41</f>
+        <v>14.288442480799405</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.70000000000000007" right="0.70000000000000007" top="0.75" bottom="0.75" header="0.30000000000000004" footer="0.30000000000000004"/>
   <pageSetup paperSize="0" fitToWidth="0" fitToHeight="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>

--- a/covid_ita.xlsx
+++ b/covid_ita.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carpaneto\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{869928B0-AE4E-416C-A0D0-94FD3CA7B397}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0D57D11-0AD6-45B6-A353-F13576E029B1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="40">
   <si>
     <t>data</t>
   </si>
@@ -158,6 +158,9 @@
   </si>
   <si>
     <t>nuovi positivi</t>
+  </si>
+  <si>
+    <t>err stima'</t>
   </si>
 </sst>
 </file>
@@ -382,7 +385,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -421,6 +424,9 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="18">
@@ -619,6 +625,9 @@
                 <c:pt idx="38">
                   <c:v>43923</c:v>
                 </c:pt>
+                <c:pt idx="39">
+                  <c:v>43924</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -744,6 +753,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>115242</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>119827</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -905,6 +917,9 @@
                 <c:pt idx="38">
                   <c:v>43923</c:v>
                 </c:pt>
+                <c:pt idx="39">
+                  <c:v>43924</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -1027,6 +1042,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>4668</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>4585</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1184,6 +1202,9 @@
                 <c:pt idx="38">
                   <c:v>43923</c:v>
                 </c:pt>
+                <c:pt idx="39">
+                  <c:v>43924</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -1303,6 +1324,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>-114</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-83</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1464,6 +1488,9 @@
                 <c:pt idx="38">
                   <c:v>43923</c:v>
                 </c:pt>
+                <c:pt idx="39">
+                  <c:v>43924</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -1580,6 +1607,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>-843</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>31</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1966,6 +1996,9 @@
                 <c:pt idx="38">
                   <c:v>43923</c:v>
                 </c:pt>
+                <c:pt idx="39">
+                  <c:v>43924</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -2088,6 +2121,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>155</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>216</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2249,6 +2285,9 @@
                 <c:pt idx="38">
                   <c:v>43923</c:v>
                 </c:pt>
+                <c:pt idx="39">
+                  <c:v>43924</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -2368,6 +2407,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>-68</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>61</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2525,6 +2567,9 @@
                 <c:pt idx="38">
                   <c:v>43923</c:v>
                 </c:pt>
+                <c:pt idx="39">
+                  <c:v>43924</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -2641,6 +2686,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>148</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>129</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3036,6 +3084,12 @@
                 <c:pt idx="38">
                   <c:v>43923</c:v>
                 </c:pt>
+                <c:pt idx="39">
+                  <c:v>43924</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>43925</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -3161,6 +3215,12 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>83049</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>85388</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>88274</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3322,6 +3382,12 @@
                 <c:pt idx="38">
                   <c:v>43923</c:v>
                 </c:pt>
+                <c:pt idx="39">
+                  <c:v>43924</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>43925</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -3444,6 +3510,12 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>2477</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2339</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2886</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3601,6 +3673,12 @@
                 <c:pt idx="38">
                   <c:v>43923</c:v>
                 </c:pt>
+                <c:pt idx="39">
+                  <c:v>43924</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>43925</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -3720,6 +3798,12 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>-460</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-138</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>547</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3881,6 +3965,12 @@
                 <c:pt idx="38">
                   <c:v>43923</c:v>
                 </c:pt>
+                <c:pt idx="39">
+                  <c:v>43924</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>43925</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -3997,6 +4087,12 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>-1290</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>322</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>685</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4262,10 +4358,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Positivi!$A$3:$A$42</c:f>
+              <c:f>Positivi!$A$3:$A$44</c:f>
               <c:numCache>
                 <c:formatCode>d/m;@</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>43885.75</c:v>
                 </c:pt>
@@ -4382,16 +4478,22 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>43923</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>43924</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>43925</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Positivi!$C$3:$C$42</c:f>
+              <c:f>Positivi!$C$3:$C$44</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="1">
                   <c:v>90</c:v>
                 </c:pt>
@@ -4505,6 +4607,12 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>2477</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2339</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2886</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4545,10 +4653,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Positivi!$A$3:$A$42</c:f>
+              <c:f>Positivi!$A$3:$A$44</c:f>
               <c:numCache>
                 <c:formatCode>d/m;@</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>43885.75</c:v>
                 </c:pt>
@@ -4665,16 +4773,22 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>43923</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>43924</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>43925</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Positivi!$D$3:$D$42</c:f>
+              <c:f>Positivi!$D$3:$D$44</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="2">
                   <c:v>-16</c:v>
                 </c:pt>
@@ -4785,6 +4899,12 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>-460</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-138</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>547</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4821,10 +4941,10 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>Positivi!$A$3:$A$42</c:f>
+              <c:f>Positivi!$A$3:$A$44</c:f>
               <c:numCache>
                 <c:formatCode>d/m;@</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>43885.75</c:v>
                 </c:pt>
@@ -4941,16 +5061,22 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>43923</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>43924</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>43925</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Positivi!$E$3:$E$42</c:f>
+              <c:f>Positivi!$E$3:$E$44</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="3">
                   <c:v>145</c:v>
                 </c:pt>
@@ -5058,6 +5184,12 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>-1290</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>322</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>685</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5357,10 +5489,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Positivi!$A$3:$A$43</c:f>
+              <c:f>Positivi!$A$3:$A$48</c:f>
               <c:numCache>
                 <c:formatCode>d/m;@</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>43885.75</c:v>
                 </c:pt>
@@ -5477,16 +5609,22 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>43923</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>43924</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>43925</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Positivi!$B$3:$B$43</c:f>
+              <c:f>Positivi!$B$3:$B$48</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>221</c:v>
                 </c:pt>
@@ -5603,6 +5741,12 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>83049</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>85388</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>88274</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5967,6 +6111,12 @@
                 <c:pt idx="38">
                   <c:v>43923</c:v>
                 </c:pt>
+                <c:pt idx="39">
+                  <c:v>43924</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>43925</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -6092,6 +6242,12 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>50456</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>52579</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>55270</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6253,6 +6409,12 @@
                 <c:pt idx="38">
                   <c:v>43923</c:v>
                 </c:pt>
+                <c:pt idx="39">
+                  <c:v>43924</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>43925</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -6375,6 +6537,12 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>2322</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2123</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2691</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6532,6 +6700,12 @@
                 <c:pt idx="38">
                   <c:v>43923</c:v>
                 </c:pt>
+                <c:pt idx="39">
+                  <c:v>43924</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>43925</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -6651,6 +6825,12 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>-392</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-199</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>568</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6812,6 +6992,12 @@
                 <c:pt idx="38">
                   <c:v>43923</c:v>
                 </c:pt>
+                <c:pt idx="39">
+                  <c:v>43924</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>43925</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -6928,6 +7114,12 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>-1438</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>193</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>767</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7314,6 +7506,12 @@
                 <c:pt idx="38">
                   <c:v>43923</c:v>
                 </c:pt>
+                <c:pt idx="39">
+                  <c:v>43924</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>43925</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -7436,6 +7634,12 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>2322</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2123</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2691</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7597,6 +7801,12 @@
                 <c:pt idx="38">
                   <c:v>43923</c:v>
                 </c:pt>
+                <c:pt idx="39">
+                  <c:v>43924</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>43925</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -7716,6 +7926,12 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>-392</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-199</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>568</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7873,6 +8089,12 @@
                 <c:pt idx="38">
                   <c:v>43923</c:v>
                 </c:pt>
+                <c:pt idx="39">
+                  <c:v>43924</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>43925</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -7989,6 +8211,12 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>-1438</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>193</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>767</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10314,6 +10542,9 @@
                 <c:pt idx="38">
                   <c:v>43923</c:v>
                 </c:pt>
+                <c:pt idx="39">
+                  <c:v>43924</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -10439,6 +10670,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>19.827194648608472</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>19.331643674507824</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10600,6 +10834,12 @@
                 <c:pt idx="39">
                   <c:v>43923</c:v>
                 </c:pt>
+                <c:pt idx="40">
+                  <c:v>43924</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>43925</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -10725,6 +10965,12 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>14.288442480799405</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>13.775613092866166</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>13.431341521307804</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11132,6 +11378,9 @@
                 <c:pt idx="38">
                   <c:v>43923</c:v>
                 </c:pt>
+                <c:pt idx="39">
+                  <c:v>43924</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -11254,6 +11503,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>4668</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>4585</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11415,6 +11667,9 @@
                 <c:pt idx="38">
                   <c:v>43923</c:v>
                 </c:pt>
+                <c:pt idx="39">
+                  <c:v>43924</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -11534,6 +11789,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>-114</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-83</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11691,6 +11949,9 @@
                 <c:pt idx="38">
                   <c:v>43923</c:v>
                 </c:pt>
+                <c:pt idx="39">
+                  <c:v>43924</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -11807,6 +12068,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>-843</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>31</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12337,6 +12601,12 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>83049</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>85388</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>88274</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13535,10 +13805,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Analisi-pos'!$A$3:$A$42</c:f>
+              <c:f>'Analisi-pos'!$A$3:$A$44</c:f>
               <c:numCache>
                 <c:formatCode>d/m;@</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>43885.75</c:v>
                 </c:pt>
@@ -13658,16 +13928,22 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>43924</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>43925</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>43926</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Analisi-pos'!$C$3:$C$42</c:f>
+              <c:f>'Analisi-pos'!$C$3:$C$44</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>221</c:v>
                 </c:pt>
@@ -13784,6 +14060,12 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>83049</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>85388</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>88274</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14292,6 +14574,12 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>83049</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>85388</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>88274</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15802,6 +16090,12 @@
                 <c:pt idx="38">
                   <c:v>-1366.3766850250686</c:v>
                 </c:pt>
+                <c:pt idx="39">
+                  <c:v>-1135.4557433599402</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-111.61516319203656</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -17509,6 +17803,12 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>13915</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>14681</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>15362</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -18968,6 +19268,12 @@
                 <c:pt idx="38">
                   <c:v>-384.64045306876142</c:v>
                 </c:pt>
+                <c:pt idx="39">
+                  <c:v>-369.3685599140681</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-385.87707250958738</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -19280,10 +19586,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Analisi-dead'!$A$4:$A$42</c:f>
+              <c:f>'Analisi-dead'!$A$4:$A$44</c:f>
               <c:numCache>
                 <c:formatCode>d/m;@</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>43886</c:v>
                 </c:pt>
@@ -19400,16 +19706,22 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>43924</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>43925</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>43926</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Analisi-dead'!$D$4:$D$42</c:f>
+              <c:f>'Analisi-dead'!$D$4:$D$44</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>3</c:v>
                 </c:pt>
@@ -19523,6 +19835,12 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>760</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>766</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>681</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -20931,6 +21249,12 @@
                 <c:pt idx="38">
                   <c:v>43923</c:v>
                 </c:pt>
+                <c:pt idx="39">
+                  <c:v>43924</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>43925</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -21056,6 +21380,12 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>4053</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>4068</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>3994</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -22188,6 +22518,12 @@
                 <c:pt idx="38">
                   <c:v>43923</c:v>
                 </c:pt>
+                <c:pt idx="39">
+                  <c:v>43924</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>43925</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -22313,6 +22649,12 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>18278</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>19758</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>20996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -22474,6 +22816,12 @@
                 <c:pt idx="38">
                   <c:v>43923</c:v>
                 </c:pt>
+                <c:pt idx="39">
+                  <c:v>43924</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>43925</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -22596,6 +22944,12 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>1431</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1480</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1238</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -22753,6 +23107,12 @@
                 <c:pt idx="38">
                   <c:v>43923</c:v>
                 </c:pt>
+                <c:pt idx="39">
+                  <c:v>43924</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>43925</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -22872,6 +23232,12 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>313</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-242</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -23033,6 +23399,12 @@
                 <c:pt idx="38">
                   <c:v>43923</c:v>
                 </c:pt>
+                <c:pt idx="39">
+                  <c:v>43924</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>43925</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -23149,6 +23521,12 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>304</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-264</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-291</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -23544,6 +23922,12 @@
                 <c:pt idx="38">
                   <c:v>43923</c:v>
                 </c:pt>
+                <c:pt idx="39">
+                  <c:v>43924</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>43925</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -23666,6 +24050,12 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>1431</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1480</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1238</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -23827,6 +24217,12 @@
                 <c:pt idx="38">
                   <c:v>43923</c:v>
                 </c:pt>
+                <c:pt idx="39">
+                  <c:v>43924</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>43925</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -23946,6 +24342,12 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>313</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-242</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -24103,6 +24505,12 @@
                 <c:pt idx="38">
                   <c:v>43923</c:v>
                 </c:pt>
+                <c:pt idx="39">
+                  <c:v>43924</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>43925</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -24219,6 +24627,12 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>304</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-264</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-291</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -24614,6 +25028,12 @@
                 <c:pt idx="38">
                   <c:v>43923</c:v>
                 </c:pt>
+                <c:pt idx="39">
+                  <c:v>43924</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>43925</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -24736,6 +25156,12 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>760</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>766</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>681</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -24897,6 +25323,12 @@
                 <c:pt idx="38">
                   <c:v>43923</c:v>
                 </c:pt>
+                <c:pt idx="39">
+                  <c:v>43924</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>43925</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -25016,6 +25448,12 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-85</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -25173,6 +25611,12 @@
                 <c:pt idx="38">
                   <c:v>43923</c:v>
                 </c:pt>
+                <c:pt idx="39">
+                  <c:v>43924</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>43925</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -25289,6 +25733,12 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>143</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-27</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-91</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -25684,6 +26134,12 @@
                 <c:pt idx="38">
                   <c:v>43923</c:v>
                 </c:pt>
+                <c:pt idx="39">
+                  <c:v>43924</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>43925</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -25809,6 +26265,12 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>13915</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>14681</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>15362</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -25970,6 +26432,12 @@
                 <c:pt idx="38">
                   <c:v>43923</c:v>
                 </c:pt>
+                <c:pt idx="39">
+                  <c:v>43924</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>43925</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -26092,6 +26560,12 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>760</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>766</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>681</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -26249,6 +26723,12 @@
                 <c:pt idx="38">
                   <c:v>43923</c:v>
                 </c:pt>
+                <c:pt idx="39">
+                  <c:v>43924</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>43925</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -26368,6 +26848,12 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-85</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -26529,6 +27015,12 @@
                 <c:pt idx="38">
                   <c:v>43923</c:v>
                 </c:pt>
+                <c:pt idx="39">
+                  <c:v>43924</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>43925</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -26645,6 +27137,12 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>143</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-27</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-91</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -27031,6 +27529,12 @@
                 <c:pt idx="38">
                   <c:v>43923</c:v>
                 </c:pt>
+                <c:pt idx="39">
+                  <c:v>43924</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>43925</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -27156,6 +27660,12 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>32593</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>32809</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>33004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -27317,6 +27827,12 @@
                 <c:pt idx="38">
                   <c:v>43923</c:v>
                 </c:pt>
+                <c:pt idx="39">
+                  <c:v>43924</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>43925</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -27439,6 +27955,12 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>155</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>216</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>195</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -27596,6 +28118,12 @@
                 <c:pt idx="38">
                   <c:v>43923</c:v>
                 </c:pt>
+                <c:pt idx="39">
+                  <c:v>43924</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>43925</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -27715,6 +28243,12 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>-68</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-21</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -27876,6 +28410,12 @@
                 <c:pt idx="38">
                   <c:v>43923</c:v>
                 </c:pt>
+                <c:pt idx="39">
+                  <c:v>43924</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>43925</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -27992,6 +28532,12 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>148</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-82</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -30027,13 +30573,13 @@
   </xdr:absoluteAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>22</xdr:col>
+      <xdr:col>23</xdr:col>
       <xdr:colOff>605790</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>102870</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
+      <xdr:col>30</xdr:col>
       <xdr:colOff>483870</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>41910</xdr:rowOff>
@@ -30063,13 +30609,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>571501</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>137160</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>655321</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>123509</xdr:rowOff>
@@ -30106,13 +30652,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>23</xdr:col>
+      <xdr:col>24</xdr:col>
       <xdr:colOff>468630</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>41910</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>30</xdr:col>
+      <xdr:col>31</xdr:col>
       <xdr:colOff>346710</xdr:colOff>
       <xdr:row>36</xdr:row>
       <xdr:rowOff>156210</xdr:rowOff>
@@ -31083,10 +31629,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M41"/>
+  <dimension ref="A1:O43"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40:B41"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A42" sqref="A42:B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -32277,7 +32823,7 @@
         <v>296964</v>
       </c>
     </row>
-    <row r="33" spans="1:13">
+    <row r="33" spans="1:15">
       <c r="A33" s="2">
         <v>43915</v>
       </c>
@@ -32316,7 +32862,7 @@
         <v>324445</v>
       </c>
     </row>
-    <row r="34" spans="1:13">
+    <row r="34" spans="1:15">
       <c r="A34" s="2">
         <v>43916</v>
       </c>
@@ -32355,7 +32901,7 @@
         <v>361060</v>
       </c>
     </row>
-    <row r="35" spans="1:13">
+    <row r="35" spans="1:15">
       <c r="A35" s="2">
         <v>43917</v>
       </c>
@@ -32394,7 +32940,7 @@
         <v>394079</v>
       </c>
     </row>
-    <row r="36" spans="1:13">
+    <row r="36" spans="1:15">
       <c r="A36" s="2">
         <v>43918</v>
       </c>
@@ -32433,7 +32979,7 @@
         <v>429526</v>
       </c>
     </row>
-    <row r="37" spans="1:13">
+    <row r="37" spans="1:15">
       <c r="A37" s="2">
         <v>43919</v>
       </c>
@@ -32472,7 +33018,7 @@
         <v>454030</v>
       </c>
     </row>
-    <row r="38" spans="1:13">
+    <row r="38" spans="1:15">
       <c r="A38" s="2">
         <v>43920</v>
       </c>
@@ -32511,7 +33057,7 @@
         <v>477359</v>
       </c>
     </row>
-    <row r="39" spans="1:13">
+    <row r="39" spans="1:15">
       <c r="A39" s="2">
         <v>43921</v>
       </c>
@@ -32552,7 +33098,7 @@
         <v>506968</v>
       </c>
     </row>
-    <row r="40" spans="1:13">
+    <row r="40" spans="1:15">
       <c r="A40" s="2">
         <v>43922</v>
       </c>
@@ -32593,7 +33139,7 @@
         <v>541423</v>
       </c>
     </row>
-    <row r="41" spans="1:13">
+    <row r="41" spans="1:15">
       <c r="A41" s="2">
         <v>43923</v>
       </c>
@@ -32633,6 +33179,90 @@
       <c r="M41">
         <v>581232</v>
       </c>
+    </row>
+    <row r="42" spans="1:15">
+      <c r="A42" s="2">
+        <v>43924</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C42" s="3">
+        <v>28741</v>
+      </c>
+      <c r="D42" s="3">
+        <v>4068</v>
+      </c>
+      <c r="E42" s="3">
+        <v>32809</v>
+      </c>
+      <c r="F42" s="3">
+        <v>52579</v>
+      </c>
+      <c r="G42" s="3">
+        <v>85388</v>
+      </c>
+      <c r="H42" s="3">
+        <v>2339</v>
+      </c>
+      <c r="I42" s="3">
+        <v>4585</v>
+      </c>
+      <c r="J42" s="3">
+        <v>19758</v>
+      </c>
+      <c r="K42" s="3">
+        <v>14681</v>
+      </c>
+      <c r="L42" s="3">
+        <v>119827</v>
+      </c>
+      <c r="M42">
+        <v>619849</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15">
+      <c r="A43" s="2">
+        <v>43925</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C43" s="19">
+        <v>29010</v>
+      </c>
+      <c r="D43" s="19">
+        <v>3994</v>
+      </c>
+      <c r="E43" s="19">
+        <v>33004</v>
+      </c>
+      <c r="F43" s="19">
+        <v>55270</v>
+      </c>
+      <c r="G43" s="19">
+        <v>88274</v>
+      </c>
+      <c r="H43" s="19">
+        <v>2886</v>
+      </c>
+      <c r="I43" s="19">
+        <v>4805</v>
+      </c>
+      <c r="J43" s="19">
+        <v>20996</v>
+      </c>
+      <c r="K43" s="19">
+        <v>15362</v>
+      </c>
+      <c r="L43" s="19">
+        <v>124632</v>
+      </c>
+      <c r="M43" s="19">
+        <v>657224</v>
+      </c>
+      <c r="N43" s="19"/>
+      <c r="O43" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0.39370078740157505" bottom="0.39370078740157505" header="0" footer="0"/>
@@ -32647,8 +33277,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:K149"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="J40" sqref="J40"/>
+    <sheetView topLeftCell="N19" workbookViewId="0">
+      <selection activeCell="AC45" sqref="AC45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -32750,7 +33380,7 @@
         <v>154.19235441284661</v>
       </c>
       <c r="H4" s="11">
-        <f t="shared" ref="H4:H41" si="2">C4-E4</f>
+        <f t="shared" ref="H4:H43" si="2">C4-E4</f>
         <v>-683.65303461646738</v>
       </c>
       <c r="J4" s="4" t="s">
@@ -33979,6 +34609,14 @@
       <c r="B42" s="10">
         <v>40</v>
       </c>
+      <c r="C42" s="3">
+        <f>Dati!G42</f>
+        <v>85388</v>
+      </c>
+      <c r="D42">
+        <f t="shared" ref="D42" si="12">C42-C41</f>
+        <v>2339</v>
+      </c>
       <c r="E42" s="11">
         <f t="shared" si="5"/>
         <v>86523.45574335994</v>
@@ -33991,6 +34629,10 @@
         <f t="shared" si="4"/>
         <v>2108.0790583348717</v>
       </c>
+      <c r="H42" s="11">
+        <f t="shared" si="2"/>
+        <v>-1135.4557433599402</v>
+      </c>
     </row>
     <row r="43" spans="1:8">
       <c r="A43" s="2">
@@ -33999,6 +34641,14 @@
       <c r="B43" s="10">
         <v>41</v>
       </c>
+      <c r="C43" s="3">
+        <f>Dati!G43</f>
+        <v>88274</v>
+      </c>
+      <c r="D43">
+        <f t="shared" ref="D43" si="13">C43-C42</f>
+        <v>2886</v>
+      </c>
       <c r="E43" s="11">
         <f t="shared" si="5"/>
         <v>88385.615163192037</v>
@@ -34011,6 +34661,10 @@
         <f t="shared" si="4"/>
         <v>1862.1594198320963</v>
       </c>
+      <c r="H43" s="11">
+        <f t="shared" si="2"/>
+        <v>-111.61516319203656</v>
+      </c>
     </row>
     <row r="44" spans="1:8">
       <c r="A44" s="2">
@@ -34520,7 +35174,7 @@
         <v>0</v>
       </c>
       <c r="E67" s="11">
-        <f t="shared" ref="E67:E98" si="12">$K$2/(1+$K$5*EXP(-$K$4*B67))</f>
+        <f t="shared" ref="E67:E98" si="14">$K$2/(1+$K$5*EXP(-$K$4*B67))</f>
         <v>99778.318568093659</v>
       </c>
       <c r="F67" s="11">
@@ -34544,11 +35198,11 @@
         <v>0</v>
       </c>
       <c r="E68" s="11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>99812.9103364779</v>
       </c>
       <c r="F68" s="11">
-        <f t="shared" ref="F68:F99" si="13">(E68-E67)*10</f>
+        <f t="shared" ref="F68:F99" si="15">(E68-E67)*10</f>
         <v>345.91768384241732</v>
       </c>
       <c r="G68" s="11">
@@ -34564,19 +35218,19 @@
         <v>67</v>
       </c>
       <c r="D69">
-        <f t="shared" ref="D69:D132" si="14">C69-C68</f>
+        <f t="shared" ref="D69:D132" si="16">C69-C68</f>
         <v>0</v>
       </c>
       <c r="E69" s="11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>99842.112853404673</v>
       </c>
       <c r="F69" s="11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>292.0251692677266</v>
       </c>
       <c r="G69" s="11">
-        <f t="shared" ref="G69:G132" si="15">E69-E68</f>
+        <f t="shared" ref="G69:G132" si="17">E69-E68</f>
         <v>29.20251692677266</v>
       </c>
     </row>
@@ -34588,19 +35242,19 @@
         <v>68</v>
       </c>
       <c r="D70">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="E70" s="11">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="E70" s="11">
-        <f t="shared" si="12"/>
         <v>99866.763282184605</v>
       </c>
       <c r="F70" s="11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>246.50428779932554</v>
       </c>
       <c r="G70" s="11">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>24.650428779932554</v>
       </c>
     </row>
@@ -34612,19 +35266,19 @@
         <v>69</v>
       </c>
       <c r="D71">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="E71" s="11">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="E71" s="11">
-        <f t="shared" si="12"/>
         <v>99887.569450081472</v>
       </c>
       <c r="F71" s="11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>208.061678968661</v>
       </c>
       <c r="G71" s="11">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>20.8061678968661</v>
       </c>
     </row>
@@ -34636,19 +35290,19 @@
         <v>70</v>
       </c>
       <c r="D72">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="E72" s="11">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="E72" s="11">
-        <f t="shared" si="12"/>
         <v>99905.129625499118</v>
       </c>
       <c r="F72" s="11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>175.60175417645951</v>
       </c>
       <c r="G72" s="11">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>17.560175417645951</v>
       </c>
     </row>
@@ -34660,19 +35314,19 @@
         <v>71</v>
       </c>
       <c r="D73">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="E73" s="11">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="E73" s="11">
-        <f t="shared" si="12"/>
         <v>99919.949330119241</v>
       </c>
       <c r="F73" s="11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>148.19704620123957</v>
       </c>
       <c r="G73" s="11">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>14.819704620123957</v>
       </c>
     </row>
@@ -34684,19 +35338,19 @@
         <v>72</v>
       </c>
       <c r="D74">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="E74" s="11">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="E74" s="11">
-        <f t="shared" si="12"/>
         <v>99932.45561327484</v>
       </c>
       <c r="F74" s="11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>125.06283155598794</v>
       </c>
       <c r="G74" s="11">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>12.506283155598794</v>
       </c>
     </row>
@@ -34708,19 +35362,19 @@
         <v>73</v>
       </c>
       <c r="D75">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="E75" s="11">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="E75" s="11">
-        <f t="shared" si="12"/>
         <v>99943.009159377063</v>
       </c>
       <c r="F75" s="11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>105.53546102222754</v>
       </c>
       <c r="G75" s="11">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>10.553546102222754</v>
       </c>
     </row>
@@ -34732,19 +35386,19 @@
         <v>74</v>
       </c>
       <c r="D76">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="E76" s="11">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="E76" s="11">
-        <f t="shared" si="12"/>
         <v>99951.914548641449</v>
       </c>
       <c r="F76" s="11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>89.053892643860308</v>
       </c>
       <c r="G76" s="11">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>8.9053892643860308</v>
       </c>
     </row>
@@ -34756,19 +35410,19 @@
         <v>75</v>
       </c>
       <c r="D77">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="E77" s="11">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="E77" s="11">
-        <f t="shared" si="12"/>
         <v>99959.428946590851</v>
       </c>
       <c r="F77" s="11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>75.14397949402337</v>
       </c>
       <c r="G77" s="11">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>7.514397949402337</v>
       </c>
     </row>
@@ -34780,19 +35434,19 @@
         <v>76</v>
       </c>
       <c r="D78">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="E78" s="11">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="E78" s="11">
-        <f t="shared" si="12"/>
         <v>99965.769458531679</v>
       </c>
       <c r="F78" s="11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>63.405119408271275</v>
       </c>
       <c r="G78" s="11">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>6.3405119408271275</v>
       </c>
     </row>
@@ -34804,19 +35458,19 @@
         <v>77</v>
       </c>
       <c r="D79">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="E79" s="11">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="E79" s="11">
-        <f t="shared" si="12"/>
         <v>99971.119350980123</v>
       </c>
       <c r="F79" s="11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>53.498924484447343</v>
       </c>
       <c r="G79" s="11">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>5.3498924484447343</v>
       </c>
     </row>
@@ -34828,19 +35482,19 @@
         <v>78</v>
       </c>
       <c r="D80">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="E80" s="11">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="E80" s="11">
-        <f t="shared" si="12"/>
         <v>99975.633312370497</v>
       </c>
       <c r="F80" s="11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>45.139613903738791</v>
       </c>
       <c r="G80" s="11">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>4.5139613903738791</v>
       </c>
     </row>
@@ -34852,19 +35506,19 @@
         <v>79</v>
       </c>
       <c r="D81">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="E81" s="11">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="E81" s="11">
-        <f t="shared" si="12"/>
         <v>99979.441899815793</v>
       </c>
       <c r="F81" s="11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>38.085874452954158</v>
       </c>
       <c r="G81" s="11">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>3.8085874452954158</v>
       </c>
     </row>
@@ -34876,19 +35530,19 @@
         <v>80</v>
       </c>
       <c r="D82">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="E82" s="11">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="E82" s="11">
-        <f t="shared" si="12"/>
         <v>99982.655296727666</v>
       </c>
       <c r="F82" s="11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>32.133969118731329</v>
       </c>
       <c r="G82" s="11">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>3.2133969118731329</v>
       </c>
     </row>
@@ -34900,19 +35554,19 @@
         <v>81</v>
       </c>
       <c r="D83">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="E83" s="11">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="E83" s="11">
-        <f t="shared" si="12"/>
         <v>99985.366487294348</v>
       </c>
       <c r="F83" s="11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>27.111905666824896</v>
       </c>
       <c r="G83" s="11">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>2.7111905666824896</v>
       </c>
     </row>
@@ -34924,19 +35578,19 @@
         <v>82</v>
       </c>
       <c r="D84">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="E84" s="11">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="E84" s="11">
-        <f t="shared" si="12"/>
         <v>99987.6539377421</v>
       </c>
       <c r="F84" s="11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>22.874504477513256</v>
       </c>
       <c r="G84" s="11">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>2.2874504477513256</v>
       </c>
     </row>
@@ -34948,19 +35602,19 @@
         <v>83</v>
       </c>
       <c r="D85">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="E85" s="11">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="E85" s="11">
-        <f t="shared" si="12"/>
         <v>99989.583860605097</v>
       </c>
       <c r="F85" s="11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>19.299228629970457</v>
       </c>
       <c r="G85" s="11">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1.9299228629970457</v>
       </c>
     </row>
@@ -34972,19 +35626,19 @@
         <v>84</v>
       </c>
       <c r="D86">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="E86" s="11">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="E86" s="11">
-        <f t="shared" si="12"/>
         <v>99991.212126565239</v>
       </c>
       <c r="F86" s="11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>16.282659601420164</v>
       </c>
       <c r="G86" s="11">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1.6282659601420164</v>
       </c>
     </row>
@@ -34996,19 +35650,19 @@
         <v>85</v>
       </c>
       <c r="D87">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="E87" s="11">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="E87" s="11">
-        <f t="shared" si="12"/>
         <v>99992.585878511192</v>
       </c>
       <c r="F87" s="11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>13.737519459536998</v>
       </c>
       <c r="G87" s="11">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1.3737519459536998</v>
       </c>
     </row>
@@ -35020,19 +35674,19 @@
         <v>86</v>
       </c>
       <c r="D88">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="E88" s="11">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="E88" s="11">
-        <f t="shared" si="12"/>
         <v>99993.744894051735</v>
       </c>
       <c r="F88" s="11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>11.590155405428959</v>
       </c>
       <c r="G88" s="11">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1.1590155405428959</v>
       </c>
     </row>
@@ -35044,19 +35698,19 @@
         <v>87</v>
       </c>
       <c r="D89">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="E89" s="11">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="E89" s="11">
-        <f t="shared" si="12"/>
         <v>99994.722735581352</v>
       </c>
       <c r="F89" s="11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>9.7784152961685322</v>
       </c>
       <c r="G89" s="11">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0.97784152961685322</v>
       </c>
     </row>
@@ -35068,19 +35722,19 @@
         <v>88</v>
       </c>
       <c r="D90">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="E90" s="11">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="E90" s="11">
-        <f t="shared" si="12"/>
         <v>99995.54772094982</v>
       </c>
       <c r="F90" s="11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>8.2498536846833304</v>
       </c>
       <c r="G90" s="11">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0.82498536846833304</v>
       </c>
     </row>
@@ -35092,19 +35746,19 @@
         <v>89</v>
       </c>
       <c r="D91">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="E91" s="11">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="E91" s="11">
-        <f t="shared" si="12"/>
         <v>99996.243742666353</v>
       </c>
       <c r="F91" s="11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>6.9602171653241385</v>
       </c>
       <c r="G91" s="11">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0.69602171653241385</v>
       </c>
     </row>
@@ -35116,19 +35770,19 @@
         <v>90</v>
       </c>
       <c r="D92">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="E92" s="11">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="E92" s="11">
-        <f t="shared" si="12"/>
         <v>99996.830959235798</v>
       </c>
       <c r="F92" s="11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>5.872165694454452</v>
       </c>
       <c r="G92" s="11">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0.5872165694454452</v>
       </c>
     </row>
@@ -35140,19 +35794,19 @@
         <v>91</v>
       </c>
       <c r="D93">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="E93" s="11">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="E93" s="11">
-        <f t="shared" si="12"/>
         <v>99997.326378558908</v>
       </c>
       <c r="F93" s="11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>4.954193231096724</v>
       </c>
       <c r="G93" s="11">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0.4954193231096724</v>
       </c>
     </row>
@@ -35164,19 +35818,19 @@
         <v>92</v>
       </c>
       <c r="D94">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="E94" s="11">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="E94" s="11">
-        <f t="shared" si="12"/>
         <v>99997.744350229041</v>
       </c>
       <c r="F94" s="11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>4.1797167013282888</v>
       </c>
       <c r="G94" s="11">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0.41797167013282888</v>
       </c>
     </row>
@@ -35188,19 +35842,19 @@
         <v>93</v>
       </c>
       <c r="D95">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="E95" s="11">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="E95" s="11">
-        <f t="shared" si="12"/>
         <v>99998.096980938935</v>
       </c>
       <c r="F95" s="11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>3.5263070989458356</v>
       </c>
       <c r="G95" s="11">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0.35263070989458356</v>
       </c>
     </row>
@@ -35212,19 +35866,19 @@
         <v>94</v>
       </c>
       <c r="D96">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="E96" s="11">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="E96" s="11">
-        <f t="shared" si="12"/>
         <v>99998.394484996315</v>
       </c>
       <c r="F96" s="11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>2.9750405738013797</v>
       </c>
       <c r="G96" s="11">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0.29750405738013797</v>
       </c>
     </row>
@@ -35233,19 +35887,19 @@
         <v>95</v>
       </c>
       <c r="D97">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="E97" s="11">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="E97" s="11">
-        <f t="shared" si="12"/>
         <v>99998.645480079053</v>
       </c>
       <c r="F97" s="11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>2.5099508273706306</v>
       </c>
       <c r="G97" s="11">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0.25099508273706306</v>
       </c>
     </row>
@@ -35254,19 +35908,19 @@
         <v>96</v>
       </c>
       <c r="D98">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="E98" s="11">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="E98" s="11">
-        <f t="shared" si="12"/>
         <v>99998.857236779397</v>
       </c>
       <c r="F98" s="11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>2.117567003442673</v>
       </c>
       <c r="G98" s="11">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0.2117567003442673</v>
       </c>
     </row>
@@ -35275,19 +35929,19 @@
         <v>97</v>
       </c>
       <c r="D99">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="E99" s="11">
-        <f t="shared" ref="E99:E130" si="16">$K$2/(1+$K$5*EXP(-$K$4*B99))</f>
+        <f t="shared" ref="E99:E130" si="18">$K$2/(1+$K$5*EXP(-$K$4*B99))</f>
         <v>99999.035889154664</v>
       </c>
       <c r="F99" s="11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1.7865237526712008</v>
       </c>
       <c r="G99" s="11">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0.17865237526712008</v>
       </c>
     </row>
@@ -35296,19 +35950,19 @@
         <v>98</v>
       </c>
       <c r="D100">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="E100" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>99999.186612374513</v>
       </c>
       <c r="F100" s="11">
-        <f t="shared" ref="F100:F131" si="17">(E100-E99)*10</f>
+        <f t="shared" ref="F100:F131" si="19">(E100-E99)*10</f>
         <v>1.5072321984916925</v>
       </c>
       <c r="G100" s="11">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0.15072321984916925</v>
       </c>
     </row>
@@ -35317,19 +35971,19 @@
         <v>99</v>
       </c>
       <c r="D101">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="E101" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>99999.313772605499</v>
       </c>
       <c r="F101" s="11">
+        <f t="shared" si="19"/>
+        <v>1.2716023098619189</v>
+      </c>
+      <c r="G101" s="11">
         <f t="shared" si="17"/>
-        <v>1.2716023098619189</v>
-      </c>
-      <c r="G101" s="11">
-        <f t="shared" si="15"/>
         <v>0.12716023098619189</v>
       </c>
     </row>
@@ -35338,19 +35992,19 @@
         <v>100</v>
       </c>
       <c r="D102">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="E102" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>99999.421053469981</v>
       </c>
       <c r="F102" s="11">
+        <f t="shared" si="19"/>
+        <v>1.0728086448216345</v>
+      </c>
+      <c r="G102" s="11">
         <f t="shared" si="17"/>
-        <v>1.0728086448216345</v>
-      </c>
-      <c r="G102" s="11">
-        <f t="shared" si="15"/>
         <v>0.10728086448216345</v>
       </c>
     </row>
@@ -35359,19 +36013,19 @@
         <v>101</v>
       </c>
       <c r="D103">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="E103" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>99999.511562739863</v>
       </c>
       <c r="F103" s="11">
+        <f t="shared" si="19"/>
+        <v>0.9050926988129504</v>
+      </c>
+      <c r="G103" s="11">
         <f t="shared" si="17"/>
-        <v>0.9050926988129504</v>
-      </c>
-      <c r="G103" s="11">
-        <f t="shared" si="15"/>
         <v>9.050926988129504E-2</v>
       </c>
     </row>
@@ -35380,19 +36034,19 @@
         <v>102</v>
       </c>
       <c r="D104">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="E104" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>99999.587922353836</v>
       </c>
       <c r="F104" s="11">
+        <f t="shared" si="19"/>
+        <v>0.76359613973181695</v>
+      </c>
+      <c r="G104" s="11">
         <f t="shared" si="17"/>
-        <v>0.76359613973181695</v>
-      </c>
-      <c r="G104" s="11">
-        <f t="shared" si="15"/>
         <v>7.6359613973181695E-2</v>
       </c>
     </row>
@@ -35401,19 +36055,19 @@
         <v>103</v>
       </c>
       <c r="D105">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="E105" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>99999.652344364251</v>
       </c>
       <c r="F105" s="11">
+        <f t="shared" si="19"/>
+        <v>0.64422010415000841</v>
+      </c>
+      <c r="G105" s="11">
         <f t="shared" si="17"/>
-        <v>0.64422010415000841</v>
-      </c>
-      <c r="G105" s="11">
-        <f t="shared" si="15"/>
         <v>6.4422010415000841E-2</v>
       </c>
     </row>
@@ -35422,19 +36076,19 @@
         <v>104</v>
       </c>
       <c r="D106">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="E106" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>99999.706695012428</v>
       </c>
       <c r="F106" s="11">
+        <f t="shared" si="19"/>
+        <v>0.54350648177205585</v>
+      </c>
+      <c r="G106" s="11">
         <f t="shared" si="17"/>
-        <v>0.54350648177205585</v>
-      </c>
-      <c r="G106" s="11">
-        <f t="shared" si="15"/>
         <v>5.4350648177205585E-2</v>
       </c>
     </row>
@@ -35443,19 +36097,19 @@
         <v>105</v>
       </c>
       <c r="D107">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="E107" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>99999.752548787976</v>
       </c>
       <c r="F107" s="11">
+        <f t="shared" si="19"/>
+        <v>0.45853775547584519</v>
+      </c>
+      <c r="G107" s="11">
         <f t="shared" si="17"/>
-        <v>0.45853775547584519</v>
-      </c>
-      <c r="G107" s="11">
-        <f t="shared" si="15"/>
         <v>4.5853775547584519E-2</v>
       </c>
     </row>
@@ -35464,19 +36118,19 @@
         <v>106</v>
       </c>
       <c r="D108">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="E108" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>99999.791234037839</v>
       </c>
       <c r="F108" s="11">
+        <f t="shared" si="19"/>
+        <v>0.38685249863192439</v>
+      </c>
+      <c r="G108" s="11">
         <f t="shared" si="17"/>
-        <v>0.38685249863192439</v>
-      </c>
-      <c r="G108" s="11">
-        <f t="shared" si="15"/>
         <v>3.8685249863192439E-2</v>
       </c>
     </row>
@@ -35485,19 +36139,19 @@
         <v>107</v>
       </c>
       <c r="D109">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="E109" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>99999.823871445347</v>
       </c>
       <c r="F109" s="11">
+        <f t="shared" si="19"/>
+        <v>0.32637407508445904</v>
+      </c>
+      <c r="G109" s="11">
         <f t="shared" si="17"/>
-        <v>0.32637407508445904</v>
-      </c>
-      <c r="G109" s="11">
-        <f t="shared" si="15"/>
         <v>3.2637407508445904E-2</v>
       </c>
     </row>
@@ -35506,19 +36160,19 @@
         <v>108</v>
       </c>
       <c r="D110">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="E110" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>99999.851406494316</v>
       </c>
       <c r="F110" s="11">
+        <f t="shared" si="19"/>
+        <v>0.27535048968275078</v>
+      </c>
+      <c r="G110" s="11">
         <f t="shared" si="17"/>
-        <v>0.27535048968275078</v>
-      </c>
-      <c r="G110" s="11">
-        <f t="shared" si="15"/>
         <v>2.7535048968275078E-2</v>
       </c>
     </row>
@@ -35527,19 +36181,19 @@
         <v>109</v>
       </c>
       <c r="D111">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="E111" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>99999.874636858149</v>
       </c>
       <c r="F111" s="11">
+        <f t="shared" si="19"/>
+        <v>0.23230363833135925</v>
+      </c>
+      <c r="G111" s="11">
         <f t="shared" si="17"/>
-        <v>0.23230363833135925</v>
-      </c>
-      <c r="G111" s="11">
-        <f t="shared" si="15"/>
         <v>2.3230363833135925E-2</v>
       </c>
     </row>
@@ -35548,19 +36202,19 @@
         <v>110</v>
       </c>
       <c r="D112">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="E112" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>99999.894235507207</v>
       </c>
       <c r="F112" s="11">
+        <f t="shared" si="19"/>
+        <v>0.1959864905802533</v>
+      </c>
+      <c r="G112" s="11">
         <f t="shared" si="17"/>
-        <v>0.1959864905802533</v>
-      </c>
-      <c r="G112" s="11">
-        <f t="shared" si="15"/>
         <v>1.959864905802533E-2</v>
       </c>
     </row>
@@ -35569,19 +36223,19 @@
         <v>111</v>
       </c>
       <c r="D113">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="E113" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>99999.910770203816</v>
       </c>
       <c r="F113" s="11">
+        <f t="shared" si="19"/>
+        <v>0.16534696609596722</v>
+      </c>
+      <c r="G113" s="11">
         <f t="shared" si="17"/>
-        <v>0.16534696609596722</v>
-      </c>
-      <c r="G113" s="11">
-        <f t="shared" si="15"/>
         <v>1.6534696609596722E-2</v>
       </c>
     </row>
@@ -35590,19 +36244,19 @@
         <v>112</v>
       </c>
       <c r="D114">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="E114" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>99999.924719949879</v>
       </c>
       <c r="F114" s="11">
+        <f t="shared" si="19"/>
+        <v>0.1394974606228061</v>
+      </c>
+      <c r="G114" s="11">
         <f t="shared" si="17"/>
-        <v>0.1394974606228061</v>
-      </c>
-      <c r="G114" s="11">
-        <f t="shared" si="15"/>
         <v>1.394974606228061E-2</v>
       </c>
     </row>
@@ -35611,19 +36265,19 @@
         <v>113</v>
       </c>
       <c r="D115">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="E115" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>99999.936488862848</v>
       </c>
       <c r="F115" s="11">
+        <f t="shared" si="19"/>
+        <v>0.11768912969273515</v>
+      </c>
+      <c r="G115" s="11">
         <f t="shared" si="17"/>
-        <v>0.11768912969273515</v>
-      </c>
-      <c r="G115" s="11">
-        <f t="shared" si="15"/>
         <v>1.1768912969273515E-2</v>
       </c>
     </row>
@@ -35632,19 +36286,19 @@
         <v>114</v>
       </c>
       <c r="D116">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="E116" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>99999.946417882791</v>
       </c>
       <c r="F116" s="11">
+        <f t="shared" si="19"/>
+        <v>9.9290199432289228E-2</v>
+      </c>
+      <c r="G116" s="11">
         <f t="shared" si="17"/>
-        <v>9.9290199432289228E-2</v>
-      </c>
-      <c r="G116" s="11">
-        <f t="shared" si="15"/>
         <v>9.9290199432289228E-3</v>
       </c>
     </row>
@@ -35653,19 +36307,19 @@
         <v>115</v>
       </c>
       <c r="D117">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="E117" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>99999.954794649122</v>
       </c>
       <c r="F117" s="11">
+        <f t="shared" si="19"/>
+        <v>8.3767663309117779E-2</v>
+      </c>
+      <c r="G117" s="11">
         <f t="shared" si="17"/>
-        <v>8.3767663309117779E-2</v>
-      </c>
-      <c r="G117" s="11">
-        <f t="shared" si="15"/>
         <v>8.3767663309117779E-3</v>
       </c>
     </row>
@@ -35674,19 +36328,19 @@
         <v>116</v>
       </c>
       <c r="D118">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="E118" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>99999.961861833261</v>
       </c>
       <c r="F118" s="11">
+        <f t="shared" si="19"/>
+        <v>7.0671841385774314E-2</v>
+      </c>
+      <c r="G118" s="11">
         <f t="shared" si="17"/>
-        <v>7.0671841385774314E-2</v>
-      </c>
-      <c r="G118" s="11">
-        <f t="shared" si="15"/>
         <v>7.0671841385774314E-3</v>
       </c>
     </row>
@@ -35695,19 +36349,19 @@
         <v>117</v>
       </c>
       <c r="D119">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="E119" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>99999.967824168634</v>
       </c>
       <c r="F119" s="11">
+        <f t="shared" si="19"/>
+        <v>5.9623353736242279E-2</v>
+      </c>
+      <c r="G119" s="11">
         <f t="shared" si="17"/>
-        <v>5.9623353736242279E-2</v>
-      </c>
-      <c r="G119" s="11">
-        <f t="shared" si="15"/>
         <v>5.9623353736242279E-3</v>
       </c>
     </row>
@@ -35716,19 +36370,19 @@
         <v>118</v>
       </c>
       <c r="D120">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="E120" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>99999.972854381762</v>
       </c>
       <c r="F120" s="11">
+        <f t="shared" si="19"/>
+        <v>5.030213127611205E-2</v>
+      </c>
+      <c r="G120" s="11">
         <f t="shared" si="17"/>
-        <v>5.030213127611205E-2</v>
-      </c>
-      <c r="G120" s="11">
-        <f t="shared" si="15"/>
         <v>5.030213127611205E-3</v>
       </c>
     </row>
@@ -35737,19 +36391,19 @@
         <v>119</v>
       </c>
       <c r="D121">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="E121" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>99999.977098196003</v>
       </c>
       <c r="F121" s="11">
+        <f t="shared" si="19"/>
+        <v>4.2438142409082502E-2</v>
+      </c>
+      <c r="G121" s="11">
         <f t="shared" si="17"/>
-        <v>4.2438142409082502E-2</v>
-      </c>
-      <c r="G121" s="11">
-        <f t="shared" si="15"/>
         <v>4.2438142409082502E-3</v>
       </c>
     </row>
@@ -35758,19 +36412,19 @@
         <v>120</v>
       </c>
       <c r="D122">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="E122" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>99999.980678553024</v>
       </c>
       <c r="F122" s="11">
+        <f t="shared" si="19"/>
+        <v>3.5803570208372548E-2</v>
+      </c>
+      <c r="G122" s="11">
         <f t="shared" si="17"/>
-        <v>3.5803570208372548E-2</v>
-      </c>
-      <c r="G122" s="11">
-        <f t="shared" si="15"/>
         <v>3.5803570208372548E-3</v>
       </c>
     </row>
@@ -35779,19 +36433,19 @@
         <v>121</v>
       </c>
       <c r="D123">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="E123" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>99999.983699174496</v>
       </c>
       <c r="F123" s="11">
+        <f t="shared" si="19"/>
+        <v>3.0206214723875746E-2</v>
+      </c>
+      <c r="G123" s="11">
         <f t="shared" si="17"/>
-        <v>3.0206214723875746E-2</v>
-      </c>
-      <c r="G123" s="11">
-        <f t="shared" si="15"/>
         <v>3.0206214723875746E-3</v>
       </c>
     </row>
@@ -35800,19 +36454,19 @@
         <v>122</v>
       </c>
       <c r="D124">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="E124" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>99999.986247566703</v>
       </c>
       <c r="F124" s="11">
+        <f t="shared" si="19"/>
+        <v>2.5483922072453424E-2</v>
+      </c>
+      <c r="G124" s="11">
         <f t="shared" si="17"/>
-        <v>2.5483922072453424E-2</v>
-      </c>
-      <c r="G124" s="11">
-        <f t="shared" si="15"/>
         <v>2.5483922072453424E-3</v>
       </c>
     </row>
@@ -35821,19 +36475,19 @@
         <v>123</v>
       </c>
       <c r="D125">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="E125" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>99999.988397555629</v>
       </c>
       <c r="F125" s="11">
+        <f t="shared" si="19"/>
+        <v>2.1499889262486249E-2</v>
+      </c>
+      <c r="G125" s="11">
         <f t="shared" si="17"/>
-        <v>2.1499889262486249E-2</v>
-      </c>
-      <c r="G125" s="11">
-        <f t="shared" si="15"/>
         <v>2.1499889262486249E-3</v>
       </c>
     </row>
@@ -35842,19 +36496,19 @@
         <v>124</v>
       </c>
       <c r="D126">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="E126" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>99999.990211425713</v>
       </c>
       <c r="F126" s="11">
+        <f t="shared" si="19"/>
+        <v>1.8138700834242627E-2</v>
+      </c>
+      <c r="G126" s="11">
         <f t="shared" si="17"/>
-        <v>1.8138700834242627E-2</v>
-      </c>
-      <c r="G126" s="11">
-        <f t="shared" si="15"/>
         <v>1.8138700834242627E-3</v>
       </c>
     </row>
@@ -35863,19 +36517,19 @@
         <v>125</v>
       </c>
       <c r="D127">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="E127" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>99999.991741724152</v>
       </c>
       <c r="F127" s="11">
+        <f t="shared" si="19"/>
+        <v>1.5302984393201768E-2</v>
+      </c>
+      <c r="G127" s="11">
         <f t="shared" si="17"/>
-        <v>1.5302984393201768E-2</v>
-      </c>
-      <c r="G127" s="11">
-        <f t="shared" si="15"/>
         <v>1.5302984393201768E-3</v>
       </c>
     </row>
@@ -35884,19 +36538,19 @@
         <v>126</v>
       </c>
       <c r="D128">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="E128" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>99999.993032783124</v>
       </c>
       <c r="F128" s="11">
+        <f t="shared" si="19"/>
+        <v>1.2910589721286669E-2</v>
+      </c>
+      <c r="G128" s="11">
         <f t="shared" si="17"/>
-        <v>1.2910589721286669E-2</v>
-      </c>
-      <c r="G128" s="11">
-        <f t="shared" si="15"/>
         <v>1.2910589721286669E-3</v>
       </c>
     </row>
@@ -35905,19 +36559,19 @@
         <v>127</v>
       </c>
       <c r="D129">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="E129" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>99999.994122004195</v>
       </c>
       <c r="F129" s="11">
+        <f t="shared" si="19"/>
+        <v>1.0892210702877492E-2</v>
+      </c>
+      <c r="G129" s="11">
         <f t="shared" si="17"/>
-        <v>1.0892210702877492E-2</v>
-      </c>
-      <c r="G129" s="11">
-        <f t="shared" si="15"/>
         <v>1.0892210702877492E-3</v>
       </c>
     </row>
@@ -35926,19 +36580,19 @@
         <v>128</v>
       </c>
       <c r="D130">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="E130" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>99999.995040941707</v>
       </c>
       <c r="F130" s="11">
+        <f t="shared" si="19"/>
+        <v>9.1893751232419163E-3</v>
+      </c>
+      <c r="G130" s="11">
         <f t="shared" si="17"/>
-        <v>9.1893751232419163E-3</v>
-      </c>
-      <c r="G130" s="11">
-        <f t="shared" si="15"/>
         <v>9.1893751232419163E-4</v>
       </c>
     </row>
@@ -35947,19 +36601,19 @@
         <v>129</v>
       </c>
       <c r="D131">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="E131" s="11">
-        <f t="shared" ref="E131:E149" si="18">$K$2/(1+$K$5*EXP(-$K$4*B131))</f>
+        <f t="shared" ref="E131:E149" si="20">$K$2/(1+$K$5*EXP(-$K$4*B131))</f>
         <v>99999.99581621695</v>
       </c>
       <c r="F131" s="11">
+        <f t="shared" si="19"/>
+        <v>7.7527524263132364E-3</v>
+      </c>
+      <c r="G131" s="11">
         <f t="shared" si="17"/>
-        <v>7.7527524263132364E-3</v>
-      </c>
-      <c r="G131" s="11">
-        <f t="shared" si="15"/>
         <v>7.7527524263132364E-4</v>
       </c>
     </row>
@@ -35968,19 +36622,19 @@
         <v>130</v>
       </c>
       <c r="D132">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="E132" s="11">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>99999.996470289421</v>
       </c>
       <c r="F132" s="11">
-        <f t="shared" ref="F132:F149" si="19">(E132-E131)*10</f>
+        <f t="shared" ref="F132:F149" si="21">(E132-E131)*10</f>
         <v>6.5407247166149318E-3</v>
       </c>
       <c r="G132" s="11">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>6.5407247166149318E-4</v>
       </c>
     </row>
@@ -35989,19 +36643,19 @@
         <v>131</v>
       </c>
       <c r="D133">
-        <f t="shared" ref="D133:D149" si="20">C133-C132</f>
+        <f t="shared" ref="D133:D149" si="22">C133-C132</f>
         <v>0</v>
       </c>
       <c r="E133" s="11">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>99999.99702210736</v>
       </c>
       <c r="F133" s="11">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>5.5181793868541718E-3</v>
       </c>
       <c r="G133" s="11">
-        <f t="shared" ref="G133:G149" si="21">E133-E132</f>
+        <f t="shared" ref="G133:G149" si="23">E133-E132</f>
         <v>5.5181793868541718E-4</v>
       </c>
     </row>
@@ -36010,19 +36664,19 @@
         <v>132</v>
       </c>
       <c r="D134">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="E134" s="11">
         <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="E134" s="11">
-        <f t="shared" si="18"/>
         <v>99999.997487656728</v>
       </c>
       <c r="F134" s="11">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>4.6554936852771789E-3</v>
       </c>
       <c r="G134" s="11">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>4.6554936852771789E-4</v>
       </c>
     </row>
@@ -36031,19 +36685,19 @@
         <v>133</v>
       </c>
       <c r="D135">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="E135" s="11">
         <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="E135" s="11">
-        <f t="shared" si="18"/>
         <v>99999.997880424373</v>
       </c>
       <c r="F135" s="11">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>3.9276764437090605E-3</v>
       </c>
       <c r="G135" s="11">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>3.9276764437090605E-4</v>
       </c>
     </row>
@@ -36052,19 +36706,19 @@
         <v>134</v>
       </c>
       <c r="D136">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="E136" s="11">
         <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="E136" s="11">
-        <f t="shared" si="18"/>
         <v>99999.99821178861</v>
       </c>
       <c r="F136" s="11">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>3.31364237354137E-3</v>
       </c>
       <c r="G136" s="11">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>3.31364237354137E-4</v>
       </c>
     </row>
@@ -36073,19 +36727,19 @@
         <v>135</v>
       </c>
       <c r="D137">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="E137" s="11">
         <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="E137" s="11">
-        <f t="shared" si="18"/>
         <v>99999.998491348946</v>
       </c>
       <c r="F137" s="11">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>2.795603359118104E-3</v>
       </c>
       <c r="G137" s="11">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>2.795603359118104E-4</v>
       </c>
     </row>
@@ -36094,19 +36748,19 @@
         <v>136</v>
       </c>
       <c r="D138">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="E138" s="11">
         <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="E138" s="11">
-        <f t="shared" si="18"/>
         <v>99999.998727204191</v>
       </c>
       <c r="F138" s="11">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>2.3585524468217045E-3</v>
       </c>
       <c r="G138" s="11">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>2.3585524468217045E-4</v>
       </c>
     </row>
@@ -36115,19 +36769,19 @@
         <v>137</v>
       </c>
       <c r="D139">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="E139" s="11">
         <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="E139" s="11">
-        <f t="shared" si="18"/>
         <v>99999.998926186949</v>
       </c>
       <c r="F139" s="11">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>1.9898275786545128E-3</v>
       </c>
       <c r="G139" s="11">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>1.9898275786545128E-4</v>
       </c>
     </row>
@@ -36136,19 +36790,19 @@
         <v>138</v>
       </c>
       <c r="D140">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="E140" s="11">
         <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="E140" s="11">
-        <f t="shared" si="18"/>
         <v>99999.999094061699</v>
       </c>
       <c r="F140" s="11">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>1.6787475033197552E-3</v>
       </c>
       <c r="G140" s="11">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>1.6787475033197552E-4</v>
       </c>
     </row>
@@ -36157,19 +36811,19 @@
         <v>139</v>
       </c>
       <c r="D141">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="E141" s="11">
         <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="E141" s="11">
-        <f t="shared" si="18"/>
         <v>99999.99923569175</v>
       </c>
       <c r="F141" s="11">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>1.4163005107548088E-3</v>
       </c>
       <c r="G141" s="11">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>1.4163005107548088E-4</v>
       </c>
     </row>
@@ -36178,19 +36832,19 @@
         <v>140</v>
       </c>
       <c r="D142">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="E142" s="11">
         <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="E142" s="11">
-        <f t="shared" si="18"/>
         <v>99999.99935518</v>
       </c>
       <c r="F142" s="11">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>1.1948824976570904E-3</v>
       </c>
       <c r="G142" s="11">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>1.1948824976570904E-4</v>
       </c>
     </row>
@@ -36199,19 +36853,19 @@
         <v>141</v>
       </c>
       <c r="D143">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="E143" s="11">
         <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="E143" s="11">
-        <f t="shared" si="18"/>
         <v>99999.999455988058</v>
       </c>
       <c r="F143" s="11">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>1.0080805805046111E-3</v>
       </c>
       <c r="G143" s="11">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>1.0080805805046111E-4</v>
       </c>
     </row>
@@ -36220,19 +36874,19 @@
         <v>142</v>
       </c>
       <c r="D144">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="E144" s="11">
         <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="E144" s="11">
-        <f t="shared" si="18"/>
         <v>99999.999541036275</v>
       </c>
       <c r="F144" s="11">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>8.5048217442817986E-4</v>
       </c>
       <c r="G144" s="11">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>8.5048217442817986E-5</v>
       </c>
     </row>
@@ -36241,19 +36895,19 @@
         <v>143</v>
       </c>
       <c r="D145">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="E145" s="11">
         <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="E145" s="11">
-        <f t="shared" si="18"/>
         <v>99999.999612788451</v>
       </c>
       <c r="F145" s="11">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>7.1752176154404879E-4</v>
       </c>
       <c r="G145" s="11">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>7.1752176154404879E-5</v>
       </c>
     </row>
@@ -36262,19 +36916,19 @@
         <v>144</v>
       </c>
       <c r="D146">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="E146" s="11">
         <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="E146" s="11">
-        <f t="shared" si="18"/>
         <v>99999.999673323226</v>
       </c>
       <c r="F146" s="11">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>6.0534774092957377E-4</v>
       </c>
       <c r="G146" s="11">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>6.0534774092957377E-5</v>
       </c>
     </row>
@@ -36283,19 +36937,19 @@
         <v>145</v>
       </c>
       <c r="D147">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="E147" s="11">
         <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="E147" s="11">
-        <f t="shared" si="18"/>
         <v>99999.999724394307</v>
       </c>
       <c r="F147" s="11">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>5.1071081543341279E-4</v>
       </c>
       <c r="G147" s="11">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>5.1071081543341279E-5</v>
       </c>
     </row>
@@ -36304,19 +36958,19 @@
         <v>146</v>
       </c>
       <c r="D148">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="E148" s="11">
         <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="E148" s="11">
-        <f t="shared" si="18"/>
         <v>99999.999767481175</v>
       </c>
       <c r="F148" s="11">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>4.308686766307801E-4</v>
       </c>
       <c r="G148" s="11">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>4.308686766307801E-5</v>
       </c>
     </row>
@@ -36325,19 +36979,19 @@
         <v>147</v>
       </c>
       <c r="D149">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="E149" s="11">
         <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="E149" s="11">
-        <f t="shared" si="18"/>
         <v>99999.999803832048</v>
       </c>
       <c r="F149" s="11">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>3.6350873415358365E-4</v>
       </c>
       <c r="G149" s="11">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>3.6350873415358365E-5</v>
       </c>
     </row>
@@ -36354,10 +37008,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
-  <dimension ref="A1:L67"/>
+  <dimension ref="A1:M67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="S49" sqref="S49"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="K44" sqref="K44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -36368,11 +37022,11 @@
     <col min="4" max="4" width="10.69921875" customWidth="1"/>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="10.69921875" customWidth="1"/>
-    <col min="8" max="10" width="8.796875" customWidth="1"/>
-    <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="8.796875" customWidth="1"/>
+    <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -36398,17 +37052,20 @@
       <c r="I1" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="J1" s="8"/>
-    </row>
-    <row r="2" spans="1:12">
-      <c r="K2" s="4" t="s">
+      <c r="J1" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="K1" s="8"/>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="L2" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="L2" s="9">
+      <c r="M2" s="9">
         <v>21000</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:13">
       <c r="A3" s="2">
         <v>43885.75</v>
       </c>
@@ -36420,7 +37077,7 @@
         <v>7</v>
       </c>
       <c r="F3" s="11">
-        <f t="shared" ref="F3:F5" si="0">$L$2/(1+$L$5*EXP(-$L$4*B3))</f>
+        <f t="shared" ref="F3:F5" si="0">$M$2/(1+$M$5*EXP(-$M$4*B3))</f>
         <v>69.896596774096395</v>
       </c>
       <c r="G3" s="11"/>
@@ -36428,14 +37085,15 @@
         <f>C3-F3</f>
         <v>-62.896596774096395</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="J3" s="11"/>
+      <c r="L3" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="L3" s="9">
+      <c r="M3" s="9">
         <v>59</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:13">
       <c r="A4" s="2">
         <v>43886</v>
       </c>
@@ -36470,15 +37128,19 @@
         <f>C4-F4</f>
         <v>-72.797708071305749</v>
       </c>
-      <c r="J4" s="11"/>
-      <c r="K4" s="4" t="s">
+      <c r="J4" s="11">
+        <f>D4-H4</f>
+        <v>-9.9011112972093542</v>
+      </c>
+      <c r="K4" s="11"/>
+      <c r="L4" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="L4" s="9">
+      <c r="M4" s="9">
         <v>0.17</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:13">
       <c r="A5" s="2">
         <v>43887</v>
       </c>
@@ -36510,19 +37172,23 @@
         <v>15.271166850499654</v>
       </c>
       <c r="I5" s="11">
-        <f t="shared" ref="I5:I41" si="5">C5-F5</f>
+        <f t="shared" ref="I5:I42" si="5">C5-F5</f>
         <v>-86.068874921805403</v>
       </c>
-      <c r="J5" s="11"/>
-      <c r="K5" s="4" t="s">
+      <c r="J5" s="11">
+        <f t="shared" ref="J5:J42" si="6">D5-H5</f>
+        <v>-13.271166850499654</v>
+      </c>
+      <c r="K5" s="11"/>
+      <c r="L5" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="L5" s="15">
-        <f>(L2-L3)/L3</f>
+      <c r="M5" s="15">
+        <f>(M2-M3)/M3</f>
         <v>354.93220338983053</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:13">
       <c r="A6" s="2">
         <v>43888</v>
       </c>
@@ -36542,7 +37208,7 @@
         <v>50</v>
       </c>
       <c r="F6" s="11">
-        <f t="shared" ref="F6:F36" si="6">$L$2/(1+$L$5*EXP(-$L$4*B6))</f>
+        <f t="shared" ref="F6:F36" si="7">$M$2/(1+$M$5*EXP(-$M$4*B6))</f>
         <v>116.14100899183929</v>
       </c>
       <c r="G6" s="11">
@@ -36557,9 +37223,13 @@
         <f t="shared" si="5"/>
         <v>-99.141008991839286</v>
       </c>
-      <c r="J6" s="11"/>
-    </row>
-    <row r="7" spans="1:12">
+      <c r="J6" s="11">
+        <f t="shared" si="6"/>
+        <v>-13.072134070033883</v>
+      </c>
+      <c r="K6" s="11"/>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="2">
         <v>43889</v>
       </c>
@@ -36579,7 +37249,7 @@
         <v>40</v>
       </c>
       <c r="F7" s="11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>137.52156476139689</v>
       </c>
       <c r="G7" s="11">
@@ -36594,9 +37264,13 @@
         <f t="shared" si="5"/>
         <v>-116.52156476139689</v>
       </c>
-      <c r="J7" s="11"/>
-    </row>
-    <row r="8" spans="1:12">
+      <c r="J7" s="11">
+        <f t="shared" si="6"/>
+        <v>-17.380555769557603</v>
+      </c>
+      <c r="K7" s="11"/>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="2">
         <v>43890</v>
       </c>
@@ -36616,7 +37290,7 @@
         <v>80</v>
       </c>
       <c r="F8" s="11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>162.80741175231387</v>
       </c>
       <c r="G8" s="11">
@@ -36631,16 +37305,20 @@
         <f t="shared" si="5"/>
         <v>-133.80741175231387</v>
       </c>
-      <c r="J8" s="11"/>
-      <c r="K8" s="12" t="s">
+      <c r="J8" s="11">
+        <f t="shared" si="6"/>
+        <v>-17.28584699091698</v>
+      </c>
+      <c r="K8" s="11"/>
+      <c r="L8" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="L8" s="11">
+      <c r="M8" s="11">
         <f>AVERAGE(I3:I36)</f>
         <v>-85.820288012158215</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:13">
       <c r="A9" s="2">
         <v>43891</v>
       </c>
@@ -36660,7 +37338,7 @@
         <v>50</v>
       </c>
       <c r="F9" s="11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>192.6995790655499</v>
       </c>
       <c r="G9" s="11">
@@ -36675,16 +37353,20 @@
         <f t="shared" si="5"/>
         <v>-158.6995790655499</v>
       </c>
-      <c r="J9" s="11"/>
-      <c r="K9" s="12" t="s">
+      <c r="J9" s="11">
+        <f t="shared" si="6"/>
+        <v>-24.89216731323603</v>
+      </c>
+      <c r="K9" s="11"/>
+      <c r="L9" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="L9" s="6">
+      <c r="M9" s="6">
         <f>STDEVP(I3:I36)</f>
         <v>144.825572970206</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:13">
       <c r="A10" s="2">
         <v>43892</v>
       </c>
@@ -36704,7 +37386,7 @@
         <v>180</v>
       </c>
       <c r="F10" s="11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>228.02002319792715</v>
       </c>
       <c r="G10" s="11">
@@ -36719,9 +37401,13 @@
         <f t="shared" si="5"/>
         <v>-176.02002319792715</v>
       </c>
-      <c r="J10" s="11"/>
-    </row>
-    <row r="11" spans="1:12">
+      <c r="J10" s="11">
+        <f t="shared" si="6"/>
+        <v>-17.320444132377247</v>
+      </c>
+      <c r="K10" s="11"/>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="2">
         <v>43893</v>
       </c>
@@ -36741,7 +37427,7 @@
         <v>270</v>
       </c>
       <c r="F11" s="11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>269.73052625080629</v>
       </c>
       <c r="G11" s="11">
@@ -36756,9 +37442,13 @@
         <f t="shared" si="5"/>
         <v>-190.73052625080629</v>
       </c>
-      <c r="J11" s="11"/>
-    </row>
-    <row r="12" spans="1:12">
+      <c r="J11" s="11">
+        <f t="shared" si="6"/>
+        <v>-14.710503052879147</v>
+      </c>
+      <c r="K11" s="11"/>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="2">
         <v>43894</v>
       </c>
@@ -36778,7 +37468,7 @@
         <v>280</v>
       </c>
       <c r="F12" s="11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>318.95375530353863</v>
       </c>
       <c r="G12" s="11">
@@ -36793,16 +37483,20 @@
         <f t="shared" si="5"/>
         <v>-211.95375530353863</v>
       </c>
-      <c r="J12" s="11"/>
-      <c r="K12" t="s">
+      <c r="J12" s="11">
+        <f t="shared" si="6"/>
+        <v>-21.223229052732336</v>
+      </c>
+      <c r="K12" s="11"/>
+      <c r="L12" t="s">
         <v>33</v>
       </c>
-      <c r="L12" s="13">
+      <c r="M12" s="13">
         <f>MATCH(MAX(H3:H67),H3:H67,0)</f>
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:13">
       <c r="A13" s="2">
         <v>43895</v>
       </c>
@@ -36822,7 +37516,7 @@
         <v>410</v>
       </c>
       <c r="F13" s="11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>376.99639191612818</v>
       </c>
       <c r="G13" s="11">
@@ -36837,16 +37531,20 @@
         <f t="shared" si="5"/>
         <v>-228.99639191612818</v>
       </c>
-      <c r="J13" s="11"/>
-      <c r="K13" t="s">
+      <c r="J13" s="11">
+        <f t="shared" si="6"/>
+        <v>-17.042636612589547</v>
+      </c>
+      <c r="K13" s="11"/>
+      <c r="L13" t="s">
         <v>34</v>
       </c>
-      <c r="L13" s="11">
-        <f>L12-'Analisi-pos'!K12</f>
+      <c r="M13" s="11">
+        <f>M12-'Analisi-pos'!K12</f>
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:13">
       <c r="A14" s="2">
         <v>43896</v>
       </c>
@@ -36866,7 +37564,7 @@
         <v>490</v>
       </c>
       <c r="F14" s="11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>445.37405692574856</v>
       </c>
       <c r="G14" s="11">
@@ -36881,9 +37579,13 @@
         <f t="shared" si="5"/>
         <v>-248.37405692574856</v>
       </c>
-      <c r="J14" s="11"/>
-    </row>
-    <row r="15" spans="1:12">
+      <c r="J14" s="11">
+        <f t="shared" si="6"/>
+        <v>-19.377665009620387</v>
+      </c>
+      <c r="K14" s="11"/>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="2">
         <v>43897</v>
       </c>
@@ -36903,7 +37605,7 @@
         <v>360</v>
       </c>
       <c r="F15" s="11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>525.83748965801283</v>
       </c>
       <c r="G15" s="11">
@@ -36918,9 +37620,13 @@
         <f t="shared" si="5"/>
         <v>-292.83748965801283</v>
       </c>
-      <c r="J15" s="11"/>
-    </row>
-    <row r="16" spans="1:12">
+      <c r="J15" s="11">
+        <f t="shared" si="6"/>
+        <v>-44.463432732264266</v>
+      </c>
+      <c r="K15" s="11"/>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="2">
         <v>43898</v>
       </c>
@@ -36940,7 +37646,7 @@
         <v>1330</v>
       </c>
       <c r="F16" s="11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>620.39906879211458</v>
       </c>
       <c r="G16" s="11">
@@ -36955,9 +37661,13 @@
         <f t="shared" si="5"/>
         <v>-254.39906879211458</v>
       </c>
-      <c r="J16" s="11"/>
-    </row>
-    <row r="17" spans="1:10">
+      <c r="J16" s="11">
+        <f t="shared" si="6"/>
+        <v>38.438420865898252</v>
+      </c>
+      <c r="K16" s="11"/>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" s="2">
         <v>43899</v>
       </c>
@@ -36977,7 +37687,7 @@
         <v>970</v>
       </c>
       <c r="F17" s="11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>731.35825893577692</v>
       </c>
       <c r="G17" s="11">
@@ -36992,9 +37702,13 @@
         <f t="shared" si="5"/>
         <v>-268.35825893577692</v>
       </c>
-      <c r="J17" s="11"/>
-    </row>
-    <row r="18" spans="1:10">
+      <c r="J17" s="11">
+        <f t="shared" si="6"/>
+        <v>-13.95919014366234</v>
+      </c>
+      <c r="K17" s="11"/>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" s="2">
         <v>43900</v>
       </c>
@@ -37014,7 +37728,7 @@
         <v>1680</v>
       </c>
       <c r="F18" s="11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>861.32390844453823</v>
       </c>
       <c r="G18" s="11">
@@ -37029,9 +37743,13 @@
         <f t="shared" si="5"/>
         <v>-230.32390844453823</v>
       </c>
-      <c r="J18" s="11"/>
-    </row>
-    <row r="19" spans="1:10">
+      <c r="J18" s="11">
+        <f t="shared" si="6"/>
+        <v>38.034350491238683</v>
+      </c>
+      <c r="K18" s="11"/>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" s="2">
         <v>43901</v>
       </c>
@@ -37051,7 +37769,7 @@
         <v>1960</v>
       </c>
       <c r="F19" s="11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1013.2304936757971</v>
       </c>
       <c r="G19" s="11">
@@ -37066,9 +37784,13 @@
         <f t="shared" si="5"/>
         <v>-186.23049367579711</v>
       </c>
-      <c r="J19" s="11"/>
-    </row>
-    <row r="20" spans="1:10">
+      <c r="J19" s="11">
+        <f t="shared" si="6"/>
+        <v>44.093414768741127</v>
+      </c>
+      <c r="K19" s="11"/>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" s="2">
         <v>43902</v>
       </c>
@@ -37088,7 +37810,7 @@
         <v>1890</v>
       </c>
       <c r="F20" s="11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1190.3444039449357</v>
       </c>
       <c r="G20" s="11">
@@ -37103,9 +37825,13 @@
         <f t="shared" si="5"/>
         <v>-174.34440394493572</v>
       </c>
-      <c r="J20" s="11"/>
-    </row>
-    <row r="21" spans="1:10">
+      <c r="J20" s="11">
+        <f t="shared" si="6"/>
+        <v>11.886089730861386</v>
+      </c>
+      <c r="K20" s="11"/>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" s="2">
         <v>43903</v>
       </c>
@@ -37125,7 +37851,7 @@
         <v>2500</v>
       </c>
       <c r="F21" s="11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1396.2552243542882</v>
       </c>
       <c r="G21" s="11">
@@ -37140,9 +37866,13 @@
         <f t="shared" si="5"/>
         <v>-130.2552243542882</v>
       </c>
-      <c r="J21" s="11"/>
-    </row>
-    <row r="22" spans="1:10">
+      <c r="J21" s="11">
+        <f t="shared" si="6"/>
+        <v>44.089179590647518</v>
+      </c>
+      <c r="K21" s="11"/>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" s="2">
         <v>43904</v>
       </c>
@@ -37162,7 +37892,7 @@
         <v>1750</v>
       </c>
       <c r="F22" s="11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1634.8457893100051</v>
       </c>
       <c r="G22" s="11">
@@ -37177,9 +37907,13 @@
         <f t="shared" si="5"/>
         <v>-193.8457893100051</v>
       </c>
-      <c r="J22" s="11"/>
-    </row>
-    <row r="23" spans="1:10">
+      <c r="J22" s="11">
+        <f t="shared" si="6"/>
+        <v>-63.5905649557169</v>
+      </c>
+      <c r="K22" s="11"/>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" s="2">
         <v>43905</v>
       </c>
@@ -37199,7 +37933,7 @@
         <v>3680</v>
       </c>
       <c r="F23" s="11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1910.2337176880035</v>
       </c>
       <c r="G23" s="11">
@@ -37214,9 +37948,13 @@
         <f t="shared" si="5"/>
         <v>-101.23371768800348</v>
       </c>
-      <c r="J23" s="11"/>
-    </row>
-    <row r="24" spans="1:10">
+      <c r="J23" s="11">
+        <f t="shared" si="6"/>
+        <v>92.612071622001622</v>
+      </c>
+      <c r="K23" s="11"/>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" s="2">
         <v>43906</v>
       </c>
@@ -37236,7 +37974,7 @@
         <v>3490</v>
       </c>
       <c r="F24" s="11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2226.6764790593998</v>
       </c>
       <c r="G24" s="11">
@@ -37251,9 +37989,13 @@
         <f t="shared" si="5"/>
         <v>-68.676479059399753</v>
       </c>
-      <c r="J24" s="11"/>
-    </row>
-    <row r="25" spans="1:10">
+      <c r="J24" s="11">
+        <f t="shared" si="6"/>
+        <v>32.557238628603727</v>
+      </c>
+      <c r="K24" s="11"/>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25" s="2">
         <v>43907</v>
       </c>
@@ -37273,7 +38015,7 @@
         <v>3450</v>
       </c>
       <c r="F25" s="11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2588.432183539202</v>
       </c>
       <c r="G25" s="11">
@@ -37288,9 +38030,13 @@
         <f t="shared" si="5"/>
         <v>-85.432183539202015</v>
       </c>
-      <c r="J25" s="11"/>
-    </row>
-    <row r="26" spans="1:10">
+      <c r="J25" s="11">
+        <f t="shared" si="6"/>
+        <v>-16.755704479802262</v>
+      </c>
+      <c r="K25" s="11"/>
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26" s="2">
         <v>43908</v>
       </c>
@@ -37310,7 +38056,7 @@
         <v>4750</v>
       </c>
       <c r="F26" s="11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2999.5697597742546</v>
       </c>
       <c r="G26" s="11">
@@ -37325,9 +38071,13 @@
         <f t="shared" si="5"/>
         <v>-21.569759774254635</v>
       </c>
-      <c r="J26" s="11"/>
-    </row>
-    <row r="27" spans="1:10">
+      <c r="J26" s="11">
+        <f t="shared" si="6"/>
+        <v>63.86242376494738</v>
+      </c>
+      <c r="K26" s="11"/>
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27" s="2">
         <v>43909</v>
       </c>
@@ -37347,7 +38097,7 @@
         <v>4270</v>
       </c>
       <c r="F27" s="11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3463.7255733927159</v>
       </c>
       <c r="G27" s="11">
@@ -37362,9 +38112,13 @@
         <f t="shared" si="5"/>
         <v>-58.725573392715887</v>
       </c>
-      <c r="J27" s="11"/>
-    </row>
-    <row r="28" spans="1:10">
+      <c r="J27" s="11">
+        <f t="shared" si="6"/>
+        <v>-37.155813618461252</v>
+      </c>
+      <c r="K27" s="11"/>
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28" s="2">
         <v>43910</v>
       </c>
@@ -37384,7 +38138,7 @@
         <v>6270</v>
       </c>
       <c r="F28" s="11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3983.8093579535293</v>
       </c>
       <c r="G28" s="11">
@@ -37399,9 +38153,13 @@
         <f t="shared" si="5"/>
         <v>48.190642046470657</v>
       </c>
-      <c r="J28" s="11"/>
-    </row>
-    <row r="29" spans="1:10">
+      <c r="J28" s="11">
+        <f t="shared" si="6"/>
+        <v>106.91621543918654</v>
+      </c>
+      <c r="K28" s="11"/>
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29" s="2">
         <v>43911</v>
       </c>
@@ -37421,7 +38179,7 @@
         <v>7930</v>
       </c>
       <c r="F29" s="11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>4561.6707982035314</v>
       </c>
       <c r="G29" s="11">
@@ -37436,9 +38194,13 @@
         <f t="shared" si="5"/>
         <v>263.32920179646862</v>
       </c>
-      <c r="J29" s="11"/>
-    </row>
-    <row r="30" spans="1:10">
+      <c r="J29" s="11">
+        <f t="shared" si="6"/>
+        <v>215.13855974999797</v>
+      </c>
+      <c r="K29" s="11"/>
+    </row>
+    <row r="30" spans="1:11">
       <c r="A30" s="2">
         <v>43912</v>
       </c>
@@ -37458,7 +38220,7 @@
         <v>6510</v>
       </c>
       <c r="F30" s="11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>5197.7488283701468</v>
       </c>
       <c r="G30" s="11">
@@ -37473,9 +38235,13 @@
         <f t="shared" si="5"/>
         <v>278.25117162985316</v>
       </c>
-      <c r="J30" s="11"/>
-    </row>
-    <row r="31" spans="1:10">
+      <c r="J30" s="11">
+        <f t="shared" si="6"/>
+        <v>14.921969833384537</v>
+      </c>
+      <c r="K30" s="11"/>
+    </row>
+    <row r="31" spans="1:11">
       <c r="A31" s="2">
         <v>43913</v>
       </c>
@@ -37495,7 +38261,7 @@
         <v>6010</v>
       </c>
       <c r="F31" s="11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>5890.7373704680149</v>
       </c>
       <c r="G31" s="11">
@@ -37510,9 +38276,13 @@
         <f t="shared" si="5"/>
         <v>186.26262953198511</v>
       </c>
-      <c r="J31" s="11"/>
-    </row>
-    <row r="32" spans="1:10">
+      <c r="J31" s="11">
+        <f t="shared" si="6"/>
+        <v>-91.988542097868049</v>
+      </c>
+      <c r="K31" s="11"/>
+    </row>
+    <row r="32" spans="1:11">
       <c r="A32" s="2">
         <v>43914</v>
       </c>
@@ -37532,7 +38302,7 @@
         <v>7430</v>
       </c>
       <c r="F32" s="11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>6637.3114353405344</v>
       </c>
       <c r="G32" s="11">
@@ -37547,9 +38317,13 @@
         <f t="shared" si="5"/>
         <v>182.68856465946556</v>
       </c>
-      <c r="J32" s="11"/>
-    </row>
-    <row r="33" spans="1:10">
+      <c r="J32" s="11">
+        <f t="shared" si="6"/>
+        <v>-3.574064872519557</v>
+      </c>
+      <c r="K32" s="11"/>
+    </row>
+    <row r="33" spans="1:11">
       <c r="A33" s="2">
         <v>43915</v>
       </c>
@@ -37569,7 +38343,7 @@
         <v>6830</v>
       </c>
       <c r="F33" s="11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>7431.9629431107714</v>
       </c>
       <c r="G33" s="11">
@@ -37584,9 +38358,13 @@
         <f t="shared" si="5"/>
         <v>71.037056889228552</v>
       </c>
-      <c r="J33" s="11"/>
-    </row>
-    <row r="34" spans="1:10">
+      <c r="J33" s="11">
+        <f t="shared" si="6"/>
+        <v>-111.651507770237</v>
+      </c>
+      <c r="K33" s="11"/>
+    </row>
+    <row r="34" spans="1:11">
       <c r="A34" s="2">
         <v>43916</v>
       </c>
@@ -37606,7 +38384,7 @@
         <v>6620</v>
       </c>
       <c r="F34" s="11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>8266.9928192632506</v>
       </c>
       <c r="G34" s="11">
@@ -37621,9 +38399,13 @@
         <f t="shared" si="5"/>
         <v>-101.99281926325057</v>
       </c>
-      <c r="J34" s="11"/>
-    </row>
-    <row r="35" spans="1:10">
+      <c r="J34" s="11">
+        <f t="shared" si="6"/>
+        <v>-173.02987615247912</v>
+      </c>
+      <c r="K34" s="11"/>
+    </row>
+    <row r="35" spans="1:11">
       <c r="A35" s="2">
         <v>43917</v>
       </c>
@@ -37643,7 +38425,7 @@
         <v>9690</v>
       </c>
       <c r="F35" s="11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>9132.6924878181326</v>
       </c>
       <c r="G35" s="11">
@@ -37658,9 +38440,13 @@
         <f t="shared" si="5"/>
         <v>1.3075121818674234</v>
       </c>
-      <c r="J35" s="11"/>
-    </row>
-    <row r="36" spans="1:10">
+      <c r="J35" s="11">
+        <f t="shared" si="6"/>
+        <v>103.30033144511799</v>
+      </c>
+      <c r="K35" s="11"/>
+    </row>
+    <row r="36" spans="1:11">
       <c r="A36" s="2">
         <v>43918</v>
       </c>
@@ -37680,7 +38466,7 @@
         <v>8890</v>
       </c>
       <c r="F36" s="11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>10017.723903383967</v>
       </c>
       <c r="G36" s="11">
@@ -37695,9 +38481,13 @@
         <f t="shared" si="5"/>
         <v>5.2760966160331009</v>
       </c>
-      <c r="J36" s="11"/>
-    </row>
-    <row r="37" spans="1:10">
+      <c r="J36" s="11">
+        <f t="shared" si="6"/>
+        <v>3.9685844341656775</v>
+      </c>
+      <c r="K36" s="11"/>
+    </row>
+    <row r="37" spans="1:11">
       <c r="A37" s="2">
         <v>43919</v>
       </c>
@@ -37709,15 +38499,15 @@
         <v>10779</v>
       </c>
       <c r="D37">
-        <f t="shared" ref="D37" si="7">C37-C36</f>
+        <f t="shared" ref="D37" si="8">C37-C36</f>
         <v>756</v>
       </c>
       <c r="E37">
-        <f t="shared" ref="E37" si="8">10*(C37-C36)</f>
+        <f t="shared" ref="E37" si="9">10*(C37-C36)</f>
         <v>7560</v>
       </c>
       <c r="F37" s="11">
-        <f t="shared" ref="F37:F59" si="9">$L$2/(1+$L$5*EXP(-$L$4*B37))</f>
+        <f t="shared" ref="F37:F59" si="10">$M$2/(1+$M$5*EXP(-$M$4*B37))</f>
         <v>10909.676252149678</v>
       </c>
       <c r="G37" s="11">
@@ -37732,9 +38522,13 @@
         <f t="shared" si="5"/>
         <v>-130.67625214967848</v>
       </c>
-      <c r="J37" s="11"/>
-    </row>
-    <row r="38" spans="1:10">
+      <c r="J37" s="11">
+        <f t="shared" si="6"/>
+        <v>-135.95234876571158</v>
+      </c>
+      <c r="K37" s="11"/>
+    </row>
+    <row r="38" spans="1:11">
       <c r="A38" s="2">
         <v>43920</v>
       </c>
@@ -37746,15 +38540,15 @@
         <v>11591</v>
       </c>
       <c r="D38">
-        <f t="shared" ref="D38" si="10">C38-C37</f>
+        <f t="shared" ref="D38" si="11">C38-C37</f>
         <v>812</v>
       </c>
       <c r="E38">
-        <f t="shared" ref="E38" si="11">10*(C38-C37)</f>
+        <f t="shared" ref="E38" si="12">10*(C38-C37)</f>
         <v>8120</v>
       </c>
       <c r="F38" s="11">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>11795.746080760066</v>
       </c>
       <c r="G38" s="11">
@@ -37769,9 +38563,13 @@
         <f t="shared" si="5"/>
         <v>-204.74608076006552</v>
       </c>
-      <c r="J38" s="11"/>
-    </row>
-    <row r="39" spans="1:10">
+      <c r="J38" s="11">
+        <f t="shared" si="6"/>
+        <v>-74.069828610387049</v>
+      </c>
+      <c r="K38" s="11"/>
+    </row>
+    <row r="39" spans="1:11">
       <c r="A39" s="2">
         <v>43921</v>
       </c>
@@ -37783,15 +38581,15 @@
         <v>12428</v>
       </c>
       <c r="D39">
-        <f t="shared" ref="D39" si="12">C39-C38</f>
+        <f t="shared" ref="D39" si="13">C39-C38</f>
         <v>837</v>
       </c>
       <c r="E39">
-        <f t="shared" ref="E39" si="13">10*(C39-C38)</f>
+        <f t="shared" ref="E39" si="14">10*(C39-C38)</f>
         <v>8370</v>
       </c>
       <c r="F39" s="11">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>12663.46395231572</v>
       </c>
       <c r="G39" s="11">
@@ -37806,9 +38604,13 @@
         <f t="shared" si="5"/>
         <v>-235.46395231572023</v>
       </c>
-      <c r="J39" s="11"/>
-    </row>
-    <row r="40" spans="1:10">
+      <c r="J39" s="11">
+        <f t="shared" si="6"/>
+        <v>-30.71787155565471</v>
+      </c>
+      <c r="K39" s="11"/>
+    </row>
+    <row r="40" spans="1:11">
       <c r="A40" s="2">
         <v>43922</v>
       </c>
@@ -37820,15 +38622,15 @@
         <v>13155</v>
       </c>
       <c r="D40">
-        <f t="shared" ref="D40" si="14">C40-C39</f>
+        <f t="shared" ref="D40" si="15">C40-C39</f>
         <v>727</v>
       </c>
       <c r="E40">
-        <f t="shared" ref="E40" si="15">10*(C40-C39)</f>
+        <f t="shared" ref="E40" si="16">10*(C40-C39)</f>
         <v>7270</v>
       </c>
       <c r="F40" s="11">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>13501.381476680228</v>
       </c>
       <c r="G40" s="11">
@@ -37843,9 +38645,13 @@
         <f t="shared" si="5"/>
         <v>-346.38147668022793</v>
       </c>
-      <c r="J40" s="11"/>
-    </row>
-    <row r="41" spans="1:10">
+      <c r="J40" s="11">
+        <f t="shared" si="6"/>
+        <v>-110.9175243645077</v>
+      </c>
+      <c r="K40" s="11"/>
+    </row>
+    <row r="41" spans="1:11">
       <c r="A41" s="2">
         <v>43923</v>
       </c>
@@ -37857,15 +38663,15 @@
         <v>13915</v>
       </c>
       <c r="D41">
-        <f t="shared" ref="D41" si="16">C41-C40</f>
+        <f t="shared" ref="D41" si="17">C41-C40</f>
         <v>760</v>
       </c>
       <c r="E41">
-        <f t="shared" ref="E41" si="17">10*(C41-C40)</f>
+        <f t="shared" ref="E41" si="18">10*(C41-C40)</f>
         <v>7600</v>
       </c>
       <c r="F41" s="11">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>14299.640453068761</v>
       </c>
       <c r="G41" s="11">
@@ -37880,18 +38686,33 @@
         <f t="shared" si="5"/>
         <v>-384.64045306876142</v>
       </c>
-      <c r="J41" s="11"/>
-    </row>
-    <row r="42" spans="1:10">
+      <c r="J41" s="11">
+        <f t="shared" si="6"/>
+        <v>-38.258976388533483</v>
+      </c>
+      <c r="K41" s="11"/>
+    </row>
+    <row r="42" spans="1:11">
       <c r="A42" s="2">
         <v>43924</v>
       </c>
       <c r="B42" s="10">
         <v>40</v>
       </c>
-      <c r="C42" s="3"/>
+      <c r="C42" s="3">
+        <f>Dati!K42</f>
+        <v>14681</v>
+      </c>
+      <c r="D42">
+        <f t="shared" ref="D42" si="19">C42-C41</f>
+        <v>766</v>
+      </c>
+      <c r="E42">
+        <f t="shared" ref="E42" si="20">10*(C42-C41)</f>
+        <v>7660</v>
+      </c>
       <c r="F42" s="11">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>15050.368559914068</v>
       </c>
       <c r="G42" s="11">
@@ -37902,19 +38723,37 @@
         <f t="shared" si="4"/>
         <v>750.72810684530668</v>
       </c>
-      <c r="I42" s="11"/>
-      <c r="J42" s="11"/>
-    </row>
-    <row r="43" spans="1:10">
+      <c r="I42" s="11">
+        <f t="shared" si="5"/>
+        <v>-369.3685599140681</v>
+      </c>
+      <c r="J42" s="11">
+        <f t="shared" si="6"/>
+        <v>15.271893154693316</v>
+      </c>
+      <c r="K42" s="11"/>
+    </row>
+    <row r="43" spans="1:11">
       <c r="A43" s="2">
         <v>43925</v>
       </c>
       <c r="B43" s="10">
         <v>41</v>
       </c>
-      <c r="C43" s="3"/>
+      <c r="C43" s="3">
+        <f>Dati!K43</f>
+        <v>15362</v>
+      </c>
+      <c r="D43">
+        <f t="shared" ref="D43" si="21">C43-C42</f>
+        <v>681</v>
+      </c>
+      <c r="E43">
+        <f t="shared" ref="E43" si="22">10*(C43-C42)</f>
+        <v>6810</v>
+      </c>
       <c r="F43" s="11">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>15747.877072509587</v>
       </c>
       <c r="G43" s="11">
@@ -37925,10 +38764,17 @@
         <f t="shared" si="4"/>
         <v>697.50851259551928</v>
       </c>
-      <c r="I43" s="11"/>
-      <c r="J43" s="11"/>
-    </row>
-    <row r="44" spans="1:10">
+      <c r="I43" s="11">
+        <f t="shared" ref="I43" si="23">C43-F43</f>
+        <v>-385.87707250958738</v>
+      </c>
+      <c r="J43" s="11">
+        <f t="shared" ref="J43" si="24">D43-H43</f>
+        <v>-16.508512595519278</v>
+      </c>
+      <c r="K43" s="11"/>
+    </row>
+    <row r="44" spans="1:11">
       <c r="A44" s="2">
         <v>43926</v>
       </c>
@@ -37937,7 +38783,7 @@
       </c>
       <c r="C44" s="3"/>
       <c r="F44" s="11">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>16388.667413802246</v>
       </c>
       <c r="G44" s="11">
@@ -37950,8 +38796,9 @@
       </c>
       <c r="I44" s="11"/>
       <c r="J44" s="11"/>
-    </row>
-    <row r="45" spans="1:10">
+      <c r="K44" s="11"/>
+    </row>
+    <row r="45" spans="1:11">
       <c r="A45" s="2">
         <v>43927</v>
       </c>
@@ -37960,7 +38807,7 @@
       </c>
       <c r="C45" s="3"/>
       <c r="F45" s="11">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>16971.278076272469</v>
       </c>
       <c r="G45" s="11">
@@ -37973,8 +38820,9 @@
       </c>
       <c r="I45" s="11"/>
       <c r="J45" s="11"/>
-    </row>
-    <row r="46" spans="1:10">
+      <c r="K45" s="11"/>
+    </row>
+    <row r="46" spans="1:11">
       <c r="A46" s="2">
         <v>43928</v>
       </c>
@@ -37983,7 +38831,7 @@
       </c>
       <c r="C46" s="3"/>
       <c r="F46" s="11">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>17496.017792797407</v>
       </c>
       <c r="G46" s="11">
@@ -37996,8 +38844,9 @@
       </c>
       <c r="I46" s="11"/>
       <c r="J46" s="11"/>
-    </row>
-    <row r="47" spans="1:10">
+      <c r="K46" s="11"/>
+    </row>
+    <row r="47" spans="1:11">
       <c r="A47" s="2">
         <v>43929</v>
       </c>
@@ -38006,7 +38855,7 @@
       </c>
       <c r="C47" s="3"/>
       <c r="F47" s="11">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>17964.634436338896</v>
       </c>
       <c r="G47" s="11">
@@ -38019,8 +38868,9 @@
       </c>
       <c r="I47" s="11"/>
       <c r="J47" s="11"/>
-    </row>
-    <row r="48" spans="1:10">
+      <c r="K47" s="11"/>
+    </row>
+    <row r="48" spans="1:11">
       <c r="A48" s="2">
         <v>43930</v>
       </c>
@@ -38029,7 +38879,7 @@
       </c>
       <c r="C48" s="3"/>
       <c r="F48" s="11">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>18379.964240760815</v>
       </c>
       <c r="G48" s="11">
@@ -38042,8 +38892,9 @@
       </c>
       <c r="I48" s="11"/>
       <c r="J48" s="11"/>
-    </row>
-    <row r="49" spans="1:10">
+      <c r="K48" s="11"/>
+    </row>
+    <row r="49" spans="1:11">
       <c r="A49" s="2">
         <v>43931</v>
       </c>
@@ -38052,7 +38903,7 @@
       </c>
       <c r="C49" s="3"/>
       <c r="F49" s="11">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>18745.595993500992</v>
       </c>
       <c r="G49" s="11">
@@ -38065,8 +38916,9 @@
       </c>
       <c r="I49" s="11"/>
       <c r="J49" s="11"/>
-    </row>
-    <row r="50" spans="1:10">
+      <c r="K49" s="11"/>
+    </row>
+    <row r="50" spans="1:11">
       <c r="A50" s="2">
         <v>43932</v>
       </c>
@@ -38075,7 +38927,7 @@
       </c>
       <c r="C50" s="3"/>
       <c r="F50" s="11">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>19065.573203362124</v>
       </c>
       <c r="G50" s="11">
@@ -38088,8 +38940,9 @@
       </c>
       <c r="I50" s="11"/>
       <c r="J50" s="11"/>
-    </row>
-    <row r="51" spans="1:10">
+      <c r="K50" s="11"/>
+    </row>
+    <row r="51" spans="1:11">
       <c r="A51" s="2">
         <v>43933</v>
       </c>
@@ -38098,7 +38951,7 @@
       </c>
       <c r="C51" s="3"/>
       <c r="F51" s="11">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>19344.146383687792</v>
       </c>
       <c r="G51" s="11">
@@ -38111,8 +38964,9 @@
       </c>
       <c r="I51" s="11"/>
       <c r="J51" s="11"/>
-    </row>
-    <row r="52" spans="1:10">
+      <c r="K51" s="11"/>
+    </row>
+    <row r="52" spans="1:11">
       <c r="A52" s="2">
         <v>43934</v>
       </c>
@@ -38121,7 +38975,7 @@
       </c>
       <c r="C52" s="3"/>
       <c r="F52" s="11">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>19585.578914365</v>
       </c>
       <c r="G52" s="11">
@@ -38134,8 +38988,9 @@
       </c>
       <c r="I52" s="11"/>
       <c r="J52" s="11"/>
-    </row>
-    <row r="53" spans="1:10">
+      <c r="K52" s="11"/>
+    </row>
+    <row r="53" spans="1:11">
       <c r="A53" s="2">
         <v>43935</v>
       </c>
@@ -38144,7 +38999,7 @@
       </c>
       <c r="C53" s="3"/>
       <c r="F53" s="11">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>19794.003912611654</v>
       </c>
       <c r="G53" s="11">
@@ -38157,8 +39012,9 @@
       </c>
       <c r="I53" s="11"/>
       <c r="J53" s="11"/>
-    </row>
-    <row r="54" spans="1:10">
+      <c r="K53" s="11"/>
+    </row>
+    <row r="54" spans="1:11">
       <c r="A54" s="2">
         <v>43936</v>
       </c>
@@ -38167,7 +39023,7 @@
       </c>
       <c r="C54" s="3"/>
       <c r="F54" s="11">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>19973.325973531508</v>
       </c>
       <c r="G54" s="11">
@@ -38180,8 +39036,9 @@
       </c>
       <c r="I54" s="11"/>
       <c r="J54" s="11"/>
-    </row>
-    <row r="55" spans="1:10">
+      <c r="K54" s="11"/>
+    </row>
+    <row r="55" spans="1:11">
       <c r="A55" s="2">
         <v>43937</v>
       </c>
@@ -38190,7 +39047,7 @@
       </c>
       <c r="C55" s="3"/>
       <c r="F55" s="11">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>20127.16003546397</v>
       </c>
       <c r="G55" s="11">
@@ -38203,8 +39060,9 @@
       </c>
       <c r="I55" s="11"/>
       <c r="J55" s="11"/>
-    </row>
-    <row r="56" spans="1:10">
+      <c r="K55" s="11"/>
+    </row>
+    <row r="56" spans="1:11">
       <c r="A56" s="2">
         <v>43938</v>
       </c>
@@ -38213,7 +39071,7 @@
       </c>
       <c r="C56" s="3"/>
       <c r="F56" s="11">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>20258.799394720634</v>
       </c>
       <c r="G56" s="11">
@@ -38226,8 +39084,9 @@
       </c>
       <c r="I56" s="11"/>
       <c r="J56" s="11"/>
-    </row>
-    <row r="57" spans="1:10">
+      <c r="K56" s="11"/>
+    </row>
+    <row r="57" spans="1:11">
       <c r="A57" s="2">
         <v>43939</v>
       </c>
@@ -38236,7 +39095,7 @@
       </c>
       <c r="C57" s="3"/>
       <c r="F57" s="11">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>20371.205507167284</v>
       </c>
       <c r="G57" s="11">
@@ -38249,8 +39108,9 @@
       </c>
       <c r="I57" s="11"/>
       <c r="J57" s="11"/>
-    </row>
-    <row r="58" spans="1:10">
+      <c r="K57" s="11"/>
+    </row>
+    <row r="58" spans="1:11">
       <c r="A58" s="2">
         <v>43940</v>
       </c>
@@ -38259,7 +39119,7 @@
       </c>
       <c r="C58" s="3"/>
       <c r="F58" s="11">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>20467.013255369406</v>
       </c>
       <c r="G58" s="11">
@@ -38272,8 +39132,9 @@
       </c>
       <c r="I58" s="11"/>
       <c r="J58" s="11"/>
-    </row>
-    <row r="59" spans="1:10">
+      <c r="K58" s="11"/>
+    </row>
+    <row r="59" spans="1:11">
       <c r="A59" s="2">
         <v>43941</v>
       </c>
@@ -38282,7 +39143,7 @@
       </c>
       <c r="C59" s="3"/>
       <c r="F59" s="11">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>20548.546542033957</v>
       </c>
       <c r="G59" s="11">
@@ -38295,8 +39156,9 @@
       </c>
       <c r="I59" s="11"/>
       <c r="J59" s="11"/>
-    </row>
-    <row r="60" spans="1:10">
+      <c r="K59" s="11"/>
+    </row>
+    <row r="60" spans="1:11">
       <c r="A60" s="2">
         <v>43942</v>
       </c>
@@ -38305,7 +39167,7 @@
       </c>
       <c r="C60" s="3"/>
       <c r="F60" s="11">
-        <f t="shared" ref="F60:F67" si="18">$L$2/(1+$L$5*EXP(-$L$4*B60))</f>
+        <f t="shared" ref="F60:F67" si="25">$M$2/(1+$M$5*EXP(-$M$4*B60))</f>
         <v>20617.840215665983</v>
       </c>
       <c r="G60" s="11">
@@ -38318,8 +39180,9 @@
       </c>
       <c r="I60" s="11"/>
       <c r="J60" s="11"/>
-    </row>
-    <row r="61" spans="1:10">
+      <c r="K60" s="11"/>
+    </row>
+    <row r="61" spans="1:11">
       <c r="A61" s="2">
         <v>43943</v>
       </c>
@@ -38328,7 +39191,7 @@
       </c>
       <c r="C61" s="3"/>
       <c r="F61" s="11">
-        <f t="shared" si="18"/>
+        <f t="shared" si="25"/>
         <v>20676.665348247563</v>
       </c>
       <c r="G61" s="11">
@@ -38341,8 +39204,9 @@
       </c>
       <c r="I61" s="11"/>
       <c r="J61" s="11"/>
-    </row>
-    <row r="62" spans="1:10">
+      <c r="K61" s="11"/>
+    </row>
+    <row r="62" spans="1:11">
       <c r="A62" s="2">
         <v>43944</v>
       </c>
@@ -38351,7 +39215,7 @@
       </c>
       <c r="C62" s="3"/>
       <c r="F62" s="11">
-        <f t="shared" si="18"/>
+        <f t="shared" si="25"/>
         <v>20726.555729370077</v>
       </c>
       <c r="G62" s="11">
@@ -38364,8 +39228,9 @@
       </c>
       <c r="I62" s="11"/>
       <c r="J62" s="11"/>
-    </row>
-    <row r="63" spans="1:10">
+      <c r="K62" s="11"/>
+    </row>
+    <row r="63" spans="1:11">
       <c r="A63" s="2">
         <v>43945</v>
       </c>
@@ -38374,7 +39239,7 @@
       </c>
       <c r="C63" s="3"/>
       <c r="F63" s="11">
-        <f t="shared" si="18"/>
+        <f t="shared" si="25"/>
         <v>20768.834113317804</v>
       </c>
       <c r="G63" s="11">
@@ -38387,8 +39252,9 @@
       </c>
       <c r="I63" s="11"/>
       <c r="J63" s="11"/>
-    </row>
-    <row r="64" spans="1:10">
+      <c r="K63" s="11"/>
+    </row>
+    <row r="64" spans="1:11">
       <c r="A64" s="2">
         <v>43946</v>
       </c>
@@ -38397,7 +39263,7 @@
       </c>
       <c r="C64" s="3"/>
       <c r="F64" s="11">
-        <f t="shared" si="18"/>
+        <f t="shared" si="25"/>
         <v>20804.637270596504</v>
       </c>
       <c r="G64" s="11">
@@ -38410,8 +39276,9 @@
       </c>
       <c r="I64" s="11"/>
       <c r="J64" s="11"/>
-    </row>
-    <row r="65" spans="1:10">
+      <c r="K64" s="11"/>
+    </row>
+    <row r="65" spans="1:11">
       <c r="A65" s="2">
         <v>43947</v>
       </c>
@@ -38420,7 +39287,7 @@
       </c>
       <c r="C65" s="3"/>
       <c r="F65" s="11">
-        <f t="shared" si="18"/>
+        <f t="shared" si="25"/>
         <v>20834.939277021032</v>
       </c>
       <c r="G65" s="11">
@@ -38433,8 +39300,9 @@
       </c>
       <c r="I65" s="11"/>
       <c r="J65" s="11"/>
-    </row>
-    <row r="66" spans="1:10">
+      <c r="K65" s="11"/>
+    </row>
+    <row r="66" spans="1:11">
       <c r="A66" s="2">
         <v>43948</v>
       </c>
@@ -38443,7 +39311,7 @@
       </c>
       <c r="C66" s="3"/>
       <c r="F66" s="11">
-        <f t="shared" si="18"/>
+        <f t="shared" si="25"/>
         <v>20860.572747223094</v>
       </c>
       <c r="G66" s="11">
@@ -38456,8 +39324,9 @@
       </c>
       <c r="I66" s="11"/>
       <c r="J66" s="11"/>
-    </row>
-    <row r="67" spans="1:10">
+      <c r="K66" s="11"/>
+    </row>
+    <row r="67" spans="1:11">
       <c r="A67" s="2">
         <v>43949</v>
       </c>
@@ -38466,7 +39335,7 @@
       </c>
       <c r="C67" s="3"/>
       <c r="F67" s="11">
-        <f t="shared" si="18"/>
+        <f t="shared" si="25"/>
         <v>20882.247909134818</v>
       </c>
       <c r="G67" s="11">
@@ -38479,6 +39348,7 @@
       </c>
       <c r="I67" s="11"/>
       <c r="J67" s="11"/>
+      <c r="K67" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0.39370078740157505" bottom="0.39370078740157505" header="0" footer="0"/>
@@ -38610,10 +39480,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E41"/>
+  <dimension ref="A1:E43"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F41" sqref="F41"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -39435,6 +40305,48 @@
         <v>-843</v>
       </c>
     </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="2">
+        <v>43924</v>
+      </c>
+      <c r="B42" s="3">
+        <f>Dati!L42</f>
+        <v>119827</v>
+      </c>
+      <c r="C42">
+        <f t="shared" ref="C42" si="18">B42-B41</f>
+        <v>4585</v>
+      </c>
+      <c r="D42">
+        <f t="shared" ref="D42" si="19">C42-C41</f>
+        <v>-83</v>
+      </c>
+      <c r="E42">
+        <f t="shared" ref="E42" si="20">D42-D41</f>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="2">
+        <v>43925</v>
+      </c>
+      <c r="B43" s="3">
+        <f>Dati!L43</f>
+        <v>124632</v>
+      </c>
+      <c r="C43">
+        <f t="shared" ref="C43" si="21">B43-B42</f>
+        <v>4805</v>
+      </c>
+      <c r="D43">
+        <f t="shared" ref="D43" si="22">C43-C42</f>
+        <v>220</v>
+      </c>
+      <c r="E43">
+        <f t="shared" ref="E43" si="23">D43-D42</f>
+        <v>303</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0.39370078740157505" bottom="0.39370078740157505" header="0" footer="0"/>
   <headerFooter>
@@ -39447,10 +40359,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:E41"/>
+  <dimension ref="A1:E43"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="G40" sqref="G40"/>
+      <selection activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -40272,6 +41184,48 @@
         <v>36</v>
       </c>
     </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="2">
+        <v>43924</v>
+      </c>
+      <c r="B42" s="3">
+        <f>Dati!D42</f>
+        <v>4068</v>
+      </c>
+      <c r="C42">
+        <f t="shared" ref="C42" si="18">B42-B41</f>
+        <v>15</v>
+      </c>
+      <c r="D42">
+        <f t="shared" ref="D42" si="19">C42-C41</f>
+        <v>-3</v>
+      </c>
+      <c r="E42">
+        <f t="shared" ref="E42" si="20">D42-D41</f>
+        <v>-9</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="2">
+        <v>43925</v>
+      </c>
+      <c r="B43" s="3">
+        <f>Dati!D43</f>
+        <v>3994</v>
+      </c>
+      <c r="C43">
+        <f t="shared" ref="C43" si="21">B43-B42</f>
+        <v>-74</v>
+      </c>
+      <c r="D43">
+        <f t="shared" ref="D43" si="22">C43-C42</f>
+        <v>-89</v>
+      </c>
+      <c r="E43">
+        <f t="shared" ref="E43" si="23">D43-D42</f>
+        <v>-86</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.70000000000000007" right="0.70000000000000007" top="0.75" bottom="0.75" header="0.30000000000000004" footer="0.30000000000000004"/>
   <drawing r:id="rId1"/>
@@ -40280,10 +41234,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:E41"/>
+  <dimension ref="A1:E43"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="F41" sqref="F41"/>
+      <selection activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -41106,6 +42060,48 @@
         <v>304</v>
       </c>
     </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="2">
+        <v>43924</v>
+      </c>
+      <c r="B42" s="3">
+        <f>Dati!J42</f>
+        <v>19758</v>
+      </c>
+      <c r="C42">
+        <f t="shared" ref="C42" si="18">B42-B41</f>
+        <v>1480</v>
+      </c>
+      <c r="D42">
+        <f t="shared" ref="D42" si="19">C42-C41</f>
+        <v>49</v>
+      </c>
+      <c r="E42">
+        <f t="shared" ref="E42" si="20">D42-D41</f>
+        <v>-264</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="2">
+        <v>43925</v>
+      </c>
+      <c r="B43" s="3">
+        <f>Dati!J43</f>
+        <v>20996</v>
+      </c>
+      <c r="C43">
+        <f t="shared" ref="C43" si="21">B43-B42</f>
+        <v>1238</v>
+      </c>
+      <c r="D43">
+        <f t="shared" ref="D43" si="22">C43-C42</f>
+        <v>-242</v>
+      </c>
+      <c r="E43">
+        <f t="shared" ref="E43" si="23">D43-D42</f>
+        <v>-291</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0.39370078740157505" bottom="0.39370078740157505" header="0" footer="0"/>
   <headerFooter>
@@ -41118,10 +42114,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:E41"/>
+  <dimension ref="A1:E43"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="F45" sqref="F45"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -41944,6 +42940,48 @@
         <v>143</v>
       </c>
     </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="2">
+        <v>43924</v>
+      </c>
+      <c r="B42" s="3">
+        <f>Dati!K42</f>
+        <v>14681</v>
+      </c>
+      <c r="C42">
+        <f t="shared" ref="C42" si="18">B42-B41</f>
+        <v>766</v>
+      </c>
+      <c r="D42">
+        <f t="shared" ref="D42" si="19">C42-C41</f>
+        <v>6</v>
+      </c>
+      <c r="E42">
+        <f t="shared" ref="E42" si="20">D42-D41</f>
+        <v>-27</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="2">
+        <v>43925</v>
+      </c>
+      <c r="B43" s="3">
+        <f>Dati!K43</f>
+        <v>15362</v>
+      </c>
+      <c r="C43">
+        <f t="shared" ref="C43" si="21">B43-B42</f>
+        <v>681</v>
+      </c>
+      <c r="D43">
+        <f t="shared" ref="D43" si="22">C43-C42</f>
+        <v>-85</v>
+      </c>
+      <c r="E43">
+        <f t="shared" ref="E43" si="23">D43-D42</f>
+        <v>-91</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0.39370078740157505" bottom="0.39370078740157505" header="0" footer="0"/>
   <headerFooter>
@@ -41956,10 +42994,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:E41"/>
+  <dimension ref="A1:E43"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="Q43" sqref="Q43"/>
+      <selection activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -42782,6 +43820,48 @@
         <v>148</v>
       </c>
     </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="2">
+        <v>43924</v>
+      </c>
+      <c r="B42" s="3">
+        <f>Dati!E42</f>
+        <v>32809</v>
+      </c>
+      <c r="C42">
+        <f t="shared" ref="C42" si="18">B42-B41</f>
+        <v>216</v>
+      </c>
+      <c r="D42">
+        <f t="shared" ref="D42" si="19">C42-C41</f>
+        <v>61</v>
+      </c>
+      <c r="E42">
+        <f t="shared" ref="E42" si="20">D42-D41</f>
+        <v>129</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="2">
+        <v>43925</v>
+      </c>
+      <c r="B43" s="3">
+        <f>Dati!E43</f>
+        <v>33004</v>
+      </c>
+      <c r="C43">
+        <f t="shared" ref="C43" si="21">B43-B42</f>
+        <v>195</v>
+      </c>
+      <c r="D43">
+        <f t="shared" ref="D43" si="22">C43-C42</f>
+        <v>-21</v>
+      </c>
+      <c r="E43">
+        <f t="shared" ref="E43" si="23">D43-D42</f>
+        <v>-82</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0.39370078740157505" bottom="0.39370078740157505" header="0" footer="0"/>
   <headerFooter>
@@ -42794,10 +43874,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:E41"/>
+  <dimension ref="A1:E43"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="K44" sqref="K44"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -43621,6 +44701,48 @@
         <v>-1290</v>
       </c>
     </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="2">
+        <v>43924</v>
+      </c>
+      <c r="B42" s="3">
+        <f>Dati!G42</f>
+        <v>85388</v>
+      </c>
+      <c r="C42">
+        <f t="shared" ref="C42" si="18">B42-B41</f>
+        <v>2339</v>
+      </c>
+      <c r="D42">
+        <f t="shared" ref="D42" si="19">C42-C41</f>
+        <v>-138</v>
+      </c>
+      <c r="E42">
+        <f t="shared" ref="E42" si="20">D42-D41</f>
+        <v>322</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="2">
+        <v>43925</v>
+      </c>
+      <c r="B43" s="3">
+        <f>Dati!G43</f>
+        <v>88274</v>
+      </c>
+      <c r="C43">
+        <f t="shared" ref="C43" si="21">B43-B42</f>
+        <v>2886</v>
+      </c>
+      <c r="D43">
+        <f t="shared" ref="D43" si="22">C43-C42</f>
+        <v>547</v>
+      </c>
+      <c r="E43">
+        <f t="shared" ref="E43" si="23">D43-D42</f>
+        <v>685</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0.39370078740157505" bottom="0.39370078740157505" header="0" footer="0"/>
   <headerFooter>
@@ -43633,10 +44755,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:E41"/>
+  <dimension ref="A1:E43"/>
   <sheetViews>
     <sheetView topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="F42" sqref="F42"/>
+      <selection activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -44459,6 +45581,48 @@
         <v>-1438</v>
       </c>
     </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="2">
+        <v>43924</v>
+      </c>
+      <c r="B42" s="3">
+        <f>Dati!F42</f>
+        <v>52579</v>
+      </c>
+      <c r="C42">
+        <f t="shared" ref="C42" si="18">B42-B41</f>
+        <v>2123</v>
+      </c>
+      <c r="D42">
+        <f t="shared" ref="D42" si="19">C42-C41</f>
+        <v>-199</v>
+      </c>
+      <c r="E42">
+        <f t="shared" ref="E42" si="20">D42-D41</f>
+        <v>193</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="2">
+        <v>43925</v>
+      </c>
+      <c r="B43" s="3">
+        <f>Dati!F43</f>
+        <v>55270</v>
+      </c>
+      <c r="C43">
+        <f t="shared" ref="C43" si="21">B43-B42</f>
+        <v>2691</v>
+      </c>
+      <c r="D43">
+        <f t="shared" ref="D43" si="22">C43-C42</f>
+        <v>568</v>
+      </c>
+      <c r="E43">
+        <f t="shared" ref="E43" si="23">D43-D42</f>
+        <v>767</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0.39370078740157505" bottom="0.39370078740157505" header="0" footer="0"/>
   <headerFooter>
@@ -44471,10 +45635,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:N41"/>
+  <dimension ref="A1:N43"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="N42" sqref="N42"/>
+      <selection activeCell="A44" sqref="A44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -45903,6 +47067,78 @@
         <v>14.288442480799405</v>
       </c>
     </row>
+    <row r="42" spans="1:11">
+      <c r="A42" s="2">
+        <v>43924</v>
+      </c>
+      <c r="B42" s="10">
+        <v>40</v>
+      </c>
+      <c r="C42" s="3">
+        <f>Dati!M42</f>
+        <v>619849</v>
+      </c>
+      <c r="D42">
+        <f t="shared" ref="D42" si="24">C42-C41</f>
+        <v>38617</v>
+      </c>
+      <c r="E42">
+        <f t="shared" ref="E42" si="25">D42-D41</f>
+        <v>-1192</v>
+      </c>
+      <c r="H42" s="5">
+        <f>C42/Casi_totali!B42</f>
+        <v>5.1728658816460396</v>
+      </c>
+      <c r="I42" s="5">
+        <f>C42/Positivi!B42</f>
+        <v>7.2592050405209161</v>
+      </c>
+      <c r="J42" s="6">
+        <f t="shared" ref="J42" si="26">100/H42</f>
+        <v>19.331643674507824</v>
+      </c>
+      <c r="K42" s="6">
+        <f t="shared" ref="K42" si="27">100/I42</f>
+        <v>13.775613092866166</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
+      <c r="A43" s="2">
+        <v>43925</v>
+      </c>
+      <c r="B43" s="10">
+        <v>41</v>
+      </c>
+      <c r="C43" s="3">
+        <f>Dati!M43</f>
+        <v>657224</v>
+      </c>
+      <c r="D43">
+        <f t="shared" ref="D43" si="28">C43-C42</f>
+        <v>37375</v>
+      </c>
+      <c r="E43">
+        <f t="shared" ref="E43" si="29">D43-D42</f>
+        <v>-1242</v>
+      </c>
+      <c r="H43" s="5">
+        <f>C43/Casi_totali!B43</f>
+        <v>5.2733166442005261</v>
+      </c>
+      <c r="I43" s="5">
+        <f>C43/Positivi!B43</f>
+        <v>7.4452726737204609</v>
+      </c>
+      <c r="J43" s="6">
+        <f t="shared" ref="J43" si="30">100/H43</f>
+        <v>18.963397563083515</v>
+      </c>
+      <c r="K43" s="6">
+        <f t="shared" ref="K43" si="31">100/I43</f>
+        <v>13.431341521307804</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.70000000000000007" right="0.70000000000000007" top="0.75" bottom="0.75" header="0.30000000000000004" footer="0.30000000000000004"/>
   <pageSetup paperSize="0" fitToWidth="0" fitToHeight="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>

--- a/covid_ita.xlsx
+++ b/covid_ita.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carpaneto\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26573F44-740F-438D-98B7-49AED389C14E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82439338-AAA9-48EC-845F-8E43C1508536}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dati" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="40">
   <si>
     <t>data</t>
   </si>
@@ -631,6 +631,12 @@
                 <c:pt idx="41">
                   <c:v>43926</c:v>
                 </c:pt>
+                <c:pt idx="42">
+                  <c:v>43927</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43928</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -765,6 +771,12 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>128948</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>132547</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>135586</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -935,6 +947,12 @@
                 <c:pt idx="41">
                   <c:v>43926</c:v>
                 </c:pt>
+                <c:pt idx="42">
+                  <c:v>43927</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43928</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -1066,6 +1084,12 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>4316</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>3599</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>3039</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1232,6 +1256,12 @@
                 <c:pt idx="41">
                   <c:v>43926</c:v>
                 </c:pt>
+                <c:pt idx="42">
+                  <c:v>43927</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43928</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -1360,6 +1390,12 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>-489</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-717</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-560</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1530,6 +1566,12 @@
                 <c:pt idx="41">
                   <c:v>43926</c:v>
                 </c:pt>
+                <c:pt idx="42">
+                  <c:v>43927</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43928</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -1655,6 +1697,12 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>-709</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-228</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>157</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1920,10 +1968,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Ospedalizzati!$A$3:$A$46</c:f>
+              <c:f>Ospedalizzati!$A$3:$A$50</c:f>
               <c:numCache>
                 <c:formatCode>d/m;@</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>43885.75</c:v>
                 </c:pt>
@@ -2049,16 +2097,22 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>43926</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43927</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43928</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Ospedalizzati!$C$3:$C$46</c:f>
+              <c:f>Ospedalizzati!$C$3:$C$50</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="1">
                   <c:v>22</c:v>
                 </c:pt>
@@ -2181,6 +2235,12 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>-78</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-52</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-364</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2221,10 +2281,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Ospedalizzati!$A$3:$A$46</c:f>
+              <c:f>Ospedalizzati!$A$3:$A$50</c:f>
               <c:numCache>
                 <c:formatCode>d/m;@</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>43885.75</c:v>
                 </c:pt>
@@ -2350,16 +2410,22 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>43926</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43927</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43928</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Ospedalizzati!$D$3:$D$46</c:f>
+              <c:f>Ospedalizzati!$D$3:$D$50</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="2">
                   <c:v>-7</c:v>
                 </c:pt>
@@ -2479,6 +2545,12 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>-273</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-312</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2883,6 +2955,12 @@
                 <c:pt idx="41">
                   <c:v>43926</c:v>
                 </c:pt>
+                <c:pt idx="42">
+                  <c:v>43927</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43928</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -3017,6 +3095,12 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>91246</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>93187</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>94067</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3187,6 +3271,12 @@
                 <c:pt idx="41">
                   <c:v>43926</c:v>
                 </c:pt>
+                <c:pt idx="42">
+                  <c:v>43927</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43928</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -3318,6 +3408,12 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>2972</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1941</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>880</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3484,6 +3580,12 @@
                 <c:pt idx="41">
                   <c:v>43926</c:v>
                 </c:pt>
+                <c:pt idx="42">
+                  <c:v>43927</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43928</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -3612,6 +3714,12 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-1031</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-1061</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4007,6 +4115,12 @@
                 <c:pt idx="41">
                   <c:v>43926</c:v>
                 </c:pt>
+                <c:pt idx="42">
+                  <c:v>43927</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43928</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -4138,6 +4252,12 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>2972</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1941</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>880</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4308,6 +4428,12 @@
                 <c:pt idx="41">
                   <c:v>43926</c:v>
                 </c:pt>
+                <c:pt idx="42">
+                  <c:v>43927</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43928</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -4436,6 +4562,12 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-1031</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-1061</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4865,6 +4997,12 @@
                 <c:pt idx="41">
                   <c:v>43926</c:v>
                 </c:pt>
+                <c:pt idx="42">
+                  <c:v>43927</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43928</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -4999,6 +5137,12 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>91246</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>93187</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>94067</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5372,6 +5516,12 @@
                 <c:pt idx="41">
                   <c:v>43926</c:v>
                 </c:pt>
+                <c:pt idx="42">
+                  <c:v>43927</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43928</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -5506,6 +5656,12 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>58320</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>60313</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>61557</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5676,6 +5832,12 @@
                 <c:pt idx="41">
                   <c:v>43926</c:v>
                 </c:pt>
+                <c:pt idx="42">
+                  <c:v>43927</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43928</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -5807,6 +5969,12 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>3050</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1993</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1244</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5973,6 +6141,12 @@
                 <c:pt idx="41">
                   <c:v>43926</c:v>
                 </c:pt>
+                <c:pt idx="42">
+                  <c:v>43927</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43928</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -6101,6 +6275,12 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>359</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-1057</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-749</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6496,6 +6676,12 @@
                 <c:pt idx="41">
                   <c:v>43926</c:v>
                 </c:pt>
+                <c:pt idx="42">
+                  <c:v>43927</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43928</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -6627,6 +6813,12 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>3050</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1993</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1244</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6797,6 +6989,12 @@
                 <c:pt idx="41">
                   <c:v>43926</c:v>
                 </c:pt>
+                <c:pt idx="42">
+                  <c:v>43927</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43928</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -6925,6 +7123,12 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>359</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-1057</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-749</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7365,6 +7569,12 @@
                 <c:pt idx="41">
                   <c:v>43926</c:v>
                 </c:pt>
+                <c:pt idx="42">
+                  <c:v>43927</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43928</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -7499,6 +7709,12 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>691461</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>721732</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>755445</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7905,6 +8121,12 @@
                 <c:pt idx="41">
                   <c:v>43926</c:v>
                 </c:pt>
+                <c:pt idx="42">
+                  <c:v>43927</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43928</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -8036,6 +8258,12 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>34237</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>30271</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>33713</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8453,6 +8681,12 @@
                 <c:pt idx="41">
                   <c:v>43926</c:v>
                 </c:pt>
+                <c:pt idx="42">
+                  <c:v>43927</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43928</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -8587,6 +8821,12 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>18.648629496095946</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>18.365127221738817</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>17.947832072487078</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8757,6 +8997,12 @@
                 <c:pt idx="42">
                   <c:v>43926</c:v>
                 </c:pt>
+                <c:pt idx="43">
+                  <c:v>43927</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>43928</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -8891,6 +9137,12 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>13.196116628414329</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>12.911579367410617</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>12.451866118645301</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10745,6 +10997,12 @@
                 <c:pt idx="41">
                   <c:v>43926</c:v>
                 </c:pt>
+                <c:pt idx="42">
+                  <c:v>43927</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43928</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -10876,6 +11134,12 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>4316</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>3599</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>3039</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11046,6 +11310,12 @@
                 <c:pt idx="41">
                   <c:v>43926</c:v>
                 </c:pt>
+                <c:pt idx="42">
+                  <c:v>43927</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43928</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -11174,6 +11444,12 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>-489</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-717</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-560</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11750,6 +12026,12 @@
                 <c:pt idx="41">
                   <c:v>91246</c:v>
                 </c:pt>
+                <c:pt idx="42">
+                  <c:v>93187</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>94067</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -12279,6 +12561,12 @@
                 <c:pt idx="41">
                   <c:v>91246</c:v>
                 </c:pt>
+                <c:pt idx="42">
+                  <c:v>93187</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>94067</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -13262,7 +13550,7 @@
         <c:axId val="448855200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="45"/>
+          <c:max val="50"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -13796,6 +14084,12 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>1225.8557856333646</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1740.0988706876233</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1380.7443430765561</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14324,6 +14618,12 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>15887</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>16523</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>17127</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15552,6 +15852,12 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>15887</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>16523</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>17127</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -17032,6 +17338,12 @@
                 <c:pt idx="41">
                   <c:v>-501.6674138022463</c:v>
                 </c:pt>
+                <c:pt idx="42">
+                  <c:v>-448.27807627246875</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-369.01779279740731</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -17611,6 +17923,12 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>525</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>636</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>604</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -18374,10 +18692,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Casi_totali!$A$3:$A$45</c:f>
+              <c:f>Casi_totali!$A$3:$A$49</c:f>
               <c:numCache>
                 <c:formatCode>d/m;@</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>43885.75</c:v>
                 </c:pt>
@@ -18503,16 +18821,22 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>43926</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43927</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43928</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Casi_totali!$B$3:$B$45</c:f>
+              <c:f>Casi_totali!$B$3:$B$49</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>229</c:v>
                 </c:pt>
@@ -18638,6 +18962,12 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>128948</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>132547</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>135586</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -19350,6 +19680,12 @@
                 <c:pt idx="42">
                   <c:v>43926</c:v>
                 </c:pt>
+                <c:pt idx="43">
+                  <c:v>43927</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>43928</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -19481,6 +19817,12 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>-17</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-79</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-106</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -19647,6 +19989,12 @@
                 <c:pt idx="42">
                   <c:v>43926</c:v>
                 </c:pt>
+                <c:pt idx="43">
+                  <c:v>43927</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>43928</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -19775,6 +20123,12 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-62</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-27</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -20170,6 +20524,12 @@
                 <c:pt idx="41">
                   <c:v>43926</c:v>
                 </c:pt>
+                <c:pt idx="42">
+                  <c:v>43927</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43928</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -20304,6 +20664,12 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>21815</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>22837</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>24392</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -20474,6 +20840,12 @@
                 <c:pt idx="41">
                   <c:v>43926</c:v>
                 </c:pt>
+                <c:pt idx="42">
+                  <c:v>43927</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43928</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -20605,6 +20977,12 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>819</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1022</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1555</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -20771,6 +21149,12 @@
                 <c:pt idx="41">
                   <c:v>43926</c:v>
                 </c:pt>
+                <c:pt idx="42">
+                  <c:v>43927</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43928</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -20900,6 +21284,12 @@
                 <c:pt idx="41">
                   <c:v>-419</c:v>
                 </c:pt>
+                <c:pt idx="42">
+                  <c:v>203</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>533</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -20907,301 +21297,6 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-4E32-4762-843A-D0B15746909F}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Guariti!$E$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>d3</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28803" cap="rnd">
-              <a:solidFill>
-                <a:srgbClr val="579D1C"/>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="x"/>
-            <c:size val="7"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Guariti!$A$3:$A$46</c:f>
-              <c:numCache>
-                <c:formatCode>d/m;@</c:formatCode>
-                <c:ptCount val="44"/>
-                <c:pt idx="0">
-                  <c:v>43885.75</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>43886</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>43887</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>43888</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>43889</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>43890</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>43891</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>43892</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>43893</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>43894</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>43895</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>43896</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>43897</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>43898</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>43899</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>43900</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>43901</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>43902</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>43903</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>43904</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>43905</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>43906</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>43907</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>43908</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>43909</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>43910</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>43911</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>43912</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>43913</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>43914</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>43915</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>43916</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>43917</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>43918</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>43919</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>43920</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>43921</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>43922</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>43923</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>43924</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>43925</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>43926</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Guariti!$E$3:$E$46</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="44"/>
-                <c:pt idx="3">
-                  <c:v>38</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-81</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-88</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>160</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>-83</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>-51</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>-14</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>102</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>109</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>-417</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>411</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>-204</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>378</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>-504</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>203</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>-267</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>1114</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>-1561</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>943</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>-20</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>-245</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>-553</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>1030</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>-344</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>-179</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>-373</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>1255</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>-1633</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>1732</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>-1425</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>490</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>304</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>-264</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>-291</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>-177</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-4E32-4762-843A-D0B15746909F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -21598,6 +21693,12 @@
                 <c:pt idx="41">
                   <c:v>43926</c:v>
                 </c:pt>
+                <c:pt idx="42">
+                  <c:v>43927</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43928</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -21729,6 +21830,12 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>819</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1022</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1555</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -21899,6 +22006,12 @@
                 <c:pt idx="41">
                   <c:v>43926</c:v>
                 </c:pt>
+                <c:pt idx="42">
+                  <c:v>43927</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43928</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -22027,6 +22140,12 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>-419</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>203</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>533</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -22431,6 +22550,12 @@
                 <c:pt idx="41">
                   <c:v>43926</c:v>
                 </c:pt>
+                <c:pt idx="42">
+                  <c:v>43927</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43928</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -22562,6 +22687,12 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>525</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>636</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>604</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -22732,6 +22863,12 @@
                 <c:pt idx="41">
                   <c:v>43926</c:v>
                 </c:pt>
+                <c:pt idx="42">
+                  <c:v>43927</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43928</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -22860,6 +22997,12 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>-156</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-32</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -23264,6 +23407,12 @@
                 <c:pt idx="41">
                   <c:v>43926</c:v>
                 </c:pt>
+                <c:pt idx="42">
+                  <c:v>43927</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43928</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -23398,6 +23547,12 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>15887</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>16523</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>17127</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -23568,6 +23723,12 @@
                 <c:pt idx="41">
                   <c:v>43926</c:v>
                 </c:pt>
+                <c:pt idx="42">
+                  <c:v>43927</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43928</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -23699,6 +23860,12 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>525</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>636</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>604</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -23865,6 +24032,12 @@
                 <c:pt idx="41">
                   <c:v>43926</c:v>
                 </c:pt>
+                <c:pt idx="42">
+                  <c:v>43927</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43928</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -23994,6 +24167,12 @@
                 <c:pt idx="41">
                   <c:v>-156</c:v>
                 </c:pt>
+                <c:pt idx="42">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-32</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -24001,301 +24180,6 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-D683-49E2-AB62-513555F3326B}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Deceduti!$E$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>d3</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28803" cap="rnd">
-              <a:solidFill>
-                <a:srgbClr val="579D1C"/>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="x"/>
-            <c:size val="7"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Deceduti!$A$3:$A$51</c:f>
-              <c:numCache>
-                <c:formatCode>d/m;@</c:formatCode>
-                <c:ptCount val="49"/>
-                <c:pt idx="0">
-                  <c:v>43885.75</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>43886</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>43887</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>43888</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>43889</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>43890</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>43891</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>43892</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>43893</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>43894</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>43895</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>43896</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>43897</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>43898</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>43899</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>43900</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>43901</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>43902</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>43903</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>43904</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>43905</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>43906</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>43907</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>43908</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>43909</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>43910</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>43911</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>43912</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>43913</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>43914</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>43915</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>43916</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>43917</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>43918</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>43919</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>43920</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>43921</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>43922</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>43923</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>43924</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>43925</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>43926</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Deceduti!$E$3:$E$51</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="49"/>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-4</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>-8</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>-5</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>-21</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>110</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>-133</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>107</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>-43</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>-35</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>68</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>-136</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>268</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>-212</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>134</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>-178</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>248</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>-34</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>-308</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>92</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>192</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>-202</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>39</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>328</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>-387</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>-53</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>189</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>-31</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>-135</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>143</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>-27</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>-91</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>-71</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-D683-49E2-AB62-513555F3326B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -24553,10 +24437,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Ospedalizzati!$A$3:$A$46</c:f>
+              <c:f>Ospedalizzati!$A$3:$A$50</c:f>
               <c:numCache>
                 <c:formatCode>d/m;@</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>43885.75</c:v>
                 </c:pt>
@@ -24682,16 +24566,22 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>43926</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43927</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43928</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Ospedalizzati!$B$3:$B$46</c:f>
+              <c:f>Ospedalizzati!$B$3:$B$50</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>127</c:v>
                 </c:pt>
@@ -24817,6 +24707,12 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>32926</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>32874</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>32510</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -24857,10 +24753,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Ospedalizzati!$A$3:$A$46</c:f>
+              <c:f>Ospedalizzati!$A$3:$A$50</c:f>
               <c:numCache>
                 <c:formatCode>d/m;@</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>43885.75</c:v>
                 </c:pt>
@@ -24986,16 +24882,22 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>43926</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43927</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43928</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Ospedalizzati!$C$3:$C$46</c:f>
+              <c:f>Ospedalizzati!$C$3:$C$50</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="1">
                   <c:v>22</c:v>
                 </c:pt>
@@ -25118,6 +25020,12 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>-78</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-52</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-364</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -25154,10 +25062,10 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>Ospedalizzati!$A$3:$A$46</c:f>
+              <c:f>Ospedalizzati!$A$3:$A$50</c:f>
               <c:numCache>
                 <c:formatCode>d/m;@</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>43885.75</c:v>
                 </c:pt>
@@ -25283,16 +25191,22 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>43926</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43927</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43928</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Ospedalizzati!$D$3:$D$46</c:f>
+              <c:f>Ospedalizzati!$D$3:$D$50</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="2">
                   <c:v>-7</c:v>
                 </c:pt>
@@ -25412,6 +25326,12 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>-273</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-312</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -28472,10 +28392,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M44"/>
+  <dimension ref="A1:M46"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E45" sqref="E45"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -30146,6 +30066,88 @@
         <v>691461</v>
       </c>
     </row>
+    <row r="45" spans="1:13">
+      <c r="A45" s="2">
+        <v>43927</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C45" s="3">
+        <v>28976</v>
+      </c>
+      <c r="D45" s="3">
+        <v>3898</v>
+      </c>
+      <c r="E45" s="3">
+        <v>32874</v>
+      </c>
+      <c r="F45" s="3">
+        <v>60313</v>
+      </c>
+      <c r="G45" s="3">
+        <v>93187</v>
+      </c>
+      <c r="H45" s="3">
+        <v>1941</v>
+      </c>
+      <c r="I45" s="3">
+        <v>3599</v>
+      </c>
+      <c r="J45" s="3">
+        <v>22837</v>
+      </c>
+      <c r="K45" s="3">
+        <v>16523</v>
+      </c>
+      <c r="L45" s="3">
+        <v>132547</v>
+      </c>
+      <c r="M45">
+        <v>721732</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13">
+      <c r="A46" s="2">
+        <v>43928</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C46" s="3">
+        <v>28718</v>
+      </c>
+      <c r="D46" s="3">
+        <v>3792</v>
+      </c>
+      <c r="E46" s="3">
+        <v>32510</v>
+      </c>
+      <c r="F46" s="3">
+        <v>61557</v>
+      </c>
+      <c r="G46" s="3">
+        <v>94067</v>
+      </c>
+      <c r="H46" s="3">
+        <v>880</v>
+      </c>
+      <c r="I46" s="3">
+        <v>3039</v>
+      </c>
+      <c r="J46" s="3">
+        <v>24392</v>
+      </c>
+      <c r="K46" s="3">
+        <v>17127</v>
+      </c>
+      <c r="L46" s="3">
+        <v>135586</v>
+      </c>
+      <c r="M46">
+        <v>755445</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0.39370078740157505" bottom="0.39370078740157505" header="0" footer="0"/>
   <headerFooter>
@@ -30159,8 +30161,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:K149"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C45" sqref="C45"/>
+    <sheetView topLeftCell="D22" workbookViewId="0">
+      <selection activeCell="J48" sqref="J48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -30262,7 +30264,7 @@
         <v>154.19235441284661</v>
       </c>
       <c r="H4" s="11">
-        <f t="shared" ref="H4:H44" si="2">C4-E4</f>
+        <f t="shared" ref="H4:H46" si="2">C4-E4</f>
         <v>-683.65303461646738</v>
       </c>
       <c r="J4" s="4" t="s">
@@ -31587,6 +31589,14 @@
       <c r="B45" s="10">
         <v>43</v>
       </c>
+      <c r="C45" s="3">
+        <f>Dati!G45</f>
+        <v>93187</v>
+      </c>
+      <c r="D45">
+        <f t="shared" ref="D45" si="15">C45-C44</f>
+        <v>1941</v>
+      </c>
       <c r="E45" s="11">
         <f t="shared" si="5"/>
         <v>91446.901129312377</v>
@@ -31599,6 +31609,10 @@
         <f t="shared" si="4"/>
         <v>1426.7569149457413</v>
       </c>
+      <c r="H45" s="11">
+        <f t="shared" si="2"/>
+        <v>1740.0988706876233</v>
+      </c>
     </row>
     <row r="46" spans="1:8">
       <c r="A46" s="2">
@@ -31607,6 +31621,14 @@
       <c r="B46" s="10">
         <v>44</v>
       </c>
+      <c r="C46" s="3">
+        <f>Dati!G46</f>
+        <v>94067</v>
+      </c>
+      <c r="D46">
+        <f t="shared" ref="D46" si="16">C46-C45</f>
+        <v>880</v>
+      </c>
       <c r="E46" s="11">
         <f t="shared" si="5"/>
         <v>92686.255656923444</v>
@@ -31619,6 +31641,10 @@
         <f t="shared" si="4"/>
         <v>1239.3545276110672</v>
       </c>
+      <c r="H46" s="11">
+        <f t="shared" si="2"/>
+        <v>1380.7443430765561</v>
+      </c>
     </row>
     <row r="47" spans="1:8">
       <c r="A47" s="2">
@@ -32068,7 +32094,7 @@
         <v>0</v>
       </c>
       <c r="E67" s="11">
-        <f t="shared" ref="E67:E98" si="15">$K$2/(1+$K$5*EXP(-$K$4*B67))</f>
+        <f t="shared" ref="E67:E98" si="17">$K$2/(1+$K$5*EXP(-$K$4*B67))</f>
         <v>99778.318568093659</v>
       </c>
       <c r="F67" s="11">
@@ -32092,11 +32118,11 @@
         <v>0</v>
       </c>
       <c r="E68" s="11">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>99812.9103364779</v>
       </c>
       <c r="F68" s="11">
-        <f t="shared" ref="F68:F99" si="16">(E68-E67)*10</f>
+        <f t="shared" ref="F68:F99" si="18">(E68-E67)*10</f>
         <v>345.91768384241732</v>
       </c>
       <c r="G68" s="11">
@@ -32112,19 +32138,19 @@
         <v>67</v>
       </c>
       <c r="D69">
-        <f t="shared" ref="D69:D132" si="17">C69-C68</f>
+        <f t="shared" ref="D69:D132" si="19">C69-C68</f>
         <v>0</v>
       </c>
       <c r="E69" s="11">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>99842.112853404673</v>
       </c>
       <c r="F69" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>292.0251692677266</v>
       </c>
       <c r="G69" s="11">
-        <f t="shared" ref="G69:G132" si="18">E69-E68</f>
+        <f t="shared" ref="G69:G132" si="20">E69-E68</f>
         <v>29.20251692677266</v>
       </c>
     </row>
@@ -32136,19 +32162,19 @@
         <v>68</v>
       </c>
       <c r="D70">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="E70" s="11">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="E70" s="11">
-        <f t="shared" si="15"/>
         <v>99866.763282184605</v>
       </c>
       <c r="F70" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>246.50428779932554</v>
       </c>
       <c r="G70" s="11">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>24.650428779932554</v>
       </c>
     </row>
@@ -32160,19 +32186,19 @@
         <v>69</v>
       </c>
       <c r="D71">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="E71" s="11">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="E71" s="11">
-        <f t="shared" si="15"/>
         <v>99887.569450081472</v>
       </c>
       <c r="F71" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>208.061678968661</v>
       </c>
       <c r="G71" s="11">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>20.8061678968661</v>
       </c>
     </row>
@@ -32184,19 +32210,19 @@
         <v>70</v>
       </c>
       <c r="D72">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="E72" s="11">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="E72" s="11">
-        <f t="shared" si="15"/>
         <v>99905.129625499118</v>
       </c>
       <c r="F72" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>175.60175417645951</v>
       </c>
       <c r="G72" s="11">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>17.560175417645951</v>
       </c>
     </row>
@@ -32208,19 +32234,19 @@
         <v>71</v>
       </c>
       <c r="D73">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="E73" s="11">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="E73" s="11">
-        <f t="shared" si="15"/>
         <v>99919.949330119241</v>
       </c>
       <c r="F73" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>148.19704620123957</v>
       </c>
       <c r="G73" s="11">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>14.819704620123957</v>
       </c>
     </row>
@@ -32232,19 +32258,19 @@
         <v>72</v>
       </c>
       <c r="D74">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="E74" s="11">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="E74" s="11">
-        <f t="shared" si="15"/>
         <v>99932.45561327484</v>
       </c>
       <c r="F74" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>125.06283155598794</v>
       </c>
       <c r="G74" s="11">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>12.506283155598794</v>
       </c>
     </row>
@@ -32256,19 +32282,19 @@
         <v>73</v>
       </c>
       <c r="D75">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="E75" s="11">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="E75" s="11">
-        <f t="shared" si="15"/>
         <v>99943.009159377063</v>
       </c>
       <c r="F75" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>105.53546102222754</v>
       </c>
       <c r="G75" s="11">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>10.553546102222754</v>
       </c>
     </row>
@@ -32280,19 +32306,19 @@
         <v>74</v>
       </c>
       <c r="D76">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="E76" s="11">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="E76" s="11">
-        <f t="shared" si="15"/>
         <v>99951.914548641449</v>
       </c>
       <c r="F76" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>89.053892643860308</v>
       </c>
       <c r="G76" s="11">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>8.9053892643860308</v>
       </c>
     </row>
@@ -32304,19 +32330,19 @@
         <v>75</v>
       </c>
       <c r="D77">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="E77" s="11">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="E77" s="11">
-        <f t="shared" si="15"/>
         <v>99959.428946590851</v>
       </c>
       <c r="F77" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>75.14397949402337</v>
       </c>
       <c r="G77" s="11">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>7.514397949402337</v>
       </c>
     </row>
@@ -32328,19 +32354,19 @@
         <v>76</v>
       </c>
       <c r="D78">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="E78" s="11">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="E78" s="11">
-        <f t="shared" si="15"/>
         <v>99965.769458531679</v>
       </c>
       <c r="F78" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>63.405119408271275</v>
       </c>
       <c r="G78" s="11">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>6.3405119408271275</v>
       </c>
     </row>
@@ -32352,19 +32378,19 @@
         <v>77</v>
       </c>
       <c r="D79">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="E79" s="11">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="E79" s="11">
-        <f t="shared" si="15"/>
         <v>99971.119350980123</v>
       </c>
       <c r="F79" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>53.498924484447343</v>
       </c>
       <c r="G79" s="11">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>5.3498924484447343</v>
       </c>
     </row>
@@ -32376,19 +32402,19 @@
         <v>78</v>
       </c>
       <c r="D80">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="E80" s="11">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="E80" s="11">
-        <f t="shared" si="15"/>
         <v>99975.633312370497</v>
       </c>
       <c r="F80" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>45.139613903738791</v>
       </c>
       <c r="G80" s="11">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>4.5139613903738791</v>
       </c>
     </row>
@@ -32400,19 +32426,19 @@
         <v>79</v>
       </c>
       <c r="D81">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="E81" s="11">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="E81" s="11">
-        <f t="shared" si="15"/>
         <v>99979.441899815793</v>
       </c>
       <c r="F81" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>38.085874452954158</v>
       </c>
       <c r="G81" s="11">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>3.8085874452954158</v>
       </c>
     </row>
@@ -32424,19 +32450,19 @@
         <v>80</v>
       </c>
       <c r="D82">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="E82" s="11">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="E82" s="11">
-        <f t="shared" si="15"/>
         <v>99982.655296727666</v>
       </c>
       <c r="F82" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>32.133969118731329</v>
       </c>
       <c r="G82" s="11">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>3.2133969118731329</v>
       </c>
     </row>
@@ -32448,19 +32474,19 @@
         <v>81</v>
       </c>
       <c r="D83">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="E83" s="11">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="E83" s="11">
-        <f t="shared" si="15"/>
         <v>99985.366487294348</v>
       </c>
       <c r="F83" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>27.111905666824896</v>
       </c>
       <c r="G83" s="11">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>2.7111905666824896</v>
       </c>
     </row>
@@ -32472,19 +32498,19 @@
         <v>82</v>
       </c>
       <c r="D84">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="E84" s="11">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="E84" s="11">
-        <f t="shared" si="15"/>
         <v>99987.6539377421</v>
       </c>
       <c r="F84" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>22.874504477513256</v>
       </c>
       <c r="G84" s="11">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>2.2874504477513256</v>
       </c>
     </row>
@@ -32496,19 +32522,19 @@
         <v>83</v>
       </c>
       <c r="D85">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="E85" s="11">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="E85" s="11">
-        <f t="shared" si="15"/>
         <v>99989.583860605097</v>
       </c>
       <c r="F85" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>19.299228629970457</v>
       </c>
       <c r="G85" s="11">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1.9299228629970457</v>
       </c>
     </row>
@@ -32520,19 +32546,19 @@
         <v>84</v>
       </c>
       <c r="D86">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="E86" s="11">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="E86" s="11">
-        <f t="shared" si="15"/>
         <v>99991.212126565239</v>
       </c>
       <c r="F86" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>16.282659601420164</v>
       </c>
       <c r="G86" s="11">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1.6282659601420164</v>
       </c>
     </row>
@@ -32544,19 +32570,19 @@
         <v>85</v>
       </c>
       <c r="D87">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="E87" s="11">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="E87" s="11">
-        <f t="shared" si="15"/>
         <v>99992.585878511192</v>
       </c>
       <c r="F87" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>13.737519459536998</v>
       </c>
       <c r="G87" s="11">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1.3737519459536998</v>
       </c>
     </row>
@@ -32568,19 +32594,19 @@
         <v>86</v>
       </c>
       <c r="D88">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="E88" s="11">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="E88" s="11">
-        <f t="shared" si="15"/>
         <v>99993.744894051735</v>
       </c>
       <c r="F88" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>11.590155405428959</v>
       </c>
       <c r="G88" s="11">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1.1590155405428959</v>
       </c>
     </row>
@@ -32592,19 +32618,19 @@
         <v>87</v>
       </c>
       <c r="D89">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="E89" s="11">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="E89" s="11">
-        <f t="shared" si="15"/>
         <v>99994.722735581352</v>
       </c>
       <c r="F89" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>9.7784152961685322</v>
       </c>
       <c r="G89" s="11">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0.97784152961685322</v>
       </c>
     </row>
@@ -32616,19 +32642,19 @@
         <v>88</v>
       </c>
       <c r="D90">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="E90" s="11">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="E90" s="11">
-        <f t="shared" si="15"/>
         <v>99995.54772094982</v>
       </c>
       <c r="F90" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>8.2498536846833304</v>
       </c>
       <c r="G90" s="11">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0.82498536846833304</v>
       </c>
     </row>
@@ -32640,19 +32666,19 @@
         <v>89</v>
       </c>
       <c r="D91">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="E91" s="11">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="E91" s="11">
-        <f t="shared" si="15"/>
         <v>99996.243742666353</v>
       </c>
       <c r="F91" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>6.9602171653241385</v>
       </c>
       <c r="G91" s="11">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0.69602171653241385</v>
       </c>
     </row>
@@ -32664,19 +32690,19 @@
         <v>90</v>
       </c>
       <c r="D92">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="E92" s="11">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="E92" s="11">
-        <f t="shared" si="15"/>
         <v>99996.830959235798</v>
       </c>
       <c r="F92" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>5.872165694454452</v>
       </c>
       <c r="G92" s="11">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0.5872165694454452</v>
       </c>
     </row>
@@ -32688,19 +32714,19 @@
         <v>91</v>
       </c>
       <c r="D93">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="E93" s="11">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="E93" s="11">
-        <f t="shared" si="15"/>
         <v>99997.326378558908</v>
       </c>
       <c r="F93" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>4.954193231096724</v>
       </c>
       <c r="G93" s="11">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0.4954193231096724</v>
       </c>
     </row>
@@ -32712,19 +32738,19 @@
         <v>92</v>
       </c>
       <c r="D94">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="E94" s="11">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="E94" s="11">
-        <f t="shared" si="15"/>
         <v>99997.744350229041</v>
       </c>
       <c r="F94" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>4.1797167013282888</v>
       </c>
       <c r="G94" s="11">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0.41797167013282888</v>
       </c>
     </row>
@@ -32736,19 +32762,19 @@
         <v>93</v>
       </c>
       <c r="D95">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="E95" s="11">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="E95" s="11">
-        <f t="shared" si="15"/>
         <v>99998.096980938935</v>
       </c>
       <c r="F95" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>3.5263070989458356</v>
       </c>
       <c r="G95" s="11">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0.35263070989458356</v>
       </c>
     </row>
@@ -32760,19 +32786,19 @@
         <v>94</v>
       </c>
       <c r="D96">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="E96" s="11">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="E96" s="11">
-        <f t="shared" si="15"/>
         <v>99998.394484996315</v>
       </c>
       <c r="F96" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>2.9750405738013797</v>
       </c>
       <c r="G96" s="11">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0.29750405738013797</v>
       </c>
     </row>
@@ -32781,19 +32807,19 @@
         <v>95</v>
       </c>
       <c r="D97">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="E97" s="11">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="E97" s="11">
-        <f t="shared" si="15"/>
         <v>99998.645480079053</v>
       </c>
       <c r="F97" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>2.5099508273706306</v>
       </c>
       <c r="G97" s="11">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0.25099508273706306</v>
       </c>
     </row>
@@ -32802,19 +32828,19 @@
         <v>96</v>
       </c>
       <c r="D98">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="E98" s="11">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="E98" s="11">
-        <f t="shared" si="15"/>
         <v>99998.857236779397</v>
       </c>
       <c r="F98" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>2.117567003442673</v>
       </c>
       <c r="G98" s="11">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0.2117567003442673</v>
       </c>
     </row>
@@ -32823,19 +32849,19 @@
         <v>97</v>
       </c>
       <c r="D99">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="E99" s="11">
-        <f t="shared" ref="E99:E130" si="19">$K$2/(1+$K$5*EXP(-$K$4*B99))</f>
+        <f t="shared" ref="E99:E130" si="21">$K$2/(1+$K$5*EXP(-$K$4*B99))</f>
         <v>99999.035889154664</v>
       </c>
       <c r="F99" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1.7865237526712008</v>
       </c>
       <c r="G99" s="11">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0.17865237526712008</v>
       </c>
     </row>
@@ -32844,19 +32870,19 @@
         <v>98</v>
       </c>
       <c r="D100">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="E100" s="11">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>99999.186612374513</v>
       </c>
       <c r="F100" s="11">
-        <f t="shared" ref="F100:F131" si="20">(E100-E99)*10</f>
+        <f t="shared" ref="F100:F131" si="22">(E100-E99)*10</f>
         <v>1.5072321984916925</v>
       </c>
       <c r="G100" s="11">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0.15072321984916925</v>
       </c>
     </row>
@@ -32865,19 +32891,19 @@
         <v>99</v>
       </c>
       <c r="D101">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="E101" s="11">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>99999.313772605499</v>
       </c>
       <c r="F101" s="11">
+        <f t="shared" si="22"/>
+        <v>1.2716023098619189</v>
+      </c>
+      <c r="G101" s="11">
         <f t="shared" si="20"/>
-        <v>1.2716023098619189</v>
-      </c>
-      <c r="G101" s="11">
-        <f t="shared" si="18"/>
         <v>0.12716023098619189</v>
       </c>
     </row>
@@ -32886,19 +32912,19 @@
         <v>100</v>
       </c>
       <c r="D102">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="E102" s="11">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>99999.421053469981</v>
       </c>
       <c r="F102" s="11">
+        <f t="shared" si="22"/>
+        <v>1.0728086448216345</v>
+      </c>
+      <c r="G102" s="11">
         <f t="shared" si="20"/>
-        <v>1.0728086448216345</v>
-      </c>
-      <c r="G102" s="11">
-        <f t="shared" si="18"/>
         <v>0.10728086448216345</v>
       </c>
     </row>
@@ -32907,19 +32933,19 @@
         <v>101</v>
       </c>
       <c r="D103">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="E103" s="11">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>99999.511562739863</v>
       </c>
       <c r="F103" s="11">
+        <f t="shared" si="22"/>
+        <v>0.9050926988129504</v>
+      </c>
+      <c r="G103" s="11">
         <f t="shared" si="20"/>
-        <v>0.9050926988129504</v>
-      </c>
-      <c r="G103" s="11">
-        <f t="shared" si="18"/>
         <v>9.050926988129504E-2</v>
       </c>
     </row>
@@ -32928,19 +32954,19 @@
         <v>102</v>
       </c>
       <c r="D104">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="E104" s="11">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>99999.587922353836</v>
       </c>
       <c r="F104" s="11">
+        <f t="shared" si="22"/>
+        <v>0.76359613973181695</v>
+      </c>
+      <c r="G104" s="11">
         <f t="shared" si="20"/>
-        <v>0.76359613973181695</v>
-      </c>
-      <c r="G104" s="11">
-        <f t="shared" si="18"/>
         <v>7.6359613973181695E-2</v>
       </c>
     </row>
@@ -32949,19 +32975,19 @@
         <v>103</v>
       </c>
       <c r="D105">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="E105" s="11">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>99999.652344364251</v>
       </c>
       <c r="F105" s="11">
+        <f t="shared" si="22"/>
+        <v>0.64422010415000841</v>
+      </c>
+      <c r="G105" s="11">
         <f t="shared" si="20"/>
-        <v>0.64422010415000841</v>
-      </c>
-      <c r="G105" s="11">
-        <f t="shared" si="18"/>
         <v>6.4422010415000841E-2</v>
       </c>
     </row>
@@ -32970,19 +32996,19 @@
         <v>104</v>
       </c>
       <c r="D106">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="E106" s="11">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>99999.706695012428</v>
       </c>
       <c r="F106" s="11">
+        <f t="shared" si="22"/>
+        <v>0.54350648177205585</v>
+      </c>
+      <c r="G106" s="11">
         <f t="shared" si="20"/>
-        <v>0.54350648177205585</v>
-      </c>
-      <c r="G106" s="11">
-        <f t="shared" si="18"/>
         <v>5.4350648177205585E-2</v>
       </c>
     </row>
@@ -32991,19 +33017,19 @@
         <v>105</v>
       </c>
       <c r="D107">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="E107" s="11">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>99999.752548787976</v>
       </c>
       <c r="F107" s="11">
+        <f t="shared" si="22"/>
+        <v>0.45853775547584519</v>
+      </c>
+      <c r="G107" s="11">
         <f t="shared" si="20"/>
-        <v>0.45853775547584519</v>
-      </c>
-      <c r="G107" s="11">
-        <f t="shared" si="18"/>
         <v>4.5853775547584519E-2</v>
       </c>
     </row>
@@ -33012,19 +33038,19 @@
         <v>106</v>
       </c>
       <c r="D108">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="E108" s="11">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>99999.791234037839</v>
       </c>
       <c r="F108" s="11">
+        <f t="shared" si="22"/>
+        <v>0.38685249863192439</v>
+      </c>
+      <c r="G108" s="11">
         <f t="shared" si="20"/>
-        <v>0.38685249863192439</v>
-      </c>
-      <c r="G108" s="11">
-        <f t="shared" si="18"/>
         <v>3.8685249863192439E-2</v>
       </c>
     </row>
@@ -33033,19 +33059,19 @@
         <v>107</v>
       </c>
       <c r="D109">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="E109" s="11">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>99999.823871445347</v>
       </c>
       <c r="F109" s="11">
+        <f t="shared" si="22"/>
+        <v>0.32637407508445904</v>
+      </c>
+      <c r="G109" s="11">
         <f t="shared" si="20"/>
-        <v>0.32637407508445904</v>
-      </c>
-      <c r="G109" s="11">
-        <f t="shared" si="18"/>
         <v>3.2637407508445904E-2</v>
       </c>
     </row>
@@ -33054,19 +33080,19 @@
         <v>108</v>
       </c>
       <c r="D110">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="E110" s="11">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>99999.851406494316</v>
       </c>
       <c r="F110" s="11">
+        <f t="shared" si="22"/>
+        <v>0.27535048968275078</v>
+      </c>
+      <c r="G110" s="11">
         <f t="shared" si="20"/>
-        <v>0.27535048968275078</v>
-      </c>
-      <c r="G110" s="11">
-        <f t="shared" si="18"/>
         <v>2.7535048968275078E-2</v>
       </c>
     </row>
@@ -33075,19 +33101,19 @@
         <v>109</v>
       </c>
       <c r="D111">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="E111" s="11">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>99999.874636858149</v>
       </c>
       <c r="F111" s="11">
+        <f t="shared" si="22"/>
+        <v>0.23230363833135925</v>
+      </c>
+      <c r="G111" s="11">
         <f t="shared" si="20"/>
-        <v>0.23230363833135925</v>
-      </c>
-      <c r="G111" s="11">
-        <f t="shared" si="18"/>
         <v>2.3230363833135925E-2</v>
       </c>
     </row>
@@ -33096,19 +33122,19 @@
         <v>110</v>
       </c>
       <c r="D112">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="E112" s="11">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>99999.894235507207</v>
       </c>
       <c r="F112" s="11">
+        <f t="shared" si="22"/>
+        <v>0.1959864905802533</v>
+      </c>
+      <c r="G112" s="11">
         <f t="shared" si="20"/>
-        <v>0.1959864905802533</v>
-      </c>
-      <c r="G112" s="11">
-        <f t="shared" si="18"/>
         <v>1.959864905802533E-2</v>
       </c>
     </row>
@@ -33117,19 +33143,19 @@
         <v>111</v>
       </c>
       <c r="D113">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="E113" s="11">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>99999.910770203816</v>
       </c>
       <c r="F113" s="11">
+        <f t="shared" si="22"/>
+        <v>0.16534696609596722</v>
+      </c>
+      <c r="G113" s="11">
         <f t="shared" si="20"/>
-        <v>0.16534696609596722</v>
-      </c>
-      <c r="G113" s="11">
-        <f t="shared" si="18"/>
         <v>1.6534696609596722E-2</v>
       </c>
     </row>
@@ -33138,19 +33164,19 @@
         <v>112</v>
       </c>
       <c r="D114">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="E114" s="11">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>99999.924719949879</v>
       </c>
       <c r="F114" s="11">
+        <f t="shared" si="22"/>
+        <v>0.1394974606228061</v>
+      </c>
+      <c r="G114" s="11">
         <f t="shared" si="20"/>
-        <v>0.1394974606228061</v>
-      </c>
-      <c r="G114" s="11">
-        <f t="shared" si="18"/>
         <v>1.394974606228061E-2</v>
       </c>
     </row>
@@ -33159,19 +33185,19 @@
         <v>113</v>
       </c>
       <c r="D115">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="E115" s="11">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>99999.936488862848</v>
       </c>
       <c r="F115" s="11">
+        <f t="shared" si="22"/>
+        <v>0.11768912969273515</v>
+      </c>
+      <c r="G115" s="11">
         <f t="shared" si="20"/>
-        <v>0.11768912969273515</v>
-      </c>
-      <c r="G115" s="11">
-        <f t="shared" si="18"/>
         <v>1.1768912969273515E-2</v>
       </c>
     </row>
@@ -33180,19 +33206,19 @@
         <v>114</v>
       </c>
       <c r="D116">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="E116" s="11">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>99999.946417882791</v>
       </c>
       <c r="F116" s="11">
+        <f t="shared" si="22"/>
+        <v>9.9290199432289228E-2</v>
+      </c>
+      <c r="G116" s="11">
         <f t="shared" si="20"/>
-        <v>9.9290199432289228E-2</v>
-      </c>
-      <c r="G116" s="11">
-        <f t="shared" si="18"/>
         <v>9.9290199432289228E-3</v>
       </c>
     </row>
@@ -33201,19 +33227,19 @@
         <v>115</v>
       </c>
       <c r="D117">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="E117" s="11">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>99999.954794649122</v>
       </c>
       <c r="F117" s="11">
+        <f t="shared" si="22"/>
+        <v>8.3767663309117779E-2</v>
+      </c>
+      <c r="G117" s="11">
         <f t="shared" si="20"/>
-        <v>8.3767663309117779E-2</v>
-      </c>
-      <c r="G117" s="11">
-        <f t="shared" si="18"/>
         <v>8.3767663309117779E-3</v>
       </c>
     </row>
@@ -33222,19 +33248,19 @@
         <v>116</v>
       </c>
       <c r="D118">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="E118" s="11">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>99999.961861833261</v>
       </c>
       <c r="F118" s="11">
+        <f t="shared" si="22"/>
+        <v>7.0671841385774314E-2</v>
+      </c>
+      <c r="G118" s="11">
         <f t="shared" si="20"/>
-        <v>7.0671841385774314E-2</v>
-      </c>
-      <c r="G118" s="11">
-        <f t="shared" si="18"/>
         <v>7.0671841385774314E-3</v>
       </c>
     </row>
@@ -33243,19 +33269,19 @@
         <v>117</v>
       </c>
       <c r="D119">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="E119" s="11">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>99999.967824168634</v>
       </c>
       <c r="F119" s="11">
+        <f t="shared" si="22"/>
+        <v>5.9623353736242279E-2</v>
+      </c>
+      <c r="G119" s="11">
         <f t="shared" si="20"/>
-        <v>5.9623353736242279E-2</v>
-      </c>
-      <c r="G119" s="11">
-        <f t="shared" si="18"/>
         <v>5.9623353736242279E-3</v>
       </c>
     </row>
@@ -33264,19 +33290,19 @@
         <v>118</v>
       </c>
       <c r="D120">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="E120" s="11">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>99999.972854381762</v>
       </c>
       <c r="F120" s="11">
+        <f t="shared" si="22"/>
+        <v>5.030213127611205E-2</v>
+      </c>
+      <c r="G120" s="11">
         <f t="shared" si="20"/>
-        <v>5.030213127611205E-2</v>
-      </c>
-      <c r="G120" s="11">
-        <f t="shared" si="18"/>
         <v>5.030213127611205E-3</v>
       </c>
     </row>
@@ -33285,19 +33311,19 @@
         <v>119</v>
       </c>
       <c r="D121">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="E121" s="11">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>99999.977098196003</v>
       </c>
       <c r="F121" s="11">
+        <f t="shared" si="22"/>
+        <v>4.2438142409082502E-2</v>
+      </c>
+      <c r="G121" s="11">
         <f t="shared" si="20"/>
-        <v>4.2438142409082502E-2</v>
-      </c>
-      <c r="G121" s="11">
-        <f t="shared" si="18"/>
         <v>4.2438142409082502E-3</v>
       </c>
     </row>
@@ -33306,19 +33332,19 @@
         <v>120</v>
       </c>
       <c r="D122">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="E122" s="11">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>99999.980678553024</v>
       </c>
       <c r="F122" s="11">
+        <f t="shared" si="22"/>
+        <v>3.5803570208372548E-2</v>
+      </c>
+      <c r="G122" s="11">
         <f t="shared" si="20"/>
-        <v>3.5803570208372548E-2</v>
-      </c>
-      <c r="G122" s="11">
-        <f t="shared" si="18"/>
         <v>3.5803570208372548E-3</v>
       </c>
     </row>
@@ -33327,19 +33353,19 @@
         <v>121</v>
       </c>
       <c r="D123">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="E123" s="11">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>99999.983699174496</v>
       </c>
       <c r="F123" s="11">
+        <f t="shared" si="22"/>
+        <v>3.0206214723875746E-2</v>
+      </c>
+      <c r="G123" s="11">
         <f t="shared" si="20"/>
-        <v>3.0206214723875746E-2</v>
-      </c>
-      <c r="G123" s="11">
-        <f t="shared" si="18"/>
         <v>3.0206214723875746E-3</v>
       </c>
     </row>
@@ -33348,19 +33374,19 @@
         <v>122</v>
       </c>
       <c r="D124">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="E124" s="11">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>99999.986247566703</v>
       </c>
       <c r="F124" s="11">
+        <f t="shared" si="22"/>
+        <v>2.5483922072453424E-2</v>
+      </c>
+      <c r="G124" s="11">
         <f t="shared" si="20"/>
-        <v>2.5483922072453424E-2</v>
-      </c>
-      <c r="G124" s="11">
-        <f t="shared" si="18"/>
         <v>2.5483922072453424E-3</v>
       </c>
     </row>
@@ -33369,19 +33395,19 @@
         <v>123</v>
       </c>
       <c r="D125">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="E125" s="11">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>99999.988397555629</v>
       </c>
       <c r="F125" s="11">
+        <f t="shared" si="22"/>
+        <v>2.1499889262486249E-2</v>
+      </c>
+      <c r="G125" s="11">
         <f t="shared" si="20"/>
-        <v>2.1499889262486249E-2</v>
-      </c>
-      <c r="G125" s="11">
-        <f t="shared" si="18"/>
         <v>2.1499889262486249E-3</v>
       </c>
     </row>
@@ -33390,19 +33416,19 @@
         <v>124</v>
       </c>
       <c r="D126">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="E126" s="11">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>99999.990211425713</v>
       </c>
       <c r="F126" s="11">
+        <f t="shared" si="22"/>
+        <v>1.8138700834242627E-2</v>
+      </c>
+      <c r="G126" s="11">
         <f t="shared" si="20"/>
-        <v>1.8138700834242627E-2</v>
-      </c>
-      <c r="G126" s="11">
-        <f t="shared" si="18"/>
         <v>1.8138700834242627E-3</v>
       </c>
     </row>
@@ -33411,19 +33437,19 @@
         <v>125</v>
       </c>
       <c r="D127">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="E127" s="11">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>99999.991741724152</v>
       </c>
       <c r="F127" s="11">
+        <f t="shared" si="22"/>
+        <v>1.5302984393201768E-2</v>
+      </c>
+      <c r="G127" s="11">
         <f t="shared" si="20"/>
-        <v>1.5302984393201768E-2</v>
-      </c>
-      <c r="G127" s="11">
-        <f t="shared" si="18"/>
         <v>1.5302984393201768E-3</v>
       </c>
     </row>
@@ -33432,19 +33458,19 @@
         <v>126</v>
       </c>
       <c r="D128">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="E128" s="11">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>99999.993032783124</v>
       </c>
       <c r="F128" s="11">
+        <f t="shared" si="22"/>
+        <v>1.2910589721286669E-2</v>
+      </c>
+      <c r="G128" s="11">
         <f t="shared" si="20"/>
-        <v>1.2910589721286669E-2</v>
-      </c>
-      <c r="G128" s="11">
-        <f t="shared" si="18"/>
         <v>1.2910589721286669E-3</v>
       </c>
     </row>
@@ -33453,19 +33479,19 @@
         <v>127</v>
       </c>
       <c r="D129">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="E129" s="11">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>99999.994122004195</v>
       </c>
       <c r="F129" s="11">
+        <f t="shared" si="22"/>
+        <v>1.0892210702877492E-2</v>
+      </c>
+      <c r="G129" s="11">
         <f t="shared" si="20"/>
-        <v>1.0892210702877492E-2</v>
-      </c>
-      <c r="G129" s="11">
-        <f t="shared" si="18"/>
         <v>1.0892210702877492E-3</v>
       </c>
     </row>
@@ -33474,19 +33500,19 @@
         <v>128</v>
       </c>
       <c r="D130">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="E130" s="11">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>99999.995040941707</v>
       </c>
       <c r="F130" s="11">
+        <f t="shared" si="22"/>
+        <v>9.1893751232419163E-3</v>
+      </c>
+      <c r="G130" s="11">
         <f t="shared" si="20"/>
-        <v>9.1893751232419163E-3</v>
-      </c>
-      <c r="G130" s="11">
-        <f t="shared" si="18"/>
         <v>9.1893751232419163E-4</v>
       </c>
     </row>
@@ -33495,19 +33521,19 @@
         <v>129</v>
       </c>
       <c r="D131">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="E131" s="11">
-        <f t="shared" ref="E131:E149" si="21">$K$2/(1+$K$5*EXP(-$K$4*B131))</f>
+        <f t="shared" ref="E131:E149" si="23">$K$2/(1+$K$5*EXP(-$K$4*B131))</f>
         <v>99999.99581621695</v>
       </c>
       <c r="F131" s="11">
+        <f t="shared" si="22"/>
+        <v>7.7527524263132364E-3</v>
+      </c>
+      <c r="G131" s="11">
         <f t="shared" si="20"/>
-        <v>7.7527524263132364E-3</v>
-      </c>
-      <c r="G131" s="11">
-        <f t="shared" si="18"/>
         <v>7.7527524263132364E-4</v>
       </c>
     </row>
@@ -33516,19 +33542,19 @@
         <v>130</v>
       </c>
       <c r="D132">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="E132" s="11">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>99999.996470289421</v>
       </c>
       <c r="F132" s="11">
-        <f t="shared" ref="F132:F149" si="22">(E132-E131)*10</f>
+        <f t="shared" ref="F132:F149" si="24">(E132-E131)*10</f>
         <v>6.5407247166149318E-3</v>
       </c>
       <c r="G132" s="11">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>6.5407247166149318E-4</v>
       </c>
     </row>
@@ -33537,19 +33563,19 @@
         <v>131</v>
       </c>
       <c r="D133">
-        <f t="shared" ref="D133:D149" si="23">C133-C132</f>
+        <f t="shared" ref="D133:D149" si="25">C133-C132</f>
         <v>0</v>
       </c>
       <c r="E133" s="11">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>99999.99702210736</v>
       </c>
       <c r="F133" s="11">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>5.5181793868541718E-3</v>
       </c>
       <c r="G133" s="11">
-        <f t="shared" ref="G133:G149" si="24">E133-E132</f>
+        <f t="shared" ref="G133:G149" si="26">E133-E132</f>
         <v>5.5181793868541718E-4</v>
       </c>
     </row>
@@ -33558,19 +33584,19 @@
         <v>132</v>
       </c>
       <c r="D134">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="E134" s="11">
         <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="E134" s="11">
-        <f t="shared" si="21"/>
         <v>99999.997487656728</v>
       </c>
       <c r="F134" s="11">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>4.6554936852771789E-3</v>
       </c>
       <c r="G134" s="11">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>4.6554936852771789E-4</v>
       </c>
     </row>
@@ -33579,19 +33605,19 @@
         <v>133</v>
       </c>
       <c r="D135">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="E135" s="11">
         <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="E135" s="11">
-        <f t="shared" si="21"/>
         <v>99999.997880424373</v>
       </c>
       <c r="F135" s="11">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>3.9276764437090605E-3</v>
       </c>
       <c r="G135" s="11">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>3.9276764437090605E-4</v>
       </c>
     </row>
@@ -33600,19 +33626,19 @@
         <v>134</v>
       </c>
       <c r="D136">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="E136" s="11">
         <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="E136" s="11">
-        <f t="shared" si="21"/>
         <v>99999.99821178861</v>
       </c>
       <c r="F136" s="11">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>3.31364237354137E-3</v>
       </c>
       <c r="G136" s="11">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>3.31364237354137E-4</v>
       </c>
     </row>
@@ -33621,19 +33647,19 @@
         <v>135</v>
       </c>
       <c r="D137">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="E137" s="11">
         <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="E137" s="11">
-        <f t="shared" si="21"/>
         <v>99999.998491348946</v>
       </c>
       <c r="F137" s="11">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>2.795603359118104E-3</v>
       </c>
       <c r="G137" s="11">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>2.795603359118104E-4</v>
       </c>
     </row>
@@ -33642,19 +33668,19 @@
         <v>136</v>
       </c>
       <c r="D138">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="E138" s="11">
         <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="E138" s="11">
-        <f t="shared" si="21"/>
         <v>99999.998727204191</v>
       </c>
       <c r="F138" s="11">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>2.3585524468217045E-3</v>
       </c>
       <c r="G138" s="11">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>2.3585524468217045E-4</v>
       </c>
     </row>
@@ -33663,19 +33689,19 @@
         <v>137</v>
       </c>
       <c r="D139">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="E139" s="11">
         <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="E139" s="11">
-        <f t="shared" si="21"/>
         <v>99999.998926186949</v>
       </c>
       <c r="F139" s="11">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1.9898275786545128E-3</v>
       </c>
       <c r="G139" s="11">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>1.9898275786545128E-4</v>
       </c>
     </row>
@@ -33684,19 +33710,19 @@
         <v>138</v>
       </c>
       <c r="D140">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="E140" s="11">
         <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="E140" s="11">
-        <f t="shared" si="21"/>
         <v>99999.999094061699</v>
       </c>
       <c r="F140" s="11">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1.6787475033197552E-3</v>
       </c>
       <c r="G140" s="11">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>1.6787475033197552E-4</v>
       </c>
     </row>
@@ -33705,19 +33731,19 @@
         <v>139</v>
       </c>
       <c r="D141">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="E141" s="11">
         <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="E141" s="11">
-        <f t="shared" si="21"/>
         <v>99999.99923569175</v>
       </c>
       <c r="F141" s="11">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1.4163005107548088E-3</v>
       </c>
       <c r="G141" s="11">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>1.4163005107548088E-4</v>
       </c>
     </row>
@@ -33726,19 +33752,19 @@
         <v>140</v>
       </c>
       <c r="D142">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="E142" s="11">
         <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="E142" s="11">
-        <f t="shared" si="21"/>
         <v>99999.99935518</v>
       </c>
       <c r="F142" s="11">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1.1948824976570904E-3</v>
       </c>
       <c r="G142" s="11">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>1.1948824976570904E-4</v>
       </c>
     </row>
@@ -33747,19 +33773,19 @@
         <v>141</v>
       </c>
       <c r="D143">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="E143" s="11">
         <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="E143" s="11">
-        <f t="shared" si="21"/>
         <v>99999.999455988058</v>
       </c>
       <c r="F143" s="11">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1.0080805805046111E-3</v>
       </c>
       <c r="G143" s="11">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>1.0080805805046111E-4</v>
       </c>
     </row>
@@ -33768,19 +33794,19 @@
         <v>142</v>
       </c>
       <c r="D144">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="E144" s="11">
         <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="E144" s="11">
-        <f t="shared" si="21"/>
         <v>99999.999541036275</v>
       </c>
       <c r="F144" s="11">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>8.5048217442817986E-4</v>
       </c>
       <c r="G144" s="11">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>8.5048217442817986E-5</v>
       </c>
     </row>
@@ -33789,19 +33815,19 @@
         <v>143</v>
       </c>
       <c r="D145">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="E145" s="11">
         <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="E145" s="11">
-        <f t="shared" si="21"/>
         <v>99999.999612788451</v>
       </c>
       <c r="F145" s="11">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>7.1752176154404879E-4</v>
       </c>
       <c r="G145" s="11">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>7.1752176154404879E-5</v>
       </c>
     </row>
@@ -33810,19 +33836,19 @@
         <v>144</v>
       </c>
       <c r="D146">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="E146" s="11">
         <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="E146" s="11">
-        <f t="shared" si="21"/>
         <v>99999.999673323226</v>
       </c>
       <c r="F146" s="11">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>6.0534774092957377E-4</v>
       </c>
       <c r="G146" s="11">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>6.0534774092957377E-5</v>
       </c>
     </row>
@@ -33831,19 +33857,19 @@
         <v>145</v>
       </c>
       <c r="D147">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="E147" s="11">
         <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="E147" s="11">
-        <f t="shared" si="21"/>
         <v>99999.999724394307</v>
       </c>
       <c r="F147" s="11">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>5.1071081543341279E-4</v>
       </c>
       <c r="G147" s="11">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>5.1071081543341279E-5</v>
       </c>
     </row>
@@ -33852,19 +33878,19 @@
         <v>146</v>
       </c>
       <c r="D148">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="E148" s="11">
         <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="E148" s="11">
-        <f t="shared" si="21"/>
         <v>99999.999767481175</v>
       </c>
       <c r="F148" s="11">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>4.308686766307801E-4</v>
       </c>
       <c r="G148" s="11">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>4.308686766307801E-5</v>
       </c>
     </row>
@@ -33873,19 +33899,19 @@
         <v>147</v>
       </c>
       <c r="D149">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="E149" s="11">
         <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="E149" s="11">
-        <f t="shared" si="21"/>
         <v>99999.999803832048</v>
       </c>
       <c r="F149" s="11">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>3.6350873415358365E-4</v>
       </c>
       <c r="G149" s="11">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>3.6350873415358365E-5</v>
       </c>
     </row>
@@ -33904,8 +33930,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:M67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C44" sqref="C44"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -35716,7 +35742,18 @@
       <c r="B45" s="10">
         <v>43</v>
       </c>
-      <c r="C45" s="3"/>
+      <c r="C45" s="3">
+        <f>Dati!K45</f>
+        <v>16523</v>
+      </c>
+      <c r="D45">
+        <f t="shared" ref="D45" si="29">C45-C44</f>
+        <v>636</v>
+      </c>
+      <c r="E45">
+        <f t="shared" ref="E45" si="30">10*(C45-C44)</f>
+        <v>6360</v>
+      </c>
       <c r="F45" s="11">
         <f t="shared" si="10"/>
         <v>16971.278076272469</v>
@@ -35729,8 +35766,14 @@
         <f t="shared" si="4"/>
         <v>582.61066247022245</v>
       </c>
-      <c r="I45" s="11"/>
-      <c r="J45" s="11"/>
+      <c r="I45" s="11">
+        <f t="shared" ref="I45" si="31">C45-F45</f>
+        <v>-448.27807627246875</v>
+      </c>
+      <c r="J45" s="11">
+        <f t="shared" ref="J45" si="32">D45-H45</f>
+        <v>53.389337529777549</v>
+      </c>
       <c r="K45" s="11"/>
     </row>
     <row r="46" spans="1:11">
@@ -35740,7 +35783,18 @@
       <c r="B46" s="10">
         <v>44</v>
       </c>
-      <c r="C46" s="3"/>
+      <c r="C46" s="3">
+        <f>Dati!K46</f>
+        <v>17127</v>
+      </c>
+      <c r="D46">
+        <f t="shared" ref="D46" si="33">C46-C45</f>
+        <v>604</v>
+      </c>
+      <c r="E46">
+        <f t="shared" ref="E46" si="34">10*(C46-C45)</f>
+        <v>6040</v>
+      </c>
       <c r="F46" s="11">
         <f t="shared" si="10"/>
         <v>17496.017792797407</v>
@@ -35753,8 +35807,14 @@
         <f t="shared" si="4"/>
         <v>524.73971652493856</v>
       </c>
-      <c r="I46" s="11"/>
-      <c r="J46" s="11"/>
+      <c r="I46" s="11">
+        <f t="shared" ref="I46" si="35">C46-F46</f>
+        <v>-369.01779279740731</v>
+      </c>
+      <c r="J46" s="11">
+        <f t="shared" ref="J46" si="36">D46-H46</f>
+        <v>79.260283475061442</v>
+      </c>
       <c r="K46" s="11"/>
     </row>
     <row r="47" spans="1:11">
@@ -36078,7 +36138,7 @@
       </c>
       <c r="C60" s="3"/>
       <c r="F60" s="11">
-        <f t="shared" ref="F60:F67" si="29">$M$2/(1+$M$5*EXP(-$M$4*B60))</f>
+        <f t="shared" ref="F60:F67" si="37">$M$2/(1+$M$5*EXP(-$M$4*B60))</f>
         <v>20617.840215665983</v>
       </c>
       <c r="G60" s="11">
@@ -36102,7 +36162,7 @@
       </c>
       <c r="C61" s="3"/>
       <c r="F61" s="11">
-        <f t="shared" si="29"/>
+        <f t="shared" si="37"/>
         <v>20676.665348247563</v>
       </c>
       <c r="G61" s="11">
@@ -36126,7 +36186,7 @@
       </c>
       <c r="C62" s="3"/>
       <c r="F62" s="11">
-        <f t="shared" si="29"/>
+        <f t="shared" si="37"/>
         <v>20726.555729370077</v>
       </c>
       <c r="G62" s="11">
@@ -36150,7 +36210,7 @@
       </c>
       <c r="C63" s="3"/>
       <c r="F63" s="11">
-        <f t="shared" si="29"/>
+        <f t="shared" si="37"/>
         <v>20768.834113317804</v>
       </c>
       <c r="G63" s="11">
@@ -36174,7 +36234,7 @@
       </c>
       <c r="C64" s="3"/>
       <c r="F64" s="11">
-        <f t="shared" si="29"/>
+        <f t="shared" si="37"/>
         <v>20804.637270596504</v>
       </c>
       <c r="G64" s="11">
@@ -36198,7 +36258,7 @@
       </c>
       <c r="C65" s="3"/>
       <c r="F65" s="11">
-        <f t="shared" si="29"/>
+        <f t="shared" si="37"/>
         <v>20834.939277021032</v>
       </c>
       <c r="G65" s="11">
@@ -36222,7 +36282,7 @@
       </c>
       <c r="C66" s="3"/>
       <c r="F66" s="11">
-        <f t="shared" si="29"/>
+        <f t="shared" si="37"/>
         <v>20860.572747223094</v>
       </c>
       <c r="G66" s="11">
@@ -36246,7 +36306,7 @@
       </c>
       <c r="C67" s="3"/>
       <c r="F67" s="11">
-        <f t="shared" si="29"/>
+        <f t="shared" si="37"/>
         <v>20882.247909134818</v>
       </c>
       <c r="G67" s="11">
@@ -36391,10 +36451,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E44"/>
+  <dimension ref="A1:E46"/>
   <sheetViews>
     <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A44" sqref="A44"/>
+      <selection activeCell="A46" sqref="A46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -37279,6 +37339,48 @@
         <v>-709</v>
       </c>
     </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="2">
+        <v>43927</v>
+      </c>
+      <c r="B45" s="3">
+        <f>Dati!L45</f>
+        <v>132547</v>
+      </c>
+      <c r="C45">
+        <f t="shared" ref="C45" si="27">B45-B44</f>
+        <v>3599</v>
+      </c>
+      <c r="D45">
+        <f t="shared" ref="D45" si="28">C45-C44</f>
+        <v>-717</v>
+      </c>
+      <c r="E45">
+        <f t="shared" ref="E45" si="29">D45-D44</f>
+        <v>-228</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="2">
+        <v>43928</v>
+      </c>
+      <c r="B46" s="3">
+        <f>Dati!L46</f>
+        <v>135586</v>
+      </c>
+      <c r="C46">
+        <f t="shared" ref="C46" si="30">B46-B45</f>
+        <v>3039</v>
+      </c>
+      <c r="D46">
+        <f t="shared" ref="D46" si="31">C46-C45</f>
+        <v>-560</v>
+      </c>
+      <c r="E46">
+        <f t="shared" ref="E46" si="32">D46-D45</f>
+        <v>157</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0.39370078740157505" bottom="0.39370078740157505" header="0" footer="0"/>
   <headerFooter>
@@ -37291,10 +37393,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:E44"/>
+  <dimension ref="A1:E46"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A44" sqref="A44"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="G44" sqref="G44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -38179,6 +38281,48 @@
         <v>146</v>
       </c>
     </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="2">
+        <v>43927</v>
+      </c>
+      <c r="B45" s="3">
+        <f>Dati!D45</f>
+        <v>3898</v>
+      </c>
+      <c r="C45">
+        <f t="shared" ref="C45" si="27">B45-B44</f>
+        <v>-79</v>
+      </c>
+      <c r="D45">
+        <f t="shared" ref="D45" si="28">C45-C44</f>
+        <v>-62</v>
+      </c>
+      <c r="E45">
+        <f t="shared" ref="E45" si="29">D45-D44</f>
+        <v>-119</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="2">
+        <v>43928</v>
+      </c>
+      <c r="B46" s="3">
+        <f>Dati!D46</f>
+        <v>3792</v>
+      </c>
+      <c r="C46">
+        <f t="shared" ref="C46" si="30">B46-B45</f>
+        <v>-106</v>
+      </c>
+      <c r="D46">
+        <f t="shared" ref="D46" si="31">C46-C45</f>
+        <v>-27</v>
+      </c>
+      <c r="E46">
+        <f t="shared" ref="E46" si="32">D46-D45</f>
+        <v>35</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.70000000000000007" right="0.70000000000000007" top="0.75" bottom="0.75" header="0.30000000000000004" footer="0.30000000000000004"/>
   <drawing r:id="rId1"/>
@@ -38187,10 +38331,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:E44"/>
+  <dimension ref="A1:E46"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A44" sqref="A44"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A46" sqref="A46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -39076,6 +39220,48 @@
         <v>-177</v>
       </c>
     </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="2">
+        <v>43927</v>
+      </c>
+      <c r="B45" s="3">
+        <f>Dati!J45</f>
+        <v>22837</v>
+      </c>
+      <c r="C45">
+        <f t="shared" ref="C45" si="27">B45-B44</f>
+        <v>1022</v>
+      </c>
+      <c r="D45">
+        <f t="shared" ref="D45" si="28">C45-C44</f>
+        <v>203</v>
+      </c>
+      <c r="E45">
+        <f t="shared" ref="E45" si="29">D45-D44</f>
+        <v>622</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="2">
+        <v>43928</v>
+      </c>
+      <c r="B46" s="3">
+        <f>Dati!J46</f>
+        <v>24392</v>
+      </c>
+      <c r="C46">
+        <f t="shared" ref="C46" si="30">B46-B45</f>
+        <v>1555</v>
+      </c>
+      <c r="D46">
+        <f t="shared" ref="D46" si="31">C46-C45</f>
+        <v>533</v>
+      </c>
+      <c r="E46">
+        <f t="shared" ref="E46" si="32">D46-D45</f>
+        <v>330</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0.39370078740157505" bottom="0.39370078740157505" header="0" footer="0"/>
   <headerFooter>
@@ -39088,10 +39274,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:E44"/>
+  <dimension ref="A1:E46"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A44" sqref="A44"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A46" sqref="A46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -39977,6 +40163,48 @@
         <v>-71</v>
       </c>
     </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="2">
+        <v>43927</v>
+      </c>
+      <c r="B45" s="3">
+        <f>Dati!K45</f>
+        <v>16523</v>
+      </c>
+      <c r="C45">
+        <f t="shared" ref="C45" si="27">B45-B44</f>
+        <v>636</v>
+      </c>
+      <c r="D45">
+        <f t="shared" ref="D45" si="28">C45-C44</f>
+        <v>111</v>
+      </c>
+      <c r="E45">
+        <f t="shared" ref="E45" si="29">D45-D44</f>
+        <v>267</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="2">
+        <v>43928</v>
+      </c>
+      <c r="B46" s="3">
+        <f>Dati!K46</f>
+        <v>17127</v>
+      </c>
+      <c r="C46">
+        <f t="shared" ref="C46" si="30">B46-B45</f>
+        <v>604</v>
+      </c>
+      <c r="D46">
+        <f t="shared" ref="D46" si="31">C46-C45</f>
+        <v>-32</v>
+      </c>
+      <c r="E46">
+        <f t="shared" ref="E46" si="32">D46-D45</f>
+        <v>-143</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0.39370078740157505" bottom="0.39370078740157505" header="0" footer="0"/>
   <headerFooter>
@@ -39989,10 +40217,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:E44"/>
+  <dimension ref="A1:E46"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A44" sqref="A44"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A46" sqref="A46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -40878,6 +41106,48 @@
         <v>-252</v>
       </c>
     </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="2">
+        <v>43927</v>
+      </c>
+      <c r="B45" s="3">
+        <f>Dati!E45</f>
+        <v>32874</v>
+      </c>
+      <c r="C45">
+        <f t="shared" ref="C45" si="27">B45-B44</f>
+        <v>-52</v>
+      </c>
+      <c r="D45">
+        <f t="shared" ref="D45" si="28">C45-C44</f>
+        <v>26</v>
+      </c>
+      <c r="E45">
+        <f t="shared" ref="E45" si="29">D45-D44</f>
+        <v>299</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="2">
+        <v>43928</v>
+      </c>
+      <c r="B46" s="3">
+        <f>Dati!E46</f>
+        <v>32510</v>
+      </c>
+      <c r="C46">
+        <f t="shared" ref="C46" si="30">B46-B45</f>
+        <v>-364</v>
+      </c>
+      <c r="D46">
+        <f t="shared" ref="D46" si="31">C46-C45</f>
+        <v>-312</v>
+      </c>
+      <c r="E46">
+        <f t="shared" ref="E46" si="32">D46-D45</f>
+        <v>-338</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0.39370078740157505" bottom="0.39370078740157505" header="0" footer="0"/>
   <headerFooter>
@@ -40890,10 +41160,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:E44"/>
+  <dimension ref="A1:E46"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="G40" sqref="G40"/>
+      <selection activeCell="A46" sqref="A46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -41780,6 +42050,48 @@
         <v>-461</v>
       </c>
     </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="2">
+        <v>43927</v>
+      </c>
+      <c r="B45" s="3">
+        <f>Dati!G45</f>
+        <v>93187</v>
+      </c>
+      <c r="C45">
+        <f t="shared" ref="C45" si="27">B45-B44</f>
+        <v>1941</v>
+      </c>
+      <c r="D45">
+        <f t="shared" ref="D45" si="28">C45-C44</f>
+        <v>-1031</v>
+      </c>
+      <c r="E45">
+        <f t="shared" ref="E45" si="29">D45-D44</f>
+        <v>-1117</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="2">
+        <v>43928</v>
+      </c>
+      <c r="B46" s="3">
+        <f>Dati!G46</f>
+        <v>94067</v>
+      </c>
+      <c r="C46">
+        <f t="shared" ref="C46" si="30">B46-B45</f>
+        <v>880</v>
+      </c>
+      <c r="D46">
+        <f t="shared" ref="D46" si="31">C46-C45</f>
+        <v>-1061</v>
+      </c>
+      <c r="E46">
+        <f t="shared" ref="E46" si="32">D46-D45</f>
+        <v>-30</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0.39370078740157505" bottom="0.39370078740157505" header="0" footer="0"/>
   <headerFooter>
@@ -41792,10 +42104,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:E44"/>
+  <dimension ref="A1:E47"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="A44" sqref="A44"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="A46" sqref="A46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -42681,6 +42993,52 @@
         <v>-209</v>
       </c>
     </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="2">
+        <v>43927</v>
+      </c>
+      <c r="B45" s="3">
+        <f>Dati!F45</f>
+        <v>60313</v>
+      </c>
+      <c r="C45">
+        <f t="shared" ref="C45" si="27">B45-B44</f>
+        <v>1993</v>
+      </c>
+      <c r="D45">
+        <f t="shared" ref="D45" si="28">C45-C44</f>
+        <v>-1057</v>
+      </c>
+      <c r="E45">
+        <f t="shared" ref="E45" si="29">D45-D44</f>
+        <v>-1416</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="2">
+        <v>43928</v>
+      </c>
+      <c r="B46" s="3">
+        <f>Dati!F46</f>
+        <v>61557</v>
+      </c>
+      <c r="C46">
+        <f t="shared" ref="C46:C47" si="30">B46-B45</f>
+        <v>1244</v>
+      </c>
+      <c r="D46">
+        <f t="shared" ref="D46:D47" si="31">C46-C45</f>
+        <v>-749</v>
+      </c>
+      <c r="E46">
+        <f t="shared" ref="E46:E47" si="32">D46-D45</f>
+        <v>308</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="2"/>
+      <c r="B47" s="3"/>
+    </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0.39370078740157505" bottom="0.39370078740157505" header="0" footer="0"/>
   <headerFooter>
@@ -42693,10 +43051,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:N44"/>
+  <dimension ref="A1:N46"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A44" sqref="A44"/>
+      <selection activeCell="A46" sqref="A46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -44233,6 +44591,78 @@
         <v>13.196116628414329</v>
       </c>
     </row>
+    <row r="45" spans="1:11">
+      <c r="A45" s="2">
+        <v>43927</v>
+      </c>
+      <c r="B45" s="10">
+        <v>43</v>
+      </c>
+      <c r="C45" s="3">
+        <f>Dati!M45</f>
+        <v>721732</v>
+      </c>
+      <c r="D45">
+        <f t="shared" ref="D45" si="36">C45-C44</f>
+        <v>30271</v>
+      </c>
+      <c r="E45">
+        <f t="shared" ref="E45" si="37">D45-D44</f>
+        <v>-3966</v>
+      </c>
+      <c r="H45" s="5">
+        <f>C45/Casi_totali!B45</f>
+        <v>5.445102491946253</v>
+      </c>
+      <c r="I45" s="5">
+        <f>C45/Positivi!B45</f>
+        <v>7.7449858885896106</v>
+      </c>
+      <c r="J45" s="6">
+        <f t="shared" ref="J45" si="38">100/H45</f>
+        <v>18.365127221738817</v>
+      </c>
+      <c r="K45" s="6">
+        <f t="shared" ref="K45" si="39">100/I45</f>
+        <v>12.911579367410617</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
+      <c r="A46" s="2">
+        <v>43928</v>
+      </c>
+      <c r="B46" s="10">
+        <v>44</v>
+      </c>
+      <c r="C46" s="3">
+        <f>Dati!M46</f>
+        <v>755445</v>
+      </c>
+      <c r="D46">
+        <f t="shared" ref="D46" si="40">C46-C45</f>
+        <v>33713</v>
+      </c>
+      <c r="E46">
+        <f t="shared" ref="E46" si="41">D46-D45</f>
+        <v>3442</v>
+      </c>
+      <c r="H46" s="5">
+        <f>C46/Casi_totali!B46</f>
+        <v>5.5717035682150078</v>
+      </c>
+      <c r="I46" s="5">
+        <f>C46/Positivi!B46</f>
+        <v>8.0309247663899139</v>
+      </c>
+      <c r="J46" s="6">
+        <f t="shared" ref="J46" si="42">100/H46</f>
+        <v>17.947832072487078</v>
+      </c>
+      <c r="K46" s="6">
+        <f t="shared" ref="K46" si="43">100/I46</f>
+        <v>12.451866118645301</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.70000000000000007" right="0.70000000000000007" top="0.75" bottom="0.75" header="0.30000000000000004" footer="0.30000000000000004"/>
   <pageSetup paperSize="0" fitToWidth="0" fitToHeight="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>

--- a/covid_ita.xlsx
+++ b/covid_ita.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carpaneto\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82439338-AAA9-48EC-845F-8E43C1508536}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1B4AE2C-BCDE-44F2-9DD4-7C40DF3CDFAE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="40">
   <si>
     <t>data</t>
   </si>
@@ -637,6 +637,12 @@
                 <c:pt idx="43">
                   <c:v>43928</c:v>
                 </c:pt>
+                <c:pt idx="44">
+                  <c:v>43929</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>43930</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -777,6 +783,12 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>135586</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>139422</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>143626</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -953,6 +965,12 @@
                 <c:pt idx="43">
                   <c:v>43928</c:v>
                 </c:pt>
+                <c:pt idx="44">
+                  <c:v>43929</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>43930</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -1090,6 +1108,12 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>3039</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>3836</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>4204</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1262,6 +1286,12 @@
                 <c:pt idx="43">
                   <c:v>43928</c:v>
                 </c:pt>
+                <c:pt idx="44">
+                  <c:v>43929</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>43930</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -1396,6 +1426,12 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>-560</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>797</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>368</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1572,6 +1608,12 @@
                 <c:pt idx="43">
                   <c:v>43928</c:v>
                 </c:pt>
+                <c:pt idx="44">
+                  <c:v>43929</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>43930</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -1703,6 +1745,12 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>157</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1357</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-429</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2104,6 +2152,15 @@
                 <c:pt idx="43">
                   <c:v>43928</c:v>
                 </c:pt>
+                <c:pt idx="44">
+                  <c:v>43929</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>43930</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>43931</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -2241,6 +2298,15 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>-364</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-332</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-174</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-265</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2417,6 +2483,15 @@
                 <c:pt idx="43">
                   <c:v>43928</c:v>
                 </c:pt>
+                <c:pt idx="44">
+                  <c:v>43929</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>43930</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>43931</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -2551,6 +2626,15 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>-312</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>158</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-91</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2825,10 +2909,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Positivi!$A$3:$A$48</c:f>
+              <c:f>Positivi!$A$3:$A$55</c:f>
               <c:numCache>
                 <c:formatCode>d/m;@</c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="53"/>
                 <c:pt idx="0">
                   <c:v>43885.75</c:v>
                 </c:pt>
@@ -2960,16 +3044,25 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>43928</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>43929</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>43930</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>43931</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Positivi!$B$3:$B$48</c:f>
+              <c:f>Positivi!$B$3:$B$55</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="53"/>
                 <c:pt idx="0">
                   <c:v>221</c:v>
                 </c:pt>
@@ -3101,6 +3194,15 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>94067</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>95262</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>96877</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>98273</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3141,10 +3243,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Positivi!$A$3:$A$48</c:f>
+              <c:f>Positivi!$A$3:$A$55</c:f>
               <c:numCache>
                 <c:formatCode>d/m;@</c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="53"/>
                 <c:pt idx="0">
                   <c:v>43885.75</c:v>
                 </c:pt>
@@ -3276,16 +3378,25 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>43928</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>43929</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>43930</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>43931</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Positivi!$C$3:$C$48</c:f>
+              <c:f>Positivi!$C$3:$C$55</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="53"/>
                 <c:pt idx="1">
                   <c:v>90</c:v>
                 </c:pt>
@@ -3414,6 +3525,15 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>880</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1195</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1615</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1396</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3450,10 +3570,10 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>Positivi!$A$3:$A$48</c:f>
+              <c:f>Positivi!$A$3:$A$55</c:f>
               <c:numCache>
                 <c:formatCode>d/m;@</c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="53"/>
                 <c:pt idx="0">
                   <c:v>43885.75</c:v>
                 </c:pt>
@@ -3585,16 +3705,25 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>43928</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>43929</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>43930</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>43931</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Positivi!$D$3:$D$48</c:f>
+              <c:f>Positivi!$D$3:$D$55</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="53"/>
                 <c:pt idx="2">
                   <c:v>-16</c:v>
                 </c:pt>
@@ -3720,6 +3849,15 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>-1061</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>315</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>420</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-219</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3985,10 +4123,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Positivi!$A$3:$A$47</c:f>
+              <c:f>Positivi!$A$3:$A$51</c:f>
               <c:numCache>
                 <c:formatCode>d/m;@</c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>43885.75</c:v>
                 </c:pt>
@@ -4120,16 +4258,25 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>43928</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>43929</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>43930</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>43931</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Positivi!$C$3:$C$47</c:f>
+              <c:f>Positivi!$C$3:$C$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="1">
                   <c:v>90</c:v>
                 </c:pt>
@@ -4258,6 +4405,15 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>880</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1195</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1615</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1396</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4298,10 +4454,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Positivi!$A$3:$A$47</c:f>
+              <c:f>Positivi!$A$3:$A$51</c:f>
               <c:numCache>
                 <c:formatCode>d/m;@</c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>43885.75</c:v>
                 </c:pt>
@@ -4433,16 +4589,25 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>43928</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>43929</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>43930</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>43931</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Positivi!$D$3:$D$47</c:f>
+              <c:f>Positivi!$D$3:$D$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="2">
                   <c:v>-16</c:v>
                 </c:pt>
@@ -4568,6 +4733,15 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>-1061</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>315</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>420</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-219</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4867,10 +5041,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Positivi!$A$3:$A$48</c:f>
+              <c:f>Positivi!$A$3:$A$54</c:f>
               <c:numCache>
                 <c:formatCode>d/m;@</c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>43885.75</c:v>
                 </c:pt>
@@ -5002,16 +5176,25 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>43928</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>43929</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>43930</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>43931</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Positivi!$B$3:$B$48</c:f>
+              <c:f>Positivi!$B$3:$B$54</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>221</c:v>
                 </c:pt>
@@ -5143,6 +5326,15 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>94067</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>95262</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>96877</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>98273</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5386,10 +5578,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Quarantena!$A$3:$A$46</c:f>
+              <c:f>Quarantena!$A$3:$A$52</c:f>
               <c:numCache>
                 <c:formatCode>d/m;@</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>43885.75</c:v>
                 </c:pt>
@@ -5521,16 +5713,25 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>43928</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>43929</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>43930</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>43931</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Quarantena!$B$3:$B$46</c:f>
+              <c:f>Quarantena!$B$3:$B$52</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>94</c:v>
                 </c:pt>
@@ -5662,6 +5863,15 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>61557</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>63084</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>64873</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>66534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5702,10 +5912,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Quarantena!$A$3:$A$46</c:f>
+              <c:f>Quarantena!$A$3:$A$52</c:f>
               <c:numCache>
                 <c:formatCode>d/m;@</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>43885.75</c:v>
                 </c:pt>
@@ -5837,16 +6047,25 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>43928</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>43929</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>43930</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>43931</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Quarantena!$C$3:$C$46</c:f>
+              <c:f>Quarantena!$C$3:$C$52</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="1">
                   <c:v>68</c:v>
                 </c:pt>
@@ -5975,6 +6194,15 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>1244</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1527</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1789</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1661</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6011,10 +6239,10 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>Quarantena!$A$3:$A$46</c:f>
+              <c:f>Quarantena!$A$3:$A$52</c:f>
               <c:numCache>
                 <c:formatCode>d/m;@</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>43885.75</c:v>
                 </c:pt>
@@ -6146,16 +6374,25 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>43928</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>43929</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>43930</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>43931</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Quarantena!$D$3:$D$46</c:f>
+              <c:f>Quarantena!$D$3:$D$52</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="2">
                   <c:v>-9</c:v>
                 </c:pt>
@@ -6281,6 +6518,15 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>-749</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>283</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>262</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-128</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6546,10 +6792,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Quarantena!$A$3:$A$47</c:f>
+              <c:f>Quarantena!$A$3:$A$53</c:f>
               <c:numCache>
                 <c:formatCode>d/m;@</c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>43885.75</c:v>
                 </c:pt>
@@ -6681,16 +6927,25 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>43928</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>43929</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>43930</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>43931</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Quarantena!$C$3:$C$47</c:f>
+              <c:f>Quarantena!$C$3:$C$53</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="1">
                   <c:v>68</c:v>
                 </c:pt>
@@ -6819,6 +7074,15 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>1244</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1527</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1789</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1661</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6859,10 +7123,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Quarantena!$A$3:$A$47</c:f>
+              <c:f>Quarantena!$A$3:$A$53</c:f>
               <c:numCache>
                 <c:formatCode>d/m;@</c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>43885.75</c:v>
                 </c:pt>
@@ -6994,16 +7258,25 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>43928</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>43929</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>43930</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>43931</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Quarantena!$D$3:$D$47</c:f>
+              <c:f>Quarantena!$D$3:$D$53</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="2">
                   <c:v>-9</c:v>
                 </c:pt>
@@ -7129,6 +7402,15 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>-749</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>283</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>262</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-128</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7439,10 +7721,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Tamponi!$A$3:$A$47</c:f>
+              <c:f>Tamponi!$A$3:$A$53</c:f>
               <c:numCache>
                 <c:formatCode>d/m;@</c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>43885</c:v>
                 </c:pt>
@@ -7574,16 +7856,25 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>43928</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>43929</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>43930</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>43931</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Tamponi!$C$3:$C$47</c:f>
+              <c:f>Tamponi!$C$3:$C$53</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>4324</c:v>
                 </c:pt>
@@ -7715,6 +8006,15 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>755445</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>807125</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>853369</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>906864</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7991,10 +8291,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Tamponi!$A$3:$A$47</c:f>
+              <c:f>Tamponi!$A$3:$A$54</c:f>
               <c:numCache>
                 <c:formatCode>d/m;@</c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>43885</c:v>
                 </c:pt>
@@ -8126,16 +8426,25 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>43928</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>43929</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>43930</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>43931</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Tamponi!$D$3:$D$47</c:f>
+              <c:f>Tamponi!$D$3:$D$54</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="1">
                   <c:v>4299</c:v>
                 </c:pt>
@@ -8264,6 +8573,15 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>33713</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>51680</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>46244</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>53495</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8551,10 +8869,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Tamponi!$A$3:$A$48</c:f>
+              <c:f>Tamponi!$A$3:$A$52</c:f>
               <c:numCache>
                 <c:formatCode>d/m;@</c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>43885</c:v>
                 </c:pt>
@@ -8686,16 +9004,25 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>43928</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>43929</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>43930</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>43931</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Tamponi!$J$3:$J$48</c:f>
+              <c:f>Tamponi!$J$3:$J$52</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>5.2960222016651244</c:v>
                 </c:pt>
@@ -8827,6 +9154,15 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>17.947832072487078</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>17.273904289917919</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>16.830468414015506</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>16.273333156901145</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8867,10 +9203,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Tamponi!$A$2:$A$48</c:f>
+              <c:f>Tamponi!$A$2:$A$53</c:f>
               <c:numCache>
                 <c:formatCode>d/m;@</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="1">
                   <c:v>43885</c:v>
                 </c:pt>
@@ -9002,16 +9338,25 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>43928</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>43929</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>43930</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>43931</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Tamponi!$K$2:$K$48</c:f>
+              <c:f>Tamponi!$K$2:$K$53</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="1">
                   <c:v>5.1110083256244216</c:v>
                 </c:pt>
@@ -9143,6 +9488,15 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>12.451866118645301</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>11.802632801610654</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>11.352298946879953</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>10.836575274793134</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9430,10 +9784,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Analisi-pos'!$B$3:$B$44</c:f>
+              <c:f>'Analisi-pos'!$B$3:$B$58</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="56"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -9559,16 +9913,58 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>56</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Analisi-pos'!$C$2:$C$44</c:f>
+              <c:f>'Analisi-pos'!$C$2:$C$58</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="57"/>
                 <c:pt idx="1">
                   <c:v>221</c:v>
                 </c:pt>
@@ -9694,6 +10090,21 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>91246</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>93187</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>94067</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>95262</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>96877</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>98273</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11003,6 +11414,9 @@
                 <c:pt idx="43">
                   <c:v>43928</c:v>
                 </c:pt>
+                <c:pt idx="44">
+                  <c:v>43929</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -11140,6 +11554,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>3039</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>3836</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11316,6 +11733,9 @@
                 <c:pt idx="43">
                   <c:v>43928</c:v>
                 </c:pt>
+                <c:pt idx="44">
+                  <c:v>43929</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -11450,6 +11870,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>-560</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>797</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11749,10 +12172,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Analisi-pos'!$A$3:$A$48</c:f>
+              <c:f>'Analisi-pos'!$A$3:$A$60</c:f>
               <c:numCache>
                 <c:formatCode>d/m;@</c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="58"/>
                 <c:pt idx="0">
                   <c:v>43885.75</c:v>
                 </c:pt>
@@ -11890,16 +12313,52 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>43930</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>43931</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>43932</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>43933</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>43934</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>43935</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>43936</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>43937</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>43938</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>43939</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>43940</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>43941</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>43942</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Analisi-pos'!$C$3:$C$48</c:f>
+              <c:f>'Analisi-pos'!$C$3:$C$60</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="58"/>
                 <c:pt idx="0">
                   <c:v>221</c:v>
                 </c:pt>
@@ -12031,6 +12490,15 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>94067</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>95262</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>96877</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>98273</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12284,10 +12752,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Analisi-pos'!$B$3:$B$48</c:f>
+              <c:f>'Analisi-pos'!$B$3:$B$58</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="56"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -12425,16 +12893,46 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>56</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Analisi-pos'!$C$3:$C$48</c:f>
+              <c:f>'Analisi-pos'!$C$3:$C$58</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="56"/>
                 <c:pt idx="0">
                   <c:v>221</c:v>
                 </c:pt>
@@ -12566,6 +13064,15 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>94067</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>95262</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>96877</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>98273</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14091,6 +14598,15 @@
                 <c:pt idx="43">
                   <c:v>1380.7443430765561</c:v>
                 </c:pt>
+                <c:pt idx="44">
+                  <c:v>1503.7162869294116</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2194.8075854579511</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2797.0583923207014</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -14299,12 +14815,13 @@
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
+          <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="4.4060739907355324E-2"/>
-          <c:y val="4.0222111373006103E-2"/>
-          <c:w val="0.79493753081789831"/>
-          <c:h val="0.95977696259703249"/>
+          <c:x val="0.12371812757079825"/>
+          <c:y val="6.0224975892353337E-2"/>
+          <c:w val="0.68102560558895942"/>
+          <c:h val="0.85724754262515912"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -14339,10 +14856,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Analisi-dead'!$A$3:$A$49</c:f>
+              <c:f>'Analisi-dead'!$A$3:$A$62</c:f>
               <c:numCache>
                 <c:formatCode>d/m;@</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="60"/>
                 <c:pt idx="0">
                   <c:v>43885.75</c:v>
                 </c:pt>
@@ -14483,16 +15000,55 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>43931</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>43932</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>43933</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>43934</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>43935</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>43936</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>43937</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>43938</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>43939</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>43940</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>43941</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>43942</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>43943</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>43944</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Analisi-dead'!$C$3:$C$49</c:f>
+              <c:f>'Analisi-dead'!$C$3:$C$62</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="60"/>
                 <c:pt idx="0">
                   <c:v>7</c:v>
                 </c:pt>
@@ -14624,6 +15180,15 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>17127</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>17669</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>18279</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>18849</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14660,10 +15225,10 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>'Analisi-dead'!$A$3:$A$46</c:f>
+              <c:f>'Analisi-dead'!$A$3:$A$58</c:f>
               <c:numCache>
                 <c:formatCode>d/m;@</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="56"/>
                 <c:pt idx="0">
                   <c:v>43885.75</c:v>
                 </c:pt>
@@ -14795,16 +15360,52 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>43928</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>43929</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>43930</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>43931</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>43932</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>43933</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>43934</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>43935</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>43936</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>43937</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>43938</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>43939</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>43940</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Analisi-dead'!$F$3:$F$46</c:f>
+              <c:f>'Analisi-dead'!$F$3:$F$58</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="56"/>
                 <c:pt idx="0">
                   <c:v>69.896596774096395</c:v>
                 </c:pt>
@@ -14936,6 +15537,42 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>17496.017792797407</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>17964.634436338896</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>18379.964240760815</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>18745.595993500992</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>19065.573203362124</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>19344.146383687792</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>19585.578914365</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>19794.003912611654</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>19973.325973531508</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>20127.16003546397</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>20258.799394720634</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>20371.205507167284</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>20467.013255369406</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14989,10 +15626,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Analisi-dead'!$A$3:$A$43</c:f>
+              <c:f>'Analisi-dead'!$A$3:$A$54</c:f>
               <c:numCache>
                 <c:formatCode>d/m;@</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>43885.75</c:v>
                 </c:pt>
@@ -15115,16 +15752,49 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>43925</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>43926</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43927</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43928</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>43929</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>43930</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>43931</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>43932</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>43933</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>43934</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>43935</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>43936</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Analisi-dead'!$G$3:$G$43</c:f>
+              <c:f>'Analisi-dead'!$G$3:$G$54</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="1">
                   <c:v>129.01111297209354</c:v>
                 </c:pt>
@@ -15244,6 +15914,39 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>6975.0851259551928</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>6407.9034129265892</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>5826.1066247022245</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>5247.3971652493856</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>4686.1664354148888</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>4153.2980442191911</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>3656.3175274017703</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>3199.77209861132</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2785.7318032566764</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2414.3253067720798</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2084.2499824665356</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1793.2206091985427</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15858,6 +16561,15 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>17127</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>17669</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>18279</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>18849</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -17061,10 +17773,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Analisi-dead'!$B$3:$B$48</c:f>
+              <c:f>'Analisi-dead'!$B$3:$B$51</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -17202,16 +17914,25 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>49</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Analisi-dead'!$I$3:$I$48</c:f>
+              <c:f>'Analisi-dead'!$I$3:$I$51</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>-62.896596774096395</c:v>
                 </c:pt>
@@ -17343,6 +18064,15 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>-369.01779279740731</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-295.63443633889619</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-100.9642407608153</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>103.40400649900766</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -17656,10 +18386,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Analisi-dead'!$A$4:$A$47</c:f>
+              <c:f>'Analisi-dead'!$A$4:$A$53</c:f>
               <c:numCache>
                 <c:formatCode>d/m;@</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>43886</c:v>
                 </c:pt>
@@ -17791,16 +18521,34 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>43929</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>43930</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>43931</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>43932</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>43933</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>43934</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>43935</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Analisi-dead'!$D$4:$D$47</c:f>
+              <c:f>'Analisi-dead'!$D$4:$D$53</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>3</c:v>
                 </c:pt>
@@ -17929,6 +18677,15 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>604</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>542</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>610</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>570</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -18828,6 +19585,15 @@
                 <c:pt idx="43">
                   <c:v>43928</c:v>
                 </c:pt>
+                <c:pt idx="44">
+                  <c:v>43929</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>43930</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>43931</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -18968,6 +19734,15 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>135586</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>139422</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>143626</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>147577</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -19222,7 +19997,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Terapia_inten!$B$1:$B$1</c:f>
+              <c:f>Terapia_inten!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -19246,10 +20021,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Terapia_inten!$A$3:$A$44</c:f>
+              <c:f>Terapia_inten!$A$3:$A$52</c:f>
               <c:numCache>
                 <c:formatCode>d/m;@</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>43885.75</c:v>
                 </c:pt>
@@ -19375,16 +20150,31 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>43926</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43927</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43928</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>43929</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>43930</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>43931</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Terapia_inten!$B$3:$B$44</c:f>
+              <c:f>Terapia_inten!$B$3:$B$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>26</c:v>
                 </c:pt>
@@ -19510,6 +20300,21 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>3977</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>3898</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>3792</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>3693</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>3605</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>3497</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -19550,10 +20355,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Terapia_inten!$A$2:$A$46</c:f>
+              <c:f>Terapia_inten!$A$2:$A$53</c:f>
               <c:numCache>
                 <c:formatCode>d/m;@</c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="1">
                   <c:v>43885.75</c:v>
                 </c:pt>
@@ -19685,16 +20490,25 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>43928</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>43929</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>43930</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>43931</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Terapia_inten!$C$2:$C$46</c:f>
+              <c:f>Terapia_inten!$C$2:$C$53</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="2">
                   <c:v>9</c:v>
                 </c:pt>
@@ -19823,6 +20637,15 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>-106</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-99</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-88</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-108</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -19859,10 +20682,10 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>Terapia_inten!$A$2:$A$46</c:f>
+              <c:f>Terapia_inten!$A$2:$A$53</c:f>
               <c:numCache>
                 <c:formatCode>d/m;@</c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="1">
                   <c:v>43885.75</c:v>
                 </c:pt>
@@ -19994,16 +20817,25 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>43928</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>43929</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>43930</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>43931</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Terapia_inten!$D$2:$D$46</c:f>
+              <c:f>Terapia_inten!$D$2:$D$53</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="3">
                   <c:v>-8</c:v>
                 </c:pt>
@@ -20129,6 +20961,15 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>-27</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-20</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -20394,10 +21235,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Guariti!$A$3:$A$46</c:f>
+              <c:f>Guariti!$A$3:$A$52</c:f>
               <c:numCache>
                 <c:formatCode>d/m;@</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>43885.75</c:v>
                 </c:pt>
@@ -20529,16 +21370,25 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>43928</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>43929</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>43930</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>43931</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Guariti!$B$3:$B$46</c:f>
+              <c:f>Guariti!$B$3:$B$52</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -20670,6 +21520,15 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>24392</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>26491</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>28470</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>30455</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -20710,10 +21569,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Guariti!$A$3:$A$46</c:f>
+              <c:f>Guariti!$A$3:$A$52</c:f>
               <c:numCache>
                 <c:formatCode>d/m;@</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>43885.75</c:v>
                 </c:pt>
@@ -20845,16 +21704,25 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>43928</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>43929</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>43930</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>43931</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Guariti!$C$3:$C$46</c:f>
+              <c:f>Guariti!$C$3:$C$52</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
@@ -20983,6 +21851,15 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>1555</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2099</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1979</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1985</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -21019,10 +21896,10 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>Guariti!$A$3:$A$46</c:f>
+              <c:f>Guariti!$A$3:$A$52</c:f>
               <c:numCache>
                 <c:formatCode>d/m;@</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>43885.75</c:v>
                 </c:pt>
@@ -21154,16 +22031,25 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>43928</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>43929</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>43930</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>43931</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Guariti!$D$3:$D$46</c:f>
+              <c:f>Guariti!$D$3:$D$52</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="2">
                   <c:v>2</c:v>
                 </c:pt>
@@ -21289,6 +22175,15 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>533</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>544</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-120</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -21563,10 +22458,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Guariti!$A$3:$A$47</c:f>
+              <c:f>Guariti!$A$3:$A$53</c:f>
               <c:numCache>
                 <c:formatCode>d/m;@</c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>43885.75</c:v>
                 </c:pt>
@@ -21698,16 +22593,25 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>43928</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>43929</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>43930</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>43931</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Guariti!$C$3:$C$47</c:f>
+              <c:f>Guariti!$C$3:$C$53</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
@@ -21836,6 +22740,15 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>1555</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2099</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1979</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1985</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -21876,10 +22789,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Guariti!$A$3:$A$47</c:f>
+              <c:f>Guariti!$A$3:$A$53</c:f>
               <c:numCache>
                 <c:formatCode>d/m;@</c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>43885.75</c:v>
                 </c:pt>
@@ -22011,16 +22924,25 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>43928</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>43929</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>43930</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>43931</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Guariti!$D$3:$D$47</c:f>
+              <c:f>Guariti!$D$3:$D$53</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="2">
                   <c:v>2</c:v>
                 </c:pt>
@@ -22146,6 +23068,15 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>533</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>544</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-120</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -22420,10 +23351,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Deceduti!$A$3:$A$48</c:f>
+              <c:f>Deceduti!$A$3:$A$52</c:f>
               <c:numCache>
                 <c:formatCode>d/m;@</c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>43885.75</c:v>
                 </c:pt>
@@ -22555,16 +23486,25 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>43928</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>43929</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>43930</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>43931</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Deceduti!$C$3:$C$48</c:f>
+              <c:f>Deceduti!$C$3:$C$52</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="1">
                   <c:v>3</c:v>
                 </c:pt>
@@ -22693,6 +23633,15 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>604</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>542</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>610</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>570</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -22733,10 +23682,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Deceduti!$A$3:$A$48</c:f>
+              <c:f>Deceduti!$A$3:$A$52</c:f>
               <c:numCache>
                 <c:formatCode>d/m;@</c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>43885.75</c:v>
                 </c:pt>
@@ -22868,16 +23817,25 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>43928</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>43929</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>43930</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>43931</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Deceduti!$D$3:$D$48</c:f>
+              <c:f>Deceduti!$D$3:$D$52</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="2">
                   <c:v>-1</c:v>
                 </c:pt>
@@ -23003,6 +23961,15 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>-32</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-62</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-40</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -23413,6 +24380,15 @@
                 <c:pt idx="43">
                   <c:v>43928</c:v>
                 </c:pt>
+                <c:pt idx="44">
+                  <c:v>43929</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>43930</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>43931</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -23553,6 +24529,15 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>17127</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>17669</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>18279</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>18849</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -23729,6 +24714,15 @@
                 <c:pt idx="43">
                   <c:v>43928</c:v>
                 </c:pt>
+                <c:pt idx="44">
+                  <c:v>43929</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>43930</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>43931</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -23866,6 +24860,15 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>604</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>542</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>610</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>570</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -24038,6 +25041,15 @@
                 <c:pt idx="43">
                   <c:v>43928</c:v>
                 </c:pt>
+                <c:pt idx="44">
+                  <c:v>43929</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>43930</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>43931</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -24172,6 +25184,15 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>-32</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-62</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-40</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -24573,6 +25594,15 @@
                 <c:pt idx="43">
                   <c:v>43928</c:v>
                 </c:pt>
+                <c:pt idx="44">
+                  <c:v>43929</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>43930</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>43931</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -24713,6 +25743,15 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>32510</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>32178</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>32004</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>31739</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -24889,6 +25928,15 @@
                 <c:pt idx="43">
                   <c:v>43928</c:v>
                 </c:pt>
+                <c:pt idx="44">
+                  <c:v>43929</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>43930</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>43931</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -25026,6 +26074,15 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>-364</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-332</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-174</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-265</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -25198,6 +26255,15 @@
                 <c:pt idx="43">
                   <c:v>43928</c:v>
                 </c:pt>
+                <c:pt idx="44">
+                  <c:v>43929</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>43930</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>43931</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -25332,6 +26398,15 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>-312</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>158</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-91</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -28392,10 +29467,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M46"/>
+  <dimension ref="A1:M50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C47" sqref="C47"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="A50" sqref="A50:B50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -30148,6 +31223,133 @@
         <v>755445</v>
       </c>
     </row>
+    <row r="47" spans="1:13">
+      <c r="A47" s="2">
+        <v>43929</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C47" s="3">
+        <v>28485</v>
+      </c>
+      <c r="D47" s="3">
+        <v>3693</v>
+      </c>
+      <c r="E47" s="3">
+        <v>32178</v>
+      </c>
+      <c r="F47" s="3">
+        <v>63084</v>
+      </c>
+      <c r="G47" s="3">
+        <v>95262</v>
+      </c>
+      <c r="H47" s="3">
+        <v>1195</v>
+      </c>
+      <c r="I47" s="3">
+        <v>3836</v>
+      </c>
+      <c r="J47" s="3">
+        <v>26491</v>
+      </c>
+      <c r="K47" s="3">
+        <v>17669</v>
+      </c>
+      <c r="L47" s="3">
+        <v>139422</v>
+      </c>
+      <c r="M47">
+        <v>807125</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13">
+      <c r="A48" s="2">
+        <v>43930</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C48" s="3">
+        <v>28399</v>
+      </c>
+      <c r="D48" s="3">
+        <v>3605</v>
+      </c>
+      <c r="E48" s="3">
+        <v>32004</v>
+      </c>
+      <c r="F48" s="3">
+        <v>64873</v>
+      </c>
+      <c r="G48" s="3">
+        <v>96877</v>
+      </c>
+      <c r="H48" s="3">
+        <v>1615</v>
+      </c>
+      <c r="I48" s="3">
+        <v>4204</v>
+      </c>
+      <c r="J48" s="3">
+        <v>28470</v>
+      </c>
+      <c r="K48" s="3">
+        <v>18279</v>
+      </c>
+      <c r="L48" s="3">
+        <v>143626</v>
+      </c>
+      <c r="M48">
+        <v>853369</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13">
+      <c r="A49" s="2">
+        <v>43931</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C49" s="3">
+        <v>28242</v>
+      </c>
+      <c r="D49" s="3">
+        <v>3497</v>
+      </c>
+      <c r="E49" s="3">
+        <v>31739</v>
+      </c>
+      <c r="F49" s="3">
+        <v>66534</v>
+      </c>
+      <c r="G49" s="3">
+        <v>98273</v>
+      </c>
+      <c r="H49" s="3">
+        <v>1396</v>
+      </c>
+      <c r="I49" s="3">
+        <v>3951</v>
+      </c>
+      <c r="J49" s="3">
+        <v>30455</v>
+      </c>
+      <c r="K49" s="3">
+        <v>18849</v>
+      </c>
+      <c r="L49" s="3">
+        <v>147577</v>
+      </c>
+      <c r="M49">
+        <v>906864</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13">
+      <c r="A50" s="2"/>
+      <c r="B50" s="3"/>
+    </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0.39370078740157505" bottom="0.39370078740157505" header="0" footer="0"/>
   <headerFooter>
@@ -30161,8 +31363,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:K149"/>
   <sheetViews>
-    <sheetView topLeftCell="D22" workbookViewId="0">
-      <selection activeCell="J48" sqref="J48"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="N60" sqref="N60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -30264,7 +31466,7 @@
         <v>154.19235441284661</v>
       </c>
       <c r="H4" s="11">
-        <f t="shared" ref="H4:H46" si="2">C4-E4</f>
+        <f t="shared" ref="H4:H49" si="2">C4-E4</f>
         <v>-683.65303461646738</v>
       </c>
       <c r="J4" s="4" t="s">
@@ -31653,6 +32855,14 @@
       <c r="B47" s="10">
         <v>45</v>
       </c>
+      <c r="C47" s="3">
+        <f>Dati!G47</f>
+        <v>95262</v>
+      </c>
+      <c r="D47">
+        <f t="shared" ref="D47" si="17">C47-C46</f>
+        <v>1195</v>
+      </c>
       <c r="E47" s="11">
         <f t="shared" si="5"/>
         <v>93758.283713070588</v>
@@ -31665,6 +32875,10 @@
         <f t="shared" si="4"/>
         <v>1072.0280561471445</v>
       </c>
+      <c r="H47" s="11">
+        <f t="shared" si="2"/>
+        <v>1503.7162869294116</v>
+      </c>
     </row>
     <row r="48" spans="1:8">
       <c r="A48" s="2">
@@ -31673,6 +32887,14 @@
       <c r="B48" s="10">
         <v>46</v>
       </c>
+      <c r="C48" s="3">
+        <f>Dati!G48</f>
+        <v>96877</v>
+      </c>
+      <c r="D48">
+        <f t="shared" ref="D48" si="18">C48-C47</f>
+        <v>1615</v>
+      </c>
       <c r="E48" s="11">
         <f t="shared" si="5"/>
         <v>94682.192414542049</v>
@@ -31685,13 +32907,25 @@
         <f t="shared" si="4"/>
         <v>923.90870147146052</v>
       </c>
-    </row>
-    <row r="49" spans="1:7">
+      <c r="H48" s="11">
+        <f t="shared" si="2"/>
+        <v>2194.8075854579511</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="2">
         <v>43931</v>
       </c>
       <c r="B49" s="10">
         <v>47</v>
+      </c>
+      <c r="C49" s="3">
+        <f>Dati!G49</f>
+        <v>98273</v>
+      </c>
+      <c r="D49">
+        <f t="shared" ref="D49" si="19">C49-C48</f>
+        <v>1396</v>
       </c>
       <c r="E49" s="11">
         <f t="shared" si="5"/>
@@ -31705,8 +32939,12 @@
         <f t="shared" si="4"/>
         <v>793.74919313724968</v>
       </c>
-    </row>
-    <row r="50" spans="1:7">
+      <c r="H49" s="11">
+        <f t="shared" si="2"/>
+        <v>2797.0583923207014</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="2">
         <v>43932</v>
       </c>
@@ -31726,7 +32964,7 @@
         <v>680.08222754939925</v>
       </c>
     </row>
-    <row r="51" spans="1:7">
+    <row r="51" spans="1:8">
       <c r="A51" s="2">
         <v>43933</v>
       </c>
@@ -31746,7 +32984,7 @@
         <v>581.34196027023427</v>
       </c>
     </row>
-    <row r="52" spans="1:7">
+    <row r="52" spans="1:8">
       <c r="A52" s="2">
         <v>43934</v>
       </c>
@@ -31766,7 +33004,7 @@
         <v>495.95265586880851</v>
       </c>
     </row>
-    <row r="53" spans="1:7">
+    <row r="53" spans="1:8">
       <c r="A53" s="2">
         <v>43935</v>
       </c>
@@ -31786,7 +33024,7 @@
         <v>422.38991050131153</v>
       </c>
     </row>
-    <row r="54" spans="1:7">
+    <row r="54" spans="1:8">
       <c r="A54" s="2">
         <v>43936</v>
       </c>
@@ -31806,7 +33044,7 @@
         <v>359.22006993019022</v>
       </c>
     </row>
-    <row r="55" spans="1:7">
+    <row r="55" spans="1:8">
       <c r="A55" s="2">
         <v>43937</v>
       </c>
@@ -31826,7 +33064,7 @@
         <v>305.12303373524628</v>
       </c>
     </row>
-    <row r="56" spans="1:7">
+    <row r="56" spans="1:8">
       <c r="A56" s="2">
         <v>43938</v>
       </c>
@@ -31846,7 +33084,7 @@
         <v>258.9028981528536</v>
       </c>
     </row>
-    <row r="57" spans="1:7">
+    <row r="57" spans="1:8">
       <c r="A57" s="2">
         <v>43939</v>
       </c>
@@ -31866,7 +33104,7 @@
         <v>219.49006115880911</v>
       </c>
     </row>
-    <row r="58" spans="1:7">
+    <row r="58" spans="1:8">
       <c r="A58" s="2">
         <v>43940</v>
       </c>
@@ -31890,7 +33128,7 @@
         <v>185.93761948615429</v>
       </c>
     </row>
-    <row r="59" spans="1:7">
+    <row r="59" spans="1:8">
       <c r="A59" s="2">
         <v>43941</v>
       </c>
@@ -31914,7 +33152,7 @@
         <v>157.41419072565623</v>
       </c>
     </row>
-    <row r="60" spans="1:7">
+    <row r="60" spans="1:8">
       <c r="A60" s="2">
         <v>43942</v>
       </c>
@@ -31938,7 +33176,7 @@
         <v>133.19471688866906</v>
       </c>
     </row>
-    <row r="61" spans="1:7">
+    <row r="61" spans="1:8">
       <c r="A61" s="2">
         <v>43943</v>
       </c>
@@ -31962,7 +33200,7 @@
         <v>112.65034806459153</v>
       </c>
     </row>
-    <row r="62" spans="1:7">
+    <row r="62" spans="1:8">
       <c r="A62" s="2">
         <v>43944</v>
       </c>
@@ -31986,7 +33224,7 @@
         <v>95.238153574595344</v>
       </c>
     </row>
-    <row r="63" spans="1:7">
+    <row r="63" spans="1:8">
       <c r="A63" s="2">
         <v>43945</v>
       </c>
@@ -32010,7 +33248,7 @@
         <v>80.491146201646188</v>
       </c>
     </row>
-    <row r="64" spans="1:7">
+    <row r="64" spans="1:8">
       <c r="A64" s="2">
         <v>43946</v>
       </c>
@@ -32094,7 +33332,7 @@
         <v>0</v>
       </c>
       <c r="E67" s="11">
-        <f t="shared" ref="E67:E98" si="17">$K$2/(1+$K$5*EXP(-$K$4*B67))</f>
+        <f t="shared" ref="E67:E98" si="20">$K$2/(1+$K$5*EXP(-$K$4*B67))</f>
         <v>99778.318568093659</v>
       </c>
       <c r="F67" s="11">
@@ -32118,11 +33356,11 @@
         <v>0</v>
       </c>
       <c r="E68" s="11">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>99812.9103364779</v>
       </c>
       <c r="F68" s="11">
-        <f t="shared" ref="F68:F99" si="18">(E68-E67)*10</f>
+        <f t="shared" ref="F68:F99" si="21">(E68-E67)*10</f>
         <v>345.91768384241732</v>
       </c>
       <c r="G68" s="11">
@@ -32138,19 +33376,19 @@
         <v>67</v>
       </c>
       <c r="D69">
-        <f t="shared" ref="D69:D132" si="19">C69-C68</f>
+        <f t="shared" ref="D69:D132" si="22">C69-C68</f>
         <v>0</v>
       </c>
       <c r="E69" s="11">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>99842.112853404673</v>
       </c>
       <c r="F69" s="11">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>292.0251692677266</v>
       </c>
       <c r="G69" s="11">
-        <f t="shared" ref="G69:G132" si="20">E69-E68</f>
+        <f t="shared" ref="G69:G132" si="23">E69-E68</f>
         <v>29.20251692677266</v>
       </c>
     </row>
@@ -32162,19 +33400,19 @@
         <v>68</v>
       </c>
       <c r="D70">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="E70" s="11">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>99866.763282184605</v>
       </c>
       <c r="F70" s="11">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>246.50428779932554</v>
       </c>
       <c r="G70" s="11">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>24.650428779932554</v>
       </c>
     </row>
@@ -32186,19 +33424,19 @@
         <v>69</v>
       </c>
       <c r="D71">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="E71" s="11">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>99887.569450081472</v>
       </c>
       <c r="F71" s="11">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>208.061678968661</v>
       </c>
       <c r="G71" s="11">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>20.8061678968661</v>
       </c>
     </row>
@@ -32210,19 +33448,19 @@
         <v>70</v>
       </c>
       <c r="D72">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="E72" s="11">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>99905.129625499118</v>
       </c>
       <c r="F72" s="11">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>175.60175417645951</v>
       </c>
       <c r="G72" s="11">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>17.560175417645951</v>
       </c>
     </row>
@@ -32234,19 +33472,19 @@
         <v>71</v>
       </c>
       <c r="D73">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="E73" s="11">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>99919.949330119241</v>
       </c>
       <c r="F73" s="11">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>148.19704620123957</v>
       </c>
       <c r="G73" s="11">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>14.819704620123957</v>
       </c>
     </row>
@@ -32258,19 +33496,19 @@
         <v>72</v>
       </c>
       <c r="D74">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="E74" s="11">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>99932.45561327484</v>
       </c>
       <c r="F74" s="11">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>125.06283155598794</v>
       </c>
       <c r="G74" s="11">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>12.506283155598794</v>
       </c>
     </row>
@@ -32282,19 +33520,19 @@
         <v>73</v>
       </c>
       <c r="D75">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="E75" s="11">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>99943.009159377063</v>
       </c>
       <c r="F75" s="11">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>105.53546102222754</v>
       </c>
       <c r="G75" s="11">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>10.553546102222754</v>
       </c>
     </row>
@@ -32306,19 +33544,19 @@
         <v>74</v>
       </c>
       <c r="D76">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="E76" s="11">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>99951.914548641449</v>
       </c>
       <c r="F76" s="11">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>89.053892643860308</v>
       </c>
       <c r="G76" s="11">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>8.9053892643860308</v>
       </c>
     </row>
@@ -32330,19 +33568,19 @@
         <v>75</v>
       </c>
       <c r="D77">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="E77" s="11">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>99959.428946590851</v>
       </c>
       <c r="F77" s="11">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>75.14397949402337</v>
       </c>
       <c r="G77" s="11">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>7.514397949402337</v>
       </c>
     </row>
@@ -32354,19 +33592,19 @@
         <v>76</v>
       </c>
       <c r="D78">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="E78" s="11">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>99965.769458531679</v>
       </c>
       <c r="F78" s="11">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>63.405119408271275</v>
       </c>
       <c r="G78" s="11">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>6.3405119408271275</v>
       </c>
     </row>
@@ -32378,19 +33616,19 @@
         <v>77</v>
       </c>
       <c r="D79">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="E79" s="11">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>99971.119350980123</v>
       </c>
       <c r="F79" s="11">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>53.498924484447343</v>
       </c>
       <c r="G79" s="11">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>5.3498924484447343</v>
       </c>
     </row>
@@ -32402,19 +33640,19 @@
         <v>78</v>
       </c>
       <c r="D80">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="E80" s="11">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>99975.633312370497</v>
       </c>
       <c r="F80" s="11">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>45.139613903738791</v>
       </c>
       <c r="G80" s="11">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>4.5139613903738791</v>
       </c>
     </row>
@@ -32426,19 +33664,19 @@
         <v>79</v>
       </c>
       <c r="D81">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="E81" s="11">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>99979.441899815793</v>
       </c>
       <c r="F81" s="11">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>38.085874452954158</v>
       </c>
       <c r="G81" s="11">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>3.8085874452954158</v>
       </c>
     </row>
@@ -32450,19 +33688,19 @@
         <v>80</v>
       </c>
       <c r="D82">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="E82" s="11">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>99982.655296727666</v>
       </c>
       <c r="F82" s="11">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>32.133969118731329</v>
       </c>
       <c r="G82" s="11">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>3.2133969118731329</v>
       </c>
     </row>
@@ -32474,19 +33712,19 @@
         <v>81</v>
       </c>
       <c r="D83">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="E83" s="11">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>99985.366487294348</v>
       </c>
       <c r="F83" s="11">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>27.111905666824896</v>
       </c>
       <c r="G83" s="11">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>2.7111905666824896</v>
       </c>
     </row>
@@ -32498,19 +33736,19 @@
         <v>82</v>
       </c>
       <c r="D84">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="E84" s="11">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>99987.6539377421</v>
       </c>
       <c r="F84" s="11">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>22.874504477513256</v>
       </c>
       <c r="G84" s="11">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>2.2874504477513256</v>
       </c>
     </row>
@@ -32522,19 +33760,19 @@
         <v>83</v>
       </c>
       <c r="D85">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="E85" s="11">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>99989.583860605097</v>
       </c>
       <c r="F85" s="11">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>19.299228629970457</v>
       </c>
       <c r="G85" s="11">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.9299228629970457</v>
       </c>
     </row>
@@ -32546,19 +33784,19 @@
         <v>84</v>
       </c>
       <c r="D86">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="E86" s="11">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>99991.212126565239</v>
       </c>
       <c r="F86" s="11">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>16.282659601420164</v>
       </c>
       <c r="G86" s="11">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.6282659601420164</v>
       </c>
     </row>
@@ -32570,19 +33808,19 @@
         <v>85</v>
       </c>
       <c r="D87">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="E87" s="11">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>99992.585878511192</v>
       </c>
       <c r="F87" s="11">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>13.737519459536998</v>
       </c>
       <c r="G87" s="11">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.3737519459536998</v>
       </c>
     </row>
@@ -32594,19 +33832,19 @@
         <v>86</v>
       </c>
       <c r="D88">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="E88" s="11">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>99993.744894051735</v>
       </c>
       <c r="F88" s="11">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>11.590155405428959</v>
       </c>
       <c r="G88" s="11">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.1590155405428959</v>
       </c>
     </row>
@@ -32618,19 +33856,19 @@
         <v>87</v>
       </c>
       <c r="D89">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="E89" s="11">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>99994.722735581352</v>
       </c>
       <c r="F89" s="11">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>9.7784152961685322</v>
       </c>
       <c r="G89" s="11">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>0.97784152961685322</v>
       </c>
     </row>
@@ -32642,19 +33880,19 @@
         <v>88</v>
       </c>
       <c r="D90">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="E90" s="11">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>99995.54772094982</v>
       </c>
       <c r="F90" s="11">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>8.2498536846833304</v>
       </c>
       <c r="G90" s="11">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>0.82498536846833304</v>
       </c>
     </row>
@@ -32666,19 +33904,19 @@
         <v>89</v>
       </c>
       <c r="D91">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="E91" s="11">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>99996.243742666353</v>
       </c>
       <c r="F91" s="11">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>6.9602171653241385</v>
       </c>
       <c r="G91" s="11">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>0.69602171653241385</v>
       </c>
     </row>
@@ -32690,19 +33928,19 @@
         <v>90</v>
       </c>
       <c r="D92">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="E92" s="11">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>99996.830959235798</v>
       </c>
       <c r="F92" s="11">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>5.872165694454452</v>
       </c>
       <c r="G92" s="11">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>0.5872165694454452</v>
       </c>
     </row>
@@ -32714,19 +33952,19 @@
         <v>91</v>
       </c>
       <c r="D93">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="E93" s="11">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>99997.326378558908</v>
       </c>
       <c r="F93" s="11">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>4.954193231096724</v>
       </c>
       <c r="G93" s="11">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>0.4954193231096724</v>
       </c>
     </row>
@@ -32738,19 +33976,19 @@
         <v>92</v>
       </c>
       <c r="D94">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="E94" s="11">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>99997.744350229041</v>
       </c>
       <c r="F94" s="11">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>4.1797167013282888</v>
       </c>
       <c r="G94" s="11">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>0.41797167013282888</v>
       </c>
     </row>
@@ -32762,19 +34000,19 @@
         <v>93</v>
       </c>
       <c r="D95">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="E95" s="11">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>99998.096980938935</v>
       </c>
       <c r="F95" s="11">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>3.5263070989458356</v>
       </c>
       <c r="G95" s="11">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>0.35263070989458356</v>
       </c>
     </row>
@@ -32786,19 +34024,19 @@
         <v>94</v>
       </c>
       <c r="D96">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="E96" s="11">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>99998.394484996315</v>
       </c>
       <c r="F96" s="11">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>2.9750405738013797</v>
       </c>
       <c r="G96" s="11">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>0.29750405738013797</v>
       </c>
     </row>
@@ -32807,19 +34045,19 @@
         <v>95</v>
       </c>
       <c r="D97">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="E97" s="11">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>99998.645480079053</v>
       </c>
       <c r="F97" s="11">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>2.5099508273706306</v>
       </c>
       <c r="G97" s="11">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>0.25099508273706306</v>
       </c>
     </row>
@@ -32828,19 +34066,19 @@
         <v>96</v>
       </c>
       <c r="D98">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="E98" s="11">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>99998.857236779397</v>
       </c>
       <c r="F98" s="11">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>2.117567003442673</v>
       </c>
       <c r="G98" s="11">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>0.2117567003442673</v>
       </c>
     </row>
@@ -32849,19 +34087,19 @@
         <v>97</v>
       </c>
       <c r="D99">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="E99" s="11">
-        <f t="shared" ref="E99:E130" si="21">$K$2/(1+$K$5*EXP(-$K$4*B99))</f>
+        <f t="shared" ref="E99:E130" si="24">$K$2/(1+$K$5*EXP(-$K$4*B99))</f>
         <v>99999.035889154664</v>
       </c>
       <c r="F99" s="11">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.7865237526712008</v>
       </c>
       <c r="G99" s="11">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>0.17865237526712008</v>
       </c>
     </row>
@@ -32870,19 +34108,19 @@
         <v>98</v>
       </c>
       <c r="D100">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="E100" s="11">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>99999.186612374513</v>
       </c>
       <c r="F100" s="11">
-        <f t="shared" ref="F100:F131" si="22">(E100-E99)*10</f>
+        <f t="shared" ref="F100:F131" si="25">(E100-E99)*10</f>
         <v>1.5072321984916925</v>
       </c>
       <c r="G100" s="11">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>0.15072321984916925</v>
       </c>
     </row>
@@ -32891,19 +34129,19 @@
         <v>99</v>
       </c>
       <c r="D101">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="E101" s="11">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>99999.313772605499</v>
       </c>
       <c r="F101" s="11">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>1.2716023098619189</v>
       </c>
       <c r="G101" s="11">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>0.12716023098619189</v>
       </c>
     </row>
@@ -32912,19 +34150,19 @@
         <v>100</v>
       </c>
       <c r="D102">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="E102" s="11">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>99999.421053469981</v>
       </c>
       <c r="F102" s="11">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>1.0728086448216345</v>
       </c>
       <c r="G102" s="11">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>0.10728086448216345</v>
       </c>
     </row>
@@ -32933,19 +34171,19 @@
         <v>101</v>
       </c>
       <c r="D103">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="E103" s="11">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>99999.511562739863</v>
       </c>
       <c r="F103" s="11">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>0.9050926988129504</v>
       </c>
       <c r="G103" s="11">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>9.050926988129504E-2</v>
       </c>
     </row>
@@ -32954,19 +34192,19 @@
         <v>102</v>
       </c>
       <c r="D104">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="E104" s="11">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>99999.587922353836</v>
       </c>
       <c r="F104" s="11">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>0.76359613973181695</v>
       </c>
       <c r="G104" s="11">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>7.6359613973181695E-2</v>
       </c>
     </row>
@@ -32975,19 +34213,19 @@
         <v>103</v>
       </c>
       <c r="D105">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="E105" s="11">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>99999.652344364251</v>
       </c>
       <c r="F105" s="11">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>0.64422010415000841</v>
       </c>
       <c r="G105" s="11">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>6.4422010415000841E-2</v>
       </c>
     </row>
@@ -32996,19 +34234,19 @@
         <v>104</v>
       </c>
       <c r="D106">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="E106" s="11">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>99999.706695012428</v>
       </c>
       <c r="F106" s="11">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>0.54350648177205585</v>
       </c>
       <c r="G106" s="11">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>5.4350648177205585E-2</v>
       </c>
     </row>
@@ -33017,19 +34255,19 @@
         <v>105</v>
       </c>
       <c r="D107">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="E107" s="11">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>99999.752548787976</v>
       </c>
       <c r="F107" s="11">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>0.45853775547584519</v>
       </c>
       <c r="G107" s="11">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>4.5853775547584519E-2</v>
       </c>
     </row>
@@ -33038,19 +34276,19 @@
         <v>106</v>
       </c>
       <c r="D108">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="E108" s="11">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>99999.791234037839</v>
       </c>
       <c r="F108" s="11">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>0.38685249863192439</v>
       </c>
       <c r="G108" s="11">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>3.8685249863192439E-2</v>
       </c>
     </row>
@@ -33059,19 +34297,19 @@
         <v>107</v>
       </c>
       <c r="D109">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="E109" s="11">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>99999.823871445347</v>
       </c>
       <c r="F109" s="11">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>0.32637407508445904</v>
       </c>
       <c r="G109" s="11">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>3.2637407508445904E-2</v>
       </c>
     </row>
@@ -33080,19 +34318,19 @@
         <v>108</v>
       </c>
       <c r="D110">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="E110" s="11">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>99999.851406494316</v>
       </c>
       <c r="F110" s="11">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>0.27535048968275078</v>
       </c>
       <c r="G110" s="11">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>2.7535048968275078E-2</v>
       </c>
     </row>
@@ -33101,19 +34339,19 @@
         <v>109</v>
       </c>
       <c r="D111">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="E111" s="11">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>99999.874636858149</v>
       </c>
       <c r="F111" s="11">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>0.23230363833135925</v>
       </c>
       <c r="G111" s="11">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>2.3230363833135925E-2</v>
       </c>
     </row>
@@ -33122,19 +34360,19 @@
         <v>110</v>
       </c>
       <c r="D112">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="E112" s="11">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>99999.894235507207</v>
       </c>
       <c r="F112" s="11">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>0.1959864905802533</v>
       </c>
       <c r="G112" s="11">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.959864905802533E-2</v>
       </c>
     </row>
@@ -33143,19 +34381,19 @@
         <v>111</v>
       </c>
       <c r="D113">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="E113" s="11">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>99999.910770203816</v>
       </c>
       <c r="F113" s="11">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>0.16534696609596722</v>
       </c>
       <c r="G113" s="11">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.6534696609596722E-2</v>
       </c>
     </row>
@@ -33164,19 +34402,19 @@
         <v>112</v>
       </c>
       <c r="D114">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="E114" s="11">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>99999.924719949879</v>
       </c>
       <c r="F114" s="11">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>0.1394974606228061</v>
       </c>
       <c r="G114" s="11">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.394974606228061E-2</v>
       </c>
     </row>
@@ -33185,19 +34423,19 @@
         <v>113</v>
       </c>
       <c r="D115">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="E115" s="11">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>99999.936488862848</v>
       </c>
       <c r="F115" s="11">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>0.11768912969273515</v>
       </c>
       <c r="G115" s="11">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.1768912969273515E-2</v>
       </c>
     </row>
@@ -33206,19 +34444,19 @@
         <v>114</v>
       </c>
       <c r="D116">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="E116" s="11">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>99999.946417882791</v>
       </c>
       <c r="F116" s="11">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>9.9290199432289228E-2</v>
       </c>
       <c r="G116" s="11">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>9.9290199432289228E-3</v>
       </c>
     </row>
@@ -33227,19 +34465,19 @@
         <v>115</v>
       </c>
       <c r="D117">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="E117" s="11">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>99999.954794649122</v>
       </c>
       <c r="F117" s="11">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>8.3767663309117779E-2</v>
       </c>
       <c r="G117" s="11">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>8.3767663309117779E-3</v>
       </c>
     </row>
@@ -33248,19 +34486,19 @@
         <v>116</v>
       </c>
       <c r="D118">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="E118" s="11">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>99999.961861833261</v>
       </c>
       <c r="F118" s="11">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>7.0671841385774314E-2</v>
       </c>
       <c r="G118" s="11">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>7.0671841385774314E-3</v>
       </c>
     </row>
@@ -33269,19 +34507,19 @@
         <v>117</v>
       </c>
       <c r="D119">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="E119" s="11">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>99999.967824168634</v>
       </c>
       <c r="F119" s="11">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>5.9623353736242279E-2</v>
       </c>
       <c r="G119" s="11">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>5.9623353736242279E-3</v>
       </c>
     </row>
@@ -33290,19 +34528,19 @@
         <v>118</v>
       </c>
       <c r="D120">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="E120" s="11">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>99999.972854381762</v>
       </c>
       <c r="F120" s="11">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>5.030213127611205E-2</v>
       </c>
       <c r="G120" s="11">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>5.030213127611205E-3</v>
       </c>
     </row>
@@ -33311,19 +34549,19 @@
         <v>119</v>
       </c>
       <c r="D121">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="E121" s="11">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>99999.977098196003</v>
       </c>
       <c r="F121" s="11">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>4.2438142409082502E-2</v>
       </c>
       <c r="G121" s="11">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>4.2438142409082502E-3</v>
       </c>
     </row>
@@ -33332,19 +34570,19 @@
         <v>120</v>
       </c>
       <c r="D122">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="E122" s="11">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>99999.980678553024</v>
       </c>
       <c r="F122" s="11">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>3.5803570208372548E-2</v>
       </c>
       <c r="G122" s="11">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>3.5803570208372548E-3</v>
       </c>
     </row>
@@ -33353,19 +34591,19 @@
         <v>121</v>
       </c>
       <c r="D123">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="E123" s="11">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>99999.983699174496</v>
       </c>
       <c r="F123" s="11">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>3.0206214723875746E-2</v>
       </c>
       <c r="G123" s="11">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>3.0206214723875746E-3</v>
       </c>
     </row>
@@ -33374,19 +34612,19 @@
         <v>122</v>
       </c>
       <c r="D124">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="E124" s="11">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>99999.986247566703</v>
       </c>
       <c r="F124" s="11">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>2.5483922072453424E-2</v>
       </c>
       <c r="G124" s="11">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>2.5483922072453424E-3</v>
       </c>
     </row>
@@ -33395,19 +34633,19 @@
         <v>123</v>
       </c>
       <c r="D125">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="E125" s="11">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>99999.988397555629</v>
       </c>
       <c r="F125" s="11">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>2.1499889262486249E-2</v>
       </c>
       <c r="G125" s="11">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>2.1499889262486249E-3</v>
       </c>
     </row>
@@ -33416,19 +34654,19 @@
         <v>124</v>
       </c>
       <c r="D126">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="E126" s="11">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>99999.990211425713</v>
       </c>
       <c r="F126" s="11">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>1.8138700834242627E-2</v>
       </c>
       <c r="G126" s="11">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.8138700834242627E-3</v>
       </c>
     </row>
@@ -33437,19 +34675,19 @@
         <v>125</v>
       </c>
       <c r="D127">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="E127" s="11">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>99999.991741724152</v>
       </c>
       <c r="F127" s="11">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>1.5302984393201768E-2</v>
       </c>
       <c r="G127" s="11">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.5302984393201768E-3</v>
       </c>
     </row>
@@ -33458,19 +34696,19 @@
         <v>126</v>
       </c>
       <c r="D128">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="E128" s="11">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>99999.993032783124</v>
       </c>
       <c r="F128" s="11">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>1.2910589721286669E-2</v>
       </c>
       <c r="G128" s="11">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.2910589721286669E-3</v>
       </c>
     </row>
@@ -33479,19 +34717,19 @@
         <v>127</v>
       </c>
       <c r="D129">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="E129" s="11">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>99999.994122004195</v>
       </c>
       <c r="F129" s="11">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>1.0892210702877492E-2</v>
       </c>
       <c r="G129" s="11">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.0892210702877492E-3</v>
       </c>
     </row>
@@ -33500,19 +34738,19 @@
         <v>128</v>
       </c>
       <c r="D130">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="E130" s="11">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>99999.995040941707</v>
       </c>
       <c r="F130" s="11">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>9.1893751232419163E-3</v>
       </c>
       <c r="G130" s="11">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>9.1893751232419163E-4</v>
       </c>
     </row>
@@ -33521,19 +34759,19 @@
         <v>129</v>
       </c>
       <c r="D131">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="E131" s="11">
-        <f t="shared" ref="E131:E149" si="23">$K$2/(1+$K$5*EXP(-$K$4*B131))</f>
+        <f t="shared" ref="E131:E149" si="26">$K$2/(1+$K$5*EXP(-$K$4*B131))</f>
         <v>99999.99581621695</v>
       </c>
       <c r="F131" s="11">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>7.7527524263132364E-3</v>
       </c>
       <c r="G131" s="11">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>7.7527524263132364E-4</v>
       </c>
     </row>
@@ -33542,19 +34780,19 @@
         <v>130</v>
       </c>
       <c r="D132">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="E132" s="11">
+        <f t="shared" si="26"/>
+        <v>99999.996470289421</v>
+      </c>
+      <c r="F132" s="11">
+        <f t="shared" ref="F132:F149" si="27">(E132-E131)*10</f>
+        <v>6.5407247166149318E-3</v>
+      </c>
+      <c r="G132" s="11">
         <f t="shared" si="23"/>
-        <v>99999.996470289421</v>
-      </c>
-      <c r="F132" s="11">
-        <f t="shared" ref="F132:F149" si="24">(E132-E131)*10</f>
-        <v>6.5407247166149318E-3</v>
-      </c>
-      <c r="G132" s="11">
-        <f t="shared" si="20"/>
         <v>6.5407247166149318E-4</v>
       </c>
     </row>
@@ -33563,19 +34801,19 @@
         <v>131</v>
       </c>
       <c r="D133">
-        <f t="shared" ref="D133:D149" si="25">C133-C132</f>
+        <f t="shared" ref="D133:D149" si="28">C133-C132</f>
         <v>0</v>
       </c>
       <c r="E133" s="11">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>99999.99702210736</v>
       </c>
       <c r="F133" s="11">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>5.5181793868541718E-3</v>
       </c>
       <c r="G133" s="11">
-        <f t="shared" ref="G133:G149" si="26">E133-E132</f>
+        <f t="shared" ref="G133:G149" si="29">E133-E132</f>
         <v>5.5181793868541718E-4</v>
       </c>
     </row>
@@ -33584,19 +34822,19 @@
         <v>132</v>
       </c>
       <c r="D134">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="E134" s="11">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>99999.997487656728</v>
       </c>
       <c r="F134" s="11">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>4.6554936852771789E-3</v>
       </c>
       <c r="G134" s="11">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>4.6554936852771789E-4</v>
       </c>
     </row>
@@ -33605,19 +34843,19 @@
         <v>133</v>
       </c>
       <c r="D135">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="E135" s="11">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>99999.997880424373</v>
       </c>
       <c r="F135" s="11">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>3.9276764437090605E-3</v>
       </c>
       <c r="G135" s="11">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>3.9276764437090605E-4</v>
       </c>
     </row>
@@ -33626,19 +34864,19 @@
         <v>134</v>
       </c>
       <c r="D136">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="E136" s="11">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>99999.99821178861</v>
       </c>
       <c r="F136" s="11">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>3.31364237354137E-3</v>
       </c>
       <c r="G136" s="11">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>3.31364237354137E-4</v>
       </c>
     </row>
@@ -33647,19 +34885,19 @@
         <v>135</v>
       </c>
       <c r="D137">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="E137" s="11">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>99999.998491348946</v>
       </c>
       <c r="F137" s="11">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>2.795603359118104E-3</v>
       </c>
       <c r="G137" s="11">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>2.795603359118104E-4</v>
       </c>
     </row>
@@ -33668,19 +34906,19 @@
         <v>136</v>
       </c>
       <c r="D138">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="E138" s="11">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>99999.998727204191</v>
       </c>
       <c r="F138" s="11">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>2.3585524468217045E-3</v>
       </c>
       <c r="G138" s="11">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>2.3585524468217045E-4</v>
       </c>
     </row>
@@ -33689,19 +34927,19 @@
         <v>137</v>
       </c>
       <c r="D139">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="E139" s="11">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>99999.998926186949</v>
       </c>
       <c r="F139" s="11">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>1.9898275786545128E-3</v>
       </c>
       <c r="G139" s="11">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>1.9898275786545128E-4</v>
       </c>
     </row>
@@ -33710,19 +34948,19 @@
         <v>138</v>
       </c>
       <c r="D140">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="E140" s="11">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>99999.999094061699</v>
       </c>
       <c r="F140" s="11">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>1.6787475033197552E-3</v>
       </c>
       <c r="G140" s="11">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>1.6787475033197552E-4</v>
       </c>
     </row>
@@ -33731,19 +34969,19 @@
         <v>139</v>
       </c>
       <c r="D141">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="E141" s="11">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>99999.99923569175</v>
       </c>
       <c r="F141" s="11">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>1.4163005107548088E-3</v>
       </c>
       <c r="G141" s="11">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>1.4163005107548088E-4</v>
       </c>
     </row>
@@ -33752,19 +34990,19 @@
         <v>140</v>
       </c>
       <c r="D142">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="E142" s="11">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>99999.99935518</v>
       </c>
       <c r="F142" s="11">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>1.1948824976570904E-3</v>
       </c>
       <c r="G142" s="11">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>1.1948824976570904E-4</v>
       </c>
     </row>
@@ -33773,19 +35011,19 @@
         <v>141</v>
       </c>
       <c r="D143">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="E143" s="11">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>99999.999455988058</v>
       </c>
       <c r="F143" s="11">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>1.0080805805046111E-3</v>
       </c>
       <c r="G143" s="11">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>1.0080805805046111E-4</v>
       </c>
     </row>
@@ -33794,19 +35032,19 @@
         <v>142</v>
       </c>
       <c r="D144">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="E144" s="11">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>99999.999541036275</v>
       </c>
       <c r="F144" s="11">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>8.5048217442817986E-4</v>
       </c>
       <c r="G144" s="11">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>8.5048217442817986E-5</v>
       </c>
     </row>
@@ -33815,19 +35053,19 @@
         <v>143</v>
       </c>
       <c r="D145">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="E145" s="11">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>99999.999612788451</v>
       </c>
       <c r="F145" s="11">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>7.1752176154404879E-4</v>
       </c>
       <c r="G145" s="11">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>7.1752176154404879E-5</v>
       </c>
     </row>
@@ -33836,19 +35074,19 @@
         <v>144</v>
       </c>
       <c r="D146">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="E146" s="11">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>99999.999673323226</v>
       </c>
       <c r="F146" s="11">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>6.0534774092957377E-4</v>
       </c>
       <c r="G146" s="11">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>6.0534774092957377E-5</v>
       </c>
     </row>
@@ -33857,19 +35095,19 @@
         <v>145</v>
       </c>
       <c r="D147">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="E147" s="11">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>99999.999724394307</v>
       </c>
       <c r="F147" s="11">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>5.1071081543341279E-4</v>
       </c>
       <c r="G147" s="11">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>5.1071081543341279E-5</v>
       </c>
     </row>
@@ -33878,19 +35116,19 @@
         <v>146</v>
       </c>
       <c r="D148">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="E148" s="11">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>99999.999767481175</v>
       </c>
       <c r="F148" s="11">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>4.308686766307801E-4</v>
       </c>
       <c r="G148" s="11">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>4.308686766307801E-5</v>
       </c>
     </row>
@@ -33899,19 +35137,19 @@
         <v>147</v>
       </c>
       <c r="D149">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="E149" s="11">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>99999.999803832048</v>
       </c>
       <c r="F149" s="11">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>3.6350873415358365E-4</v>
       </c>
       <c r="G149" s="11">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>3.6350873415358365E-5</v>
       </c>
     </row>
@@ -33930,8 +35168,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:M67"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C46" sqref="C46"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -35824,7 +37062,18 @@
       <c r="B47" s="10">
         <v>45</v>
       </c>
-      <c r="C47" s="3"/>
+      <c r="C47" s="3">
+        <f>Dati!K47</f>
+        <v>17669</v>
+      </c>
+      <c r="D47">
+        <f t="shared" ref="D47" si="37">C47-C46</f>
+        <v>542</v>
+      </c>
+      <c r="E47">
+        <f t="shared" ref="E47" si="38">10*(C47-C46)</f>
+        <v>5420</v>
+      </c>
       <c r="F47" s="11">
         <f t="shared" si="10"/>
         <v>17964.634436338896</v>
@@ -35837,8 +37086,14 @@
         <f t="shared" si="4"/>
         <v>468.61664354148888</v>
       </c>
-      <c r="I47" s="11"/>
-      <c r="J47" s="11"/>
+      <c r="I47" s="11">
+        <f t="shared" ref="I47" si="39">C47-F47</f>
+        <v>-295.63443633889619</v>
+      </c>
+      <c r="J47" s="11">
+        <f t="shared" ref="J47" si="40">D47-H47</f>
+        <v>73.383356458511116</v>
+      </c>
       <c r="K47" s="11"/>
     </row>
     <row r="48" spans="1:11">
@@ -35848,7 +37103,18 @@
       <c r="B48" s="10">
         <v>46</v>
       </c>
-      <c r="C48" s="3"/>
+      <c r="C48" s="3">
+        <f>Dati!K48</f>
+        <v>18279</v>
+      </c>
+      <c r="D48">
+        <f t="shared" ref="D48" si="41">C48-C47</f>
+        <v>610</v>
+      </c>
+      <c r="E48">
+        <f t="shared" ref="E48" si="42">10*(C48-C47)</f>
+        <v>6100</v>
+      </c>
       <c r="F48" s="11">
         <f t="shared" si="10"/>
         <v>18379.964240760815</v>
@@ -35861,8 +37127,14 @@
         <f t="shared" si="4"/>
         <v>415.32980442191911</v>
       </c>
-      <c r="I48" s="11"/>
-      <c r="J48" s="11"/>
+      <c r="I48" s="11">
+        <f t="shared" ref="I48" si="43">C48-F48</f>
+        <v>-100.9642407608153</v>
+      </c>
+      <c r="J48" s="11">
+        <f t="shared" ref="J48" si="44">D48-H48</f>
+        <v>194.67019557808089</v>
+      </c>
       <c r="K48" s="11"/>
     </row>
     <row r="49" spans="1:11">
@@ -35872,7 +37144,18 @@
       <c r="B49" s="10">
         <v>47</v>
       </c>
-      <c r="C49" s="3"/>
+      <c r="C49" s="3">
+        <f>Dati!K49</f>
+        <v>18849</v>
+      </c>
+      <c r="D49">
+        <f t="shared" ref="D49" si="45">C49-C48</f>
+        <v>570</v>
+      </c>
+      <c r="E49">
+        <f t="shared" ref="E49" si="46">10*(C49-C48)</f>
+        <v>5700</v>
+      </c>
       <c r="F49" s="11">
         <f t="shared" si="10"/>
         <v>18745.595993500992</v>
@@ -35885,8 +37168,14 @@
         <f t="shared" si="4"/>
         <v>365.63175274017703</v>
       </c>
-      <c r="I49" s="11"/>
-      <c r="J49" s="11"/>
+      <c r="I49" s="11">
+        <f t="shared" ref="I49" si="47">C49-F49</f>
+        <v>103.40400649900766</v>
+      </c>
+      <c r="J49" s="11">
+        <f t="shared" ref="J49" si="48">D49-H49</f>
+        <v>204.36824725982297</v>
+      </c>
       <c r="K49" s="11"/>
     </row>
     <row r="50" spans="1:11">
@@ -36138,7 +37427,7 @@
       </c>
       <c r="C60" s="3"/>
       <c r="F60" s="11">
-        <f t="shared" ref="F60:F67" si="37">$M$2/(1+$M$5*EXP(-$M$4*B60))</f>
+        <f t="shared" ref="F60:F67" si="49">$M$2/(1+$M$5*EXP(-$M$4*B60))</f>
         <v>20617.840215665983</v>
       </c>
       <c r="G60" s="11">
@@ -36162,7 +37451,7 @@
       </c>
       <c r="C61" s="3"/>
       <c r="F61" s="11">
-        <f t="shared" si="37"/>
+        <f t="shared" si="49"/>
         <v>20676.665348247563</v>
       </c>
       <c r="G61" s="11">
@@ -36186,7 +37475,7 @@
       </c>
       <c r="C62" s="3"/>
       <c r="F62" s="11">
-        <f t="shared" si="37"/>
+        <f t="shared" si="49"/>
         <v>20726.555729370077</v>
       </c>
       <c r="G62" s="11">
@@ -36210,7 +37499,7 @@
       </c>
       <c r="C63" s="3"/>
       <c r="F63" s="11">
-        <f t="shared" si="37"/>
+        <f t="shared" si="49"/>
         <v>20768.834113317804</v>
       </c>
       <c r="G63" s="11">
@@ -36234,7 +37523,7 @@
       </c>
       <c r="C64" s="3"/>
       <c r="F64" s="11">
-        <f t="shared" si="37"/>
+        <f t="shared" si="49"/>
         <v>20804.637270596504</v>
       </c>
       <c r="G64" s="11">
@@ -36258,7 +37547,7 @@
       </c>
       <c r="C65" s="3"/>
       <c r="F65" s="11">
-        <f t="shared" si="37"/>
+        <f t="shared" si="49"/>
         <v>20834.939277021032</v>
       </c>
       <c r="G65" s="11">
@@ -36282,7 +37571,7 @@
       </c>
       <c r="C66" s="3"/>
       <c r="F66" s="11">
-        <f t="shared" si="37"/>
+        <f t="shared" si="49"/>
         <v>20860.572747223094</v>
       </c>
       <c r="G66" s="11">
@@ -36306,7 +37595,7 @@
       </c>
       <c r="C67" s="3"/>
       <c r="F67" s="11">
-        <f t="shared" si="37"/>
+        <f t="shared" si="49"/>
         <v>20882.247909134818</v>
       </c>
       <c r="G67" s="11">
@@ -36451,10 +37740,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E46"/>
+  <dimension ref="A1:E49"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A46" sqref="A46"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A49" sqref="A49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -37381,6 +38670,69 @@
         <v>157</v>
       </c>
     </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="2">
+        <v>43929</v>
+      </c>
+      <c r="B47" s="3">
+        <f>Dati!L47</f>
+        <v>139422</v>
+      </c>
+      <c r="C47">
+        <f t="shared" ref="C47" si="33">B47-B46</f>
+        <v>3836</v>
+      </c>
+      <c r="D47">
+        <f t="shared" ref="D47" si="34">C47-C46</f>
+        <v>797</v>
+      </c>
+      <c r="E47">
+        <f t="shared" ref="E47" si="35">D47-D46</f>
+        <v>1357</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="2">
+        <v>43930</v>
+      </c>
+      <c r="B48" s="3">
+        <f>Dati!L48</f>
+        <v>143626</v>
+      </c>
+      <c r="C48">
+        <f t="shared" ref="C48" si="36">B48-B47</f>
+        <v>4204</v>
+      </c>
+      <c r="D48">
+        <f t="shared" ref="D48" si="37">C48-C47</f>
+        <v>368</v>
+      </c>
+      <c r="E48">
+        <f t="shared" ref="E48" si="38">D48-D47</f>
+        <v>-429</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="2">
+        <v>43931</v>
+      </c>
+      <c r="B49" s="3">
+        <f>Dati!L49</f>
+        <v>147577</v>
+      </c>
+      <c r="C49">
+        <f t="shared" ref="C49" si="39">B49-B48</f>
+        <v>3951</v>
+      </c>
+      <c r="D49">
+        <f t="shared" ref="D49" si="40">C49-C48</f>
+        <v>-253</v>
+      </c>
+      <c r="E49">
+        <f t="shared" ref="E49" si="41">D49-D48</f>
+        <v>-621</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0.39370078740157505" bottom="0.39370078740157505" header="0" footer="0"/>
   <headerFooter>
@@ -37393,10 +38745,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:E46"/>
+  <dimension ref="A1:E49"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="G44" sqref="G44"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A49" sqref="A49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -38323,6 +39675,69 @@
         <v>35</v>
       </c>
     </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="2">
+        <v>43929</v>
+      </c>
+      <c r="B47" s="3">
+        <f>Dati!D47</f>
+        <v>3693</v>
+      </c>
+      <c r="C47">
+        <f t="shared" ref="C47" si="33">B47-B46</f>
+        <v>-99</v>
+      </c>
+      <c r="D47">
+        <f t="shared" ref="D47" si="34">C47-C46</f>
+        <v>7</v>
+      </c>
+      <c r="E47">
+        <f t="shared" ref="E47" si="35">D47-D46</f>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="2">
+        <v>43930</v>
+      </c>
+      <c r="B48" s="3">
+        <f>Dati!D48</f>
+        <v>3605</v>
+      </c>
+      <c r="C48">
+        <f t="shared" ref="C48" si="36">B48-B47</f>
+        <v>-88</v>
+      </c>
+      <c r="D48">
+        <f t="shared" ref="D48" si="37">C48-C47</f>
+        <v>11</v>
+      </c>
+      <c r="E48">
+        <f t="shared" ref="E48" si="38">D48-D47</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="2">
+        <v>43931</v>
+      </c>
+      <c r="B49" s="3">
+        <f>Dati!D49</f>
+        <v>3497</v>
+      </c>
+      <c r="C49">
+        <f t="shared" ref="C49" si="39">B49-B48</f>
+        <v>-108</v>
+      </c>
+      <c r="D49">
+        <f t="shared" ref="D49" si="40">C49-C48</f>
+        <v>-20</v>
+      </c>
+      <c r="E49">
+        <f t="shared" ref="E49" si="41">D49-D48</f>
+        <v>-31</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.70000000000000007" right="0.70000000000000007" top="0.75" bottom="0.75" header="0.30000000000000004" footer="0.30000000000000004"/>
   <drawing r:id="rId1"/>
@@ -38331,10 +39746,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:E46"/>
+  <dimension ref="A1:E49"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A46" sqref="A46"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A49" sqref="A49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -39262,6 +40677,69 @@
         <v>330</v>
       </c>
     </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="2">
+        <v>43929</v>
+      </c>
+      <c r="B47" s="3">
+        <f>Dati!J47</f>
+        <v>26491</v>
+      </c>
+      <c r="C47">
+        <f t="shared" ref="C47" si="33">B47-B46</f>
+        <v>2099</v>
+      </c>
+      <c r="D47">
+        <f t="shared" ref="D47" si="34">C47-C46</f>
+        <v>544</v>
+      </c>
+      <c r="E47">
+        <f t="shared" ref="E47" si="35">D47-D46</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="2">
+        <v>43930</v>
+      </c>
+      <c r="B48" s="3">
+        <f>Dati!J48</f>
+        <v>28470</v>
+      </c>
+      <c r="C48">
+        <f t="shared" ref="C48" si="36">B48-B47</f>
+        <v>1979</v>
+      </c>
+      <c r="D48">
+        <f t="shared" ref="D48" si="37">C48-C47</f>
+        <v>-120</v>
+      </c>
+      <c r="E48">
+        <f t="shared" ref="E48" si="38">D48-D47</f>
+        <v>-664</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="2">
+        <v>43931</v>
+      </c>
+      <c r="B49" s="3">
+        <f>Dati!J49</f>
+        <v>30455</v>
+      </c>
+      <c r="C49">
+        <f t="shared" ref="C49" si="39">B49-B48</f>
+        <v>1985</v>
+      </c>
+      <c r="D49">
+        <f t="shared" ref="D49" si="40">C49-C48</f>
+        <v>6</v>
+      </c>
+      <c r="E49">
+        <f t="shared" ref="E49" si="41">D49-D48</f>
+        <v>126</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0.39370078740157505" bottom="0.39370078740157505" header="0" footer="0"/>
   <headerFooter>
@@ -39274,10 +40752,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:E46"/>
+  <dimension ref="A1:E49"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A46" sqref="A46"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="A49" sqref="A49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -40205,6 +41683,69 @@
         <v>-143</v>
       </c>
     </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="2">
+        <v>43929</v>
+      </c>
+      <c r="B47" s="3">
+        <f>Dati!K47</f>
+        <v>17669</v>
+      </c>
+      <c r="C47">
+        <f t="shared" ref="C47" si="33">B47-B46</f>
+        <v>542</v>
+      </c>
+      <c r="D47">
+        <f t="shared" ref="D47" si="34">C47-C46</f>
+        <v>-62</v>
+      </c>
+      <c r="E47">
+        <f t="shared" ref="E47" si="35">D47-D46</f>
+        <v>-30</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="2">
+        <v>43930</v>
+      </c>
+      <c r="B48" s="3">
+        <f>Dati!K48</f>
+        <v>18279</v>
+      </c>
+      <c r="C48">
+        <f t="shared" ref="C48" si="36">B48-B47</f>
+        <v>610</v>
+      </c>
+      <c r="D48">
+        <f t="shared" ref="D48" si="37">C48-C47</f>
+        <v>68</v>
+      </c>
+      <c r="E48">
+        <f t="shared" ref="E48" si="38">D48-D47</f>
+        <v>130</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="2">
+        <v>43931</v>
+      </c>
+      <c r="B49" s="3">
+        <f>Dati!K49</f>
+        <v>18849</v>
+      </c>
+      <c r="C49">
+        <f t="shared" ref="C49" si="39">B49-B48</f>
+        <v>570</v>
+      </c>
+      <c r="D49">
+        <f t="shared" ref="D49" si="40">C49-C48</f>
+        <v>-40</v>
+      </c>
+      <c r="E49">
+        <f t="shared" ref="E49" si="41">D49-D48</f>
+        <v>-108</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0.39370078740157505" bottom="0.39370078740157505" header="0" footer="0"/>
   <headerFooter>
@@ -40217,10 +41758,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:E46"/>
+  <dimension ref="A1:E49"/>
   <sheetViews>
     <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="A46" sqref="A46"/>
+      <selection activeCell="A49" sqref="A49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -41148,6 +42689,69 @@
         <v>-338</v>
       </c>
     </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="2">
+        <v>43929</v>
+      </c>
+      <c r="B47" s="3">
+        <f>Dati!E47</f>
+        <v>32178</v>
+      </c>
+      <c r="C47">
+        <f t="shared" ref="C47" si="33">B47-B46</f>
+        <v>-332</v>
+      </c>
+      <c r="D47">
+        <f t="shared" ref="D47" si="34">C47-C46</f>
+        <v>32</v>
+      </c>
+      <c r="E47">
+        <f t="shared" ref="E47" si="35">D47-D46</f>
+        <v>344</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="2">
+        <v>43930</v>
+      </c>
+      <c r="B48" s="3">
+        <f>Dati!E48</f>
+        <v>32004</v>
+      </c>
+      <c r="C48">
+        <f t="shared" ref="C48" si="36">B48-B47</f>
+        <v>-174</v>
+      </c>
+      <c r="D48">
+        <f t="shared" ref="D48" si="37">C48-C47</f>
+        <v>158</v>
+      </c>
+      <c r="E48">
+        <f t="shared" ref="E48" si="38">D48-D47</f>
+        <v>126</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="2">
+        <v>43931</v>
+      </c>
+      <c r="B49" s="3">
+        <f>Dati!E49</f>
+        <v>31739</v>
+      </c>
+      <c r="C49">
+        <f t="shared" ref="C49" si="39">B49-B48</f>
+        <v>-265</v>
+      </c>
+      <c r="D49">
+        <f t="shared" ref="D49" si="40">C49-C48</f>
+        <v>-91</v>
+      </c>
+      <c r="E49">
+        <f t="shared" ref="E49" si="41">D49-D48</f>
+        <v>-249</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0.39370078740157505" bottom="0.39370078740157505" header="0" footer="0"/>
   <headerFooter>
@@ -41160,10 +42764,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:E46"/>
+  <dimension ref="A1:E49"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A46" sqref="A46"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A49" sqref="A49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -42092,6 +43696,69 @@
         <v>-30</v>
       </c>
     </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="2">
+        <v>43929</v>
+      </c>
+      <c r="B47" s="3">
+        <f>Dati!G47</f>
+        <v>95262</v>
+      </c>
+      <c r="C47">
+        <f t="shared" ref="C47" si="33">B47-B46</f>
+        <v>1195</v>
+      </c>
+      <c r="D47">
+        <f t="shared" ref="D47" si="34">C47-C46</f>
+        <v>315</v>
+      </c>
+      <c r="E47">
+        <f t="shared" ref="E47" si="35">D47-D46</f>
+        <v>1376</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="2">
+        <v>43930</v>
+      </c>
+      <c r="B48" s="3">
+        <f>Dati!G48</f>
+        <v>96877</v>
+      </c>
+      <c r="C48">
+        <f t="shared" ref="C48" si="36">B48-B47</f>
+        <v>1615</v>
+      </c>
+      <c r="D48">
+        <f t="shared" ref="D48" si="37">C48-C47</f>
+        <v>420</v>
+      </c>
+      <c r="E48">
+        <f t="shared" ref="E48" si="38">D48-D47</f>
+        <v>105</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="2">
+        <v>43931</v>
+      </c>
+      <c r="B49" s="3">
+        <f>Dati!G49</f>
+        <v>98273</v>
+      </c>
+      <c r="C49">
+        <f t="shared" ref="C49" si="39">B49-B48</f>
+        <v>1396</v>
+      </c>
+      <c r="D49">
+        <f t="shared" ref="D49" si="40">C49-C48</f>
+        <v>-219</v>
+      </c>
+      <c r="E49">
+        <f t="shared" ref="E49" si="41">D49-D48</f>
+        <v>-639</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0.39370078740157505" bottom="0.39370078740157505" header="0" footer="0"/>
   <headerFooter>
@@ -42104,10 +43771,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:E47"/>
+  <dimension ref="A1:E49"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="A46" sqref="A46"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="A49" sqref="A49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -43023,21 +44690,80 @@
         <v>61557</v>
       </c>
       <c r="C46">
-        <f t="shared" ref="C46:C47" si="30">B46-B45</f>
+        <f t="shared" ref="C46" si="30">B46-B45</f>
         <v>1244</v>
       </c>
       <c r="D46">
-        <f t="shared" ref="D46:D47" si="31">C46-C45</f>
+        <f t="shared" ref="D46" si="31">C46-C45</f>
         <v>-749</v>
       </c>
       <c r="E46">
-        <f t="shared" ref="E46:E47" si="32">D46-D45</f>
+        <f t="shared" ref="E46" si="32">D46-D45</f>
         <v>308</v>
       </c>
     </row>
     <row r="47" spans="1:5">
-      <c r="A47" s="2"/>
-      <c r="B47" s="3"/>
+      <c r="A47" s="2">
+        <v>43929</v>
+      </c>
+      <c r="B47" s="3">
+        <f>Dati!F47</f>
+        <v>63084</v>
+      </c>
+      <c r="C47">
+        <f t="shared" ref="C47" si="33">B47-B46</f>
+        <v>1527</v>
+      </c>
+      <c r="D47">
+        <f t="shared" ref="D47" si="34">C47-C46</f>
+        <v>283</v>
+      </c>
+      <c r="E47">
+        <f t="shared" ref="E47" si="35">D47-D46</f>
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="2">
+        <v>43930</v>
+      </c>
+      <c r="B48" s="3">
+        <f>Dati!F48</f>
+        <v>64873</v>
+      </c>
+      <c r="C48">
+        <f t="shared" ref="C48" si="36">B48-B47</f>
+        <v>1789</v>
+      </c>
+      <c r="D48">
+        <f t="shared" ref="D48" si="37">C48-C47</f>
+        <v>262</v>
+      </c>
+      <c r="E48">
+        <f t="shared" ref="E48" si="38">D48-D47</f>
+        <v>-21</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="2">
+        <v>43931</v>
+      </c>
+      <c r="B49" s="3">
+        <f>Dati!F49</f>
+        <v>66534</v>
+      </c>
+      <c r="C49">
+        <f t="shared" ref="C49" si="39">B49-B48</f>
+        <v>1661</v>
+      </c>
+      <c r="D49">
+        <f t="shared" ref="D49" si="40">C49-C48</f>
+        <v>-128</v>
+      </c>
+      <c r="E49">
+        <f t="shared" ref="E49" si="41">D49-D48</f>
+        <v>-390</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0.39370078740157505" bottom="0.39370078740157505" header="0" footer="0"/>
@@ -43051,10 +44777,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:N46"/>
+  <dimension ref="A1:N49"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A46" sqref="A46"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="A49" sqref="A49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -44663,6 +46389,114 @@
         <v>12.451866118645301</v>
       </c>
     </row>
+    <row r="47" spans="1:11">
+      <c r="A47" s="2">
+        <v>43929</v>
+      </c>
+      <c r="B47" s="10">
+        <v>45</v>
+      </c>
+      <c r="C47" s="3">
+        <f>Dati!M47</f>
+        <v>807125</v>
+      </c>
+      <c r="D47">
+        <f t="shared" ref="D47" si="44">C47-C46</f>
+        <v>51680</v>
+      </c>
+      <c r="E47">
+        <f t="shared" ref="E47" si="45">D47-D46</f>
+        <v>17967</v>
+      </c>
+      <c r="H47" s="5">
+        <f>C47/Casi_totali!B47</f>
+        <v>5.7890791984048429</v>
+      </c>
+      <c r="I47" s="5">
+        <f>C47/Positivi!B47</f>
+        <v>8.4726858558501821</v>
+      </c>
+      <c r="J47" s="6">
+        <f t="shared" ref="J47" si="46">100/H47</f>
+        <v>17.273904289917919</v>
+      </c>
+      <c r="K47" s="6">
+        <f t="shared" ref="K47" si="47">100/I47</f>
+        <v>11.802632801610654</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
+      <c r="A48" s="2">
+        <v>43930</v>
+      </c>
+      <c r="B48" s="10">
+        <v>46</v>
+      </c>
+      <c r="C48" s="3">
+        <f>Dati!M48</f>
+        <v>853369</v>
+      </c>
+      <c r="D48">
+        <f t="shared" ref="D48" si="48">C48-C47</f>
+        <v>46244</v>
+      </c>
+      <c r="E48">
+        <f t="shared" ref="E48" si="49">D48-D47</f>
+        <v>-5436</v>
+      </c>
+      <c r="H48" s="5">
+        <f>C48/Casi_totali!B48</f>
+        <v>5.9416052803809896</v>
+      </c>
+      <c r="I48" s="5">
+        <f>C48/Positivi!B48</f>
+        <v>8.8087884637220402</v>
+      </c>
+      <c r="J48" s="6">
+        <f t="shared" ref="J48" si="50">100/H48</f>
+        <v>16.830468414015506</v>
+      </c>
+      <c r="K48" s="6">
+        <f t="shared" ref="K48" si="51">100/I48</f>
+        <v>11.352298946879953</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
+      <c r="A49" s="2">
+        <v>43931</v>
+      </c>
+      <c r="B49" s="10">
+        <v>47</v>
+      </c>
+      <c r="C49" s="3">
+        <f>Dati!M49</f>
+        <v>906864</v>
+      </c>
+      <c r="D49">
+        <f t="shared" ref="D49" si="52">C49-C48</f>
+        <v>53495</v>
+      </c>
+      <c r="E49">
+        <f t="shared" ref="E49" si="53">D49-D48</f>
+        <v>7251</v>
+      </c>
+      <c r="H49" s="5">
+        <f>C49/Casi_totali!B49</f>
+        <v>6.1450225983723747</v>
+      </c>
+      <c r="I49" s="5">
+        <f>C49/Positivi!B49</f>
+        <v>9.2280076928556163</v>
+      </c>
+      <c r="J49" s="6">
+        <f t="shared" ref="J49" si="54">100/H49</f>
+        <v>16.273333156901145</v>
+      </c>
+      <c r="K49" s="6">
+        <f t="shared" ref="K49" si="55">100/I49</f>
+        <v>10.836575274793134</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.70000000000000007" right="0.70000000000000007" top="0.75" bottom="0.75" header="0.30000000000000004" footer="0.30000000000000004"/>
   <pageSetup paperSize="0" fitToWidth="0" fitToHeight="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>

--- a/covid_ita.xlsx
+++ b/covid_ita.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carpaneto\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77A2532A-69CB-41B8-A474-45C031F57300}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{947FD50E-3088-4A4F-AE5F-D8E400C1F016}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="8" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dati" sheetId="1" r:id="rId1"/>
@@ -150,7 +150,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="64">
   <si>
     <t>data</t>
   </si>
@@ -817,10 +817,10 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="18">
     <cellStyle name="Accent" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -1078,6 +1078,9 @@
                 <c:pt idx="58">
                   <c:v>43943</c:v>
                 </c:pt>
+                <c:pt idx="59">
+                  <c:v>43944</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -1263,6 +1266,9 @@
                 </c:pt>
                 <c:pt idx="58">
                   <c:v>187327</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>189973</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1484,6 +1490,9 @@
                 <c:pt idx="58">
                   <c:v>43943</c:v>
                 </c:pt>
+                <c:pt idx="59">
+                  <c:v>43944</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -1666,6 +1675,9 @@
                 </c:pt>
                 <c:pt idx="58">
                   <c:v>3370</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>2646</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2112,6 +2124,9 @@
                 <c:pt idx="58">
                   <c:v>43943</c:v>
                 </c:pt>
+                <c:pt idx="59">
+                  <c:v>43944</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -2294,6 +2309,9 @@
                 </c:pt>
                 <c:pt idx="58">
                   <c:v>-416</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>-1051</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2515,6 +2533,9 @@
                 <c:pt idx="58">
                   <c:v>43943</c:v>
                 </c:pt>
+                <c:pt idx="59">
+                  <c:v>43944</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -2694,6 +2715,9 @@
                 </c:pt>
                 <c:pt idx="58">
                   <c:v>458</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>-635</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3149,6 +3173,9 @@
                 <c:pt idx="58">
                   <c:v>43943</c:v>
                 </c:pt>
+                <c:pt idx="59">
+                  <c:v>43944</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -3334,6 +3361,9 @@
                 </c:pt>
                 <c:pt idx="58">
                   <c:v>107699</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>106848</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3555,6 +3585,9 @@
                 <c:pt idx="58">
                   <c:v>43943</c:v>
                 </c:pt>
+                <c:pt idx="59">
+                  <c:v>43944</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -3737,6 +3770,9 @@
                 </c:pt>
                 <c:pt idx="58">
                   <c:v>-10</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>-851</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4183,6 +4219,9 @@
                 <c:pt idx="58">
                   <c:v>43943</c:v>
                 </c:pt>
+                <c:pt idx="59">
+                  <c:v>43944</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -4365,6 +4404,9 @@
                 </c:pt>
                 <c:pt idx="58">
                   <c:v>-10</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>-851</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4586,6 +4628,9 @@
                 <c:pt idx="58">
                   <c:v>43943</c:v>
                 </c:pt>
+                <c:pt idx="59">
+                  <c:v>43944</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -4765,6 +4810,9 @@
                 </c:pt>
                 <c:pt idx="58">
                   <c:v>518</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>-841</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5245,6 +5293,9 @@
                 <c:pt idx="58">
                   <c:v>43943</c:v>
                 </c:pt>
+                <c:pt idx="59">
+                  <c:v>43944</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -5430,6 +5481,9 @@
                 </c:pt>
                 <c:pt idx="58">
                   <c:v>107699</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>106848</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5854,6 +5908,9 @@
                 <c:pt idx="58">
                   <c:v>43943</c:v>
                 </c:pt>
+                <c:pt idx="59">
+                  <c:v>43944</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -6039,6 +6096,9 @@
                 </c:pt>
                 <c:pt idx="58">
                   <c:v>81510</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>81710</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6260,6 +6320,9 @@
                 <c:pt idx="58">
                   <c:v>43943</c:v>
                 </c:pt>
+                <c:pt idx="59">
+                  <c:v>43944</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -6442,6 +6505,9 @@
                 </c:pt>
                 <c:pt idx="58">
                   <c:v>406</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>200</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6888,6 +6954,9 @@
                 <c:pt idx="58">
                   <c:v>43943</c:v>
                 </c:pt>
+                <c:pt idx="59">
+                  <c:v>43944</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -7070,6 +7139,9 @@
                 </c:pt>
                 <c:pt idx="58">
                   <c:v>406</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>200</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7291,6 +7363,9 @@
                 <c:pt idx="58">
                   <c:v>43943</c:v>
                 </c:pt>
+                <c:pt idx="59">
+                  <c:v>43944</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -7470,6 +7545,9 @@
                 </c:pt>
                 <c:pt idx="58">
                   <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>-206</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7964,6 +8042,9 @@
                 <c:pt idx="58">
                   <c:v>43943</c:v>
                 </c:pt>
+                <c:pt idx="59">
+                  <c:v>43944</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -8149,6 +8230,9 @@
                 </c:pt>
                 <c:pt idx="58">
                   <c:v>187327</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>189973</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8640,6 +8724,9 @@
                 <c:pt idx="57">
                   <c:v>43943</c:v>
                 </c:pt>
+                <c:pt idx="58">
+                  <c:v>43944</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -8822,6 +8909,9 @@
                 </c:pt>
                 <c:pt idx="57">
                   <c:v>3370</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>2646</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9288,6 +9378,9 @@
                 <c:pt idx="58">
                   <c:v>43943</c:v>
                 </c:pt>
+                <c:pt idx="59">
+                  <c:v>43944</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -9473,6 +9566,9 @@
                 </c:pt>
                 <c:pt idx="58">
                   <c:v>1513251</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1579909</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9930,6 +10026,9 @@
                 <c:pt idx="58">
                   <c:v>43943</c:v>
                 </c:pt>
+                <c:pt idx="59">
+                  <c:v>43944</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -10112,6 +10211,9 @@
                 </c:pt>
                 <c:pt idx="58">
                   <c:v>63101</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>66658</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10544,6 +10646,9 @@
                 <c:pt idx="58">
                   <c:v>43943</c:v>
                 </c:pt>
+                <c:pt idx="59">
+                  <c:v>43944</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -10726,6 +10831,9 @@
                 </c:pt>
                 <c:pt idx="58">
                   <c:v>3370</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>2646</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10947,6 +11055,9 @@
                 <c:pt idx="58">
                   <c:v>43943</c:v>
                 </c:pt>
+                <c:pt idx="59">
+                  <c:v>43944</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -11126,6 +11237,9 @@
                 </c:pt>
                 <c:pt idx="58">
                   <c:v>641</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>-724</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11616,6 +11730,9 @@
                 <c:pt idx="58">
                   <c:v>43943</c:v>
                 </c:pt>
+                <c:pt idx="59">
+                  <c:v>43944</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -11801,6 +11918,9 @@
                 </c:pt>
                 <c:pt idx="58">
                   <c:v>12.379109612351158</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>12.02430013374188</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11840,10 +11960,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Tamponi!$A$2:$A$61</c:f>
+              <c:f>Tamponi!$A$2:$A$67</c:f>
               <c:numCache>
                 <c:formatCode>d/m;@</c:formatCode>
-                <c:ptCount val="60"/>
+                <c:ptCount val="66"/>
                 <c:pt idx="1">
                   <c:v>43885</c:v>
                 </c:pt>
@@ -12020,16 +12140,19 @@
                 </c:pt>
                 <c:pt idx="59">
                   <c:v>43943</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>43944</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Tamponi!$J$2:$J$61</c:f>
+              <c:f>Tamponi!$J$2:$J$67</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="60"/>
+                <c:ptCount val="66"/>
                 <c:pt idx="1">
                   <c:v>5.1110083256244216</c:v>
                 </c:pt>
@@ -12206,6 +12329,9 @@
                 </c:pt>
                 <c:pt idx="59">
                   <c:v>7.1170612145638765</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>6.7629211555855431</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12403,6 +12529,9 @@
                 <c:pt idx="57">
                   <c:v>43943</c:v>
                 </c:pt>
+                <c:pt idx="58">
+                  <c:v>43944</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -12585,6 +12714,9 @@
                 </c:pt>
                 <c:pt idx="57">
                   <c:v>5.340644363797721</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>3.9695160370848215</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13105,6 +13237,9 @@
                 <c:pt idx="57">
                   <c:v>43943</c:v>
                 </c:pt>
+                <c:pt idx="58">
+                  <c:v>43944</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -13287,6 +13422,9 @@
                 </c:pt>
                 <c:pt idx="57">
                   <c:v>63101</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>66658</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13518,6 +13656,9 @@
                 <c:pt idx="57">
                   <c:v>43943</c:v>
                 </c:pt>
+                <c:pt idx="58">
+                  <c:v>43944</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -13700,6 +13841,9 @@
                 </c:pt>
                 <c:pt idx="57">
                   <c:v>5.340644363797721</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>3.9695160370848215</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14772,286 +14916,286 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.2963895013854003E-2</c:v>
+                  <c:v>9.4000494198171313E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.19201262194226418</c:v>
+                  <c:v>0.1406299172080531</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.2762872924598685</c:v>
+                  <c:v>0.94391109079900204</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.4556139997829396</c:v>
+                  <c:v>4.0736018001503798</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>17.560813836588704</c:v>
+                  <c:v>13.236521572207954</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>46.347813947940466</c:v>
+                  <c:v>35.261989944356166</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>105.60444505308459</c:v>
+                  <c:v>81.090160672030322</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>214.84943598020507</c:v>
+                  <c:v>166.49135031985196</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>399.47884757226655</c:v>
+                  <c:v>312.38288589322133</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>690.31380120665494</c:v>
+                  <c:v>544.67936783349751</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1122.5921117189264</c:v>
+                  <c:v>893.68006928905561</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1734.5127599650491</c:v>
+                  <c:v>1393.052755827734</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2565.4817369466355</c:v>
+                  <c:v>2078.5114816413575</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3654.2220218577254</c:v>
+                  <c:v>2986.3061212962807</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>5036.9039184094891</c:v>
+                  <c:v>4151.6454946565718</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>6745.4306040166402</c:v>
+                  <c:v>5607.1673545277208</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>8805.983517113531</c:v>
+                  <c:v>7381.5511368370117</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>11237.898346425496</c:v>
+                  <c:v>9498.3469672715582</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>14052.908999314754</c:v>
+                  <c:v>11975.070184953674</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>17254.766907567478</c:v>
+                  <c:v>14822.587082486036</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>20839.218141997109</c:v>
+                  <c:v>18044.796432792413</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>24794.301866201837</c:v>
+                  <c:v>21638.593756760769</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>29100.920746354714</c:v>
+                  <c:v>25594.09168929053</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>33733.626613218934</c:v>
+                  <c:v>29895.060286155862</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>38661.562186323135</c:v>
+                  <c:v>34519.545420534669</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>43849.501095311585</c:v>
+                  <c:v>39440.621078770026</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>49258.932803743242</c:v>
+                  <c:v>44627.231799367561</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>54849.145433240265</c:v>
+                  <c:v>50045.084087752017</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>60578.26707711241</c:v>
+                  <c:v>55657.549777559267</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>66404.234288363383</c:v>
+                  <c:v>61426.549444924589</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>72285.664474518097</c:v>
+                  <c:v>67313.389637128785</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>78182.616517214061</c:v>
+                  <c:v>73279.533457359154</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>84057.230771880888</c:v>
+                  <c:v>79287.289645713056</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>89874.245517016214</c:v>
+                  <c:v>85300.410487226283</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>95601.391830384295</c:v>
+                  <c:v>91284.593508506819</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>101209.67276018826</c:v>
+                  <c:v>97207.885906474432</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>106673.53557622603</c:v>
+                  <c:v>103040.99394858482</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>111970.94791018408</c:v>
+                  <c:v>108757.50219730455</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>117083.38983010667</c:v>
+                  <c:v>114334.0093764006</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>121995.77445839478</c:v>
+                  <c:v>119750.18906784352</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>126696.30975530563</c:v>
+                  <c:v>124988.78427409934</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>131176.31366719009</c:v>
+                  <c:v>130035.54527641925</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>135429.99408877952</c:v>
+                  <c:v>134879.12024227376</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>139454.20410867609</c:v>
+                  <c:v>139510.90775905029</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>143248.18188094907</c:v>
+                  <c:v>143924.87996641253</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>146813.2832641351</c:v>
+                  <c:v>148117.38428951823</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>150152.71414954882</c:v>
+                  <c:v>152086.93099512259</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>153271.26820880812</c:v>
+                  <c:v>155833.97294983803</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>156175.07465978697</c:v>
+                  <c:v>159360.68309376933</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>158871.35960485498</c:v>
+                  <c:v>162670.73428496029</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>161368.22355080504</c:v>
+                  <c:v>165769.08534502532</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>163674.43688483528</c:v>
+                  <c:v>168661.77636206607</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>165799.25435818956</c:v>
+                  <c:v>171355.73559600368</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>167752.24901699796</c:v>
+                  <c:v>173858.59969158052</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>169543.16551360372</c:v>
+                  <c:v>176178.5483393723</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>171181.79232397524</c:v>
+                  <c:v>178324.15403592869</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>172677.85207889517</c:v>
+                  <c:v>180304.24717888914</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>174040.90897884054</c:v>
+                  <c:v>182127.79638802726</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>175280.29209482396</c:v>
+                  <c:v>183803.80366377474</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>176405.03325004017</c:v>
+                  <c:v>185341.21377512478</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>177423.8181204256</c:v>
+                  <c:v>186748.83710269001</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>178344.94917726575</c:v>
+                  <c:v>188035.28504368674</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>179176.31911360245</c:v>
+                  <c:v>189208.91700738107</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>179925.393441058</c:v>
+                  <c:v>190277.79798594525</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>180599.20100833141</c:v>
+                  <c:v>191249.66567097307</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>181204.33127142637</c:v>
+                  <c:v>192131.90609478005</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>181746.93723386258</c:v>
+                  <c:v>192931.53680325681</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>182232.7430687141</c:v>
+                  <c:v>193655.19660916529</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>182667.05553003828</c:v>
+                  <c:v>194309.14102761098</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>183054.77835648719</c:v>
+                  <c:v>194899.24255574765</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>183400.42896258703</c:v>
+                  <c:v>195430.99502382084</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>183708.15680178802</c:v>
+                  <c:v>195909.52131213626</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>183981.76286881816</c:v>
+                  <c:v>196339.58379656787</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>184224.71988637152</c:v>
+                  <c:v>196725.59695229054</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>184440.1927922811</c:v>
+                  <c:v>197071.64161036111</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>184631.05920786868</c:v>
+                  <c:v>197381.48042368915</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>184799.92962612421</c:v>
+                  <c:v>197658.57415720186</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>184949.16710989535</c:v>
+                  <c:v>197906.09847118548</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>185080.90633562408</c:v>
+                  <c:v>198126.96091662944</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>185197.07185769902</c:v>
+                  <c:v>198323.81790680042</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>185299.39550259631</c:v>
+                  <c:v>198499.09147023986</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>185389.43283109579</c:v>
+                  <c:v>198654.98562700907</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>185468.578631429</c:v>
+                  <c:v>198793.50226246842</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>185538.08142669444</c:v>
+                  <c:v>198916.4564013893</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>185599.05699670373</c:v>
+                  <c:v>199025.49081001346</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>185652.50092802494</c:v>
+                  <c:v>199122.08987506852</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>185699.30021676674</c:v>
+                  <c:v>199207.59272700749</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>185740.24395697366</c:v>
+                  <c:v>199283.20559015419</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>185776.0331537218</c:v>
+                  <c:v>199350.01335528912</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>185807.28970443114</c:v>
+                  <c:v>199408.99038077981</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>185834.56459482602</c:v>
+                  <c:v>199461.01053690727</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>185858.34535763436</c:v>
+                  <c:v>199506.85651481542</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>185879.06284274065</c:v>
+                  <c:v>199547.22842674167</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>185897.09734729637</c:v>
+                  <c:v>199582.75172808795</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15351,250 +15495,250 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="83"/>
                 <c:pt idx="1">
-                  <c:v>0.12963895013854002</c:v>
+                  <c:v>9.4000494198171317E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.7904872692841018</c:v>
+                  <c:v>1.3122986778823598</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10.842746705176044</c:v>
+                  <c:v>8.0328117359094904</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>41.793267073230709</c:v>
+                  <c:v>31.296907093513777</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>121.05199836805764</c:v>
+                  <c:v>91.629197720575746</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>287.87000111351762</c:v>
+                  <c:v>220.25468372148211</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>592.56631105144129</c:v>
+                  <c:v>458.28170727674154</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1092.4499092712049</c:v>
+                  <c:v>854.01189647821639</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1846.2941159206148</c:v>
+                  <c:v>1458.9153557336936</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2908.3495363438842</c:v>
+                  <c:v>2322.9648194027618</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4322.7831051227149</c:v>
+                  <c:v>3490.007014555581</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>6119.2064824612271</c:v>
+                  <c:v>4993.7268653867841</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>8309.6897698158646</c:v>
+                  <c:v>6854.5872581362346</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>10887.402849110898</c:v>
+                  <c:v>9077.9463965492323</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>13826.818965517636</c:v>
+                  <c:v>11653.393733602912</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>17085.26685607151</c:v>
+                  <c:v>14555.21859871149</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>20605.529130968906</c:v>
+                  <c:v>17743.837823092908</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>24319.148293119651</c:v>
+                  <c:v>21167.958304345466</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>28150.106528892575</c:v>
+                  <c:v>24767.232176821162</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>32018.579082527249</c:v>
+                  <c:v>28475.168975323613</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>35844.512344296309</c:v>
+                  <c:v>32222.09350306377</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>39550.837242047273</c:v>
+                  <c:v>35937.973239683561</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>43066.18880152877</c:v>
+                  <c:v>39554.979325297609</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>46327.058668642203</c:v>
+                  <c:v>43009.685968653321</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>49279.355731042015</c:v>
+                  <c:v>46244.851343788068</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>51879.389089884498</c:v>
+                  <c:v>49210.75658235357</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>54094.317084316572</c:v>
+                  <c:v>51866.10720597535</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>55902.126294970221</c:v>
+                  <c:v>54178.522883844562</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>57291.216438721458</c:v>
+                  <c:v>56124.656898072499</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>58259.672112509725</c:v>
+                  <c:v>57689.996673653222</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>58814.301861547137</c:v>
+                  <c:v>58868.401922041958</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>58969.520426959643</c:v>
+                  <c:v>59661.438202303689</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>58746.14254666827</c:v>
+                  <c:v>60077.56188353902</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>58170.147451353259</c:v>
+                  <c:v>60131.208415132278</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>57271.463133680809</c:v>
+                  <c:v>59841.830212805362</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>56082.809298039647</c:v>
+                  <c:v>59232.923979676125</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>54638.628160377702</c:v>
+                  <c:v>58331.080421103834</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>52974.123339580547</c:v>
+                  <c:v>57165.08248719736</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>51124.419199225813</c:v>
+                  <c:v>55765.071790960501</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>49123.846282881132</c:v>
+                  <c:v>54161.796914429142</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>47005.352969108499</c:v>
+                  <c:v>52385.952062558208</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>44800.039118844579</c:v>
+                  <c:v>50467.610023199086</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>42536.804215894372</c:v>
+                  <c:v>48435.749658545101</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>40242.100198965636</c:v>
+                  <c:v>46317.875167765305</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>37939.777722729777</c:v>
+                  <c:v>44139.722073622397</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>35651.013831860328</c:v>
+                  <c:v>41925.043231057061</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>33394.308854137198</c:v>
+                  <c:v>39695.467056043562</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>31185.540592593024</c:v>
+                  <c:v>37470.419547154452</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>29038.064509788528</c:v>
+                  <c:v>35267.101439312974</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>26962.849450680078</c:v>
+                  <c:v>33100.511911909562</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>24968.639459500555</c:v>
+                  <c:v>30983.510600650334</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>23062.133340302389</c:v>
+                  <c:v>28926.9101704075</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>21248.174733542837</c:v>
+                  <c:v>26939.592339376104</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>19529.946588083985</c:v>
+                  <c:v>25028.640955768351</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>17909.164966057579</c:v>
+                  <c:v>23199.486477917817</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>16386.268103715265</c:v>
+                  <c:v>21456.056965563912</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>14960.597549199301</c:v>
+                  <c:v>19800.931429604534</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>13630.568999453681</c:v>
+                  <c:v>18235.492091381166</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>12393.831159834226</c:v>
+                  <c:v>16760.072757474845</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>11247.411552162084</c:v>
+                  <c:v>15374.101113500365</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>10187.848703854252</c:v>
+                  <c:v>14076.233275652339</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>9211.3105684015318</c:v>
+                  <c:v>12864.479409967316</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>8313.69936336705</c:v>
+                  <c:v>11736.319636943226</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>7490.7432745554252</c:v>
+                  <c:v>10688.809785641788</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>6738.0756727341213</c:v>
+                  <c:v>9718.6768502782797</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>6051.302630949649</c:v>
+                  <c:v>8822.404238069721</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>5426.0596243620967</c:v>
+                  <c:v>7996.3070847676136</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>4858.0583485151874</c:v>
+                  <c:v>7236.5980590847903</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>4343.1246132418164</c:v>
+                  <c:v>6539.4441844569519</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>3877.2282644890947</c:v>
+                  <c:v>5901.0152813667082</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>3456.506060998363</c:v>
+                  <c:v>5317.5246807318763</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>3077.2783920099027</c:v>
+                  <c:v>4785.2628831542097</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>2736.0606703013764</c:v>
+                  <c:v>4300.6248443160439</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>2429.5701755335904</c:v>
+                  <c:v>3860.1315572267049</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>2154.7290590958437</c:v>
+                  <c:v>3460.4465807057568</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>1908.6641558757401</c:v>
+                  <c:v>3098.3881332803867</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>1688.7041825553752</c:v>
+                  <c:v>2770.9373351270915</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>1492.3748377113952</c:v>
+                  <c:v>2475.2431398362387</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>1317.3922572872834</c:v>
+                  <c:v>2208.6244544395595</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>1161.6552207493805</c:v>
+                  <c:v>1968.5699017098523</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>1023.2364489728934</c:v>
+                  <c:v>1752.7356343943393</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>900.37328499485739</c:v>
+                  <c:v>1558.9415676920908</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16095,178 +16239,181 @@
                   <c:v>229</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>321.98703610498615</c:v>
+                  <c:v>321.99059995058019</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>399.80798737805776</c:v>
+                  <c:v>399.85937008279194</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>648.72371270754013</c:v>
+                  <c:v>649.05608890920098</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>882.54438600021706</c:v>
+                  <c:v>883.92639819984959</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1110.4391861634113</c:v>
+                  <c:v>1114.7634784277921</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1647.6521860520595</c:v>
+                  <c:v>1658.7380100556438</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1930.3955549469154</c:v>
+                  <c:v>1954.9098393279696</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2287.1505640197947</c:v>
+                  <c:v>2335.5086496801482</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2689.5211524277333</c:v>
+                  <c:v>2776.6171141067789</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3167.6861987933453</c:v>
+                  <c:v>3313.3206321665025</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3513.4078882810736</c:v>
+                  <c:v>3742.3199307109444</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4148.4872400349504</c:v>
+                  <c:v>4489.9472441722664</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4809.5182630533645</c:v>
+                  <c:v>5296.488518358643</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5517.7779781422742</c:v>
+                  <c:v>6185.6938787037197</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>5112.0960815905109</c:v>
+                  <c:v>5997.3545053434282</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5716.5693959833598</c:v>
+                  <c:v>6854.8326454722792</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>6307.016482886469</c:v>
+                  <c:v>7731.4488631629883</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>6422.1016535745039</c:v>
+                  <c:v>8161.6530327284418</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>7104.0910006852464</c:v>
+                  <c:v>9181.9298150463255</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>7492.2330924325215</c:v>
+                  <c:v>9924.4129175139642</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>7140.7818580028907</c:v>
+                  <c:v>9935.2035672075872</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>6711.6981337981633</c:v>
+                  <c:v>9867.4062432392311</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>6612.0792536452864</c:v>
+                  <c:v>10118.90831070947</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>7301.3733867810661</c:v>
+                  <c:v>11139.939713844138</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>8359.4378136768646</c:v>
+                  <c:v>12501.454579465331</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>9728.4989046884148</c:v>
+                  <c:v>14137.378921229974</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>9879.0671962567576</c:v>
+                  <c:v>14510.768200632439</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>9077.8545667597355</c:v>
+                  <c:v>13881.915912247983</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>8597.7329228875897</c:v>
+                  <c:v>13518.450222440733</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>7981.7657116366172</c:v>
+                  <c:v>12959.450555075411</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>8253.3355254819035</c:v>
+                  <c:v>13225.610362871215</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>8315.3834827859391</c:v>
+                  <c:v>13218.466542640846</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>8414.7692281191121</c:v>
+                  <c:v>13184.710354286944</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>7814.7544829837861</c:v>
+                  <c:v>12388.589512773717</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>6137.6081696157053</c:v>
+                  <c:v>10454.406491493181</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>4582.3272398117406</c:v>
+                  <c:v>8584.114093525568</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>3900.4644237739703</c:v>
+                  <c:v>7533.0060514151846</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>3271.0520898159157</c:v>
+                  <c:v>6484.4978026954486</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>2743.6101698933344</c:v>
+                  <c:v>5492.9906235993985</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>2636.2255416052212</c:v>
+                  <c:v>4881.8109321564843</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>2251.6902446943714</c:v>
+                  <c:v>3959.2157259006635</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>1370.6863328099134</c:v>
+                  <c:v>2511.4547235807549</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>156.00591122047626</c:v>
+                  <c:v>706.87975772624486</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>-32.204108676087344</c:v>
+                  <c:v>-88.907759050285676</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>377.81811905093491</c:v>
+                  <c:v>-298.87996641252539</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>763.71673586490215</c:v>
+                  <c:v>-540.38428951823153</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>2118.2858504511823</c:v>
+                  <c:v>184.06900487741223</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>3091.7317911918799</c:v>
+                  <c:v>529.02705016196705</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>3340.9253402130271</c:v>
+                  <c:v>155.3169062306697</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>3616.6403951450193</c:v>
+                  <c:v>-182.73428496028646</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>3786.7764491949638</c:v>
+                  <c:v>-614.08534502531984</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>5266.5631151647249</c:v>
+                  <c:v>279.22363793393015</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>6634.7456418104412</c:v>
+                  <c:v>1078.2644039963197</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>8172.7509830020426</c:v>
+                  <c:v>2066.4003084194846</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>9428.8344863962848</c:v>
+                  <c:v>2793.4516606277029</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>10046.207676024758</c:v>
+                  <c:v>2903.8459640713118</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>11279.147921104828</c:v>
+                  <c:v>3652.7528211108583</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>13286.09102115946</c:v>
+                  <c:v>5199.2036119727418</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>6169.1963362252573</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -17118,6 +17265,9 @@
                 <c:pt idx="58">
                   <c:v>3370</c:v>
                 </c:pt>
+                <c:pt idx="59">
+                  <c:v>2646</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -17525,346 +17675,346 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="147"/>
                 <c:pt idx="1">
-                  <c:v>1.2963895013854003E-2</c:v>
+                  <c:v>9.4000494198171313E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.17904872692841017</c:v>
+                  <c:v>0.13122986778823598</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.0842746705176043</c:v>
+                  <c:v>0.80328117359094897</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.1793267073230709</c:v>
+                  <c:v>3.1296907093513782</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>12.105199836805765</c:v>
+                  <c:v>9.1629197720575739</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>28.787000111351766</c:v>
+                  <c:v>22.025468372148215</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>59.25663110514413</c:v>
+                  <c:v>45.828170727674156</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>109.24499092712048</c:v>
+                  <c:v>85.401189647821653</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>184.6294115920615</c:v>
+                  <c:v>145.89153557336934</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>290.8349536343884</c:v>
+                  <c:v>232.29648194027612</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>432.27831051227133</c:v>
+                  <c:v>349.0007014555581</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>611.92064824612282</c:v>
+                  <c:v>499.37268653867847</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>830.96897698158637</c:v>
+                  <c:v>685.45872581362335</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1088.7402849110899</c:v>
+                  <c:v>907.79463965492334</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1382.6818965517634</c:v>
+                  <c:v>1165.3393733602907</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1708.5266856071514</c:v>
+                  <c:v>1455.5218598711485</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2060.5529130968916</c:v>
+                  <c:v>1774.3837823092908</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2431.9148293119647</c:v>
+                  <c:v>2116.7958304345457</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2815.010652889257</c:v>
+                  <c:v>2476.7232176821162</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>3201.8579082527235</c:v>
+                  <c:v>2847.5168975323622</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>3584.4512344296322</c:v>
+                  <c:v>3222.2093503063752</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>3955.0837242047273</c:v>
+                  <c:v>3593.7973239683561</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>4306.618880152876</c:v>
+                  <c:v>3955.4979325297604</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>4632.7058668642212</c:v>
+                  <c:v>4300.9685968653321</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>4927.9355731042042</c:v>
+                  <c:v>4624.4851343788041</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>5187.9389089884498</c:v>
+                  <c:v>4921.0756582353533</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>5409.4317084316563</c:v>
+                  <c:v>5186.6107205975341</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>5590.212629497023</c:v>
+                  <c:v>5417.8522883844571</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>5729.1216438721485</c:v>
+                  <c:v>5612.4656898072481</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>5825.9672112509697</c:v>
+                  <c:v>5768.9996673653204</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>5881.4301861547101</c:v>
+                  <c:v>5886.840192204193</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>5896.9520426959634</c:v>
+                  <c:v>5966.1438202303734</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>5874.6142546668298</c:v>
+                  <c:v>6007.7561883538947</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>5817.0147451353223</c:v>
+                  <c:v>6013.1208415132332</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>5727.1463133680736</c:v>
+                  <c:v>5984.1830212805353</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>5608.280929803962</c:v>
+                  <c:v>5923.2923979676161</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>5463.8628160377639</c:v>
+                  <c:v>5833.1080421103816</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>5297.4123339580601</c:v>
+                  <c:v>5716.5082487197396</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>5112.4419199225822</c:v>
+                  <c:v>5576.507179096051</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>4912.3846282881077</c:v>
+                  <c:v>5416.1796914429133</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>4700.535296910848</c:v>
+                  <c:v>5238.5952062558226</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>4480.0039118844543</c:v>
+                  <c:v>5046.7610023199086</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>4253.6804215894272</c:v>
+                  <c:v>4843.5749658544983</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>4024.210019896555</c:v>
+                  <c:v>4631.7875167765424</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>3793.9777722729805</c:v>
+                  <c:v>4413.9722073622452</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>3565.1013831860209</c:v>
+                  <c:v>4192.5043231057043</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>3339.4308854137166</c:v>
+                  <c:v>3969.5467056043431</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>3118.5540592592929</c:v>
+                  <c:v>3747.0419547154593</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>2903.8064509788496</c:v>
+                  <c:v>3526.7101439313105</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>2696.2849450680092</c:v>
+                  <c:v>3310.0511911909548</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>2496.8639459500628</c:v>
+                  <c:v>3098.3510600650443</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>2306.2133340302248</c:v>
+                  <c:v>2892.6910170407523</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>2124.8174733542742</c:v>
+                  <c:v>2693.9592339376236</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>1952.9946588083872</c:v>
+                  <c:v>2502.8640955768301</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>1790.9164966057688</c:v>
+                  <c:v>2319.9486477917799</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>1638.6268103715402</c:v>
+                  <c:v>2145.605696556388</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>1496.0597549199344</c:v>
+                  <c:v>1980.093142960447</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>1363.0568999453665</c:v>
+                  <c:v>1823.5492091381104</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>1239.3831159834185</c:v>
+                  <c:v>1676.0072757474895</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>1124.7411552162228</c:v>
+                  <c:v>1537.4101113500335</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>1018.7848703854344</c:v>
+                  <c:v>1407.6233275652301</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>921.13105684013919</c:v>
+                  <c:v>1286.4479409967234</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>831.36993633671693</c:v>
+                  <c:v>1173.6319636943226</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>749.07432745555127</c:v>
+                  <c:v>1068.8809785641836</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>673.80756727342191</c:v>
+                  <c:v>971.86768502781342</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>605.13026309497718</c:v>
+                  <c:v>882.24042380696949</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>542.60596243621887</c:v>
+                  <c:v>799.63070847676261</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>485.80583485152658</c:v>
+                  <c:v>723.65980590848858</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>434.31246132418863</c:v>
+                  <c:v>653.94441844570588</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>387.72282644892238</c:v>
+                  <c:v>590.10152813667241</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>345.65060609983669</c:v>
+                  <c:v>531.75246807317546</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>307.72783920098482</c:v>
+                  <c:v>478.52628831543126</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>273.60606703014827</c:v>
+                  <c:v>430.06248443160098</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>242.95701755335386</c:v>
+                  <c:v>386.01315572268362</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>215.47290590957476</c:v>
+                  <c:v>346.04465807057733</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>190.86641558757253</c:v>
+                  <c:v>309.83881332804759</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>168.8704182555399</c:v>
+                  <c:v>277.09373351271347</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>149.23748377113085</c:v>
+                  <c:v>247.52431398362006</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>131.7392257287384</c:v>
+                  <c:v>220.8624454439616</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>116.16552207494648</c:v>
+                  <c:v>196.85699017097508</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>102.32364489730293</c:v>
+                  <c:v>175.27356343942313</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>90.037328499486023</c:v>
+                  <c:v>155.89415676919762</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>79.145800333209564</c:v>
+                  <c:v>138.5166354593421</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>69.502795265432269</c:v>
+                  <c:v>122.95413892088088</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>60.975570009281924</c:v>
+                  <c:v>109.03440862417979</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>53.443931321194377</c:v>
+                  <c:v>96.599065055066404</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>46.799288741797284</c:v>
+                  <c:v>85.502851938974175</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>40.943740206908963</c:v>
+                  <c:v>75.612863146697521</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>35.789196748136696</c:v>
+                  <c:v>66.80776513494402</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>31.256550709334611</c:v>
+                  <c:v>58.97702549069821</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>27.274890394889159</c:v>
+                  <c:v>52.020156127461512</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>23.780762808334188</c:v>
+                  <c:v>45.845977908131879</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>20.717485106276218</c:v>
+                  <c:v>40.371911926259372</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>18.034504555713887</c:v>
+                  <c:v>35.523301346290573</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>15.686806117127247</c:v>
+                  <c:v>31.232766565520166</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>13.634366257755962</c:v>
+                  <c:v>27.439595497169332</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>11.841651207933795</c:v>
+                  <c:v>24.089169967225999</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>10.277157588933051</c:v>
+                  <c:v>21.13242855006742</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>8.912993146281595</c:v>
+                  <c:v>18.52536562305658</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>7.7244952026711147</c:v>
+                  <c:v>16.228565982991068</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>6.6898843859594779</c:v>
+                  <c:v>14.2067740233727</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>5.7899511786724895</c:v>
+                  <c:v>12.428496208046182</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>5.0077728657018463</c:v>
+                  <c:v>10.865635382138455</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>4.3284585178850659</c:v>
+                  <c:v>9.4931553248816982</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>3.7389197334407256</c:v>
+                  <c:v>8.2887738614413404</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>3.2276649605822967</c:v>
+                  <c:v>7.2326828039770659</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>2.7846153378310685</c:v>
+                  <c:v>6.3072929785238845</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>2.4009401092851506</c:v>
+                  <c:v>5.4970026075113845</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>2.068909796855142</c:v>
+                  <c:v>4.7879873523093357</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>1.7817654374085221</c:v>
+                  <c:v>4.1680103713348027</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>1.5336023176222153</c:v>
+                  <c:v>3.626250812924479</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>1.3192667613734452</c:v>
+                  <c:v>3.1531492349231627</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>1.1342646423754064</c:v>
+                  <c:v>2.7402685218860903</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>0.97468040751216489</c:v>
+                  <c:v>2.3801689535436084</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -18544,178 +18694,181 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="147"/>
                 <c:pt idx="1">
-                  <c:v>92.987036104986146</c:v>
+                  <c:v>92.99059995058019</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>77.820951273071614</c:v>
+                  <c:v>77.86877013221175</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>248.91572532948237</c:v>
+                  <c:v>249.19671882640904</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>233.82067329267693</c:v>
+                  <c:v>234.87030929064861</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>227.89480016319419</c:v>
+                  <c:v>230.83708022794247</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>537.21299988864826</c:v>
+                  <c:v>543.97453162785177</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>282.74336889485585</c:v>
+                  <c:v>296.17182927232579</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>356.75500907287937</c:v>
+                  <c:v>380.59881035217859</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>402.37058840793861</c:v>
+                  <c:v>441.10846442663069</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>478.16504636561194</c:v>
+                  <c:v>536.70351805972359</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>345.72168948772833</c:v>
+                  <c:v>428.9992985444419</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>635.07935175387684</c:v>
+                  <c:v>747.62731346132205</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>661.03102301841409</c:v>
+                  <c:v>806.54127418637654</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>708.25971508890962</c:v>
+                  <c:v>889.20536034507677</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-405.6818965517632</c:v>
+                  <c:v>-188.33937336029157</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>604.47331439284881</c:v>
+                  <c:v>857.47814012885101</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>590.44708690310927</c:v>
+                  <c:v>876.61621769070916</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>115.08517068803485</c:v>
+                  <c:v>430.20416956545341</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>681.98934711074253</c:v>
+                  <c:v>1020.2767823178838</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>388.14209174727512</c:v>
+                  <c:v>742.48310246763867</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-351.45123442963086</c:v>
+                  <c:v>10.790649693622981</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-429.08372420472733</c:v>
+                  <c:v>-67.797323968356068</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-99.618880152876955</c:v>
+                  <c:v>251.50206747023913</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>689.2941331357797</c:v>
+                  <c:v>1021.0314031346679</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1058.0644268957985</c:v>
+                  <c:v>1361.5148656211932</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1369.0610910115502</c:v>
+                  <c:v>1635.924341764643</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>150.56829156834283</c:v>
+                  <c:v>373.38927940246504</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-801.21262949702214</c:v>
+                  <c:v>-628.85228838445619</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-480.1216438721458</c:v>
+                  <c:v>-363.46568980724987</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>-615.96721125097247</c:v>
+                  <c:v>-558.99966736532224</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>271.56981384528626</c:v>
+                  <c:v>266.15980779580423</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>62.047957304035663</c:v>
+                  <c:v>-7.143820230368874</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>99.385745333172963</c:v>
+                  <c:v>-33.756188353901962</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>-600.01474513532594</c:v>
+                  <c:v>-796.12084151322779</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>-1677.1463133680809</c:v>
+                  <c:v>-1934.1830212805362</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>-1555.2809298039647</c:v>
+                  <c:v>-1870.2923979676125</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>-681.86281603777024</c:v>
+                  <c:v>-1051.1080421103834</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>-629.41233395805466</c:v>
+                  <c:v>-1048.508248719736</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>-527.44191992258129</c:v>
+                  <c:v>-991.50717909605009</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>-107.38462828811316</c:v>
+                  <c:v>-611.17969144291419</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>-384.53529691084987</c:v>
+                  <c:v>-922.59520625582081</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>-881.00391188445792</c:v>
+                  <c:v>-1447.7610023199086</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>-1214.6804215894372</c:v>
+                  <c:v>-1804.5749658545101</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>-188.21001989656361</c:v>
+                  <c:v>-795.78751677653054</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>410.02222772702225</c:v>
+                  <c:v>-209.97220736223971</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>385.89861681396724</c:v>
+                  <c:v>-241.50432310570613</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>1354.5691145862802</c:v>
+                  <c:v>724.45329439564375</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>973.44594074069755</c:v>
+                  <c:v>344.95804528455483</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>249.19354902114719</c:v>
+                  <c:v>-373.71014393129735</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>275.7150549319922</c:v>
+                  <c:v>-338.05119119095616</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>170.13605404994451</c:v>
+                  <c:v>-431.35106006503338</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>1479.7866659697611</c:v>
+                  <c:v>893.30898295924999</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>1368.1825266457163</c:v>
+                  <c:v>799.04076606238959</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>1538.0053411916015</c:v>
+                  <c:v>988.1359044231649</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>1256.0835033942421</c:v>
+                  <c:v>727.0513522082183</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>617.37318962847348</c:v>
+                  <c:v>110.39430344360881</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>1232.9402450800699</c:v>
+                  <c:v>748.90685703954659</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>2006.9431000546319</c:v>
+                  <c:v>1546.4507908618834</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>969.99272425251547</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -19357,6 +19510,9 @@
                 </c:pt>
                 <c:pt idx="58">
                   <c:v>25085</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>25549</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -21333,10 +21489,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Analisi-dead (2)'!$B$8:$B$65</c:f>
+              <c:f>'Analisi-dead (2)'!$B$8:$B$71</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="58"/>
+                <c:ptCount val="64"/>
                 <c:pt idx="0">
                   <c:v>5</c:v>
                 </c:pt>
@@ -21510,16 +21666,34 @@
                 </c:pt>
                 <c:pt idx="57">
                   <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>68</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Analisi-dead (2)'!$D$8:$D$65</c:f>
+              <c:f>'Analisi-dead (2)'!$D$8:$D$71</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="58"/>
+                <c:ptCount val="64"/>
                 <c:pt idx="0">
                   <c:v>3</c:v>
                 </c:pt>
@@ -21693,6 +21867,9 @@
                 </c:pt>
                 <c:pt idx="57">
                   <c:v>437</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>464</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -24631,10 +24808,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>R0!$B$2:$B$61</c:f>
+              <c:f>R0!$B$2:$B$65</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="60"/>
+                <c:ptCount val="64"/>
                 <c:pt idx="1">
                   <c:v>1</c:v>
                 </c:pt>
@@ -24811,16 +24988,28 @@
                 </c:pt>
                 <c:pt idx="59">
                   <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>63</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>R0!$G$2:$G$61</c:f>
+              <c:f>R0!$G$2:$G$65</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="60"/>
+                <c:ptCount val="64"/>
                 <c:pt idx="1">
                   <c:v>28.625</c:v>
                 </c:pt>
@@ -24997,6 +25186,9 @@
                 </c:pt>
                 <c:pt idx="59">
                   <c:v>2.3525267493846385</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>2.2853894736842104</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -25834,36 +26026,6 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="it-IT"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -25873,9 +26035,6 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:v>b</c:v>
-          </c:tx>
           <c:spPr>
             <a:ln w="25400" cap="rnd">
               <a:noFill/>
@@ -25900,10 +26059,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>R0!$B$14:$B$58</c:f>
+              <c:f>R0!$B$14:$B$64</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>12</c:v>
                 </c:pt>
@@ -26038,16 +26197,34 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>62</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>R0!$W$14:$W$58</c:f>
+              <c:f>R0!$W$14:$W$63</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>4.0347293156281917E-2</c:v>
                 </c:pt>
@@ -26182,6 +26359,18 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>2.365666885282245E-2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2.1027929451111912E-2</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>3.0238884401489197E-2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>3.1383764008950869E-2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>3.2728736148547467E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -26528,160 +26717,160 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>R0!$Y$15:$Y$61</c:f>
+              <c:f>R0!$Y$16:$Y$62</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="47"/>
                 <c:pt idx="0">
-                  <c:v>376.40000000000009</c:v>
+                  <c:v>529.75000000000011</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>529.75000000000011</c:v>
+                  <c:v>730.00000000000011</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>730.00000000000011</c:v>
+                  <c:v>707.70000000000016</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>707.70000000000016</c:v>
+                  <c:v>1000.2000000000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1000.2000000000002</c:v>
+                  <c:v>1240.1500000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1240.1500000000001</c:v>
+                  <c:v>1556.9</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1556.9</c:v>
+                  <c:v>1742.4</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1742.4</c:v>
+                  <c:v>2035.5500000000002</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2035.5500000000002</c:v>
+                  <c:v>2426.2000000000003</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2426.2000000000003</c:v>
+                  <c:v>3192.3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3192.3</c:v>
+                  <c:v>3068.8</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3068.8</c:v>
+                  <c:v>3886.3</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3886.3</c:v>
+                  <c:v>4463.3</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4463.3</c:v>
+                  <c:v>4861.3500000000004</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4861.3500000000004</c:v>
+                  <c:v>5590.25</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>5590.25</c:v>
+                  <c:v>7102.15</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>7102.15</c:v>
+                  <c:v>8166.65</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>8166.65</c:v>
+                  <c:v>9323.7000000000007</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>9323.7000000000007</c:v>
+                  <c:v>10763.35</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>10763.35</c:v>
+                  <c:v>12526.050000000001</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>12526.050000000001</c:v>
+                  <c:v>13706.300000000001</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>13706.300000000001</c:v>
+                  <c:v>15998.300000000001</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>15998.300000000001</c:v>
+                  <c:v>17372.7</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>17372.7</c:v>
+                  <c:v>19308.45</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>19308.45</c:v>
+                  <c:v>21492.050000000003</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>21492.050000000003</c:v>
+                  <c:v>23453.500000000004</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>23453.500000000004</c:v>
+                  <c:v>25476.900000000005</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>25476.900000000005</c:v>
+                  <c:v>27971.600000000006</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>27971.600000000006</c:v>
+                  <c:v>31189.900000000005</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>31189.900000000005</c:v>
+                  <c:v>34191.250000000007</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>34191.250000000007</c:v>
+                  <c:v>36735.600000000006</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>36735.600000000006</c:v>
+                  <c:v>38857.700000000004</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>38857.700000000004</c:v>
+                  <c:v>41112.550000000003</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>41112.550000000003</c:v>
+                  <c:v>43471.200000000004</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>43471.200000000004</c:v>
+                  <c:v>45786.650000000009</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>45786.650000000009</c:v>
+                  <c:v>48791.30000000001</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>48791.30000000001</c:v>
+                  <c:v>52182.100000000013</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>52182.100000000013</c:v>
+                  <c:v>55099.650000000016</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>55099.650000000016</c:v>
+                  <c:v>58830.550000000017</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>58830.550000000017</c:v>
+                  <c:v>61563.900000000016</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>61563.900000000016</c:v>
+                  <c:v>63774.000000000015</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>63774.000000000015</c:v>
+                  <c:v>66480.550000000017</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>66480.550000000017</c:v>
+                  <c:v>69332.400000000023</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>69332.400000000023</c:v>
+                  <c:v>72468.250000000029</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>72468.250000000029</c:v>
+                  <c:v>74596.700000000026</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>74596.700000000026</c:v>
+                  <c:v>76601.650000000023</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>76601.650000000023</c:v>
+                  <c:v>78447.050000000017</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>R0!$V$3:$V$49</c:f>
+              <c:f>R0!$V$3:$V$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="1">
                   <c:v>162</c:v>
                 </c:pt>
@@ -26819,6 +27008,12 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>66534</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>68744</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>71063</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -26857,10 +27052,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>R0!$Y$16:$Y$61</c:f>
+              <c:f>R0!$Y$16:$Y$62</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>529.75000000000011</c:v>
                 </c:pt>
@@ -26998,16 +27193,19 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>76601.650000000023</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>78447.050000000017</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>R0!$AI$16:$AI$61</c:f>
+              <c:f>R0!$AI$16:$AI$62</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>-5970.25</c:v>
                 </c:pt>
@@ -27145,6 +27343,9 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>70101.650000000023</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>71947.050000000017</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -27604,157 +27805,163 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>R0!$Y$16:$Y$61</c:f>
+              <c:f>R0!$Y$15:$Y$62</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
+                  <c:v>376.40000000000009</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>529.75000000000011</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>730.00000000000011</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>707.70000000000016</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>1000.2000000000002</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>1240.1500000000001</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>1556.9</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>1742.4</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>2035.5500000000002</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>2426.2000000000003</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>3192.3</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>3068.8</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>3886.3</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>4463.3</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>4861.3500000000004</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>5590.25</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>7102.15</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>8166.65</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>9323.7000000000007</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>10763.35</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
                   <c:v>12526.050000000001</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="21">
                   <c:v>13706.300000000001</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="22">
                   <c:v>15998.300000000001</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="23">
                   <c:v>17372.7</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="24">
                   <c:v>19308.45</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="25">
                   <c:v>21492.050000000003</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="26">
                   <c:v>23453.500000000004</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="27">
                   <c:v>25476.900000000005</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="28">
                   <c:v>27971.600000000006</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="29">
                   <c:v>31189.900000000005</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="30">
                   <c:v>34191.250000000007</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="31">
                   <c:v>36735.600000000006</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="32">
                   <c:v>38857.700000000004</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="33">
                   <c:v>41112.550000000003</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="34">
                   <c:v>43471.200000000004</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="35">
                   <c:v>45786.650000000009</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="36">
                   <c:v>48791.30000000001</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="37">
                   <c:v>52182.100000000013</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="38">
                   <c:v>55099.650000000016</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="39">
                   <c:v>58830.550000000017</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="40">
                   <c:v>61563.900000000016</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="41">
                   <c:v>63774.000000000015</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="42">
                   <c:v>66480.550000000017</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="43">
                   <c:v>69332.400000000023</c:v>
                 </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="44">
                   <c:v>72468.250000000029</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="45">
                   <c:v>74596.700000000026</c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="46">
                   <c:v>76601.650000000023</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>78447.050000000017</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>R0!$V$3:$V$48</c:f>
+              <c:f>R0!$V$3:$V$50</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="1">
                   <c:v>162</c:v>
                 </c:pt>
@@ -27889,6 +28096,12 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>64873</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>66534</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>68744</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -27927,10 +28140,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>R0!$Y$16:$Y$61</c:f>
+              <c:f>R0!$Y$16:$Y$62</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>529.75000000000011</c:v>
                 </c:pt>
@@ -28068,16 +28281,19 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>76601.650000000023</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>78447.050000000017</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>R0!$AI$16:$AI$61</c:f>
+              <c:f>R0!$AI$16:$AI$62</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>-5970.25</c:v>
                 </c:pt>
@@ -28215,6 +28431,9 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>70101.650000000023</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>71947.050000000017</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -28782,6 +29001,9 @@
                 <c:pt idx="58">
                   <c:v>43943</c:v>
                 </c:pt>
+                <c:pt idx="59">
+                  <c:v>43944</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -28967,6 +29189,9 @@
                 </c:pt>
                 <c:pt idx="58">
                   <c:v>2384</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>2267</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -29188,6 +29413,9 @@
                 <c:pt idx="59">
                   <c:v>43943</c:v>
                 </c:pt>
+                <c:pt idx="60">
+                  <c:v>43944</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -29370,6 +29598,9 @@
                 </c:pt>
                 <c:pt idx="59">
                   <c:v>-87</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>-117</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -29816,6 +30047,9 @@
                 <c:pt idx="58">
                   <c:v>43943</c:v>
                 </c:pt>
+                <c:pt idx="59">
+                  <c:v>43944</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -30001,6 +30235,9 @@
                 </c:pt>
                 <c:pt idx="58">
                   <c:v>54543</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>57576</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -30222,6 +30459,9 @@
                 <c:pt idx="58">
                   <c:v>43943</c:v>
                 </c:pt>
+                <c:pt idx="59">
+                  <c:v>43944</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -30404,6 +30644,9 @@
                 </c:pt>
                 <c:pt idx="58">
                   <c:v>2943</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>3033</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -30860,6 +31103,9 @@
                 <c:pt idx="58">
                   <c:v>43943</c:v>
                 </c:pt>
+                <c:pt idx="59">
+                  <c:v>43944</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -31042,6 +31288,9 @@
                 </c:pt>
                 <c:pt idx="58">
                   <c:v>2943</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>3033</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -31263,6 +31512,9 @@
                 <c:pt idx="58">
                   <c:v>43943</c:v>
                 </c:pt>
+                <c:pt idx="59">
+                  <c:v>43944</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -31442,6 +31694,9 @@
                 </c:pt>
                 <c:pt idx="58">
                   <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>90</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -31897,6 +32152,9 @@
                 <c:pt idx="58">
                   <c:v>43943</c:v>
                 </c:pt>
+                <c:pt idx="59">
+                  <c:v>43944</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -32079,6 +32337,9 @@
                 </c:pt>
                 <c:pt idx="58">
                   <c:v>437</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>464</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -32300,6 +32561,9 @@
                 <c:pt idx="58">
                   <c:v>43943</c:v>
                 </c:pt>
+                <c:pt idx="59">
+                  <c:v>43944</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -32479,6 +32743,9 @@
                 </c:pt>
                 <c:pt idx="58">
                   <c:v>-97</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>27</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -32934,6 +33201,9 @@
                 <c:pt idx="58">
                   <c:v>43943</c:v>
                 </c:pt>
+                <c:pt idx="59">
+                  <c:v>43944</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -33119,6 +33389,9 @@
                 </c:pt>
                 <c:pt idx="58">
                   <c:v>25085</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>25549</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -33340,6 +33613,9 @@
                 <c:pt idx="58">
                   <c:v>43943</c:v>
                 </c:pt>
+                <c:pt idx="59">
+                  <c:v>43944</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -33522,6 +33798,9 @@
                 </c:pt>
                 <c:pt idx="58">
                   <c:v>437</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>464</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -33968,6 +34247,9 @@
                 <c:pt idx="58">
                   <c:v>43943</c:v>
                 </c:pt>
+                <c:pt idx="59">
+                  <c:v>43944</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -34153,6 +34435,9 @@
                 </c:pt>
                 <c:pt idx="58">
                   <c:v>26189</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>25138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -34374,6 +34659,9 @@
                 <c:pt idx="58">
                   <c:v>43943</c:v>
                 </c:pt>
+                <c:pt idx="59">
+                  <c:v>43944</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -34556,6 +34844,9 @@
                 </c:pt>
                 <c:pt idx="58">
                   <c:v>-416</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>-1051</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -42760,15 +43051,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>346710</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>156210</xdr:rowOff>
+      <xdr:colOff>377190</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>102870</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
-      <xdr:colOff>224790</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:colOff>255270</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>41910</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -44140,10 +44431,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N62"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="C62" sqref="C62"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="C63" sqref="C63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -46530,6 +46821,58 @@
       <c r="B62" s="3" t="s">
         <v>12</v>
       </c>
+      <c r="C62" s="23">
+        <v>22871</v>
+      </c>
+      <c r="D62" s="23">
+        <v>2267</v>
+      </c>
+      <c r="E62" s="23">
+        <v>25138</v>
+      </c>
+      <c r="F62" s="23">
+        <v>81710</v>
+      </c>
+      <c r="G62" s="23">
+        <v>106848</v>
+      </c>
+      <c r="H62" s="23">
+        <v>-851</v>
+      </c>
+      <c r="I62" s="23">
+        <v>2646</v>
+      </c>
+      <c r="J62" s="23">
+        <v>57576</v>
+      </c>
+      <c r="K62" s="23">
+        <v>25549</v>
+      </c>
+      <c r="L62" s="23">
+        <v>189973</v>
+      </c>
+      <c r="M62" s="23">
+        <v>1579909</v>
+      </c>
+      <c r="N62" s="23">
+        <v>1052577</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14">
+      <c r="A63" s="2">
+        <v>43945</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14">
+      <c r="A64" s="2">
+        <v>43946</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>12</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0.39370078740157505" bottom="0.39370078740157505" header="0" footer="0"/>
@@ -46543,10 +46886,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:N61"/>
+  <dimension ref="A1:N62"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+    <sheetView topLeftCell="K19" workbookViewId="0">
+      <selection activeCell="C67" sqref="C67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -48933,6 +49276,46 @@
         <v>5.340644363797721</v>
       </c>
     </row>
+    <row r="62" spans="1:11">
+      <c r="A62" s="2">
+        <v>43944</v>
+      </c>
+      <c r="B62" s="10">
+        <v>60</v>
+      </c>
+      <c r="C62" s="3">
+        <f>Dati!M62</f>
+        <v>1579909</v>
+      </c>
+      <c r="D62">
+        <f t="shared" ref="D62" si="104">C62-C61</f>
+        <v>66658</v>
+      </c>
+      <c r="E62">
+        <f t="shared" ref="E62" si="105">D62-D61</f>
+        <v>3557</v>
+      </c>
+      <c r="G62" s="5">
+        <f>C62/Casi_totali!B62</f>
+        <v>8.3164923436488341</v>
+      </c>
+      <c r="H62" s="5">
+        <f>C62/Positivi!B62</f>
+        <v>14.786509808325846</v>
+      </c>
+      <c r="I62" s="6">
+        <f t="shared" ref="I62" si="106">100/G62</f>
+        <v>12.02430013374188</v>
+      </c>
+      <c r="J62" s="6">
+        <f t="shared" ref="J62" si="107">100/H62</f>
+        <v>6.7629211555855431</v>
+      </c>
+      <c r="K62" s="5">
+        <f>'Nuovi positivi'!C62/D62*100</f>
+        <v>3.9695160370848215</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.70000000000000007" right="0.70000000000000007" top="0.75" bottom="0.75" header="0.30000000000000004" footer="0.30000000000000004"/>
   <pageSetup paperSize="0" fitToWidth="0" fitToHeight="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -48944,7 +49327,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91299A75-77C0-430E-A60A-71BA0B839D65}">
   <dimension ref="A1:L149"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="G1" workbookViewId="0">
       <selection activeCell="L4" sqref="L4:L6"/>
     </sheetView>
   </sheetViews>
@@ -49030,30 +49413,30 @@
       </c>
       <c r="E4" s="11">
         <f>E3+G4</f>
-        <v>1.2963895013854003E-2</v>
+        <v>9.4000494198171313E-3</v>
       </c>
       <c r="F4" s="11">
         <f t="shared" ref="F4:F67" si="0">(E4-E3)*10</f>
-        <v>0.12963895013854002</v>
+        <v>9.4000494198171317E-2</v>
       </c>
       <c r="G4" s="11">
         <f t="shared" ref="G4:G35" si="1">$L$4*B4^$L$5*EXP(-B4/$L$6)</f>
-        <v>1.2963895013854003E-2</v>
+        <v>9.4000494198171313E-3</v>
       </c>
       <c r="H4" s="11">
         <f t="shared" ref="H4:H52" si="2">C4-E4</f>
-        <v>321.98703610498615</v>
+        <v>321.99059995058019</v>
       </c>
       <c r="I4" s="11">
         <f>H4-H3</f>
-        <v>92.987036104986146</v>
+        <v>92.99059995058019</v>
       </c>
       <c r="K4" s="4" t="s">
         <v>23</v>
       </c>
       <c r="L4" s="17">
-        <f>0.000155</f>
-        <v>1.55E-4</v>
+        <f>0.00011</f>
+        <v>1.1E-4</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -49073,23 +49456,23 @@
       </c>
       <c r="E5" s="11">
         <f t="shared" ref="E5:E68" si="4">E4+G5</f>
-        <v>0.19201262194226418</v>
+        <v>0.1406299172080531</v>
       </c>
       <c r="F5" s="11">
         <f t="shared" si="0"/>
-        <v>1.7904872692841018</v>
+        <v>1.3122986778823598</v>
       </c>
       <c r="G5" s="11">
         <f t="shared" si="1"/>
-        <v>0.17904872692841017</v>
+        <v>0.13122986778823598</v>
       </c>
       <c r="H5" s="11">
         <f t="shared" si="2"/>
-        <v>399.80798737805776</v>
+        <v>399.85937008279194</v>
       </c>
       <c r="I5" s="11">
         <f t="shared" ref="I5:I52" si="5">H5-H4</f>
-        <v>77.820951273071614</v>
+        <v>77.86877013221175</v>
       </c>
       <c r="K5" s="4" t="s">
         <v>39</v>
@@ -49115,29 +49498,29 @@
       </c>
       <c r="E6" s="11">
         <f t="shared" si="4"/>
-        <v>1.2762872924598685</v>
+        <v>0.94391109079900204</v>
       </c>
       <c r="F6" s="11">
         <f t="shared" si="0"/>
-        <v>10.842746705176044</v>
+        <v>8.0328117359094904</v>
       </c>
       <c r="G6" s="11">
         <f t="shared" si="1"/>
-        <v>1.0842746705176043</v>
+        <v>0.80328117359094897</v>
       </c>
       <c r="H6" s="11">
         <f t="shared" si="2"/>
-        <v>648.72371270754013</v>
+        <v>649.05608890920098</v>
       </c>
       <c r="I6" s="11">
         <f t="shared" si="5"/>
-        <v>248.91572532948237</v>
+        <v>249.19671882640904</v>
       </c>
       <c r="K6" s="4" t="s">
         <v>40</v>
       </c>
       <c r="L6" s="9">
-        <v>4.7</v>
+        <v>4.95</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -49157,23 +49540,23 @@
       </c>
       <c r="E7" s="11">
         <f t="shared" si="4"/>
-        <v>5.4556139997829396</v>
+        <v>4.0736018001503798</v>
       </c>
       <c r="F7" s="11">
         <f t="shared" si="0"/>
-        <v>41.793267073230709</v>
+        <v>31.296907093513777</v>
       </c>
       <c r="G7" s="11">
         <f t="shared" si="1"/>
-        <v>4.1793267073230709</v>
+        <v>3.1296907093513782</v>
       </c>
       <c r="H7" s="11">
         <f t="shared" si="2"/>
-        <v>882.54438600021706</v>
+        <v>883.92639819984959</v>
       </c>
       <c r="I7" s="11">
         <f t="shared" si="5"/>
-        <v>233.82067329267693</v>
+        <v>234.87030929064861</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -49193,23 +49576,23 @@
       </c>
       <c r="E8" s="11">
         <f t="shared" si="4"/>
-        <v>17.560813836588704</v>
+        <v>13.236521572207954</v>
       </c>
       <c r="F8" s="11">
         <f t="shared" si="0"/>
-        <v>121.05199836805764</v>
+        <v>91.629197720575746</v>
       </c>
       <c r="G8" s="11">
         <f t="shared" si="1"/>
-        <v>12.105199836805765</v>
+        <v>9.1629197720575739</v>
       </c>
       <c r="H8" s="11">
         <f t="shared" si="2"/>
-        <v>1110.4391861634113</v>
+        <v>1114.7634784277921</v>
       </c>
       <c r="I8" s="11">
         <f t="shared" si="5"/>
-        <v>227.89480016319419</v>
+        <v>230.83708022794247</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -49229,30 +49612,30 @@
       </c>
       <c r="E9" s="11">
         <f t="shared" si="4"/>
-        <v>46.347813947940466</v>
+        <v>35.261989944356166</v>
       </c>
       <c r="F9" s="11">
         <f t="shared" si="0"/>
-        <v>287.87000111351762</v>
+        <v>220.25468372148211</v>
       </c>
       <c r="G9" s="11">
         <f t="shared" si="1"/>
-        <v>28.787000111351766</v>
+        <v>22.025468372148215</v>
       </c>
       <c r="H9" s="11">
         <f t="shared" si="2"/>
-        <v>1647.6521860520595</v>
+        <v>1658.7380100556438</v>
       </c>
       <c r="I9" s="11">
         <f t="shared" si="5"/>
-        <v>537.21299988864826</v>
+        <v>543.97453162785177</v>
       </c>
       <c r="K9" s="12" t="s">
         <v>30</v>
       </c>
       <c r="L9" s="11">
         <f>AVERAGE(H3:H36)</f>
-        <v>5230.3525007581975</v>
+        <v>7217.7480887650463</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -49272,30 +49655,30 @@
       </c>
       <c r="E10" s="11">
         <f t="shared" si="4"/>
-        <v>105.60444505308459</v>
+        <v>81.090160672030322</v>
       </c>
       <c r="F10" s="11">
         <f t="shared" si="0"/>
-        <v>592.56631105144129</v>
+        <v>458.28170727674154</v>
       </c>
       <c r="G10" s="11">
         <f t="shared" si="1"/>
-        <v>59.25663110514413</v>
+        <v>45.828170727674156</v>
       </c>
       <c r="H10" s="11">
         <f t="shared" si="2"/>
-        <v>1930.3955549469154</v>
+        <v>1954.9098393279696</v>
       </c>
       <c r="I10" s="11">
         <f t="shared" si="5"/>
-        <v>282.74336889485585</v>
+        <v>296.17182927232579</v>
       </c>
       <c r="K10" s="12" t="s">
         <v>31</v>
       </c>
       <c r="L10" s="6">
         <f>STDEVP(H3:H36)</f>
-        <v>3041.0331934987721</v>
+        <v>4883.9678158875859</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -49315,23 +49698,23 @@
       </c>
       <c r="E11" s="11">
         <f t="shared" si="4"/>
-        <v>214.84943598020507</v>
+        <v>166.49135031985196</v>
       </c>
       <c r="F11" s="11">
         <f t="shared" si="0"/>
-        <v>1092.4499092712049</v>
+        <v>854.01189647821639</v>
       </c>
       <c r="G11" s="11">
         <f t="shared" si="1"/>
-        <v>109.24499092712048</v>
+        <v>85.401189647821653</v>
       </c>
       <c r="H11" s="11">
         <f t="shared" si="2"/>
-        <v>2287.1505640197947</v>
+        <v>2335.5086496801482</v>
       </c>
       <c r="I11" s="11">
         <f t="shared" si="5"/>
-        <v>356.75500907287937</v>
+        <v>380.59881035217859</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -49351,30 +49734,30 @@
       </c>
       <c r="E12" s="11">
         <f t="shared" si="4"/>
-        <v>399.47884757226655</v>
+        <v>312.38288589322133</v>
       </c>
       <c r="F12" s="11">
         <f t="shared" si="0"/>
-        <v>1846.2941159206148</v>
+        <v>1458.9153557336936</v>
       </c>
       <c r="G12" s="11">
         <f t="shared" si="1"/>
-        <v>184.6294115920615</v>
+        <v>145.89153557336934</v>
       </c>
       <c r="H12" s="11">
         <f t="shared" si="2"/>
-        <v>2689.5211524277333</v>
+        <v>2776.6171141067789</v>
       </c>
       <c r="I12" s="11">
         <f t="shared" si="5"/>
-        <v>402.37058840793861</v>
+        <v>441.10846442663069</v>
       </c>
       <c r="K12" s="12" t="s">
         <v>41</v>
       </c>
       <c r="L12" s="11">
         <f>AVERAGE(I4:I39)</f>
-        <v>120.92575666143723</v>
+        <v>232.08650259793245</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -49394,30 +49777,30 @@
       </c>
       <c r="E13" s="11">
         <f t="shared" si="4"/>
-        <v>690.31380120665494</v>
+        <v>544.67936783349751</v>
       </c>
       <c r="F13" s="11">
         <f t="shared" si="0"/>
-        <v>2908.3495363438842</v>
+        <v>2322.9648194027618</v>
       </c>
       <c r="G13" s="11">
         <f t="shared" si="1"/>
-        <v>290.8349536343884</v>
+        <v>232.29648194027612</v>
       </c>
       <c r="H13" s="11">
         <f t="shared" si="2"/>
-        <v>3167.6861987933453</v>
+        <v>3313.3206321665025</v>
       </c>
       <c r="I13" s="11">
         <f t="shared" si="5"/>
-        <v>478.16504636561194</v>
+        <v>536.70351805972359</v>
       </c>
       <c r="K13" s="12" t="s">
         <v>31</v>
       </c>
       <c r="L13" s="6">
         <f>STDEVP(I4:I39)</f>
-        <v>629.20835702597503</v>
+        <v>732.62772856618017</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -49437,23 +49820,23 @@
       </c>
       <c r="E14" s="11">
         <f t="shared" si="4"/>
-        <v>1122.5921117189264</v>
+        <v>893.68006928905561</v>
       </c>
       <c r="F14" s="11">
         <f t="shared" si="0"/>
-        <v>4322.7831051227149</v>
+        <v>3490.007014555581</v>
       </c>
       <c r="G14" s="11">
         <f t="shared" si="1"/>
-        <v>432.27831051227133</v>
+        <v>349.0007014555581</v>
       </c>
       <c r="H14" s="11">
         <f t="shared" si="2"/>
-        <v>3513.4078882810736</v>
+        <v>3742.3199307109444</v>
       </c>
       <c r="I14" s="11">
         <f t="shared" si="5"/>
-        <v>345.72168948772833</v>
+        <v>428.9992985444419</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -49473,30 +49856,30 @@
       </c>
       <c r="E15" s="11">
         <f t="shared" si="4"/>
-        <v>1734.5127599650491</v>
+        <v>1393.052755827734</v>
       </c>
       <c r="F15" s="11">
         <f t="shared" si="0"/>
-        <v>6119.2064824612271</v>
+        <v>4993.7268653867841</v>
       </c>
       <c r="G15" s="11">
         <f t="shared" si="1"/>
-        <v>611.92064824612282</v>
+        <v>499.37268653867847</v>
       </c>
       <c r="H15" s="11">
         <f t="shared" si="2"/>
-        <v>4148.4872400349504</v>
+        <v>4489.9472441722664</v>
       </c>
       <c r="I15" s="11">
         <f t="shared" si="5"/>
-        <v>635.07935175387684</v>
+        <v>747.62731346132205</v>
       </c>
       <c r="K15" t="s">
         <v>32</v>
       </c>
       <c r="L15" s="14">
         <f>MATCH(MAX(G3:G67),G3:G67,0)</f>
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -49516,23 +49899,23 @@
       </c>
       <c r="E16" s="11">
         <f t="shared" si="4"/>
-        <v>2565.4817369466355</v>
+        <v>2078.5114816413575</v>
       </c>
       <c r="F16" s="11">
         <f t="shared" si="0"/>
-        <v>8309.6897698158646</v>
+        <v>6854.5872581362346</v>
       </c>
       <c r="G16" s="11">
         <f t="shared" si="1"/>
-        <v>830.96897698158637</v>
+        <v>685.45872581362335</v>
       </c>
       <c r="H16" s="11">
         <f t="shared" si="2"/>
-        <v>4809.5182630533645</v>
+        <v>5296.488518358643</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" si="5"/>
-        <v>661.03102301841409</v>
+        <v>806.54127418637654</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -49552,23 +49935,23 @@
       </c>
       <c r="E17" s="11">
         <f t="shared" si="4"/>
-        <v>3654.2220218577254</v>
+        <v>2986.3061212962807</v>
       </c>
       <c r="F17" s="11">
         <f t="shared" si="0"/>
-        <v>10887.402849110898</v>
+        <v>9077.9463965492323</v>
       </c>
       <c r="G17" s="11">
         <f t="shared" si="1"/>
-        <v>1088.7402849110899</v>
+        <v>907.79463965492334</v>
       </c>
       <c r="H17" s="11">
         <f t="shared" si="2"/>
-        <v>5517.7779781422742</v>
+        <v>6185.6938787037197</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" si="5"/>
-        <v>708.25971508890962</v>
+        <v>889.20536034507677</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -49588,30 +49971,30 @@
       </c>
       <c r="E18" s="11">
         <f t="shared" si="4"/>
-        <v>5036.9039184094891</v>
+        <v>4151.6454946565718</v>
       </c>
       <c r="F18" s="11">
         <f t="shared" si="0"/>
-        <v>13826.818965517636</v>
+        <v>11653.393733602912</v>
       </c>
       <c r="G18" s="11">
         <f t="shared" si="1"/>
-        <v>1382.6818965517634</v>
+        <v>1165.3393733602907</v>
       </c>
       <c r="H18" s="11">
         <f t="shared" si="2"/>
-        <v>5112.0960815905109</v>
+        <v>5997.3545053434282</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" si="5"/>
-        <v>-405.6818965517632</v>
+        <v>-188.33937336029157</v>
       </c>
       <c r="K18" t="s">
         <v>42</v>
       </c>
       <c r="L18" s="11">
         <f>MAX(E3:E117)</f>
-        <v>186007.95551326958</v>
+        <v>199816.57526871073</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -49631,23 +50014,23 @@
       </c>
       <c r="E19" s="11">
         <f t="shared" si="4"/>
-        <v>6745.4306040166402</v>
+        <v>5607.1673545277208</v>
       </c>
       <c r="F19" s="11">
         <f t="shared" si="0"/>
-        <v>17085.26685607151</v>
+        <v>14555.21859871149</v>
       </c>
       <c r="G19" s="11">
         <f t="shared" si="1"/>
-        <v>1708.5266856071514</v>
+        <v>1455.5218598711485</v>
       </c>
       <c r="H19" s="11">
         <f t="shared" si="2"/>
-        <v>5716.5693959833598</v>
+        <v>6854.8326454722792</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" si="5"/>
-        <v>604.47331439284881</v>
+        <v>857.47814012885101</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -49667,23 +50050,23 @@
       </c>
       <c r="E20" s="11">
         <f t="shared" si="4"/>
-        <v>8805.983517113531</v>
+        <v>7381.5511368370117</v>
       </c>
       <c r="F20" s="11">
         <f t="shared" si="0"/>
-        <v>20605.529130968906</v>
+        <v>17743.837823092908</v>
       </c>
       <c r="G20" s="11">
         <f t="shared" si="1"/>
-        <v>2060.5529130968916</v>
+        <v>1774.3837823092908</v>
       </c>
       <c r="H20" s="11">
         <f t="shared" si="2"/>
-        <v>6307.016482886469</v>
+        <v>7731.4488631629883</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" si="5"/>
-        <v>590.44708690310927</v>
+        <v>876.61621769070916</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -49703,23 +50086,23 @@
       </c>
       <c r="E21" s="11">
         <f t="shared" si="4"/>
-        <v>11237.898346425496</v>
+        <v>9498.3469672715582</v>
       </c>
       <c r="F21" s="11">
         <f t="shared" si="0"/>
-        <v>24319.148293119651</v>
+        <v>21167.958304345466</v>
       </c>
       <c r="G21" s="11">
         <f t="shared" si="1"/>
-        <v>2431.9148293119647</v>
+        <v>2116.7958304345457</v>
       </c>
       <c r="H21" s="11">
         <f t="shared" si="2"/>
-        <v>6422.1016535745039</v>
+        <v>8161.6530327284418</v>
       </c>
       <c r="I21" s="11">
         <f t="shared" si="5"/>
-        <v>115.08517068803485</v>
+        <v>430.20416956545341</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -49739,23 +50122,23 @@
       </c>
       <c r="E22" s="11">
         <f t="shared" si="4"/>
-        <v>14052.908999314754</v>
+        <v>11975.070184953674</v>
       </c>
       <c r="F22" s="11">
         <f t="shared" si="0"/>
-        <v>28150.106528892575</v>
+        <v>24767.232176821162</v>
       </c>
       <c r="G22" s="11">
         <f t="shared" si="1"/>
-        <v>2815.010652889257</v>
+        <v>2476.7232176821162</v>
       </c>
       <c r="H22" s="11">
         <f t="shared" si="2"/>
-        <v>7104.0910006852464</v>
+        <v>9181.9298150463255</v>
       </c>
       <c r="I22" s="11">
         <f t="shared" si="5"/>
-        <v>681.98934711074253</v>
+        <v>1020.2767823178838</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -49775,23 +50158,23 @@
       </c>
       <c r="E23" s="11">
         <f t="shared" si="4"/>
-        <v>17254.766907567478</v>
+        <v>14822.587082486036</v>
       </c>
       <c r="F23" s="11">
         <f t="shared" si="0"/>
-        <v>32018.579082527249</v>
+        <v>28475.168975323613</v>
       </c>
       <c r="G23" s="11">
         <f t="shared" si="1"/>
-        <v>3201.8579082527235</v>
+        <v>2847.5168975323622</v>
       </c>
       <c r="H23" s="11">
         <f t="shared" si="2"/>
-        <v>7492.2330924325215</v>
+        <v>9924.4129175139642</v>
       </c>
       <c r="I23" s="11">
         <f t="shared" si="5"/>
-        <v>388.14209174727512</v>
+        <v>742.48310246763867</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -49811,23 +50194,23 @@
       </c>
       <c r="E24" s="11">
         <f t="shared" si="4"/>
-        <v>20839.218141997109</v>
+        <v>18044.796432792413</v>
       </c>
       <c r="F24" s="11">
         <f t="shared" si="0"/>
-        <v>35844.512344296309</v>
+        <v>32222.09350306377</v>
       </c>
       <c r="G24" s="11">
         <f t="shared" si="1"/>
-        <v>3584.4512344296322</v>
+        <v>3222.2093503063752</v>
       </c>
       <c r="H24" s="11">
         <f t="shared" si="2"/>
-        <v>7140.7818580028907</v>
+        <v>9935.2035672075872</v>
       </c>
       <c r="I24" s="11">
         <f t="shared" si="5"/>
-        <v>-351.45123442963086</v>
+        <v>10.790649693622981</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -49847,23 +50230,23 @@
       </c>
       <c r="E25" s="11">
         <f t="shared" si="4"/>
-        <v>24794.301866201837</v>
+        <v>21638.593756760769</v>
       </c>
       <c r="F25" s="11">
         <f t="shared" si="0"/>
-        <v>39550.837242047273</v>
+        <v>35937.973239683561</v>
       </c>
       <c r="G25" s="11">
         <f t="shared" si="1"/>
-        <v>3955.0837242047273</v>
+        <v>3593.7973239683561</v>
       </c>
       <c r="H25" s="11">
         <f t="shared" si="2"/>
-        <v>6711.6981337981633</v>
+        <v>9867.4062432392311</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" si="5"/>
-        <v>-429.08372420472733</v>
+        <v>-67.797323968356068</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -49883,23 +50266,23 @@
       </c>
       <c r="E26" s="11">
         <f t="shared" si="4"/>
-        <v>29100.920746354714</v>
+        <v>25594.09168929053</v>
       </c>
       <c r="F26" s="11">
         <f t="shared" si="0"/>
-        <v>43066.18880152877</v>
+        <v>39554.979325297609</v>
       </c>
       <c r="G26" s="11">
         <f t="shared" si="1"/>
-        <v>4306.618880152876</v>
+        <v>3955.4979325297604</v>
       </c>
       <c r="H26" s="11">
         <f t="shared" si="2"/>
-        <v>6612.0792536452864</v>
+        <v>10118.90831070947</v>
       </c>
       <c r="I26" s="11">
         <f t="shared" si="5"/>
-        <v>-99.618880152876955</v>
+        <v>251.50206747023913</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -49919,23 +50302,23 @@
       </c>
       <c r="E27" s="11">
         <f t="shared" si="4"/>
-        <v>33733.626613218934</v>
+        <v>29895.060286155862</v>
       </c>
       <c r="F27" s="11">
         <f t="shared" si="0"/>
-        <v>46327.058668642203</v>
+        <v>43009.685968653321</v>
       </c>
       <c r="G27" s="11">
         <f t="shared" si="1"/>
-        <v>4632.7058668642212</v>
+        <v>4300.9685968653321</v>
       </c>
       <c r="H27" s="11">
         <f t="shared" si="2"/>
-        <v>7301.3733867810661</v>
+        <v>11139.939713844138</v>
       </c>
       <c r="I27" s="11">
         <f t="shared" si="5"/>
-        <v>689.2941331357797</v>
+        <v>1021.0314031346679</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -49955,23 +50338,23 @@
       </c>
       <c r="E28" s="11">
         <f t="shared" si="4"/>
-        <v>38661.562186323135</v>
+        <v>34519.545420534669</v>
       </c>
       <c r="F28" s="11">
         <f t="shared" si="0"/>
-        <v>49279.355731042015</v>
+        <v>46244.851343788068</v>
       </c>
       <c r="G28" s="11">
         <f t="shared" si="1"/>
-        <v>4927.9355731042042</v>
+        <v>4624.4851343788041</v>
       </c>
       <c r="H28" s="11">
         <f t="shared" si="2"/>
-        <v>8359.4378136768646</v>
+        <v>12501.454579465331</v>
       </c>
       <c r="I28" s="11">
         <f t="shared" si="5"/>
-        <v>1058.0644268957985</v>
+        <v>1361.5148656211932</v>
       </c>
     </row>
     <row r="29" spans="1:12">
@@ -49991,23 +50374,23 @@
       </c>
       <c r="E29" s="11">
         <f t="shared" si="4"/>
-        <v>43849.501095311585</v>
+        <v>39440.621078770026</v>
       </c>
       <c r="F29" s="11">
         <f t="shared" si="0"/>
-        <v>51879.389089884498</v>
+        <v>49210.75658235357</v>
       </c>
       <c r="G29" s="11">
         <f t="shared" si="1"/>
-        <v>5187.9389089884498</v>
+        <v>4921.0756582353533</v>
       </c>
       <c r="H29" s="11">
         <f t="shared" si="2"/>
-        <v>9728.4989046884148</v>
+        <v>14137.378921229974</v>
       </c>
       <c r="I29" s="11">
         <f t="shared" si="5"/>
-        <v>1369.0610910115502</v>
+        <v>1635.924341764643</v>
       </c>
     </row>
     <row r="30" spans="1:12">
@@ -50027,23 +50410,23 @@
       </c>
       <c r="E30" s="11">
         <f t="shared" si="4"/>
-        <v>49258.932803743242</v>
+        <v>44627.231799367561</v>
       </c>
       <c r="F30" s="11">
         <f t="shared" si="0"/>
-        <v>54094.317084316572</v>
+        <v>51866.10720597535</v>
       </c>
       <c r="G30" s="11">
         <f t="shared" si="1"/>
-        <v>5409.4317084316563</v>
+        <v>5186.6107205975341</v>
       </c>
       <c r="H30" s="11">
         <f t="shared" si="2"/>
-        <v>9879.0671962567576</v>
+        <v>14510.768200632439</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" si="5"/>
-        <v>150.56829156834283</v>
+        <v>373.38927940246504</v>
       </c>
     </row>
     <row r="31" spans="1:12">
@@ -50063,23 +50446,23 @@
       </c>
       <c r="E31" s="11">
         <f t="shared" si="4"/>
-        <v>54849.145433240265</v>
+        <v>50045.084087752017</v>
       </c>
       <c r="F31" s="11">
         <f t="shared" si="0"/>
-        <v>55902.126294970221</v>
+        <v>54178.522883844562</v>
       </c>
       <c r="G31" s="11">
         <f t="shared" si="1"/>
-        <v>5590.212629497023</v>
+        <v>5417.8522883844571</v>
       </c>
       <c r="H31" s="11">
         <f t="shared" si="2"/>
-        <v>9077.8545667597355</v>
+        <v>13881.915912247983</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" si="5"/>
-        <v>-801.21262949702214</v>
+        <v>-628.85228838445619</v>
       </c>
     </row>
     <row r="32" spans="1:12">
@@ -50099,23 +50482,23 @@
       </c>
       <c r="E32" s="11">
         <f t="shared" si="4"/>
-        <v>60578.26707711241</v>
+        <v>55657.549777559267</v>
       </c>
       <c r="F32" s="11">
         <f t="shared" si="0"/>
-        <v>57291.216438721458</v>
+        <v>56124.656898072499</v>
       </c>
       <c r="G32" s="11">
         <f t="shared" si="1"/>
-        <v>5729.1216438721485</v>
+        <v>5612.4656898072481</v>
       </c>
       <c r="H32" s="11">
         <f t="shared" si="2"/>
-        <v>8597.7329228875897</v>
+        <v>13518.450222440733</v>
       </c>
       <c r="I32" s="11">
         <f t="shared" si="5"/>
-        <v>-480.1216438721458</v>
+        <v>-363.46568980724987</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -50135,23 +50518,23 @@
       </c>
       <c r="E33" s="11">
         <f t="shared" si="4"/>
-        <v>66404.234288363383</v>
+        <v>61426.549444924589</v>
       </c>
       <c r="F33" s="11">
         <f t="shared" si="0"/>
-        <v>58259.672112509725</v>
+        <v>57689.996673653222</v>
       </c>
       <c r="G33" s="11">
         <f t="shared" si="1"/>
-        <v>5825.9672112509697</v>
+        <v>5768.9996673653204</v>
       </c>
       <c r="H33" s="11">
         <f t="shared" si="2"/>
-        <v>7981.7657116366172</v>
+        <v>12959.450555075411</v>
       </c>
       <c r="I33" s="11">
         <f t="shared" si="5"/>
-        <v>-615.96721125097247</v>
+        <v>-558.99966736532224</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -50171,23 +50554,23 @@
       </c>
       <c r="E34" s="11">
         <f t="shared" si="4"/>
-        <v>72285.664474518097</v>
+        <v>67313.389637128785</v>
       </c>
       <c r="F34" s="11">
         <f t="shared" si="0"/>
-        <v>58814.301861547137</v>
+        <v>58868.401922041958</v>
       </c>
       <c r="G34" s="11">
         <f t="shared" si="1"/>
-        <v>5881.4301861547101</v>
+        <v>5886.840192204193</v>
       </c>
       <c r="H34" s="11">
         <f t="shared" si="2"/>
-        <v>8253.3355254819035</v>
+        <v>13225.610362871215</v>
       </c>
       <c r="I34" s="11">
         <f t="shared" si="5"/>
-        <v>271.56981384528626</v>
+        <v>266.15980779580423</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -50207,23 +50590,23 @@
       </c>
       <c r="E35" s="11">
         <f t="shared" si="4"/>
-        <v>78182.616517214061</v>
+        <v>73279.533457359154</v>
       </c>
       <c r="F35" s="11">
         <f t="shared" si="0"/>
-        <v>58969.520426959643</v>
+        <v>59661.438202303689</v>
       </c>
       <c r="G35" s="11">
         <f t="shared" si="1"/>
-        <v>5896.9520426959634</v>
+        <v>5966.1438202303734</v>
       </c>
       <c r="H35" s="11">
         <f t="shared" si="2"/>
-        <v>8315.3834827859391</v>
+        <v>13218.466542640846</v>
       </c>
       <c r="I35" s="11">
         <f t="shared" si="5"/>
-        <v>62.047957304035663</v>
+        <v>-7.143820230368874</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -50243,23 +50626,23 @@
       </c>
       <c r="E36" s="11">
         <f t="shared" si="4"/>
-        <v>84057.230771880888</v>
+        <v>79287.289645713056</v>
       </c>
       <c r="F36" s="11">
         <f t="shared" si="0"/>
-        <v>58746.14254666827</v>
+        <v>60077.56188353902</v>
       </c>
       <c r="G36" s="11">
         <f t="shared" ref="G36:G67" si="6">$L$4*B36^$L$5*EXP(-B36/$L$6)</f>
-        <v>5874.6142546668298</v>
+        <v>6007.7561883538947</v>
       </c>
       <c r="H36" s="11">
         <f t="shared" si="2"/>
-        <v>8414.7692281191121</v>
+        <v>13184.710354286944</v>
       </c>
       <c r="I36" s="11">
         <f t="shared" si="5"/>
-        <v>99.385745333172963</v>
+        <v>-33.756188353901962</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -50279,23 +50662,23 @@
       </c>
       <c r="E37" s="11">
         <f t="shared" si="4"/>
-        <v>89874.245517016214</v>
+        <v>85300.410487226283</v>
       </c>
       <c r="F37" s="11">
         <f t="shared" si="0"/>
-        <v>58170.147451353259</v>
+        <v>60131.208415132278</v>
       </c>
       <c r="G37" s="11">
         <f t="shared" si="6"/>
-        <v>5817.0147451353223</v>
+        <v>6013.1208415132332</v>
       </c>
       <c r="H37" s="11">
         <f t="shared" si="2"/>
-        <v>7814.7544829837861</v>
+        <v>12388.589512773717</v>
       </c>
       <c r="I37" s="11">
         <f t="shared" si="5"/>
-        <v>-600.01474513532594</v>
+        <v>-796.12084151322779</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -50315,23 +50698,23 @@
       </c>
       <c r="E38" s="11">
         <f t="shared" si="4"/>
-        <v>95601.391830384295</v>
+        <v>91284.593508506819</v>
       </c>
       <c r="F38" s="11">
         <f t="shared" si="0"/>
-        <v>57271.463133680809</v>
+        <v>59841.830212805362</v>
       </c>
       <c r="G38" s="11">
         <f t="shared" si="6"/>
-        <v>5727.1463133680736</v>
+        <v>5984.1830212805353</v>
       </c>
       <c r="H38" s="11">
         <f t="shared" si="2"/>
-        <v>6137.6081696157053</v>
+        <v>10454.406491493181</v>
       </c>
       <c r="I38" s="11">
         <f t="shared" si="5"/>
-        <v>-1677.1463133680809</v>
+        <v>-1934.1830212805362</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -50351,23 +50734,23 @@
       </c>
       <c r="E39" s="11">
         <f t="shared" si="4"/>
-        <v>101209.67276018826</v>
+        <v>97207.885906474432</v>
       </c>
       <c r="F39" s="11">
         <f t="shared" si="0"/>
-        <v>56082.809298039647</v>
+        <v>59232.923979676125</v>
       </c>
       <c r="G39" s="11">
         <f t="shared" si="6"/>
-        <v>5608.280929803962</v>
+        <v>5923.2923979676161</v>
       </c>
       <c r="H39" s="11">
         <f t="shared" si="2"/>
-        <v>4582.3272398117406</v>
+        <v>8584.114093525568</v>
       </c>
       <c r="I39" s="11">
         <f t="shared" si="5"/>
-        <v>-1555.2809298039647</v>
+        <v>-1870.2923979676125</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -50387,23 +50770,23 @@
       </c>
       <c r="E40" s="11">
         <f t="shared" si="4"/>
-        <v>106673.53557622603</v>
+        <v>103040.99394858482</v>
       </c>
       <c r="F40" s="11">
         <f t="shared" si="0"/>
-        <v>54638.628160377702</v>
+        <v>58331.080421103834</v>
       </c>
       <c r="G40" s="11">
         <f t="shared" si="6"/>
-        <v>5463.8628160377639</v>
+        <v>5833.1080421103816</v>
       </c>
       <c r="H40" s="11">
         <f t="shared" si="2"/>
-        <v>3900.4644237739703</v>
+        <v>7533.0060514151846</v>
       </c>
       <c r="I40" s="11">
         <f t="shared" si="5"/>
-        <v>-681.86281603777024</v>
+        <v>-1051.1080421103834</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -50423,23 +50806,23 @@
       </c>
       <c r="E41" s="11">
         <f t="shared" si="4"/>
-        <v>111970.94791018408</v>
+        <v>108757.50219730455</v>
       </c>
       <c r="F41" s="11">
         <f t="shared" si="0"/>
-        <v>52974.123339580547</v>
+        <v>57165.08248719736</v>
       </c>
       <c r="G41" s="11">
         <f t="shared" si="6"/>
-        <v>5297.4123339580601</v>
+        <v>5716.5082487197396</v>
       </c>
       <c r="H41" s="11">
         <f t="shared" si="2"/>
-        <v>3271.0520898159157</v>
+        <v>6484.4978026954486</v>
       </c>
       <c r="I41" s="11">
         <f t="shared" si="5"/>
-        <v>-629.41233395805466</v>
+        <v>-1048.508248719736</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -50459,23 +50842,23 @@
       </c>
       <c r="E42" s="11">
         <f t="shared" si="4"/>
-        <v>117083.38983010667</v>
+        <v>114334.0093764006</v>
       </c>
       <c r="F42" s="11">
         <f t="shared" si="0"/>
-        <v>51124.419199225813</v>
+        <v>55765.071790960501</v>
       </c>
       <c r="G42" s="11">
         <f t="shared" si="6"/>
-        <v>5112.4419199225822</v>
+        <v>5576.507179096051</v>
       </c>
       <c r="H42" s="11">
         <f t="shared" si="2"/>
-        <v>2743.6101698933344</v>
+        <v>5492.9906235993985</v>
       </c>
       <c r="I42" s="11">
         <f t="shared" si="5"/>
-        <v>-527.44191992258129</v>
+        <v>-991.50717909605009</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -50495,23 +50878,23 @@
       </c>
       <c r="E43" s="11">
         <f t="shared" si="4"/>
-        <v>121995.77445839478</v>
+        <v>119750.18906784352</v>
       </c>
       <c r="F43" s="11">
         <f t="shared" si="0"/>
-        <v>49123.846282881132</v>
+        <v>54161.796914429142</v>
       </c>
       <c r="G43" s="11">
         <f t="shared" si="6"/>
-        <v>4912.3846282881077</v>
+        <v>5416.1796914429133</v>
       </c>
       <c r="H43" s="11">
         <f t="shared" si="2"/>
-        <v>2636.2255416052212</v>
+        <v>4881.8109321564843</v>
       </c>
       <c r="I43" s="11">
         <f t="shared" si="5"/>
-        <v>-107.38462828811316</v>
+        <v>-611.17969144291419</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -50531,23 +50914,23 @@
       </c>
       <c r="E44" s="11">
         <f t="shared" si="4"/>
-        <v>126696.30975530563</v>
+        <v>124988.78427409934</v>
       </c>
       <c r="F44" s="11">
         <f t="shared" si="0"/>
-        <v>47005.352969108499</v>
+        <v>52385.952062558208</v>
       </c>
       <c r="G44" s="11">
         <f t="shared" si="6"/>
-        <v>4700.535296910848</v>
+        <v>5238.5952062558226</v>
       </c>
       <c r="H44" s="11">
         <f t="shared" si="2"/>
-        <v>2251.6902446943714</v>
+        <v>3959.2157259006635</v>
       </c>
       <c r="I44" s="11">
         <f t="shared" si="5"/>
-        <v>-384.53529691084987</v>
+        <v>-922.59520625582081</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -50567,23 +50950,23 @@
       </c>
       <c r="E45" s="11">
         <f t="shared" si="4"/>
-        <v>131176.31366719009</v>
+        <v>130035.54527641925</v>
       </c>
       <c r="F45" s="11">
         <f t="shared" si="0"/>
-        <v>44800.039118844579</v>
+        <v>50467.610023199086</v>
       </c>
       <c r="G45" s="11">
         <f t="shared" si="6"/>
-        <v>4480.0039118844543</v>
+        <v>5046.7610023199086</v>
       </c>
       <c r="H45" s="11">
         <f t="shared" si="2"/>
-        <v>1370.6863328099134</v>
+        <v>2511.4547235807549</v>
       </c>
       <c r="I45" s="11">
         <f t="shared" si="5"/>
-        <v>-881.00391188445792</v>
+        <v>-1447.7610023199086</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -50603,23 +50986,23 @@
       </c>
       <c r="E46" s="11">
         <f t="shared" si="4"/>
-        <v>135429.99408877952</v>
+        <v>134879.12024227376</v>
       </c>
       <c r="F46" s="11">
         <f t="shared" si="0"/>
-        <v>42536.804215894372</v>
+        <v>48435.749658545101</v>
       </c>
       <c r="G46" s="11">
         <f t="shared" si="6"/>
-        <v>4253.6804215894272</v>
+        <v>4843.5749658544983</v>
       </c>
       <c r="H46" s="11">
         <f t="shared" si="2"/>
-        <v>156.00591122047626</v>
+        <v>706.87975772624486</v>
       </c>
       <c r="I46" s="11">
         <f t="shared" si="5"/>
-        <v>-1214.6804215894372</v>
+        <v>-1804.5749658545101</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -50639,23 +51022,23 @@
       </c>
       <c r="E47" s="11">
         <f t="shared" si="4"/>
-        <v>139454.20410867609</v>
+        <v>139510.90775905029</v>
       </c>
       <c r="F47" s="11">
         <f t="shared" si="0"/>
-        <v>40242.100198965636</v>
+        <v>46317.875167765305</v>
       </c>
       <c r="G47" s="11">
         <f t="shared" si="6"/>
-        <v>4024.210019896555</v>
+        <v>4631.7875167765424</v>
       </c>
       <c r="H47" s="11">
         <f t="shared" si="2"/>
-        <v>-32.204108676087344</v>
+        <v>-88.907759050285676</v>
       </c>
       <c r="I47" s="11">
         <f t="shared" si="5"/>
-        <v>-188.21001989656361</v>
+        <v>-795.78751677653054</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -50675,23 +51058,23 @@
       </c>
       <c r="E48" s="11">
         <f t="shared" si="4"/>
-        <v>143248.18188094907</v>
+        <v>143924.87996641253</v>
       </c>
       <c r="F48" s="11">
         <f t="shared" si="0"/>
-        <v>37939.777722729777</v>
+        <v>44139.722073622397</v>
       </c>
       <c r="G48" s="11">
         <f t="shared" si="6"/>
-        <v>3793.9777722729805</v>
+        <v>4413.9722073622452</v>
       </c>
       <c r="H48" s="11">
         <f t="shared" si="2"/>
-        <v>377.81811905093491</v>
+        <v>-298.87996641252539</v>
       </c>
       <c r="I48" s="11">
         <f t="shared" si="5"/>
-        <v>410.02222772702225</v>
+        <v>-209.97220736223971</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -50711,23 +51094,23 @@
       </c>
       <c r="E49" s="11">
         <f t="shared" si="4"/>
-        <v>146813.2832641351</v>
+        <v>148117.38428951823</v>
       </c>
       <c r="F49" s="11">
         <f t="shared" si="0"/>
-        <v>35651.013831860328</v>
+        <v>41925.043231057061</v>
       </c>
       <c r="G49" s="11">
         <f t="shared" si="6"/>
-        <v>3565.1013831860209</v>
+        <v>4192.5043231057043</v>
       </c>
       <c r="H49" s="11">
         <f t="shared" si="2"/>
-        <v>763.71673586490215</v>
+        <v>-540.38428951823153</v>
       </c>
       <c r="I49" s="11">
         <f t="shared" si="5"/>
-        <v>385.89861681396724</v>
+        <v>-241.50432310570613</v>
       </c>
     </row>
     <row r="50" spans="1:9">
@@ -50747,23 +51130,23 @@
       </c>
       <c r="E50" s="11">
         <f t="shared" si="4"/>
-        <v>150152.71414954882</v>
+        <v>152086.93099512259</v>
       </c>
       <c r="F50" s="11">
         <f t="shared" si="0"/>
-        <v>33394.308854137198</v>
+        <v>39695.467056043562</v>
       </c>
       <c r="G50" s="11">
         <f t="shared" si="6"/>
-        <v>3339.4308854137166</v>
+        <v>3969.5467056043431</v>
       </c>
       <c r="H50" s="11">
         <f t="shared" si="2"/>
-        <v>2118.2858504511823</v>
+        <v>184.06900487741223</v>
       </c>
       <c r="I50" s="11">
         <f t="shared" si="5"/>
-        <v>1354.5691145862802</v>
+        <v>724.45329439564375</v>
       </c>
     </row>
     <row r="51" spans="1:9">
@@ -50783,23 +51166,23 @@
       </c>
       <c r="E51" s="11">
         <f t="shared" si="4"/>
-        <v>153271.26820880812</v>
+        <v>155833.97294983803</v>
       </c>
       <c r="F51" s="11">
         <f t="shared" si="0"/>
-        <v>31185.540592593024</v>
+        <v>37470.419547154452</v>
       </c>
       <c r="G51" s="11">
         <f t="shared" si="6"/>
-        <v>3118.5540592592929</v>
+        <v>3747.0419547154593</v>
       </c>
       <c r="H51" s="11">
         <f t="shared" si="2"/>
-        <v>3091.7317911918799</v>
+        <v>529.02705016196705</v>
       </c>
       <c r="I51" s="11">
         <f t="shared" si="5"/>
-        <v>973.44594074069755</v>
+        <v>344.95804528455483</v>
       </c>
     </row>
     <row r="52" spans="1:9">
@@ -50819,23 +51202,23 @@
       </c>
       <c r="E52" s="11">
         <f t="shared" si="4"/>
-        <v>156175.07465978697</v>
+        <v>159360.68309376933</v>
       </c>
       <c r="F52" s="11">
         <f t="shared" si="0"/>
-        <v>29038.064509788528</v>
+        <v>35267.101439312974</v>
       </c>
       <c r="G52" s="11">
         <f t="shared" si="6"/>
-        <v>2903.8064509788496</v>
+        <v>3526.7101439313105</v>
       </c>
       <c r="H52" s="11">
         <f t="shared" si="2"/>
-        <v>3340.9253402130271</v>
+        <v>155.3169062306697</v>
       </c>
       <c r="I52" s="11">
         <f t="shared" si="5"/>
-        <v>249.19354902114719</v>
+        <v>-373.71014393129735</v>
       </c>
     </row>
     <row r="53" spans="1:9">
@@ -50855,23 +51238,23 @@
       </c>
       <c r="E53" s="11">
         <f t="shared" si="4"/>
-        <v>158871.35960485498</v>
+        <v>162670.73428496029</v>
       </c>
       <c r="F53" s="11">
         <f t="shared" si="0"/>
-        <v>26962.849450680078</v>
+        <v>33100.511911909562</v>
       </c>
       <c r="G53" s="11">
         <f t="shared" si="6"/>
-        <v>2696.2849450680092</v>
+        <v>3310.0511911909548</v>
       </c>
       <c r="H53" s="11">
         <f t="shared" ref="H53" si="8">C53-E53</f>
-        <v>3616.6403951450193</v>
+        <v>-182.73428496028646</v>
       </c>
       <c r="I53" s="11">
         <f t="shared" ref="I53" si="9">H53-H52</f>
-        <v>275.7150549319922</v>
+        <v>-338.05119119095616</v>
       </c>
     </row>
     <row r="54" spans="1:9">
@@ -50891,23 +51274,23 @@
       </c>
       <c r="E54" s="11">
         <f t="shared" si="4"/>
-        <v>161368.22355080504</v>
+        <v>165769.08534502532</v>
       </c>
       <c r="F54" s="11">
         <f t="shared" si="0"/>
-        <v>24968.639459500555</v>
+        <v>30983.510600650334</v>
       </c>
       <c r="G54" s="11">
         <f t="shared" si="6"/>
-        <v>2496.8639459500628</v>
+        <v>3098.3510600650443</v>
       </c>
       <c r="H54" s="11">
         <f t="shared" ref="H54" si="11">C54-E54</f>
-        <v>3786.7764491949638</v>
+        <v>-614.08534502531984</v>
       </c>
       <c r="I54" s="11">
         <f t="shared" ref="I54" si="12">H54-H53</f>
-        <v>170.13605404994451</v>
+        <v>-431.35106006503338</v>
       </c>
     </row>
     <row r="55" spans="1:9">
@@ -50927,23 +51310,23 @@
       </c>
       <c r="E55" s="11">
         <f t="shared" si="4"/>
-        <v>163674.43688483528</v>
+        <v>168661.77636206607</v>
       </c>
       <c r="F55" s="11">
         <f t="shared" si="0"/>
-        <v>23062.133340302389</v>
+        <v>28926.9101704075</v>
       </c>
       <c r="G55" s="11">
         <f t="shared" si="6"/>
-        <v>2306.2133340302248</v>
+        <v>2892.6910170407523</v>
       </c>
       <c r="H55" s="11">
         <f t="shared" ref="H55" si="14">C55-E55</f>
-        <v>5266.5631151647249</v>
+        <v>279.22363793393015</v>
       </c>
       <c r="I55" s="11">
         <f t="shared" ref="I55" si="15">H55-H54</f>
-        <v>1479.7866659697611</v>
+        <v>893.30898295924999</v>
       </c>
     </row>
     <row r="56" spans="1:9">
@@ -50963,23 +51346,23 @@
       </c>
       <c r="E56" s="11">
         <f t="shared" si="4"/>
-        <v>165799.25435818956</v>
+        <v>171355.73559600368</v>
       </c>
       <c r="F56" s="11">
         <f t="shared" si="0"/>
-        <v>21248.174733542837</v>
+        <v>26939.592339376104</v>
       </c>
       <c r="G56" s="11">
         <f t="shared" si="6"/>
-        <v>2124.8174733542742</v>
+        <v>2693.9592339376236</v>
       </c>
       <c r="H56" s="11">
         <f t="shared" ref="H56" si="17">C56-E56</f>
-        <v>6634.7456418104412</v>
+        <v>1078.2644039963197</v>
       </c>
       <c r="I56" s="11">
         <f t="shared" ref="I56" si="18">H56-H55</f>
-        <v>1368.1825266457163</v>
+        <v>799.04076606238959</v>
       </c>
     </row>
     <row r="57" spans="1:9">
@@ -50999,23 +51382,23 @@
       </c>
       <c r="E57" s="11">
         <f t="shared" si="4"/>
-        <v>167752.24901699796</v>
+        <v>173858.59969158052</v>
       </c>
       <c r="F57" s="11">
         <f t="shared" si="0"/>
-        <v>19529.946588083985</v>
+        <v>25028.640955768351</v>
       </c>
       <c r="G57" s="11">
         <f t="shared" si="6"/>
-        <v>1952.9946588083872</v>
+        <v>2502.8640955768301</v>
       </c>
       <c r="H57" s="11">
         <f t="shared" ref="H57" si="20">C57-E57</f>
-        <v>8172.7509830020426</v>
+        <v>2066.4003084194846</v>
       </c>
       <c r="I57" s="11">
         <f t="shared" ref="I57" si="21">H57-H56</f>
-        <v>1538.0053411916015</v>
+        <v>988.1359044231649</v>
       </c>
     </row>
     <row r="58" spans="1:9">
@@ -51035,23 +51418,23 @@
       </c>
       <c r="E58" s="11">
         <f t="shared" si="4"/>
-        <v>169543.16551360372</v>
+        <v>176178.5483393723</v>
       </c>
       <c r="F58" s="11">
         <f t="shared" si="0"/>
-        <v>17909.164966057579</v>
+        <v>23199.486477917817</v>
       </c>
       <c r="G58" s="11">
         <f t="shared" si="6"/>
-        <v>1790.9164966057688</v>
+        <v>2319.9486477917799</v>
       </c>
       <c r="H58" s="11">
         <f t="shared" ref="H58" si="23">C58-E58</f>
-        <v>9428.8344863962848</v>
+        <v>2793.4516606277029</v>
       </c>
       <c r="I58" s="11">
         <f t="shared" ref="I58" si="24">H58-H57</f>
-        <v>1256.0835033942421</v>
+        <v>727.0513522082183</v>
       </c>
     </row>
     <row r="59" spans="1:9">
@@ -51071,23 +51454,23 @@
       </c>
       <c r="E59" s="11">
         <f t="shared" si="4"/>
-        <v>171181.79232397524</v>
+        <v>178324.15403592869</v>
       </c>
       <c r="F59" s="11">
         <f t="shared" si="0"/>
-        <v>16386.268103715265</v>
+        <v>21456.056965563912</v>
       </c>
       <c r="G59" s="11">
         <f t="shared" si="6"/>
-        <v>1638.6268103715402</v>
+        <v>2145.605696556388</v>
       </c>
       <c r="H59" s="11">
         <f t="shared" ref="H59" si="26">C59-E59</f>
-        <v>10046.207676024758</v>
+        <v>2903.8459640713118</v>
       </c>
       <c r="I59" s="11">
         <f t="shared" ref="I59" si="27">H59-H58</f>
-        <v>617.37318962847348</v>
+        <v>110.39430344360881</v>
       </c>
     </row>
     <row r="60" spans="1:9">
@@ -51107,23 +51490,23 @@
       </c>
       <c r="E60" s="11">
         <f t="shared" si="4"/>
-        <v>172677.85207889517</v>
+        <v>180304.24717888914</v>
       </c>
       <c r="F60" s="11">
         <f t="shared" si="0"/>
-        <v>14960.597549199301</v>
+        <v>19800.931429604534</v>
       </c>
       <c r="G60" s="11">
         <f t="shared" si="6"/>
-        <v>1496.0597549199344</v>
+        <v>1980.093142960447</v>
       </c>
       <c r="H60" s="11">
         <f t="shared" ref="H60" si="29">C60-E60</f>
-        <v>11279.147921104828</v>
+        <v>3652.7528211108583</v>
       </c>
       <c r="I60" s="11">
         <f t="shared" ref="I60" si="30">H60-H59</f>
-        <v>1232.9402450800699</v>
+        <v>748.90685703954659</v>
       </c>
     </row>
     <row r="61" spans="1:9">
@@ -51143,23 +51526,23 @@
       </c>
       <c r="E61" s="11">
         <f t="shared" ref="E61" si="32">E60+G61</f>
-        <v>174040.90897884054</v>
+        <v>182127.79638802726</v>
       </c>
       <c r="F61" s="11">
         <f t="shared" ref="F61" si="33">(E61-E60)*10</f>
-        <v>13630.568999453681</v>
+        <v>18235.492091381166</v>
       </c>
       <c r="G61" s="11">
         <f t="shared" ref="G61" si="34">$L$4*B61^$L$5*EXP(-B61/$L$6)</f>
-        <v>1363.0568999453665</v>
+        <v>1823.5492091381104</v>
       </c>
       <c r="H61" s="11">
         <f t="shared" ref="H61" si="35">C61-E61</f>
-        <v>13286.09102115946</v>
+        <v>5199.2036119727418</v>
       </c>
       <c r="I61" s="11">
         <f t="shared" ref="I61" si="36">H61-H60</f>
-        <v>2006.9431000546319</v>
+        <v>1546.4507908618834</v>
       </c>
     </row>
     <row r="62" spans="1:9">
@@ -51169,20 +51552,34 @@
       <c r="B62" s="10">
         <v>60</v>
       </c>
-      <c r="C62" s="10"/>
+      <c r="C62" s="10">
+        <f>'Nuovi positivi'!B62</f>
+        <v>189973</v>
+      </c>
+      <c r="D62">
+        <f t="shared" ref="D62" si="37">C62-C61</f>
+        <v>2646</v>
+      </c>
       <c r="E62" s="11">
-        <f t="shared" si="4"/>
-        <v>175280.29209482396</v>
+        <f t="shared" ref="E62" si="38">E61+G62</f>
+        <v>183803.80366377474</v>
       </c>
       <c r="F62" s="11">
-        <f t="shared" si="0"/>
-        <v>12393.831159834226</v>
+        <f t="shared" ref="F62" si="39">(E62-E61)*10</f>
+        <v>16760.072757474845</v>
       </c>
       <c r="G62" s="11">
-        <f t="shared" si="6"/>
-        <v>1239.3831159834185</v>
-      </c>
-      <c r="I62" s="11"/>
+        <f t="shared" ref="G62" si="40">$L$4*B62^$L$5*EXP(-B62/$L$6)</f>
+        <v>1676.0072757474895</v>
+      </c>
+      <c r="H62" s="11">
+        <f t="shared" ref="H62" si="41">C62-E62</f>
+        <v>6169.1963362252573</v>
+      </c>
+      <c r="I62" s="11">
+        <f t="shared" ref="I62" si="42">H62-H61</f>
+        <v>969.99272425251547</v>
+      </c>
     </row>
     <row r="63" spans="1:9">
       <c r="A63" s="2">
@@ -51194,15 +51591,15 @@
       <c r="C63" s="10"/>
       <c r="E63" s="11">
         <f t="shared" si="4"/>
-        <v>176405.03325004017</v>
+        <v>185341.21377512478</v>
       </c>
       <c r="F63" s="11">
         <f t="shared" si="0"/>
-        <v>11247.411552162084</v>
+        <v>15374.101113500365</v>
       </c>
       <c r="G63" s="11">
         <f t="shared" si="6"/>
-        <v>1124.7411552162228</v>
+        <v>1537.4101113500335</v>
       </c>
       <c r="I63" s="11"/>
     </row>
@@ -51216,15 +51613,15 @@
       <c r="C64" s="10"/>
       <c r="E64" s="11">
         <f t="shared" si="4"/>
-        <v>177423.8181204256</v>
+        <v>186748.83710269001</v>
       </c>
       <c r="F64" s="11">
         <f t="shared" si="0"/>
-        <v>10187.848703854252</v>
+        <v>14076.233275652339</v>
       </c>
       <c r="G64" s="11">
         <f t="shared" si="6"/>
-        <v>1018.7848703854344</v>
+        <v>1407.6233275652301</v>
       </c>
       <c r="I64" s="11"/>
     </row>
@@ -51238,15 +51635,15 @@
       <c r="C65" s="10"/>
       <c r="E65" s="11">
         <f t="shared" si="4"/>
-        <v>178344.94917726575</v>
+        <v>188035.28504368674</v>
       </c>
       <c r="F65" s="11">
         <f t="shared" si="0"/>
-        <v>9211.3105684015318</v>
+        <v>12864.479409967316</v>
       </c>
       <c r="G65" s="11">
         <f t="shared" si="6"/>
-        <v>921.13105684013919</v>
+        <v>1286.4479409967234</v>
       </c>
       <c r="I65" s="11"/>
     </row>
@@ -51260,15 +51657,15 @@
       <c r="C66" s="10"/>
       <c r="E66" s="11">
         <f t="shared" si="4"/>
-        <v>179176.31911360245</v>
+        <v>189208.91700738107</v>
       </c>
       <c r="F66" s="11">
         <f t="shared" si="0"/>
-        <v>8313.69936336705</v>
+        <v>11736.319636943226</v>
       </c>
       <c r="G66" s="11">
         <f t="shared" si="6"/>
-        <v>831.36993633671693</v>
+        <v>1173.6319636943226</v>
       </c>
       <c r="I66" s="11"/>
     </row>
@@ -51282,15 +51679,15 @@
       <c r="C67" s="10"/>
       <c r="E67" s="11">
         <f t="shared" si="4"/>
-        <v>179925.393441058</v>
+        <v>190277.79798594525</v>
       </c>
       <c r="F67" s="11">
         <f t="shared" si="0"/>
-        <v>7490.7432745554252</v>
+        <v>10688.809785641788</v>
       </c>
       <c r="G67" s="11">
         <f t="shared" si="6"/>
-        <v>749.07432745555127</v>
+        <v>1068.8809785641836</v>
       </c>
       <c r="I67" s="11"/>
     </row>
@@ -51304,15 +51701,15 @@
       <c r="C68" s="10"/>
       <c r="E68" s="11">
         <f t="shared" si="4"/>
-        <v>180599.20100833141</v>
+        <v>191249.66567097307</v>
       </c>
       <c r="F68" s="11">
-        <f t="shared" ref="F68:F117" si="37">(E68-E67)*10</f>
-        <v>6738.0756727341213</v>
+        <f t="shared" ref="F68:F117" si="43">(E68-E67)*10</f>
+        <v>9718.6768502782797</v>
       </c>
       <c r="G68" s="11">
-        <f t="shared" ref="G68:G99" si="38">$L$4*B68^$L$5*EXP(-B68/$L$6)</f>
-        <v>673.80756727342191</v>
+        <f t="shared" ref="G68:G99" si="44">$L$4*B68^$L$5*EXP(-B68/$L$6)</f>
+        <v>971.86768502781342</v>
       </c>
       <c r="I68" s="11"/>
     </row>
@@ -51325,16 +51722,16 @@
       </c>
       <c r="C69" s="10"/>
       <c r="E69" s="11">
-        <f t="shared" ref="E69:E117" si="39">E68+G69</f>
-        <v>181204.33127142637</v>
+        <f t="shared" ref="E69:E117" si="45">E68+G69</f>
+        <v>192131.90609478005</v>
       </c>
       <c r="F69" s="11">
-        <f t="shared" si="37"/>
-        <v>6051.302630949649</v>
+        <f t="shared" si="43"/>
+        <v>8822.404238069721</v>
       </c>
       <c r="G69" s="11">
-        <f t="shared" si="38"/>
-        <v>605.13026309497718</v>
+        <f t="shared" si="44"/>
+        <v>882.24042380696949</v>
       </c>
       <c r="I69" s="11"/>
     </row>
@@ -51347,16 +51744,16 @@
       </c>
       <c r="C70" s="10"/>
       <c r="E70" s="11">
-        <f t="shared" si="39"/>
-        <v>181746.93723386258</v>
+        <f t="shared" si="45"/>
+        <v>192931.53680325681</v>
       </c>
       <c r="F70" s="11">
-        <f t="shared" si="37"/>
-        <v>5426.0596243620967</v>
+        <f t="shared" si="43"/>
+        <v>7996.3070847676136</v>
       </c>
       <c r="G70" s="11">
-        <f t="shared" si="38"/>
-        <v>542.60596243621887</v>
+        <f t="shared" si="44"/>
+        <v>799.63070847676261</v>
       </c>
       <c r="I70" s="11"/>
     </row>
@@ -51369,16 +51766,16 @@
       </c>
       <c r="C71" s="10"/>
       <c r="E71" s="11">
-        <f t="shared" si="39"/>
-        <v>182232.7430687141</v>
+        <f t="shared" si="45"/>
+        <v>193655.19660916529</v>
       </c>
       <c r="F71" s="11">
-        <f t="shared" si="37"/>
-        <v>4858.0583485151874</v>
+        <f t="shared" si="43"/>
+        <v>7236.5980590847903</v>
       </c>
       <c r="G71" s="11">
-        <f t="shared" si="38"/>
-        <v>485.80583485152658</v>
+        <f t="shared" si="44"/>
+        <v>723.65980590848858</v>
       </c>
       <c r="I71" s="11"/>
     </row>
@@ -51391,16 +51788,16 @@
       </c>
       <c r="C72" s="10"/>
       <c r="E72" s="11">
-        <f t="shared" si="39"/>
-        <v>182667.05553003828</v>
+        <f t="shared" si="45"/>
+        <v>194309.14102761098</v>
       </c>
       <c r="F72" s="11">
-        <f t="shared" si="37"/>
-        <v>4343.1246132418164</v>
+        <f t="shared" si="43"/>
+        <v>6539.4441844569519</v>
       </c>
       <c r="G72" s="11">
-        <f t="shared" si="38"/>
-        <v>434.31246132418863</v>
+        <f t="shared" si="44"/>
+        <v>653.94441844570588</v>
       </c>
       <c r="I72" s="11"/>
     </row>
@@ -51413,16 +51810,16 @@
       </c>
       <c r="C73" s="10"/>
       <c r="E73" s="11">
-        <f t="shared" si="39"/>
-        <v>183054.77835648719</v>
+        <f t="shared" si="45"/>
+        <v>194899.24255574765</v>
       </c>
       <c r="F73" s="11">
-        <f t="shared" si="37"/>
-        <v>3877.2282644890947</v>
+        <f t="shared" si="43"/>
+        <v>5901.0152813667082</v>
       </c>
       <c r="G73" s="11">
-        <f t="shared" si="38"/>
-        <v>387.72282644892238</v>
+        <f t="shared" si="44"/>
+        <v>590.10152813667241</v>
       </c>
       <c r="I73" s="11"/>
     </row>
@@ -51435,16 +51832,16 @@
       </c>
       <c r="C74" s="10"/>
       <c r="E74" s="11">
-        <f t="shared" si="39"/>
-        <v>183400.42896258703</v>
+        <f t="shared" si="45"/>
+        <v>195430.99502382084</v>
       </c>
       <c r="F74" s="11">
-        <f t="shared" si="37"/>
-        <v>3456.506060998363</v>
+        <f t="shared" si="43"/>
+        <v>5317.5246807318763</v>
       </c>
       <c r="G74" s="11">
-        <f t="shared" si="38"/>
-        <v>345.65060609983669</v>
+        <f t="shared" si="44"/>
+        <v>531.75246807317546</v>
       </c>
       <c r="I74" s="11"/>
     </row>
@@ -51457,16 +51854,16 @@
       </c>
       <c r="C75" s="10"/>
       <c r="E75" s="11">
-        <f t="shared" si="39"/>
-        <v>183708.15680178802</v>
+        <f t="shared" si="45"/>
+        <v>195909.52131213626</v>
       </c>
       <c r="F75" s="11">
-        <f t="shared" si="37"/>
-        <v>3077.2783920099027</v>
+        <f t="shared" si="43"/>
+        <v>4785.2628831542097</v>
       </c>
       <c r="G75" s="11">
-        <f t="shared" si="38"/>
-        <v>307.72783920098482</v>
+        <f t="shared" si="44"/>
+        <v>478.52628831543126</v>
       </c>
       <c r="I75" s="11"/>
     </row>
@@ -51479,16 +51876,16 @@
       </c>
       <c r="C76" s="10"/>
       <c r="E76" s="11">
-        <f t="shared" si="39"/>
-        <v>183981.76286881816</v>
+        <f t="shared" si="45"/>
+        <v>196339.58379656787</v>
       </c>
       <c r="F76" s="11">
-        <f t="shared" si="37"/>
-        <v>2736.0606703013764</v>
+        <f t="shared" si="43"/>
+        <v>4300.6248443160439</v>
       </c>
       <c r="G76" s="11">
-        <f t="shared" si="38"/>
-        <v>273.60606703014827</v>
+        <f t="shared" si="44"/>
+        <v>430.06248443160098</v>
       </c>
       <c r="I76" s="11"/>
     </row>
@@ -51501,16 +51898,16 @@
       </c>
       <c r="C77" s="10"/>
       <c r="E77" s="11">
-        <f t="shared" si="39"/>
-        <v>184224.71988637152</v>
+        <f t="shared" si="45"/>
+        <v>196725.59695229054</v>
       </c>
       <c r="F77" s="11">
-        <f t="shared" si="37"/>
-        <v>2429.5701755335904</v>
+        <f t="shared" si="43"/>
+        <v>3860.1315572267049</v>
       </c>
       <c r="G77" s="11">
-        <f t="shared" si="38"/>
-        <v>242.95701755335386</v>
+        <f t="shared" si="44"/>
+        <v>386.01315572268362</v>
       </c>
       <c r="I77" s="11"/>
     </row>
@@ -51523,16 +51920,16 @@
       </c>
       <c r="C78" s="10"/>
       <c r="E78" s="11">
-        <f t="shared" si="39"/>
-        <v>184440.1927922811</v>
+        <f t="shared" si="45"/>
+        <v>197071.64161036111</v>
       </c>
       <c r="F78" s="11">
-        <f t="shared" si="37"/>
-        <v>2154.7290590958437</v>
+        <f t="shared" si="43"/>
+        <v>3460.4465807057568</v>
       </c>
       <c r="G78" s="11">
-        <f t="shared" si="38"/>
-        <v>215.47290590957476</v>
+        <f t="shared" si="44"/>
+        <v>346.04465807057733</v>
       </c>
       <c r="I78" s="11"/>
     </row>
@@ -51545,16 +51942,16 @@
       </c>
       <c r="C79" s="10"/>
       <c r="E79" s="11">
-        <f t="shared" si="39"/>
-        <v>184631.05920786868</v>
+        <f t="shared" si="45"/>
+        <v>197381.48042368915</v>
       </c>
       <c r="F79" s="11">
-        <f t="shared" si="37"/>
-        <v>1908.6641558757401</v>
+        <f t="shared" si="43"/>
+        <v>3098.3881332803867</v>
       </c>
       <c r="G79" s="11">
-        <f t="shared" si="38"/>
-        <v>190.86641558757253</v>
+        <f t="shared" si="44"/>
+        <v>309.83881332804759</v>
       </c>
       <c r="I79" s="11"/>
     </row>
@@ -51567,16 +51964,16 @@
       </c>
       <c r="C80" s="10"/>
       <c r="E80" s="11">
-        <f t="shared" si="39"/>
-        <v>184799.92962612421</v>
+        <f t="shared" si="45"/>
+        <v>197658.57415720186</v>
       </c>
       <c r="F80" s="11">
-        <f t="shared" si="37"/>
-        <v>1688.7041825553752</v>
+        <f t="shared" si="43"/>
+        <v>2770.9373351270915</v>
       </c>
       <c r="G80" s="11">
-        <f t="shared" si="38"/>
-        <v>168.8704182555399</v>
+        <f t="shared" si="44"/>
+        <v>277.09373351271347</v>
       </c>
       <c r="I80" s="11"/>
     </row>
@@ -51589,16 +51986,16 @@
       </c>
       <c r="C81" s="10"/>
       <c r="E81" s="11">
-        <f t="shared" si="39"/>
-        <v>184949.16710989535</v>
+        <f t="shared" si="45"/>
+        <v>197906.09847118548</v>
       </c>
       <c r="F81" s="11">
-        <f t="shared" si="37"/>
-        <v>1492.3748377113952</v>
+        <f t="shared" si="43"/>
+        <v>2475.2431398362387</v>
       </c>
       <c r="G81" s="11">
-        <f t="shared" si="38"/>
-        <v>149.23748377113085</v>
+        <f t="shared" si="44"/>
+        <v>247.52431398362006</v>
       </c>
       <c r="I81" s="11"/>
     </row>
@@ -51611,16 +52008,16 @@
       </c>
       <c r="C82" s="10"/>
       <c r="E82" s="11">
-        <f t="shared" si="39"/>
-        <v>185080.90633562408</v>
+        <f t="shared" si="45"/>
+        <v>198126.96091662944</v>
       </c>
       <c r="F82" s="11">
-        <f t="shared" si="37"/>
-        <v>1317.3922572872834</v>
+        <f t="shared" si="43"/>
+        <v>2208.6244544395595</v>
       </c>
       <c r="G82" s="11">
-        <f t="shared" si="38"/>
-        <v>131.7392257287384</v>
+        <f t="shared" si="44"/>
+        <v>220.8624454439616</v>
       </c>
       <c r="I82" s="11"/>
     </row>
@@ -51633,16 +52030,16 @@
       </c>
       <c r="C83" s="10"/>
       <c r="E83" s="11">
-        <f t="shared" si="39"/>
-        <v>185197.07185769902</v>
+        <f t="shared" si="45"/>
+        <v>198323.81790680042</v>
       </c>
       <c r="F83" s="11">
-        <f t="shared" si="37"/>
-        <v>1161.6552207493805</v>
+        <f t="shared" si="43"/>
+        <v>1968.5699017098523</v>
       </c>
       <c r="G83" s="11">
-        <f t="shared" si="38"/>
-        <v>116.16552207494648</v>
+        <f t="shared" si="44"/>
+        <v>196.85699017097508</v>
       </c>
       <c r="I83" s="11"/>
     </row>
@@ -51655,16 +52052,16 @@
       </c>
       <c r="C84" s="10"/>
       <c r="E84" s="11">
-        <f t="shared" si="39"/>
-        <v>185299.39550259631</v>
+        <f t="shared" si="45"/>
+        <v>198499.09147023986</v>
       </c>
       <c r="F84" s="11">
-        <f t="shared" si="37"/>
-        <v>1023.2364489728934</v>
+        <f t="shared" si="43"/>
+        <v>1752.7356343943393</v>
       </c>
       <c r="G84" s="11">
-        <f t="shared" si="38"/>
-        <v>102.32364489730293</v>
+        <f t="shared" si="44"/>
+        <v>175.27356343942313</v>
       </c>
       <c r="I84" s="11"/>
     </row>
@@ -51677,16 +52074,16 @@
       </c>
       <c r="C85" s="10"/>
       <c r="E85" s="11">
-        <f t="shared" si="39"/>
-        <v>185389.43283109579</v>
+        <f t="shared" si="45"/>
+        <v>198654.98562700907</v>
       </c>
       <c r="F85" s="11">
-        <f t="shared" si="37"/>
-        <v>900.37328499485739</v>
+        <f t="shared" si="43"/>
+        <v>1558.9415676920908</v>
       </c>
       <c r="G85" s="11">
-        <f t="shared" si="38"/>
-        <v>90.037328499486023</v>
+        <f t="shared" si="44"/>
+        <v>155.89415676919762</v>
       </c>
       <c r="I85" s="11"/>
     </row>
@@ -51699,16 +52096,16 @@
       </c>
       <c r="C86" s="10"/>
       <c r="E86" s="11">
-        <f t="shared" si="39"/>
-        <v>185468.578631429</v>
+        <f t="shared" si="45"/>
+        <v>198793.50226246842</v>
       </c>
       <c r="F86" s="11">
-        <f t="shared" si="37"/>
-        <v>791.45800333208172</v>
+        <f t="shared" si="43"/>
+        <v>1385.1663545935298</v>
       </c>
       <c r="G86" s="11">
-        <f t="shared" si="38"/>
-        <v>79.145800333209564</v>
+        <f t="shared" si="44"/>
+        <v>138.5166354593421</v>
       </c>
       <c r="I86" s="11"/>
     </row>
@@ -51721,16 +52118,16 @@
       </c>
       <c r="C87" s="10"/>
       <c r="E87" s="11">
-        <f t="shared" si="39"/>
-        <v>185538.08142669444</v>
+        <f t="shared" si="45"/>
+        <v>198916.4564013893</v>
       </c>
       <c r="F87" s="11">
-        <f t="shared" si="37"/>
-        <v>695.02795265434543</v>
+        <f t="shared" si="43"/>
+        <v>1229.5413892087527</v>
       </c>
       <c r="G87" s="11">
-        <f t="shared" si="38"/>
-        <v>69.502795265432269</v>
+        <f t="shared" si="44"/>
+        <v>122.95413892088088</v>
       </c>
       <c r="I87" s="11"/>
     </row>
@@ -51743,16 +52140,16 @@
       </c>
       <c r="C88" s="10"/>
       <c r="E88" s="11">
-        <f t="shared" si="39"/>
-        <v>185599.05699670373</v>
+        <f t="shared" si="45"/>
+        <v>199025.49081001346</v>
       </c>
       <c r="F88" s="11">
-        <f t="shared" si="37"/>
-        <v>609.75570009293733</v>
+        <f t="shared" si="43"/>
+        <v>1090.3440862416755</v>
       </c>
       <c r="G88" s="11">
-        <f t="shared" si="38"/>
-        <v>60.975570009281924</v>
+        <f t="shared" si="44"/>
+        <v>109.03440862417979</v>
       </c>
       <c r="I88" s="11"/>
     </row>
@@ -51765,16 +52162,16 @@
       </c>
       <c r="C89" s="10"/>
       <c r="E89" s="11">
-        <f t="shared" si="39"/>
-        <v>185652.50092802494</v>
+        <f t="shared" si="45"/>
+        <v>199122.08987506852</v>
       </c>
       <c r="F89" s="11">
-        <f t="shared" si="37"/>
-        <v>534.43931321206037</v>
+        <f t="shared" si="43"/>
+        <v>965.99065055052051</v>
       </c>
       <c r="G89" s="11">
-        <f t="shared" si="38"/>
-        <v>53.443931321194377</v>
+        <f t="shared" si="44"/>
+        <v>96.599065055066404</v>
       </c>
       <c r="I89" s="11"/>
     </row>
@@ -51787,16 +52184,16 @@
       </c>
       <c r="C90" s="10"/>
       <c r="E90" s="11">
-        <f t="shared" si="39"/>
-        <v>185699.30021676674</v>
+        <f t="shared" si="45"/>
+        <v>199207.59272700749</v>
       </c>
       <c r="F90" s="11">
-        <f t="shared" si="37"/>
-        <v>467.99288741807686</v>
+        <f t="shared" si="43"/>
+        <v>855.02851938974345</v>
       </c>
       <c r="G90" s="11">
-        <f t="shared" si="38"/>
-        <v>46.799288741797284</v>
+        <f t="shared" si="44"/>
+        <v>85.502851938974175</v>
       </c>
       <c r="I90" s="11"/>
     </row>
@@ -51809,16 +52206,16 @@
       </c>
       <c r="C91" s="10"/>
       <c r="E91" s="11">
-        <f t="shared" si="39"/>
-        <v>185740.24395697366</v>
+        <f t="shared" si="45"/>
+        <v>199283.20559015419</v>
       </c>
       <c r="F91" s="11">
-        <f t="shared" si="37"/>
-        <v>409.43740206916118</v>
+        <f t="shared" si="43"/>
+        <v>756.12863146699965</v>
       </c>
       <c r="G91" s="11">
-        <f t="shared" si="38"/>
-        <v>40.943740206908963</v>
+        <f t="shared" si="44"/>
+        <v>75.612863146697521</v>
       </c>
       <c r="I91" s="11"/>
     </row>
@@ -51831,16 +52228,16 @@
       </c>
       <c r="C92" s="10"/>
       <c r="E92" s="11">
-        <f t="shared" si="39"/>
-        <v>185776.0331537218</v>
+        <f t="shared" si="45"/>
+        <v>199350.01335528912</v>
       </c>
       <c r="F92" s="11">
-        <f t="shared" si="37"/>
-        <v>357.89196748140967</v>
+        <f t="shared" si="43"/>
+        <v>668.07765134930378</v>
       </c>
       <c r="G92" s="11">
-        <f t="shared" si="38"/>
-        <v>35.789196748136696</v>
+        <f t="shared" si="44"/>
+        <v>66.80776513494402</v>
       </c>
       <c r="I92" s="11"/>
     </row>
@@ -51853,16 +52250,16 @@
       </c>
       <c r="C93" s="10"/>
       <c r="E93" s="11">
-        <f t="shared" si="39"/>
-        <v>185807.28970443114</v>
+        <f t="shared" si="45"/>
+        <v>199408.99038077981</v>
       </c>
       <c r="F93" s="11">
-        <f t="shared" si="37"/>
-        <v>312.56550709338626</v>
+        <f t="shared" si="43"/>
+        <v>589.77025490690721</v>
       </c>
       <c r="G93" s="11">
-        <f t="shared" si="38"/>
-        <v>31.256550709334611</v>
+        <f t="shared" si="44"/>
+        <v>58.97702549069821</v>
       </c>
       <c r="I93" s="11"/>
     </row>
@@ -51875,16 +52272,16 @@
       </c>
       <c r="C94" s="10"/>
       <c r="E94" s="11">
-        <f t="shared" si="39"/>
-        <v>185834.56459482602</v>
+        <f t="shared" si="45"/>
+        <v>199461.01053690727</v>
       </c>
       <c r="F94" s="11">
-        <f t="shared" si="37"/>
-        <v>272.74890394881368</v>
+        <f t="shared" si="43"/>
+        <v>520.20156127458904</v>
       </c>
       <c r="G94" s="11">
-        <f t="shared" si="38"/>
-        <v>27.274890394889159</v>
+        <f t="shared" si="44"/>
+        <v>52.020156127461512</v>
       </c>
       <c r="I94" s="11"/>
     </row>
@@ -51897,16 +52294,16 @@
       </c>
       <c r="C95" s="10"/>
       <c r="E95" s="11">
-        <f t="shared" si="39"/>
-        <v>185858.34535763436</v>
+        <f t="shared" si="45"/>
+        <v>199506.85651481542</v>
       </c>
       <c r="F95" s="11">
-        <f t="shared" si="37"/>
-        <v>237.80762808339205</v>
+        <f t="shared" si="43"/>
+        <v>458.45977908145869</v>
       </c>
       <c r="G95" s="11">
-        <f t="shared" si="38"/>
-        <v>23.780762808334188</v>
+        <f t="shared" si="44"/>
+        <v>45.845977908131879</v>
       </c>
       <c r="I95" s="11"/>
     </row>
@@ -51919,16 +52316,16 @@
       </c>
       <c r="C96" s="10"/>
       <c r="E96" s="11">
-        <f t="shared" si="39"/>
-        <v>185879.06284274065</v>
+        <f t="shared" si="45"/>
+        <v>199547.22842674167</v>
       </c>
       <c r="F96" s="11">
-        <f t="shared" si="37"/>
-        <v>207.17485106288223</v>
+        <f t="shared" si="43"/>
+        <v>403.71911926253233</v>
       </c>
       <c r="G96" s="11">
-        <f t="shared" si="38"/>
-        <v>20.717485106276218</v>
+        <f t="shared" si="44"/>
+        <v>40.371911926259372</v>
       </c>
       <c r="I96" s="11"/>
     </row>
@@ -51941,16 +52338,16 @@
       </c>
       <c r="C97" s="10"/>
       <c r="E97" s="11">
-        <f t="shared" si="39"/>
-        <v>185897.09734729637</v>
+        <f t="shared" si="45"/>
+        <v>199582.75172808795</v>
       </c>
       <c r="F97" s="11">
-        <f t="shared" si="37"/>
-        <v>180.3450455571874</v>
+        <f t="shared" si="43"/>
+        <v>355.23301346285734</v>
       </c>
       <c r="G97" s="11">
-        <f t="shared" si="38"/>
-        <v>18.034504555713887</v>
+        <f t="shared" si="44"/>
+        <v>35.523301346290573</v>
       </c>
       <c r="I97" s="11"/>
     </row>
@@ -51963,16 +52360,16 @@
       </c>
       <c r="C98" s="10"/>
       <c r="E98" s="11">
-        <f t="shared" si="39"/>
-        <v>185912.78415341349</v>
+        <f t="shared" si="45"/>
+        <v>199613.98449465347</v>
       </c>
       <c r="F98" s="11">
-        <f t="shared" si="37"/>
-        <v>156.86806117126253</v>
+        <f t="shared" si="43"/>
+        <v>312.32766565517522</v>
       </c>
       <c r="G98" s="11">
-        <f t="shared" si="38"/>
-        <v>15.686806117127247</v>
+        <f t="shared" si="44"/>
+        <v>31.232766565520166</v>
       </c>
       <c r="I98" s="11"/>
     </row>
@@ -51985,16 +52382,16 @@
       </c>
       <c r="C99" s="10"/>
       <c r="E99" s="11">
-        <f t="shared" si="39"/>
-        <v>185926.41851967125</v>
+        <f t="shared" si="45"/>
+        <v>199641.42409015063</v>
       </c>
       <c r="F99" s="11">
-        <f t="shared" si="37"/>
-        <v>136.34366257756483</v>
+        <f t="shared" si="43"/>
+        <v>274.39595497155096</v>
       </c>
       <c r="G99" s="11">
-        <f t="shared" si="38"/>
-        <v>13.634366257755962</v>
+        <f t="shared" si="44"/>
+        <v>27.439595497169332</v>
       </c>
       <c r="I99" s="11"/>
     </row>
@@ -52007,16 +52404,16 @@
       </c>
       <c r="C100" s="10"/>
       <c r="E100" s="11">
-        <f t="shared" si="39"/>
-        <v>185938.26017087919</v>
+        <f t="shared" si="45"/>
+        <v>199665.51326011785</v>
       </c>
       <c r="F100" s="11">
-        <f t="shared" si="37"/>
-        <v>118.4165120794205</v>
+        <f t="shared" si="43"/>
+        <v>240.89169967221096</v>
       </c>
       <c r="G100" s="11">
-        <f t="shared" ref="G100:G117" si="40">$L$4*B100^$L$5*EXP(-B100/$L$6)</f>
-        <v>11.841651207933795</v>
+        <f t="shared" ref="G100:G117" si="46">$L$4*B100^$L$5*EXP(-B100/$L$6)</f>
+        <v>24.089169967225999</v>
       </c>
       <c r="I100" s="11"/>
     </row>
@@ -52029,16 +52426,16 @@
       </c>
       <c r="C101" s="10"/>
       <c r="E101" s="11">
-        <f t="shared" si="39"/>
-        <v>185948.53732846811</v>
+        <f t="shared" si="45"/>
+        <v>199686.64568866792</v>
       </c>
       <c r="F101" s="11">
-        <f t="shared" si="37"/>
-        <v>102.7715758892009</v>
+        <f t="shared" si="43"/>
+        <v>211.3242855007411</v>
       </c>
       <c r="G101" s="11">
-        <f t="shared" si="40"/>
-        <v>10.277157588933051</v>
+        <f t="shared" si="46"/>
+        <v>21.13242855006742</v>
       </c>
       <c r="I101" s="11"/>
     </row>
@@ -52051,16 +52448,16 @@
       </c>
       <c r="C102" s="10"/>
       <c r="E102" s="11">
-        <f t="shared" si="39"/>
-        <v>185957.45032161439</v>
+        <f t="shared" si="45"/>
+        <v>199705.17105429099</v>
       </c>
       <c r="F102" s="11">
-        <f t="shared" si="37"/>
-        <v>89.129931462812237</v>
+        <f t="shared" si="43"/>
+        <v>185.25365623063408</v>
       </c>
       <c r="G102" s="11">
-        <f t="shared" si="40"/>
-        <v>8.912993146281595</v>
+        <f t="shared" si="46"/>
+        <v>18.52536562305658</v>
       </c>
       <c r="I102" s="11"/>
     </row>
@@ -52073,16 +52470,16 @@
       </c>
       <c r="C103" s="10"/>
       <c r="E103" s="11">
-        <f t="shared" si="39"/>
-        <v>185965.17481681707</v>
+        <f t="shared" si="45"/>
+        <v>199721.39962027397</v>
       </c>
       <c r="F103" s="11">
-        <f t="shared" si="37"/>
-        <v>77.244952026812825</v>
+        <f t="shared" si="43"/>
+        <v>162.28565982979489</v>
       </c>
       <c r="G103" s="11">
-        <f t="shared" si="40"/>
-        <v>7.7244952026711147</v>
+        <f t="shared" si="46"/>
+        <v>16.228565982991068</v>
       </c>
       <c r="I103" s="11"/>
     </row>
@@ -52095,16 +52492,16 @@
       </c>
       <c r="C104" s="10"/>
       <c r="E104" s="11">
-        <f t="shared" si="39"/>
-        <v>185971.86470120304</v>
+        <f t="shared" si="45"/>
+        <v>199735.60639429733</v>
       </c>
       <c r="F104" s="11">
-        <f t="shared" si="37"/>
-        <v>66.898843859671615</v>
+        <f t="shared" si="43"/>
+        <v>142.06774023361504</v>
       </c>
       <c r="G104" s="11">
-        <f t="shared" si="40"/>
-        <v>6.6898843859594779</v>
+        <f t="shared" si="46"/>
+        <v>14.2067740233727</v>
       </c>
       <c r="I104" s="11"/>
     </row>
@@ -52117,16 +52514,16 @@
       </c>
       <c r="C105" s="10"/>
       <c r="E105" s="11">
-        <f t="shared" si="39"/>
-        <v>185977.65465238172</v>
+        <f t="shared" si="45"/>
+        <v>199748.03489050537</v>
       </c>
       <c r="F105" s="11">
-        <f t="shared" si="37"/>
-        <v>57.899511786818039</v>
+        <f t="shared" si="43"/>
+        <v>124.28496208041906</v>
       </c>
       <c r="G105" s="11">
-        <f t="shared" si="40"/>
-        <v>5.7899511786724895</v>
+        <f t="shared" si="46"/>
+        <v>12.428496208046182</v>
       </c>
       <c r="I105" s="11"/>
     </row>
@@ -52139,16 +52536,16 @@
       </c>
       <c r="C106" s="10"/>
       <c r="E106" s="11">
-        <f t="shared" si="39"/>
-        <v>185982.66242524743</v>
+        <f t="shared" si="45"/>
+        <v>199758.9005258875</v>
       </c>
       <c r="F106" s="11">
-        <f t="shared" si="37"/>
-        <v>50.077728657051921</v>
+        <f t="shared" si="43"/>
+        <v>108.65635382127948</v>
       </c>
       <c r="G106" s="11">
-        <f t="shared" si="40"/>
-        <v>5.0077728657018463</v>
+        <f t="shared" si="46"/>
+        <v>10.865635382138455</v>
       </c>
       <c r="I106" s="11"/>
     </row>
@@ -52161,16 +52558,16 @@
       </c>
       <c r="C107" s="10"/>
       <c r="E107" s="11">
-        <f t="shared" si="39"/>
-        <v>185986.99088376531</v>
+        <f t="shared" si="45"/>
+        <v>199768.39368121239</v>
       </c>
       <c r="F107" s="11">
-        <f t="shared" si="37"/>
-        <v>43.284585178771522</v>
+        <f t="shared" si="43"/>
+        <v>94.931553248898126</v>
       </c>
       <c r="G107" s="11">
-        <f t="shared" si="40"/>
-        <v>4.3284585178850659</v>
+        <f t="shared" si="46"/>
+        <v>9.4931553248816982</v>
       </c>
       <c r="I107" s="11"/>
     </row>
@@ -52183,16 +52580,16 @@
       </c>
       <c r="C108" s="10"/>
       <c r="E108" s="11">
-        <f t="shared" si="39"/>
-        <v>185990.72980349875</v>
+        <f t="shared" si="45"/>
+        <v>199776.68245507384</v>
       </c>
       <c r="F108" s="11">
-        <f t="shared" si="37"/>
-        <v>37.389197334414348</v>
+        <f t="shared" si="43"/>
+        <v>82.88773861451773</v>
       </c>
       <c r="G108" s="11">
-        <f t="shared" si="40"/>
-        <v>3.7389197334407256</v>
+        <f t="shared" si="46"/>
+        <v>8.2887738614413404</v>
       </c>
       <c r="I108" s="11"/>
     </row>
@@ -52205,16 +52602,16 @@
       </c>
       <c r="C109" s="10"/>
       <c r="E109" s="11">
-        <f t="shared" si="39"/>
-        <v>185993.95746845932</v>
+        <f t="shared" si="45"/>
+        <v>199783.9151378778</v>
       </c>
       <c r="F109" s="11">
-        <f t="shared" si="37"/>
-        <v>32.276649605773855</v>
+        <f t="shared" si="43"/>
+        <v>72.326828039658722</v>
       </c>
       <c r="G109" s="11">
-        <f t="shared" si="40"/>
-        <v>3.2276649605822967</v>
+        <f t="shared" si="46"/>
+        <v>7.2326828039770659</v>
       </c>
       <c r="I109" s="11"/>
     </row>
@@ -52227,16 +52624,16 @@
       </c>
       <c r="C110" s="10"/>
       <c r="E110" s="11">
-        <f t="shared" si="39"/>
-        <v>185996.74208379714</v>
+        <f t="shared" si="45"/>
+        <v>199790.22243085632</v>
       </c>
       <c r="F110" s="11">
-        <f t="shared" si="37"/>
-        <v>27.846153378195595</v>
+        <f t="shared" si="43"/>
+        <v>63.072929785121232</v>
       </c>
       <c r="G110" s="11">
-        <f t="shared" si="40"/>
-        <v>2.7846153378310685</v>
+        <f t="shared" si="46"/>
+        <v>6.3072929785238845</v>
       </c>
       <c r="I110" s="11"/>
     </row>
@@ -52249,16 +52646,16 @@
       </c>
       <c r="C111" s="10"/>
       <c r="E111" s="11">
-        <f t="shared" si="39"/>
-        <v>185999.14302390642</v>
+        <f t="shared" si="45"/>
+        <v>199795.71943346382</v>
       </c>
       <c r="F111" s="11">
-        <f t="shared" si="37"/>
-        <v>24.009401092771441</v>
+        <f t="shared" si="43"/>
+        <v>54.970026075025089</v>
       </c>
       <c r="G111" s="11">
-        <f t="shared" si="40"/>
-        <v>2.4009401092851506</v>
+        <f t="shared" si="46"/>
+        <v>5.4970026075113845</v>
       </c>
       <c r="I111" s="11"/>
     </row>
@@ -52271,16 +52668,16 @@
       </c>
       <c r="C112" s="10"/>
       <c r="E112" s="11">
-        <f t="shared" si="39"/>
-        <v>186001.21193370328</v>
+        <f t="shared" si="45"/>
+        <v>199800.50742081614</v>
       </c>
       <c r="F112" s="11">
-        <f t="shared" si="37"/>
-        <v>20.689097968570422</v>
+        <f t="shared" si="43"/>
+        <v>47.879873523197602</v>
       </c>
       <c r="G112" s="11">
-        <f t="shared" si="40"/>
-        <v>2.068909796855142</v>
+        <f t="shared" si="46"/>
+        <v>4.7879873523093357</v>
       </c>
       <c r="I112" s="11"/>
     </row>
@@ -52293,16 +52690,16 @@
       </c>
       <c r="C113" s="10"/>
       <c r="E113" s="11">
-        <f t="shared" si="39"/>
-        <v>186002.9936991407</v>
+        <f t="shared" si="45"/>
+        <v>199804.67543118747</v>
       </c>
       <c r="F113" s="11">
-        <f t="shared" si="37"/>
-        <v>17.817654374230187</v>
+        <f t="shared" si="43"/>
+        <v>41.680103713297285</v>
       </c>
       <c r="G113" s="11">
-        <f t="shared" si="40"/>
-        <v>1.7817654374085221</v>
+        <f t="shared" si="46"/>
+        <v>4.1680103713348027</v>
       </c>
       <c r="I113" s="11"/>
     </row>
@@ -52315,16 +52712,16 @@
       </c>
       <c r="C114" s="10"/>
       <c r="E114" s="11">
-        <f t="shared" si="39"/>
-        <v>186004.52730145832</v>
+        <f t="shared" si="45"/>
+        <v>199808.3016820004</v>
       </c>
       <c r="F114" s="11">
-        <f t="shared" si="37"/>
-        <v>15.336023176205344</v>
+        <f t="shared" si="43"/>
+        <v>36.262508129293565</v>
       </c>
       <c r="G114" s="11">
-        <f t="shared" si="40"/>
-        <v>1.5336023176222153</v>
+        <f t="shared" si="46"/>
+        <v>3.626250812924479</v>
       </c>
       <c r="I114" s="11"/>
     </row>
@@ -52337,16 +52734,16 @@
       </c>
       <c r="C115" s="10"/>
       <c r="E115" s="11">
-        <f t="shared" si="39"/>
-        <v>186005.84656821968</v>
+        <f t="shared" si="45"/>
+        <v>199811.45483123531</v>
       </c>
       <c r="F115" s="11">
-        <f t="shared" si="37"/>
-        <v>13.19266761362087</v>
+        <f t="shared" si="43"/>
+        <v>31.53149234916782</v>
       </c>
       <c r="G115" s="11">
-        <f t="shared" si="40"/>
-        <v>1.3192667613734452</v>
+        <f t="shared" si="46"/>
+        <v>3.1531492349231627</v>
       </c>
       <c r="I115" s="11"/>
     </row>
@@ -52356,16 +52753,16 @@
       </c>
       <c r="C116" s="10"/>
       <c r="E116" s="11">
-        <f t="shared" si="39"/>
-        <v>186006.98083286206</v>
+        <f t="shared" si="45"/>
+        <v>199814.1950997572</v>
       </c>
       <c r="F116" s="11">
-        <f t="shared" si="37"/>
-        <v>11.342646423727274</v>
+        <f t="shared" si="43"/>
+        <v>27.402685218839906</v>
       </c>
       <c r="G116" s="11">
-        <f t="shared" si="40"/>
-        <v>1.1342646423754064</v>
+        <f t="shared" si="46"/>
+        <v>2.7402685218860903</v>
       </c>
       <c r="I116" s="11"/>
     </row>
@@ -52375,16 +52772,16 @@
       </c>
       <c r="C117" s="10"/>
       <c r="E117" s="11">
-        <f t="shared" si="39"/>
-        <v>186007.95551326958</v>
+        <f t="shared" si="45"/>
+        <v>199816.57526871073</v>
       </c>
       <c r="F117" s="11">
-        <f t="shared" si="37"/>
-        <v>9.746804075257387</v>
+        <f t="shared" si="43"/>
+        <v>23.801689535321202</v>
       </c>
       <c r="G117" s="11">
-        <f t="shared" si="40"/>
-        <v>0.97468040751216489</v>
+        <f t="shared" si="46"/>
+        <v>2.3801689535436084</v>
       </c>
       <c r="I117" s="11"/>
     </row>
@@ -52647,8 +53044,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3411CC08-90D6-4E75-8CDF-ED4F8E7F7F94}">
   <dimension ref="A1:M96"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8:M10"/>
+    <sheetView topLeftCell="I22" workbookViewId="0">
+      <selection activeCell="C71" sqref="C71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -55222,21 +55619,38 @@
       <c r="B66" s="10">
         <v>63</v>
       </c>
-      <c r="C66" s="3"/>
+      <c r="C66" s="3">
+        <f>Dati!K62</f>
+        <v>25549</v>
+      </c>
+      <c r="D66">
+        <f t="shared" ref="D66" si="48">C66-C65</f>
+        <v>464</v>
+      </c>
+      <c r="E66">
+        <f t="shared" ref="E66" si="49">10*(C66-C65)</f>
+        <v>4640</v>
+      </c>
       <c r="F66" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="F66" si="50">F65+H66</f>
         <v>25003.131439860867</v>
       </c>
       <c r="G66" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="G66" si="51">(F66-F65)*10</f>
         <v>3647.858710092587</v>
       </c>
       <c r="H66" s="11">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="H66" si="52">$M$10*B66^$M$8*EXP(-B66/$M$9)</f>
         <v>364.78587100925876</v>
       </c>
-      <c r="I66" s="11"/>
-      <c r="J66" s="11"/>
+      <c r="I66" s="11">
+        <f t="shared" ref="I66" si="53">C66-F66</f>
+        <v>545.86856013913348</v>
+      </c>
+      <c r="J66" s="11">
+        <f t="shared" ref="J66" si="54">D66-H66</f>
+        <v>99.214128990741244</v>
+      </c>
       <c r="K66" s="11"/>
     </row>
     <row r="67" spans="1:11">
@@ -55383,11 +55797,11 @@
         <v>70</v>
       </c>
       <c r="F73" s="11">
-        <f t="shared" ref="F73:F96" si="48">F72+H73</f>
+        <f t="shared" ref="F73:F96" si="55">F72+H73</f>
         <v>27008.22771816458</v>
       </c>
       <c r="H73" s="11">
-        <f t="shared" ref="H73:H96" si="49">$M$10*B73^$M$8*EXP(-B73/$M$9)</f>
+        <f t="shared" ref="H73:H96" si="56">$M$10*B73^$M$8*EXP(-B73/$M$9)</f>
         <v>232.84976455952179</v>
       </c>
     </row>
@@ -55399,11 +55813,11 @@
         <v>71</v>
       </c>
       <c r="F74" s="11">
-        <f t="shared" si="48"/>
+        <f t="shared" si="55"/>
         <v>27225.292182007026</v>
       </c>
       <c r="H74" s="11">
-        <f t="shared" si="49"/>
+        <f t="shared" si="56"/>
         <v>217.06446384244543</v>
       </c>
     </row>
@@ -55415,11 +55829,11 @@
         <v>72</v>
       </c>
       <c r="F75" s="11">
-        <f t="shared" si="48"/>
+        <f t="shared" si="55"/>
         <v>27427.360641066847</v>
       </c>
       <c r="H75" s="11">
-        <f t="shared" si="49"/>
+        <f t="shared" si="56"/>
         <v>202.06845905982118</v>
       </c>
     </row>
@@ -55431,11 +55845,11 @@
         <v>73</v>
       </c>
       <c r="F76" s="11">
-        <f t="shared" si="48"/>
+        <f t="shared" si="55"/>
         <v>27615.215244144198</v>
       </c>
       <c r="H76" s="11">
-        <f t="shared" si="49"/>
+        <f t="shared" si="56"/>
         <v>187.85460307735039</v>
       </c>
     </row>
@@ -55447,11 +55861,11 @@
         <v>74</v>
       </c>
       <c r="F77" s="11">
-        <f t="shared" si="48"/>
+        <f t="shared" si="55"/>
         <v>27789.626546191383</v>
       </c>
       <c r="H77" s="11">
-        <f t="shared" si="49"/>
+        <f t="shared" si="56"/>
         <v>174.41130204718633</v>
       </c>
     </row>
@@ -55463,11 +55877,11 @@
         <v>75</v>
       </c>
       <c r="F78" s="11">
-        <f t="shared" si="48"/>
+        <f t="shared" si="55"/>
         <v>27951.349697630656</v>
       </c>
       <c r="H78" s="11">
-        <f t="shared" si="49"/>
+        <f t="shared" si="56"/>
         <v>161.72315143927253</v>
       </c>
     </row>
@@ -55479,11 +55893,11 @@
         <v>76</v>
       </c>
       <c r="F79" s="11">
-        <f t="shared" si="48"/>
+        <f t="shared" si="55"/>
         <v>28101.121226702533</v>
       </c>
       <c r="H79" s="11">
-        <f t="shared" si="49"/>
+        <f t="shared" si="56"/>
         <v>149.77152907187613</v>
       </c>
     </row>
@@ -55495,11 +55909,11 @@
         <v>77</v>
       </c>
       <c r="F80" s="11">
-        <f t="shared" si="48"/>
+        <f t="shared" si="55"/>
         <v>28239.656370458095</v>
       </c>
       <c r="H80" s="11">
-        <f t="shared" si="49"/>
+        <f t="shared" si="56"/>
         <v>138.53514375556026</v>
       </c>
     </row>
@@ -55511,11 +55925,11 @@
         <v>78</v>
       </c>
       <c r="F81" s="11">
-        <f t="shared" si="48"/>
+        <f t="shared" si="55"/>
         <v>28367.646909492556</v>
       </c>
       <c r="H81" s="11">
-        <f t="shared" si="49"/>
+        <f t="shared" si="56"/>
         <v>127.99053903446034</v>
       </c>
     </row>
@@ -55527,11 +55941,11 @@
         <v>79</v>
       </c>
       <c r="F82" s="11">
-        <f t="shared" si="48"/>
+        <f t="shared" si="55"/>
         <v>28485.759461734211</v>
       </c>
       <c r="H82" s="11">
-        <f t="shared" si="49"/>
+        <f t="shared" si="56"/>
         <v>118.11255224165615</v>
       </c>
     </row>
@@ -55543,11 +55957,11 @@
         <v>80</v>
       </c>
       <c r="F83" s="11">
-        <f t="shared" si="48"/>
+        <f t="shared" si="55"/>
         <v>28594.634191426718</v>
       </c>
       <c r="H83" s="11">
-        <f t="shared" si="49"/>
+        <f t="shared" si="56"/>
         <v>108.87472969250618</v>
       </c>
     </row>
@@ -55559,11 +55973,11 @@
         <v>81</v>
       </c>
       <c r="F84" s="11">
-        <f t="shared" si="48"/>
+        <f t="shared" si="55"/>
         <v>28694.883890759036</v>
       </c>
       <c r="H84" s="11">
-        <f t="shared" si="49"/>
+        <f t="shared" si="56"/>
         <v>100.24969933231937</v>
       </c>
     </row>
@@ -55575,11 +55989,11 @@
         <v>82</v>
       </c>
       <c r="F85" s="11">
-        <f t="shared" si="48"/>
+        <f t="shared" si="55"/>
         <v>28787.093393303217</v>
       </c>
       <c r="H85" s="11">
-        <f t="shared" si="49"/>
+        <f t="shared" si="56"/>
         <v>92.209502544182257</v>
       </c>
     </row>
@@ -55591,11 +56005,11 @@
         <v>83</v>
       </c>
       <c r="F86" s="11">
-        <f t="shared" si="48"/>
+        <f t="shared" si="55"/>
         <v>28871.819280423675</v>
       </c>
       <c r="H86" s="11">
-        <f t="shared" si="49"/>
+        <f t="shared" si="56"/>
         <v>84.725887120456335</v>
       </c>
     </row>
@@ -55607,11 +56021,11 @@
         <v>84</v>
       </c>
       <c r="F87" s="11">
-        <f t="shared" si="48"/>
+        <f t="shared" si="55"/>
         <v>28949.589844042126</v>
       </c>
       <c r="H87" s="11">
-        <f t="shared" si="49"/>
+        <f t="shared" si="56"/>
         <v>77.770563618451149</v>
       </c>
     </row>
@@ -55623,11 +56037,11 @@
         <v>85</v>
       </c>
       <c r="F88" s="11">
-        <f t="shared" si="48"/>
+        <f t="shared" si="55"/>
         <v>29020.905271509666</v>
       </c>
       <c r="H88" s="11">
-        <f t="shared" si="49"/>
+        <f t="shared" si="56"/>
         <v>71.315427467539166</v>
       </c>
     </row>
@@ -55639,11 +56053,11 @@
         <v>86</v>
       </c>
       <c r="F89" s="11">
-        <f t="shared" si="48"/>
+        <f t="shared" si="55"/>
         <v>29086.238020791076</v>
       </c>
       <c r="H89" s="11">
-        <f t="shared" si="49"/>
+        <f t="shared" si="56"/>
         <v>65.332749281407828</v>
       </c>
     </row>
@@ -55655,11 +56069,11 @@
         <v>87</v>
       </c>
       <c r="F90" s="11">
-        <f t="shared" si="48"/>
+        <f t="shared" si="55"/>
         <v>29146.033356655462</v>
       </c>
       <c r="H90" s="11">
-        <f t="shared" si="49"/>
+        <f t="shared" si="56"/>
         <v>59.79533586438717</v>
       </c>
     </row>
@@ -55671,11 +56085,11 @@
         <v>88</v>
       </c>
       <c r="F91" s="11">
-        <f t="shared" si="48"/>
+        <f t="shared" si="55"/>
         <v>29200.710021048744</v>
       </c>
       <c r="H91" s="11">
-        <f t="shared" si="49"/>
+        <f t="shared" si="56"/>
         <v>54.676664393282486</v>
       </c>
     </row>
@@ -55687,11 +56101,11 @@
         <v>89</v>
       </c>
       <c r="F92" s="11">
-        <f t="shared" si="48"/>
+        <f t="shared" si="55"/>
         <v>29250.661013262245</v>
       </c>
       <c r="H92" s="11">
-        <f t="shared" si="49"/>
+        <f t="shared" si="56"/>
         <v>49.950992213499575</v>
       </c>
     </row>
@@ -55703,11 +56117,11 @@
         <v>90</v>
       </c>
       <c r="F93" s="11">
-        <f t="shared" si="48"/>
+        <f t="shared" si="55"/>
         <v>29296.25445787959</v>
       </c>
       <c r="H93" s="11">
-        <f t="shared" si="49"/>
+        <f t="shared" si="56"/>
         <v>45.59344461734463</v>
       </c>
     </row>
@@ -55719,11 +56133,11 @@
         <v>91</v>
       </c>
       <c r="F94" s="11">
-        <f t="shared" si="48"/>
+        <f t="shared" si="55"/>
         <v>29337.834540758886</v>
       </c>
       <c r="H94" s="11">
-        <f t="shared" si="49"/>
+        <f t="shared" si="56"/>
         <v>41.580082879294729</v>
       </c>
     </row>
@@ -55735,11 +56149,11 @@
         <v>92</v>
       </c>
       <c r="F95" s="11">
-        <f t="shared" si="48"/>
+        <f t="shared" si="55"/>
         <v>29375.72249547203</v>
       </c>
       <c r="H95" s="11">
-        <f t="shared" si="49"/>
+        <f t="shared" si="56"/>
         <v>37.887954713143806</v>
       </c>
     </row>
@@ -55751,11 +56165,11 @@
         <v>93</v>
       </c>
       <c r="F96" s="11">
-        <f t="shared" si="48"/>
+        <f t="shared" si="55"/>
         <v>29410.217624665918</v>
       </c>
       <c r="H96" s="11">
-        <f t="shared" si="49"/>
+        <f t="shared" si="56"/>
         <v>34.495129193890243</v>
       </c>
     </row>
@@ -55772,10 +56186,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30D7BF3F-C6CA-4254-9A29-CA5235213070}">
-  <dimension ref="B1:C61"/>
+  <dimension ref="B1:C63"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="B61" sqref="B61"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="B63" sqref="B63:C63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -56374,6 +56788,19 @@
         <v>3370</v>
       </c>
     </row>
+    <row r="62" spans="2:3">
+      <c r="B62" s="3">
+        <f>Dati!L62</f>
+        <v>189973</v>
+      </c>
+      <c r="C62">
+        <f t="shared" ref="C62:C63" si="8">B62-B61</f>
+        <v>2646</v>
+      </c>
+    </row>
+    <row r="63" spans="2:3">
+      <c r="B63" s="3"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -56384,8 +56811,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8F548DB-9F96-454C-9C61-266B13C27D17}">
   <dimension ref="A1:AI94"/>
   <sheetViews>
-    <sheetView topLeftCell="G43" workbookViewId="0">
-      <selection activeCell="AI61" sqref="AI61"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="C62" sqref="C62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -56896,7 +57323,7 @@
       </c>
       <c r="AF8">
         <f>SUM(AD4:AD94)</f>
-        <v>9354.8999999999978</v>
+        <v>9487.1999999999971</v>
       </c>
     </row>
     <row r="9" spans="1:35">
@@ -60017,7 +60444,7 @@
         <f t="shared" si="8"/>
         <v>43471.200000000004</v>
       </c>
-      <c r="Z49" s="28">
+      <c r="Z49" s="11">
         <f t="shared" si="6"/>
         <v>55077.200000000004</v>
       </c>
@@ -60094,7 +60521,7 @@
         <f t="shared" si="8"/>
         <v>45786.650000000009</v>
       </c>
-      <c r="Z50" s="11">
+      <c r="Z50" s="28">
         <f t="shared" si="6"/>
         <v>58852.650000000009</v>
       </c>
@@ -60947,13 +61374,11 @@
         <f>Y61-E61+F61</f>
         <v>106059.65000000002</v>
       </c>
-      <c r="AA61" s="25">
+      <c r="AA61" s="11">
         <f t="shared" ref="AA61" si="41">F61-F60+AA60</f>
         <v>54542</v>
       </c>
-      <c r="AB61" s="29">
-        <v>13</v>
-      </c>
+      <c r="AB61" s="11"/>
       <c r="AC61" s="5">
         <f t="shared" ref="AC61" si="42">(E61-E60+F61-F60+X61)/D61</f>
         <v>5.000000000000001E-2</v>
@@ -60974,11 +61399,77 @@
       <c r="B62" s="3">
         <v>60</v>
       </c>
+      <c r="C62" s="3">
+        <f>Dati!L62</f>
+        <v>189973</v>
+      </c>
+      <c r="D62" s="3">
+        <f>Dati!G62</f>
+        <v>106848</v>
+      </c>
+      <c r="E62" s="3">
+        <f>Dati!K62</f>
+        <v>25549</v>
+      </c>
+      <c r="F62" s="3">
+        <f>Dati!J62</f>
+        <v>57576</v>
+      </c>
+      <c r="G62" s="18">
+        <f t="shared" ref="G62" si="43">C62/(E62+F62)</f>
+        <v>2.2853894736842104</v>
+      </c>
       <c r="H62" s="22">
-        <f t="shared" si="12"/>
+        <f t="shared" ref="H62" si="44">$M$3*EXP($M$4*B62)</f>
         <v>2.1140067765351049</v>
       </c>
-      <c r="J62" s="22"/>
+      <c r="I62" s="22">
+        <f t="shared" ref="I62" si="45">G62-H62</f>
+        <v>0.17138269714910548</v>
+      </c>
+      <c r="J62" s="22">
+        <f t="shared" ref="J62" si="46">(C62-C61)/(E62-E61+F62-F61)</f>
+        <v>0.75664855590506153</v>
+      </c>
+      <c r="V62">
+        <f>Quarantena!B62</f>
+        <v>81710</v>
+      </c>
+      <c r="W62" s="26">
+        <f>(E62+F62-E61-F61)/(D62)</f>
+        <v>3.2728736148547467E-2</v>
+      </c>
+      <c r="X62" s="11">
+        <f t="shared" ref="X62" si="47">$AG$5*(D62)-(F62-F61+E62-E61)</f>
+        <v>1845.4000000000005</v>
+      </c>
+      <c r="Y62" s="11">
+        <f t="shared" ref="Y62" si="48">Y61+X62</f>
+        <v>78447.050000000017</v>
+      </c>
+      <c r="Z62" s="11">
+        <f>Y62-E62+F62</f>
+        <v>110474.05000000002</v>
+      </c>
+      <c r="AA62" s="25">
+        <f t="shared" ref="AA62" si="49">F62-F61+AA61</f>
+        <v>57575</v>
+      </c>
+      <c r="AB62" s="29">
+        <v>13</v>
+      </c>
+      <c r="AC62" s="5">
+        <f t="shared" ref="AC62" si="50">(E62-E61+F62-F61+X62)/D62</f>
+        <v>0.05</v>
+      </c>
+      <c r="AD62">
+        <f>'Nuovi positivi'!C62*$AG$5</f>
+        <v>132.30000000000001</v>
+      </c>
+      <c r="AI62" s="11">
+        <f t="shared" ref="AI62" si="51">Y62+$AF$60</f>
+        <v>71947.050000000017</v>
+      </c>
     </row>
     <row r="63" spans="1:35">
       <c r="A63" s="2">
@@ -61053,7 +61544,7 @@
         <v>66</v>
       </c>
       <c r="H68" s="22">
-        <f t="shared" ref="H68:H76" si="43">$M$3*EXP($M$4*B68)</f>
+        <f t="shared" ref="H68:H76" si="52">$M$3*EXP($M$4*B68)</f>
         <v>1.8097434465504716</v>
       </c>
       <c r="J68" s="22"/>
@@ -61066,7 +61557,7 @@
         <v>67</v>
       </c>
       <c r="H69" s="22">
-        <f t="shared" si="43"/>
+        <f t="shared" si="52"/>
         <v>1.7634728816346936</v>
       </c>
       <c r="J69" s="22"/>
@@ -61079,7 +61570,7 @@
         <v>68</v>
       </c>
       <c r="H70" s="22">
-        <f t="shared" si="43"/>
+        <f t="shared" si="52"/>
         <v>1.7183853380923078</v>
       </c>
       <c r="J70" s="22"/>
@@ -61092,7 +61583,7 @@
         <v>69</v>
       </c>
       <c r="H71" s="22">
-        <f t="shared" si="43"/>
+        <f t="shared" si="52"/>
         <v>1.6744505690574616</v>
       </c>
       <c r="J71" s="22"/>
@@ -61105,7 +61596,7 @@
         <v>70</v>
       </c>
       <c r="H72" s="22">
-        <f t="shared" si="43"/>
+        <f t="shared" si="52"/>
         <v>1.6316391010001996</v>
       </c>
       <c r="J72" s="22"/>
@@ -61118,7 +61609,7 @@
         <v>71</v>
       </c>
       <c r="H73" s="22">
-        <f t="shared" si="43"/>
+        <f t="shared" si="52"/>
         <v>1.589922213954218</v>
       </c>
       <c r="J73" s="22"/>
@@ -61131,7 +61622,7 @@
         <v>72</v>
       </c>
       <c r="H74" s="22">
-        <f t="shared" si="43"/>
+        <f t="shared" si="52"/>
         <v>1.5492719222501479</v>
       </c>
       <c r="J74" s="22"/>
@@ -61144,7 +61635,7 @@
         <v>73</v>
       </c>
       <c r="H75" s="22">
-        <f t="shared" si="43"/>
+        <f t="shared" si="52"/>
         <v>1.5096609557414378</v>
       </c>
       <c r="J75" s="22"/>
@@ -61157,7 +61648,7 @@
         <v>74</v>
       </c>
       <c r="H76" s="22">
-        <f t="shared" si="43"/>
+        <f t="shared" si="52"/>
         <v>1.4710627415102469</v>
       </c>
       <c r="J76" s="22"/>
@@ -61170,7 +61661,7 @@
         <v>75</v>
       </c>
       <c r="H77" s="22">
-        <f t="shared" ref="H77:H94" si="44">$M$3*EXP($M$4*B77)</f>
+        <f t="shared" ref="H77:H94" si="53">$M$3*EXP($M$4*B77)</f>
         <v>1.4334513860410647</v>
       </c>
       <c r="J77" s="22"/>
@@ -61183,7 +61674,7 @@
         <v>76</v>
       </c>
       <c r="H78" s="22">
-        <f t="shared" si="44"/>
+        <f t="shared" si="53"/>
         <v>1.3968016578501163</v>
       </c>
       <c r="J78" s="22"/>
@@ -61196,7 +61687,7 @@
         <v>77</v>
       </c>
       <c r="H79" s="22">
-        <f t="shared" si="44"/>
+        <f t="shared" si="53"/>
         <v>1.3610889705588805</v>
       </c>
       <c r="J79" s="22"/>
@@ -61209,7 +61700,7 @@
         <v>78</v>
       </c>
       <c r="H80" s="22">
-        <f t="shared" si="44"/>
+        <f t="shared" si="53"/>
         <v>1.3262893664003814</v>
       </c>
       <c r="J80" s="22"/>
@@ -61222,7 +61713,7 @@
         <v>79</v>
       </c>
       <c r="H81" s="22">
-        <f t="shared" si="44"/>
+        <f t="shared" si="53"/>
         <v>1.2923795001471794</v>
       </c>
       <c r="J81" s="22"/>
@@ -61235,7 +61726,7 @@
         <v>80</v>
       </c>
       <c r="H82" s="22">
-        <f t="shared" si="44"/>
+        <f t="shared" si="53"/>
         <v>1.2593366234502845</v>
       </c>
       <c r="J82" s="22"/>
@@ -61248,7 +61739,7 @@
         <v>81</v>
       </c>
       <c r="H83" s="22">
-        <f t="shared" si="44"/>
+        <f t="shared" si="53"/>
         <v>1.2271385695784822</v>
       </c>
       <c r="J83" s="22"/>
@@ -61261,7 +61752,7 @@
         <v>82</v>
       </c>
       <c r="H84" s="22">
-        <f t="shared" si="44"/>
+        <f t="shared" si="53"/>
         <v>1.1957637385478384</v>
       </c>
       <c r="J84" s="22"/>
@@ -61274,7 +61765,7 @@
         <v>83</v>
       </c>
       <c r="H85" s="22">
-        <f t="shared" si="44"/>
+        <f t="shared" si="53"/>
         <v>1.1651910826314031</v>
       </c>
       <c r="J85" s="22"/>
@@ -61287,7 +61778,7 @@
         <v>84</v>
       </c>
       <c r="H86" s="22">
-        <f t="shared" si="44"/>
+        <f t="shared" si="53"/>
         <v>1.135400092239397</v>
       </c>
       <c r="J86" s="22"/>
@@ -61300,7 +61791,7 @@
         <v>85</v>
       </c>
       <c r="H87" s="22">
-        <f t="shared" si="44"/>
+        <f t="shared" si="53"/>
         <v>1.1063707821604016</v>
       </c>
       <c r="J87" s="22"/>
@@ -61313,7 +61804,7 @@
         <v>86</v>
       </c>
       <c r="H88" s="22">
-        <f t="shared" si="44"/>
+        <f t="shared" si="53"/>
         <v>1.0780836781543337</v>
       </c>
       <c r="J88" s="22"/>
@@ -61326,7 +61817,7 @@
         <v>87</v>
       </c>
       <c r="H89" s="22">
-        <f t="shared" si="44"/>
+        <f t="shared" si="53"/>
         <v>1.0505198038881975</v>
       </c>
       <c r="J89" s="22"/>
@@ -61339,7 +61830,7 @@
         <v>88</v>
       </c>
       <c r="H90" s="22">
-        <f t="shared" si="44"/>
+        <f t="shared" si="53"/>
         <v>1.0236606682058604</v>
       </c>
       <c r="J90" s="22"/>
@@ -61352,7 +61843,7 @@
         <v>89</v>
       </c>
       <c r="H91" s="22">
-        <f t="shared" si="44"/>
+        <f t="shared" si="53"/>
         <v>0.99748825272330655</v>
       </c>
       <c r="J91" s="22"/>
@@ -61365,7 +61856,7 @@
         <v>90</v>
       </c>
       <c r="H92" s="22">
-        <f t="shared" si="44"/>
+        <f t="shared" si="53"/>
         <v>0.97198499974104879</v>
       </c>
       <c r="J92" s="22"/>
@@ -61378,7 +61869,7 @@
         <v>91</v>
       </c>
       <c r="H93" s="22">
-        <f t="shared" si="44"/>
+        <f t="shared" si="53"/>
         <v>0.94713380046559037</v>
       </c>
       <c r="J93" s="22"/>
@@ -61391,7 +61882,7 @@
         <v>92</v>
       </c>
       <c r="H94" s="22">
-        <f t="shared" si="44"/>
+        <f t="shared" si="53"/>
         <v>0.92291798353203336</v>
       </c>
       <c r="J94" s="22"/>
@@ -61408,8 +61899,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D4EC047-CF5D-484E-A7B7-CAA26D9EDB17}">
   <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -61420,19 +61911,19 @@
     <col min="8" max="9" width="9.8984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" s="30" t="s">
+    <row r="1" spans="1:9">
+      <c r="A1" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="30"/>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="G4" s="31" t="s">
+      <c r="B1" s="31"/>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="G4" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="H4" s="31"/>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="H4" s="30"/>
+    </row>
+    <row r="6" spans="1:9">
       <c r="B6" s="16">
         <v>43918</v>
       </c>
@@ -61443,7 +61934,7 @@
         <v>43932</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:9">
       <c r="A7" s="4" t="s">
         <v>23</v>
       </c>
@@ -61459,8 +61950,11 @@
       <c r="H7" s="16">
         <v>43934</v>
       </c>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="I7" s="16">
+        <v>43944</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="4" t="s">
         <v>24</v>
       </c>
@@ -61479,8 +61973,11 @@
       <c r="H8" s="9">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="I8" s="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="4" t="s">
         <v>25</v>
       </c>
@@ -61499,22 +61996,29 @@
       <c r="H9" s="9">
         <v>4.7</v>
       </c>
-    </row>
-    <row r="10" spans="1:8">
+      <c r="I9" s="9">
+        <v>4.95</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="G10" s="4" t="s">
         <v>52</v>
       </c>
       <c r="H10" s="9">
         <v>1.55E-4</v>
       </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="30" t="s">
+      <c r="I10" s="17">
+        <f>0.00011</f>
+        <v>1.1E-4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="B12" s="30"/>
-    </row>
-    <row r="15" spans="1:8">
+      <c r="B12" s="31"/>
+    </row>
+    <row r="15" spans="1:9">
       <c r="G15" t="s">
         <v>35</v>
       </c>
@@ -61618,10 +62122,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E61"/>
+  <dimension ref="A1:E62"/>
   <sheetViews>
     <sheetView topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="A61" sqref="A61"/>
+      <selection activeCell="A62" sqref="A62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -62863,6 +63367,27 @@
         <v>168</v>
       </c>
     </row>
+    <row r="62" spans="1:5">
+      <c r="A62" s="2">
+        <v>43944</v>
+      </c>
+      <c r="B62" s="3">
+        <f>Dati!L62</f>
+        <v>189973</v>
+      </c>
+      <c r="C62">
+        <f t="shared" ref="C62" si="78">B62-B61</f>
+        <v>2646</v>
+      </c>
+      <c r="D62">
+        <f t="shared" ref="D62" si="79">C62-C61</f>
+        <v>-724</v>
+      </c>
+      <c r="E62">
+        <f t="shared" ref="E62" si="80">D62-D61</f>
+        <v>-1365</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0.39370078740157505" bottom="0.39370078740157505" header="0" footer="0"/>
   <headerFooter>
@@ -62875,10 +63400,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:E61"/>
+  <dimension ref="A1:E62"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="A61" sqref="A61"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="A62" sqref="A62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -64120,6 +64645,27 @@
         <v>55</v>
       </c>
     </row>
+    <row r="62" spans="1:5">
+      <c r="A62" s="2">
+        <v>43944</v>
+      </c>
+      <c r="B62" s="3">
+        <f>Dati!D62</f>
+        <v>2267</v>
+      </c>
+      <c r="C62">
+        <f t="shared" ref="C62" si="78">B62-B61</f>
+        <v>-117</v>
+      </c>
+      <c r="D62">
+        <f t="shared" ref="D62" si="79">C62-C61</f>
+        <v>-30</v>
+      </c>
+      <c r="E62">
+        <f t="shared" ref="E62" si="80">D62-D61</f>
+        <v>-45</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.70000000000000007" right="0.70000000000000007" top="0.75" bottom="0.75" header="0.30000000000000004" footer="0.30000000000000004"/>
   <drawing r:id="rId1"/>
@@ -64128,10 +64674,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:E61"/>
+  <dimension ref="A1:E62"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="A61" sqref="A61"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="A62" sqref="A62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -65374,6 +65920,27 @@
         <v>-681</v>
       </c>
     </row>
+    <row r="62" spans="1:5">
+      <c r="A62" s="2">
+        <v>43944</v>
+      </c>
+      <c r="B62" s="3">
+        <f>Dati!J62</f>
+        <v>57576</v>
+      </c>
+      <c r="C62">
+        <f t="shared" ref="C62" si="78">B62-B61</f>
+        <v>3033</v>
+      </c>
+      <c r="D62">
+        <f t="shared" ref="D62" si="79">C62-C61</f>
+        <v>90</v>
+      </c>
+      <c r="E62">
+        <f t="shared" ref="E62" si="80">D62-D61</f>
+        <v>-130</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0.39370078740157505" bottom="0.39370078740157505" header="0" footer="0"/>
   <headerFooter>
@@ -65386,10 +65953,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:E61"/>
+  <dimension ref="A1:E62"/>
   <sheetViews>
     <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="A61" sqref="A61"/>
+      <selection activeCell="A62" sqref="A62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -66632,6 +67199,27 @@
         <v>-177</v>
       </c>
     </row>
+    <row r="62" spans="1:5">
+      <c r="A62" s="2">
+        <v>43944</v>
+      </c>
+      <c r="B62" s="3">
+        <f>Dati!K62</f>
+        <v>25549</v>
+      </c>
+      <c r="C62">
+        <f t="shared" ref="C62" si="78">B62-B61</f>
+        <v>464</v>
+      </c>
+      <c r="D62">
+        <f t="shared" ref="D62" si="79">C62-C61</f>
+        <v>27</v>
+      </c>
+      <c r="E62">
+        <f t="shared" ref="E62" si="80">D62-D61</f>
+        <v>124</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0.39370078740157505" bottom="0.39370078740157505" header="0" footer="0"/>
   <headerFooter>
@@ -66644,10 +67232,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:E61"/>
+  <dimension ref="A1:E62"/>
   <sheetViews>
     <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="A61" sqref="A61"/>
+      <selection activeCell="A62" sqref="A62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -67890,6 +68478,27 @@
         <v>1143</v>
       </c>
     </row>
+    <row r="62" spans="1:5">
+      <c r="A62" s="2">
+        <v>43944</v>
+      </c>
+      <c r="B62" s="3">
+        <f>Dati!E62</f>
+        <v>25138</v>
+      </c>
+      <c r="C62">
+        <f t="shared" ref="C62" si="78">B62-B61</f>
+        <v>-1051</v>
+      </c>
+      <c r="D62">
+        <f t="shared" ref="D62" si="79">C62-C61</f>
+        <v>-635</v>
+      </c>
+      <c r="E62">
+        <f t="shared" ref="E62" si="80">D62-D61</f>
+        <v>-1093</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0.39370078740157505" bottom="0.39370078740157505" header="0" footer="0"/>
   <headerFooter>
@@ -67902,10 +68511,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:E61"/>
+  <dimension ref="A1:E62"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="A61" sqref="A61"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="A62" sqref="A62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -69149,6 +69758,27 @@
         <v>1026</v>
       </c>
     </row>
+    <row r="62" spans="1:5">
+      <c r="A62" s="2">
+        <v>43944</v>
+      </c>
+      <c r="B62" s="3">
+        <f>Dati!G62</f>
+        <v>106848</v>
+      </c>
+      <c r="C62">
+        <f t="shared" ref="C62" si="78">B62-B61</f>
+        <v>-851</v>
+      </c>
+      <c r="D62">
+        <f t="shared" ref="D62" si="79">C62-C61</f>
+        <v>-841</v>
+      </c>
+      <c r="E62">
+        <f t="shared" ref="E62" si="80">D62-D61</f>
+        <v>-1359</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0.39370078740157505" bottom="0.39370078740157505" header="0" footer="0"/>
   <headerFooter>
@@ -69161,10 +69791,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:E61"/>
+  <dimension ref="A1:E62"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="A62" sqref="A62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -70405,6 +71035,27 @@
       <c r="E61">
         <f t="shared" ref="E61" si="77">D61-D60</f>
         <v>-117</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" s="2">
+        <v>43944</v>
+      </c>
+      <c r="B62" s="3">
+        <f>Dati!F62</f>
+        <v>81710</v>
+      </c>
+      <c r="C62">
+        <f t="shared" ref="C62" si="78">B62-B61</f>
+        <v>200</v>
+      </c>
+      <c r="D62">
+        <f t="shared" ref="D62" si="79">C62-C61</f>
+        <v>-206</v>
+      </c>
+      <c r="E62">
+        <f t="shared" ref="E62" si="80">D62-D61</f>
+        <v>-266</v>
       </c>
     </row>
   </sheetData>
@@ -70421,8 +71072,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E61028E5-3D36-450B-900F-9946A6AEA4D8}">
   <dimension ref="A1:D62"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="A61" sqref="A61"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="A62" sqref="A62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -71437,7 +72088,21 @@
       </c>
     </row>
     <row r="62" spans="1:4">
-      <c r="A62" s="2"/>
+      <c r="A62" s="2">
+        <v>43944</v>
+      </c>
+      <c r="B62">
+        <f>Positivi!B62+Deceduti!B62+Guariti!B62</f>
+        <v>189973</v>
+      </c>
+      <c r="C62">
+        <f t="shared" ref="C62" si="21">B62-B61</f>
+        <v>2646</v>
+      </c>
+      <c r="D62">
+        <f t="shared" ref="D62" si="22">C62-C61</f>
+        <v>-724</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
